--- a/Hungary NB III/Hungary NB III.xlsx
+++ b/Hungary NB III/Hungary NB III.xlsx
@@ -22224,7 +22224,7 @@
         <v>241</v>
       </c>
       <c r="B243">
-        <v>7519599</v>
+        <v>7519596</v>
       </c>
       <c r="C243" t="s">
         <v>28</v>
@@ -22236,76 +22236,76 @@
         <v>45256.375</v>
       </c>
       <c r="F243" t="s">
-        <v>73</v>
+        <v>41</v>
       </c>
       <c r="G243" t="s">
-        <v>79</v>
+        <v>50</v>
       </c>
       <c r="H243">
         <v>1</v>
       </c>
       <c r="I243">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J243" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="K243">
-        <v>2.8</v>
+        <v>1.666</v>
       </c>
       <c r="L243">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="M243">
-        <v>2.3</v>
+        <v>4.333</v>
       </c>
       <c r="N243">
-        <v>3.5</v>
+        <v>1.571</v>
       </c>
       <c r="O243">
-        <v>3.3</v>
+        <v>3.8</v>
       </c>
       <c r="P243">
-        <v>1.909</v>
+        <v>4.75</v>
       </c>
       <c r="Q243">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="R243">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="S243">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="T243">
         <v>3.25</v>
       </c>
       <c r="U243">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="V243">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="W243">
         <v>-1</v>
       </c>
       <c r="X243">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Y243">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="Z243">
         <v>-1</v>
       </c>
       <c r="AA243">
-        <v>1</v>
+        <v>0.825</v>
       </c>
       <c r="AB243">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC243">
-        <v>0.4625</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="244" spans="1:29">
@@ -22313,7 +22313,7 @@
         <v>242</v>
       </c>
       <c r="B244">
-        <v>7519596</v>
+        <v>7519599</v>
       </c>
       <c r="C244" t="s">
         <v>28</v>
@@ -22325,76 +22325,76 @@
         <v>45256.375</v>
       </c>
       <c r="F244" t="s">
-        <v>41</v>
+        <v>73</v>
       </c>
       <c r="G244" t="s">
-        <v>50</v>
+        <v>79</v>
       </c>
       <c r="H244">
         <v>1</v>
       </c>
       <c r="I244">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J244" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="K244">
-        <v>1.666</v>
+        <v>2.8</v>
       </c>
       <c r="L244">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="M244">
-        <v>4.333</v>
+        <v>2.3</v>
       </c>
       <c r="N244">
-        <v>1.571</v>
+        <v>3.5</v>
       </c>
       <c r="O244">
-        <v>3.8</v>
+        <v>3.3</v>
       </c>
       <c r="P244">
-        <v>4.75</v>
+        <v>1.909</v>
       </c>
       <c r="Q244">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="R244">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="S244">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="T244">
         <v>3.25</v>
       </c>
       <c r="U244">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="V244">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="W244">
         <v>-1</v>
       </c>
       <c r="X244">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Y244">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="Z244">
         <v>-1</v>
       </c>
       <c r="AA244">
-        <v>0.825</v>
+        <v>1</v>
       </c>
       <c r="AB244">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC244">
-        <v>0.8999999999999999</v>
+        <v>0.4625</v>
       </c>
     </row>
     <row r="245" spans="1:29">
@@ -22936,7 +22936,7 @@
         <v>249</v>
       </c>
       <c r="B251">
-        <v>7907179</v>
+        <v>7907180</v>
       </c>
       <c r="C251" t="s">
         <v>28</v>
@@ -22948,55 +22948,55 @@
         <v>45354.29166666666</v>
       </c>
       <c r="F251" t="s">
-        <v>83</v>
+        <v>51</v>
       </c>
       <c r="G251" t="s">
-        <v>34</v>
+        <v>67</v>
       </c>
       <c r="H251">
         <v>0</v>
       </c>
       <c r="I251">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J251" t="s">
         <v>98</v>
       </c>
       <c r="K251">
-        <v>2.25</v>
+        <v>2.4</v>
       </c>
       <c r="L251">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M251">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="N251">
-        <v>2.05</v>
+        <v>2.4</v>
       </c>
       <c r="O251">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="P251">
-        <v>2.8</v>
+        <v>2.4</v>
       </c>
       <c r="Q251">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R251">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="S251">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="T251">
         <v>3</v>
       </c>
       <c r="U251">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="V251">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="W251">
         <v>-1</v>
@@ -23005,19 +23005,19 @@
         <v>-1</v>
       </c>
       <c r="Y251">
-        <v>1.8</v>
+        <v>1.4</v>
       </c>
       <c r="Z251">
         <v>-1</v>
       </c>
       <c r="AA251">
-        <v>0.925</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB251">
         <v>-1</v>
       </c>
       <c r="AC251">
-        <v>0.8</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="252" spans="1:29">
@@ -23025,7 +23025,7 @@
         <v>250</v>
       </c>
       <c r="B252">
-        <v>7907180</v>
+        <v>7907179</v>
       </c>
       <c r="C252" t="s">
         <v>28</v>
@@ -23037,55 +23037,55 @@
         <v>45354.29166666666</v>
       </c>
       <c r="F252" t="s">
-        <v>51</v>
+        <v>83</v>
       </c>
       <c r="G252" t="s">
-        <v>67</v>
+        <v>34</v>
       </c>
       <c r="H252">
         <v>0</v>
       </c>
       <c r="I252">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J252" t="s">
         <v>98</v>
       </c>
       <c r="K252">
-        <v>2.4</v>
+        <v>2.25</v>
       </c>
       <c r="L252">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M252">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="N252">
-        <v>2.4</v>
+        <v>2.05</v>
       </c>
       <c r="O252">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="P252">
-        <v>2.4</v>
+        <v>2.8</v>
       </c>
       <c r="Q252">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R252">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="S252">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="T252">
         <v>3</v>
       </c>
       <c r="U252">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="V252">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="W252">
         <v>-1</v>
@@ -23094,19 +23094,19 @@
         <v>-1</v>
       </c>
       <c r="Y252">
-        <v>1.4</v>
+        <v>1.8</v>
       </c>
       <c r="Z252">
         <v>-1</v>
       </c>
       <c r="AA252">
-        <v>0.8999999999999999</v>
+        <v>0.925</v>
       </c>
       <c r="AB252">
         <v>-1</v>
       </c>
       <c r="AC252">
-        <v>0.8999999999999999</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="253" spans="1:29">
@@ -24627,7 +24627,7 @@
         <v>268</v>
       </c>
       <c r="B270">
-        <v>7939233</v>
+        <v>7939238</v>
       </c>
       <c r="C270" t="s">
         <v>28</v>
@@ -24639,76 +24639,76 @@
         <v>45361.41666666666</v>
       </c>
       <c r="F270" t="s">
-        <v>41</v>
+        <v>61</v>
       </c>
       <c r="G270" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="H270">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I270">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J270" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="K270">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="L270">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M270">
-        <v>3.1</v>
+        <v>2.6</v>
       </c>
       <c r="N270">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="O270">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="P270">
-        <v>3.1</v>
+        <v>2.55</v>
       </c>
       <c r="Q270">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R270">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="S270">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="T270">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U270">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="V270">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="W270">
         <v>-1</v>
       </c>
       <c r="X270">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y270">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Z270">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA270">
-        <v>1</v>
+        <v>-0</v>
       </c>
       <c r="AB270">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC270">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="271" spans="1:29">
@@ -24716,7 +24716,7 @@
         <v>269</v>
       </c>
       <c r="B271">
-        <v>7939234</v>
+        <v>7939233</v>
       </c>
       <c r="C271" t="s">
         <v>28</v>
@@ -24728,40 +24728,40 @@
         <v>45361.41666666666</v>
       </c>
       <c r="F271" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G271" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="H271">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I271">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J271" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="K271">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="L271">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="M271">
-        <v>5</v>
+        <v>3.1</v>
       </c>
       <c r="N271">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="O271">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="P271">
-        <v>5</v>
+        <v>3.1</v>
       </c>
       <c r="Q271">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="R271">
         <v>1.8</v>
@@ -24770,31 +24770,31 @@
         <v>2</v>
       </c>
       <c r="T271">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U271">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="V271">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W271">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="X271">
         <v>-1</v>
       </c>
       <c r="Y271">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Z271">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA271">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB271">
-        <v>0.95</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC271">
         <v>-1</v>
@@ -24805,7 +24805,7 @@
         <v>270</v>
       </c>
       <c r="B272">
-        <v>7939235</v>
+        <v>7939234</v>
       </c>
       <c r="C272" t="s">
         <v>28</v>
@@ -24817,13 +24817,13 @@
         <v>45361.41666666666</v>
       </c>
       <c r="F272" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="G272" t="s">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="H272">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I272">
         <v>1</v>
@@ -24832,43 +24832,43 @@
         <v>99</v>
       </c>
       <c r="K272">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="L272">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="M272">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="N272">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="O272">
-        <v>4.75</v>
+        <v>4</v>
       </c>
       <c r="P272">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="Q272">
-        <v>-1.5</v>
+        <v>-1</v>
       </c>
       <c r="R272">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="S272">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="T272">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="U272">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="V272">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="W272">
-        <v>0.3999999999999999</v>
+        <v>0.5</v>
       </c>
       <c r="X272">
         <v>-1</v>
@@ -24877,16 +24877,16 @@
         <v>-1</v>
       </c>
       <c r="Z272">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA272">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB272">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC272">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="273" spans="1:29">
@@ -24894,7 +24894,7 @@
         <v>271</v>
       </c>
       <c r="B273">
-        <v>7939236</v>
+        <v>7939235</v>
       </c>
       <c r="C273" t="s">
         <v>28</v>
@@ -24906,58 +24906,58 @@
         <v>45361.41666666666</v>
       </c>
       <c r="F273" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="G273" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="H273">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I273">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J273" t="s">
         <v>99</v>
       </c>
       <c r="K273">
-        <v>2.25</v>
+        <v>1.4</v>
       </c>
       <c r="L273">
-        <v>3.75</v>
+        <v>4.5</v>
       </c>
       <c r="M273">
-        <v>2.5</v>
+        <v>5.5</v>
       </c>
       <c r="N273">
-        <v>2.25</v>
+        <v>1.4</v>
       </c>
       <c r="O273">
-        <v>3.75</v>
+        <v>4.75</v>
       </c>
       <c r="P273">
-        <v>2.5</v>
+        <v>5.5</v>
       </c>
       <c r="Q273">
-        <v>0</v>
+        <v>-1.5</v>
       </c>
       <c r="R273">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="S273">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="T273">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="U273">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="V273">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="W273">
-        <v>1.25</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X273">
         <v>-1</v>
@@ -24966,16 +24966,16 @@
         <v>-1</v>
       </c>
       <c r="Z273">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA273">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB273">
         <v>-1</v>
       </c>
       <c r="AC273">
-        <v>0.9750000000000001</v>
+        <v>0.7749999999999999</v>
       </c>
     </row>
     <row r="274" spans="1:29">
@@ -24983,7 +24983,7 @@
         <v>272</v>
       </c>
       <c r="B274">
-        <v>7939238</v>
+        <v>7939236</v>
       </c>
       <c r="C274" t="s">
         <v>28</v>
@@ -24995,76 +24995,76 @@
         <v>45361.41666666666</v>
       </c>
       <c r="F274" t="s">
-        <v>61</v>
+        <v>42</v>
       </c>
       <c r="G274" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H274">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I274">
         <v>0</v>
       </c>
       <c r="J274" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="K274">
         <v>2.25</v>
       </c>
       <c r="L274">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="M274">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="N274">
         <v>2.25</v>
       </c>
       <c r="O274">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="P274">
-        <v>2.55</v>
+        <v>2.5</v>
       </c>
       <c r="Q274">
         <v>0</v>
       </c>
       <c r="R274">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="S274">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="T274">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U274">
+        <v>1.825</v>
+      </c>
+      <c r="V274">
         <v>1.975</v>
       </c>
-      <c r="V274">
-        <v>1.825</v>
-      </c>
       <c r="W274">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="X274">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y274">
         <v>-1</v>
       </c>
       <c r="Z274">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="AA274">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB274">
         <v>-1</v>
       </c>
       <c r="AC274">
-        <v>0.825</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="275" spans="1:29">
@@ -26140,7 +26140,7 @@
         <v>285</v>
       </c>
       <c r="B287">
-        <v>7970664</v>
+        <v>7970511</v>
       </c>
       <c r="C287" t="s">
         <v>28</v>
@@ -26152,76 +26152,76 @@
         <v>45368.41666666666</v>
       </c>
       <c r="F287" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="G287" t="s">
-        <v>72</v>
+        <v>90</v>
       </c>
       <c r="H287">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I287">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J287" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="K287">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="L287">
         <v>3.4</v>
       </c>
       <c r="M287">
-        <v>2.75</v>
+        <v>2.9</v>
       </c>
       <c r="N287">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="O287">
         <v>3.4</v>
       </c>
       <c r="P287">
-        <v>2.75</v>
+        <v>2.9</v>
       </c>
       <c r="Q287">
         <v>-0.25</v>
       </c>
       <c r="R287">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="S287">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="T287">
         <v>2.75</v>
       </c>
       <c r="U287">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="V287">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="W287">
         <v>-1</v>
       </c>
       <c r="X287">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y287">
-        <v>1.75</v>
+        <v>-1</v>
       </c>
       <c r="Z287">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA287">
-        <v>0.8</v>
+        <v>0.45</v>
       </c>
       <c r="AB287">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC287">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="288" spans="1:29">
@@ -26229,7 +26229,7 @@
         <v>286</v>
       </c>
       <c r="B288">
-        <v>7970511</v>
+        <v>7970664</v>
       </c>
       <c r="C288" t="s">
         <v>28</v>
@@ -26241,76 +26241,76 @@
         <v>45368.41666666666</v>
       </c>
       <c r="F288" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="G288" t="s">
-        <v>90</v>
+        <v>72</v>
       </c>
       <c r="H288">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I288">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J288" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="K288">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="L288">
         <v>3.4</v>
       </c>
       <c r="M288">
-        <v>2.9</v>
+        <v>2.75</v>
       </c>
       <c r="N288">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="O288">
         <v>3.4</v>
       </c>
       <c r="P288">
-        <v>2.9</v>
+        <v>2.75</v>
       </c>
       <c r="Q288">
         <v>-0.25</v>
       </c>
       <c r="R288">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="S288">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="T288">
         <v>2.75</v>
       </c>
       <c r="U288">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="V288">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="W288">
         <v>-1</v>
       </c>
       <c r="X288">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y288">
-        <v>-1</v>
+        <v>1.75</v>
       </c>
       <c r="Z288">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA288">
-        <v>0.45</v>
+        <v>0.8</v>
       </c>
       <c r="AB288">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC288">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="289" spans="1:29">
@@ -26318,7 +26318,7 @@
         <v>287</v>
       </c>
       <c r="B289">
-        <v>8001822</v>
+        <v>8004562</v>
       </c>
       <c r="C289" t="s">
         <v>28</v>
@@ -26330,46 +26330,46 @@
         <v>45375.29166666666</v>
       </c>
       <c r="F289" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G289" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="H289">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I289">
+        <v>1</v>
+      </c>
+      <c r="J289" t="s">
+        <v>98</v>
+      </c>
+      <c r="K289">
+        <v>2.4</v>
+      </c>
+      <c r="L289">
+        <v>3.4</v>
+      </c>
+      <c r="M289">
+        <v>2.5</v>
+      </c>
+      <c r="N289">
+        <v>2.4</v>
+      </c>
+      <c r="O289">
+        <v>3.4</v>
+      </c>
+      <c r="P289">
+        <v>2.5</v>
+      </c>
+      <c r="Q289">
         <v>0</v>
       </c>
-      <c r="J289" t="s">
-        <v>99</v>
-      </c>
-      <c r="K289">
-        <v>1.444</v>
-      </c>
-      <c r="L289">
-        <v>4.2</v>
-      </c>
-      <c r="M289">
-        <v>5.5</v>
-      </c>
-      <c r="N289">
-        <v>1.444</v>
-      </c>
-      <c r="O289">
-        <v>4.2</v>
-      </c>
-      <c r="P289">
-        <v>5.5</v>
-      </c>
-      <c r="Q289">
-        <v>-1.25</v>
-      </c>
       <c r="R289">
+        <v>1.85</v>
+      </c>
+      <c r="S289">
         <v>1.95</v>
-      </c>
-      <c r="S289">
-        <v>1.85</v>
       </c>
       <c r="T289">
         <v>2.75</v>
@@ -26381,19 +26381,19 @@
         <v>2</v>
       </c>
       <c r="W289">
-        <v>0.444</v>
+        <v>-1</v>
       </c>
       <c r="X289">
         <v>-1</v>
       </c>
       <c r="Y289">
-        <v>-1</v>
+        <v>1.5</v>
       </c>
       <c r="Z289">
+        <v>-1</v>
+      </c>
+      <c r="AA289">
         <v>0.95</v>
-      </c>
-      <c r="AA289">
-        <v>-1</v>
       </c>
       <c r="AB289">
         <v>-1</v>
@@ -26407,7 +26407,7 @@
         <v>288</v>
       </c>
       <c r="B290">
-        <v>8001723</v>
+        <v>8001726</v>
       </c>
       <c r="C290" t="s">
         <v>28</v>
@@ -26419,76 +26419,76 @@
         <v>45375.29166666666</v>
       </c>
       <c r="F290" t="s">
-        <v>30</v>
+        <v>51</v>
       </c>
       <c r="G290" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="H290">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I290">
         <v>2</v>
       </c>
       <c r="J290" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="K290">
-        <v>2</v>
+        <v>1.909</v>
       </c>
       <c r="L290">
         <v>3.4</v>
       </c>
       <c r="M290">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="N290">
-        <v>2</v>
+        <v>1.909</v>
       </c>
       <c r="O290">
         <v>3.4</v>
       </c>
       <c r="P290">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="Q290">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R290">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="S290">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="T290">
         <v>2.75</v>
       </c>
       <c r="U290">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="V290">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="W290">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="X290">
         <v>-1</v>
       </c>
       <c r="Y290">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Z290">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA290">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB290">
-        <v>0.4625</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC290">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="291" spans="1:29">
@@ -26496,7 +26496,7 @@
         <v>289</v>
       </c>
       <c r="B291">
-        <v>8001728</v>
+        <v>8001723</v>
       </c>
       <c r="C291" t="s">
         <v>28</v>
@@ -26508,76 +26508,76 @@
         <v>45375.29166666666</v>
       </c>
       <c r="F291" t="s">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="G291" t="s">
-        <v>49</v>
+        <v>83</v>
       </c>
       <c r="H291">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I291">
         <v>2</v>
       </c>
       <c r="J291" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="K291">
+        <v>2</v>
+      </c>
+      <c r="L291">
+        <v>3.4</v>
+      </c>
+      <c r="M291">
+        <v>3.1</v>
+      </c>
+      <c r="N291">
+        <v>2</v>
+      </c>
+      <c r="O291">
+        <v>3.4</v>
+      </c>
+      <c r="P291">
+        <v>3.1</v>
+      </c>
+      <c r="Q291">
+        <v>-0.25</v>
+      </c>
+      <c r="R291">
         <v>1.8</v>
       </c>
-      <c r="L291">
-        <v>3.75</v>
-      </c>
-      <c r="M291">
-        <v>3.4</v>
-      </c>
-      <c r="N291">
-        <v>1.8</v>
-      </c>
-      <c r="O291">
-        <v>3.75</v>
-      </c>
-      <c r="P291">
-        <v>3.4</v>
-      </c>
-      <c r="Q291">
+      <c r="S291">
+        <v>2</v>
+      </c>
+      <c r="T291">
+        <v>2.75</v>
+      </c>
+      <c r="U291">
+        <v>1.925</v>
+      </c>
+      <c r="V291">
+        <v>1.875</v>
+      </c>
+      <c r="W291">
+        <v>-1</v>
+      </c>
+      <c r="X291">
+        <v>-1</v>
+      </c>
+      <c r="Y291">
+        <v>2.1</v>
+      </c>
+      <c r="Z291">
+        <v>-1</v>
+      </c>
+      <c r="AA291">
+        <v>1</v>
+      </c>
+      <c r="AB291">
+        <v>0.4625</v>
+      </c>
+      <c r="AC291">
         <v>-0.5</v>
-      </c>
-      <c r="R291">
-        <v>1.85</v>
-      </c>
-      <c r="S291">
-        <v>1.95</v>
-      </c>
-      <c r="T291">
-        <v>3</v>
-      </c>
-      <c r="U291">
-        <v>1.8</v>
-      </c>
-      <c r="V291">
-        <v>2</v>
-      </c>
-      <c r="W291">
-        <v>0.8</v>
-      </c>
-      <c r="X291">
-        <v>-1</v>
-      </c>
-      <c r="Y291">
-        <v>-1</v>
-      </c>
-      <c r="Z291">
-        <v>0.8500000000000001</v>
-      </c>
-      <c r="AA291">
-        <v>-1</v>
-      </c>
-      <c r="AB291">
-        <v>0.8</v>
-      </c>
-      <c r="AC291">
-        <v>-1</v>
       </c>
     </row>
     <row r="292" spans="1:29">
@@ -26674,7 +26674,7 @@
         <v>291</v>
       </c>
       <c r="B293">
-        <v>8001828</v>
+        <v>8001822</v>
       </c>
       <c r="C293" t="s">
         <v>28</v>
@@ -26686,13 +26686,13 @@
         <v>45375.29166666666</v>
       </c>
       <c r="F293" t="s">
-        <v>58</v>
+        <v>33</v>
       </c>
       <c r="G293" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="H293">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I293">
         <v>0</v>
@@ -26701,43 +26701,43 @@
         <v>99</v>
       </c>
       <c r="K293">
-        <v>2.625</v>
+        <v>1.444</v>
       </c>
       <c r="L293">
-        <v>3.5</v>
+        <v>4.2</v>
       </c>
       <c r="M293">
-        <v>2.25</v>
+        <v>5.5</v>
       </c>
       <c r="N293">
-        <v>2.625</v>
+        <v>1.444</v>
       </c>
       <c r="O293">
-        <v>3.5</v>
+        <v>4.2</v>
       </c>
       <c r="P293">
-        <v>2.25</v>
+        <v>5.5</v>
       </c>
       <c r="Q293">
-        <v>0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R293">
-        <v>1.725</v>
+        <v>1.95</v>
       </c>
       <c r="S293">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="T293">
         <v>2.75</v>
       </c>
       <c r="U293">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="V293">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="W293">
-        <v>1.625</v>
+        <v>0.444</v>
       </c>
       <c r="X293">
         <v>-1</v>
@@ -26746,7 +26746,7 @@
         <v>-1</v>
       </c>
       <c r="Z293">
-        <v>0.7250000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="AA293">
         <v>-1</v>
@@ -26755,7 +26755,7 @@
         <v>-1</v>
       </c>
       <c r="AC293">
-        <v>0.9750000000000001</v>
+        <v>1</v>
       </c>
     </row>
     <row r="294" spans="1:29">
@@ -26763,7 +26763,7 @@
         <v>292</v>
       </c>
       <c r="B294">
-        <v>8004562</v>
+        <v>8001828</v>
       </c>
       <c r="C294" t="s">
         <v>28</v>
@@ -26775,76 +26775,76 @@
         <v>45375.29166666666</v>
       </c>
       <c r="F294" t="s">
-        <v>31</v>
+        <v>58</v>
       </c>
       <c r="G294" t="s">
-        <v>80</v>
+        <v>69</v>
       </c>
       <c r="H294">
+        <v>1</v>
+      </c>
+      <c r="I294">
         <v>0</v>
       </c>
-      <c r="I294">
-        <v>1</v>
-      </c>
       <c r="J294" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="K294">
-        <v>2.4</v>
+        <v>2.625</v>
       </c>
       <c r="L294">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M294">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="N294">
-        <v>2.4</v>
+        <v>2.625</v>
       </c>
       <c r="O294">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="P294">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="Q294">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R294">
-        <v>1.85</v>
+        <v>1.725</v>
       </c>
       <c r="S294">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="T294">
         <v>2.75</v>
       </c>
       <c r="U294">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="V294">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="W294">
-        <v>-1</v>
+        <v>1.625</v>
       </c>
       <c r="X294">
         <v>-1</v>
       </c>
       <c r="Y294">
-        <v>1.5</v>
+        <v>-1</v>
       </c>
       <c r="Z294">
-        <v>-1</v>
+        <v>0.7250000000000001</v>
       </c>
       <c r="AA294">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB294">
         <v>-1</v>
       </c>
       <c r="AC294">
-        <v>1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="295" spans="1:29">
@@ -26852,7 +26852,7 @@
         <v>293</v>
       </c>
       <c r="B295">
-        <v>8001726</v>
+        <v>8001728</v>
       </c>
       <c r="C295" t="s">
         <v>28</v>
@@ -26864,10 +26864,10 @@
         <v>45375.29166666666</v>
       </c>
       <c r="F295" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="G295" t="s">
-        <v>75</v>
+        <v>49</v>
       </c>
       <c r="H295">
         <v>4</v>
@@ -26879,19 +26879,19 @@
         <v>99</v>
       </c>
       <c r="K295">
-        <v>1.909</v>
+        <v>1.8</v>
       </c>
       <c r="L295">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="M295">
         <v>3.4</v>
       </c>
       <c r="N295">
-        <v>1.909</v>
+        <v>1.8</v>
       </c>
       <c r="O295">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="P295">
         <v>3.4</v>
@@ -26900,22 +26900,22 @@
         <v>-0.5</v>
       </c>
       <c r="R295">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="S295">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="T295">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U295">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="V295">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W295">
-        <v>0.909</v>
+        <v>0.8</v>
       </c>
       <c r="X295">
         <v>-1</v>
@@ -26924,13 +26924,13 @@
         <v>-1</v>
       </c>
       <c r="Z295">
-        <v>0.9750000000000001</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA295">
         <v>-1</v>
       </c>
       <c r="AB295">
-        <v>0.8500000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AC295">
         <v>-1</v>
@@ -28276,7 +28276,7 @@
         <v>309</v>
       </c>
       <c r="B311">
-        <v>8030749</v>
+        <v>8030750</v>
       </c>
       <c r="C311" t="s">
         <v>28</v>
@@ -28288,76 +28288,76 @@
         <v>45382.25</v>
       </c>
       <c r="F311" t="s">
-        <v>74</v>
+        <v>36</v>
       </c>
       <c r="G311" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="H311">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I311">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J311" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="K311">
-        <v>1.571</v>
+        <v>4.75</v>
       </c>
       <c r="L311">
         <v>4</v>
       </c>
       <c r="M311">
-        <v>4.333</v>
+        <v>1.533</v>
       </c>
       <c r="N311">
-        <v>1.571</v>
+        <v>4.75</v>
       </c>
       <c r="O311">
         <v>4</v>
       </c>
       <c r="P311">
-        <v>4.333</v>
+        <v>1.533</v>
       </c>
       <c r="Q311">
-        <v>-0.75</v>
+        <v>1</v>
       </c>
       <c r="R311">
-        <v>1.75</v>
+        <v>1.9</v>
       </c>
       <c r="S311">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="T311">
         <v>3</v>
       </c>
       <c r="U311">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="V311">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="W311">
         <v>-1</v>
       </c>
       <c r="X311">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y311">
-        <v>-1</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="Z311">
         <v>-1</v>
       </c>
       <c r="AA311">
-        <v>1.05</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB311">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC311">
-        <v>0.8500000000000001</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="312" spans="1:29">
@@ -28365,7 +28365,7 @@
         <v>310</v>
       </c>
       <c r="B312">
-        <v>8030750</v>
+        <v>8030692</v>
       </c>
       <c r="C312" t="s">
         <v>28</v>
@@ -28377,56 +28377,56 @@
         <v>45382.25</v>
       </c>
       <c r="F312" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="G312" t="s">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="H312">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I312">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J312" t="s">
         <v>98</v>
       </c>
       <c r="K312">
-        <v>4.75</v>
+        <v>6</v>
       </c>
       <c r="L312">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M312">
-        <v>1.533</v>
+        <v>1.333</v>
       </c>
       <c r="N312">
-        <v>4.75</v>
+        <v>6</v>
       </c>
       <c r="O312">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="P312">
-        <v>1.533</v>
+        <v>1.333</v>
       </c>
       <c r="Q312">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="R312">
+        <v>1.95</v>
+      </c>
+      <c r="S312">
+        <v>1.85</v>
+      </c>
+      <c r="T312">
+        <v>3.5</v>
+      </c>
+      <c r="U312">
         <v>1.9</v>
       </c>
-      <c r="S312">
+      <c r="V312">
         <v>1.9</v>
       </c>
-      <c r="T312">
-        <v>3</v>
-      </c>
-      <c r="U312">
-        <v>1.875</v>
-      </c>
-      <c r="V312">
-        <v>1.925</v>
-      </c>
       <c r="W312">
         <v>-1</v>
       </c>
@@ -28434,19 +28434,19 @@
         <v>-1</v>
       </c>
       <c r="Y312">
-        <v>0.5329999999999999</v>
+        <v>0.333</v>
       </c>
       <c r="Z312">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA312">
+        <v>-1</v>
+      </c>
+      <c r="AB312">
+        <v>-1</v>
+      </c>
+      <c r="AC312">
         <v>0.8999999999999999</v>
-      </c>
-      <c r="AB312">
-        <v>0</v>
-      </c>
-      <c r="AC312">
-        <v>-0</v>
       </c>
     </row>
     <row r="313" spans="1:29">
@@ -28454,7 +28454,7 @@
         <v>311</v>
       </c>
       <c r="B313">
-        <v>8030692</v>
+        <v>8030693</v>
       </c>
       <c r="C313" t="s">
         <v>28</v>
@@ -28466,76 +28466,76 @@
         <v>45382.25</v>
       </c>
       <c r="F313" t="s">
-        <v>32</v>
+        <v>50</v>
       </c>
       <c r="G313" t="s">
-        <v>39</v>
+        <v>88</v>
       </c>
       <c r="H313">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I313">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J313" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="K313">
-        <v>6</v>
+        <v>3.5</v>
       </c>
       <c r="L313">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M313">
-        <v>1.333</v>
+        <v>1.727</v>
       </c>
       <c r="N313">
-        <v>6</v>
+        <v>3.5</v>
       </c>
       <c r="O313">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="P313">
-        <v>1.333</v>
+        <v>1.727</v>
       </c>
       <c r="Q313">
-        <v>1.5</v>
+        <v>0.75</v>
       </c>
       <c r="R313">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="S313">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="T313">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="U313">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="V313">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W313">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="X313">
         <v>-1</v>
       </c>
       <c r="Y313">
-        <v>0.333</v>
+        <v>-1</v>
       </c>
       <c r="Z313">
-        <v>0.95</v>
+        <v>0.825</v>
       </c>
       <c r="AA313">
         <v>-1</v>
       </c>
       <c r="AB313">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC313">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="314" spans="1:29">
@@ -28543,7 +28543,7 @@
         <v>312</v>
       </c>
       <c r="B314">
-        <v>8030693</v>
+        <v>8030749</v>
       </c>
       <c r="C314" t="s">
         <v>28</v>
@@ -28555,76 +28555,76 @@
         <v>45382.25</v>
       </c>
       <c r="F314" t="s">
-        <v>50</v>
+        <v>74</v>
       </c>
       <c r="G314" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="H314">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I314">
         <v>1</v>
       </c>
       <c r="J314" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="K314">
-        <v>3.5</v>
+        <v>1.571</v>
       </c>
       <c r="L314">
         <v>4</v>
       </c>
       <c r="M314">
-        <v>1.727</v>
+        <v>4.333</v>
       </c>
       <c r="N314">
-        <v>3.5</v>
+        <v>1.571</v>
       </c>
       <c r="O314">
         <v>4</v>
       </c>
       <c r="P314">
-        <v>1.727</v>
+        <v>4.333</v>
       </c>
       <c r="Q314">
-        <v>0.75</v>
+        <v>-0.75</v>
       </c>
       <c r="R314">
-        <v>1.825</v>
+        <v>1.75</v>
       </c>
       <c r="S314">
-        <v>1.975</v>
+        <v>2.05</v>
       </c>
       <c r="T314">
         <v>3</v>
       </c>
       <c r="U314">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="V314">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="W314">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="X314">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Y314">
         <v>-1</v>
       </c>
       <c r="Z314">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA314">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AB314">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC314">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="315" spans="1:29">
@@ -29433,7 +29433,7 @@
         <v>322</v>
       </c>
       <c r="B324">
-        <v>8030799</v>
+        <v>8030694</v>
       </c>
       <c r="C324" t="s">
         <v>28</v>
@@ -29445,76 +29445,76 @@
         <v>45382.45833333334</v>
       </c>
       <c r="F324" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="G324" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="H324">
         <v>1</v>
       </c>
       <c r="I324">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J324" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="K324">
-        <v>2.1</v>
+        <v>2.375</v>
       </c>
       <c r="L324">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="M324">
-        <v>2.9</v>
+        <v>2.6</v>
       </c>
       <c r="N324">
-        <v>2.1</v>
+        <v>2.75</v>
       </c>
       <c r="O324">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="P324">
-        <v>2.9</v>
+        <v>2.25</v>
       </c>
       <c r="Q324">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R324">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="S324">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="T324">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U324">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="V324">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="W324">
         <v>-1</v>
       </c>
       <c r="X324">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y324">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="Z324">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA324">
-        <v>0.45</v>
+        <v>1.025</v>
       </c>
       <c r="AB324">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC324">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="325" spans="1:29">
@@ -29522,7 +29522,7 @@
         <v>323</v>
       </c>
       <c r="B325">
-        <v>8030694</v>
+        <v>8030799</v>
       </c>
       <c r="C325" t="s">
         <v>28</v>
@@ -29534,76 +29534,76 @@
         <v>45382.45833333334</v>
       </c>
       <c r="F325" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="G325" t="s">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="H325">
         <v>1</v>
       </c>
       <c r="I325">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J325" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="K325">
-        <v>2.375</v>
+        <v>2.1</v>
       </c>
       <c r="L325">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="M325">
-        <v>2.6</v>
+        <v>2.9</v>
       </c>
       <c r="N325">
+        <v>2.1</v>
+      </c>
+      <c r="O325">
+        <v>3.4</v>
+      </c>
+      <c r="P325">
+        <v>2.9</v>
+      </c>
+      <c r="Q325">
+        <v>-0.25</v>
+      </c>
+      <c r="R325">
+        <v>1.9</v>
+      </c>
+      <c r="S325">
+        <v>1.9</v>
+      </c>
+      <c r="T325">
         <v>2.75</v>
       </c>
-      <c r="O325">
-        <v>3.25</v>
-      </c>
-      <c r="P325">
-        <v>2.25</v>
-      </c>
-      <c r="Q325">
-        <v>0.25</v>
-      </c>
-      <c r="R325">
-        <v>1.775</v>
-      </c>
-      <c r="S325">
-        <v>2.025</v>
-      </c>
-      <c r="T325">
-        <v>2.5</v>
-      </c>
       <c r="U325">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="V325">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="W325">
         <v>-1</v>
       </c>
       <c r="X325">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y325">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="Z325">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA325">
-        <v>1.025</v>
+        <v>0.45</v>
       </c>
       <c r="AB325">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC325">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
   </sheetData>

--- a/Hungary NB III/Hungary NB III.xlsx
+++ b/Hungary NB III/Hungary NB III.xlsx
@@ -22224,7 +22224,7 @@
         <v>241</v>
       </c>
       <c r="B243">
-        <v>7519596</v>
+        <v>7519599</v>
       </c>
       <c r="C243" t="s">
         <v>28</v>
@@ -22236,76 +22236,76 @@
         <v>45256.375</v>
       </c>
       <c r="F243" t="s">
-        <v>41</v>
+        <v>73</v>
       </c>
       <c r="G243" t="s">
-        <v>50</v>
+        <v>79</v>
       </c>
       <c r="H243">
         <v>1</v>
       </c>
       <c r="I243">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J243" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="K243">
-        <v>1.666</v>
+        <v>2.8</v>
       </c>
       <c r="L243">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="M243">
-        <v>4.333</v>
+        <v>2.3</v>
       </c>
       <c r="N243">
-        <v>1.571</v>
+        <v>3.5</v>
       </c>
       <c r="O243">
-        <v>3.8</v>
+        <v>3.3</v>
       </c>
       <c r="P243">
-        <v>4.75</v>
+        <v>1.909</v>
       </c>
       <c r="Q243">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="R243">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="S243">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="T243">
         <v>3.25</v>
       </c>
       <c r="U243">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="V243">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="W243">
         <v>-1</v>
       </c>
       <c r="X243">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Y243">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="Z243">
         <v>-1</v>
       </c>
       <c r="AA243">
-        <v>0.825</v>
+        <v>1</v>
       </c>
       <c r="AB243">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC243">
-        <v>0.8999999999999999</v>
+        <v>0.4625</v>
       </c>
     </row>
     <row r="244" spans="1:29">
@@ -22313,7 +22313,7 @@
         <v>242</v>
       </c>
       <c r="B244">
-        <v>7519599</v>
+        <v>7519596</v>
       </c>
       <c r="C244" t="s">
         <v>28</v>
@@ -22325,76 +22325,76 @@
         <v>45256.375</v>
       </c>
       <c r="F244" t="s">
-        <v>73</v>
+        <v>41</v>
       </c>
       <c r="G244" t="s">
-        <v>79</v>
+        <v>50</v>
       </c>
       <c r="H244">
         <v>1</v>
       </c>
       <c r="I244">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J244" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="K244">
-        <v>2.8</v>
+        <v>1.666</v>
       </c>
       <c r="L244">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="M244">
-        <v>2.3</v>
+        <v>4.333</v>
       </c>
       <c r="N244">
-        <v>3.5</v>
+        <v>1.571</v>
       </c>
       <c r="O244">
-        <v>3.3</v>
+        <v>3.8</v>
       </c>
       <c r="P244">
-        <v>1.909</v>
+        <v>4.75</v>
       </c>
       <c r="Q244">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="R244">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="S244">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="T244">
         <v>3.25</v>
       </c>
       <c r="U244">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="V244">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="W244">
         <v>-1</v>
       </c>
       <c r="X244">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Y244">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="Z244">
         <v>-1</v>
       </c>
       <c r="AA244">
-        <v>1</v>
+        <v>0.825</v>
       </c>
       <c r="AB244">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC244">
-        <v>0.4625</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="245" spans="1:29">
@@ -22936,7 +22936,7 @@
         <v>249</v>
       </c>
       <c r="B251">
-        <v>7907180</v>
+        <v>7907179</v>
       </c>
       <c r="C251" t="s">
         <v>28</v>
@@ -22948,55 +22948,55 @@
         <v>45354.29166666666</v>
       </c>
       <c r="F251" t="s">
-        <v>51</v>
+        <v>83</v>
       </c>
       <c r="G251" t="s">
-        <v>67</v>
+        <v>34</v>
       </c>
       <c r="H251">
         <v>0</v>
       </c>
       <c r="I251">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J251" t="s">
         <v>98</v>
       </c>
       <c r="K251">
-        <v>2.4</v>
+        <v>2.25</v>
       </c>
       <c r="L251">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M251">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="N251">
-        <v>2.4</v>
+        <v>2.05</v>
       </c>
       <c r="O251">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="P251">
-        <v>2.4</v>
+        <v>2.8</v>
       </c>
       <c r="Q251">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R251">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="S251">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="T251">
         <v>3</v>
       </c>
       <c r="U251">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="V251">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="W251">
         <v>-1</v>
@@ -23005,19 +23005,19 @@
         <v>-1</v>
       </c>
       <c r="Y251">
-        <v>1.4</v>
+        <v>1.8</v>
       </c>
       <c r="Z251">
         <v>-1</v>
       </c>
       <c r="AA251">
-        <v>0.8999999999999999</v>
+        <v>0.925</v>
       </c>
       <c r="AB251">
         <v>-1</v>
       </c>
       <c r="AC251">
-        <v>0.8999999999999999</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="252" spans="1:29">
@@ -23025,7 +23025,7 @@
         <v>250</v>
       </c>
       <c r="B252">
-        <v>7907179</v>
+        <v>7907180</v>
       </c>
       <c r="C252" t="s">
         <v>28</v>
@@ -23037,55 +23037,55 @@
         <v>45354.29166666666</v>
       </c>
       <c r="F252" t="s">
-        <v>83</v>
+        <v>51</v>
       </c>
       <c r="G252" t="s">
-        <v>34</v>
+        <v>67</v>
       </c>
       <c r="H252">
         <v>0</v>
       </c>
       <c r="I252">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J252" t="s">
         <v>98</v>
       </c>
       <c r="K252">
-        <v>2.25</v>
+        <v>2.4</v>
       </c>
       <c r="L252">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M252">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="N252">
-        <v>2.05</v>
+        <v>2.4</v>
       </c>
       <c r="O252">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="P252">
-        <v>2.8</v>
+        <v>2.4</v>
       </c>
       <c r="Q252">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R252">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="S252">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="T252">
         <v>3</v>
       </c>
       <c r="U252">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="V252">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="W252">
         <v>-1</v>
@@ -23094,19 +23094,19 @@
         <v>-1</v>
       </c>
       <c r="Y252">
-        <v>1.8</v>
+        <v>1.4</v>
       </c>
       <c r="Z252">
         <v>-1</v>
       </c>
       <c r="AA252">
-        <v>0.925</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB252">
         <v>-1</v>
       </c>
       <c r="AC252">
-        <v>0.8</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="253" spans="1:29">
@@ -23737,7 +23737,7 @@
         <v>258</v>
       </c>
       <c r="B260">
-        <v>7938808</v>
+        <v>7938809</v>
       </c>
       <c r="C260" t="s">
         <v>28</v>
@@ -23749,55 +23749,55 @@
         <v>45361.29166666666</v>
       </c>
       <c r="F260" t="s">
-        <v>33</v>
+        <v>58</v>
       </c>
       <c r="G260" t="s">
-        <v>53</v>
+        <v>70</v>
       </c>
       <c r="H260">
         <v>1</v>
       </c>
       <c r="I260">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J260" t="s">
         <v>98</v>
       </c>
       <c r="K260">
-        <v>2.25</v>
+        <v>6.5</v>
       </c>
       <c r="L260">
-        <v>3.5</v>
+        <v>6.5</v>
       </c>
       <c r="M260">
-        <v>2.6</v>
+        <v>1.25</v>
       </c>
       <c r="N260">
-        <v>2.25</v>
+        <v>6.5</v>
       </c>
       <c r="O260">
-        <v>3.5</v>
+        <v>6.5</v>
       </c>
       <c r="P260">
-        <v>2.6</v>
+        <v>1.25</v>
       </c>
       <c r="Q260">
-        <v>-0.25</v>
+        <v>1.75</v>
       </c>
       <c r="R260">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="S260">
-        <v>1.75</v>
+        <v>1.825</v>
       </c>
       <c r="T260">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U260">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="V260">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W260">
         <v>-1</v>
@@ -23806,16 +23806,16 @@
         <v>-1</v>
       </c>
       <c r="Y260">
-        <v>1.6</v>
+        <v>0.25</v>
       </c>
       <c r="Z260">
         <v>-1</v>
       </c>
       <c r="AA260">
-        <v>0.75</v>
+        <v>0.825</v>
       </c>
       <c r="AB260">
-        <v>0.8500000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AC260">
         <v>-1</v>
@@ -23826,7 +23826,7 @@
         <v>259</v>
       </c>
       <c r="B261">
-        <v>7938809</v>
+        <v>7938808</v>
       </c>
       <c r="C261" t="s">
         <v>28</v>
@@ -23838,55 +23838,55 @@
         <v>45361.29166666666</v>
       </c>
       <c r="F261" t="s">
-        <v>58</v>
+        <v>33</v>
       </c>
       <c r="G261" t="s">
-        <v>70</v>
+        <v>53</v>
       </c>
       <c r="H261">
         <v>1</v>
       </c>
       <c r="I261">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J261" t="s">
         <v>98</v>
       </c>
       <c r="K261">
-        <v>6.5</v>
+        <v>2.25</v>
       </c>
       <c r="L261">
-        <v>6.5</v>
+        <v>3.5</v>
       </c>
       <c r="M261">
-        <v>1.25</v>
+        <v>2.6</v>
       </c>
       <c r="N261">
-        <v>6.5</v>
+        <v>2.25</v>
       </c>
       <c r="O261">
-        <v>6.5</v>
+        <v>3.5</v>
       </c>
       <c r="P261">
-        <v>1.25</v>
+        <v>2.6</v>
       </c>
       <c r="Q261">
+        <v>-0.25</v>
+      </c>
+      <c r="R261">
+        <v>1.95</v>
+      </c>
+      <c r="S261">
         <v>1.75</v>
       </c>
-      <c r="R261">
-        <v>1.975</v>
-      </c>
-      <c r="S261">
-        <v>1.825</v>
-      </c>
       <c r="T261">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U261">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="V261">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="W261">
         <v>-1</v>
@@ -23895,16 +23895,16 @@
         <v>-1</v>
       </c>
       <c r="Y261">
-        <v>0.25</v>
+        <v>1.6</v>
       </c>
       <c r="Z261">
         <v>-1</v>
       </c>
       <c r="AA261">
-        <v>0.825</v>
+        <v>0.75</v>
       </c>
       <c r="AB261">
-        <v>0.8</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC261">
         <v>-1</v>
@@ -24627,7 +24627,7 @@
         <v>268</v>
       </c>
       <c r="B270">
-        <v>7939238</v>
+        <v>7939233</v>
       </c>
       <c r="C270" t="s">
         <v>28</v>
@@ -24639,76 +24639,76 @@
         <v>45361.41666666666</v>
       </c>
       <c r="F270" t="s">
-        <v>61</v>
+        <v>41</v>
       </c>
       <c r="G270" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="H270">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I270">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J270" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="K270">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="L270">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M270">
-        <v>2.6</v>
+        <v>3.1</v>
       </c>
       <c r="N270">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="O270">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="P270">
-        <v>2.55</v>
+        <v>3.1</v>
       </c>
       <c r="Q270">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R270">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="S270">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="T270">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U270">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="V270">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="W270">
         <v>-1</v>
       </c>
       <c r="X270">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y270">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Z270">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA270">
-        <v>-0</v>
+        <v>1</v>
       </c>
       <c r="AB270">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC270">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="271" spans="1:29">
@@ -24716,7 +24716,7 @@
         <v>269</v>
       </c>
       <c r="B271">
-        <v>7939233</v>
+        <v>7939234</v>
       </c>
       <c r="C271" t="s">
         <v>28</v>
@@ -24728,40 +24728,40 @@
         <v>45361.41666666666</v>
       </c>
       <c r="F271" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G271" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="H271">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I271">
+        <v>1</v>
+      </c>
+      <c r="J271" t="s">
+        <v>99</v>
+      </c>
+      <c r="K271">
+        <v>1.5</v>
+      </c>
+      <c r="L271">
         <v>4</v>
       </c>
-      <c r="J271" t="s">
-        <v>98</v>
-      </c>
-      <c r="K271">
-        <v>2</v>
-      </c>
-      <c r="L271">
-        <v>3.4</v>
-      </c>
       <c r="M271">
-        <v>3.1</v>
+        <v>5</v>
       </c>
       <c r="N271">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="O271">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="P271">
-        <v>3.1</v>
+        <v>5</v>
       </c>
       <c r="Q271">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="R271">
         <v>1.8</v>
@@ -24770,31 +24770,31 @@
         <v>2</v>
       </c>
       <c r="T271">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U271">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="V271">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W271">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="X271">
         <v>-1</v>
       </c>
       <c r="Y271">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Z271">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA271">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB271">
-        <v>0.8999999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="AC271">
         <v>-1</v>
@@ -24805,7 +24805,7 @@
         <v>270</v>
       </c>
       <c r="B272">
-        <v>7939234</v>
+        <v>7939235</v>
       </c>
       <c r="C272" t="s">
         <v>28</v>
@@ -24817,13 +24817,13 @@
         <v>45361.41666666666</v>
       </c>
       <c r="F272" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="G272" t="s">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="H272">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I272">
         <v>1</v>
@@ -24832,43 +24832,43 @@
         <v>99</v>
       </c>
       <c r="K272">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="L272">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="M272">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="N272">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="O272">
-        <v>4</v>
+        <v>4.75</v>
       </c>
       <c r="P272">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="Q272">
-        <v>-1</v>
+        <v>-1.5</v>
       </c>
       <c r="R272">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="S272">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="T272">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="U272">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="V272">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="W272">
-        <v>0.5</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X272">
         <v>-1</v>
@@ -24877,16 +24877,16 @@
         <v>-1</v>
       </c>
       <c r="Z272">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA272">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB272">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC272">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
     </row>
     <row r="273" spans="1:29">
@@ -24894,7 +24894,7 @@
         <v>271</v>
       </c>
       <c r="B273">
-        <v>7939235</v>
+        <v>7939236</v>
       </c>
       <c r="C273" t="s">
         <v>28</v>
@@ -24906,58 +24906,58 @@
         <v>45361.41666666666</v>
       </c>
       <c r="F273" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="G273" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="H273">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I273">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J273" t="s">
         <v>99</v>
       </c>
       <c r="K273">
-        <v>1.4</v>
+        <v>2.25</v>
       </c>
       <c r="L273">
-        <v>4.5</v>
+        <v>3.75</v>
       </c>
       <c r="M273">
-        <v>5.5</v>
+        <v>2.5</v>
       </c>
       <c r="N273">
-        <v>1.4</v>
+        <v>2.25</v>
       </c>
       <c r="O273">
-        <v>4.75</v>
+        <v>3.75</v>
       </c>
       <c r="P273">
-        <v>5.5</v>
+        <v>2.5</v>
       </c>
       <c r="Q273">
-        <v>-1.5</v>
+        <v>0</v>
       </c>
       <c r="R273">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="S273">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="T273">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="U273">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="V273">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="W273">
-        <v>0.3999999999999999</v>
+        <v>1.25</v>
       </c>
       <c r="X273">
         <v>-1</v>
@@ -24966,16 +24966,16 @@
         <v>-1</v>
       </c>
       <c r="Z273">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA273">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB273">
         <v>-1</v>
       </c>
       <c r="AC273">
-        <v>0.7749999999999999</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="274" spans="1:29">
@@ -24983,7 +24983,7 @@
         <v>272</v>
       </c>
       <c r="B274">
-        <v>7939236</v>
+        <v>7939238</v>
       </c>
       <c r="C274" t="s">
         <v>28</v>
@@ -24995,76 +24995,76 @@
         <v>45361.41666666666</v>
       </c>
       <c r="F274" t="s">
-        <v>42</v>
+        <v>61</v>
       </c>
       <c r="G274" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H274">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I274">
         <v>0</v>
       </c>
       <c r="J274" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="K274">
         <v>2.25</v>
       </c>
       <c r="L274">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="M274">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="N274">
         <v>2.25</v>
       </c>
       <c r="O274">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="P274">
-        <v>2.5</v>
+        <v>2.55</v>
       </c>
       <c r="Q274">
         <v>0</v>
       </c>
       <c r="R274">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="S274">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="T274">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U274">
+        <v>1.975</v>
+      </c>
+      <c r="V274">
         <v>1.825</v>
       </c>
-      <c r="V274">
-        <v>1.975</v>
-      </c>
       <c r="W274">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="X274">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y274">
         <v>-1</v>
       </c>
       <c r="Z274">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="AA274">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB274">
         <v>-1</v>
       </c>
       <c r="AC274">
-        <v>0.9750000000000001</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="275" spans="1:29">
@@ -26140,7 +26140,7 @@
         <v>285</v>
       </c>
       <c r="B287">
-        <v>7970511</v>
+        <v>7970664</v>
       </c>
       <c r="C287" t="s">
         <v>28</v>
@@ -26152,76 +26152,76 @@
         <v>45368.41666666666</v>
       </c>
       <c r="F287" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="G287" t="s">
-        <v>90</v>
+        <v>72</v>
       </c>
       <c r="H287">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I287">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J287" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="K287">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="L287">
         <v>3.4</v>
       </c>
       <c r="M287">
-        <v>2.9</v>
+        <v>2.75</v>
       </c>
       <c r="N287">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="O287">
         <v>3.4</v>
       </c>
       <c r="P287">
-        <v>2.9</v>
+        <v>2.75</v>
       </c>
       <c r="Q287">
         <v>-0.25</v>
       </c>
       <c r="R287">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="S287">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="T287">
         <v>2.75</v>
       </c>
       <c r="U287">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="V287">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="W287">
         <v>-1</v>
       </c>
       <c r="X287">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y287">
-        <v>-1</v>
+        <v>1.75</v>
       </c>
       <c r="Z287">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA287">
-        <v>0.45</v>
+        <v>0.8</v>
       </c>
       <c r="AB287">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC287">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="288" spans="1:29">
@@ -26229,7 +26229,7 @@
         <v>286</v>
       </c>
       <c r="B288">
-        <v>7970664</v>
+        <v>7970511</v>
       </c>
       <c r="C288" t="s">
         <v>28</v>
@@ -26241,76 +26241,76 @@
         <v>45368.41666666666</v>
       </c>
       <c r="F288" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="G288" t="s">
-        <v>72</v>
+        <v>90</v>
       </c>
       <c r="H288">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I288">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J288" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="K288">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="L288">
         <v>3.4</v>
       </c>
       <c r="M288">
-        <v>2.75</v>
+        <v>2.9</v>
       </c>
       <c r="N288">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="O288">
         <v>3.4</v>
       </c>
       <c r="P288">
-        <v>2.75</v>
+        <v>2.9</v>
       </c>
       <c r="Q288">
         <v>-0.25</v>
       </c>
       <c r="R288">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="S288">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="T288">
         <v>2.75</v>
       </c>
       <c r="U288">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="V288">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="W288">
         <v>-1</v>
       </c>
       <c r="X288">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y288">
-        <v>1.75</v>
+        <v>-1</v>
       </c>
       <c r="Z288">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA288">
-        <v>0.8</v>
+        <v>0.45</v>
       </c>
       <c r="AB288">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC288">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="289" spans="1:29">
@@ -26318,7 +26318,7 @@
         <v>287</v>
       </c>
       <c r="B289">
-        <v>8004562</v>
+        <v>8001822</v>
       </c>
       <c r="C289" t="s">
         <v>28</v>
@@ -26330,46 +26330,46 @@
         <v>45375.29166666666</v>
       </c>
       <c r="F289" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G289" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="H289">
+        <v>2</v>
+      </c>
+      <c r="I289">
         <v>0</v>
       </c>
-      <c r="I289">
-        <v>1</v>
-      </c>
       <c r="J289" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="K289">
-        <v>2.4</v>
+        <v>1.444</v>
       </c>
       <c r="L289">
-        <v>3.4</v>
+        <v>4.2</v>
       </c>
       <c r="M289">
-        <v>2.5</v>
+        <v>5.5</v>
       </c>
       <c r="N289">
-        <v>2.4</v>
+        <v>1.444</v>
       </c>
       <c r="O289">
-        <v>3.4</v>
+        <v>4.2</v>
       </c>
       <c r="P289">
-        <v>2.5</v>
+        <v>5.5</v>
       </c>
       <c r="Q289">
-        <v>0</v>
+        <v>-1.25</v>
       </c>
       <c r="R289">
+        <v>1.95</v>
+      </c>
+      <c r="S289">
         <v>1.85</v>
-      </c>
-      <c r="S289">
-        <v>1.95</v>
       </c>
       <c r="T289">
         <v>2.75</v>
@@ -26381,19 +26381,19 @@
         <v>2</v>
       </c>
       <c r="W289">
-        <v>-1</v>
+        <v>0.444</v>
       </c>
       <c r="X289">
         <v>-1</v>
       </c>
       <c r="Y289">
-        <v>1.5</v>
+        <v>-1</v>
       </c>
       <c r="Z289">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA289">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB289">
         <v>-1</v>
@@ -26407,7 +26407,7 @@
         <v>288</v>
       </c>
       <c r="B290">
-        <v>8001726</v>
+        <v>8001723</v>
       </c>
       <c r="C290" t="s">
         <v>28</v>
@@ -26419,76 +26419,76 @@
         <v>45375.29166666666</v>
       </c>
       <c r="F290" t="s">
-        <v>51</v>
+        <v>30</v>
       </c>
       <c r="G290" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="H290">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I290">
         <v>2</v>
       </c>
       <c r="J290" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="K290">
-        <v>1.909</v>
+        <v>2</v>
       </c>
       <c r="L290">
         <v>3.4</v>
       </c>
       <c r="M290">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="N290">
-        <v>1.909</v>
+        <v>2</v>
       </c>
       <c r="O290">
         <v>3.4</v>
       </c>
       <c r="P290">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="Q290">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R290">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="S290">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="T290">
         <v>2.75</v>
       </c>
       <c r="U290">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="V290">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="W290">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="X290">
         <v>-1</v>
       </c>
       <c r="Y290">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Z290">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA290">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB290">
-        <v>0.8500000000000001</v>
+        <v>0.4625</v>
       </c>
       <c r="AC290">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="291" spans="1:29">
@@ -26496,7 +26496,7 @@
         <v>289</v>
       </c>
       <c r="B291">
-        <v>8001723</v>
+        <v>8001728</v>
       </c>
       <c r="C291" t="s">
         <v>28</v>
@@ -26508,76 +26508,76 @@
         <v>45375.29166666666</v>
       </c>
       <c r="F291" t="s">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="G291" t="s">
-        <v>83</v>
+        <v>49</v>
       </c>
       <c r="H291">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I291">
         <v>2</v>
       </c>
       <c r="J291" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="K291">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="L291">
+        <v>3.75</v>
+      </c>
+      <c r="M291">
         <v>3.4</v>
       </c>
-      <c r="M291">
-        <v>3.1</v>
-      </c>
       <c r="N291">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="O291">
+        <v>3.75</v>
+      </c>
+      <c r="P291">
         <v>3.4</v>
       </c>
-      <c r="P291">
-        <v>3.1</v>
-      </c>
       <c r="Q291">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R291">
+        <v>1.85</v>
+      </c>
+      <c r="S291">
+        <v>1.95</v>
+      </c>
+      <c r="T291">
+        <v>3</v>
+      </c>
+      <c r="U291">
         <v>1.8</v>
       </c>
-      <c r="S291">
-        <v>2</v>
-      </c>
-      <c r="T291">
-        <v>2.75</v>
-      </c>
-      <c r="U291">
-        <v>1.925</v>
-      </c>
       <c r="V291">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="W291">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="X291">
         <v>-1</v>
       </c>
       <c r="Y291">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Z291">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA291">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB291">
-        <v>0.4625</v>
+        <v>0.8</v>
       </c>
       <c r="AC291">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="292" spans="1:29">
@@ -26674,7 +26674,7 @@
         <v>291</v>
       </c>
       <c r="B293">
-        <v>8001822</v>
+        <v>8001828</v>
       </c>
       <c r="C293" t="s">
         <v>28</v>
@@ -26686,13 +26686,13 @@
         <v>45375.29166666666</v>
       </c>
       <c r="F293" t="s">
-        <v>33</v>
+        <v>58</v>
       </c>
       <c r="G293" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="H293">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I293">
         <v>0</v>
@@ -26701,43 +26701,43 @@
         <v>99</v>
       </c>
       <c r="K293">
-        <v>1.444</v>
+        <v>2.625</v>
       </c>
       <c r="L293">
-        <v>4.2</v>
+        <v>3.5</v>
       </c>
       <c r="M293">
-        <v>5.5</v>
+        <v>2.25</v>
       </c>
       <c r="N293">
-        <v>1.444</v>
+        <v>2.625</v>
       </c>
       <c r="O293">
-        <v>4.2</v>
+        <v>3.5</v>
       </c>
       <c r="P293">
-        <v>5.5</v>
+        <v>2.25</v>
       </c>
       <c r="Q293">
-        <v>-1.25</v>
+        <v>0.25</v>
       </c>
       <c r="R293">
-        <v>1.95</v>
+        <v>1.725</v>
       </c>
       <c r="S293">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="T293">
         <v>2.75</v>
       </c>
       <c r="U293">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="V293">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="W293">
-        <v>0.444</v>
+        <v>1.625</v>
       </c>
       <c r="X293">
         <v>-1</v>
@@ -26746,7 +26746,7 @@
         <v>-1</v>
       </c>
       <c r="Z293">
-        <v>0.95</v>
+        <v>0.7250000000000001</v>
       </c>
       <c r="AA293">
         <v>-1</v>
@@ -26755,7 +26755,7 @@
         <v>-1</v>
       </c>
       <c r="AC293">
-        <v>1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="294" spans="1:29">
@@ -26763,7 +26763,7 @@
         <v>292</v>
       </c>
       <c r="B294">
-        <v>8001828</v>
+        <v>8004562</v>
       </c>
       <c r="C294" t="s">
         <v>28</v>
@@ -26775,76 +26775,76 @@
         <v>45375.29166666666</v>
       </c>
       <c r="F294" t="s">
-        <v>58</v>
+        <v>31</v>
       </c>
       <c r="G294" t="s">
-        <v>69</v>
+        <v>80</v>
       </c>
       <c r="H294">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I294">
+        <v>1</v>
+      </c>
+      <c r="J294" t="s">
+        <v>98</v>
+      </c>
+      <c r="K294">
+        <v>2.4</v>
+      </c>
+      <c r="L294">
+        <v>3.4</v>
+      </c>
+      <c r="M294">
+        <v>2.5</v>
+      </c>
+      <c r="N294">
+        <v>2.4</v>
+      </c>
+      <c r="O294">
+        <v>3.4</v>
+      </c>
+      <c r="P294">
+        <v>2.5</v>
+      </c>
+      <c r="Q294">
         <v>0</v>
       </c>
-      <c r="J294" t="s">
-        <v>99</v>
-      </c>
-      <c r="K294">
-        <v>2.625</v>
-      </c>
-      <c r="L294">
-        <v>3.5</v>
-      </c>
-      <c r="M294">
-        <v>2.25</v>
-      </c>
-      <c r="N294">
-        <v>2.625</v>
-      </c>
-      <c r="O294">
-        <v>3.5</v>
-      </c>
-      <c r="P294">
-        <v>2.25</v>
-      </c>
-      <c r="Q294">
-        <v>0.25</v>
-      </c>
       <c r="R294">
-        <v>1.725</v>
+        <v>1.85</v>
       </c>
       <c r="S294">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="T294">
         <v>2.75</v>
       </c>
       <c r="U294">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="V294">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="W294">
-        <v>1.625</v>
+        <v>-1</v>
       </c>
       <c r="X294">
         <v>-1</v>
       </c>
       <c r="Y294">
-        <v>-1</v>
+        <v>1.5</v>
       </c>
       <c r="Z294">
-        <v>0.7250000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA294">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB294">
         <v>-1</v>
       </c>
       <c r="AC294">
-        <v>0.9750000000000001</v>
+        <v>1</v>
       </c>
     </row>
     <row r="295" spans="1:29">
@@ -26852,7 +26852,7 @@
         <v>293</v>
       </c>
       <c r="B295">
-        <v>8001728</v>
+        <v>8001726</v>
       </c>
       <c r="C295" t="s">
         <v>28</v>
@@ -26864,10 +26864,10 @@
         <v>45375.29166666666</v>
       </c>
       <c r="F295" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="G295" t="s">
-        <v>49</v>
+        <v>75</v>
       </c>
       <c r="H295">
         <v>4</v>
@@ -26879,19 +26879,19 @@
         <v>99</v>
       </c>
       <c r="K295">
-        <v>1.8</v>
+        <v>1.909</v>
       </c>
       <c r="L295">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="M295">
         <v>3.4</v>
       </c>
       <c r="N295">
-        <v>1.8</v>
+        <v>1.909</v>
       </c>
       <c r="O295">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="P295">
         <v>3.4</v>
@@ -26900,22 +26900,22 @@
         <v>-0.5</v>
       </c>
       <c r="R295">
+        <v>1.975</v>
+      </c>
+      <c r="S295">
+        <v>1.825</v>
+      </c>
+      <c r="T295">
+        <v>2.75</v>
+      </c>
+      <c r="U295">
         <v>1.85</v>
       </c>
-      <c r="S295">
+      <c r="V295">
         <v>1.95</v>
       </c>
-      <c r="T295">
-        <v>3</v>
-      </c>
-      <c r="U295">
-        <v>1.8</v>
-      </c>
-      <c r="V295">
-        <v>2</v>
-      </c>
       <c r="W295">
-        <v>0.8</v>
+        <v>0.909</v>
       </c>
       <c r="X295">
         <v>-1</v>
@@ -26924,13 +26924,13 @@
         <v>-1</v>
       </c>
       <c r="Z295">
+        <v>0.9750000000000001</v>
+      </c>
+      <c r="AA295">
+        <v>-1</v>
+      </c>
+      <c r="AB295">
         <v>0.8500000000000001</v>
-      </c>
-      <c r="AA295">
-        <v>-1</v>
-      </c>
-      <c r="AB295">
-        <v>0.8</v>
       </c>
       <c r="AC295">
         <v>-1</v>
@@ -28276,7 +28276,7 @@
         <v>309</v>
       </c>
       <c r="B311">
-        <v>8030750</v>
+        <v>8030749</v>
       </c>
       <c r="C311" t="s">
         <v>28</v>
@@ -28288,76 +28288,76 @@
         <v>45382.25</v>
       </c>
       <c r="F311" t="s">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="G311" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="H311">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I311">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J311" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="K311">
-        <v>4.75</v>
+        <v>1.571</v>
       </c>
       <c r="L311">
         <v>4</v>
       </c>
       <c r="M311">
-        <v>1.533</v>
+        <v>4.333</v>
       </c>
       <c r="N311">
-        <v>4.75</v>
+        <v>1.571</v>
       </c>
       <c r="O311">
         <v>4</v>
       </c>
       <c r="P311">
-        <v>1.533</v>
+        <v>4.333</v>
       </c>
       <c r="Q311">
-        <v>1</v>
+        <v>-0.75</v>
       </c>
       <c r="R311">
-        <v>1.9</v>
+        <v>1.75</v>
       </c>
       <c r="S311">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="T311">
         <v>3</v>
       </c>
       <c r="U311">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="V311">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="W311">
         <v>-1</v>
       </c>
       <c r="X311">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Y311">
-        <v>0.5329999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z311">
         <v>-1</v>
       </c>
       <c r="AA311">
-        <v>0.8999999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="AB311">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC311">
-        <v>-0</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="312" spans="1:29">
@@ -28365,7 +28365,7 @@
         <v>310</v>
       </c>
       <c r="B312">
-        <v>8030692</v>
+        <v>8030750</v>
       </c>
       <c r="C312" t="s">
         <v>28</v>
@@ -28377,55 +28377,55 @@
         <v>45382.25</v>
       </c>
       <c r="F312" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="G312" t="s">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="H312">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I312">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J312" t="s">
         <v>98</v>
       </c>
       <c r="K312">
-        <v>6</v>
+        <v>4.75</v>
       </c>
       <c r="L312">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M312">
-        <v>1.333</v>
+        <v>1.533</v>
       </c>
       <c r="N312">
-        <v>6</v>
+        <v>4.75</v>
       </c>
       <c r="O312">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="P312">
-        <v>1.333</v>
+        <v>1.533</v>
       </c>
       <c r="Q312">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="R312">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="S312">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="T312">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="U312">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="V312">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="W312">
         <v>-1</v>
@@ -28434,19 +28434,19 @@
         <v>-1</v>
       </c>
       <c r="Y312">
-        <v>0.333</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="Z312">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA312">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB312">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC312">
-        <v>0.8999999999999999</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="313" spans="1:29">
@@ -28454,7 +28454,7 @@
         <v>311</v>
       </c>
       <c r="B313">
-        <v>8030693</v>
+        <v>8030692</v>
       </c>
       <c r="C313" t="s">
         <v>28</v>
@@ -28466,76 +28466,76 @@
         <v>45382.25</v>
       </c>
       <c r="F313" t="s">
-        <v>50</v>
+        <v>32</v>
       </c>
       <c r="G313" t="s">
-        <v>88</v>
+        <v>39</v>
       </c>
       <c r="H313">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I313">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J313" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="K313">
+        <v>6</v>
+      </c>
+      <c r="L313">
+        <v>5</v>
+      </c>
+      <c r="M313">
+        <v>1.333</v>
+      </c>
+      <c r="N313">
+        <v>6</v>
+      </c>
+      <c r="O313">
+        <v>5</v>
+      </c>
+      <c r="P313">
+        <v>1.333</v>
+      </c>
+      <c r="Q313">
+        <v>1.5</v>
+      </c>
+      <c r="R313">
+        <v>1.95</v>
+      </c>
+      <c r="S313">
+        <v>1.85</v>
+      </c>
+      <c r="T313">
         <v>3.5</v>
       </c>
-      <c r="L313">
-        <v>4</v>
-      </c>
-      <c r="M313">
-        <v>1.727</v>
-      </c>
-      <c r="N313">
-        <v>3.5</v>
-      </c>
-      <c r="O313">
-        <v>4</v>
-      </c>
-      <c r="P313">
-        <v>1.727</v>
-      </c>
-      <c r="Q313">
-        <v>0.75</v>
-      </c>
-      <c r="R313">
-        <v>1.825</v>
-      </c>
-      <c r="S313">
-        <v>1.975</v>
-      </c>
-      <c r="T313">
-        <v>3</v>
-      </c>
       <c r="U313">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="V313">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W313">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="X313">
         <v>-1</v>
       </c>
       <c r="Y313">
-        <v>-1</v>
+        <v>0.333</v>
       </c>
       <c r="Z313">
-        <v>0.825</v>
+        <v>0.95</v>
       </c>
       <c r="AA313">
         <v>-1</v>
       </c>
       <c r="AB313">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC313">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="314" spans="1:29">
@@ -28543,7 +28543,7 @@
         <v>312</v>
       </c>
       <c r="B314">
-        <v>8030749</v>
+        <v>8030693</v>
       </c>
       <c r="C314" t="s">
         <v>28</v>
@@ -28555,76 +28555,76 @@
         <v>45382.25</v>
       </c>
       <c r="F314" t="s">
-        <v>74</v>
+        <v>50</v>
       </c>
       <c r="G314" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="H314">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I314">
         <v>1</v>
       </c>
       <c r="J314" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="K314">
-        <v>1.571</v>
+        <v>3.5</v>
       </c>
       <c r="L314">
         <v>4</v>
       </c>
       <c r="M314">
-        <v>4.333</v>
+        <v>1.727</v>
       </c>
       <c r="N314">
-        <v>1.571</v>
+        <v>3.5</v>
       </c>
       <c r="O314">
         <v>4</v>
       </c>
       <c r="P314">
-        <v>4.333</v>
+        <v>1.727</v>
       </c>
       <c r="Q314">
-        <v>-0.75</v>
+        <v>0.75</v>
       </c>
       <c r="R314">
-        <v>1.75</v>
+        <v>1.825</v>
       </c>
       <c r="S314">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="T314">
         <v>3</v>
       </c>
       <c r="U314">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="V314">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="W314">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="X314">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y314">
         <v>-1</v>
       </c>
       <c r="Z314">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA314">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AB314">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC314">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="315" spans="1:29">
@@ -29433,7 +29433,7 @@
         <v>322</v>
       </c>
       <c r="B324">
-        <v>8030694</v>
+        <v>8030799</v>
       </c>
       <c r="C324" t="s">
         <v>28</v>
@@ -29445,76 +29445,76 @@
         <v>45382.45833333334</v>
       </c>
       <c r="F324" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="G324" t="s">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="H324">
         <v>1</v>
       </c>
       <c r="I324">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J324" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="K324">
-        <v>2.375</v>
+        <v>2.1</v>
       </c>
       <c r="L324">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="M324">
-        <v>2.6</v>
+        <v>2.9</v>
       </c>
       <c r="N324">
+        <v>2.1</v>
+      </c>
+      <c r="O324">
+        <v>3.4</v>
+      </c>
+      <c r="P324">
+        <v>2.9</v>
+      </c>
+      <c r="Q324">
+        <v>-0.25</v>
+      </c>
+      <c r="R324">
+        <v>1.9</v>
+      </c>
+      <c r="S324">
+        <v>1.9</v>
+      </c>
+      <c r="T324">
         <v>2.75</v>
       </c>
-      <c r="O324">
-        <v>3.25</v>
-      </c>
-      <c r="P324">
-        <v>2.25</v>
-      </c>
-      <c r="Q324">
-        <v>0.25</v>
-      </c>
-      <c r="R324">
-        <v>1.775</v>
-      </c>
-      <c r="S324">
-        <v>2.025</v>
-      </c>
-      <c r="T324">
-        <v>2.5</v>
-      </c>
       <c r="U324">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="V324">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="W324">
         <v>-1</v>
       </c>
       <c r="X324">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y324">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="Z324">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA324">
-        <v>1.025</v>
+        <v>0.45</v>
       </c>
       <c r="AB324">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC324">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="325" spans="1:29">
@@ -29522,7 +29522,7 @@
         <v>323</v>
       </c>
       <c r="B325">
-        <v>8030799</v>
+        <v>8030694</v>
       </c>
       <c r="C325" t="s">
         <v>28</v>
@@ -29534,76 +29534,76 @@
         <v>45382.45833333334</v>
       </c>
       <c r="F325" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="G325" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="H325">
         <v>1</v>
       </c>
       <c r="I325">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J325" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="K325">
-        <v>2.1</v>
+        <v>2.375</v>
       </c>
       <c r="L325">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="M325">
-        <v>2.9</v>
+        <v>2.6</v>
       </c>
       <c r="N325">
-        <v>2.1</v>
+        <v>2.75</v>
       </c>
       <c r="O325">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="P325">
-        <v>2.9</v>
+        <v>2.25</v>
       </c>
       <c r="Q325">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R325">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="S325">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="T325">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U325">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="V325">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="W325">
         <v>-1</v>
       </c>
       <c r="X325">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y325">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="Z325">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA325">
-        <v>0.45</v>
+        <v>1.025</v>
       </c>
       <c r="AB325">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC325">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
   </sheetData>

--- a/Hungary NB III/Hungary NB III.xlsx
+++ b/Hungary NB III/Hungary NB III.xlsx
@@ -106,22 +106,19 @@
     <t>Kisvarda II</t>
   </si>
   <si>
+    <t>Puskas Academy II</t>
+  </si>
+  <si>
+    <t>Gyri ETO II</t>
+  </si>
+  <si>
     <t>Budapest Honved II</t>
   </si>
   <si>
     <t>Diosgyori VTK II</t>
   </si>
   <si>
-    <t>Gyri ETO II</t>
-  </si>
-  <si>
-    <t>Puskas Academy II</t>
-  </si>
-  <si>
     <t>DEAC</t>
-  </si>
-  <si>
-    <t>Rakospalotai EAC</t>
   </si>
   <si>
     <t>MTK Budapest II</t>
@@ -133,13 +130,16 @@
     <t>BKV Elore SC</t>
   </si>
   <si>
+    <t>Balatonfuredi FC</t>
+  </si>
+  <si>
     <t>Erdi VSE</t>
   </si>
   <si>
     <t>ESMTK</t>
   </si>
   <si>
-    <t>Balatonfuredi FC</t>
+    <t>Rakospalotai EAC</t>
   </si>
   <si>
     <t>FC Dabas</t>
@@ -157,31 +157,31 @@
     <t>FC Tatabanya</t>
   </si>
   <si>
-    <t>Kecskemeti TE II</t>
+    <t>Dorogi FC</t>
   </si>
   <si>
-    <t>Dorogi FC</t>
+    <t>Kecskemeti TE II</t>
   </si>
   <si>
     <t>FC Nagykanizsa</t>
   </si>
   <si>
+    <t>Bicskei TC</t>
+  </si>
+  <si>
     <t>Debreceni II</t>
   </si>
   <si>
-    <t>Kelen SC</t>
-  </si>
-  <si>
-    <t>Bicskei TC</t>
+    <t>PEAC FC</t>
   </si>
   <si>
     <t>FC Tiszaujvaros</t>
   </si>
   <si>
-    <t>PEAC FC</t>
+    <t>III Keruleti TUE</t>
   </si>
   <si>
-    <t>III Keruleti TUE</t>
+    <t>Kelen SC</t>
   </si>
   <si>
     <t>Cegledi VSE</t>
@@ -268,10 +268,10 @@
     <t>Ujpest II</t>
   </si>
   <si>
-    <t>FC Hatvan</t>
+    <t>Gardonyi VSC</t>
   </si>
   <si>
-    <t>Gardonyi VSC</t>
+    <t>FC Hatvan</t>
   </si>
   <si>
     <t>Hodmezovasarhelyi</t>
@@ -790,7 +790,7 @@
         <v>29</v>
       </c>
       <c r="G2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H2">
         <v>2</v>
@@ -864,7 +864,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>6991492</v>
+        <v>6991493</v>
       </c>
       <c r="C3" t="s">
         <v>28</v>
@@ -879,73 +879,73 @@
         <v>30</v>
       </c>
       <c r="G3" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
         <v>1</v>
       </c>
-      <c r="I3">
-        <v>0</v>
-      </c>
       <c r="J3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="K3">
-        <v>1.571</v>
+        <v>2.25</v>
       </c>
       <c r="L3">
-        <v>4</v>
+        <v>3.2</v>
       </c>
       <c r="M3">
-        <v>4.5</v>
+        <v>2.8</v>
       </c>
       <c r="N3">
-        <v>1.571</v>
+        <v>2.25</v>
       </c>
       <c r="O3">
-        <v>4</v>
+        <v>3.2</v>
       </c>
       <c r="P3">
-        <v>4.5</v>
+        <v>2.8</v>
       </c>
       <c r="Q3">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="R3">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="S3">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="T3">
         <v>3</v>
       </c>
       <c r="U3">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="V3">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="W3">
-        <v>0.571</v>
+        <v>-1</v>
       </c>
       <c r="X3">
         <v>-1</v>
       </c>
       <c r="Y3">
-        <v>-1</v>
+        <v>1.8</v>
       </c>
       <c r="Z3">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA3">
-        <v>-0</v>
+        <v>0.8</v>
       </c>
       <c r="AB3">
         <v>-1</v>
       </c>
       <c r="AC3">
-        <v>0.925</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="4" spans="1:29">
@@ -953,7 +953,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>6991591</v>
+        <v>6991504</v>
       </c>
       <c r="C4" t="s">
         <v>28</v>
@@ -968,10 +968,10 @@
         <v>31</v>
       </c>
       <c r="G4" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="H4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I4">
         <v>3</v>
@@ -980,25 +980,25 @@
         <v>98</v>
       </c>
       <c r="K4">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="L4">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="M4">
-        <v>1.909</v>
+        <v>1.727</v>
       </c>
       <c r="N4">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="O4">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="P4">
-        <v>1.909</v>
+        <v>1.727</v>
       </c>
       <c r="Q4">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="R4">
         <v>1.825</v>
@@ -1007,13 +1007,13 @@
         <v>1.975</v>
       </c>
       <c r="T4">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U4">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="V4">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="W4">
         <v>-1</v>
@@ -1022,7 +1022,7 @@
         <v>-1</v>
       </c>
       <c r="Y4">
-        <v>0.909</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="Z4">
         <v>-1</v>
@@ -1031,7 +1031,7 @@
         <v>0.9750000000000001</v>
       </c>
       <c r="AB4">
-        <v>0.8500000000000001</v>
+        <v>1</v>
       </c>
       <c r="AC4">
         <v>-1</v>
@@ -1042,7 +1042,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>6991504</v>
+        <v>6991492</v>
       </c>
       <c r="C5" t="s">
         <v>28</v>
@@ -1057,73 +1057,73 @@
         <v>32</v>
       </c>
       <c r="G5" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="H5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J5" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="K5">
-        <v>3.5</v>
+        <v>1.571</v>
       </c>
       <c r="L5">
         <v>4</v>
       </c>
       <c r="M5">
-        <v>1.727</v>
+        <v>4.5</v>
       </c>
       <c r="N5">
-        <v>3.5</v>
+        <v>1.571</v>
       </c>
       <c r="O5">
         <v>4</v>
       </c>
       <c r="P5">
-        <v>1.727</v>
+        <v>4.5</v>
       </c>
       <c r="Q5">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="R5">
+        <v>1.975</v>
+      </c>
+      <c r="S5">
         <v>1.825</v>
       </c>
-      <c r="S5">
-        <v>1.975</v>
-      </c>
       <c r="T5">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U5">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="V5">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="W5">
-        <v>-1</v>
+        <v>0.571</v>
       </c>
       <c r="X5">
         <v>-1</v>
       </c>
       <c r="Y5">
-        <v>0.7270000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z5">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA5">
-        <v>0.9750000000000001</v>
+        <v>-0</v>
       </c>
       <c r="AB5">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC5">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="6" spans="1:29">
@@ -1131,7 +1131,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>6991493</v>
+        <v>6991591</v>
       </c>
       <c r="C6" t="s">
         <v>28</v>
@@ -1146,52 +1146,52 @@
         <v>33</v>
       </c>
       <c r="G6" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J6" t="s">
         <v>98</v>
       </c>
       <c r="K6">
-        <v>2.25</v>
+        <v>3.1</v>
       </c>
       <c r="L6">
-        <v>3.2</v>
+        <v>3.75</v>
       </c>
       <c r="M6">
-        <v>2.8</v>
+        <v>1.909</v>
       </c>
       <c r="N6">
-        <v>2.25</v>
+        <v>3.1</v>
       </c>
       <c r="O6">
-        <v>3.2</v>
+        <v>3.75</v>
       </c>
       <c r="P6">
-        <v>2.8</v>
+        <v>1.909</v>
       </c>
       <c r="Q6">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R6">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="S6">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="T6">
         <v>3</v>
       </c>
       <c r="U6">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="V6">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="W6">
         <v>-1</v>
@@ -1200,19 +1200,19 @@
         <v>-1</v>
       </c>
       <c r="Y6">
-        <v>1.8</v>
+        <v>0.909</v>
       </c>
       <c r="Z6">
         <v>-1</v>
       </c>
       <c r="AA6">
-        <v>0.8</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB6">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC6">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="7" spans="1:29">
@@ -1309,7 +1309,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>6991588</v>
+        <v>6991590</v>
       </c>
       <c r="C8" t="s">
         <v>28</v>
@@ -1324,73 +1324,73 @@
         <v>35</v>
       </c>
       <c r="G8" t="s">
-        <v>83</v>
+        <v>49</v>
       </c>
       <c r="H8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J8" t="s">
         <v>100</v>
       </c>
       <c r="K8">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="L8">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="M8">
-        <v>1.909</v>
+        <v>2.5</v>
       </c>
       <c r="N8">
-        <v>3</v>
+        <v>2.375</v>
       </c>
       <c r="O8">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="P8">
-        <v>1.909</v>
+        <v>2.375</v>
       </c>
       <c r="Q8">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="R8">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="S8">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="T8">
         <v>3</v>
       </c>
       <c r="U8">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="V8">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="W8">
         <v>-1</v>
       </c>
       <c r="X8">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="Y8">
         <v>-1</v>
       </c>
       <c r="Z8">
-        <v>0.8500000000000001</v>
+        <v>0</v>
       </c>
       <c r="AA8">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB8">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC8">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="9" spans="1:29">
@@ -1398,7 +1398,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>6991590</v>
+        <v>6991592</v>
       </c>
       <c r="C9" t="s">
         <v>28</v>
@@ -1413,49 +1413,49 @@
         <v>36</v>
       </c>
       <c r="G9" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I9">
         <v>1</v>
       </c>
       <c r="J9" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="K9">
         <v>2.25</v>
       </c>
       <c r="L9">
+        <v>3.5</v>
+      </c>
+      <c r="M9">
+        <v>2.6</v>
+      </c>
+      <c r="N9">
+        <v>1.571</v>
+      </c>
+      <c r="O9">
+        <v>4.75</v>
+      </c>
+      <c r="P9">
         <v>3.75</v>
       </c>
-      <c r="M9">
+      <c r="Q9">
+        <v>-1</v>
+      </c>
+      <c r="R9">
+        <v>2</v>
+      </c>
+      <c r="S9">
+        <v>1.8</v>
+      </c>
+      <c r="T9">
         <v>2.5</v>
       </c>
-      <c r="N9">
-        <v>2.375</v>
-      </c>
-      <c r="O9">
-        <v>3.75</v>
-      </c>
-      <c r="P9">
-        <v>2.375</v>
-      </c>
-      <c r="Q9">
-        <v>0</v>
-      </c>
-      <c r="R9">
-        <v>1.9</v>
-      </c>
-      <c r="S9">
-        <v>1.9</v>
-      </c>
-      <c r="T9">
-        <v>3</v>
-      </c>
       <c r="U9">
-        <v>1.85</v>
+        <v>1.75</v>
       </c>
       <c r="V9">
         <v>1.95</v>
@@ -1464,16 +1464,16 @@
         <v>-1</v>
       </c>
       <c r="X9">
+        <v>-1</v>
+      </c>
+      <c r="Y9">
         <v>2.75</v>
       </c>
-      <c r="Y9">
-        <v>-1</v>
-      </c>
       <c r="Z9">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA9">
-        <v>-0</v>
+        <v>0.8</v>
       </c>
       <c r="AB9">
         <v>-1</v>
@@ -1487,7 +1487,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>6991592</v>
+        <v>6991585</v>
       </c>
       <c r="C10" t="s">
         <v>28</v>
@@ -1502,13 +1502,13 @@
         <v>37</v>
       </c>
       <c r="G10" t="s">
-        <v>52</v>
+        <v>75</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J10" t="s">
         <v>98</v>
@@ -1517,37 +1517,37 @@
         <v>2.25</v>
       </c>
       <c r="L10">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="M10">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="N10">
-        <v>1.571</v>
+        <v>2.25</v>
       </c>
       <c r="O10">
-        <v>4.75</v>
+        <v>3.75</v>
       </c>
       <c r="P10">
-        <v>3.75</v>
+        <v>2.5</v>
       </c>
       <c r="Q10">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="R10">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="S10">
+        <v>2</v>
+      </c>
+      <c r="T10">
+        <v>2.75</v>
+      </c>
+      <c r="U10">
         <v>1.8</v>
       </c>
-      <c r="T10">
-        <v>2.5</v>
-      </c>
-      <c r="U10">
-        <v>1.75</v>
-      </c>
       <c r="V10">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W10">
         <v>-1</v>
@@ -1556,19 +1556,19 @@
         <v>-1</v>
       </c>
       <c r="Y10">
-        <v>2.75</v>
+        <v>1.5</v>
       </c>
       <c r="Z10">
         <v>-1</v>
       </c>
       <c r="AA10">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AB10">
-        <v>-1</v>
+        <v>0.4</v>
       </c>
       <c r="AC10">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="11" spans="1:29">
@@ -1576,7 +1576,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>6991585</v>
+        <v>6991520</v>
       </c>
       <c r="C11" t="s">
         <v>28</v>
@@ -1591,73 +1591,73 @@
         <v>38</v>
       </c>
       <c r="G11" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="H11">
+        <v>1</v>
+      </c>
+      <c r="I11">
         <v>0</v>
       </c>
-      <c r="I11">
-        <v>3</v>
-      </c>
       <c r="J11" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="K11">
-        <v>2.25</v>
+        <v>1.909</v>
       </c>
       <c r="L11">
         <v>3.75</v>
       </c>
       <c r="M11">
-        <v>2.5</v>
+        <v>3.1</v>
       </c>
       <c r="N11">
-        <v>2.25</v>
+        <v>1.909</v>
       </c>
       <c r="O11">
         <v>3.75</v>
       </c>
       <c r="P11">
-        <v>2.5</v>
+        <v>3.1</v>
       </c>
       <c r="Q11">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R11">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="S11">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="T11">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U11">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="V11">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="W11">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="X11">
         <v>-1</v>
       </c>
       <c r="Y11">
-        <v>1.5</v>
+        <v>-1</v>
       </c>
       <c r="Z11">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA11">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB11">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
       <c r="AC11">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="12" spans="1:29">
@@ -1843,7 +1843,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>6991520</v>
+        <v>6991588</v>
       </c>
       <c r="C14" t="s">
         <v>28</v>
@@ -1858,73 +1858,73 @@
         <v>41</v>
       </c>
       <c r="G14" t="s">
-        <v>65</v>
+        <v>83</v>
       </c>
       <c r="H14">
+        <v>2</v>
+      </c>
+      <c r="I14">
+        <v>2</v>
+      </c>
+      <c r="J14" t="s">
+        <v>100</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>4</v>
+      </c>
+      <c r="M14">
+        <v>1.909</v>
+      </c>
+      <c r="N14">
+        <v>3</v>
+      </c>
+      <c r="O14">
+        <v>4</v>
+      </c>
+      <c r="P14">
+        <v>1.909</v>
+      </c>
+      <c r="Q14">
+        <v>0.5</v>
+      </c>
+      <c r="R14">
+        <v>1.85</v>
+      </c>
+      <c r="S14">
+        <v>1.95</v>
+      </c>
+      <c r="T14">
+        <v>3</v>
+      </c>
+      <c r="U14">
+        <v>2</v>
+      </c>
+      <c r="V14">
+        <v>1.8</v>
+      </c>
+      <c r="W14">
+        <v>-1</v>
+      </c>
+      <c r="X14">
+        <v>3</v>
+      </c>
+      <c r="Y14">
+        <v>-1</v>
+      </c>
+      <c r="Z14">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="AA14">
+        <v>-1</v>
+      </c>
+      <c r="AB14">
         <v>1</v>
       </c>
-      <c r="I14">
-        <v>0</v>
-      </c>
-      <c r="J14" t="s">
-        <v>99</v>
-      </c>
-      <c r="K14">
-        <v>1.909</v>
-      </c>
-      <c r="L14">
-        <v>3.75</v>
-      </c>
-      <c r="M14">
-        <v>3.1</v>
-      </c>
-      <c r="N14">
-        <v>1.909</v>
-      </c>
-      <c r="O14">
-        <v>3.75</v>
-      </c>
-      <c r="P14">
-        <v>3.1</v>
-      </c>
-      <c r="Q14">
-        <v>-0.5</v>
-      </c>
-      <c r="R14">
-        <v>1.975</v>
-      </c>
-      <c r="S14">
-        <v>1.825</v>
-      </c>
-      <c r="T14">
-        <v>3.25</v>
-      </c>
-      <c r="U14">
-        <v>1.85</v>
-      </c>
-      <c r="V14">
-        <v>1.95</v>
-      </c>
-      <c r="W14">
-        <v>0.909</v>
-      </c>
-      <c r="X14">
-        <v>-1</v>
-      </c>
-      <c r="Y14">
-        <v>-1</v>
-      </c>
-      <c r="Z14">
-        <v>0.9750000000000001</v>
-      </c>
-      <c r="AA14">
-        <v>-1</v>
-      </c>
-      <c r="AB14">
-        <v>-1</v>
-      </c>
       <c r="AC14">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="15" spans="1:29">
@@ -2303,7 +2303,7 @@
         <v>45</v>
       </c>
       <c r="G19" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H19">
         <v>1</v>
@@ -2466,7 +2466,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>7005744</v>
+        <v>7005727</v>
       </c>
       <c r="C21" t="s">
         <v>28</v>
@@ -2481,73 +2481,73 @@
         <v>47</v>
       </c>
       <c r="G21" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="H21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I21">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J21" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="K21">
-        <v>2.25</v>
+        <v>1.909</v>
       </c>
       <c r="L21">
         <v>4</v>
       </c>
       <c r="M21">
-        <v>2.4</v>
+        <v>3</v>
       </c>
       <c r="N21">
-        <v>2.25</v>
+        <v>1.909</v>
       </c>
       <c r="O21">
         <v>4</v>
       </c>
       <c r="P21">
-        <v>2.45</v>
+        <v>3</v>
       </c>
       <c r="Q21">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R21">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="S21">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="T21">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U21">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="V21">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="W21">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="X21">
         <v>-1</v>
       </c>
       <c r="Y21">
-        <v>1.45</v>
+        <v>-1</v>
       </c>
       <c r="Z21">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA21">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB21">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC21">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="22" spans="1:29">
@@ -2555,7 +2555,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>7005727</v>
+        <v>7005744</v>
       </c>
       <c r="C22" t="s">
         <v>28</v>
@@ -2570,73 +2570,73 @@
         <v>48</v>
       </c>
       <c r="G22" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="H22">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J22" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="K22">
-        <v>1.909</v>
+        <v>2.25</v>
       </c>
       <c r="L22">
         <v>4</v>
       </c>
       <c r="M22">
-        <v>3</v>
+        <v>2.4</v>
       </c>
       <c r="N22">
-        <v>1.909</v>
+        <v>2.25</v>
       </c>
       <c r="O22">
         <v>4</v>
       </c>
       <c r="P22">
+        <v>2.45</v>
+      </c>
+      <c r="Q22">
+        <v>0</v>
+      </c>
+      <c r="R22">
+        <v>1.8</v>
+      </c>
+      <c r="S22">
+        <v>2</v>
+      </c>
+      <c r="T22">
         <v>3</v>
       </c>
-      <c r="Q22">
-        <v>-0.5</v>
-      </c>
-      <c r="R22">
-        <v>1.975</v>
-      </c>
-      <c r="S22">
-        <v>1.825</v>
-      </c>
-      <c r="T22">
-        <v>2.75</v>
-      </c>
       <c r="U22">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="V22">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="W22">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="X22">
         <v>-1</v>
       </c>
       <c r="Y22">
-        <v>-1</v>
+        <v>1.45</v>
       </c>
       <c r="Z22">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA22">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB22">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC22">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="23" spans="1:29">
@@ -2733,7 +2733,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>7005760</v>
+        <v>7005723</v>
       </c>
       <c r="C24" t="s">
         <v>28</v>
@@ -2748,73 +2748,73 @@
         <v>50</v>
       </c>
       <c r="G24" t="s">
-        <v>64</v>
+        <v>38</v>
       </c>
       <c r="H24">
+        <v>2</v>
+      </c>
+      <c r="I24">
         <v>0</v>
       </c>
-      <c r="I24">
-        <v>4</v>
-      </c>
       <c r="J24" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="K24">
-        <v>2.5</v>
+        <v>1.909</v>
       </c>
       <c r="L24">
         <v>3.75</v>
       </c>
       <c r="M24">
-        <v>2.25</v>
+        <v>3.1</v>
       </c>
       <c r="N24">
-        <v>3.5</v>
+        <v>1.909</v>
       </c>
       <c r="O24">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="P24">
-        <v>1.727</v>
+        <v>3.1</v>
       </c>
       <c r="Q24">
-        <v>0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R24">
+        <v>1.975</v>
+      </c>
+      <c r="S24">
         <v>1.825</v>
       </c>
-      <c r="S24">
-        <v>1.975</v>
-      </c>
       <c r="T24">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U24">
-        <v>1.75</v>
+        <v>1.875</v>
       </c>
       <c r="V24">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="W24">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="X24">
         <v>-1</v>
       </c>
       <c r="Y24">
-        <v>0.7270000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z24">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA24">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB24">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AC24">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="25" spans="1:29">
@@ -2822,7 +2822,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>7005726</v>
+        <v>7005760</v>
       </c>
       <c r="C25" t="s">
         <v>28</v>
@@ -2837,73 +2837,73 @@
         <v>51</v>
       </c>
       <c r="G25" t="s">
-        <v>80</v>
+        <v>64</v>
       </c>
       <c r="H25">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I25">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J25" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="K25">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="L25">
         <v>3.75</v>
       </c>
       <c r="M25">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="N25">
-        <v>2.25</v>
+        <v>3.5</v>
       </c>
       <c r="O25">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="P25">
-        <v>2.5</v>
+        <v>1.727</v>
       </c>
       <c r="Q25">
-        <v>-0.25</v>
+        <v>0.75</v>
       </c>
       <c r="R25">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="S25">
+        <v>1.975</v>
+      </c>
+      <c r="T25">
+        <v>3</v>
+      </c>
+      <c r="U25">
         <v>1.75</v>
       </c>
-      <c r="T25">
-        <v>2.75</v>
-      </c>
-      <c r="U25">
-        <v>1.8</v>
-      </c>
       <c r="V25">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="W25">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="X25">
         <v>-1</v>
       </c>
       <c r="Y25">
-        <v>-1</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="Z25">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AA25">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB25">
-        <v>0.4</v>
+        <v>0.75</v>
       </c>
       <c r="AC25">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="26" spans="1:29">
@@ -2911,7 +2911,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>7005723</v>
+        <v>7005761</v>
       </c>
       <c r="C26" t="s">
         <v>28</v>
@@ -2926,73 +2926,73 @@
         <v>52</v>
       </c>
       <c r="G26" t="s">
-        <v>41</v>
+        <v>88</v>
       </c>
       <c r="H26">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J26" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="K26">
-        <v>1.909</v>
+        <v>2.25</v>
       </c>
       <c r="L26">
         <v>3.75</v>
       </c>
       <c r="M26">
-        <v>3.1</v>
+        <v>2.5</v>
       </c>
       <c r="N26">
-        <v>1.909</v>
+        <v>2</v>
       </c>
       <c r="O26">
         <v>3.75</v>
       </c>
       <c r="P26">
-        <v>3.1</v>
+        <v>2.9</v>
       </c>
       <c r="Q26">
+        <v>-0.25</v>
+      </c>
+      <c r="R26">
+        <v>1.8</v>
+      </c>
+      <c r="S26">
+        <v>2</v>
+      </c>
+      <c r="T26">
+        <v>2.5</v>
+      </c>
+      <c r="U26">
+        <v>1.85</v>
+      </c>
+      <c r="V26">
+        <v>1.95</v>
+      </c>
+      <c r="W26">
+        <v>-1</v>
+      </c>
+      <c r="X26">
+        <v>2.75</v>
+      </c>
+      <c r="Y26">
+        <v>-1</v>
+      </c>
+      <c r="Z26">
         <v>-0.5</v>
       </c>
-      <c r="R26">
-        <v>1.975</v>
-      </c>
-      <c r="S26">
-        <v>1.825</v>
-      </c>
-      <c r="T26">
-        <v>2.75</v>
-      </c>
-      <c r="U26">
-        <v>1.875</v>
-      </c>
-      <c r="V26">
-        <v>1.925</v>
-      </c>
-      <c r="W26">
-        <v>0.909</v>
-      </c>
-      <c r="X26">
-        <v>-1</v>
-      </c>
-      <c r="Y26">
-        <v>-1</v>
-      </c>
-      <c r="Z26">
-        <v>0.9750000000000001</v>
-      </c>
       <c r="AA26">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="AB26">
         <v>-1</v>
       </c>
       <c r="AC26">
-        <v>0.925</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="27" spans="1:29">
@@ -3015,7 +3015,7 @@
         <v>53</v>
       </c>
       <c r="G27" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H27">
         <v>2</v>
@@ -3089,7 +3089,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>7005761</v>
+        <v>7005724</v>
       </c>
       <c r="C28" t="s">
         <v>28</v>
@@ -3104,73 +3104,73 @@
         <v>54</v>
       </c>
       <c r="G28" t="s">
-        <v>88</v>
+        <v>69</v>
       </c>
       <c r="H28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J28" t="s">
         <v>100</v>
       </c>
       <c r="K28">
-        <v>2.25</v>
+        <v>1.2</v>
       </c>
       <c r="L28">
-        <v>3.75</v>
+        <v>6.5</v>
       </c>
       <c r="M28">
-        <v>2.5</v>
+        <v>9</v>
       </c>
       <c r="N28">
-        <v>2</v>
+        <v>1.142</v>
       </c>
       <c r="O28">
-        <v>3.75</v>
+        <v>7.5</v>
       </c>
       <c r="P28">
-        <v>2.9</v>
+        <v>12</v>
       </c>
       <c r="Q28">
-        <v>-0.25</v>
+        <v>-2.25</v>
       </c>
       <c r="R28">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="S28">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="T28">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="U28">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="V28">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="W28">
         <v>-1</v>
       </c>
       <c r="X28">
-        <v>2.75</v>
+        <v>6.5</v>
       </c>
       <c r="Y28">
         <v>-1</v>
       </c>
       <c r="Z28">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA28">
-        <v>0.5</v>
+        <v>0.95</v>
       </c>
       <c r="AB28">
         <v>-1</v>
       </c>
       <c r="AC28">
-        <v>0.95</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="29" spans="1:29">
@@ -3178,7 +3178,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>7005724</v>
+        <v>7005726</v>
       </c>
       <c r="C29" t="s">
         <v>28</v>
@@ -3193,73 +3193,73 @@
         <v>55</v>
       </c>
       <c r="G29" t="s">
-        <v>69</v>
+        <v>80</v>
       </c>
       <c r="H29">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J29" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="K29">
-        <v>1.2</v>
+        <v>2.25</v>
       </c>
       <c r="L29">
-        <v>6.5</v>
+        <v>3.75</v>
       </c>
       <c r="M29">
-        <v>9</v>
+        <v>2.5</v>
       </c>
       <c r="N29">
-        <v>1.142</v>
+        <v>2.25</v>
       </c>
       <c r="O29">
-        <v>7.5</v>
+        <v>3.75</v>
       </c>
       <c r="P29">
-        <v>12</v>
+        <v>2.5</v>
       </c>
       <c r="Q29">
-        <v>-2.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R29">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="S29">
-        <v>1.95</v>
+        <v>1.75</v>
       </c>
       <c r="T29">
-        <v>3.5</v>
+        <v>2.75</v>
       </c>
       <c r="U29">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="V29">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="W29">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="X29">
-        <v>6.5</v>
+        <v>-1</v>
       </c>
       <c r="Y29">
         <v>-1</v>
       </c>
       <c r="Z29">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AA29">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB29">
-        <v>-1</v>
+        <v>0.4</v>
       </c>
       <c r="AC29">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="30" spans="1:29">
@@ -3445,7 +3445,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>7055639</v>
+        <v>7059444</v>
       </c>
       <c r="C32" t="s">
         <v>28</v>
@@ -3457,10 +3457,10 @@
         <v>45151.25</v>
       </c>
       <c r="F32" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G32" t="s">
-        <v>52</v>
+        <v>89</v>
       </c>
       <c r="H32">
         <v>2</v>
@@ -3472,58 +3472,58 @@
         <v>100</v>
       </c>
       <c r="K32">
-        <v>2.625</v>
+        <v>1.727</v>
       </c>
       <c r="L32">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M32">
-        <v>2.15</v>
+        <v>3.8</v>
       </c>
       <c r="N32">
-        <v>3.1</v>
+        <v>1.727</v>
       </c>
       <c r="O32">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="P32">
-        <v>1.909</v>
+        <v>3.8</v>
       </c>
       <c r="Q32">
-        <v>0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R32">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="S32">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="T32">
         <v>3</v>
       </c>
       <c r="U32">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="V32">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="W32">
         <v>-1</v>
       </c>
       <c r="X32">
-        <v>2.75</v>
+        <v>2.6</v>
       </c>
       <c r="Y32">
         <v>-1</v>
       </c>
       <c r="Z32">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA32">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB32">
-        <v>0.875</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC32">
         <v>-1</v>
@@ -3534,7 +3534,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>7059444</v>
+        <v>7055632</v>
       </c>
       <c r="C33" t="s">
         <v>28</v>
@@ -3546,76 +3546,76 @@
         <v>45151.25</v>
       </c>
       <c r="F33" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G33" t="s">
-        <v>89</v>
+        <v>70</v>
       </c>
       <c r="H33">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I33">
         <v>2</v>
       </c>
       <c r="J33" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="K33">
-        <v>1.727</v>
+        <v>9</v>
       </c>
       <c r="L33">
-        <v>3.6</v>
+        <v>5.5</v>
       </c>
       <c r="M33">
-        <v>3.8</v>
+        <v>1.222</v>
       </c>
       <c r="N33">
-        <v>1.727</v>
+        <v>9</v>
       </c>
       <c r="O33">
-        <v>3.6</v>
+        <v>5.5</v>
       </c>
       <c r="P33">
-        <v>3.8</v>
+        <v>1.222</v>
       </c>
       <c r="Q33">
-        <v>-0.75</v>
+        <v>2</v>
       </c>
       <c r="R33">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="S33">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="T33">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="U33">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="V33">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="W33">
         <v>-1</v>
       </c>
       <c r="X33">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y33">
-        <v>-1</v>
+        <v>0.222</v>
       </c>
       <c r="Z33">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA33">
-        <v>0.825</v>
+        <v>-0</v>
       </c>
       <c r="AB33">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC33">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
     </row>
     <row r="34" spans="1:29">
@@ -3623,7 +3623,7 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>7055632</v>
+        <v>7055639</v>
       </c>
       <c r="C34" t="s">
         <v>28</v>
@@ -3635,76 +3635,76 @@
         <v>45151.25</v>
       </c>
       <c r="F34" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G34" t="s">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="H34">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I34">
         <v>2</v>
       </c>
       <c r="J34" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="K34">
-        <v>9</v>
+        <v>2.625</v>
       </c>
       <c r="L34">
-        <v>5.5</v>
+        <v>3.75</v>
       </c>
       <c r="M34">
-        <v>1.222</v>
+        <v>2.15</v>
       </c>
       <c r="N34">
-        <v>9</v>
+        <v>3.1</v>
       </c>
       <c r="O34">
-        <v>5.5</v>
+        <v>3.75</v>
       </c>
       <c r="P34">
-        <v>1.222</v>
+        <v>1.909</v>
       </c>
       <c r="Q34">
-        <v>2</v>
+        <v>0.5</v>
       </c>
       <c r="R34">
+        <v>1.85</v>
+      </c>
+      <c r="S34">
+        <v>1.95</v>
+      </c>
+      <c r="T34">
+        <v>3</v>
+      </c>
+      <c r="U34">
         <v>1.875</v>
       </c>
-      <c r="S34">
+      <c r="V34">
         <v>1.925</v>
       </c>
-      <c r="T34">
-        <v>3.5</v>
-      </c>
-      <c r="U34">
-        <v>1.925</v>
-      </c>
-      <c r="V34">
-        <v>1.775</v>
-      </c>
       <c r="W34">
         <v>-1</v>
       </c>
       <c r="X34">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Y34">
-        <v>0.222</v>
+        <v>-1</v>
       </c>
       <c r="Z34">
-        <v>0</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA34">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB34">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC34">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="35" spans="1:29">
@@ -3712,7 +3712,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>7055638</v>
+        <v>7055640</v>
       </c>
       <c r="C35" t="s">
         <v>28</v>
@@ -3724,73 +3724,73 @@
         <v>45151.25</v>
       </c>
       <c r="F35" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G35" t="s">
-        <v>79</v>
+        <v>41</v>
       </c>
       <c r="H35">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I35">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J35" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="K35">
-        <v>2.625</v>
+        <v>1.571</v>
       </c>
       <c r="L35">
+        <v>4</v>
+      </c>
+      <c r="M35">
+        <v>4.5</v>
+      </c>
+      <c r="N35">
+        <v>1.75</v>
+      </c>
+      <c r="O35">
+        <v>3.75</v>
+      </c>
+      <c r="P35">
         <v>3.6</v>
       </c>
-      <c r="M35">
-        <v>2.2</v>
-      </c>
-      <c r="N35">
-        <v>3</v>
-      </c>
-      <c r="O35">
-        <v>3.6</v>
-      </c>
-      <c r="P35">
-        <v>2</v>
-      </c>
       <c r="Q35">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R35">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="S35">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="T35">
         <v>3</v>
       </c>
       <c r="U35">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="V35">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W35">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="X35">
         <v>-1</v>
       </c>
       <c r="Y35">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Z35">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA35">
+        <v>-1</v>
+      </c>
+      <c r="AB35">
         <v>0.8</v>
-      </c>
-      <c r="AB35">
-        <v>0.8999999999999999</v>
       </c>
       <c r="AC35">
         <v>-1</v>
@@ -3801,7 +3801,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>7055640</v>
+        <v>7055644</v>
       </c>
       <c r="C36" t="s">
         <v>28</v>
@@ -3813,13 +3813,13 @@
         <v>45151.25</v>
       </c>
       <c r="F36" t="s">
-        <v>29</v>
+        <v>58</v>
       </c>
       <c r="G36" t="s">
-        <v>35</v>
+        <v>72</v>
       </c>
       <c r="H36">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I36">
         <v>0</v>
@@ -3828,34 +3828,34 @@
         <v>99</v>
       </c>
       <c r="K36">
-        <v>1.571</v>
+        <v>2.2</v>
       </c>
       <c r="L36">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="M36">
-        <v>4.5</v>
+        <v>2.55</v>
       </c>
       <c r="N36">
-        <v>1.75</v>
+        <v>2.2</v>
       </c>
       <c r="O36">
         <v>3.75</v>
       </c>
       <c r="P36">
-        <v>3.6</v>
+        <v>2.55</v>
       </c>
       <c r="Q36">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R36">
-        <v>1.775</v>
+        <v>1.75</v>
       </c>
       <c r="S36">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="T36">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U36">
         <v>1.8</v>
@@ -3864,25 +3864,25 @@
         <v>2</v>
       </c>
       <c r="W36">
+        <v>1.2</v>
+      </c>
+      <c r="X36">
+        <v>-1</v>
+      </c>
+      <c r="Y36">
+        <v>-1</v>
+      </c>
+      <c r="Z36">
         <v>0.75</v>
       </c>
-      <c r="X36">
-        <v>-1</v>
-      </c>
-      <c r="Y36">
-        <v>-1</v>
-      </c>
-      <c r="Z36">
-        <v>0.7749999999999999</v>
-      </c>
       <c r="AA36">
         <v>-1</v>
       </c>
       <c r="AB36">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC36">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37" spans="1:29">
@@ -3890,7 +3890,7 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>7055644</v>
+        <v>7055638</v>
       </c>
       <c r="C37" t="s">
         <v>28</v>
@@ -3902,76 +3902,76 @@
         <v>45151.25</v>
       </c>
       <c r="F37" t="s">
-        <v>58</v>
+        <v>33</v>
       </c>
       <c r="G37" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="H37">
         <v>1</v>
       </c>
       <c r="I37">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J37" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="K37">
+        <v>2.625</v>
+      </c>
+      <c r="L37">
+        <v>3.6</v>
+      </c>
+      <c r="M37">
         <v>2.2</v>
       </c>
-      <c r="L37">
-        <v>3.75</v>
-      </c>
-      <c r="M37">
-        <v>2.55</v>
-      </c>
       <c r="N37">
-        <v>2.2</v>
+        <v>3</v>
       </c>
       <c r="O37">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="P37">
-        <v>2.55</v>
+        <v>2</v>
       </c>
       <c r="Q37">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R37">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="S37">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="T37">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U37">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="V37">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W37">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="X37">
         <v>-1</v>
       </c>
       <c r="Y37">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Z37">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AA37">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB37">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC37">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="38" spans="1:29">
@@ -3994,7 +3994,7 @@
         <v>59</v>
       </c>
       <c r="G38" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="H38">
         <v>3</v>
@@ -4261,7 +4261,7 @@
         <v>61</v>
       </c>
       <c r="G41" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H41">
         <v>1</v>
@@ -4350,7 +4350,7 @@
         <v>62</v>
       </c>
       <c r="G42" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H42">
         <v>1</v>
@@ -4436,10 +4436,10 @@
         <v>45151.52083333334</v>
       </c>
       <c r="F43" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G43" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H43">
         <v>1</v>
@@ -4525,7 +4525,7 @@
         <v>45151.52083333334</v>
       </c>
       <c r="F44" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G44" t="s">
         <v>46</v>
@@ -4703,7 +4703,7 @@
         <v>45151.52083333334</v>
       </c>
       <c r="F46" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G46" t="s">
         <v>81</v>
@@ -4792,10 +4792,10 @@
         <v>45151.52083333334</v>
       </c>
       <c r="F47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G47" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H47">
         <v>1</v>
@@ -4970,7 +4970,7 @@
         <v>45157.25</v>
       </c>
       <c r="F49" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G49" t="s">
         <v>90</v>
@@ -5148,7 +5148,7 @@
         <v>45157.25</v>
       </c>
       <c r="F51" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G51" t="s">
         <v>63</v>
@@ -5237,7 +5237,7 @@
         <v>45157.25</v>
       </c>
       <c r="F52" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G52" t="s">
         <v>40</v>
@@ -5418,7 +5418,7 @@
         <v>46</v>
       </c>
       <c r="G54" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="H54">
         <v>1</v>
@@ -5504,7 +5504,7 @@
         <v>45157.52083333334</v>
       </c>
       <c r="F55" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="G55" t="s">
         <v>34</v>
@@ -5682,7 +5682,7 @@
         <v>45157.52083333334</v>
       </c>
       <c r="F57" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G57" t="s">
         <v>66</v>
@@ -5771,7 +5771,7 @@
         <v>45157.52083333334</v>
       </c>
       <c r="F58" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="G58" t="s">
         <v>65</v>
@@ -5949,10 +5949,10 @@
         <v>45157.52083333334</v>
       </c>
       <c r="F60" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="G60" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H60">
         <v>1</v>
@@ -6038,7 +6038,7 @@
         <v>45168.25</v>
       </c>
       <c r="F61" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G61" t="s">
         <v>69</v>
@@ -6305,7 +6305,7 @@
         <v>45168.52083333334</v>
       </c>
       <c r="F64" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G64" t="s">
         <v>46</v>
@@ -6397,7 +6397,7 @@
         <v>60</v>
       </c>
       <c r="G65" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H65">
         <v>1</v>
@@ -6661,7 +6661,7 @@
         <v>45168.52083333334</v>
       </c>
       <c r="F68" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G68" t="s">
         <v>92</v>
@@ -6753,7 +6753,7 @@
         <v>65</v>
       </c>
       <c r="G69" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H69">
         <v>2</v>
@@ -6839,7 +6839,7 @@
         <v>45168.52083333334</v>
       </c>
       <c r="F70" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G70" t="s">
         <v>72</v>
@@ -6931,7 +6931,7 @@
         <v>66</v>
       </c>
       <c r="G71" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H71">
         <v>3</v>
@@ -7017,10 +7017,10 @@
         <v>45168.52083333334</v>
       </c>
       <c r="F72" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G72" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="H72">
         <v>3</v>
@@ -7109,7 +7109,7 @@
         <v>61</v>
       </c>
       <c r="G73" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="H73">
         <v>2</v>
@@ -7373,7 +7373,7 @@
         <v>45168.52083333334</v>
       </c>
       <c r="F76" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G76" t="s">
         <v>89</v>
@@ -7462,7 +7462,7 @@
         <v>45168.52083333334</v>
       </c>
       <c r="F77" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G77" t="s">
         <v>70</v>
@@ -7732,7 +7732,7 @@
         <v>42</v>
       </c>
       <c r="G80" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H80">
         <v>0</v>
@@ -7996,7 +7996,7 @@
         <v>45172.25</v>
       </c>
       <c r="F83" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G83" t="s">
         <v>71</v>
@@ -8085,10 +8085,10 @@
         <v>45172.29166666666</v>
       </c>
       <c r="F84" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G84" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H84">
         <v>1</v>
@@ -8263,7 +8263,7 @@
         <v>45172.45833333334</v>
       </c>
       <c r="F86" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G86" t="s">
         <v>67</v>
@@ -8355,7 +8355,7 @@
         <v>70</v>
       </c>
       <c r="G87" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="H87">
         <v>2</v>
@@ -8441,7 +8441,7 @@
         <v>45172.45833333334</v>
       </c>
       <c r="F88" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="G88" t="s">
         <v>73</v>
@@ -8530,10 +8530,10 @@
         <v>45172.45833333334</v>
       </c>
       <c r="F89" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="G89" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H89">
         <v>2</v>
@@ -8963,7 +8963,7 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>7182108</v>
+        <v>7182145</v>
       </c>
       <c r="C94" t="s">
         <v>28</v>
@@ -8975,73 +8975,73 @@
         <v>45178.25</v>
       </c>
       <c r="F94" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="G94" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="H94">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I94">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J94" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="K94">
-        <v>2.625</v>
+        <v>2.2</v>
       </c>
       <c r="L94">
         <v>3.4</v>
       </c>
       <c r="M94">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="N94">
-        <v>2.625</v>
+        <v>2.2</v>
       </c>
       <c r="O94">
         <v>3.4</v>
       </c>
       <c r="P94">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="Q94">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R94">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="S94">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="T94">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U94">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="V94">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="W94">
-        <v>1.625</v>
+        <v>-1</v>
       </c>
       <c r="X94">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y94">
         <v>-1</v>
       </c>
       <c r="Z94">
-        <v>0.7749999999999999</v>
+        <v>-0.5</v>
       </c>
       <c r="AA94">
-        <v>-1</v>
+        <v>0.4</v>
       </c>
       <c r="AB94">
-        <v>0.875</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC94">
         <v>-1</v>
@@ -9052,7 +9052,7 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>7182145</v>
+        <v>7182108</v>
       </c>
       <c r="C95" t="s">
         <v>28</v>
@@ -9064,73 +9064,73 @@
         <v>45178.25</v>
       </c>
       <c r="F95" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="G95" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="H95">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I95">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J95" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="K95">
-        <v>2.2</v>
+        <v>2.625</v>
       </c>
       <c r="L95">
         <v>3.4</v>
       </c>
       <c r="M95">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="N95">
-        <v>2.2</v>
+        <v>2.625</v>
       </c>
       <c r="O95">
         <v>3.4</v>
       </c>
       <c r="P95">
+        <v>2.25</v>
+      </c>
+      <c r="Q95">
+        <v>0.25</v>
+      </c>
+      <c r="R95">
+        <v>1.775</v>
+      </c>
+      <c r="S95">
+        <v>2.025</v>
+      </c>
+      <c r="T95">
         <v>2.75</v>
       </c>
-      <c r="Q95">
-        <v>-0.25</v>
-      </c>
-      <c r="R95">
-        <v>2</v>
-      </c>
-      <c r="S95">
-        <v>1.8</v>
-      </c>
-      <c r="T95">
-        <v>3</v>
-      </c>
       <c r="U95">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="V95">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="W95">
-        <v>-1</v>
+        <v>1.625</v>
       </c>
       <c r="X95">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y95">
         <v>-1</v>
       </c>
       <c r="Z95">
-        <v>-0.5</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA95">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
       <c r="AB95">
-        <v>0.9750000000000001</v>
+        <v>0.875</v>
       </c>
       <c r="AC95">
         <v>-1</v>
@@ -9153,7 +9153,7 @@
         <v>45178.25</v>
       </c>
       <c r="F96" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G96" t="s">
         <v>59</v>
@@ -9242,7 +9242,7 @@
         <v>45178.25</v>
       </c>
       <c r="F97" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G97" t="s">
         <v>70</v>
@@ -9319,7 +9319,7 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>7182029</v>
+        <v>7182055</v>
       </c>
       <c r="C98" t="s">
         <v>28</v>
@@ -9331,73 +9331,73 @@
         <v>45178.25</v>
       </c>
       <c r="F98" t="s">
-        <v>72</v>
+        <v>51</v>
       </c>
       <c r="G98" t="s">
-        <v>65</v>
+        <v>79</v>
       </c>
       <c r="H98">
         <v>3</v>
       </c>
       <c r="I98">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J98" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="K98">
-        <v>3.2</v>
+        <v>2.1</v>
       </c>
       <c r="L98">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="M98">
-        <v>1.909</v>
+        <v>2.8</v>
       </c>
       <c r="N98">
-        <v>4.333</v>
+        <v>2.1</v>
       </c>
       <c r="O98">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="P98">
-        <v>1.571</v>
+        <v>2.8</v>
       </c>
       <c r="Q98">
-        <v>1</v>
+        <v>-0.25</v>
       </c>
       <c r="R98">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="S98">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="T98">
         <v>3.25</v>
       </c>
       <c r="U98">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="V98">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="W98">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="X98">
         <v>-1</v>
       </c>
       <c r="Y98">
-        <v>0.571</v>
+        <v>-1</v>
       </c>
       <c r="Z98">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA98">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB98">
-        <v>1</v>
+        <v>0.925</v>
       </c>
       <c r="AC98">
         <v>-1</v>
@@ -9408,7 +9408,7 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>7182055</v>
+        <v>7182029</v>
       </c>
       <c r="C99" t="s">
         <v>28</v>
@@ -9420,73 +9420,73 @@
         <v>45178.25</v>
       </c>
       <c r="F99" t="s">
-        <v>50</v>
+        <v>72</v>
       </c>
       <c r="G99" t="s">
-        <v>79</v>
+        <v>65</v>
       </c>
       <c r="H99">
         <v>3</v>
       </c>
       <c r="I99">
+        <v>5</v>
+      </c>
+      <c r="J99" t="s">
+        <v>98</v>
+      </c>
+      <c r="K99">
+        <v>3.2</v>
+      </c>
+      <c r="L99">
+        <v>3.6</v>
+      </c>
+      <c r="M99">
+        <v>1.909</v>
+      </c>
+      <c r="N99">
+        <v>4.333</v>
+      </c>
+      <c r="O99">
+        <v>4</v>
+      </c>
+      <c r="P99">
+        <v>1.571</v>
+      </c>
+      <c r="Q99">
         <v>1</v>
       </c>
-      <c r="J99" t="s">
-        <v>99</v>
-      </c>
-      <c r="K99">
-        <v>2.1</v>
-      </c>
-      <c r="L99">
-        <v>3.5</v>
-      </c>
-      <c r="M99">
-        <v>2.8</v>
-      </c>
-      <c r="N99">
-        <v>2.1</v>
-      </c>
-      <c r="O99">
-        <v>3.5</v>
-      </c>
-      <c r="P99">
-        <v>2.8</v>
-      </c>
-      <c r="Q99">
-        <v>-0.25</v>
-      </c>
       <c r="R99">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="S99">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="T99">
         <v>3.25</v>
       </c>
       <c r="U99">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="V99">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="W99">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="X99">
         <v>-1</v>
       </c>
       <c r="Y99">
-        <v>-1</v>
+        <v>0.571</v>
       </c>
       <c r="Z99">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA99">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB99">
-        <v>0.925</v>
+        <v>1</v>
       </c>
       <c r="AC99">
         <v>-1</v>
@@ -9509,10 +9509,10 @@
         <v>45178.25</v>
       </c>
       <c r="F100" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G100" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="H100">
         <v>4</v>
@@ -9601,7 +9601,7 @@
         <v>40</v>
       </c>
       <c r="G101" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H101">
         <v>2</v>
@@ -9687,7 +9687,7 @@
         <v>45178.45833333334</v>
       </c>
       <c r="F102" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G102" t="s">
         <v>42</v>
@@ -9954,7 +9954,7 @@
         <v>45178.45833333334</v>
       </c>
       <c r="F105" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="G105" t="s">
         <v>46</v>
@@ -10043,10 +10043,10 @@
         <v>45178.45833333334</v>
       </c>
       <c r="F106" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G106" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="H106">
         <v>1</v>
@@ -10132,10 +10132,10 @@
         <v>45178.45833333334</v>
       </c>
       <c r="F107" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G107" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H107">
         <v>1</v>
@@ -10310,7 +10310,7 @@
         <v>45178.45833333334</v>
       </c>
       <c r="F109" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G109" t="s">
         <v>69</v>
@@ -10491,7 +10491,7 @@
         <v>62</v>
       </c>
       <c r="G111" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H111">
         <v>3</v>
@@ -10577,7 +10577,7 @@
         <v>45178.45833333334</v>
       </c>
       <c r="F112" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G112" t="s">
         <v>93</v>
@@ -10669,7 +10669,7 @@
         <v>29</v>
       </c>
       <c r="G113" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H113">
         <v>1</v>
@@ -10755,7 +10755,7 @@
         <v>45193.25</v>
       </c>
       <c r="F114" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G114" t="s">
         <v>57</v>
@@ -10933,10 +10933,10 @@
         <v>45193.25</v>
       </c>
       <c r="F116" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G116" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H116">
         <v>1</v>
@@ -11022,7 +11022,7 @@
         <v>45193.25</v>
       </c>
       <c r="F117" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G117" t="s">
         <v>44</v>
@@ -11200,7 +11200,7 @@
         <v>45193.29166666666</v>
       </c>
       <c r="F119" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G119" t="s">
         <v>43</v>
@@ -11292,7 +11292,7 @@
         <v>46</v>
       </c>
       <c r="G120" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H120">
         <v>3</v>
@@ -11645,7 +11645,7 @@
         <v>45193.45833333334</v>
       </c>
       <c r="F124" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="G124" t="s">
         <v>64</v>
@@ -12090,10 +12090,10 @@
         <v>45193.45833333334</v>
       </c>
       <c r="F129" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="G129" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="H129">
         <v>1</v>
@@ -12179,7 +12179,7 @@
         <v>45193.45833333334</v>
       </c>
       <c r="F130" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G130" t="s">
         <v>63</v>
@@ -12357,7 +12357,7 @@
         <v>45198.45833333334</v>
       </c>
       <c r="F132" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G132" t="s">
         <v>68</v>
@@ -12449,7 +12449,7 @@
         <v>67</v>
       </c>
       <c r="G133" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H133">
         <v>0</v>
@@ -12535,7 +12535,7 @@
         <v>45199.35416666666</v>
       </c>
       <c r="F134" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G134" t="s">
         <v>69</v>
@@ -12624,7 +12624,7 @@
         <v>45200.25</v>
       </c>
       <c r="F135" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G135" t="s">
         <v>34</v>
@@ -12713,10 +12713,10 @@
         <v>45200.375</v>
       </c>
       <c r="F136" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G136" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H136">
         <v>4</v>
@@ -12802,7 +12802,7 @@
         <v>45200.41666666666</v>
       </c>
       <c r="F137" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="G137" t="s">
         <v>65</v>
@@ -12879,7 +12879,7 @@
         <v>136</v>
       </c>
       <c r="B138">
-        <v>7278135</v>
+        <v>7278134</v>
       </c>
       <c r="C138" t="s">
         <v>28</v>
@@ -12891,76 +12891,76 @@
         <v>45200.41666666666</v>
       </c>
       <c r="F138" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="G138" t="s">
-        <v>75</v>
+        <v>45</v>
       </c>
       <c r="H138">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I138">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J138" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="K138">
-        <v>2.375</v>
+        <v>3.4</v>
       </c>
       <c r="L138">
+        <v>3.8</v>
+      </c>
+      <c r="M138">
+        <v>1.8</v>
+      </c>
+      <c r="N138">
         <v>3.4</v>
       </c>
-      <c r="M138">
-        <v>2.5</v>
-      </c>
-      <c r="N138">
-        <v>2.375</v>
-      </c>
       <c r="O138">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="P138">
-        <v>2.5</v>
+        <v>1.8</v>
       </c>
       <c r="Q138">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="R138">
-        <v>1.825</v>
+        <v>1.75</v>
       </c>
       <c r="S138">
-        <v>1.975</v>
+        <v>2.05</v>
       </c>
       <c r="T138">
         <v>2.75</v>
       </c>
       <c r="U138">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="V138">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="W138">
         <v>-1</v>
       </c>
       <c r="X138">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y138">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="Z138">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA138">
-        <v>-0</v>
+        <v>1.05</v>
       </c>
       <c r="AB138">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC138">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="139" spans="1:29">
@@ -12968,7 +12968,7 @@
         <v>137</v>
       </c>
       <c r="B139">
-        <v>7278148</v>
+        <v>7278135</v>
       </c>
       <c r="C139" t="s">
         <v>28</v>
@@ -12980,10 +12980,10 @@
         <v>45200.41666666666</v>
       </c>
       <c r="F139" t="s">
-        <v>39</v>
+        <v>63</v>
       </c>
       <c r="G139" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="H139">
         <v>1</v>
@@ -12995,61 +12995,61 @@
         <v>100</v>
       </c>
       <c r="K139">
-        <v>3.25</v>
+        <v>2.375</v>
       </c>
       <c r="L139">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="M139">
-        <v>1.833</v>
+        <v>2.5</v>
       </c>
       <c r="N139">
-        <v>3.25</v>
+        <v>2.375</v>
       </c>
       <c r="O139">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="P139">
-        <v>1.833</v>
+        <v>2.5</v>
       </c>
       <c r="Q139">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="R139">
-        <v>1.7</v>
+        <v>1.825</v>
       </c>
       <c r="S139">
-        <v>2.1</v>
+        <v>1.975</v>
       </c>
       <c r="T139">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U139">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="V139">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="W139">
         <v>-1</v>
       </c>
       <c r="X139">
-        <v>2.8</v>
+        <v>2.4</v>
       </c>
       <c r="Y139">
         <v>-1</v>
       </c>
       <c r="Z139">
-        <v>0.7</v>
+        <v>0</v>
       </c>
       <c r="AA139">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB139">
         <v>-1</v>
       </c>
       <c r="AC139">
-        <v>0.8</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="140" spans="1:29">
@@ -13057,7 +13057,7 @@
         <v>138</v>
       </c>
       <c r="B140">
-        <v>7278192</v>
+        <v>7278148</v>
       </c>
       <c r="C140" t="s">
         <v>28</v>
@@ -13069,46 +13069,46 @@
         <v>45200.41666666666</v>
       </c>
       <c r="F140" t="s">
-        <v>73</v>
+        <v>39</v>
       </c>
       <c r="G140" t="s">
-        <v>61</v>
+        <v>74</v>
       </c>
       <c r="H140">
         <v>1</v>
       </c>
       <c r="I140">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J140" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="K140">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="L140">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="M140">
-        <v>2</v>
+        <v>1.833</v>
       </c>
       <c r="N140">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="O140">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="P140">
-        <v>2</v>
+        <v>1.833</v>
       </c>
       <c r="Q140">
-        <v>0.25</v>
+        <v>0.75</v>
       </c>
       <c r="R140">
-        <v>2</v>
+        <v>1.7</v>
       </c>
       <c r="S140">
-        <v>1.8</v>
+        <v>2.1</v>
       </c>
       <c r="T140">
         <v>3</v>
@@ -13123,22 +13123,22 @@
         <v>-1</v>
       </c>
       <c r="X140">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Y140">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Z140">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="AA140">
+        <v>-1</v>
+      </c>
+      <c r="AB140">
+        <v>-1</v>
+      </c>
+      <c r="AC140">
         <v>0.8</v>
-      </c>
-      <c r="AB140">
-        <v>0</v>
-      </c>
-      <c r="AC140">
-        <v>-0</v>
       </c>
     </row>
     <row r="141" spans="1:29">
@@ -13146,7 +13146,7 @@
         <v>139</v>
       </c>
       <c r="B141">
-        <v>7278194</v>
+        <v>7278192</v>
       </c>
       <c r="C141" t="s">
         <v>28</v>
@@ -13158,46 +13158,46 @@
         <v>45200.41666666666</v>
       </c>
       <c r="F141" t="s">
-        <v>62</v>
+        <v>73</v>
       </c>
       <c r="G141" t="s">
-        <v>77</v>
+        <v>61</v>
       </c>
       <c r="H141">
+        <v>1</v>
+      </c>
+      <c r="I141">
+        <v>2</v>
+      </c>
+      <c r="J141" t="s">
+        <v>98</v>
+      </c>
+      <c r="K141">
         <v>3</v>
       </c>
-      <c r="I141">
-        <v>0</v>
-      </c>
-      <c r="J141" t="s">
-        <v>99</v>
-      </c>
-      <c r="K141">
-        <v>1.833</v>
-      </c>
       <c r="L141">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="M141">
-        <v>3.25</v>
+        <v>2</v>
       </c>
       <c r="N141">
-        <v>1.833</v>
+        <v>3</v>
       </c>
       <c r="O141">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="P141">
-        <v>3.25</v>
+        <v>2</v>
       </c>
       <c r="Q141">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R141">
-        <v>2.075</v>
+        <v>2</v>
       </c>
       <c r="S141">
-        <v>1.725</v>
+        <v>1.8</v>
       </c>
       <c r="T141">
         <v>3</v>
@@ -13209,19 +13209,19 @@
         <v>1.8</v>
       </c>
       <c r="W141">
-        <v>0.833</v>
+        <v>-1</v>
       </c>
       <c r="X141">
         <v>-1</v>
       </c>
       <c r="Y141">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Z141">
-        <v>1.075</v>
+        <v>-1</v>
       </c>
       <c r="AA141">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB141">
         <v>0</v>
@@ -13235,7 +13235,7 @@
         <v>140</v>
       </c>
       <c r="B142">
-        <v>7278204</v>
+        <v>7278194</v>
       </c>
       <c r="C142" t="s">
         <v>28</v>
@@ -13247,10 +13247,10 @@
         <v>45200.41666666666</v>
       </c>
       <c r="F142" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="G142" t="s">
-        <v>46</v>
+        <v>77</v>
       </c>
       <c r="H142">
         <v>3</v>
@@ -13262,61 +13262,61 @@
         <v>99</v>
       </c>
       <c r="K142">
-        <v>2.5</v>
+        <v>1.833</v>
       </c>
       <c r="L142">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="M142">
-        <v>2.375</v>
+        <v>3.25</v>
       </c>
       <c r="N142">
-        <v>2.5</v>
+        <v>1.833</v>
       </c>
       <c r="O142">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="P142">
-        <v>2.375</v>
+        <v>3.25</v>
       </c>
       <c r="Q142">
+        <v>-0.75</v>
+      </c>
+      <c r="R142">
+        <v>2.075</v>
+      </c>
+      <c r="S142">
+        <v>1.725</v>
+      </c>
+      <c r="T142">
+        <v>3</v>
+      </c>
+      <c r="U142">
+        <v>2</v>
+      </c>
+      <c r="V142">
+        <v>1.8</v>
+      </c>
+      <c r="W142">
+        <v>0.833</v>
+      </c>
+      <c r="X142">
+        <v>-1</v>
+      </c>
+      <c r="Y142">
+        <v>-1</v>
+      </c>
+      <c r="Z142">
+        <v>1.075</v>
+      </c>
+      <c r="AA142">
+        <v>-1</v>
+      </c>
+      <c r="AB142">
         <v>0</v>
       </c>
-      <c r="R142">
-        <v>1.95</v>
-      </c>
-      <c r="S142">
-        <v>1.85</v>
-      </c>
-      <c r="T142">
-        <v>2.75</v>
-      </c>
-      <c r="U142">
-        <v>1.95</v>
-      </c>
-      <c r="V142">
-        <v>1.85</v>
-      </c>
-      <c r="W142">
-        <v>1.5</v>
-      </c>
-      <c r="X142">
-        <v>-1</v>
-      </c>
-      <c r="Y142">
-        <v>-1</v>
-      </c>
-      <c r="Z142">
-        <v>0.95</v>
-      </c>
-      <c r="AA142">
-        <v>-1</v>
-      </c>
-      <c r="AB142">
-        <v>0.475</v>
-      </c>
       <c r="AC142">
-        <v>-0.5</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="143" spans="1:29">
@@ -13324,7 +13324,7 @@
         <v>141</v>
       </c>
       <c r="B143">
-        <v>7278205</v>
+        <v>7278133</v>
       </c>
       <c r="C143" t="s">
         <v>28</v>
@@ -13336,76 +13336,76 @@
         <v>45200.41666666666</v>
       </c>
       <c r="F143" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G143" t="s">
-        <v>80</v>
+        <v>37</v>
       </c>
       <c r="H143">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I143">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J143" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="K143">
-        <v>2.25</v>
+        <v>1.727</v>
       </c>
       <c r="L143">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="M143">
-        <v>2.625</v>
+        <v>3.5</v>
       </c>
       <c r="N143">
-        <v>2.25</v>
+        <v>1.333</v>
       </c>
       <c r="O143">
-        <v>3.4</v>
+        <v>5</v>
       </c>
       <c r="P143">
-        <v>2.625</v>
+        <v>6</v>
       </c>
       <c r="Q143">
-        <v>-0.25</v>
+        <v>-1.5</v>
       </c>
       <c r="R143">
-        <v>2.05</v>
+        <v>1.8</v>
       </c>
       <c r="S143">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="T143">
-        <v>2.75</v>
+        <v>3.5</v>
       </c>
       <c r="U143">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="V143">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="W143">
-        <v>-1</v>
+        <v>0.333</v>
       </c>
       <c r="X143">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y143">
         <v>-1</v>
       </c>
       <c r="Z143">
-        <v>-0.5</v>
+        <v>0.8</v>
       </c>
       <c r="AA143">
-        <v>0.375</v>
+        <v>-1</v>
       </c>
       <c r="AB143">
         <v>-1</v>
       </c>
       <c r="AC143">
-        <v>0.925</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="144" spans="1:29">
@@ -13413,7 +13413,7 @@
         <v>142</v>
       </c>
       <c r="B144">
-        <v>7278296</v>
+        <v>7278204</v>
       </c>
       <c r="C144" t="s">
         <v>28</v>
@@ -13425,58 +13425,58 @@
         <v>45200.41666666666</v>
       </c>
       <c r="F144" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="G144" t="s">
-        <v>72</v>
+        <v>46</v>
       </c>
       <c r="H144">
         <v>3</v>
       </c>
       <c r="I144">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J144" t="s">
         <v>99</v>
       </c>
       <c r="K144">
-        <v>1.8</v>
+        <v>2.5</v>
       </c>
       <c r="L144">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="M144">
+        <v>2.375</v>
+      </c>
+      <c r="N144">
+        <v>2.5</v>
+      </c>
+      <c r="O144">
         <v>3.4</v>
       </c>
-      <c r="N144">
-        <v>1.444</v>
-      </c>
-      <c r="O144">
-        <v>4.75</v>
-      </c>
       <c r="P144">
-        <v>4.75</v>
+        <v>2.375</v>
       </c>
       <c r="Q144">
-        <v>-1.25</v>
+        <v>0</v>
       </c>
       <c r="R144">
+        <v>1.95</v>
+      </c>
+      <c r="S144">
         <v>1.85</v>
       </c>
-      <c r="S144">
+      <c r="T144">
+        <v>2.75</v>
+      </c>
+      <c r="U144">
         <v>1.95</v>
       </c>
-      <c r="T144">
-        <v>3.5</v>
-      </c>
-      <c r="U144">
-        <v>1.9</v>
-      </c>
       <c r="V144">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W144">
-        <v>0.444</v>
+        <v>1.5</v>
       </c>
       <c r="X144">
         <v>-1</v>
@@ -13485,16 +13485,16 @@
         <v>-1</v>
       </c>
       <c r="Z144">
+        <v>0.95</v>
+      </c>
+      <c r="AA144">
+        <v>-1</v>
+      </c>
+      <c r="AB144">
+        <v>0.475</v>
+      </c>
+      <c r="AC144">
         <v>-0.5</v>
-      </c>
-      <c r="AA144">
-        <v>0.475</v>
-      </c>
-      <c r="AB144">
-        <v>0.8999999999999999</v>
-      </c>
-      <c r="AC144">
-        <v>-1</v>
       </c>
     </row>
     <row r="145" spans="1:29">
@@ -13502,7 +13502,7 @@
         <v>143</v>
       </c>
       <c r="B145">
-        <v>7278134</v>
+        <v>7278296</v>
       </c>
       <c r="C145" t="s">
         <v>28</v>
@@ -13514,73 +13514,73 @@
         <v>45200.41666666666</v>
       </c>
       <c r="F145" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="G145" t="s">
-        <v>45</v>
+        <v>72</v>
       </c>
       <c r="H145">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I145">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J145" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="K145">
-        <v>3.4</v>
+        <v>1.8</v>
       </c>
       <c r="L145">
         <v>3.8</v>
       </c>
       <c r="M145">
-        <v>1.8</v>
+        <v>3.4</v>
       </c>
       <c r="N145">
-        <v>3.4</v>
+        <v>1.444</v>
       </c>
       <c r="O145">
-        <v>3.8</v>
+        <v>4.75</v>
       </c>
       <c r="P145">
-        <v>1.8</v>
+        <v>4.75</v>
       </c>
       <c r="Q145">
-        <v>0.75</v>
+        <v>-1.25</v>
       </c>
       <c r="R145">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="S145">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="T145">
-        <v>2.75</v>
+        <v>3.5</v>
       </c>
       <c r="U145">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="V145">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="W145">
-        <v>-1</v>
+        <v>0.444</v>
       </c>
       <c r="X145">
         <v>-1</v>
       </c>
       <c r="Y145">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="Z145">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA145">
-        <v>1.05</v>
+        <v>0.475</v>
       </c>
       <c r="AB145">
-        <v>0.875</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC145">
         <v>-1</v>
@@ -13591,7 +13591,7 @@
         <v>144</v>
       </c>
       <c r="B146">
-        <v>7278133</v>
+        <v>7278205</v>
       </c>
       <c r="C146" t="s">
         <v>28</v>
@@ -13603,76 +13603,76 @@
         <v>45200.41666666666</v>
       </c>
       <c r="F146" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G146" t="s">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="H146">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I146">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J146" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="K146">
-        <v>1.727</v>
+        <v>2.25</v>
       </c>
       <c r="L146">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="M146">
-        <v>3.5</v>
+        <v>2.625</v>
       </c>
       <c r="N146">
-        <v>1.333</v>
+        <v>2.25</v>
       </c>
       <c r="O146">
-        <v>5</v>
+        <v>3.4</v>
       </c>
       <c r="P146">
-        <v>6</v>
+        <v>2.625</v>
       </c>
       <c r="Q146">
-        <v>-1.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R146">
-        <v>1.8</v>
+        <v>2.05</v>
       </c>
       <c r="S146">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="T146">
-        <v>3.5</v>
+        <v>2.75</v>
       </c>
       <c r="U146">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="V146">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="W146">
-        <v>0.333</v>
+        <v>-1</v>
       </c>
       <c r="X146">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y146">
         <v>-1</v>
       </c>
       <c r="Z146">
-        <v>0.8</v>
+        <v>-0.5</v>
       </c>
       <c r="AA146">
-        <v>-1</v>
+        <v>0.375</v>
       </c>
       <c r="AB146">
         <v>-1</v>
       </c>
       <c r="AC146">
-        <v>0.8999999999999999</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="147" spans="1:29">
@@ -13695,7 +13695,7 @@
         <v>59</v>
       </c>
       <c r="G147" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="H147">
         <v>2</v>
@@ -13769,7 +13769,7 @@
         <v>146</v>
       </c>
       <c r="B148">
-        <v>7307849</v>
+        <v>7307848</v>
       </c>
       <c r="C148" t="s">
         <v>28</v>
@@ -13781,13 +13781,13 @@
         <v>45207.25</v>
       </c>
       <c r="F148" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G148" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H148">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I148">
         <v>1</v>
@@ -13796,43 +13796,43 @@
         <v>99</v>
       </c>
       <c r="K148">
-        <v>2.375</v>
+        <v>3.3</v>
       </c>
       <c r="L148">
         <v>3.5</v>
       </c>
       <c r="M148">
-        <v>2.45</v>
+        <v>1.909</v>
       </c>
       <c r="N148">
-        <v>2.375</v>
+        <v>3.3</v>
       </c>
       <c r="O148">
         <v>3.5</v>
       </c>
       <c r="P148">
-        <v>2.45</v>
+        <v>1.909</v>
       </c>
       <c r="Q148">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="R148">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="S148">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="T148">
         <v>2.75</v>
       </c>
       <c r="U148">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="V148">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="W148">
-        <v>1.375</v>
+        <v>2.3</v>
       </c>
       <c r="X148">
         <v>-1</v>
@@ -13841,16 +13841,16 @@
         <v>-1</v>
       </c>
       <c r="Z148">
-        <v>0.8500000000000001</v>
+        <v>0.825</v>
       </c>
       <c r="AA148">
         <v>-1</v>
       </c>
       <c r="AB148">
-        <v>0.4</v>
+        <v>0.875</v>
       </c>
       <c r="AC148">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="149" spans="1:29">
@@ -13858,7 +13858,7 @@
         <v>147</v>
       </c>
       <c r="B149">
-        <v>7307848</v>
+        <v>7307849</v>
       </c>
       <c r="C149" t="s">
         <v>28</v>
@@ -13870,13 +13870,13 @@
         <v>45207.25</v>
       </c>
       <c r="F149" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="G149" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H149">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I149">
         <v>1</v>
@@ -13885,43 +13885,43 @@
         <v>99</v>
       </c>
       <c r="K149">
-        <v>3.3</v>
+        <v>2.375</v>
       </c>
       <c r="L149">
         <v>3.5</v>
       </c>
       <c r="M149">
-        <v>1.909</v>
+        <v>2.45</v>
       </c>
       <c r="N149">
-        <v>3.3</v>
+        <v>2.375</v>
       </c>
       <c r="O149">
         <v>3.5</v>
       </c>
       <c r="P149">
-        <v>1.909</v>
+        <v>2.45</v>
       </c>
       <c r="Q149">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="R149">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="S149">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="T149">
         <v>2.75</v>
       </c>
       <c r="U149">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="V149">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="W149">
-        <v>2.3</v>
+        <v>1.375</v>
       </c>
       <c r="X149">
         <v>-1</v>
@@ -13930,16 +13930,16 @@
         <v>-1</v>
       </c>
       <c r="Z149">
-        <v>0.825</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA149">
         <v>-1</v>
       </c>
       <c r="AB149">
-        <v>0.875</v>
+        <v>0.4</v>
       </c>
       <c r="AC149">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="150" spans="1:29">
@@ -13959,7 +13959,7 @@
         <v>45207.25</v>
       </c>
       <c r="F150" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G150" t="s">
         <v>87</v>
@@ -14048,10 +14048,10 @@
         <v>45207.25</v>
       </c>
       <c r="F151" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G151" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H151">
         <v>2</v>
@@ -14137,7 +14137,7 @@
         <v>45207.25</v>
       </c>
       <c r="F152" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G152" t="s">
         <v>56</v>
@@ -14404,7 +14404,7 @@
         <v>45207.41666666666</v>
       </c>
       <c r="F155" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G155" t="s">
         <v>88</v>
@@ -14493,10 +14493,10 @@
         <v>45207.41666666666</v>
       </c>
       <c r="F156" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="G156" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="H156">
         <v>0</v>
@@ -14585,7 +14585,7 @@
         <v>70</v>
       </c>
       <c r="G157" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H157">
         <v>2</v>
@@ -14852,7 +14852,7 @@
         <v>67</v>
       </c>
       <c r="G160" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H160">
         <v>1</v>
@@ -14938,7 +14938,7 @@
         <v>45214.25</v>
       </c>
       <c r="F161" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G161" t="s">
         <v>59</v>
@@ -15027,7 +15027,7 @@
         <v>45214.25</v>
       </c>
       <c r="F162" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G162" t="s">
         <v>73</v>
@@ -15116,10 +15116,10 @@
         <v>45214.32291666666</v>
       </c>
       <c r="F163" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G163" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H163">
         <v>3</v>
@@ -15205,7 +15205,7 @@
         <v>45214.33333333334</v>
       </c>
       <c r="F164" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G164" t="s">
         <v>77</v>
@@ -15282,7 +15282,7 @@
         <v>163</v>
       </c>
       <c r="B165">
-        <v>7342648</v>
+        <v>7342893</v>
       </c>
       <c r="C165" t="s">
         <v>28</v>
@@ -15294,73 +15294,73 @@
         <v>45214.41666666666</v>
       </c>
       <c r="F165" t="s">
-        <v>79</v>
+        <v>56</v>
       </c>
       <c r="G165" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="H165">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I165">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J165" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="K165">
-        <v>1.833</v>
+        <v>2.4</v>
       </c>
       <c r="L165">
         <v>3.5</v>
       </c>
       <c r="M165">
+        <v>2.4</v>
+      </c>
+      <c r="N165">
+        <v>2.4</v>
+      </c>
+      <c r="O165">
         <v>3.5</v>
       </c>
-      <c r="N165">
-        <v>1.95</v>
-      </c>
-      <c r="O165">
-        <v>3.4</v>
-      </c>
       <c r="P165">
-        <v>3.2</v>
+        <v>2.4</v>
       </c>
       <c r="Q165">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R165">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="S165">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="T165">
         <v>2.75</v>
       </c>
       <c r="U165">
+        <v>1.875</v>
+      </c>
+      <c r="V165">
         <v>1.925</v>
       </c>
-      <c r="V165">
-        <v>1.875</v>
-      </c>
       <c r="W165">
         <v>-1</v>
       </c>
       <c r="X165">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y165">
-        <v>-1</v>
+        <v>1.4</v>
       </c>
       <c r="Z165">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA165">
-        <v>0.5125</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB165">
-        <v>0.925</v>
+        <v>0.875</v>
       </c>
       <c r="AC165">
         <v>-1</v>
@@ -15371,7 +15371,7 @@
         <v>164</v>
       </c>
       <c r="B166">
-        <v>7342649</v>
+        <v>7342648</v>
       </c>
       <c r="C166" t="s">
         <v>28</v>
@@ -15383,76 +15383,76 @@
         <v>45214.41666666666</v>
       </c>
       <c r="F166" t="s">
-        <v>64</v>
+        <v>79</v>
       </c>
       <c r="G166" t="s">
-        <v>61</v>
+        <v>85</v>
       </c>
       <c r="H166">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I166">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J166" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="K166">
-        <v>1.533</v>
+        <v>1.833</v>
       </c>
       <c r="L166">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="M166">
-        <v>5</v>
+        <v>3.5</v>
       </c>
       <c r="N166">
-        <v>1.333</v>
+        <v>1.95</v>
       </c>
       <c r="O166">
-        <v>4.5</v>
+        <v>3.4</v>
       </c>
       <c r="P166">
-        <v>7.5</v>
+        <v>3.2</v>
       </c>
       <c r="Q166">
-        <v>-1.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R166">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="S166">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="T166">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U166">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="V166">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="W166">
-        <v>0.333</v>
+        <v>-1</v>
       </c>
       <c r="X166">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y166">
         <v>-1</v>
       </c>
       <c r="Z166">
-        <v>0.8500000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AA166">
-        <v>-1</v>
+        <v>0.5125</v>
       </c>
       <c r="AB166">
-        <v>0</v>
+        <v>0.925</v>
       </c>
       <c r="AC166">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="167" spans="1:29">
@@ -15460,7 +15460,7 @@
         <v>165</v>
       </c>
       <c r="B167">
-        <v>7342798</v>
+        <v>7342649</v>
       </c>
       <c r="C167" t="s">
         <v>28</v>
@@ -15472,40 +15472,40 @@
         <v>45214.41666666666</v>
       </c>
       <c r="F167" t="s">
-        <v>48</v>
+        <v>64</v>
       </c>
       <c r="G167" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="H167">
         <v>3</v>
       </c>
       <c r="I167">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J167" t="s">
         <v>99</v>
       </c>
       <c r="K167">
-        <v>2.25</v>
+        <v>1.533</v>
       </c>
       <c r="L167">
-        <v>3.25</v>
+        <v>3.75</v>
       </c>
       <c r="M167">
-        <v>2.75</v>
+        <v>5</v>
       </c>
       <c r="N167">
-        <v>1.8</v>
+        <v>1.333</v>
       </c>
       <c r="O167">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="P167">
-        <v>3.6</v>
+        <v>7.5</v>
       </c>
       <c r="Q167">
-        <v>-0.5</v>
+        <v>-1.5</v>
       </c>
       <c r="R167">
         <v>1.85</v>
@@ -15514,16 +15514,16 @@
         <v>1.95</v>
       </c>
       <c r="T167">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U167">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="V167">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="W167">
-        <v>0.8</v>
+        <v>0.333</v>
       </c>
       <c r="X167">
         <v>-1</v>
@@ -15538,10 +15538,10 @@
         <v>-1</v>
       </c>
       <c r="AB167">
-        <v>0.925</v>
+        <v>0</v>
       </c>
       <c r="AC167">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="168" spans="1:29">
@@ -15549,7 +15549,7 @@
         <v>166</v>
       </c>
       <c r="B168">
-        <v>7342799</v>
+        <v>7342798</v>
       </c>
       <c r="C168" t="s">
         <v>28</v>
@@ -15561,58 +15561,58 @@
         <v>45214.41666666666</v>
       </c>
       <c r="F168" t="s">
-        <v>75</v>
+        <v>47</v>
       </c>
       <c r="G168" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="H168">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I168">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J168" t="s">
         <v>99</v>
       </c>
       <c r="K168">
-        <v>1.666</v>
+        <v>2.25</v>
       </c>
       <c r="L168">
+        <v>3.25</v>
+      </c>
+      <c r="M168">
+        <v>2.75</v>
+      </c>
+      <c r="N168">
+        <v>1.8</v>
+      </c>
+      <c r="O168">
+        <v>3.5</v>
+      </c>
+      <c r="P168">
         <v>3.6</v>
       </c>
-      <c r="M168">
-        <v>4.2</v>
-      </c>
-      <c r="N168">
-        <v>1.666</v>
-      </c>
-      <c r="O168">
-        <v>3.6</v>
-      </c>
-      <c r="P168">
-        <v>4.2</v>
-      </c>
       <c r="Q168">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R168">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="S168">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="T168">
         <v>2.75</v>
       </c>
       <c r="U168">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="V168">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="W168">
-        <v>0.6659999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="X168">
         <v>-1</v>
@@ -15621,16 +15621,16 @@
         <v>-1</v>
       </c>
       <c r="Z168">
-        <v>0.45</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA168">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB168">
-        <v>0.4</v>
+        <v>0.925</v>
       </c>
       <c r="AC168">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="169" spans="1:29">
@@ -15638,7 +15638,7 @@
         <v>167</v>
       </c>
       <c r="B169">
-        <v>7342800</v>
+        <v>7342799</v>
       </c>
       <c r="C169" t="s">
         <v>28</v>
@@ -15650,58 +15650,58 @@
         <v>45214.41666666666</v>
       </c>
       <c r="F169" t="s">
-        <v>55</v>
+        <v>75</v>
       </c>
       <c r="G169" t="s">
-        <v>72</v>
+        <v>48</v>
       </c>
       <c r="H169">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I169">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J169" t="s">
         <v>99</v>
       </c>
       <c r="K169">
-        <v>1.2</v>
+        <v>1.666</v>
       </c>
       <c r="L169">
-        <v>6.5</v>
+        <v>3.6</v>
       </c>
       <c r="M169">
-        <v>8</v>
+        <v>4.2</v>
       </c>
       <c r="N169">
-        <v>1.2</v>
+        <v>1.666</v>
       </c>
       <c r="O169">
-        <v>6.5</v>
+        <v>3.6</v>
       </c>
       <c r="P169">
-        <v>8</v>
+        <v>4.2</v>
       </c>
       <c r="Q169">
-        <v>-2</v>
+        <v>-0.75</v>
       </c>
       <c r="R169">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="S169">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="T169">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U169">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="V169">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W169">
-        <v>0.2</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="X169">
         <v>-1</v>
@@ -15710,16 +15710,16 @@
         <v>-1</v>
       </c>
       <c r="Z169">
-        <v>0.95</v>
+        <v>0.45</v>
       </c>
       <c r="AA169">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB169">
-        <v>0.8500000000000001</v>
+        <v>0.4</v>
       </c>
       <c r="AC169">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="170" spans="1:29">
@@ -15727,7 +15727,7 @@
         <v>168</v>
       </c>
       <c r="B170">
-        <v>7342801</v>
+        <v>7342800</v>
       </c>
       <c r="C170" t="s">
         <v>28</v>
@@ -15739,58 +15739,58 @@
         <v>45214.41666666666</v>
       </c>
       <c r="F170" t="s">
-        <v>37</v>
+        <v>54</v>
       </c>
       <c r="G170" t="s">
-        <v>58</v>
+        <v>72</v>
       </c>
       <c r="H170">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I170">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J170" t="s">
         <v>99</v>
       </c>
       <c r="K170">
-        <v>2</v>
+        <v>1.2</v>
       </c>
       <c r="L170">
-        <v>3.4</v>
+        <v>6.5</v>
       </c>
       <c r="M170">
-        <v>3.1</v>
+        <v>8</v>
       </c>
       <c r="N170">
-        <v>1.75</v>
+        <v>1.2</v>
       </c>
       <c r="O170">
-        <v>3.6</v>
+        <v>6.5</v>
       </c>
       <c r="P170">
-        <v>3.8</v>
+        <v>8</v>
       </c>
       <c r="Q170">
-        <v>-0.5</v>
+        <v>-2</v>
       </c>
       <c r="R170">
-        <v>1.75</v>
+        <v>1.95</v>
       </c>
       <c r="S170">
+        <v>1.85</v>
+      </c>
+      <c r="T170">
+        <v>3.25</v>
+      </c>
+      <c r="U170">
+        <v>1.85</v>
+      </c>
+      <c r="V170">
         <v>1.95</v>
       </c>
-      <c r="T170">
-        <v>2.75</v>
-      </c>
-      <c r="U170">
-        <v>1.8</v>
-      </c>
-      <c r="V170">
-        <v>2</v>
-      </c>
       <c r="W170">
-        <v>0.75</v>
+        <v>0.2</v>
       </c>
       <c r="X170">
         <v>-1</v>
@@ -15799,16 +15799,16 @@
         <v>-1</v>
       </c>
       <c r="Z170">
-        <v>0.75</v>
+        <v>0.95</v>
       </c>
       <c r="AA170">
         <v>-1</v>
       </c>
       <c r="AB170">
-        <v>0.4</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC170">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="171" spans="1:29">
@@ -15816,7 +15816,7 @@
         <v>169</v>
       </c>
       <c r="B171">
-        <v>7342802</v>
+        <v>7342801</v>
       </c>
       <c r="C171" t="s">
         <v>28</v>
@@ -15828,76 +15828,76 @@
         <v>45214.41666666666</v>
       </c>
       <c r="F171" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="G171" t="s">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="H171">
         <v>2</v>
       </c>
       <c r="I171">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J171" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="K171">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="L171">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="M171">
-        <v>2.75</v>
+        <v>3.1</v>
       </c>
       <c r="N171">
-        <v>2.25</v>
+        <v>1.75</v>
       </c>
       <c r="O171">
-        <v>3.25</v>
+        <v>3.6</v>
       </c>
       <c r="P171">
-        <v>2.75</v>
+        <v>3.8</v>
       </c>
       <c r="Q171">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R171">
-        <v>2.025</v>
+        <v>1.75</v>
       </c>
       <c r="S171">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="T171">
         <v>2.75</v>
       </c>
       <c r="U171">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="V171">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="W171">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="X171">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="Y171">
         <v>-1</v>
       </c>
       <c r="Z171">
+        <v>0.75</v>
+      </c>
+      <c r="AA171">
+        <v>-1</v>
+      </c>
+      <c r="AB171">
+        <v>0.4</v>
+      </c>
+      <c r="AC171">
         <v>-0.5</v>
-      </c>
-      <c r="AA171">
-        <v>0.3875</v>
-      </c>
-      <c r="AB171">
-        <v>0.925</v>
-      </c>
-      <c r="AC171">
-        <v>-1</v>
       </c>
     </row>
     <row r="172" spans="1:29">
@@ -15905,7 +15905,7 @@
         <v>170</v>
       </c>
       <c r="B172">
-        <v>7342893</v>
+        <v>7342802</v>
       </c>
       <c r="C172" t="s">
         <v>28</v>
@@ -15917,73 +15917,73 @@
         <v>45214.41666666666</v>
       </c>
       <c r="F172" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="G172" t="s">
-        <v>91</v>
+        <v>70</v>
       </c>
       <c r="H172">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I172">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J172" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="K172">
-        <v>2.4</v>
+        <v>2.25</v>
       </c>
       <c r="L172">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="M172">
-        <v>2.4</v>
+        <v>2.75</v>
       </c>
       <c r="N172">
-        <v>2.4</v>
+        <v>2.25</v>
       </c>
       <c r="O172">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="P172">
-        <v>2.4</v>
+        <v>2.75</v>
       </c>
       <c r="Q172">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R172">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="S172">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="T172">
         <v>2.75</v>
       </c>
       <c r="U172">
+        <v>1.925</v>
+      </c>
+      <c r="V172">
         <v>1.875</v>
       </c>
-      <c r="V172">
-        <v>1.925</v>
-      </c>
       <c r="W172">
         <v>-1</v>
       </c>
       <c r="X172">
-        <v>-1</v>
+        <v>2.25</v>
       </c>
       <c r="Y172">
-        <v>1.4</v>
+        <v>-1</v>
       </c>
       <c r="Z172">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA172">
-        <v>0.8999999999999999</v>
+        <v>0.3875</v>
       </c>
       <c r="AB172">
-        <v>0.875</v>
+        <v>0.925</v>
       </c>
       <c r="AC172">
         <v>-1</v>
@@ -16009,7 +16009,7 @@
         <v>39</v>
       </c>
       <c r="G173" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H173">
         <v>5</v>
@@ -16095,7 +16095,7 @@
         <v>45214.41666666666</v>
       </c>
       <c r="F174" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G174" t="s">
         <v>74</v>
@@ -16273,7 +16273,7 @@
         <v>45214.41666666666</v>
       </c>
       <c r="F176" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="G176" t="s">
         <v>69</v>
@@ -16365,7 +16365,7 @@
         <v>58</v>
       </c>
       <c r="G177" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="H177">
         <v>0</v>
@@ -16451,7 +16451,7 @@
         <v>45221.25</v>
       </c>
       <c r="F178" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G178" t="s">
         <v>86</v>
@@ -16540,7 +16540,7 @@
         <v>45221.25</v>
       </c>
       <c r="F179" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G179" t="s">
         <v>45</v>
@@ -16629,10 +16629,10 @@
         <v>45221.25</v>
       </c>
       <c r="F180" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G180" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="H180">
         <v>2</v>
@@ -16721,7 +16721,7 @@
         <v>29</v>
       </c>
       <c r="G181" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H181">
         <v>0</v>
@@ -17252,7 +17252,7 @@
         <v>45221.33333333334</v>
       </c>
       <c r="F187" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G187" t="s">
         <v>87</v>
@@ -17341,10 +17341,10 @@
         <v>45221.33333333334</v>
       </c>
       <c r="F188" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G188" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H188">
         <v>5</v>
@@ -17522,7 +17522,7 @@
         <v>80</v>
       </c>
       <c r="G190" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="H190">
         <v>1</v>
@@ -17697,7 +17697,7 @@
         <v>45221.33333333334</v>
       </c>
       <c r="F192" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="G192" t="s">
         <v>46</v>
@@ -17786,7 +17786,7 @@
         <v>45221.4375</v>
       </c>
       <c r="F193" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G193" t="s">
         <v>66</v>
@@ -17875,7 +17875,7 @@
         <v>45228.29166666666</v>
       </c>
       <c r="F194" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G194" t="s">
         <v>34</v>
@@ -17964,7 +17964,7 @@
         <v>45228.29166666666</v>
       </c>
       <c r="F195" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G195" t="s">
         <v>58</v>
@@ -18056,7 +18056,7 @@
         <v>44</v>
       </c>
       <c r="G196" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H196">
         <v>2</v>
@@ -18145,7 +18145,7 @@
         <v>72</v>
       </c>
       <c r="G197" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="H197">
         <v>1</v>
@@ -18409,10 +18409,10 @@
         <v>45228.375</v>
       </c>
       <c r="F200" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G200" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H200">
         <v>1</v>
@@ -18587,7 +18587,7 @@
         <v>45228.375</v>
       </c>
       <c r="F202" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G202" t="s">
         <v>70</v>
@@ -18765,7 +18765,7 @@
         <v>45235.29166666666</v>
       </c>
       <c r="F204" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G204" t="s">
         <v>75</v>
@@ -18943,10 +18943,10 @@
         <v>45235.29166666666</v>
       </c>
       <c r="F206" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G206" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="H206">
         <v>0</v>
@@ -19121,10 +19121,10 @@
         <v>45235.29166666666</v>
       </c>
       <c r="F208" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G208" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H208">
         <v>2</v>
@@ -19210,7 +19210,7 @@
         <v>45235.375</v>
       </c>
       <c r="F209" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="G209" t="s">
         <v>70</v>
@@ -19299,7 +19299,7 @@
         <v>45235.375</v>
       </c>
       <c r="F210" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G210" t="s">
         <v>86</v>
@@ -19391,7 +19391,7 @@
         <v>61</v>
       </c>
       <c r="G211" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H211">
         <v>1</v>
@@ -19658,7 +19658,7 @@
         <v>59</v>
       </c>
       <c r="G214" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H214">
         <v>1</v>
@@ -19833,10 +19833,10 @@
         <v>45242.29166666666</v>
       </c>
       <c r="F216" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G216" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="H216">
         <v>1</v>
@@ -20278,10 +20278,10 @@
         <v>45242.375</v>
       </c>
       <c r="F221" t="s">
+        <v>54</v>
+      </c>
+      <c r="G221" t="s">
         <v>55</v>
-      </c>
-      <c r="G221" t="s">
-        <v>51</v>
       </c>
       <c r="H221">
         <v>1</v>
@@ -20367,7 +20367,7 @@
         <v>45242.375</v>
       </c>
       <c r="F222" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G222" t="s">
         <v>57</v>
@@ -20634,10 +20634,10 @@
         <v>45248.29166666666</v>
       </c>
       <c r="F225" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G225" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H225">
         <v>1</v>
@@ -20726,7 +20726,7 @@
         <v>65</v>
       </c>
       <c r="G226" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="H226">
         <v>7</v>
@@ -20815,7 +20815,7 @@
         <v>49</v>
       </c>
       <c r="G227" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H227">
         <v>3</v>
@@ -20901,7 +20901,7 @@
         <v>45248.375</v>
       </c>
       <c r="F228" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G228" t="s">
         <v>82</v>
@@ -20990,7 +20990,7 @@
         <v>45248.375</v>
       </c>
       <c r="F229" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G229" t="s">
         <v>58</v>
@@ -21082,7 +21082,7 @@
         <v>46</v>
       </c>
       <c r="G230" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H230">
         <v>1</v>
@@ -21168,10 +21168,10 @@
         <v>45248.375</v>
       </c>
       <c r="F231" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G231" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="H231">
         <v>0</v>
@@ -21349,7 +21349,7 @@
         <v>75</v>
       </c>
       <c r="G233" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H233">
         <v>1</v>
@@ -21435,10 +21435,10 @@
         <v>45248.375</v>
       </c>
       <c r="F234" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="G234" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H234">
         <v>1</v>
@@ -21524,7 +21524,7 @@
         <v>45248.375</v>
       </c>
       <c r="F235" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="G235" t="s">
         <v>69</v>
@@ -21702,7 +21702,7 @@
         <v>45252.375</v>
       </c>
       <c r="F237" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G237" t="s">
         <v>62</v>
@@ -21791,7 +21791,7 @@
         <v>45256.29166666666</v>
       </c>
       <c r="F238" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G238" t="s">
         <v>68</v>
@@ -21880,7 +21880,7 @@
         <v>45256.29166666666</v>
       </c>
       <c r="F239" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G239" t="s">
         <v>72</v>
@@ -21969,10 +21969,10 @@
         <v>45256.29166666666</v>
       </c>
       <c r="F240" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G240" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H240">
         <v>2</v>
@@ -22058,7 +22058,7 @@
         <v>45256.29166666666</v>
       </c>
       <c r="F241" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G241" t="s">
         <v>91</v>
@@ -22236,7 +22236,7 @@
         <v>45256.375</v>
       </c>
       <c r="F243" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G243" t="s">
         <v>45</v>
@@ -22328,7 +22328,7 @@
         <v>82</v>
       </c>
       <c r="G244" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H244">
         <v>0</v>
@@ -22417,7 +22417,7 @@
         <v>80</v>
       </c>
       <c r="G245" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="H245">
         <v>3</v>
@@ -22503,10 +22503,10 @@
         <v>45256.375</v>
       </c>
       <c r="F246" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G246" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H246">
         <v>0</v>
@@ -22669,7 +22669,7 @@
         <v>246</v>
       </c>
       <c r="B248">
-        <v>7519596</v>
+        <v>7519597</v>
       </c>
       <c r="C248" t="s">
         <v>28</v>
@@ -22681,76 +22681,76 @@
         <v>45256.375</v>
       </c>
       <c r="F248" t="s">
-        <v>42</v>
+        <v>75</v>
       </c>
       <c r="G248" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="H248">
         <v>1</v>
       </c>
       <c r="I248">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J248" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="K248">
-        <v>1.666</v>
+        <v>4.333</v>
       </c>
       <c r="L248">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M248">
-        <v>4.333</v>
+        <v>1.615</v>
       </c>
       <c r="N248">
-        <v>1.571</v>
+        <v>3.75</v>
       </c>
       <c r="O248">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="P248">
-        <v>4.75</v>
+        <v>1.727</v>
       </c>
       <c r="Q248">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="R248">
+        <v>1.825</v>
+      </c>
+      <c r="S248">
         <v>1.975</v>
       </c>
-      <c r="S248">
-        <v>1.825</v>
-      </c>
       <c r="T248">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U248">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="V248">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W248">
         <v>-1</v>
       </c>
       <c r="X248">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Y248">
-        <v>-1</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="Z248">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA248">
-        <v>0.825</v>
+        <v>0.4875</v>
       </c>
       <c r="AB248">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC248">
-        <v>0.8999999999999999</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="249" spans="1:29">
@@ -22758,7 +22758,7 @@
         <v>247</v>
       </c>
       <c r="B249">
-        <v>7519597</v>
+        <v>7519596</v>
       </c>
       <c r="C249" t="s">
         <v>28</v>
@@ -22770,76 +22770,76 @@
         <v>45256.375</v>
       </c>
       <c r="F249" t="s">
-        <v>75</v>
+        <v>42</v>
       </c>
       <c r="G249" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="H249">
         <v>1</v>
       </c>
       <c r="I249">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J249" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="K249">
+        <v>1.666</v>
+      </c>
+      <c r="L249">
+        <v>3.6</v>
+      </c>
+      <c r="M249">
         <v>4.333</v>
       </c>
-      <c r="L249">
-        <v>3.75</v>
-      </c>
-      <c r="M249">
-        <v>1.615</v>
-      </c>
       <c r="N249">
-        <v>3.75</v>
+        <v>1.571</v>
       </c>
       <c r="O249">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="P249">
-        <v>1.727</v>
+        <v>4.75</v>
       </c>
       <c r="Q249">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="R249">
+        <v>1.975</v>
+      </c>
+      <c r="S249">
         <v>1.825</v>
       </c>
-      <c r="S249">
-        <v>1.975</v>
-      </c>
       <c r="T249">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U249">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="V249">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W249">
         <v>-1</v>
       </c>
       <c r="X249">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Y249">
-        <v>0.7270000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z249">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA249">
-        <v>0.4875</v>
+        <v>0.825</v>
       </c>
       <c r="AB249">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC249">
-        <v>-0</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="250" spans="1:29">
@@ -22862,7 +22862,7 @@
         <v>65</v>
       </c>
       <c r="G250" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H250">
         <v>2</v>
@@ -22936,7 +22936,7 @@
         <v>249</v>
       </c>
       <c r="B251">
-        <v>7907179</v>
+        <v>7907180</v>
       </c>
       <c r="C251" t="s">
         <v>28</v>
@@ -22948,55 +22948,55 @@
         <v>45354.29166666666</v>
       </c>
       <c r="F251" t="s">
-        <v>83</v>
+        <v>44</v>
       </c>
       <c r="G251" t="s">
-        <v>34</v>
+        <v>63</v>
       </c>
       <c r="H251">
         <v>0</v>
       </c>
       <c r="I251">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J251" t="s">
         <v>98</v>
       </c>
       <c r="K251">
-        <v>2.25</v>
+        <v>2.4</v>
       </c>
       <c r="L251">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M251">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="N251">
-        <v>2.05</v>
+        <v>2.4</v>
       </c>
       <c r="O251">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="P251">
-        <v>2.8</v>
+        <v>2.4</v>
       </c>
       <c r="Q251">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R251">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="S251">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="T251">
         <v>3</v>
       </c>
       <c r="U251">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="V251">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="W251">
         <v>-1</v>
@@ -23005,19 +23005,19 @@
         <v>-1</v>
       </c>
       <c r="Y251">
-        <v>1.8</v>
+        <v>1.4</v>
       </c>
       <c r="Z251">
         <v>-1</v>
       </c>
       <c r="AA251">
-        <v>0.925</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB251">
         <v>-1</v>
       </c>
       <c r="AC251">
-        <v>0.8</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="252" spans="1:29">
@@ -23025,7 +23025,7 @@
         <v>250</v>
       </c>
       <c r="B252">
-        <v>7907180</v>
+        <v>7907179</v>
       </c>
       <c r="C252" t="s">
         <v>28</v>
@@ -23037,55 +23037,55 @@
         <v>45354.29166666666</v>
       </c>
       <c r="F252" t="s">
-        <v>44</v>
+        <v>83</v>
       </c>
       <c r="G252" t="s">
-        <v>63</v>
+        <v>34</v>
       </c>
       <c r="H252">
         <v>0</v>
       </c>
       <c r="I252">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J252" t="s">
         <v>98</v>
       </c>
       <c r="K252">
-        <v>2.4</v>
+        <v>2.25</v>
       </c>
       <c r="L252">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M252">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="N252">
-        <v>2.4</v>
+        <v>2.05</v>
       </c>
       <c r="O252">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="P252">
-        <v>2.4</v>
+        <v>2.8</v>
       </c>
       <c r="Q252">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R252">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="S252">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="T252">
         <v>3</v>
       </c>
       <c r="U252">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="V252">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="W252">
         <v>-1</v>
@@ -23094,19 +23094,19 @@
         <v>-1</v>
       </c>
       <c r="Y252">
-        <v>1.4</v>
+        <v>1.8</v>
       </c>
       <c r="Z252">
         <v>-1</v>
       </c>
       <c r="AA252">
-        <v>0.8999999999999999</v>
+        <v>0.925</v>
       </c>
       <c r="AB252">
         <v>-1</v>
       </c>
       <c r="AC252">
-        <v>0.8999999999999999</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="253" spans="1:29">
@@ -23126,10 +23126,10 @@
         <v>45354.33333333334</v>
       </c>
       <c r="F253" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G253" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H253">
         <v>0</v>
@@ -23393,7 +23393,7 @@
         <v>45354.41666666666</v>
       </c>
       <c r="F256" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G256" t="s">
         <v>39</v>
@@ -23482,7 +23482,7 @@
         <v>45354.41666666666</v>
       </c>
       <c r="F257" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="G257" t="s">
         <v>59</v>
@@ -23663,7 +23663,7 @@
         <v>79</v>
       </c>
       <c r="G259" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H259">
         <v>2</v>
@@ -23737,7 +23737,7 @@
         <v>258</v>
       </c>
       <c r="B260">
-        <v>7939232</v>
+        <v>7938808</v>
       </c>
       <c r="C260" t="s">
         <v>28</v>
@@ -23749,19 +23749,19 @@
         <v>45361.29166666666</v>
       </c>
       <c r="F260" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="G260" t="s">
-        <v>86</v>
+        <v>47</v>
       </c>
       <c r="H260">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I260">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J260" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="K260">
         <v>2.25</v>
@@ -23782,16 +23782,16 @@
         <v>2.6</v>
       </c>
       <c r="Q260">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R260">
+        <v>1.95</v>
+      </c>
+      <c r="S260">
         <v>1.75</v>
       </c>
-      <c r="S260">
-        <v>2.05</v>
-      </c>
       <c r="T260">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U260">
         <v>1.85</v>
@@ -23803,22 +23803,22 @@
         <v>-1</v>
       </c>
       <c r="X260">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y260">
-        <v>-1</v>
+        <v>1.6</v>
       </c>
       <c r="Z260">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA260">
-        <v>-0</v>
+        <v>0.75</v>
       </c>
       <c r="AB260">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC260">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="261" spans="1:29">
@@ -23915,7 +23915,7 @@
         <v>260</v>
       </c>
       <c r="B262">
-        <v>7938808</v>
+        <v>7939232</v>
       </c>
       <c r="C262" t="s">
         <v>28</v>
@@ -23927,19 +23927,19 @@
         <v>45361.29166666666</v>
       </c>
       <c r="F262" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="G262" t="s">
-        <v>48</v>
+        <v>86</v>
       </c>
       <c r="H262">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I262">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J262" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="K262">
         <v>2.25</v>
@@ -23960,16 +23960,16 @@
         <v>2.6</v>
       </c>
       <c r="Q262">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R262">
-        <v>1.95</v>
+        <v>1.75</v>
       </c>
       <c r="S262">
-        <v>1.75</v>
+        <v>2.05</v>
       </c>
       <c r="T262">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U262">
         <v>1.85</v>
@@ -23981,22 +23981,22 @@
         <v>-1</v>
       </c>
       <c r="X262">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y262">
-        <v>1.6</v>
+        <v>-1</v>
       </c>
       <c r="Z262">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA262">
-        <v>0.75</v>
+        <v>-0</v>
       </c>
       <c r="AB262">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC262">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="263" spans="1:29">
@@ -24016,10 +24016,10 @@
         <v>45361.29166666666</v>
       </c>
       <c r="F263" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G263" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="H263">
         <v>0</v>
@@ -24194,7 +24194,7 @@
         <v>45361.33333333334</v>
       </c>
       <c r="F265" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G265" t="s">
         <v>78</v>
@@ -24286,7 +24286,7 @@
         <v>65</v>
       </c>
       <c r="G266" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="H266">
         <v>0</v>
@@ -24375,7 +24375,7 @@
         <v>39</v>
       </c>
       <c r="G267" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H267">
         <v>1</v>
@@ -24550,7 +24550,7 @@
         <v>45361.41666666666</v>
       </c>
       <c r="F269" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G269" t="s">
         <v>46</v>
@@ -24639,7 +24639,7 @@
         <v>45361.41666666666</v>
       </c>
       <c r="F270" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G270" t="s">
         <v>72</v>
@@ -24728,7 +24728,7 @@
         <v>45361.41666666666</v>
       </c>
       <c r="F271" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G271" t="s">
         <v>80</v>
@@ -24820,7 +24820,7 @@
         <v>73</v>
       </c>
       <c r="G272" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H272">
         <v>1</v>
@@ -24995,7 +24995,7 @@
         <v>45361.41666666666</v>
       </c>
       <c r="F274" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G274" t="s">
         <v>91</v>
@@ -25173,7 +25173,7 @@
         <v>45368.29166666666</v>
       </c>
       <c r="F276" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G276" t="s">
         <v>42</v>
@@ -25262,7 +25262,7 @@
         <v>45368.29166666666</v>
       </c>
       <c r="F277" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G277" t="s">
         <v>43</v>
@@ -25618,10 +25618,10 @@
         <v>45368.41666666666</v>
       </c>
       <c r="F281" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="G281" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H281">
         <v>0</v>
@@ -25796,7 +25796,7 @@
         <v>45368.41666666666</v>
       </c>
       <c r="F283" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G283" t="s">
         <v>71</v>
@@ -25885,7 +25885,7 @@
         <v>45368.41666666666</v>
       </c>
       <c r="F284" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G284" t="s">
         <v>65</v>
@@ -26063,7 +26063,7 @@
         <v>45368.41666666666</v>
       </c>
       <c r="F286" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="G286" t="s">
         <v>58</v>
@@ -26155,7 +26155,7 @@
         <v>72</v>
       </c>
       <c r="G287" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="H287">
         <v>1</v>
@@ -26244,7 +26244,7 @@
         <v>70</v>
       </c>
       <c r="G288" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H288">
         <v>1</v>
@@ -26419,7 +26419,7 @@
         <v>45375.29166666666</v>
       </c>
       <c r="F290" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G290" t="s">
         <v>83</v>
@@ -26508,7 +26508,7 @@
         <v>45375.29166666666</v>
       </c>
       <c r="F291" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G291" t="s">
         <v>53</v>
@@ -26775,7 +26775,7 @@
         <v>45375.29166666666</v>
       </c>
       <c r="F294" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G294" t="s">
         <v>72</v>
@@ -26864,7 +26864,7 @@
         <v>45375.29166666666</v>
       </c>
       <c r="F295" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G295" t="s">
         <v>80</v>
@@ -26956,7 +26956,7 @@
         <v>64</v>
       </c>
       <c r="G296" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H296">
         <v>0</v>
@@ -27131,10 +27131,10 @@
         <v>45375.41666666666</v>
       </c>
       <c r="F298" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G298" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H298">
         <v>2</v>
@@ -27220,10 +27220,10 @@
         <v>45375.41666666666</v>
       </c>
       <c r="F299" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G299" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H299">
         <v>2</v>
@@ -27487,10 +27487,10 @@
         <v>45375.41666666666</v>
       </c>
       <c r="F302" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G302" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="H302">
         <v>2</v>
@@ -27576,7 +27576,7 @@
         <v>45375.41666666666</v>
       </c>
       <c r="F303" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G303" t="s">
         <v>59</v>
@@ -27754,7 +27754,7 @@
         <v>45375.41666666666</v>
       </c>
       <c r="F305" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G305" t="s">
         <v>70</v>
@@ -27843,10 +27843,10 @@
         <v>45375.41666666666</v>
       </c>
       <c r="F306" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="G306" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H306">
         <v>2</v>
@@ -27935,7 +27935,7 @@
         <v>70</v>
       </c>
       <c r="G307" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="H307">
         <v>0</v>
@@ -28021,7 +28021,7 @@
         <v>45382.25</v>
       </c>
       <c r="F308" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G308" t="s">
         <v>40</v>
@@ -28199,7 +28199,7 @@
         <v>45382.25</v>
       </c>
       <c r="F310" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G310" t="s">
         <v>76</v>
@@ -28555,7 +28555,7 @@
         <v>45382.25</v>
       </c>
       <c r="F314" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G314" t="s">
         <v>87</v>
@@ -28721,7 +28721,7 @@
         <v>314</v>
       </c>
       <c r="B316">
-        <v>8030696</v>
+        <v>8030793</v>
       </c>
       <c r="C316" t="s">
         <v>28</v>
@@ -28733,73 +28733,73 @@
         <v>45382.45833333334</v>
       </c>
       <c r="F316" t="s">
-        <v>56</v>
+        <v>84</v>
       </c>
       <c r="G316" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="H316">
+        <v>3</v>
+      </c>
+      <c r="I316">
         <v>1</v>
       </c>
-      <c r="I316">
-        <v>3</v>
-      </c>
       <c r="J316" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="K316">
-        <v>5.5</v>
+        <v>2.15</v>
       </c>
       <c r="L316">
-        <v>4.5</v>
+        <v>3.75</v>
       </c>
       <c r="M316">
-        <v>1.4</v>
+        <v>2.625</v>
       </c>
       <c r="N316">
-        <v>5.5</v>
+        <v>2.15</v>
       </c>
       <c r="O316">
-        <v>4.5</v>
+        <v>3.75</v>
       </c>
       <c r="P316">
-        <v>1.4</v>
+        <v>2.625</v>
       </c>
       <c r="Q316">
-        <v>1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R316">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="S316">
+        <v>1.825</v>
+      </c>
+      <c r="T316">
+        <v>3.25</v>
+      </c>
+      <c r="U316">
         <v>1.85</v>
-      </c>
-      <c r="T316">
-        <v>3</v>
-      </c>
-      <c r="U316">
-        <v>1.75</v>
       </c>
       <c r="V316">
         <v>1.95</v>
       </c>
       <c r="W316">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="X316">
         <v>-1</v>
       </c>
       <c r="Y316">
-        <v>0.3999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z316">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA316">
+        <v>-1</v>
+      </c>
+      <c r="AB316">
         <v>0.8500000000000001</v>
-      </c>
-      <c r="AB316">
-        <v>0.75</v>
       </c>
       <c r="AC316">
         <v>-1</v>
@@ -28825,7 +28825,7 @@
         <v>42</v>
       </c>
       <c r="G317" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H317">
         <v>1</v>
@@ -28911,10 +28911,10 @@
         <v>45382.45833333334</v>
       </c>
       <c r="F318" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G318" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H318">
         <v>0</v>
@@ -28988,7 +28988,7 @@
         <v>317</v>
       </c>
       <c r="B319">
-        <v>8030792</v>
+        <v>8030756</v>
       </c>
       <c r="C319" t="s">
         <v>28</v>
@@ -29000,73 +29000,73 @@
         <v>45382.45833333334</v>
       </c>
       <c r="F319" t="s">
-        <v>34</v>
+        <v>49</v>
       </c>
       <c r="G319" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="H319">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I319">
+        <v>3</v>
+      </c>
+      <c r="J319" t="s">
+        <v>100</v>
+      </c>
+      <c r="K319">
+        <v>2.1</v>
+      </c>
+      <c r="L319">
+        <v>3.75</v>
+      </c>
+      <c r="M319">
+        <v>2.7</v>
+      </c>
+      <c r="N319">
+        <v>2.25</v>
+      </c>
+      <c r="O319">
+        <v>3.75</v>
+      </c>
+      <c r="P319">
+        <v>2.55</v>
+      </c>
+      <c r="Q319">
         <v>0</v>
       </c>
-      <c r="J319" t="s">
-        <v>99</v>
-      </c>
-      <c r="K319">
-        <v>1.833</v>
-      </c>
-      <c r="L319">
-        <v>3.6</v>
-      </c>
-      <c r="M319">
-        <v>3.4</v>
-      </c>
-      <c r="N319">
-        <v>1.833</v>
-      </c>
-      <c r="O319">
-        <v>3.6</v>
-      </c>
-      <c r="P319">
-        <v>3.4</v>
-      </c>
-      <c r="Q319">
-        <v>-0.5</v>
-      </c>
       <c r="R319">
-        <v>1.875</v>
+        <v>1.775</v>
       </c>
       <c r="S319">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="T319">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U319">
+        <v>1.85</v>
+      </c>
+      <c r="V319">
         <v>1.95</v>
       </c>
-      <c r="V319">
-        <v>1.85</v>
-      </c>
       <c r="W319">
-        <v>0.833</v>
+        <v>-1</v>
       </c>
       <c r="X319">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Y319">
         <v>-1</v>
       </c>
       <c r="Z319">
-        <v>0.875</v>
+        <v>0</v>
       </c>
       <c r="AA319">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB319">
-        <v>0.95</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC319">
         <v>-1</v>
@@ -29077,7 +29077,7 @@
         <v>318</v>
       </c>
       <c r="B320">
-        <v>8030756</v>
+        <v>8030792</v>
       </c>
       <c r="C320" t="s">
         <v>28</v>
@@ -29089,73 +29089,73 @@
         <v>45382.45833333334</v>
       </c>
       <c r="F320" t="s">
-        <v>49</v>
+        <v>34</v>
       </c>
       <c r="G320" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="H320">
+        <v>5</v>
+      </c>
+      <c r="I320">
+        <v>0</v>
+      </c>
+      <c r="J320" t="s">
+        <v>99</v>
+      </c>
+      <c r="K320">
+        <v>1.833</v>
+      </c>
+      <c r="L320">
+        <v>3.6</v>
+      </c>
+      <c r="M320">
+        <v>3.4</v>
+      </c>
+      <c r="N320">
+        <v>1.833</v>
+      </c>
+      <c r="O320">
+        <v>3.6</v>
+      </c>
+      <c r="P320">
+        <v>3.4</v>
+      </c>
+      <c r="Q320">
+        <v>-0.5</v>
+      </c>
+      <c r="R320">
+        <v>1.875</v>
+      </c>
+      <c r="S320">
+        <v>1.925</v>
+      </c>
+      <c r="T320">
         <v>3</v>
       </c>
-      <c r="I320">
-        <v>3</v>
-      </c>
-      <c r="J320" t="s">
-        <v>100</v>
-      </c>
-      <c r="K320">
-        <v>2.1</v>
-      </c>
-      <c r="L320">
-        <v>3.75</v>
-      </c>
-      <c r="M320">
-        <v>2.7</v>
-      </c>
-      <c r="N320">
-        <v>2.25</v>
-      </c>
-      <c r="O320">
-        <v>3.75</v>
-      </c>
-      <c r="P320">
-        <v>2.55</v>
-      </c>
-      <c r="Q320">
-        <v>0</v>
-      </c>
-      <c r="R320">
-        <v>1.775</v>
-      </c>
-      <c r="S320">
-        <v>2.025</v>
-      </c>
-      <c r="T320">
-        <v>3.25</v>
-      </c>
       <c r="U320">
+        <v>1.95</v>
+      </c>
+      <c r="V320">
         <v>1.85</v>
       </c>
-      <c r="V320">
-        <v>1.95</v>
-      </c>
       <c r="W320">
-        <v>-1</v>
+        <v>0.833</v>
       </c>
       <c r="X320">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y320">
         <v>-1</v>
       </c>
       <c r="Z320">
-        <v>0</v>
+        <v>0.875</v>
       </c>
       <c r="AA320">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB320">
-        <v>0.8500000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="AC320">
         <v>-1</v>
@@ -29181,7 +29181,7 @@
         <v>46</v>
       </c>
       <c r="G321" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="H321">
         <v>1</v>
@@ -29267,10 +29267,10 @@
         <v>45382.45833333334</v>
       </c>
       <c r="F322" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="G322" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="H322">
         <v>1</v>
@@ -29356,7 +29356,7 @@
         <v>45382.45833333334</v>
       </c>
       <c r="F323" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G323" t="s">
         <v>62</v>
@@ -29522,7 +29522,7 @@
         <v>323</v>
       </c>
       <c r="B325">
-        <v>8030793</v>
+        <v>8030696</v>
       </c>
       <c r="C325" t="s">
         <v>28</v>
@@ -29534,73 +29534,73 @@
         <v>45382.45833333334</v>
       </c>
       <c r="F325" t="s">
-        <v>85</v>
+        <v>56</v>
       </c>
       <c r="G325" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="H325">
+        <v>1</v>
+      </c>
+      <c r="I325">
         <v>3</v>
       </c>
-      <c r="I325">
-        <v>1</v>
-      </c>
       <c r="J325" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="K325">
-        <v>2.15</v>
+        <v>5.5</v>
       </c>
       <c r="L325">
-        <v>3.75</v>
+        <v>4.5</v>
       </c>
       <c r="M325">
-        <v>2.625</v>
+        <v>1.4</v>
       </c>
       <c r="N325">
-        <v>2.15</v>
+        <v>5.5</v>
       </c>
       <c r="O325">
-        <v>3.75</v>
+        <v>4.5</v>
       </c>
       <c r="P325">
-        <v>2.625</v>
+        <v>1.4</v>
       </c>
       <c r="Q325">
-        <v>-0.25</v>
+        <v>1.25</v>
       </c>
       <c r="R325">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="S325">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="T325">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U325">
-        <v>1.85</v>
+        <v>1.75</v>
       </c>
       <c r="V325">
         <v>1.95</v>
       </c>
       <c r="W325">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="X325">
         <v>-1</v>
       </c>
       <c r="Y325">
-        <v>-1</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="Z325">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA325">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB325">
-        <v>0.8500000000000001</v>
+        <v>0.75</v>
       </c>
       <c r="AC325">
         <v>-1</v>
@@ -29623,7 +29623,7 @@
         <v>45389.25</v>
       </c>
       <c r="F326" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G326" t="s">
         <v>29</v>
@@ -29712,10 +29712,10 @@
         <v>45389.25</v>
       </c>
       <c r="F327" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G327" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="H327">
         <v>2</v>
@@ -29967,7 +29967,7 @@
         <v>328</v>
       </c>
       <c r="B330">
-        <v>8061117</v>
+        <v>8061279</v>
       </c>
       <c r="C330" t="s">
         <v>28</v>
@@ -29979,76 +29979,76 @@
         <v>45389.25</v>
       </c>
       <c r="F330" t="s">
-        <v>65</v>
+        <v>44</v>
       </c>
       <c r="G330" t="s">
-        <v>70</v>
+        <v>48</v>
       </c>
       <c r="H330">
+        <v>3</v>
+      </c>
+      <c r="I330">
+        <v>2</v>
+      </c>
+      <c r="J330" t="s">
+        <v>99</v>
+      </c>
+      <c r="K330">
+        <v>1.533</v>
+      </c>
+      <c r="L330">
+        <v>4</v>
+      </c>
+      <c r="M330">
+        <v>4.75</v>
+      </c>
+      <c r="N330">
+        <v>1.533</v>
+      </c>
+      <c r="O330">
+        <v>4</v>
+      </c>
+      <c r="P330">
+        <v>4.75</v>
+      </c>
+      <c r="Q330">
+        <v>-1</v>
+      </c>
+      <c r="R330">
+        <v>1.875</v>
+      </c>
+      <c r="S330">
+        <v>1.925</v>
+      </c>
+      <c r="T330">
+        <v>2.75</v>
+      </c>
+      <c r="U330">
+        <v>1.825</v>
+      </c>
+      <c r="V330">
+        <v>1.975</v>
+      </c>
+      <c r="W330">
+        <v>0.5329999999999999</v>
+      </c>
+      <c r="X330">
+        <v>-1</v>
+      </c>
+      <c r="Y330">
+        <v>-1</v>
+      </c>
+      <c r="Z330">
         <v>0</v>
       </c>
-      <c r="I330">
-        <v>0</v>
-      </c>
-      <c r="J330" t="s">
-        <v>100</v>
-      </c>
-      <c r="K330">
-        <v>3.6</v>
-      </c>
-      <c r="L330">
-        <v>3.8</v>
-      </c>
-      <c r="M330">
-        <v>1.727</v>
-      </c>
-      <c r="N330">
-        <v>3.6</v>
-      </c>
-      <c r="O330">
-        <v>3.8</v>
-      </c>
-      <c r="P330">
-        <v>1.727</v>
-      </c>
-      <c r="Q330">
-        <v>0.75</v>
-      </c>
-      <c r="R330">
-        <v>1.825</v>
-      </c>
-      <c r="S330">
-        <v>1.975</v>
-      </c>
-      <c r="T330">
-        <v>3</v>
-      </c>
-      <c r="U330">
-        <v>1.925</v>
-      </c>
-      <c r="V330">
-        <v>1.875</v>
-      </c>
-      <c r="W330">
-        <v>-1</v>
-      </c>
-      <c r="X330">
-        <v>2.8</v>
-      </c>
-      <c r="Y330">
-        <v>-1</v>
-      </c>
-      <c r="Z330">
+      <c r="AA330">
+        <v>-0</v>
+      </c>
+      <c r="AB330">
         <v>0.825</v>
       </c>
-      <c r="AA330">
-        <v>-1</v>
-      </c>
-      <c r="AB330">
-        <v>-1</v>
-      </c>
       <c r="AC330">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="331" spans="1:29">
@@ -30145,7 +30145,7 @@
         <v>330</v>
       </c>
       <c r="B332">
-        <v>8061279</v>
+        <v>8061117</v>
       </c>
       <c r="C332" t="s">
         <v>28</v>
@@ -30157,76 +30157,76 @@
         <v>45389.25</v>
       </c>
       <c r="F332" t="s">
-        <v>44</v>
+        <v>65</v>
       </c>
       <c r="G332" t="s">
-        <v>47</v>
+        <v>70</v>
       </c>
       <c r="H332">
+        <v>0</v>
+      </c>
+      <c r="I332">
+        <v>0</v>
+      </c>
+      <c r="J332" t="s">
+        <v>100</v>
+      </c>
+      <c r="K332">
+        <v>3.6</v>
+      </c>
+      <c r="L332">
+        <v>3.8</v>
+      </c>
+      <c r="M332">
+        <v>1.727</v>
+      </c>
+      <c r="N332">
+        <v>3.6</v>
+      </c>
+      <c r="O332">
+        <v>3.8</v>
+      </c>
+      <c r="P332">
+        <v>1.727</v>
+      </c>
+      <c r="Q332">
+        <v>0.75</v>
+      </c>
+      <c r="R332">
+        <v>1.825</v>
+      </c>
+      <c r="S332">
+        <v>1.975</v>
+      </c>
+      <c r="T332">
         <v>3</v>
       </c>
-      <c r="I332">
-        <v>2</v>
-      </c>
-      <c r="J332" t="s">
-        <v>99</v>
-      </c>
-      <c r="K332">
-        <v>1.533</v>
-      </c>
-      <c r="L332">
-        <v>4</v>
-      </c>
-      <c r="M332">
-        <v>4.75</v>
-      </c>
-      <c r="N332">
-        <v>1.533</v>
-      </c>
-      <c r="O332">
-        <v>4</v>
-      </c>
-      <c r="P332">
-        <v>4.75</v>
-      </c>
-      <c r="Q332">
-        <v>-1</v>
-      </c>
-      <c r="R332">
+      <c r="U332">
+        <v>1.925</v>
+      </c>
+      <c r="V332">
         <v>1.875</v>
       </c>
-      <c r="S332">
-        <v>1.925</v>
-      </c>
-      <c r="T332">
-        <v>2.75</v>
-      </c>
-      <c r="U332">
-        <v>1.825</v>
-      </c>
-      <c r="V332">
-        <v>1.975</v>
-      </c>
       <c r="W332">
-        <v>0.5329999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X332">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Y332">
         <v>-1</v>
       </c>
       <c r="Z332">
-        <v>0</v>
+        <v>0.825</v>
       </c>
       <c r="AA332">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB332">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC332">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="333" spans="1:29">
@@ -30246,7 +30246,7 @@
         <v>45389.375</v>
       </c>
       <c r="F333" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G333" t="s">
         <v>78</v>
@@ -30424,7 +30424,7 @@
         <v>45389.45833333334</v>
       </c>
       <c r="F335" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="G335" t="s">
         <v>72</v>
@@ -30513,10 +30513,10 @@
         <v>45389.45833333334</v>
       </c>
       <c r="F336" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G336" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H336">
         <v>2</v>
@@ -30605,7 +30605,7 @@
         <v>43</v>
       </c>
       <c r="G337" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H337">
         <v>1</v>
@@ -30691,7 +30691,7 @@
         <v>45389.45833333334</v>
       </c>
       <c r="F338" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G338" t="s">
         <v>49</v>
@@ -30869,7 +30869,7 @@
         <v>45389.45833333334</v>
       </c>
       <c r="F340" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G340" t="s">
         <v>46</v>

--- a/Hungary NB III/Hungary NB III.xlsx
+++ b/Hungary NB III/Hungary NB III.xlsx
@@ -145,13 +145,13 @@
     <t>Balatonfuredi FC</t>
   </si>
   <si>
-    <t>III Keruleti TUE</t>
-  </si>
-  <si>
     <t>Kelen SC</t>
   </si>
   <si>
-    <t>FC Tiszaujvaros</t>
+    <t>FC Tatabanya</t>
+  </si>
+  <si>
+    <t>Dorogi FC</t>
   </si>
   <si>
     <t>Kecskemeti TE II</t>
@@ -160,25 +160,25 @@
     <t>Monori SE</t>
   </si>
   <si>
-    <t>FC Tatabanya</t>
-  </si>
-  <si>
-    <t>Dorogi FC</t>
-  </si>
-  <si>
-    <t>Cegledi VSE</t>
-  </si>
-  <si>
-    <t>PEAC FC</t>
-  </si>
-  <si>
-    <t>Debreceni II</t>
+    <t>III Keruleti TUE</t>
   </si>
   <si>
     <t>Vasas SC II</t>
   </si>
   <si>
     <t>Bicskei TC</t>
+  </si>
+  <si>
+    <t>Cegledi VSE</t>
+  </si>
+  <si>
+    <t>FC Tiszaujvaros</t>
+  </si>
+  <si>
+    <t>Debreceni II</t>
+  </si>
+  <si>
+    <t>PEAC FC</t>
   </si>
   <si>
     <t>FC Nagykanizsa</t>
@@ -208,13 +208,13 @@
     <t>Gyirmot FC Gyor II</t>
   </si>
   <si>
+    <t>SzegedCsanad Grosics II</t>
+  </si>
+  <si>
     <t>Putnok</t>
   </si>
   <si>
     <t>Szentlorinc SE</t>
-  </si>
-  <si>
-    <t>SzegedCsanad Grosics II</t>
   </si>
   <si>
     <t>Paksi SE II</t>
@@ -277,10 +277,10 @@
     <t>Hodmezovasarhelyi</t>
   </si>
   <si>
-    <t>Kaposvari Rakoczi</t>
+    <t>Korosladany MSK</t>
   </si>
   <si>
-    <t>Korosladany MSK</t>
+    <t>Kaposvari Rakoczi</t>
   </si>
   <si>
     <t>Martfui LSE</t>
@@ -784,7 +784,7 @@
         <v>28</v>
       </c>
       <c r="F2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G2">
         <v>2</v>
@@ -870,7 +870,7 @@
         <v>29</v>
       </c>
       <c r="F3" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="G3">
         <v>1</v>
@@ -1042,7 +1042,7 @@
         <v>31</v>
       </c>
       <c r="F5" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -1558,7 +1558,7 @@
         <v>37</v>
       </c>
       <c r="F11" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G11">
         <v>2</v>
@@ -1816,7 +1816,7 @@
         <v>40</v>
       </c>
       <c r="F14" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -2062,7 +2062,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>7005724</v>
+        <v>7005726</v>
       </c>
       <c r="C17" t="s">
         <v>27</v>
@@ -2074,73 +2074,73 @@
         <v>43</v>
       </c>
       <c r="F17" t="s">
-        <v>68</v>
+        <v>79</v>
       </c>
       <c r="G17">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I17" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="J17">
-        <v>1.2</v>
+        <v>2.25</v>
       </c>
       <c r="K17">
-        <v>6.5</v>
+        <v>3.75</v>
       </c>
       <c r="L17">
-        <v>9</v>
+        <v>2.5</v>
       </c>
       <c r="M17">
-        <v>1.142</v>
+        <v>2.25</v>
       </c>
       <c r="N17">
-        <v>7.5</v>
+        <v>3.75</v>
       </c>
       <c r="O17">
-        <v>12</v>
+        <v>2.5</v>
       </c>
       <c r="P17">
-        <v>-2.25</v>
+        <v>-0.25</v>
       </c>
       <c r="Q17">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="R17">
-        <v>1.95</v>
+        <v>1.75</v>
       </c>
       <c r="S17">
-        <v>3.5</v>
+        <v>2.75</v>
       </c>
       <c r="T17">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="U17">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="V17">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="W17">
-        <v>6.5</v>
+        <v>-1</v>
       </c>
       <c r="X17">
         <v>-1</v>
       </c>
       <c r="Y17">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="Z17">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA17">
-        <v>-1</v>
+        <v>0.4</v>
       </c>
       <c r="AB17">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="18" spans="1:28">
@@ -2148,7 +2148,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>7005726</v>
+        <v>7005728</v>
       </c>
       <c r="C18" t="s">
         <v>27</v>
@@ -2160,7 +2160,7 @@
         <v>44</v>
       </c>
       <c r="F18" t="s">
-        <v>79</v>
+        <v>57</v>
       </c>
       <c r="G18">
         <v>2</v>
@@ -2172,43 +2172,43 @@
         <v>99</v>
       </c>
       <c r="J18">
-        <v>2.25</v>
+        <v>1.4</v>
       </c>
       <c r="K18">
-        <v>3.75</v>
+        <v>4.75</v>
       </c>
       <c r="L18">
-        <v>2.5</v>
+        <v>5.5</v>
       </c>
       <c r="M18">
-        <v>2.25</v>
+        <v>1.3</v>
       </c>
       <c r="N18">
-        <v>3.75</v>
+        <v>5</v>
       </c>
       <c r="O18">
-        <v>2.5</v>
+        <v>7</v>
       </c>
       <c r="P18">
-        <v>-0.25</v>
+        <v>-1.5</v>
       </c>
       <c r="Q18">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="R18">
-        <v>1.75</v>
+        <v>1.95</v>
       </c>
       <c r="S18">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="T18">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="U18">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="V18">
-        <v>1.25</v>
+        <v>0.3</v>
       </c>
       <c r="W18">
         <v>-1</v>
@@ -2217,16 +2217,16 @@
         <v>-1</v>
       </c>
       <c r="Y18">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="Z18">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA18">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="AB18">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:28">
@@ -2234,7 +2234,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>7005762</v>
+        <v>7005727</v>
       </c>
       <c r="C19" t="s">
         <v>27</v>
@@ -2246,7 +2246,7 @@
         <v>45</v>
       </c>
       <c r="F19" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="G19">
         <v>2</v>
@@ -2258,43 +2258,43 @@
         <v>99</v>
       </c>
       <c r="J19">
-        <v>2.25</v>
+        <v>1.909</v>
       </c>
       <c r="K19">
         <v>4</v>
       </c>
       <c r="L19">
-        <v>2.4</v>
+        <v>3</v>
       </c>
       <c r="M19">
-        <v>2.25</v>
+        <v>1.909</v>
       </c>
       <c r="N19">
         <v>4</v>
       </c>
       <c r="O19">
-        <v>2.45</v>
+        <v>3</v>
       </c>
       <c r="P19">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="Q19">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="R19">
-        <v>1.75</v>
+        <v>1.825</v>
       </c>
       <c r="S19">
         <v>2.75</v>
       </c>
       <c r="T19">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="U19">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="V19">
-        <v>1.25</v>
+        <v>0.909</v>
       </c>
       <c r="W19">
         <v>-1</v>
@@ -2303,7 +2303,7 @@
         <v>-1</v>
       </c>
       <c r="Y19">
-        <v>1.05</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="Z19">
         <v>-1</v>
@@ -2312,7 +2312,7 @@
         <v>-1</v>
       </c>
       <c r="AB19">
-        <v>1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="20" spans="1:28">
@@ -2492,7 +2492,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>7005728</v>
+        <v>7005724</v>
       </c>
       <c r="C22" t="s">
         <v>27</v>
@@ -2504,37 +2504,37 @@
         <v>48</v>
       </c>
       <c r="F22" t="s">
-        <v>57</v>
+        <v>68</v>
       </c>
       <c r="G22">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I22" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="J22">
-        <v>1.4</v>
+        <v>1.2</v>
       </c>
       <c r="K22">
-        <v>4.75</v>
+        <v>6.5</v>
       </c>
       <c r="L22">
-        <v>5.5</v>
+        <v>9</v>
       </c>
       <c r="M22">
-        <v>1.3</v>
+        <v>1.142</v>
       </c>
       <c r="N22">
-        <v>5</v>
+        <v>7.5</v>
       </c>
       <c r="O22">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="P22">
-        <v>-1.5</v>
+        <v>-2.25</v>
       </c>
       <c r="Q22">
         <v>1.85</v>
@@ -2543,19 +2543,19 @@
         <v>1.95</v>
       </c>
       <c r="S22">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="T22">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="U22">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="V22">
-        <v>0.3</v>
+        <v>-1</v>
       </c>
       <c r="W22">
-        <v>-1</v>
+        <v>6.5</v>
       </c>
       <c r="X22">
         <v>-1</v>
@@ -2567,10 +2567,10 @@
         <v>0.95</v>
       </c>
       <c r="AA22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AB22">
-        <v>0</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="23" spans="1:28">
@@ -2578,7 +2578,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>7005737</v>
+        <v>7005745</v>
       </c>
       <c r="C23" t="s">
         <v>27</v>
@@ -2587,76 +2587,76 @@
         <v>45140.52083333334</v>
       </c>
       <c r="E23" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="F23" t="s">
-        <v>74</v>
+        <v>87</v>
       </c>
       <c r="G23">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I23" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="J23">
-        <v>1.909</v>
+        <v>2.7</v>
       </c>
       <c r="K23">
         <v>3.75</v>
       </c>
       <c r="L23">
-        <v>3.1</v>
+        <v>2.1</v>
       </c>
       <c r="M23">
-        <v>1.5</v>
+        <v>2.7</v>
       </c>
       <c r="N23">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="O23">
-        <v>5.25</v>
+        <v>2.1</v>
       </c>
       <c r="P23">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="Q23">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="R23">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="S23">
+        <v>3</v>
+      </c>
+      <c r="T23">
+        <v>1.825</v>
+      </c>
+      <c r="U23">
+        <v>1.975</v>
+      </c>
+      <c r="V23">
+        <v>-1</v>
+      </c>
+      <c r="W23">
         <v>2.75</v>
       </c>
-      <c r="T23">
-        <v>1.95</v>
-      </c>
-      <c r="U23">
-        <v>1.85</v>
-      </c>
-      <c r="V23">
-        <v>0.5</v>
-      </c>
-      <c r="W23">
-        <v>-1</v>
-      </c>
       <c r="X23">
         <v>-1</v>
       </c>
       <c r="Y23">
-        <v>0.8</v>
+        <v>0.4375</v>
       </c>
       <c r="Z23">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA23">
         <v>-1</v>
       </c>
       <c r="AB23">
-        <v>0.8500000000000001</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="24" spans="1:28">
@@ -2664,7 +2664,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>7005727</v>
+        <v>7005737</v>
       </c>
       <c r="C24" t="s">
         <v>27</v>
@@ -2673,10 +2673,10 @@
         <v>45140.52083333334</v>
       </c>
       <c r="E24" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="F24" t="s">
-        <v>40</v>
+        <v>74</v>
       </c>
       <c r="G24">
         <v>2</v>
@@ -2691,40 +2691,40 @@
         <v>1.909</v>
       </c>
       <c r="K24">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="L24">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="M24">
-        <v>1.909</v>
+        <v>1.5</v>
       </c>
       <c r="N24">
         <v>4</v>
       </c>
       <c r="O24">
-        <v>3</v>
+        <v>5.25</v>
       </c>
       <c r="P24">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="Q24">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="R24">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="S24">
         <v>2.75</v>
       </c>
       <c r="T24">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="U24">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="V24">
-        <v>0.909</v>
+        <v>0.5</v>
       </c>
       <c r="W24">
         <v>-1</v>
@@ -2733,7 +2733,7 @@
         <v>-1</v>
       </c>
       <c r="Y24">
-        <v>0.9750000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="Z24">
         <v>-1</v>
@@ -2742,7 +2742,7 @@
         <v>-1</v>
       </c>
       <c r="AB24">
-        <v>0.875</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="25" spans="1:28">
@@ -2750,7 +2750,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>7005844</v>
+        <v>7005723</v>
       </c>
       <c r="C25" t="s">
         <v>27</v>
@@ -2762,64 +2762,64 @@
         <v>50</v>
       </c>
       <c r="F25" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="G25">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I25" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="J25">
-        <v>6</v>
+        <v>1.909</v>
       </c>
       <c r="K25">
-        <v>4.5</v>
+        <v>3.75</v>
       </c>
       <c r="L25">
-        <v>1.4</v>
+        <v>3.1</v>
       </c>
       <c r="M25">
-        <v>6</v>
+        <v>1.909</v>
       </c>
       <c r="N25">
-        <v>4.5</v>
+        <v>3.75</v>
       </c>
       <c r="O25">
-        <v>1.4</v>
+        <v>3.1</v>
       </c>
       <c r="P25">
-        <v>1.5</v>
+        <v>-0.5</v>
       </c>
       <c r="Q25">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="R25">
+        <v>1.825</v>
+      </c>
+      <c r="S25">
+        <v>2.75</v>
+      </c>
+      <c r="T25">
+        <v>1.875</v>
+      </c>
+      <c r="U25">
         <v>1.925</v>
       </c>
-      <c r="S25">
-        <v>3.25</v>
-      </c>
-      <c r="T25">
-        <v>1.85</v>
-      </c>
-      <c r="U25">
-        <v>1.95</v>
-      </c>
       <c r="V25">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="W25">
         <v>-1</v>
       </c>
       <c r="X25">
-        <v>0.3999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Y25">
-        <v>0.7749999999999999</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="Z25">
         <v>-1</v>
@@ -2828,7 +2828,7 @@
         <v>-1</v>
       </c>
       <c r="AB25">
-        <v>0.95</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="26" spans="1:28">
@@ -2836,7 +2836,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>7005761</v>
+        <v>7005844</v>
       </c>
       <c r="C26" t="s">
         <v>27</v>
@@ -2848,46 +2848,46 @@
         <v>51</v>
       </c>
       <c r="F26" t="s">
-        <v>87</v>
+        <v>38</v>
       </c>
       <c r="G26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H26">
         <v>1</v>
       </c>
       <c r="I26" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="J26">
-        <v>2.25</v>
+        <v>6</v>
       </c>
       <c r="K26">
-        <v>3.75</v>
+        <v>4.5</v>
       </c>
       <c r="L26">
-        <v>2.5</v>
+        <v>1.4</v>
       </c>
       <c r="M26">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="N26">
-        <v>3.75</v>
+        <v>4.5</v>
       </c>
       <c r="O26">
-        <v>2.9</v>
+        <v>1.4</v>
       </c>
       <c r="P26">
-        <v>-0.25</v>
+        <v>1.5</v>
       </c>
       <c r="Q26">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="R26">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="S26">
-        <v>2.5</v>
+        <v>3.25</v>
       </c>
       <c r="T26">
         <v>1.85</v>
@@ -2899,16 +2899,16 @@
         <v>-1</v>
       </c>
       <c r="W26">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="X26">
-        <v>-1</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="Y26">
-        <v>-0.5</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="Z26">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA26">
         <v>-1</v>
@@ -2922,7 +2922,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>7005760</v>
+        <v>7005762</v>
       </c>
       <c r="C27" t="s">
         <v>27</v>
@@ -2934,73 +2934,73 @@
         <v>52</v>
       </c>
       <c r="F27" t="s">
-        <v>64</v>
+        <v>28</v>
       </c>
       <c r="G27">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H27">
+        <v>0</v>
+      </c>
+      <c r="I27" t="s">
+        <v>99</v>
+      </c>
+      <c r="J27">
+        <v>2.25</v>
+      </c>
+      <c r="K27">
         <v>4</v>
       </c>
-      <c r="I27" t="s">
-        <v>98</v>
-      </c>
-      <c r="J27">
-        <v>2.5</v>
-      </c>
-      <c r="K27">
-        <v>3.75</v>
-      </c>
       <c r="L27">
+        <v>2.4</v>
+      </c>
+      <c r="M27">
         <v>2.25</v>
-      </c>
-      <c r="M27">
-        <v>3.5</v>
       </c>
       <c r="N27">
         <v>4</v>
       </c>
       <c r="O27">
-        <v>1.727</v>
+        <v>2.45</v>
       </c>
       <c r="P27">
-        <v>0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="Q27">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="R27">
-        <v>1.975</v>
+        <v>1.75</v>
       </c>
       <c r="S27">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="T27">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="U27">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="V27">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="W27">
         <v>-1</v>
       </c>
       <c r="X27">
-        <v>0.7270000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Y27">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="Z27">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA27">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AB27">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:28">
@@ -3008,7 +3008,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>7005745</v>
+        <v>7005760</v>
       </c>
       <c r="C28" t="s">
         <v>27</v>
@@ -3020,73 +3020,73 @@
         <v>53</v>
       </c>
       <c r="F28" t="s">
-        <v>88</v>
+        <v>65</v>
       </c>
       <c r="G28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H28">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I28" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="J28">
-        <v>2.7</v>
+        <v>2.5</v>
       </c>
       <c r="K28">
         <v>3.75</v>
       </c>
       <c r="L28">
-        <v>2.1</v>
+        <v>2.25</v>
       </c>
       <c r="M28">
-        <v>2.7</v>
+        <v>3.5</v>
       </c>
       <c r="N28">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="O28">
-        <v>2.1</v>
+        <v>1.727</v>
       </c>
       <c r="P28">
-        <v>0.25</v>
+        <v>0.75</v>
       </c>
       <c r="Q28">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="R28">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="S28">
         <v>3</v>
       </c>
       <c r="T28">
-        <v>1.825</v>
+        <v>1.75</v>
       </c>
       <c r="U28">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="V28">
         <v>-1</v>
       </c>
       <c r="W28">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="X28">
-        <v>-1</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="Y28">
-        <v>0.4375</v>
+        <v>-1</v>
       </c>
       <c r="Z28">
-        <v>-0.5</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA28">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AB28">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="29" spans="1:28">
@@ -3094,7 +3094,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>7005723</v>
+        <v>7005761</v>
       </c>
       <c r="C29" t="s">
         <v>27</v>
@@ -3106,73 +3106,73 @@
         <v>54</v>
       </c>
       <c r="F29" t="s">
-        <v>42</v>
+        <v>88</v>
       </c>
       <c r="G29">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I29" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="J29">
-        <v>1.909</v>
+        <v>2.25</v>
       </c>
       <c r="K29">
         <v>3.75</v>
       </c>
       <c r="L29">
-        <v>3.1</v>
+        <v>2.5</v>
       </c>
       <c r="M29">
-        <v>1.909</v>
+        <v>2</v>
       </c>
       <c r="N29">
         <v>3.75</v>
       </c>
       <c r="O29">
-        <v>3.1</v>
+        <v>2.9</v>
       </c>
       <c r="P29">
+        <v>-0.25</v>
+      </c>
+      <c r="Q29">
+        <v>1.8</v>
+      </c>
+      <c r="R29">
+        <v>2</v>
+      </c>
+      <c r="S29">
+        <v>2.5</v>
+      </c>
+      <c r="T29">
+        <v>1.85</v>
+      </c>
+      <c r="U29">
+        <v>1.95</v>
+      </c>
+      <c r="V29">
+        <v>-1</v>
+      </c>
+      <c r="W29">
+        <v>2.75</v>
+      </c>
+      <c r="X29">
+        <v>-1</v>
+      </c>
+      <c r="Y29">
         <v>-0.5</v>
       </c>
-      <c r="Q29">
-        <v>1.975</v>
-      </c>
-      <c r="R29">
-        <v>1.825</v>
-      </c>
-      <c r="S29">
-        <v>2.75</v>
-      </c>
-      <c r="T29">
-        <v>1.875</v>
-      </c>
-      <c r="U29">
-        <v>1.925</v>
-      </c>
-      <c r="V29">
-        <v>0.909</v>
-      </c>
-      <c r="W29">
-        <v>-1</v>
-      </c>
-      <c r="X29">
-        <v>-1</v>
-      </c>
-      <c r="Y29">
-        <v>0.9750000000000001</v>
-      </c>
       <c r="Z29">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="AA29">
         <v>-1</v>
       </c>
       <c r="AB29">
-        <v>0.925</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="30" spans="1:28">
@@ -3450,7 +3450,7 @@
         <v>31</v>
       </c>
       <c r="F33" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="G33">
         <v>2</v>
@@ -3880,7 +3880,7 @@
         <v>58</v>
       </c>
       <c r="F38" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G38">
         <v>3</v>
@@ -4040,7 +4040,7 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>7059445</v>
+        <v>7055635</v>
       </c>
       <c r="C40" t="s">
         <v>27</v>
@@ -4049,40 +4049,40 @@
         <v>45151.52083333334</v>
       </c>
       <c r="E40" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F40" t="s">
-        <v>74</v>
+        <v>47</v>
       </c>
       <c r="G40">
         <v>2</v>
       </c>
       <c r="H40">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I40" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="J40">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="K40">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="L40">
+        <v>5.5</v>
+      </c>
+      <c r="M40">
+        <v>1.333</v>
+      </c>
+      <c r="N40">
         <v>5</v>
-      </c>
-      <c r="M40">
-        <v>1.363</v>
-      </c>
-      <c r="N40">
-        <v>4.333</v>
       </c>
       <c r="O40">
         <v>6.5</v>
       </c>
       <c r="P40">
-        <v>-1.25</v>
+        <v>-1.5</v>
       </c>
       <c r="Q40">
         <v>1.825</v>
@@ -4091,34 +4091,34 @@
         <v>1.975</v>
       </c>
       <c r="S40">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="T40">
         <v>1.925</v>
       </c>
       <c r="U40">
-        <v>1.875</v>
+        <v>1.775</v>
       </c>
       <c r="V40">
-        <v>0.363</v>
+        <v>-1</v>
       </c>
       <c r="W40">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="X40">
         <v>-1</v>
       </c>
       <c r="Y40">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="Z40">
-        <v>0.4875</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA40">
-        <v>0</v>
+        <v>0.925</v>
       </c>
       <c r="AB40">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="41" spans="1:28">
@@ -4126,7 +4126,7 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>7055635</v>
+        <v>7055634</v>
       </c>
       <c r="C41" t="s">
         <v>27</v>
@@ -4135,73 +4135,73 @@
         <v>45151.52083333334</v>
       </c>
       <c r="E41" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="F41" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="G41">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H41">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I41" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="J41">
-        <v>1.4</v>
+        <v>3.75</v>
       </c>
       <c r="K41">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="L41">
-        <v>5.5</v>
+        <v>1.666</v>
       </c>
       <c r="M41">
-        <v>1.333</v>
+        <v>3.75</v>
       </c>
       <c r="N41">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="O41">
-        <v>6.5</v>
+        <v>1.666</v>
       </c>
       <c r="P41">
-        <v>-1.5</v>
+        <v>0.75</v>
       </c>
       <c r="Q41">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="R41">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="S41">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="T41">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="U41">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="V41">
         <v>-1</v>
       </c>
       <c r="W41">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="X41">
-        <v>-1</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="Y41">
         <v>-1</v>
       </c>
       <c r="Z41">
-        <v>0.9750000000000001</v>
+        <v>0.875</v>
       </c>
       <c r="AA41">
-        <v>0.925</v>
+        <v>0.8</v>
       </c>
       <c r="AB41">
         <v>-1</v>
@@ -4298,7 +4298,7 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>7055634</v>
+        <v>7055636</v>
       </c>
       <c r="C43" t="s">
         <v>27</v>
@@ -4307,46 +4307,46 @@
         <v>45151.52083333334</v>
       </c>
       <c r="E43" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="F43" t="s">
-        <v>48</v>
+        <v>80</v>
       </c>
       <c r="G43">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H43">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I43" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="J43">
-        <v>3.75</v>
+        <v>1.444</v>
       </c>
       <c r="K43">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="L43">
-        <v>1.666</v>
+        <v>5</v>
       </c>
       <c r="M43">
-        <v>3.75</v>
+        <v>1.363</v>
       </c>
       <c r="N43">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="O43">
-        <v>1.666</v>
+        <v>6.5</v>
       </c>
       <c r="P43">
-        <v>0.75</v>
+        <v>-1.5</v>
       </c>
       <c r="Q43">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="R43">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="S43">
         <v>3</v>
@@ -4358,19 +4358,19 @@
         <v>2</v>
       </c>
       <c r="V43">
-        <v>-1</v>
+        <v>0.363</v>
       </c>
       <c r="W43">
         <v>-1</v>
       </c>
       <c r="X43">
-        <v>0.6659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Y43">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="Z43">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA43">
         <v>0.8</v>
@@ -4384,7 +4384,7 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>7055636</v>
+        <v>7059445</v>
       </c>
       <c r="C44" t="s">
         <v>27</v>
@@ -4393,13 +4393,13 @@
         <v>45151.52083333334</v>
       </c>
       <c r="E44" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="F44" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="G44">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H44">
         <v>1</v>
@@ -4408,10 +4408,10 @@
         <v>99</v>
       </c>
       <c r="J44">
-        <v>1.444</v>
+        <v>1.5</v>
       </c>
       <c r="K44">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="L44">
         <v>5</v>
@@ -4420,28 +4420,28 @@
         <v>1.363</v>
       </c>
       <c r="N44">
-        <v>4.5</v>
+        <v>4.333</v>
       </c>
       <c r="O44">
         <v>6.5</v>
       </c>
       <c r="P44">
-        <v>-1.5</v>
+        <v>-1.25</v>
       </c>
       <c r="Q44">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="R44">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="S44">
         <v>3</v>
       </c>
       <c r="T44">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="U44">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="V44">
         <v>0.363</v>
@@ -4453,16 +4453,16 @@
         <v>-1</v>
       </c>
       <c r="Y44">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
       <c r="Z44">
-        <v>-1</v>
+        <v>0.4875</v>
       </c>
       <c r="AA44">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="AB44">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:28">
@@ -4482,7 +4482,7 @@
         <v>60</v>
       </c>
       <c r="F45" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G45">
         <v>1</v>
@@ -4654,7 +4654,7 @@
         <v>42</v>
       </c>
       <c r="F47" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="G47">
         <v>1</v>
@@ -4900,7 +4900,7 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>7084571</v>
+        <v>7084667</v>
       </c>
       <c r="C50" t="s">
         <v>27</v>
@@ -4909,76 +4909,76 @@
         <v>45157.25</v>
       </c>
       <c r="E50" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="F50" t="s">
-        <v>90</v>
+        <v>37</v>
       </c>
       <c r="G50">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H50">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I50" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="J50">
-        <v>1.666</v>
+        <v>4.2</v>
       </c>
       <c r="K50">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="L50">
-        <v>3.8</v>
+        <v>1.571</v>
       </c>
       <c r="M50">
-        <v>1.666</v>
+        <v>4.2</v>
       </c>
       <c r="N50">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="O50">
-        <v>3.8</v>
+        <v>1.571</v>
       </c>
       <c r="P50">
-        <v>-0.75</v>
+        <v>1</v>
       </c>
       <c r="Q50">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="R50">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="S50">
         <v>3</v>
       </c>
       <c r="T50">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="U50">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V50">
         <v>-1</v>
       </c>
       <c r="W50">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="X50">
-        <v>-1</v>
+        <v>0.571</v>
       </c>
       <c r="Y50">
         <v>-1</v>
       </c>
       <c r="Z50">
-        <v>0.925</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA50">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB50">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="51" spans="1:28">
@@ -4986,7 +4986,7 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>7084667</v>
+        <v>7084571</v>
       </c>
       <c r="C51" t="s">
         <v>27</v>
@@ -4995,76 +4995,76 @@
         <v>45157.25</v>
       </c>
       <c r="E51" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="F51" t="s">
-        <v>37</v>
+        <v>90</v>
       </c>
       <c r="G51">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H51">
+        <v>1</v>
+      </c>
+      <c r="I51" t="s">
+        <v>100</v>
+      </c>
+      <c r="J51">
+        <v>1.666</v>
+      </c>
+      <c r="K51">
         <v>4</v>
       </c>
-      <c r="I51" t="s">
-        <v>98</v>
-      </c>
-      <c r="J51">
-        <v>4.2</v>
-      </c>
-      <c r="K51">
-        <v>4.2</v>
-      </c>
       <c r="L51">
-        <v>1.571</v>
+        <v>3.8</v>
       </c>
       <c r="M51">
-        <v>4.2</v>
+        <v>1.666</v>
       </c>
       <c r="N51">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="O51">
-        <v>1.571</v>
+        <v>3.8</v>
       </c>
       <c r="P51">
-        <v>1</v>
+        <v>-0.75</v>
       </c>
       <c r="Q51">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="R51">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="S51">
         <v>3</v>
       </c>
       <c r="T51">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="U51">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="V51">
         <v>-1</v>
       </c>
       <c r="W51">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="X51">
-        <v>0.571</v>
+        <v>-1</v>
       </c>
       <c r="Y51">
         <v>-1</v>
       </c>
       <c r="Z51">
-        <v>0.9750000000000001</v>
+        <v>0.925</v>
       </c>
       <c r="AA51">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB51">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="52" spans="1:28">
@@ -5167,7 +5167,7 @@
         <v>45157.52083333334</v>
       </c>
       <c r="E53" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="F53" t="s">
         <v>42</v>
@@ -5253,7 +5253,7 @@
         <v>45157.52083333334</v>
       </c>
       <c r="E54" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="F54" t="s">
         <v>60</v>
@@ -5425,7 +5425,7 @@
         <v>45157.52083333334</v>
       </c>
       <c r="E56" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F56" t="s">
         <v>29</v>
@@ -5511,10 +5511,10 @@
         <v>45157.52083333334</v>
       </c>
       <c r="E57" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F57" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G57">
         <v>2</v>
@@ -5597,7 +5597,7 @@
         <v>45157.52083333334</v>
       </c>
       <c r="E58" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="F58" t="s">
         <v>63</v>
@@ -5683,10 +5683,10 @@
         <v>45157.52083333334</v>
       </c>
       <c r="E59" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="F59" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="G59">
         <v>2</v>
@@ -5941,10 +5941,10 @@
         <v>45168.5</v>
       </c>
       <c r="E62" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="F62" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G62">
         <v>2</v>
@@ -6018,7 +6018,7 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>7142173</v>
+        <v>7142196</v>
       </c>
       <c r="C63" t="s">
         <v>27</v>
@@ -6027,40 +6027,40 @@
         <v>45168.52083333334</v>
       </c>
       <c r="E63" t="s">
-        <v>33</v>
+        <v>62</v>
       </c>
       <c r="F63" t="s">
-        <v>30</v>
+        <v>86</v>
       </c>
       <c r="G63">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H63">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I63" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="J63">
-        <v>1.615</v>
+        <v>2.25</v>
       </c>
       <c r="K63">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="L63">
-        <v>4</v>
+        <v>2.5</v>
       </c>
       <c r="M63">
-        <v>1.615</v>
+        <v>2.25</v>
       </c>
       <c r="N63">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="O63">
-        <v>4</v>
+        <v>2.5</v>
       </c>
       <c r="P63">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="Q63">
         <v>1.8</v>
@@ -6081,10 +6081,10 @@
         <v>-1</v>
       </c>
       <c r="W63">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="X63">
-        <v>-1</v>
+        <v>1.5</v>
       </c>
       <c r="Y63">
         <v>-1</v>
@@ -6104,7 +6104,7 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>7140308</v>
+        <v>7142173</v>
       </c>
       <c r="C64" t="s">
         <v>27</v>
@@ -6113,76 +6113,76 @@
         <v>45168.52083333334</v>
       </c>
       <c r="E64" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="F64" t="s">
-        <v>89</v>
+        <v>30</v>
       </c>
       <c r="G64">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H64">
         <v>2</v>
       </c>
       <c r="I64" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="J64">
-        <v>1.5</v>
+        <v>1.615</v>
       </c>
       <c r="K64">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="L64">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="M64">
-        <v>1.444</v>
+        <v>1.615</v>
       </c>
       <c r="N64">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="O64">
-        <v>4.75</v>
+        <v>4</v>
       </c>
       <c r="P64">
-        <v>-1.25</v>
+        <v>-0.75</v>
       </c>
       <c r="Q64">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="R64">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="S64">
+        <v>2.75</v>
+      </c>
+      <c r="T64">
+        <v>1.9</v>
+      </c>
+      <c r="U64">
+        <v>1.9</v>
+      </c>
+      <c r="V64">
+        <v>-1</v>
+      </c>
+      <c r="W64">
         <v>3</v>
       </c>
-      <c r="T64">
-        <v>1.825</v>
-      </c>
-      <c r="U64">
-        <v>1.975</v>
-      </c>
-      <c r="V64">
-        <v>-1</v>
-      </c>
-      <c r="W64">
-        <v>-1</v>
-      </c>
       <c r="X64">
-        <v>3.75</v>
+        <v>-1</v>
       </c>
       <c r="Y64">
         <v>-1</v>
       </c>
       <c r="Z64">
-        <v>0.875</v>
+        <v>1</v>
       </c>
       <c r="AA64">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB64">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="65" spans="1:28">
@@ -6190,7 +6190,7 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>7142437</v>
+        <v>7140308</v>
       </c>
       <c r="C65" t="s">
         <v>27</v>
@@ -6199,76 +6199,76 @@
         <v>45168.52083333334</v>
       </c>
       <c r="E65" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F65" t="s">
-        <v>71</v>
+        <v>89</v>
       </c>
       <c r="G65">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H65">
         <v>2</v>
       </c>
       <c r="I65" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="J65">
-        <v>1.571</v>
+        <v>1.5</v>
       </c>
       <c r="K65">
-        <v>3.75</v>
+        <v>4.5</v>
       </c>
       <c r="L65">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="M65">
-        <v>1.571</v>
+        <v>1.444</v>
       </c>
       <c r="N65">
-        <v>3.75</v>
+        <v>5</v>
       </c>
       <c r="O65">
         <v>4.75</v>
       </c>
       <c r="P65">
-        <v>-1</v>
+        <v>-1.25</v>
       </c>
       <c r="Q65">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="R65">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="S65">
         <v>3</v>
       </c>
       <c r="T65">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="U65">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="V65">
-        <v>0.571</v>
+        <v>-1</v>
       </c>
       <c r="W65">
         <v>-1</v>
       </c>
       <c r="X65">
-        <v>-1</v>
+        <v>3.75</v>
       </c>
       <c r="Y65">
+        <v>-1</v>
+      </c>
+      <c r="Z65">
+        <v>0.875</v>
+      </c>
+      <c r="AA65">
+        <v>-1</v>
+      </c>
+      <c r="AB65">
         <v>0.9750000000000001</v>
-      </c>
-      <c r="Z65">
-        <v>-1</v>
-      </c>
-      <c r="AA65">
-        <v>0.8999999999999999</v>
-      </c>
-      <c r="AB65">
-        <v>-1</v>
       </c>
     </row>
     <row r="66" spans="1:28">
@@ -6276,7 +6276,7 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>7141754</v>
+        <v>7142437</v>
       </c>
       <c r="C66" t="s">
         <v>27</v>
@@ -6285,73 +6285,73 @@
         <v>45168.52083333334</v>
       </c>
       <c r="E66" t="s">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="F66" t="s">
-        <v>52</v>
+        <v>71</v>
       </c>
       <c r="G66">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H66">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I66" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="J66">
-        <v>3.4</v>
+        <v>1.571</v>
       </c>
       <c r="K66">
         <v>3.75</v>
       </c>
       <c r="L66">
-        <v>1.8</v>
+        <v>4.75</v>
       </c>
       <c r="M66">
-        <v>3.4</v>
+        <v>1.571</v>
       </c>
       <c r="N66">
         <v>3.75</v>
       </c>
       <c r="O66">
-        <v>1.8</v>
+        <v>4.75</v>
       </c>
       <c r="P66">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="Q66">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="R66">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="S66">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="T66">
-        <v>1.75</v>
+        <v>1.9</v>
       </c>
       <c r="U66">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="V66">
-        <v>-1</v>
+        <v>0.571</v>
       </c>
       <c r="W66">
         <v>-1</v>
       </c>
       <c r="X66">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="Y66">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="Z66">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA66">
-        <v>0.75</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB66">
         <v>-1</v>
@@ -6362,7 +6362,7 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>7140300</v>
+        <v>7141754</v>
       </c>
       <c r="C67" t="s">
         <v>27</v>
@@ -6371,10 +6371,10 @@
         <v>45168.52083333334</v>
       </c>
       <c r="E67" t="s">
-        <v>40</v>
+        <v>59</v>
       </c>
       <c r="F67" t="s">
-        <v>69</v>
+        <v>53</v>
       </c>
       <c r="G67">
         <v>1</v>
@@ -6386,34 +6386,34 @@
         <v>98</v>
       </c>
       <c r="J67">
-        <v>4.5</v>
+        <v>3.4</v>
       </c>
       <c r="K67">
-        <v>4.5</v>
+        <v>3.75</v>
       </c>
       <c r="L67">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="M67">
-        <v>4.5</v>
+        <v>3.4</v>
       </c>
       <c r="N67">
-        <v>4.5</v>
+        <v>3.75</v>
       </c>
       <c r="O67">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="P67">
-        <v>1.25</v>
+        <v>0.5</v>
       </c>
       <c r="Q67">
-        <v>1.75</v>
+        <v>1.95</v>
       </c>
       <c r="R67">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="S67">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="T67">
         <v>1.75</v>
@@ -6428,13 +6428,13 @@
         <v>-1</v>
       </c>
       <c r="X67">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="Y67">
         <v>-1</v>
       </c>
       <c r="Z67">
-        <v>0.95</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA67">
         <v>0.75</v>
@@ -6448,7 +6448,7 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>7142196</v>
+        <v>7141753</v>
       </c>
       <c r="C68" t="s">
         <v>27</v>
@@ -6457,76 +6457,76 @@
         <v>45168.52083333334</v>
       </c>
       <c r="E68" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F68" t="s">
-        <v>86</v>
+        <v>45</v>
       </c>
       <c r="G68">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H68">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I68" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="J68">
-        <v>2.25</v>
+        <v>3.1</v>
       </c>
       <c r="K68">
         <v>3.75</v>
       </c>
       <c r="L68">
-        <v>2.5</v>
+        <v>1.909</v>
       </c>
       <c r="M68">
-        <v>2.25</v>
+        <v>3.1</v>
       </c>
       <c r="N68">
         <v>3.75</v>
       </c>
       <c r="O68">
-        <v>2.5</v>
+        <v>1.909</v>
       </c>
       <c r="P68">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="Q68">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="R68">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="S68">
         <v>2.75</v>
       </c>
       <c r="T68">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="U68">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="V68">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="W68">
         <v>-1</v>
       </c>
       <c r="X68">
-        <v>1.5</v>
+        <v>-1</v>
       </c>
       <c r="Y68">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="Z68">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA68">
-        <v>0.8999999999999999</v>
+        <v>0.4125</v>
       </c>
       <c r="AB68">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="69" spans="1:28">
@@ -6534,7 +6534,7 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>7141753</v>
+        <v>7140300</v>
       </c>
       <c r="C69" t="s">
         <v>27</v>
@@ -6543,76 +6543,76 @@
         <v>45168.52083333334</v>
       </c>
       <c r="E69" t="s">
-        <v>63</v>
+        <v>40</v>
       </c>
       <c r="F69" t="s">
-        <v>49</v>
+        <v>69</v>
       </c>
       <c r="G69">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H69">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I69" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="J69">
-        <v>3.1</v>
+        <v>4.5</v>
       </c>
       <c r="K69">
-        <v>3.75</v>
+        <v>4.5</v>
       </c>
       <c r="L69">
-        <v>1.909</v>
+        <v>1.5</v>
       </c>
       <c r="M69">
-        <v>3.1</v>
+        <v>4.5</v>
       </c>
       <c r="N69">
-        <v>3.75</v>
+        <v>4.5</v>
       </c>
       <c r="O69">
-        <v>1.909</v>
+        <v>1.5</v>
       </c>
       <c r="P69">
+        <v>1.25</v>
+      </c>
+      <c r="Q69">
+        <v>1.75</v>
+      </c>
+      <c r="R69">
+        <v>1.95</v>
+      </c>
+      <c r="S69">
+        <v>3</v>
+      </c>
+      <c r="T69">
+        <v>1.75</v>
+      </c>
+      <c r="U69">
+        <v>1.95</v>
+      </c>
+      <c r="V69">
+        <v>-1</v>
+      </c>
+      <c r="W69">
+        <v>-1</v>
+      </c>
+      <c r="X69">
         <v>0.5</v>
       </c>
-      <c r="Q69">
-        <v>1.825</v>
-      </c>
-      <c r="R69">
-        <v>1.975</v>
-      </c>
-      <c r="S69">
-        <v>2.75</v>
-      </c>
-      <c r="T69">
-        <v>1.825</v>
-      </c>
-      <c r="U69">
-        <v>1.975</v>
-      </c>
-      <c r="V69">
-        <v>2.1</v>
-      </c>
-      <c r="W69">
-        <v>-1</v>
-      </c>
-      <c r="X69">
-        <v>-1</v>
-      </c>
       <c r="Y69">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="Z69">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA69">
-        <v>0.4125</v>
+        <v>0.75</v>
       </c>
       <c r="AB69">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="70" spans="1:28">
@@ -6620,7 +6620,7 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>7140311</v>
+        <v>7140312</v>
       </c>
       <c r="C70" t="s">
         <v>27</v>
@@ -6629,76 +6629,76 @@
         <v>45168.52083333334</v>
       </c>
       <c r="E70" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="F70" t="s">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="G70">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H70">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I70" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="J70">
-        <v>1.727</v>
+        <v>2.4</v>
       </c>
       <c r="K70">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="L70">
-        <v>4</v>
+        <v>2.4</v>
       </c>
       <c r="M70">
-        <v>1.727</v>
+        <v>2.4</v>
       </c>
       <c r="N70">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="O70">
-        <v>4</v>
+        <v>2.4</v>
       </c>
       <c r="P70">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="Q70">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="R70">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="S70">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="T70">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="U70">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V70">
         <v>-1</v>
       </c>
       <c r="W70">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="X70">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y70">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="Z70">
-        <v>0.825</v>
+        <v>0</v>
       </c>
       <c r="AA70">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB70">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="71" spans="1:28">
@@ -6878,7 +6878,7 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>7140302</v>
+        <v>7140303</v>
       </c>
       <c r="C73" t="s">
         <v>27</v>
@@ -6887,46 +6887,46 @@
         <v>45168.52083333334</v>
       </c>
       <c r="E73" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="F73" t="s">
-        <v>92</v>
+        <v>44</v>
       </c>
       <c r="G73">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H73">
         <v>1</v>
       </c>
       <c r="I73" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="J73">
-        <v>1.615</v>
+        <v>4</v>
       </c>
       <c r="K73">
         <v>4</v>
       </c>
       <c r="L73">
+        <v>1.615</v>
+      </c>
+      <c r="M73">
         <v>4</v>
       </c>
-      <c r="M73">
-        <v>1.533</v>
-      </c>
       <c r="N73">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="O73">
-        <v>4.5</v>
+        <v>1.615</v>
       </c>
       <c r="P73">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Q73">
-        <v>1.9</v>
+        <v>1.75</v>
       </c>
       <c r="R73">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="S73">
         <v>3</v>
@@ -6938,25 +6938,25 @@
         <v>1.95</v>
       </c>
       <c r="V73">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="W73">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="X73">
         <v>-1</v>
       </c>
       <c r="Y73">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="Z73">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA73">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AB73">
-        <v>0.95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:28">
@@ -6973,7 +6973,7 @@
         <v>45168.52083333334</v>
       </c>
       <c r="E74" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F74" t="s">
         <v>76</v>
@@ -7136,7 +7136,7 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>7140306</v>
+        <v>7140302</v>
       </c>
       <c r="C76" t="s">
         <v>27</v>
@@ -7145,76 +7145,76 @@
         <v>45168.52083333334</v>
       </c>
       <c r="E76" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="F76" t="s">
-        <v>54</v>
+        <v>92</v>
       </c>
       <c r="G76">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H76">
         <v>1</v>
       </c>
       <c r="I76" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="J76">
-        <v>2.25</v>
+        <v>1.615</v>
       </c>
       <c r="K76">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="L76">
-        <v>2.5</v>
+        <v>4</v>
       </c>
       <c r="M76">
-        <v>2.3</v>
+        <v>1.533</v>
       </c>
       <c r="N76">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="O76">
-        <v>2.5</v>
+        <v>4.5</v>
       </c>
       <c r="P76">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Q76">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="R76">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="S76">
         <v>3</v>
       </c>
       <c r="T76">
-        <v>2.1</v>
+        <v>1.75</v>
       </c>
       <c r="U76">
-        <v>1.7</v>
+        <v>1.95</v>
       </c>
       <c r="V76">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="W76">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="X76">
         <v>-1</v>
       </c>
       <c r="Y76">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="Z76">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA76">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="AB76">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="77" spans="1:28">
@@ -7222,7 +7222,7 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>7140303</v>
+        <v>7140309</v>
       </c>
       <c r="C77" t="s">
         <v>27</v>
@@ -7231,76 +7231,76 @@
         <v>45168.52083333334</v>
       </c>
       <c r="E77" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="F77" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="G77">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H77">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I77" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="J77">
-        <v>4</v>
+        <v>1.8</v>
       </c>
       <c r="K77">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="L77">
-        <v>1.615</v>
+        <v>3.6</v>
       </c>
       <c r="M77">
-        <v>4</v>
+        <v>1.909</v>
       </c>
       <c r="N77">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="O77">
-        <v>1.615</v>
+        <v>3.3</v>
       </c>
       <c r="P77">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
       <c r="Q77">
-        <v>1.75</v>
+        <v>1.95</v>
       </c>
       <c r="R77">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="S77">
         <v>3</v>
       </c>
       <c r="T77">
-        <v>1.75</v>
+        <v>1.825</v>
       </c>
       <c r="U77">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="V77">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="W77">
         <v>-1</v>
       </c>
       <c r="X77">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y77">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="Z77">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA77">
-        <v>0</v>
+        <v>0.825</v>
       </c>
       <c r="AB77">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="78" spans="1:28">
@@ -7317,7 +7317,7 @@
         <v>45168.52083333334</v>
       </c>
       <c r="E78" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F78" t="s">
         <v>83</v>
@@ -7394,7 +7394,7 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>7140312</v>
+        <v>7140311</v>
       </c>
       <c r="C79" t="s">
         <v>27</v>
@@ -7403,76 +7403,76 @@
         <v>45168.52083333334</v>
       </c>
       <c r="E79" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="F79" t="s">
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="G79">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H79">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I79" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="J79">
-        <v>2.4</v>
+        <v>1.727</v>
       </c>
       <c r="K79">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="L79">
-        <v>2.4</v>
+        <v>4</v>
       </c>
       <c r="M79">
-        <v>2.4</v>
+        <v>1.727</v>
       </c>
       <c r="N79">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="O79">
-        <v>2.4</v>
+        <v>4</v>
       </c>
       <c r="P79">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="Q79">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="R79">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="S79">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="T79">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="U79">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="V79">
         <v>-1</v>
       </c>
       <c r="W79">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="X79">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Y79">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z79">
-        <v>0</v>
+        <v>0.825</v>
       </c>
       <c r="AA79">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB79">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="80" spans="1:28">
@@ -7480,7 +7480,7 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>7140309</v>
+        <v>7140306</v>
       </c>
       <c r="C80" t="s">
         <v>27</v>
@@ -7489,73 +7489,73 @@
         <v>45168.52083333334</v>
       </c>
       <c r="E80" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="F80" t="s">
-        <v>32</v>
+        <v>50</v>
       </c>
       <c r="G80">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H80">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I80" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="J80">
-        <v>1.8</v>
+        <v>2.25</v>
       </c>
       <c r="K80">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="L80">
-        <v>3.6</v>
+        <v>2.5</v>
       </c>
       <c r="M80">
-        <v>1.909</v>
+        <v>2.3</v>
       </c>
       <c r="N80">
         <v>3.6</v>
       </c>
       <c r="O80">
-        <v>3.3</v>
+        <v>2.5</v>
       </c>
       <c r="P80">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="Q80">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="R80">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="S80">
         <v>3</v>
       </c>
       <c r="T80">
-        <v>1.825</v>
+        <v>2.1</v>
       </c>
       <c r="U80">
-        <v>1.975</v>
+        <v>1.7</v>
       </c>
       <c r="V80">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="W80">
         <v>-1</v>
       </c>
       <c r="X80">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y80">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="Z80">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA80">
-        <v>0.825</v>
+        <v>1.1</v>
       </c>
       <c r="AB80">
         <v>-1</v>
@@ -7578,7 +7578,7 @@
         <v>67</v>
       </c>
       <c r="F81" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="G81">
         <v>1</v>
@@ -7922,7 +7922,7 @@
         <v>46</v>
       </c>
       <c r="F85" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="G85">
         <v>0</v>
@@ -8008,7 +8008,7 @@
         <v>47</v>
       </c>
       <c r="F86" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G86">
         <v>2</v>
@@ -8349,7 +8349,7 @@
         <v>45172.45833333334</v>
       </c>
       <c r="E90" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F90" t="s">
         <v>40</v>
@@ -8521,7 +8521,7 @@
         <v>45172.45833333334</v>
       </c>
       <c r="E92" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F92" t="s">
         <v>86</v>
@@ -8610,7 +8610,7 @@
         <v>62</v>
       </c>
       <c r="F93" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G93">
         <v>2</v>
@@ -8856,7 +8856,7 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>7182108</v>
+        <v>7182055</v>
       </c>
       <c r="C96" t="s">
         <v>27</v>
@@ -8865,58 +8865,58 @@
         <v>45178.25</v>
       </c>
       <c r="E96" t="s">
-        <v>66</v>
+        <v>53</v>
       </c>
       <c r="F96" t="s">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="G96">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H96">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I96" t="s">
         <v>99</v>
       </c>
       <c r="J96">
-        <v>2.625</v>
+        <v>2.1</v>
       </c>
       <c r="K96">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="L96">
-        <v>2.25</v>
+        <v>2.8</v>
       </c>
       <c r="M96">
-        <v>2.625</v>
+        <v>2.1</v>
       </c>
       <c r="N96">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="O96">
-        <v>2.25</v>
+        <v>2.8</v>
       </c>
       <c r="P96">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="Q96">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="R96">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="S96">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="T96">
+        <v>1.925</v>
+      </c>
+      <c r="U96">
         <v>1.875</v>
       </c>
-      <c r="U96">
-        <v>1.925</v>
-      </c>
       <c r="V96">
-        <v>1.625</v>
+        <v>1.1</v>
       </c>
       <c r="W96">
         <v>-1</v>
@@ -8925,13 +8925,13 @@
         <v>-1</v>
       </c>
       <c r="Y96">
-        <v>0.7749999999999999</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="Z96">
         <v>-1</v>
       </c>
       <c r="AA96">
-        <v>0.875</v>
+        <v>0.925</v>
       </c>
       <c r="AB96">
         <v>-1</v>
@@ -9028,7 +9028,7 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>7182055</v>
+        <v>7182029</v>
       </c>
       <c r="C98" t="s">
         <v>27</v>
@@ -9037,73 +9037,73 @@
         <v>45178.25</v>
       </c>
       <c r="E98" t="s">
-        <v>52</v>
+        <v>71</v>
       </c>
       <c r="F98" t="s">
-        <v>78</v>
+        <v>63</v>
       </c>
       <c r="G98">
         <v>3</v>
       </c>
       <c r="H98">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I98" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="J98">
-        <v>2.1</v>
+        <v>3.2</v>
       </c>
       <c r="K98">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="L98">
-        <v>2.8</v>
+        <v>1.909</v>
       </c>
       <c r="M98">
-        <v>2.1</v>
+        <v>4.333</v>
       </c>
       <c r="N98">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="O98">
-        <v>2.8</v>
+        <v>1.571</v>
       </c>
       <c r="P98">
-        <v>-0.25</v>
+        <v>1</v>
       </c>
       <c r="Q98">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="R98">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="S98">
         <v>3.25</v>
       </c>
       <c r="T98">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="U98">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="V98">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="W98">
         <v>-1</v>
       </c>
       <c r="X98">
-        <v>-1</v>
+        <v>0.571</v>
       </c>
       <c r="Y98">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z98">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA98">
-        <v>0.925</v>
+        <v>1</v>
       </c>
       <c r="AB98">
         <v>-1</v>
@@ -9114,7 +9114,7 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>7182029</v>
+        <v>7182108</v>
       </c>
       <c r="C99" t="s">
         <v>27</v>
@@ -9123,73 +9123,73 @@
         <v>45178.25</v>
       </c>
       <c r="E99" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="F99" t="s">
-        <v>63</v>
+        <v>91</v>
       </c>
       <c r="G99">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H99">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I99" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="J99">
-        <v>3.2</v>
+        <v>2.625</v>
       </c>
       <c r="K99">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="L99">
-        <v>1.909</v>
+        <v>2.25</v>
       </c>
       <c r="M99">
-        <v>4.333</v>
+        <v>2.625</v>
       </c>
       <c r="N99">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="O99">
-        <v>1.571</v>
+        <v>2.25</v>
       </c>
       <c r="P99">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="Q99">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="R99">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="S99">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="T99">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="U99">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="V99">
-        <v>-1</v>
+        <v>1.625</v>
       </c>
       <c r="W99">
         <v>-1</v>
       </c>
       <c r="X99">
-        <v>0.571</v>
+        <v>-1</v>
       </c>
       <c r="Y99">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="Z99">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA99">
-        <v>1</v>
+        <v>0.875</v>
       </c>
       <c r="AB99">
         <v>-1</v>
@@ -9381,10 +9381,10 @@
         <v>45178.45833333334</v>
       </c>
       <c r="E102" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="F102" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="G102">
         <v>1</v>
@@ -9467,7 +9467,7 @@
         <v>45178.45833333334</v>
       </c>
       <c r="E103" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="F103" t="s">
         <v>93</v>
@@ -10069,10 +10069,10 @@
         <v>45178.45833333334</v>
       </c>
       <c r="E110" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="F110" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="G110">
         <v>1</v>
@@ -10158,7 +10158,7 @@
         <v>42</v>
       </c>
       <c r="F111" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G111">
         <v>1</v>
@@ -10330,7 +10330,7 @@
         <v>29</v>
       </c>
       <c r="F113" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="G113">
         <v>1</v>
@@ -10416,7 +10416,7 @@
         <v>73</v>
       </c>
       <c r="F114" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="G114">
         <v>1</v>
@@ -10502,7 +10502,7 @@
         <v>46</v>
       </c>
       <c r="F115" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="G115">
         <v>0</v>
@@ -10674,7 +10674,7 @@
         <v>67</v>
       </c>
       <c r="F117" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="G117">
         <v>1</v>
@@ -10929,10 +10929,10 @@
         <v>45193.45833333334</v>
       </c>
       <c r="E120" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="F120" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="G120">
         <v>3</v>
@@ -11190,7 +11190,7 @@
         <v>74</v>
       </c>
       <c r="F123" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G123">
         <v>4</v>
@@ -11362,7 +11362,7 @@
         <v>34</v>
       </c>
       <c r="F125" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="G125">
         <v>0</v>
@@ -11875,7 +11875,7 @@
         <v>45193.45833333334</v>
       </c>
       <c r="E131" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F131" t="s">
         <v>31</v>
@@ -11961,7 +11961,7 @@
         <v>45198.45833333334</v>
       </c>
       <c r="E132" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="F132" t="s">
         <v>67</v>
@@ -12047,7 +12047,7 @@
         <v>45199.25</v>
       </c>
       <c r="E133" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F133" t="s">
         <v>32</v>
@@ -12305,7 +12305,7 @@
         <v>45200.375</v>
       </c>
       <c r="E136" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F136" t="s">
         <v>84</v>
@@ -12382,7 +12382,7 @@
         <v>135</v>
       </c>
       <c r="B137">
-        <v>7278205</v>
+        <v>7278134</v>
       </c>
       <c r="C137" t="s">
         <v>27</v>
@@ -12391,46 +12391,46 @@
         <v>45200.41666666666</v>
       </c>
       <c r="E137" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="F137" t="s">
-        <v>79</v>
+        <v>47</v>
       </c>
       <c r="G137">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H137">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I137" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="J137">
-        <v>2.25</v>
+        <v>3.4</v>
       </c>
       <c r="K137">
+        <v>3.8</v>
+      </c>
+      <c r="L137">
+        <v>1.8</v>
+      </c>
+      <c r="M137">
         <v>3.4</v>
       </c>
-      <c r="L137">
-        <v>2.625</v>
-      </c>
-      <c r="M137">
-        <v>2.25</v>
-      </c>
       <c r="N137">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="O137">
-        <v>2.625</v>
+        <v>1.8</v>
       </c>
       <c r="P137">
-        <v>-0.25</v>
+        <v>0.75</v>
       </c>
       <c r="Q137">
+        <v>1.75</v>
+      </c>
+      <c r="R137">
         <v>2.05</v>
-      </c>
-      <c r="R137">
-        <v>1.75</v>
       </c>
       <c r="S137">
         <v>2.75</v>
@@ -12445,22 +12445,22 @@
         <v>-1</v>
       </c>
       <c r="W137">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="X137">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="Y137">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="Z137">
-        <v>0.375</v>
+        <v>1.05</v>
       </c>
       <c r="AA137">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB137">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="138" spans="1:28">
@@ -12468,7 +12468,7 @@
         <v>136</v>
       </c>
       <c r="B138">
-        <v>7278134</v>
+        <v>7278135</v>
       </c>
       <c r="C138" t="s">
         <v>27</v>
@@ -12477,76 +12477,76 @@
         <v>45200.41666666666</v>
       </c>
       <c r="E138" t="s">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="F138" t="s">
-        <v>47</v>
+        <v>74</v>
       </c>
       <c r="G138">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H138">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I138" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="J138">
+        <v>2.375</v>
+      </c>
+      <c r="K138">
         <v>3.4</v>
       </c>
-      <c r="K138">
-        <v>3.8</v>
-      </c>
       <c r="L138">
-        <v>1.8</v>
+        <v>2.5</v>
       </c>
       <c r="M138">
+        <v>2.375</v>
+      </c>
+      <c r="N138">
         <v>3.4</v>
       </c>
-      <c r="N138">
-        <v>3.8</v>
-      </c>
       <c r="O138">
-        <v>1.8</v>
+        <v>2.5</v>
       </c>
       <c r="P138">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="Q138">
-        <v>1.75</v>
+        <v>1.825</v>
       </c>
       <c r="R138">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="S138">
         <v>2.75</v>
       </c>
       <c r="T138">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="U138">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="V138">
         <v>-1</v>
       </c>
       <c r="W138">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="X138">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="Y138">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="Z138">
-        <v>1.05</v>
+        <v>0</v>
       </c>
       <c r="AA138">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB138">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="139" spans="1:28">
@@ -12554,7 +12554,7 @@
         <v>137</v>
       </c>
       <c r="B139">
-        <v>7278135</v>
+        <v>7278148</v>
       </c>
       <c r="C139" t="s">
         <v>27</v>
@@ -12563,10 +12563,10 @@
         <v>45200.41666666666</v>
       </c>
       <c r="E139" t="s">
-        <v>62</v>
+        <v>36</v>
       </c>
       <c r="F139" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G139">
         <v>1</v>
@@ -12578,61 +12578,61 @@
         <v>100</v>
       </c>
       <c r="J139">
-        <v>2.375</v>
+        <v>3.25</v>
       </c>
       <c r="K139">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="L139">
-        <v>2.5</v>
+        <v>1.833</v>
       </c>
       <c r="M139">
-        <v>2.375</v>
+        <v>3.25</v>
       </c>
       <c r="N139">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="O139">
-        <v>2.5</v>
+        <v>1.833</v>
       </c>
       <c r="P139">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="Q139">
-        <v>1.825</v>
+        <v>1.7</v>
       </c>
       <c r="R139">
-        <v>1.975</v>
+        <v>2.1</v>
       </c>
       <c r="S139">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="T139">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="U139">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="V139">
         <v>-1</v>
       </c>
       <c r="W139">
-        <v>2.4</v>
+        <v>2.8</v>
       </c>
       <c r="X139">
         <v>-1</v>
       </c>
       <c r="Y139">
-        <v>0</v>
+        <v>0.7</v>
       </c>
       <c r="Z139">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA139">
         <v>-1</v>
       </c>
       <c r="AB139">
-        <v>0.8500000000000001</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="140" spans="1:28">
@@ -12640,7 +12640,7 @@
         <v>138</v>
       </c>
       <c r="B140">
-        <v>7278148</v>
+        <v>7278192</v>
       </c>
       <c r="C140" t="s">
         <v>27</v>
@@ -12649,46 +12649,46 @@
         <v>45200.41666666666</v>
       </c>
       <c r="E140" t="s">
-        <v>36</v>
+        <v>72</v>
       </c>
       <c r="F140" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="G140">
         <v>1</v>
       </c>
       <c r="H140">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I140" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="J140">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="K140">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="L140">
-        <v>1.833</v>
+        <v>2</v>
       </c>
       <c r="M140">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="N140">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="O140">
-        <v>1.833</v>
+        <v>2</v>
       </c>
       <c r="P140">
-        <v>0.75</v>
+        <v>0.25</v>
       </c>
       <c r="Q140">
-        <v>1.7</v>
+        <v>2</v>
       </c>
       <c r="R140">
-        <v>2.1</v>
+        <v>1.8</v>
       </c>
       <c r="S140">
         <v>3</v>
@@ -12703,22 +12703,22 @@
         <v>-1</v>
       </c>
       <c r="W140">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="X140">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Y140">
-        <v>0.7</v>
+        <v>-1</v>
       </c>
       <c r="Z140">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA140">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AB140">
-        <v>0.8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="141" spans="1:28">
@@ -12726,7 +12726,7 @@
         <v>139</v>
       </c>
       <c r="B141">
-        <v>7278192</v>
+        <v>7278133</v>
       </c>
       <c r="C141" t="s">
         <v>27</v>
@@ -12735,76 +12735,76 @@
         <v>45200.41666666666</v>
       </c>
       <c r="E141" t="s">
-        <v>72</v>
+        <v>37</v>
       </c>
       <c r="F141" t="s">
-        <v>61</v>
+        <v>39</v>
       </c>
       <c r="G141">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H141">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I141" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="J141">
-        <v>3</v>
+        <v>1.727</v>
       </c>
       <c r="K141">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="L141">
-        <v>2</v>
+        <v>3.5</v>
       </c>
       <c r="M141">
-        <v>3</v>
+        <v>1.333</v>
       </c>
       <c r="N141">
-        <v>3.6</v>
+        <v>5</v>
       </c>
       <c r="O141">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="P141">
-        <v>0.25</v>
+        <v>-1.5</v>
       </c>
       <c r="Q141">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="R141">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="S141">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="T141">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="U141">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="V141">
-        <v>-1</v>
+        <v>0.333</v>
       </c>
       <c r="W141">
         <v>-1</v>
       </c>
       <c r="X141">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Y141">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="Z141">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA141">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AB141">
-        <v>0</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="142" spans="1:28">
@@ -12812,7 +12812,7 @@
         <v>140</v>
       </c>
       <c r="B142">
-        <v>7278133</v>
+        <v>7278194</v>
       </c>
       <c r="C142" t="s">
         <v>27</v>
@@ -12821,10 +12821,10 @@
         <v>45200.41666666666</v>
       </c>
       <c r="E142" t="s">
-        <v>37</v>
+        <v>60</v>
       </c>
       <c r="F142" t="s">
-        <v>39</v>
+        <v>77</v>
       </c>
       <c r="G142">
         <v>3</v>
@@ -12836,43 +12836,43 @@
         <v>99</v>
       </c>
       <c r="J142">
-        <v>1.727</v>
+        <v>1.833</v>
       </c>
       <c r="K142">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="L142">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="M142">
-        <v>1.333</v>
+        <v>1.833</v>
       </c>
       <c r="N142">
-        <v>5</v>
+        <v>3.8</v>
       </c>
       <c r="O142">
-        <v>6</v>
+        <v>3.25</v>
       </c>
       <c r="P142">
-        <v>-1.5</v>
+        <v>-0.75</v>
       </c>
       <c r="Q142">
+        <v>2.075</v>
+      </c>
+      <c r="R142">
+        <v>1.725</v>
+      </c>
+      <c r="S142">
+        <v>3</v>
+      </c>
+      <c r="T142">
+        <v>2</v>
+      </c>
+      <c r="U142">
         <v>1.8</v>
       </c>
-      <c r="R142">
-        <v>2</v>
-      </c>
-      <c r="S142">
-        <v>3.5</v>
-      </c>
-      <c r="T142">
-        <v>1.9</v>
-      </c>
-      <c r="U142">
-        <v>1.9</v>
-      </c>
       <c r="V142">
-        <v>0.333</v>
+        <v>0.833</v>
       </c>
       <c r="W142">
         <v>-1</v>
@@ -12881,16 +12881,16 @@
         <v>-1</v>
       </c>
       <c r="Y142">
-        <v>0.8</v>
+        <v>1.075</v>
       </c>
       <c r="Z142">
         <v>-1</v>
       </c>
       <c r="AA142">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AB142">
-        <v>0.8999999999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="143" spans="1:28">
@@ -12898,7 +12898,7 @@
         <v>141</v>
       </c>
       <c r="B143">
-        <v>7278194</v>
+        <v>7278205</v>
       </c>
       <c r="C143" t="s">
         <v>27</v>
@@ -12907,76 +12907,76 @@
         <v>45200.41666666666</v>
       </c>
       <c r="E143" t="s">
-        <v>60</v>
+        <v>42</v>
       </c>
       <c r="F143" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="G143">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H143">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I143" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="J143">
-        <v>1.833</v>
+        <v>2.25</v>
       </c>
       <c r="K143">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="L143">
-        <v>3.25</v>
+        <v>2.625</v>
       </c>
       <c r="M143">
-        <v>1.833</v>
+        <v>2.25</v>
       </c>
       <c r="N143">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="O143">
-        <v>3.25</v>
+        <v>2.625</v>
       </c>
       <c r="P143">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="Q143">
-        <v>2.075</v>
+        <v>2.05</v>
       </c>
       <c r="R143">
-        <v>1.725</v>
+        <v>1.75</v>
       </c>
       <c r="S143">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="T143">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="U143">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="V143">
-        <v>0.833</v>
+        <v>-1</v>
       </c>
       <c r="W143">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="X143">
         <v>-1</v>
       </c>
       <c r="Y143">
-        <v>1.075</v>
+        <v>-0.5</v>
       </c>
       <c r="Z143">
-        <v>-1</v>
+        <v>0.375</v>
       </c>
       <c r="AA143">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AB143">
-        <v>0</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="144" spans="1:28">
@@ -12993,10 +12993,10 @@
         <v>45200.41666666666</v>
       </c>
       <c r="E144" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="F144" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="G144">
         <v>3</v>
@@ -13079,7 +13079,7 @@
         <v>45200.41666666666</v>
       </c>
       <c r="E145" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="F145" t="s">
         <v>71</v>
@@ -13165,7 +13165,7 @@
         <v>45200.41666666666</v>
       </c>
       <c r="E146" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F146" t="s">
         <v>63</v>
@@ -13512,7 +13512,7 @@
         <v>46</v>
       </c>
       <c r="F150" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G150">
         <v>3</v>
@@ -13684,7 +13684,7 @@
         <v>32</v>
       </c>
       <c r="F152" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G152">
         <v>1</v>
@@ -13767,10 +13767,10 @@
         <v>45207.41666666666</v>
       </c>
       <c r="E153" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F153" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="G153">
         <v>0</v>
@@ -13856,7 +13856,7 @@
         <v>69</v>
       </c>
       <c r="F154" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="G154">
         <v>2</v>
@@ -13942,7 +13942,7 @@
         <v>35</v>
       </c>
       <c r="F155" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="G155">
         <v>2</v>
@@ -14114,7 +14114,7 @@
         <v>33</v>
       </c>
       <c r="F157" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="G157">
         <v>1</v>
@@ -14369,7 +14369,7 @@
         <v>45212.5</v>
       </c>
       <c r="E160" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F160" t="s">
         <v>39</v>
@@ -14446,7 +14446,7 @@
         <v>159</v>
       </c>
       <c r="B161">
-        <v>7342647</v>
+        <v>7343962</v>
       </c>
       <c r="C161" t="s">
         <v>27</v>
@@ -14455,76 +14455,76 @@
         <v>45214.25</v>
       </c>
       <c r="E161" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="F161" t="s">
-        <v>72</v>
+        <v>58</v>
       </c>
       <c r="G161">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H161">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I161" t="s">
         <v>100</v>
       </c>
       <c r="J161">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="K161">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="L161">
-        <v>3</v>
+        <v>2.6</v>
       </c>
       <c r="M161">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="N161">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="O161">
         <v>3</v>
       </c>
       <c r="P161">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="Q161">
+        <v>2</v>
+      </c>
+      <c r="R161">
         <v>1.8</v>
       </c>
-      <c r="R161">
-        <v>2</v>
-      </c>
       <c r="S161">
+        <v>3</v>
+      </c>
+      <c r="T161">
+        <v>1.825</v>
+      </c>
+      <c r="U161">
+        <v>1.975</v>
+      </c>
+      <c r="V161">
+        <v>-1</v>
+      </c>
+      <c r="W161">
         <v>2.75</v>
       </c>
-      <c r="T161">
-        <v>1.8</v>
-      </c>
-      <c r="U161">
-        <v>2</v>
-      </c>
-      <c r="V161">
-        <v>-1</v>
-      </c>
-      <c r="W161">
-        <v>2.5</v>
-      </c>
       <c r="X161">
         <v>-1</v>
       </c>
       <c r="Y161">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="Z161">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="AA161">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB161">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="162" spans="1:28">
@@ -14532,7 +14532,7 @@
         <v>160</v>
       </c>
       <c r="B162">
-        <v>7343962</v>
+        <v>7342647</v>
       </c>
       <c r="C162" t="s">
         <v>27</v>
@@ -14541,76 +14541,76 @@
         <v>45214.25</v>
       </c>
       <c r="E162" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="F162" t="s">
-        <v>58</v>
+        <v>72</v>
       </c>
       <c r="G162">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H162">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I162" t="s">
         <v>100</v>
       </c>
       <c r="J162">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="K162">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="L162">
-        <v>2.6</v>
+        <v>3</v>
       </c>
       <c r="M162">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="N162">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="O162">
         <v>3</v>
       </c>
       <c r="P162">
+        <v>-0.25</v>
+      </c>
+      <c r="Q162">
+        <v>1.8</v>
+      </c>
+      <c r="R162">
+        <v>2</v>
+      </c>
+      <c r="S162">
+        <v>2.75</v>
+      </c>
+      <c r="T162">
+        <v>1.8</v>
+      </c>
+      <c r="U162">
+        <v>2</v>
+      </c>
+      <c r="V162">
+        <v>-1</v>
+      </c>
+      <c r="W162">
+        <v>2.5</v>
+      </c>
+      <c r="X162">
+        <v>-1</v>
+      </c>
+      <c r="Y162">
         <v>-0.5</v>
       </c>
-      <c r="Q162">
-        <v>2</v>
-      </c>
-      <c r="R162">
-        <v>1.8</v>
-      </c>
-      <c r="S162">
-        <v>3</v>
-      </c>
-      <c r="T162">
-        <v>1.825</v>
-      </c>
-      <c r="U162">
-        <v>1.975</v>
-      </c>
-      <c r="V162">
-        <v>-1</v>
-      </c>
-      <c r="W162">
-        <v>2.75</v>
-      </c>
-      <c r="X162">
-        <v>-1</v>
-      </c>
-      <c r="Y162">
-        <v>-1</v>
-      </c>
       <c r="Z162">
+        <v>0.5</v>
+      </c>
+      <c r="AA162">
         <v>0.8</v>
       </c>
-      <c r="AA162">
-        <v>-1</v>
-      </c>
       <c r="AB162">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="163" spans="1:28">
@@ -14713,7 +14713,7 @@
         <v>45214.33333333334</v>
       </c>
       <c r="E164" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F164" t="s">
         <v>77</v>
@@ -14799,7 +14799,7 @@
         <v>45214.41666666666</v>
       </c>
       <c r="E165" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="F165" t="s">
         <v>71</v>
@@ -14971,7 +14971,7 @@
         <v>45214.41666666666</v>
       </c>
       <c r="E167" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="F167" t="s">
         <v>69</v>
@@ -15143,7 +15143,7 @@
         <v>45214.41666666666</v>
       </c>
       <c r="E169" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F169" t="s">
         <v>92</v>
@@ -15315,7 +15315,7 @@
         <v>45214.41666666666</v>
       </c>
       <c r="E171" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="F171" t="s">
         <v>68</v>
@@ -15401,7 +15401,7 @@
         <v>45214.41666666666</v>
       </c>
       <c r="E172" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="F172" t="s">
         <v>73</v>
@@ -15487,7 +15487,7 @@
         <v>45214.41666666666</v>
       </c>
       <c r="E173" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F173" t="s">
         <v>61</v>
@@ -15659,10 +15659,10 @@
         <v>45214.41666666666</v>
       </c>
       <c r="E175" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="F175" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G175">
         <v>3</v>
@@ -15745,7 +15745,7 @@
         <v>45214.41666666666</v>
       </c>
       <c r="E176" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F176" t="s">
         <v>91</v>
@@ -16178,7 +16178,7 @@
         <v>30</v>
       </c>
       <c r="F181" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G181">
         <v>0</v>
@@ -16350,7 +16350,7 @@
         <v>79</v>
       </c>
       <c r="F183" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="G183">
         <v>1</v>
@@ -16519,10 +16519,10 @@
         <v>45221.33333333334</v>
       </c>
       <c r="E185" t="s">
+        <v>43</v>
+      </c>
+      <c r="F185" t="s">
         <v>44</v>
-      </c>
-      <c r="F185" t="s">
-        <v>48</v>
       </c>
       <c r="G185">
         <v>1</v>
@@ -16608,7 +16608,7 @@
         <v>77</v>
       </c>
       <c r="F186" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="G186">
         <v>1</v>
@@ -16694,7 +16694,7 @@
         <v>37</v>
       </c>
       <c r="F187" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="G187">
         <v>3</v>
@@ -16866,7 +16866,7 @@
         <v>72</v>
       </c>
       <c r="F189" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="G189">
         <v>2</v>
@@ -17038,7 +17038,7 @@
         <v>39</v>
       </c>
       <c r="F191" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G191">
         <v>1</v>
@@ -17124,7 +17124,7 @@
         <v>40</v>
       </c>
       <c r="F192" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="G192">
         <v>5</v>
@@ -17210,7 +17210,7 @@
         <v>35</v>
       </c>
       <c r="F193" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="G193">
         <v>0</v>
@@ -17293,7 +17293,7 @@
         <v>45228.29166666666</v>
       </c>
       <c r="E194" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="F194" t="s">
         <v>39</v>
@@ -17465,7 +17465,7 @@
         <v>45228.29166666666</v>
       </c>
       <c r="E196" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F196" t="s">
         <v>33</v>
@@ -17640,7 +17640,7 @@
         <v>71</v>
       </c>
       <c r="F198" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G198">
         <v>1</v>
@@ -17809,7 +17809,7 @@
         <v>45228.375</v>
       </c>
       <c r="E200" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="F200" t="s">
         <v>35</v>
@@ -17895,7 +17895,7 @@
         <v>45228.375</v>
       </c>
       <c r="E201" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="F201" t="s">
         <v>69</v>
@@ -17981,7 +17981,7 @@
         <v>45228.375</v>
       </c>
       <c r="E202" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="F202" t="s">
         <v>68</v>
@@ -18414,7 +18414,7 @@
         <v>29</v>
       </c>
       <c r="F207" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="G207">
         <v>0</v>
@@ -18500,7 +18500,7 @@
         <v>33</v>
       </c>
       <c r="F208" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="G208">
         <v>0</v>
@@ -18586,7 +18586,7 @@
         <v>79</v>
       </c>
       <c r="F209" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="G209">
         <v>1</v>
@@ -18669,7 +18669,7 @@
         <v>45235.375</v>
       </c>
       <c r="E210" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F210" t="s">
         <v>69</v>
@@ -18758,7 +18758,7 @@
         <v>61</v>
       </c>
       <c r="F211" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G211">
         <v>1</v>
@@ -18844,7 +18844,7 @@
         <v>58</v>
       </c>
       <c r="F212" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="G212">
         <v>1</v>
@@ -18930,7 +18930,7 @@
         <v>37</v>
       </c>
       <c r="F213" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="G213">
         <v>1</v>
@@ -19102,7 +19102,7 @@
         <v>60</v>
       </c>
       <c r="F215" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="G215">
         <v>1</v>
@@ -19271,7 +19271,7 @@
         <v>45242.33333333334</v>
       </c>
       <c r="E217" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="F217" t="s">
         <v>94</v>
@@ -19357,7 +19357,7 @@
         <v>45242.375</v>
       </c>
       <c r="E218" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="F218" t="s">
         <v>61</v>
@@ -19529,10 +19529,10 @@
         <v>45242.375</v>
       </c>
       <c r="E220" t="s">
+        <v>48</v>
+      </c>
+      <c r="F220" t="s">
         <v>43</v>
-      </c>
-      <c r="F220" t="s">
-        <v>44</v>
       </c>
       <c r="G220">
         <v>1</v>
@@ -19701,7 +19701,7 @@
         <v>45242.375</v>
       </c>
       <c r="E222" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="F222" t="s">
         <v>56</v>
@@ -19790,7 +19790,7 @@
         <v>36</v>
       </c>
       <c r="F223" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="G223">
         <v>1</v>
@@ -19959,10 +19959,10 @@
         <v>45248.29166666666</v>
       </c>
       <c r="E225" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="F225" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="G225">
         <v>2</v>
@@ -20217,7 +20217,7 @@
         <v>45248.375</v>
       </c>
       <c r="E228" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="F228" t="s">
         <v>29</v>
@@ -20303,7 +20303,7 @@
         <v>45248.375</v>
       </c>
       <c r="E229" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="F229" t="s">
         <v>31</v>
@@ -20389,7 +20389,7 @@
         <v>45248.375</v>
       </c>
       <c r="E230" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F230" t="s">
         <v>68</v>
@@ -20561,7 +20561,7 @@
         <v>45248.375</v>
       </c>
       <c r="E232" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="F232" t="s">
         <v>40</v>
@@ -20647,7 +20647,7 @@
         <v>45248.375</v>
       </c>
       <c r="E233" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="F233" t="s">
         <v>57</v>
@@ -20733,7 +20733,7 @@
         <v>45248.375</v>
       </c>
       <c r="E234" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="F234" t="s">
         <v>81</v>
@@ -21163,7 +21163,7 @@
         <v>45256.29166666666</v>
       </c>
       <c r="E239" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F239" t="s">
         <v>84</v>
@@ -21510,7 +21510,7 @@
         <v>79</v>
       </c>
       <c r="F243" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G243">
         <v>3</v>
@@ -21682,7 +21682,7 @@
         <v>40</v>
       </c>
       <c r="F245" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="G245">
         <v>0</v>
@@ -22112,7 +22112,7 @@
         <v>63</v>
       </c>
       <c r="F250" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="G250">
         <v>2</v>
@@ -22281,7 +22281,7 @@
         <v>45354.29166666666</v>
       </c>
       <c r="E252" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="F252" t="s">
         <v>62</v>
@@ -22539,10 +22539,10 @@
         <v>45354.41666666666</v>
       </c>
       <c r="E255" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="F255" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="G255">
         <v>1</v>
@@ -22711,10 +22711,10 @@
         <v>45354.41666666666</v>
       </c>
       <c r="E257" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F257" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="G257">
         <v>0</v>
@@ -22797,7 +22797,7 @@
         <v>45354.41666666666</v>
       </c>
       <c r="E258" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F258" t="s">
         <v>58</v>
@@ -22883,7 +22883,7 @@
         <v>45354.41666666666</v>
       </c>
       <c r="E259" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="F259" t="s">
         <v>36</v>
@@ -23055,7 +23055,7 @@
         <v>45361.29166666666</v>
       </c>
       <c r="E261" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="F261" t="s">
         <v>86</v>
@@ -23144,7 +23144,7 @@
         <v>29</v>
       </c>
       <c r="F262" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G262">
         <v>0</v>
@@ -23230,7 +23230,7 @@
         <v>31</v>
       </c>
       <c r="F263" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="G263">
         <v>1</v>
@@ -23304,7 +23304,7 @@
         <v>262</v>
       </c>
       <c r="B264">
-        <v>7938807</v>
+        <v>7939097</v>
       </c>
       <c r="C264" t="s">
         <v>27</v>
@@ -23313,19 +23313,19 @@
         <v>45361.33333333334</v>
       </c>
       <c r="E264" t="s">
-        <v>58</v>
+        <v>28</v>
       </c>
       <c r="F264" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="G264">
         <v>0</v>
       </c>
       <c r="H264">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I264" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="J264">
         <v>2.25</v>
@@ -23355,34 +23355,34 @@
         <v>1.75</v>
       </c>
       <c r="S264">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="T264">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="U264">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="V264">
         <v>-1</v>
       </c>
       <c r="W264">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="X264">
-        <v>1.6</v>
+        <v>-1</v>
       </c>
       <c r="Y264">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="Z264">
-        <v>0.75</v>
+        <v>0.375</v>
       </c>
       <c r="AA264">
         <v>-1</v>
       </c>
       <c r="AB264">
-        <v>0.8500000000000001</v>
+        <v>1</v>
       </c>
     </row>
     <row r="265" spans="1:28">
@@ -23390,7 +23390,7 @@
         <v>263</v>
       </c>
       <c r="B265">
-        <v>7939097</v>
+        <v>7938807</v>
       </c>
       <c r="C265" t="s">
         <v>27</v>
@@ -23399,19 +23399,19 @@
         <v>45361.33333333334</v>
       </c>
       <c r="E265" t="s">
-        <v>28</v>
+        <v>58</v>
       </c>
       <c r="F265" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="G265">
         <v>0</v>
       </c>
       <c r="H265">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I265" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="J265">
         <v>2.25</v>
@@ -23441,34 +23441,34 @@
         <v>1.75</v>
       </c>
       <c r="S265">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="T265">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="U265">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="V265">
         <v>-1</v>
       </c>
       <c r="W265">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="X265">
-        <v>-1</v>
+        <v>1.6</v>
       </c>
       <c r="Y265">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="Z265">
-        <v>0.375</v>
+        <v>0.75</v>
       </c>
       <c r="AA265">
         <v>-1</v>
       </c>
       <c r="AB265">
-        <v>1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="266" spans="1:28">
@@ -23488,7 +23488,7 @@
         <v>63</v>
       </c>
       <c r="F266" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="G266">
         <v>0</v>
@@ -23746,7 +23746,7 @@
         <v>42</v>
       </c>
       <c r="F269" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="G269">
         <v>0</v>
@@ -23829,7 +23829,7 @@
         <v>45361.41666666666</v>
       </c>
       <c r="E270" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="F270" t="s">
         <v>79</v>
@@ -24078,7 +24078,7 @@
         <v>271</v>
       </c>
       <c r="B273">
-        <v>7939235</v>
+        <v>7939234</v>
       </c>
       <c r="C273" t="s">
         <v>27</v>
@@ -24087,13 +24087,13 @@
         <v>45361.41666666666</v>
       </c>
       <c r="E273" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="F273" t="s">
-        <v>77</v>
+        <v>91</v>
       </c>
       <c r="G273">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H273">
         <v>1</v>
@@ -24102,43 +24102,43 @@
         <v>99</v>
       </c>
       <c r="J273">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="K273">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="L273">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="M273">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="N273">
-        <v>4.75</v>
+        <v>4</v>
       </c>
       <c r="O273">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="P273">
-        <v>-1.5</v>
+        <v>-1</v>
       </c>
       <c r="Q273">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="R273">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="S273">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="T273">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="U273">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="V273">
-        <v>0.3999999999999999</v>
+        <v>0.5</v>
       </c>
       <c r="W273">
         <v>-1</v>
@@ -24147,16 +24147,16 @@
         <v>-1</v>
       </c>
       <c r="Y273">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="Z273">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA273">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB273">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="274" spans="1:28">
@@ -24164,7 +24164,7 @@
         <v>272</v>
       </c>
       <c r="B274">
-        <v>7939238</v>
+        <v>7939235</v>
       </c>
       <c r="C274" t="s">
         <v>27</v>
@@ -24173,76 +24173,76 @@
         <v>45361.41666666666</v>
       </c>
       <c r="E274" t="s">
-        <v>61</v>
+        <v>33</v>
       </c>
       <c r="F274" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="G274">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H274">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I274" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="J274">
-        <v>2.25</v>
+        <v>1.4</v>
       </c>
       <c r="K274">
+        <v>4.5</v>
+      </c>
+      <c r="L274">
+        <v>5.5</v>
+      </c>
+      <c r="M274">
+        <v>1.4</v>
+      </c>
+      <c r="N274">
+        <v>4.75</v>
+      </c>
+      <c r="O274">
+        <v>5.5</v>
+      </c>
+      <c r="P274">
+        <v>-1.5</v>
+      </c>
+      <c r="Q274">
+        <v>1.925</v>
+      </c>
+      <c r="R274">
+        <v>1.775</v>
+      </c>
+      <c r="S274">
         <v>3.5</v>
       </c>
-      <c r="L274">
-        <v>2.6</v>
-      </c>
-      <c r="M274">
-        <v>2.25</v>
-      </c>
-      <c r="N274">
-        <v>3.5</v>
-      </c>
-      <c r="O274">
-        <v>2.55</v>
-      </c>
-      <c r="P274">
-        <v>0</v>
-      </c>
-      <c r="Q274">
+      <c r="T274">
+        <v>1.925</v>
+      </c>
+      <c r="U274">
         <v>1.775</v>
       </c>
-      <c r="R274">
-        <v>2.025</v>
-      </c>
-      <c r="S274">
-        <v>3.25</v>
-      </c>
-      <c r="T274">
-        <v>1.975</v>
-      </c>
-      <c r="U274">
-        <v>1.825</v>
-      </c>
       <c r="V274">
-        <v>-1</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="W274">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="X274">
         <v>-1</v>
       </c>
       <c r="Y274">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z274">
-        <v>0</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA274">
         <v>-1</v>
       </c>
       <c r="AB274">
-        <v>0.825</v>
+        <v>0.7749999999999999</v>
       </c>
     </row>
     <row r="275" spans="1:28">
@@ -24250,7 +24250,7 @@
         <v>273</v>
       </c>
       <c r="B275">
-        <v>7939234</v>
+        <v>7939238</v>
       </c>
       <c r="C275" t="s">
         <v>27</v>
@@ -24259,76 +24259,76 @@
         <v>45361.41666666666</v>
       </c>
       <c r="E275" t="s">
-        <v>39</v>
+        <v>61</v>
       </c>
       <c r="F275" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="G275">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H275">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I275" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="J275">
-        <v>1.5</v>
+        <v>2.25</v>
       </c>
       <c r="K275">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="L275">
-        <v>5</v>
+        <v>2.6</v>
       </c>
       <c r="M275">
-        <v>1.5</v>
+        <v>2.25</v>
       </c>
       <c r="N275">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="O275">
-        <v>5</v>
+        <v>2.55</v>
       </c>
       <c r="P275">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="Q275">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="R275">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="S275">
         <v>3.25</v>
       </c>
       <c r="T275">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="U275">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V275">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="W275">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="X275">
         <v>-1</v>
       </c>
       <c r="Y275">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="Z275">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA275">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB275">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="276" spans="1:28">
@@ -24603,10 +24603,10 @@
         <v>45368.41666666666</v>
       </c>
       <c r="E279" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F279" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="G279">
         <v>0</v>
@@ -24689,7 +24689,7 @@
         <v>45368.41666666666</v>
       </c>
       <c r="E280" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="F280" t="s">
         <v>70</v>
@@ -24775,7 +24775,7 @@
         <v>45368.41666666666</v>
       </c>
       <c r="E281" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="F281" t="s">
         <v>63</v>
@@ -24947,7 +24947,7 @@
         <v>45368.41666666666</v>
       </c>
       <c r="E283" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="F283" t="s">
         <v>90</v>
@@ -25291,7 +25291,7 @@
         <v>45368.41666666666</v>
       </c>
       <c r="E287" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F287" t="s">
         <v>57</v>
@@ -25377,10 +25377,10 @@
         <v>45368.41666666666</v>
       </c>
       <c r="E288" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="F288" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="G288">
         <v>0</v>
@@ -25463,7 +25463,7 @@
         <v>45375.29166666666</v>
       </c>
       <c r="E289" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="F289" t="s">
         <v>74</v>
@@ -25552,7 +25552,7 @@
         <v>63</v>
       </c>
       <c r="F290" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="G290">
         <v>3</v>
@@ -25893,10 +25893,10 @@
         <v>45375.29166666666</v>
       </c>
       <c r="E294" t="s">
+        <v>53</v>
+      </c>
+      <c r="F294" t="s">
         <v>52</v>
-      </c>
-      <c r="F294" t="s">
-        <v>45</v>
       </c>
       <c r="G294">
         <v>4</v>
@@ -26323,7 +26323,7 @@
         <v>45375.41666666666</v>
       </c>
       <c r="E299" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="F299" t="s">
         <v>58</v>
@@ -26412,7 +26412,7 @@
         <v>40</v>
       </c>
       <c r="F300" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G300">
         <v>2</v>
@@ -26495,10 +26495,10 @@
         <v>45375.41666666666</v>
       </c>
       <c r="E301" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="F301" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="G301">
         <v>2</v>
@@ -26667,7 +26667,7 @@
         <v>45375.41666666666</v>
       </c>
       <c r="E303" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="F303" t="s">
         <v>83</v>
@@ -26753,7 +26753,7 @@
         <v>45375.41666666666</v>
       </c>
       <c r="E304" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F304" t="s">
         <v>84</v>
@@ -27097,7 +27097,7 @@
         <v>45382.25</v>
       </c>
       <c r="E308" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="F308" t="s">
         <v>47</v>
@@ -27616,7 +27616,7 @@
         <v>46</v>
       </c>
       <c r="F314" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G314">
         <v>4</v>
@@ -27871,10 +27871,10 @@
         <v>45382.45833333334</v>
       </c>
       <c r="E317" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="F317" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="G317">
         <v>1</v>
@@ -27957,10 +27957,10 @@
         <v>45382.45833333334</v>
       </c>
       <c r="E318" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="F318" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="G318">
         <v>0</v>
@@ -28046,7 +28046,7 @@
         <v>55</v>
       </c>
       <c r="F319" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="G319">
         <v>3</v>
@@ -28215,7 +28215,7 @@
         <v>45382.45833333334</v>
       </c>
       <c r="E321" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F321" t="s">
         <v>62</v>
@@ -28559,7 +28559,7 @@
         <v>45382.45833333334</v>
       </c>
       <c r="E325" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F325" t="s">
         <v>42</v>
@@ -28731,7 +28731,7 @@
         <v>45389.25</v>
       </c>
       <c r="E327" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F327" t="s">
         <v>89</v>
@@ -28817,7 +28817,7 @@
         <v>45389.25</v>
       </c>
       <c r="E328" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="F328" t="s">
         <v>46</v>
@@ -29078,7 +29078,7 @@
         <v>31</v>
       </c>
       <c r="F331" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G331">
         <v>2</v>
@@ -29247,7 +29247,7 @@
         <v>45389.375</v>
       </c>
       <c r="E333" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F333" t="s">
         <v>76</v>
@@ -29333,7 +29333,7 @@
         <v>45389.45833333334</v>
       </c>
       <c r="E334" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="F334" t="s">
         <v>29</v>
@@ -29419,7 +29419,7 @@
         <v>45389.45833333334</v>
       </c>
       <c r="E335" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="F335" t="s">
         <v>55</v>
@@ -29591,7 +29591,7 @@
         <v>45389.45833333334</v>
       </c>
       <c r="E337" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="F337" t="s">
         <v>78</v>
@@ -29763,10 +29763,10 @@
         <v>45389.45833333334</v>
       </c>
       <c r="E339" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="F339" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="G339">
         <v>0</v>
@@ -29935,7 +29935,7 @@
         <v>45389.45833333334</v>
       </c>
       <c r="E341" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="F341" t="s">
         <v>71</v>
@@ -30110,7 +30110,7 @@
         <v>63</v>
       </c>
       <c r="F343" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G343">
         <v>5</v>
@@ -30282,7 +30282,7 @@
         <v>30</v>
       </c>
       <c r="F345" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="G345">
         <v>0</v>
@@ -30626,7 +30626,7 @@
         <v>32</v>
       </c>
       <c r="F349" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="G349">
         <v>1</v>
@@ -30881,10 +30881,10 @@
         <v>45396.45833333334</v>
       </c>
       <c r="E352" t="s">
+        <v>44</v>
+      </c>
+      <c r="F352" t="s">
         <v>48</v>
-      </c>
-      <c r="F352" t="s">
-        <v>43</v>
       </c>
       <c r="G352">
         <v>1</v>
@@ -30970,7 +30970,7 @@
         <v>71</v>
       </c>
       <c r="F353" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="G353">
         <v>1</v>
@@ -31228,7 +31228,7 @@
         <v>47</v>
       </c>
       <c r="F356" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G356">
         <v>4</v>
@@ -31388,7 +31388,7 @@
         <v>356</v>
       </c>
       <c r="B358">
-        <v>8125894</v>
+        <v>8122817</v>
       </c>
       <c r="C358" t="s">
         <v>27</v>
@@ -31397,76 +31397,76 @@
         <v>45403.25</v>
       </c>
       <c r="E358" t="s">
-        <v>66</v>
+        <v>53</v>
       </c>
       <c r="F358" t="s">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="G358">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H358">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I358" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="J358">
-        <v>2.9</v>
+        <v>1.727</v>
       </c>
       <c r="K358">
         <v>3.5</v>
       </c>
       <c r="L358">
-        <v>2.1</v>
+        <v>4</v>
       </c>
       <c r="M358">
-        <v>2.9</v>
+        <v>1.727</v>
       </c>
       <c r="N358">
         <v>3.5</v>
       </c>
       <c r="O358">
-        <v>2.1</v>
+        <v>4</v>
       </c>
       <c r="P358">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="Q358">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="R358">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="S358">
         <v>2.75</v>
       </c>
       <c r="T358">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="U358">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="V358">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="W358">
         <v>-1</v>
       </c>
       <c r="X358">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Y358">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z358">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA358">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
       <c r="AB358">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="359" spans="1:28">
@@ -31474,7 +31474,7 @@
         <v>357</v>
       </c>
       <c r="B359">
-        <v>8122882</v>
+        <v>8125894</v>
       </c>
       <c r="C359" t="s">
         <v>27</v>
@@ -31483,13 +31483,13 @@
         <v>45403.25</v>
       </c>
       <c r="E359" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F359" t="s">
-        <v>68</v>
+        <v>41</v>
       </c>
       <c r="G359">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H359">
         <v>0</v>
@@ -31498,43 +31498,43 @@
         <v>99</v>
       </c>
       <c r="J359">
-        <v>2</v>
+        <v>2.9</v>
       </c>
       <c r="K359">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="L359">
-        <v>3.1</v>
+        <v>2.1</v>
       </c>
       <c r="M359">
-        <v>2</v>
+        <v>2.9</v>
       </c>
       <c r="N359">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="O359">
-        <v>3.1</v>
+        <v>2.1</v>
       </c>
       <c r="P359">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="Q359">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="R359">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="S359">
         <v>2.75</v>
       </c>
       <c r="T359">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="U359">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="V359">
-        <v>1</v>
+        <v>1.9</v>
       </c>
       <c r="W359">
         <v>-1</v>
@@ -31543,16 +31543,16 @@
         <v>-1</v>
       </c>
       <c r="Y359">
-        <v>0.8</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="Z359">
         <v>-1</v>
       </c>
       <c r="AA359">
-        <v>-1</v>
+        <v>0.4</v>
       </c>
       <c r="AB359">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="360" spans="1:28">
@@ -31560,7 +31560,7 @@
         <v>358</v>
       </c>
       <c r="B360">
-        <v>8122879</v>
+        <v>8122882</v>
       </c>
       <c r="C360" t="s">
         <v>27</v>
@@ -31569,76 +31569,76 @@
         <v>45403.25</v>
       </c>
       <c r="E360" t="s">
-        <v>31</v>
+        <v>63</v>
       </c>
       <c r="F360" t="s">
-        <v>79</v>
+        <v>68</v>
       </c>
       <c r="G360">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H360">
         <v>0</v>
       </c>
       <c r="I360" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="J360">
-        <v>2.4</v>
+        <v>2</v>
       </c>
       <c r="K360">
         <v>3.4</v>
       </c>
       <c r="L360">
-        <v>2.5</v>
+        <v>3.1</v>
       </c>
       <c r="M360">
-        <v>2.4</v>
+        <v>2</v>
       </c>
       <c r="N360">
         <v>3.4</v>
       </c>
       <c r="O360">
-        <v>2.5</v>
+        <v>3.1</v>
       </c>
       <c r="P360">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="Q360">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="R360">
+        <v>2</v>
+      </c>
+      <c r="S360">
+        <v>2.75</v>
+      </c>
+      <c r="T360">
+        <v>1.75</v>
+      </c>
+      <c r="U360">
         <v>1.95</v>
       </c>
-      <c r="S360">
-        <v>2.5</v>
-      </c>
-      <c r="T360">
-        <v>1.9</v>
-      </c>
-      <c r="U360">
-        <v>1.9</v>
-      </c>
       <c r="V360">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="W360">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="X360">
         <v>-1</v>
       </c>
       <c r="Y360">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="Z360">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA360">
         <v>-1</v>
       </c>
       <c r="AB360">
-        <v>0.8999999999999999</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="361" spans="1:28">
@@ -31646,7 +31646,7 @@
         <v>359</v>
       </c>
       <c r="B361">
-        <v>8122893</v>
+        <v>8122879</v>
       </c>
       <c r="C361" t="s">
         <v>27</v>
@@ -31655,76 +31655,76 @@
         <v>45403.25</v>
       </c>
       <c r="E361" t="s">
-        <v>53</v>
+        <v>31</v>
       </c>
       <c r="F361" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="G361">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H361">
         <v>0</v>
       </c>
       <c r="I361" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="J361">
-        <v>1.909</v>
+        <v>2.4</v>
       </c>
       <c r="K361">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="L361">
-        <v>3.6</v>
+        <v>2.5</v>
       </c>
       <c r="M361">
-        <v>1.909</v>
+        <v>2.4</v>
       </c>
       <c r="N361">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="O361">
-        <v>3.6</v>
+        <v>2.5</v>
       </c>
       <c r="P361">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="Q361">
+        <v>1.85</v>
+      </c>
+      <c r="R361">
         <v>1.95</v>
       </c>
-      <c r="R361">
-        <v>1.85</v>
-      </c>
       <c r="S361">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="T361">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="U361">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V361">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="W361">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="X361">
         <v>-1</v>
       </c>
       <c r="Y361">
-        <v>0.95</v>
+        <v>0</v>
       </c>
       <c r="Z361">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA361">
         <v>-1</v>
       </c>
       <c r="AB361">
-        <v>0.8500000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="362" spans="1:28">
@@ -31732,7 +31732,7 @@
         <v>360</v>
       </c>
       <c r="B362">
-        <v>8122817</v>
+        <v>8122893</v>
       </c>
       <c r="C362" t="s">
         <v>27</v>
@@ -31741,40 +31741,40 @@
         <v>45403.25</v>
       </c>
       <c r="E362" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="F362" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="G362">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H362">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I362" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="J362">
-        <v>1.727</v>
+        <v>1.909</v>
       </c>
       <c r="K362">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="L362">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="M362">
-        <v>1.727</v>
+        <v>1.909</v>
       </c>
       <c r="N362">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="O362">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="P362">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="Q362">
         <v>1.95</v>
@@ -31783,34 +31783,34 @@
         <v>1.85</v>
       </c>
       <c r="S362">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="T362">
+        <v>1.95</v>
+      </c>
+      <c r="U362">
         <v>1.85</v>
       </c>
-      <c r="U362">
-        <v>1.95</v>
-      </c>
       <c r="V362">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="W362">
         <v>-1</v>
       </c>
       <c r="X362">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y362">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="Z362">
+        <v>-1</v>
+      </c>
+      <c r="AA362">
+        <v>-1</v>
+      </c>
+      <c r="AB362">
         <v>0.8500000000000001</v>
-      </c>
-      <c r="AA362">
-        <v>-1</v>
-      </c>
-      <c r="AB362">
-        <v>0.95</v>
       </c>
     </row>
     <row r="363" spans="1:28">
@@ -31827,7 +31827,7 @@
         <v>45403.5</v>
       </c>
       <c r="E363" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="F363" t="s">
         <v>80</v>
@@ -32085,10 +32085,10 @@
         <v>45403.5</v>
       </c>
       <c r="E366" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="F366" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G366">
         <v>4</v>
@@ -32343,7 +32343,7 @@
         <v>45403.5</v>
       </c>
       <c r="E369" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="F369" t="s">
         <v>57</v>
@@ -32687,7 +32687,7 @@
         <v>45403.5</v>
       </c>
       <c r="E373" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="F373" t="s">
         <v>84</v>
@@ -32776,7 +32776,7 @@
         <v>82</v>
       </c>
       <c r="F374" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="G374">
         <v>0</v>
@@ -33108,7 +33108,7 @@
         <v>376</v>
       </c>
       <c r="B378">
-        <v>8152206</v>
+        <v>8152186</v>
       </c>
       <c r="C378" t="s">
         <v>27</v>
@@ -33117,73 +33117,73 @@
         <v>45410.25</v>
       </c>
       <c r="E378" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F378" t="s">
-        <v>53</v>
+        <v>90</v>
       </c>
       <c r="G378">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H378">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I378" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="J378">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="K378">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="L378">
-        <v>3.1</v>
+        <v>5.5</v>
       </c>
       <c r="M378">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="N378">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="O378">
-        <v>3.1</v>
+        <v>5.5</v>
       </c>
       <c r="P378">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="Q378">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="R378">
-        <v>1.75</v>
+        <v>1.95</v>
       </c>
       <c r="S378">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="T378">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="U378">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="V378">
         <v>-1</v>
       </c>
       <c r="W378">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="X378">
-        <v>-1</v>
+        <v>4.5</v>
       </c>
       <c r="Y378">
         <v>-1</v>
       </c>
       <c r="Z378">
-        <v>0.75</v>
+        <v>0.95</v>
       </c>
       <c r="AA378">
-        <v>0.8500000000000001</v>
+        <v>0.875</v>
       </c>
       <c r="AB378">
         <v>-1</v>
@@ -33206,7 +33206,7 @@
         <v>73</v>
       </c>
       <c r="F379" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="G379">
         <v>2</v>
@@ -33280,7 +33280,7 @@
         <v>378</v>
       </c>
       <c r="B380">
-        <v>8152186</v>
+        <v>8152206</v>
       </c>
       <c r="C380" t="s">
         <v>27</v>
@@ -33289,73 +33289,73 @@
         <v>45410.25</v>
       </c>
       <c r="E380" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F380" t="s">
-        <v>90</v>
+        <v>49</v>
       </c>
       <c r="G380">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H380">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I380" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="J380">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="K380">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="L380">
-        <v>5.5</v>
+        <v>3.1</v>
       </c>
       <c r="M380">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="N380">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="O380">
-        <v>5.5</v>
+        <v>3.1</v>
       </c>
       <c r="P380">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="Q380">
+        <v>2.05</v>
+      </c>
+      <c r="R380">
+        <v>1.75</v>
+      </c>
+      <c r="S380">
+        <v>2.75</v>
+      </c>
+      <c r="T380">
         <v>1.85</v>
       </c>
-      <c r="R380">
+      <c r="U380">
         <v>1.95</v>
       </c>
-      <c r="S380">
-        <v>2.5</v>
-      </c>
-      <c r="T380">
-        <v>1.875</v>
-      </c>
-      <c r="U380">
-        <v>1.925</v>
-      </c>
       <c r="V380">
         <v>-1</v>
       </c>
       <c r="W380">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="X380">
-        <v>4.5</v>
+        <v>-1</v>
       </c>
       <c r="Y380">
         <v>-1</v>
       </c>
       <c r="Z380">
-        <v>0.95</v>
+        <v>0.75</v>
       </c>
       <c r="AA380">
-        <v>0.875</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB380">
         <v>-1</v>
@@ -33378,7 +33378,7 @@
         <v>41</v>
       </c>
       <c r="F381" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G381">
         <v>1</v>
@@ -33550,7 +33550,7 @@
         <v>39</v>
       </c>
       <c r="F383" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="G383">
         <v>4</v>
@@ -33636,7 +33636,7 @@
         <v>69</v>
       </c>
       <c r="F384" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="G384">
         <v>3</v>
@@ -33719,10 +33719,10 @@
         <v>45410.5</v>
       </c>
       <c r="E385" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F385" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="G385">
         <v>2</v>

--- a/Hungary NB III/Hungary NB III.xlsx
+++ b/Hungary NB III/Hungary NB III.xlsx
@@ -145,7 +145,19 @@
     <t>Balatonfuredi FC</t>
   </si>
   <si>
+    <t>III Keruleti TUE</t>
+  </si>
+  <si>
     <t>Kelen SC</t>
+  </si>
+  <si>
+    <t>FC Tiszaujvaros</t>
+  </si>
+  <si>
+    <t>Kecskemeti TE II</t>
+  </si>
+  <si>
+    <t>Monori SE</t>
   </si>
   <si>
     <t>FC Tatabanya</t>
@@ -154,31 +166,19 @@
     <t>Dorogi FC</t>
   </si>
   <si>
-    <t>Kecskemeti TE II</t>
+    <t>Cegledi VSE</t>
   </si>
   <si>
-    <t>Monori SE</t>
+    <t>PEAC FC</t>
   </si>
   <si>
-    <t>III Keruleti TUE</t>
+    <t>Debreceni II</t>
   </si>
   <si>
     <t>Vasas SC II</t>
   </si>
   <si>
     <t>Bicskei TC</t>
-  </si>
-  <si>
-    <t>Cegledi VSE</t>
-  </si>
-  <si>
-    <t>FC Tiszaujvaros</t>
-  </si>
-  <si>
-    <t>Debreceni II</t>
-  </si>
-  <si>
-    <t>PEAC FC</t>
   </si>
   <si>
     <t>FC Nagykanizsa</t>
@@ -208,13 +208,13 @@
     <t>Gyirmot FC Gyor II</t>
   </si>
   <si>
-    <t>SzegedCsanad Grosics II</t>
-  </si>
-  <si>
     <t>Putnok</t>
   </si>
   <si>
     <t>Szentlorinc SE</t>
+  </si>
+  <si>
+    <t>SzegedCsanad Grosics II</t>
   </si>
   <si>
     <t>Paksi SE II</t>
@@ -277,10 +277,10 @@
     <t>Hodmezovasarhelyi</t>
   </si>
   <si>
-    <t>Korosladany MSK</t>
+    <t>Kaposvari Rakoczi</t>
   </si>
   <si>
-    <t>Kaposvari Rakoczi</t>
+    <t>Korosladany MSK</t>
   </si>
   <si>
     <t>Martfui LSE</t>
@@ -784,7 +784,7 @@
         <v>28</v>
       </c>
       <c r="F2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G2">
         <v>2</v>
@@ -870,7 +870,7 @@
         <v>29</v>
       </c>
       <c r="F3" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="G3">
         <v>1</v>
@@ -1042,7 +1042,7 @@
         <v>31</v>
       </c>
       <c r="F5" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -1558,7 +1558,7 @@
         <v>37</v>
       </c>
       <c r="F11" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G11">
         <v>2</v>
@@ -1816,7 +1816,7 @@
         <v>40</v>
       </c>
       <c r="F14" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -2062,7 +2062,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>7005726</v>
+        <v>7005724</v>
       </c>
       <c r="C17" t="s">
         <v>27</v>
@@ -2074,73 +2074,73 @@
         <v>43</v>
       </c>
       <c r="F17" t="s">
-        <v>79</v>
+        <v>68</v>
       </c>
       <c r="G17">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I17" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="J17">
-        <v>2.25</v>
+        <v>1.2</v>
       </c>
       <c r="K17">
-        <v>3.75</v>
+        <v>6.5</v>
       </c>
       <c r="L17">
-        <v>2.5</v>
+        <v>9</v>
       </c>
       <c r="M17">
-        <v>2.25</v>
+        <v>1.142</v>
       </c>
       <c r="N17">
-        <v>3.75</v>
+        <v>7.5</v>
       </c>
       <c r="O17">
-        <v>2.5</v>
+        <v>12</v>
       </c>
       <c r="P17">
-        <v>-0.25</v>
+        <v>-2.25</v>
       </c>
       <c r="Q17">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="R17">
-        <v>1.75</v>
+        <v>1.95</v>
       </c>
       <c r="S17">
-        <v>2.75</v>
+        <v>3.5</v>
       </c>
       <c r="T17">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="U17">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="V17">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="W17">
-        <v>-1</v>
+        <v>6.5</v>
       </c>
       <c r="X17">
         <v>-1</v>
       </c>
       <c r="Y17">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="Z17">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA17">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
       <c r="AB17">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="18" spans="1:28">
@@ -2148,7 +2148,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>7005728</v>
+        <v>7005726</v>
       </c>
       <c r="C18" t="s">
         <v>27</v>
@@ -2160,7 +2160,7 @@
         <v>44</v>
       </c>
       <c r="F18" t="s">
-        <v>57</v>
+        <v>79</v>
       </c>
       <c r="G18">
         <v>2</v>
@@ -2172,43 +2172,43 @@
         <v>99</v>
       </c>
       <c r="J18">
-        <v>1.4</v>
+        <v>2.25</v>
       </c>
       <c r="K18">
-        <v>4.75</v>
+        <v>3.75</v>
       </c>
       <c r="L18">
-        <v>5.5</v>
+        <v>2.5</v>
       </c>
       <c r="M18">
-        <v>1.3</v>
+        <v>2.25</v>
       </c>
       <c r="N18">
-        <v>5</v>
+        <v>3.75</v>
       </c>
       <c r="O18">
-        <v>7</v>
+        <v>2.5</v>
       </c>
       <c r="P18">
-        <v>-1.5</v>
+        <v>-0.25</v>
       </c>
       <c r="Q18">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="R18">
-        <v>1.95</v>
+        <v>1.75</v>
       </c>
       <c r="S18">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="T18">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="U18">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="V18">
-        <v>0.3</v>
+        <v>1.25</v>
       </c>
       <c r="W18">
         <v>-1</v>
@@ -2217,16 +2217,16 @@
         <v>-1</v>
       </c>
       <c r="Y18">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="Z18">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA18">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="AB18">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="19" spans="1:28">
@@ -2234,7 +2234,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>7005727</v>
+        <v>7005762</v>
       </c>
       <c r="C19" t="s">
         <v>27</v>
@@ -2246,7 +2246,7 @@
         <v>45</v>
       </c>
       <c r="F19" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="G19">
         <v>2</v>
@@ -2258,43 +2258,43 @@
         <v>99</v>
       </c>
       <c r="J19">
-        <v>1.909</v>
+        <v>2.25</v>
       </c>
       <c r="K19">
         <v>4</v>
       </c>
       <c r="L19">
-        <v>3</v>
+        <v>2.4</v>
       </c>
       <c r="M19">
-        <v>1.909</v>
+        <v>2.25</v>
       </c>
       <c r="N19">
         <v>4</v>
       </c>
       <c r="O19">
-        <v>3</v>
+        <v>2.45</v>
       </c>
       <c r="P19">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="Q19">
-        <v>1.975</v>
+        <v>2.05</v>
       </c>
       <c r="R19">
-        <v>1.825</v>
+        <v>1.75</v>
       </c>
       <c r="S19">
         <v>2.75</v>
       </c>
       <c r="T19">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="U19">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="V19">
-        <v>0.909</v>
+        <v>1.25</v>
       </c>
       <c r="W19">
         <v>-1</v>
@@ -2303,7 +2303,7 @@
         <v>-1</v>
       </c>
       <c r="Y19">
-        <v>0.9750000000000001</v>
+        <v>1.05</v>
       </c>
       <c r="Z19">
         <v>-1</v>
@@ -2312,7 +2312,7 @@
         <v>-1</v>
       </c>
       <c r="AB19">
-        <v>0.875</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:28">
@@ -2492,7 +2492,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>7005724</v>
+        <v>7005728</v>
       </c>
       <c r="C22" t="s">
         <v>27</v>
@@ -2504,37 +2504,37 @@
         <v>48</v>
       </c>
       <c r="F22" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="G22">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I22" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="J22">
-        <v>1.2</v>
+        <v>1.4</v>
       </c>
       <c r="K22">
-        <v>6.5</v>
+        <v>4.75</v>
       </c>
       <c r="L22">
-        <v>9</v>
+        <v>5.5</v>
       </c>
       <c r="M22">
-        <v>1.142</v>
+        <v>1.3</v>
       </c>
       <c r="N22">
-        <v>7.5</v>
+        <v>5</v>
       </c>
       <c r="O22">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="P22">
-        <v>-2.25</v>
+        <v>-1.5</v>
       </c>
       <c r="Q22">
         <v>1.85</v>
@@ -2543,19 +2543,19 @@
         <v>1.95</v>
       </c>
       <c r="S22">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="T22">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="U22">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="V22">
-        <v>-1</v>
+        <v>0.3</v>
       </c>
       <c r="W22">
-        <v>6.5</v>
+        <v>-1</v>
       </c>
       <c r="X22">
         <v>-1</v>
@@ -2567,10 +2567,10 @@
         <v>0.95</v>
       </c>
       <c r="AA22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AB22">
-        <v>0.825</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:28">
@@ -2578,7 +2578,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>7005745</v>
+        <v>7005737</v>
       </c>
       <c r="C23" t="s">
         <v>27</v>
@@ -2587,76 +2587,76 @@
         <v>45140.52083333334</v>
       </c>
       <c r="E23" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="F23" t="s">
-        <v>87</v>
+        <v>74</v>
       </c>
       <c r="G23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I23" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="J23">
-        <v>2.7</v>
+        <v>1.909</v>
       </c>
       <c r="K23">
         <v>3.75</v>
       </c>
       <c r="L23">
-        <v>2.1</v>
+        <v>3.1</v>
       </c>
       <c r="M23">
-        <v>2.7</v>
+        <v>1.5</v>
       </c>
       <c r="N23">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="O23">
-        <v>2.1</v>
+        <v>5.25</v>
       </c>
       <c r="P23">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="Q23">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="R23">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="S23">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="T23">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="U23">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="V23">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="W23">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="X23">
         <v>-1</v>
       </c>
       <c r="Y23">
-        <v>0.4375</v>
+        <v>0.8</v>
       </c>
       <c r="Z23">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA23">
         <v>-1</v>
       </c>
       <c r="AB23">
-        <v>0.9750000000000001</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="24" spans="1:28">
@@ -2664,7 +2664,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>7005737</v>
+        <v>7005727</v>
       </c>
       <c r="C24" t="s">
         <v>27</v>
@@ -2673,10 +2673,10 @@
         <v>45140.52083333334</v>
       </c>
       <c r="E24" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="F24" t="s">
-        <v>74</v>
+        <v>40</v>
       </c>
       <c r="G24">
         <v>2</v>
@@ -2691,40 +2691,40 @@
         <v>1.909</v>
       </c>
       <c r="K24">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="L24">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="M24">
-        <v>1.5</v>
+        <v>1.909</v>
       </c>
       <c r="N24">
         <v>4</v>
       </c>
       <c r="O24">
-        <v>5.25</v>
+        <v>3</v>
       </c>
       <c r="P24">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="Q24">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="R24">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="S24">
         <v>2.75</v>
       </c>
       <c r="T24">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="U24">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="V24">
-        <v>0.5</v>
+        <v>0.909</v>
       </c>
       <c r="W24">
         <v>-1</v>
@@ -2733,7 +2733,7 @@
         <v>-1</v>
       </c>
       <c r="Y24">
-        <v>0.8</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="Z24">
         <v>-1</v>
@@ -2742,7 +2742,7 @@
         <v>-1</v>
       </c>
       <c r="AB24">
-        <v>0.8500000000000001</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="25" spans="1:28">
@@ -2750,7 +2750,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>7005723</v>
+        <v>7005844</v>
       </c>
       <c r="C25" t="s">
         <v>27</v>
@@ -2762,64 +2762,64 @@
         <v>50</v>
       </c>
       <c r="F25" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="G25">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I25" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="J25">
-        <v>1.909</v>
+        <v>6</v>
       </c>
       <c r="K25">
-        <v>3.75</v>
+        <v>4.5</v>
       </c>
       <c r="L25">
-        <v>3.1</v>
+        <v>1.4</v>
       </c>
       <c r="M25">
-        <v>1.909</v>
+        <v>6</v>
       </c>
       <c r="N25">
-        <v>3.75</v>
+        <v>4.5</v>
       </c>
       <c r="O25">
-        <v>3.1</v>
+        <v>1.4</v>
       </c>
       <c r="P25">
-        <v>-0.5</v>
+        <v>1.5</v>
       </c>
       <c r="Q25">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="R25">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="S25">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="T25">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="U25">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="V25">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="W25">
         <v>-1</v>
       </c>
       <c r="X25">
-        <v>-1</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="Y25">
-        <v>0.9750000000000001</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="Z25">
         <v>-1</v>
@@ -2828,7 +2828,7 @@
         <v>-1</v>
       </c>
       <c r="AB25">
-        <v>0.925</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="26" spans="1:28">
@@ -2836,7 +2836,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>7005844</v>
+        <v>7005761</v>
       </c>
       <c r="C26" t="s">
         <v>27</v>
@@ -2848,46 +2848,46 @@
         <v>51</v>
       </c>
       <c r="F26" t="s">
-        <v>38</v>
+        <v>87</v>
       </c>
       <c r="G26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H26">
         <v>1</v>
       </c>
       <c r="I26" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="J26">
-        <v>6</v>
+        <v>2.25</v>
       </c>
       <c r="K26">
-        <v>4.5</v>
+        <v>3.75</v>
       </c>
       <c r="L26">
-        <v>1.4</v>
+        <v>2.5</v>
       </c>
       <c r="M26">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="N26">
-        <v>4.5</v>
+        <v>3.75</v>
       </c>
       <c r="O26">
-        <v>1.4</v>
+        <v>2.9</v>
       </c>
       <c r="P26">
-        <v>1.5</v>
+        <v>-0.25</v>
       </c>
       <c r="Q26">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="R26">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="S26">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="T26">
         <v>1.85</v>
@@ -2899,16 +2899,16 @@
         <v>-1</v>
       </c>
       <c r="W26">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="X26">
-        <v>0.3999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Y26">
-        <v>0.7749999999999999</v>
+        <v>-0.5</v>
       </c>
       <c r="Z26">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="AA26">
         <v>-1</v>
@@ -2922,7 +2922,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>7005762</v>
+        <v>7005760</v>
       </c>
       <c r="C27" t="s">
         <v>27</v>
@@ -2934,73 +2934,73 @@
         <v>52</v>
       </c>
       <c r="F27" t="s">
-        <v>28</v>
+        <v>64</v>
       </c>
       <c r="G27">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H27">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I27" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="J27">
+        <v>2.5</v>
+      </c>
+      <c r="K27">
+        <v>3.75</v>
+      </c>
+      <c r="L27">
         <v>2.25</v>
       </c>
-      <c r="K27">
-        <v>4</v>
-      </c>
-      <c r="L27">
-        <v>2.4</v>
-      </c>
       <c r="M27">
-        <v>2.25</v>
+        <v>3.5</v>
       </c>
       <c r="N27">
         <v>4</v>
       </c>
       <c r="O27">
-        <v>2.45</v>
+        <v>1.727</v>
       </c>
       <c r="P27">
-        <v>-0.25</v>
+        <v>0.75</v>
       </c>
       <c r="Q27">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="R27">
+        <v>1.975</v>
+      </c>
+      <c r="S27">
+        <v>3</v>
+      </c>
+      <c r="T27">
         <v>1.75</v>
       </c>
-      <c r="S27">
-        <v>2.75</v>
-      </c>
-      <c r="T27">
-        <v>1.8</v>
-      </c>
       <c r="U27">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="V27">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="W27">
         <v>-1</v>
       </c>
       <c r="X27">
-        <v>-1</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="Y27">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="Z27">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA27">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AB27">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="28" spans="1:28">
@@ -3008,7 +3008,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>7005760</v>
+        <v>7005745</v>
       </c>
       <c r="C28" t="s">
         <v>27</v>
@@ -3020,73 +3020,73 @@
         <v>53</v>
       </c>
       <c r="F28" t="s">
-        <v>65</v>
+        <v>88</v>
       </c>
       <c r="G28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H28">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I28" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="J28">
-        <v>2.5</v>
+        <v>2.7</v>
       </c>
       <c r="K28">
         <v>3.75</v>
       </c>
       <c r="L28">
-        <v>2.25</v>
+        <v>2.1</v>
       </c>
       <c r="M28">
-        <v>3.5</v>
+        <v>2.7</v>
       </c>
       <c r="N28">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="O28">
-        <v>1.727</v>
+        <v>2.1</v>
       </c>
       <c r="P28">
-        <v>0.75</v>
+        <v>0.25</v>
       </c>
       <c r="Q28">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="R28">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="S28">
         <v>3</v>
       </c>
       <c r="T28">
-        <v>1.75</v>
+        <v>1.825</v>
       </c>
       <c r="U28">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="V28">
         <v>-1</v>
       </c>
       <c r="W28">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="X28">
-        <v>0.7270000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Y28">
-        <v>-1</v>
+        <v>0.4375</v>
       </c>
       <c r="Z28">
+        <v>-0.5</v>
+      </c>
+      <c r="AA28">
+        <v>-1</v>
+      </c>
+      <c r="AB28">
         <v>0.9750000000000001</v>
-      </c>
-      <c r="AA28">
-        <v>0.75</v>
-      </c>
-      <c r="AB28">
-        <v>-1</v>
       </c>
     </row>
     <row r="29" spans="1:28">
@@ -3094,7 +3094,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>7005761</v>
+        <v>7005723</v>
       </c>
       <c r="C29" t="s">
         <v>27</v>
@@ -3106,73 +3106,73 @@
         <v>54</v>
       </c>
       <c r="F29" t="s">
-        <v>88</v>
+        <v>42</v>
       </c>
       <c r="G29">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I29" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="J29">
-        <v>2.25</v>
+        <v>1.909</v>
       </c>
       <c r="K29">
         <v>3.75</v>
       </c>
       <c r="L29">
-        <v>2.5</v>
+        <v>3.1</v>
       </c>
       <c r="M29">
-        <v>2</v>
+        <v>1.909</v>
       </c>
       <c r="N29">
         <v>3.75</v>
       </c>
       <c r="O29">
-        <v>2.9</v>
+        <v>3.1</v>
       </c>
       <c r="P29">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="Q29">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="R29">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="S29">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="T29">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="U29">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="V29">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="W29">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="X29">
         <v>-1</v>
       </c>
       <c r="Y29">
-        <v>-0.5</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="Z29">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA29">
         <v>-1</v>
       </c>
       <c r="AB29">
-        <v>0.95</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="30" spans="1:28">
@@ -3450,7 +3450,7 @@
         <v>31</v>
       </c>
       <c r="F33" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="G33">
         <v>2</v>
@@ -3880,7 +3880,7 @@
         <v>58</v>
       </c>
       <c r="F38" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G38">
         <v>3</v>
@@ -4040,7 +4040,7 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>7055635</v>
+        <v>7059445</v>
       </c>
       <c r="C40" t="s">
         <v>27</v>
@@ -4049,40 +4049,40 @@
         <v>45151.52083333334</v>
       </c>
       <c r="E40" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F40" t="s">
-        <v>47</v>
+        <v>74</v>
       </c>
       <c r="G40">
         <v>2</v>
       </c>
       <c r="H40">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I40" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="J40">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="K40">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="L40">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="M40">
-        <v>1.333</v>
+        <v>1.363</v>
       </c>
       <c r="N40">
-        <v>5</v>
+        <v>4.333</v>
       </c>
       <c r="O40">
         <v>6.5</v>
       </c>
       <c r="P40">
-        <v>-1.5</v>
+        <v>-1.25</v>
       </c>
       <c r="Q40">
         <v>1.825</v>
@@ -4091,34 +4091,34 @@
         <v>1.975</v>
       </c>
       <c r="S40">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="T40">
         <v>1.925</v>
       </c>
       <c r="U40">
-        <v>1.775</v>
+        <v>1.875</v>
       </c>
       <c r="V40">
-        <v>-1</v>
+        <v>0.363</v>
       </c>
       <c r="W40">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="X40">
         <v>-1</v>
       </c>
       <c r="Y40">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="Z40">
-        <v>0.9750000000000001</v>
+        <v>0.4875</v>
       </c>
       <c r="AA40">
-        <v>0.925</v>
+        <v>0</v>
       </c>
       <c r="AB40">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:28">
@@ -4126,7 +4126,7 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>7055634</v>
+        <v>7055635</v>
       </c>
       <c r="C41" t="s">
         <v>27</v>
@@ -4135,73 +4135,73 @@
         <v>45151.52083333334</v>
       </c>
       <c r="E41" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="F41" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="G41">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H41">
+        <v>2</v>
+      </c>
+      <c r="I41" t="s">
+        <v>100</v>
+      </c>
+      <c r="J41">
+        <v>1.4</v>
+      </c>
+      <c r="K41">
+        <v>4.5</v>
+      </c>
+      <c r="L41">
+        <v>5.5</v>
+      </c>
+      <c r="M41">
+        <v>1.333</v>
+      </c>
+      <c r="N41">
+        <v>5</v>
+      </c>
+      <c r="O41">
+        <v>6.5</v>
+      </c>
+      <c r="P41">
+        <v>-1.5</v>
+      </c>
+      <c r="Q41">
+        <v>1.825</v>
+      </c>
+      <c r="R41">
+        <v>1.975</v>
+      </c>
+      <c r="S41">
+        <v>3.5</v>
+      </c>
+      <c r="T41">
+        <v>1.925</v>
+      </c>
+      <c r="U41">
+        <v>1.775</v>
+      </c>
+      <c r="V41">
+        <v>-1</v>
+      </c>
+      <c r="W41">
         <v>4</v>
       </c>
-      <c r="I41" t="s">
-        <v>98</v>
-      </c>
-      <c r="J41">
-        <v>3.75</v>
-      </c>
-      <c r="K41">
-        <v>4</v>
-      </c>
-      <c r="L41">
-        <v>1.666</v>
-      </c>
-      <c r="M41">
-        <v>3.75</v>
-      </c>
-      <c r="N41">
-        <v>4</v>
-      </c>
-      <c r="O41">
-        <v>1.666</v>
-      </c>
-      <c r="P41">
-        <v>0.75</v>
-      </c>
-      <c r="Q41">
-        <v>1.925</v>
-      </c>
-      <c r="R41">
-        <v>1.875</v>
-      </c>
-      <c r="S41">
-        <v>3</v>
-      </c>
-      <c r="T41">
-        <v>1.8</v>
-      </c>
-      <c r="U41">
-        <v>2</v>
-      </c>
-      <c r="V41">
-        <v>-1</v>
-      </c>
-      <c r="W41">
-        <v>-1</v>
-      </c>
       <c r="X41">
-        <v>0.6659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Y41">
         <v>-1</v>
       </c>
       <c r="Z41">
-        <v>0.875</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA41">
-        <v>0.8</v>
+        <v>0.925</v>
       </c>
       <c r="AB41">
         <v>-1</v>
@@ -4298,7 +4298,7 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>7055636</v>
+        <v>7055634</v>
       </c>
       <c r="C43" t="s">
         <v>27</v>
@@ -4307,46 +4307,46 @@
         <v>45151.52083333334</v>
       </c>
       <c r="E43" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="F43" t="s">
-        <v>80</v>
+        <v>48</v>
       </c>
       <c r="G43">
+        <v>1</v>
+      </c>
+      <c r="H43">
         <v>4</v>
       </c>
-      <c r="H43">
-        <v>1</v>
-      </c>
       <c r="I43" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="J43">
-        <v>1.444</v>
+        <v>3.75</v>
       </c>
       <c r="K43">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="L43">
-        <v>5</v>
+        <v>1.666</v>
       </c>
       <c r="M43">
-        <v>1.363</v>
+        <v>3.75</v>
       </c>
       <c r="N43">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="O43">
-        <v>6.5</v>
+        <v>1.666</v>
       </c>
       <c r="P43">
-        <v>-1.5</v>
+        <v>0.75</v>
       </c>
       <c r="Q43">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="R43">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="S43">
         <v>3</v>
@@ -4358,19 +4358,19 @@
         <v>2</v>
       </c>
       <c r="V43">
-        <v>0.363</v>
+        <v>-1</v>
       </c>
       <c r="W43">
         <v>-1</v>
       </c>
       <c r="X43">
-        <v>-1</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="Y43">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="Z43">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA43">
         <v>0.8</v>
@@ -4384,7 +4384,7 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>7059445</v>
+        <v>7055636</v>
       </c>
       <c r="C44" t="s">
         <v>27</v>
@@ -4393,13 +4393,13 @@
         <v>45151.52083333334</v>
       </c>
       <c r="E44" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="F44" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="G44">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H44">
         <v>1</v>
@@ -4408,10 +4408,10 @@
         <v>99</v>
       </c>
       <c r="J44">
-        <v>1.5</v>
+        <v>1.444</v>
       </c>
       <c r="K44">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="L44">
         <v>5</v>
@@ -4420,28 +4420,28 @@
         <v>1.363</v>
       </c>
       <c r="N44">
-        <v>4.333</v>
+        <v>4.5</v>
       </c>
       <c r="O44">
         <v>6.5</v>
       </c>
       <c r="P44">
-        <v>-1.25</v>
+        <v>-1.5</v>
       </c>
       <c r="Q44">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="R44">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="S44">
         <v>3</v>
       </c>
       <c r="T44">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="U44">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="V44">
         <v>0.363</v>
@@ -4453,16 +4453,16 @@
         <v>-1</v>
       </c>
       <c r="Y44">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
       <c r="Z44">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
       <c r="AA44">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="AB44">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="45" spans="1:28">
@@ -4482,7 +4482,7 @@
         <v>60</v>
       </c>
       <c r="F45" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G45">
         <v>1</v>
@@ -4654,7 +4654,7 @@
         <v>42</v>
       </c>
       <c r="F47" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="G47">
         <v>1</v>
@@ -4900,7 +4900,7 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>7084667</v>
+        <v>7084571</v>
       </c>
       <c r="C50" t="s">
         <v>27</v>
@@ -4909,76 +4909,76 @@
         <v>45157.25</v>
       </c>
       <c r="E50" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="F50" t="s">
-        <v>37</v>
+        <v>90</v>
       </c>
       <c r="G50">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H50">
+        <v>1</v>
+      </c>
+      <c r="I50" t="s">
+        <v>100</v>
+      </c>
+      <c r="J50">
+        <v>1.666</v>
+      </c>
+      <c r="K50">
         <v>4</v>
       </c>
-      <c r="I50" t="s">
-        <v>98</v>
-      </c>
-      <c r="J50">
-        <v>4.2</v>
-      </c>
-      <c r="K50">
-        <v>4.2</v>
-      </c>
       <c r="L50">
-        <v>1.571</v>
+        <v>3.8</v>
       </c>
       <c r="M50">
-        <v>4.2</v>
+        <v>1.666</v>
       </c>
       <c r="N50">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="O50">
-        <v>1.571</v>
+        <v>3.8</v>
       </c>
       <c r="P50">
-        <v>1</v>
+        <v>-0.75</v>
       </c>
       <c r="Q50">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="R50">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="S50">
         <v>3</v>
       </c>
       <c r="T50">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="U50">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="V50">
         <v>-1</v>
       </c>
       <c r="W50">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="X50">
-        <v>0.571</v>
+        <v>-1</v>
       </c>
       <c r="Y50">
         <v>-1</v>
       </c>
       <c r="Z50">
-        <v>0.9750000000000001</v>
+        <v>0.925</v>
       </c>
       <c r="AA50">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB50">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="51" spans="1:28">
@@ -4986,7 +4986,7 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>7084571</v>
+        <v>7084667</v>
       </c>
       <c r="C51" t="s">
         <v>27</v>
@@ -4995,76 +4995,76 @@
         <v>45157.25</v>
       </c>
       <c r="E51" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="F51" t="s">
-        <v>90</v>
+        <v>37</v>
       </c>
       <c r="G51">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H51">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I51" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="J51">
-        <v>1.666</v>
+        <v>4.2</v>
       </c>
       <c r="K51">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="L51">
-        <v>3.8</v>
+        <v>1.571</v>
       </c>
       <c r="M51">
-        <v>1.666</v>
+        <v>4.2</v>
       </c>
       <c r="N51">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="O51">
-        <v>3.8</v>
+        <v>1.571</v>
       </c>
       <c r="P51">
-        <v>-0.75</v>
+        <v>1</v>
       </c>
       <c r="Q51">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="R51">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="S51">
         <v>3</v>
       </c>
       <c r="T51">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="U51">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V51">
         <v>-1</v>
       </c>
       <c r="W51">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="X51">
-        <v>-1</v>
+        <v>0.571</v>
       </c>
       <c r="Y51">
         <v>-1</v>
       </c>
       <c r="Z51">
-        <v>0.925</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA51">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB51">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="52" spans="1:28">
@@ -5167,7 +5167,7 @@
         <v>45157.52083333334</v>
       </c>
       <c r="E53" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="F53" t="s">
         <v>42</v>
@@ -5253,7 +5253,7 @@
         <v>45157.52083333334</v>
       </c>
       <c r="E54" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="F54" t="s">
         <v>60</v>
@@ -5425,7 +5425,7 @@
         <v>45157.52083333334</v>
       </c>
       <c r="E56" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F56" t="s">
         <v>29</v>
@@ -5511,10 +5511,10 @@
         <v>45157.52083333334</v>
       </c>
       <c r="E57" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F57" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="G57">
         <v>2</v>
@@ -5597,7 +5597,7 @@
         <v>45157.52083333334</v>
       </c>
       <c r="E58" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="F58" t="s">
         <v>63</v>
@@ -5683,10 +5683,10 @@
         <v>45157.52083333334</v>
       </c>
       <c r="E59" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="F59" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G59">
         <v>2</v>
@@ -5941,10 +5941,10 @@
         <v>45168.5</v>
       </c>
       <c r="E62" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="F62" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G62">
         <v>2</v>
@@ -6018,7 +6018,7 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>7142196</v>
+        <v>7142173</v>
       </c>
       <c r="C63" t="s">
         <v>27</v>
@@ -6027,40 +6027,40 @@
         <v>45168.52083333334</v>
       </c>
       <c r="E63" t="s">
-        <v>62</v>
+        <v>33</v>
       </c>
       <c r="F63" t="s">
-        <v>86</v>
+        <v>30</v>
       </c>
       <c r="G63">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H63">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I63" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="J63">
-        <v>2.25</v>
+        <v>1.615</v>
       </c>
       <c r="K63">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="L63">
-        <v>2.5</v>
+        <v>4</v>
       </c>
       <c r="M63">
-        <v>2.25</v>
+        <v>1.615</v>
       </c>
       <c r="N63">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="O63">
-        <v>2.5</v>
+        <v>4</v>
       </c>
       <c r="P63">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="Q63">
         <v>1.8</v>
@@ -6081,10 +6081,10 @@
         <v>-1</v>
       </c>
       <c r="W63">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="X63">
-        <v>1.5</v>
+        <v>-1</v>
       </c>
       <c r="Y63">
         <v>-1</v>
@@ -6104,7 +6104,7 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>7142173</v>
+        <v>7140308</v>
       </c>
       <c r="C64" t="s">
         <v>27</v>
@@ -6113,76 +6113,76 @@
         <v>45168.52083333334</v>
       </c>
       <c r="E64" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="F64" t="s">
-        <v>30</v>
+        <v>89</v>
       </c>
       <c r="G64">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H64">
         <v>2</v>
       </c>
       <c r="I64" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="J64">
-        <v>1.615</v>
+        <v>1.5</v>
       </c>
       <c r="K64">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="L64">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="M64">
-        <v>1.615</v>
+        <v>1.444</v>
       </c>
       <c r="N64">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="O64">
-        <v>4</v>
+        <v>4.75</v>
       </c>
       <c r="P64">
-        <v>-0.75</v>
+        <v>-1.25</v>
       </c>
       <c r="Q64">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="R64">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="S64">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="T64">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="U64">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="V64">
         <v>-1</v>
       </c>
       <c r="W64">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="X64">
-        <v>-1</v>
+        <v>3.75</v>
       </c>
       <c r="Y64">
         <v>-1</v>
       </c>
       <c r="Z64">
-        <v>1</v>
+        <v>0.875</v>
       </c>
       <c r="AA64">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB64">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="65" spans="1:28">
@@ -6190,7 +6190,7 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>7140308</v>
+        <v>7142437</v>
       </c>
       <c r="C65" t="s">
         <v>27</v>
@@ -6199,76 +6199,76 @@
         <v>45168.52083333334</v>
       </c>
       <c r="E65" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="F65" t="s">
-        <v>89</v>
+        <v>71</v>
       </c>
       <c r="G65">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H65">
         <v>2</v>
       </c>
       <c r="I65" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="J65">
-        <v>1.5</v>
+        <v>1.571</v>
       </c>
       <c r="K65">
-        <v>4.5</v>
+        <v>3.75</v>
       </c>
       <c r="L65">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="M65">
-        <v>1.444</v>
+        <v>1.571</v>
       </c>
       <c r="N65">
-        <v>5</v>
+        <v>3.75</v>
       </c>
       <c r="O65">
         <v>4.75</v>
       </c>
       <c r="P65">
-        <v>-1.25</v>
+        <v>-1</v>
       </c>
       <c r="Q65">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="R65">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="S65">
         <v>3</v>
       </c>
       <c r="T65">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="U65">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="V65">
-        <v>-1</v>
+        <v>0.571</v>
       </c>
       <c r="W65">
         <v>-1</v>
       </c>
       <c r="X65">
-        <v>3.75</v>
+        <v>-1</v>
       </c>
       <c r="Y65">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="Z65">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA65">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB65">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="66" spans="1:28">
@@ -6276,7 +6276,7 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>7142437</v>
+        <v>7141754</v>
       </c>
       <c r="C66" t="s">
         <v>27</v>
@@ -6285,73 +6285,73 @@
         <v>45168.52083333334</v>
       </c>
       <c r="E66" t="s">
-        <v>42</v>
+        <v>59</v>
       </c>
       <c r="F66" t="s">
-        <v>71</v>
+        <v>52</v>
       </c>
       <c r="G66">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H66">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I66" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="J66">
-        <v>1.571</v>
+        <v>3.4</v>
       </c>
       <c r="K66">
         <v>3.75</v>
       </c>
       <c r="L66">
-        <v>4.75</v>
+        <v>1.8</v>
       </c>
       <c r="M66">
-        <v>1.571</v>
+        <v>3.4</v>
       </c>
       <c r="N66">
         <v>3.75</v>
       </c>
       <c r="O66">
-        <v>4.75</v>
+        <v>1.8</v>
       </c>
       <c r="P66">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="Q66">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="R66">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="S66">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="T66">
-        <v>1.9</v>
+        <v>1.75</v>
       </c>
       <c r="U66">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="V66">
-        <v>0.571</v>
+        <v>-1</v>
       </c>
       <c r="W66">
         <v>-1</v>
       </c>
       <c r="X66">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="Y66">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z66">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA66">
-        <v>0.8999999999999999</v>
+        <v>0.75</v>
       </c>
       <c r="AB66">
         <v>-1</v>
@@ -6362,7 +6362,7 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>7141754</v>
+        <v>7140300</v>
       </c>
       <c r="C67" t="s">
         <v>27</v>
@@ -6371,10 +6371,10 @@
         <v>45168.52083333334</v>
       </c>
       <c r="E67" t="s">
-        <v>59</v>
+        <v>40</v>
       </c>
       <c r="F67" t="s">
-        <v>53</v>
+        <v>69</v>
       </c>
       <c r="G67">
         <v>1</v>
@@ -6386,34 +6386,34 @@
         <v>98</v>
       </c>
       <c r="J67">
-        <v>3.4</v>
+        <v>4.5</v>
       </c>
       <c r="K67">
-        <v>3.75</v>
+        <v>4.5</v>
       </c>
       <c r="L67">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="M67">
-        <v>3.4</v>
+        <v>4.5</v>
       </c>
       <c r="N67">
-        <v>3.75</v>
+        <v>4.5</v>
       </c>
       <c r="O67">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="P67">
-        <v>0.5</v>
+        <v>1.25</v>
       </c>
       <c r="Q67">
+        <v>1.75</v>
+      </c>
+      <c r="R67">
         <v>1.95</v>
       </c>
-      <c r="R67">
-        <v>1.85</v>
-      </c>
       <c r="S67">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="T67">
         <v>1.75</v>
@@ -6428,13 +6428,13 @@
         <v>-1</v>
       </c>
       <c r="X67">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="Y67">
         <v>-1</v>
       </c>
       <c r="Z67">
-        <v>0.8500000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="AA67">
         <v>0.75</v>
@@ -6448,7 +6448,7 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>7141753</v>
+        <v>7142196</v>
       </c>
       <c r="C68" t="s">
         <v>27</v>
@@ -6457,76 +6457,76 @@
         <v>45168.52083333334</v>
       </c>
       <c r="E68" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F68" t="s">
-        <v>45</v>
+        <v>86</v>
       </c>
       <c r="G68">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H68">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I68" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="J68">
-        <v>3.1</v>
+        <v>2.25</v>
       </c>
       <c r="K68">
         <v>3.75</v>
       </c>
       <c r="L68">
-        <v>1.909</v>
+        <v>2.5</v>
       </c>
       <c r="M68">
-        <v>3.1</v>
+        <v>2.25</v>
       </c>
       <c r="N68">
         <v>3.75</v>
       </c>
       <c r="O68">
-        <v>1.909</v>
+        <v>2.5</v>
       </c>
       <c r="P68">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="Q68">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="R68">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="S68">
         <v>2.75</v>
       </c>
       <c r="T68">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="U68">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="V68">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="W68">
         <v>-1</v>
       </c>
       <c r="X68">
-        <v>-1</v>
+        <v>1.5</v>
       </c>
       <c r="Y68">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="Z68">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA68">
-        <v>0.4125</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB68">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="69" spans="1:28">
@@ -6534,7 +6534,7 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>7140300</v>
+        <v>7141753</v>
       </c>
       <c r="C69" t="s">
         <v>27</v>
@@ -6543,76 +6543,76 @@
         <v>45168.52083333334</v>
       </c>
       <c r="E69" t="s">
-        <v>40</v>
+        <v>63</v>
       </c>
       <c r="F69" t="s">
-        <v>69</v>
+        <v>49</v>
       </c>
       <c r="G69">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H69">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I69" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="J69">
-        <v>4.5</v>
+        <v>3.1</v>
       </c>
       <c r="K69">
-        <v>4.5</v>
+        <v>3.75</v>
       </c>
       <c r="L69">
-        <v>1.5</v>
+        <v>1.909</v>
       </c>
       <c r="M69">
-        <v>4.5</v>
+        <v>3.1</v>
       </c>
       <c r="N69">
-        <v>4.5</v>
+        <v>3.75</v>
       </c>
       <c r="O69">
-        <v>1.5</v>
+        <v>1.909</v>
       </c>
       <c r="P69">
-        <v>1.25</v>
+        <v>0.5</v>
       </c>
       <c r="Q69">
-        <v>1.75</v>
+        <v>1.825</v>
       </c>
       <c r="R69">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="S69">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="T69">
-        <v>1.75</v>
+        <v>1.825</v>
       </c>
       <c r="U69">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="V69">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="W69">
         <v>-1</v>
       </c>
       <c r="X69">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="Y69">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="Z69">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA69">
-        <v>0.75</v>
+        <v>0.4125</v>
       </c>
       <c r="AB69">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="70" spans="1:28">
@@ -6620,7 +6620,7 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>7140312</v>
+        <v>7140311</v>
       </c>
       <c r="C70" t="s">
         <v>27</v>
@@ -6629,76 +6629,76 @@
         <v>45168.52083333334</v>
       </c>
       <c r="E70" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="F70" t="s">
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="G70">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H70">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I70" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="J70">
-        <v>2.4</v>
+        <v>1.727</v>
       </c>
       <c r="K70">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="L70">
-        <v>2.4</v>
+        <v>4</v>
       </c>
       <c r="M70">
-        <v>2.4</v>
+        <v>1.727</v>
       </c>
       <c r="N70">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="O70">
-        <v>2.4</v>
+        <v>4</v>
       </c>
       <c r="P70">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="Q70">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="R70">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="S70">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="T70">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="U70">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="V70">
         <v>-1</v>
       </c>
       <c r="W70">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="X70">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Y70">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z70">
-        <v>0</v>
+        <v>0.825</v>
       </c>
       <c r="AA70">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB70">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="71" spans="1:28">
@@ -6878,7 +6878,7 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>7140303</v>
+        <v>7140302</v>
       </c>
       <c r="C73" t="s">
         <v>27</v>
@@ -6887,46 +6887,46 @@
         <v>45168.52083333334</v>
       </c>
       <c r="E73" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="F73" t="s">
-        <v>44</v>
+        <v>92</v>
       </c>
       <c r="G73">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H73">
         <v>1</v>
       </c>
       <c r="I73" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="J73">
-        <v>4</v>
+        <v>1.615</v>
       </c>
       <c r="K73">
         <v>4</v>
       </c>
       <c r="L73">
-        <v>1.615</v>
+        <v>4</v>
       </c>
       <c r="M73">
-        <v>4</v>
+        <v>1.533</v>
       </c>
       <c r="N73">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="O73">
-        <v>1.615</v>
+        <v>4.5</v>
       </c>
       <c r="P73">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Q73">
-        <v>1.75</v>
+        <v>1.9</v>
       </c>
       <c r="R73">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="S73">
         <v>3</v>
@@ -6938,25 +6938,25 @@
         <v>1.95</v>
       </c>
       <c r="V73">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="W73">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="X73">
         <v>-1</v>
       </c>
       <c r="Y73">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="Z73">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA73">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AB73">
-        <v>0</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="74" spans="1:28">
@@ -6973,7 +6973,7 @@
         <v>45168.52083333334</v>
       </c>
       <c r="E74" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F74" t="s">
         <v>76</v>
@@ -7136,7 +7136,7 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>7140302</v>
+        <v>7140306</v>
       </c>
       <c r="C76" t="s">
         <v>27</v>
@@ -7145,76 +7145,76 @@
         <v>45168.52083333334</v>
       </c>
       <c r="E76" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="F76" t="s">
-        <v>92</v>
+        <v>54</v>
       </c>
       <c r="G76">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H76">
         <v>1</v>
       </c>
       <c r="I76" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="J76">
-        <v>1.615</v>
+        <v>2.25</v>
       </c>
       <c r="K76">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="L76">
-        <v>4</v>
+        <v>2.5</v>
       </c>
       <c r="M76">
-        <v>1.533</v>
+        <v>2.3</v>
       </c>
       <c r="N76">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="O76">
-        <v>4.5</v>
+        <v>2.5</v>
       </c>
       <c r="P76">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="Q76">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="R76">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="S76">
         <v>3</v>
       </c>
       <c r="T76">
-        <v>1.75</v>
+        <v>2.1</v>
       </c>
       <c r="U76">
-        <v>1.95</v>
+        <v>1.7</v>
       </c>
       <c r="V76">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="W76">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="X76">
         <v>-1</v>
       </c>
       <c r="Y76">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="Z76">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA76">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="AB76">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="77" spans="1:28">
@@ -7222,7 +7222,7 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>7140309</v>
+        <v>7140303</v>
       </c>
       <c r="C77" t="s">
         <v>27</v>
@@ -7231,76 +7231,76 @@
         <v>45168.52083333334</v>
       </c>
       <c r="E77" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="F77" t="s">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="G77">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H77">
+        <v>1</v>
+      </c>
+      <c r="I77" t="s">
+        <v>99</v>
+      </c>
+      <c r="J77">
         <v>4</v>
       </c>
-      <c r="I77" t="s">
-        <v>98</v>
-      </c>
-      <c r="J77">
-        <v>1.8</v>
-      </c>
       <c r="K77">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="L77">
-        <v>3.6</v>
+        <v>1.615</v>
       </c>
       <c r="M77">
-        <v>1.909</v>
+        <v>4</v>
       </c>
       <c r="N77">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="O77">
-        <v>3.3</v>
+        <v>1.615</v>
       </c>
       <c r="P77">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
       <c r="Q77">
+        <v>1.75</v>
+      </c>
+      <c r="R77">
         <v>1.95</v>
-      </c>
-      <c r="R77">
-        <v>1.85</v>
       </c>
       <c r="S77">
         <v>3</v>
       </c>
       <c r="T77">
-        <v>1.825</v>
+        <v>1.75</v>
       </c>
       <c r="U77">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="V77">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="W77">
         <v>-1</v>
       </c>
       <c r="X77">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y77">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="Z77">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA77">
-        <v>0.825</v>
+        <v>0</v>
       </c>
       <c r="AB77">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78" spans="1:28">
@@ -7317,7 +7317,7 @@
         <v>45168.52083333334</v>
       </c>
       <c r="E78" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F78" t="s">
         <v>83</v>
@@ -7394,7 +7394,7 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>7140311</v>
+        <v>7140312</v>
       </c>
       <c r="C79" t="s">
         <v>27</v>
@@ -7403,76 +7403,76 @@
         <v>45168.52083333334</v>
       </c>
       <c r="E79" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="F79" t="s">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="G79">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H79">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I79" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="J79">
-        <v>1.727</v>
+        <v>2.4</v>
       </c>
       <c r="K79">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="L79">
-        <v>4</v>
+        <v>2.4</v>
       </c>
       <c r="M79">
-        <v>1.727</v>
+        <v>2.4</v>
       </c>
       <c r="N79">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="O79">
-        <v>4</v>
+        <v>2.4</v>
       </c>
       <c r="P79">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="Q79">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="R79">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="S79">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="T79">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="U79">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V79">
         <v>-1</v>
       </c>
       <c r="W79">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="X79">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y79">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="Z79">
-        <v>0.825</v>
+        <v>0</v>
       </c>
       <c r="AA79">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB79">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="80" spans="1:28">
@@ -7480,7 +7480,7 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>7140306</v>
+        <v>7140309</v>
       </c>
       <c r="C80" t="s">
         <v>27</v>
@@ -7489,73 +7489,73 @@
         <v>45168.52083333334</v>
       </c>
       <c r="E80" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="F80" t="s">
-        <v>50</v>
+        <v>32</v>
       </c>
       <c r="G80">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H80">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I80" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="J80">
-        <v>2.25</v>
+        <v>1.8</v>
       </c>
       <c r="K80">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="L80">
-        <v>2.5</v>
+        <v>3.6</v>
       </c>
       <c r="M80">
-        <v>2.3</v>
+        <v>1.909</v>
       </c>
       <c r="N80">
         <v>3.6</v>
       </c>
       <c r="O80">
-        <v>2.5</v>
+        <v>3.3</v>
       </c>
       <c r="P80">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="Q80">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="R80">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="S80">
         <v>3</v>
       </c>
       <c r="T80">
-        <v>2.1</v>
+        <v>1.825</v>
       </c>
       <c r="U80">
-        <v>1.7</v>
+        <v>1.975</v>
       </c>
       <c r="V80">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="W80">
         <v>-1</v>
       </c>
       <c r="X80">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y80">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="Z80">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA80">
-        <v>1.1</v>
+        <v>0.825</v>
       </c>
       <c r="AB80">
         <v>-1</v>
@@ -7578,7 +7578,7 @@
         <v>67</v>
       </c>
       <c r="F81" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G81">
         <v>1</v>
@@ -7922,7 +7922,7 @@
         <v>46</v>
       </c>
       <c r="F85" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="G85">
         <v>0</v>
@@ -8008,7 +8008,7 @@
         <v>47</v>
       </c>
       <c r="F86" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="G86">
         <v>2</v>
@@ -8349,7 +8349,7 @@
         <v>45172.45833333334</v>
       </c>
       <c r="E90" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F90" t="s">
         <v>40</v>
@@ -8521,7 +8521,7 @@
         <v>45172.45833333334</v>
       </c>
       <c r="E92" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F92" t="s">
         <v>86</v>
@@ -8610,7 +8610,7 @@
         <v>62</v>
       </c>
       <c r="F93" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G93">
         <v>2</v>
@@ -8856,7 +8856,7 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>7182055</v>
+        <v>7182108</v>
       </c>
       <c r="C96" t="s">
         <v>27</v>
@@ -8865,58 +8865,58 @@
         <v>45178.25</v>
       </c>
       <c r="E96" t="s">
-        <v>53</v>
+        <v>66</v>
       </c>
       <c r="F96" t="s">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="G96">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H96">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I96" t="s">
         <v>99</v>
       </c>
       <c r="J96">
-        <v>2.1</v>
+        <v>2.625</v>
       </c>
       <c r="K96">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="L96">
-        <v>2.8</v>
+        <v>2.25</v>
       </c>
       <c r="M96">
-        <v>2.1</v>
+        <v>2.625</v>
       </c>
       <c r="N96">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="O96">
-        <v>2.8</v>
+        <v>2.25</v>
       </c>
       <c r="P96">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="Q96">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="R96">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="S96">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="T96">
+        <v>1.875</v>
+      </c>
+      <c r="U96">
         <v>1.925</v>
       </c>
-      <c r="U96">
-        <v>1.875</v>
-      </c>
       <c r="V96">
-        <v>1.1</v>
+        <v>1.625</v>
       </c>
       <c r="W96">
         <v>-1</v>
@@ -8925,13 +8925,13 @@
         <v>-1</v>
       </c>
       <c r="Y96">
-        <v>0.8999999999999999</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="Z96">
         <v>-1</v>
       </c>
       <c r="AA96">
-        <v>0.925</v>
+        <v>0.875</v>
       </c>
       <c r="AB96">
         <v>-1</v>
@@ -9028,7 +9028,7 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>7182029</v>
+        <v>7182055</v>
       </c>
       <c r="C98" t="s">
         <v>27</v>
@@ -9037,73 +9037,73 @@
         <v>45178.25</v>
       </c>
       <c r="E98" t="s">
-        <v>71</v>
+        <v>52</v>
       </c>
       <c r="F98" t="s">
-        <v>63</v>
+        <v>78</v>
       </c>
       <c r="G98">
         <v>3</v>
       </c>
       <c r="H98">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I98" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="J98">
-        <v>3.2</v>
+        <v>2.1</v>
       </c>
       <c r="K98">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="L98">
-        <v>1.909</v>
+        <v>2.8</v>
       </c>
       <c r="M98">
-        <v>4.333</v>
+        <v>2.1</v>
       </c>
       <c r="N98">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="O98">
-        <v>1.571</v>
+        <v>2.8</v>
       </c>
       <c r="P98">
-        <v>1</v>
+        <v>-0.25</v>
       </c>
       <c r="Q98">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="R98">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="S98">
         <v>3.25</v>
       </c>
       <c r="T98">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="U98">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="V98">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="W98">
         <v>-1</v>
       </c>
       <c r="X98">
-        <v>0.571</v>
+        <v>-1</v>
       </c>
       <c r="Y98">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="Z98">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA98">
-        <v>1</v>
+        <v>0.925</v>
       </c>
       <c r="AB98">
         <v>-1</v>
@@ -9114,7 +9114,7 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>7182108</v>
+        <v>7182029</v>
       </c>
       <c r="C99" t="s">
         <v>27</v>
@@ -9123,73 +9123,73 @@
         <v>45178.25</v>
       </c>
       <c r="E99" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="F99" t="s">
-        <v>91</v>
+        <v>63</v>
       </c>
       <c r="G99">
+        <v>3</v>
+      </c>
+      <c r="H99">
+        <v>5</v>
+      </c>
+      <c r="I99" t="s">
+        <v>98</v>
+      </c>
+      <c r="J99">
+        <v>3.2</v>
+      </c>
+      <c r="K99">
+        <v>3.6</v>
+      </c>
+      <c r="L99">
+        <v>1.909</v>
+      </c>
+      <c r="M99">
+        <v>4.333</v>
+      </c>
+      <c r="N99">
         <v>4</v>
       </c>
-      <c r="H99">
-        <v>2</v>
-      </c>
-      <c r="I99" t="s">
-        <v>99</v>
-      </c>
-      <c r="J99">
-        <v>2.625</v>
-      </c>
-      <c r="K99">
-        <v>3.4</v>
-      </c>
-      <c r="L99">
-        <v>2.25</v>
-      </c>
-      <c r="M99">
-        <v>2.625</v>
-      </c>
-      <c r="N99">
-        <v>3.4</v>
-      </c>
       <c r="O99">
-        <v>2.25</v>
+        <v>1.571</v>
       </c>
       <c r="P99">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="Q99">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="R99">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="S99">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="T99">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="U99">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="V99">
-        <v>1.625</v>
+        <v>-1</v>
       </c>
       <c r="W99">
         <v>-1</v>
       </c>
       <c r="X99">
-        <v>-1</v>
+        <v>0.571</v>
       </c>
       <c r="Y99">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z99">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA99">
-        <v>0.875</v>
+        <v>1</v>
       </c>
       <c r="AB99">
         <v>-1</v>
@@ -9381,10 +9381,10 @@
         <v>45178.45833333334</v>
       </c>
       <c r="E102" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="F102" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="G102">
         <v>1</v>
@@ -9467,7 +9467,7 @@
         <v>45178.45833333334</v>
       </c>
       <c r="E103" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="F103" t="s">
         <v>93</v>
@@ -10069,10 +10069,10 @@
         <v>45178.45833333334</v>
       </c>
       <c r="E110" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="F110" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="G110">
         <v>1</v>
@@ -10158,7 +10158,7 @@
         <v>42</v>
       </c>
       <c r="F111" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G111">
         <v>1</v>
@@ -10330,7 +10330,7 @@
         <v>29</v>
       </c>
       <c r="F113" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="G113">
         <v>1</v>
@@ -10416,7 +10416,7 @@
         <v>73</v>
       </c>
       <c r="F114" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G114">
         <v>1</v>
@@ -10502,7 +10502,7 @@
         <v>46</v>
       </c>
       <c r="F115" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="G115">
         <v>0</v>
@@ -10674,7 +10674,7 @@
         <v>67</v>
       </c>
       <c r="F117" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G117">
         <v>1</v>
@@ -10929,10 +10929,10 @@
         <v>45193.45833333334</v>
       </c>
       <c r="E120" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="F120" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="G120">
         <v>3</v>
@@ -11190,7 +11190,7 @@
         <v>74</v>
       </c>
       <c r="F123" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G123">
         <v>4</v>
@@ -11362,7 +11362,7 @@
         <v>34</v>
       </c>
       <c r="F125" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G125">
         <v>0</v>
@@ -11875,7 +11875,7 @@
         <v>45193.45833333334</v>
       </c>
       <c r="E131" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F131" t="s">
         <v>31</v>
@@ -11961,7 +11961,7 @@
         <v>45198.45833333334</v>
       </c>
       <c r="E132" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="F132" t="s">
         <v>67</v>
@@ -12047,7 +12047,7 @@
         <v>45199.25</v>
       </c>
       <c r="E133" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="F133" t="s">
         <v>32</v>
@@ -12305,7 +12305,7 @@
         <v>45200.375</v>
       </c>
       <c r="E136" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F136" t="s">
         <v>84</v>
@@ -12382,7 +12382,7 @@
         <v>135</v>
       </c>
       <c r="B137">
-        <v>7278134</v>
+        <v>7278205</v>
       </c>
       <c r="C137" t="s">
         <v>27</v>
@@ -12391,46 +12391,46 @@
         <v>45200.41666666666</v>
       </c>
       <c r="E137" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="F137" t="s">
-        <v>47</v>
+        <v>79</v>
       </c>
       <c r="G137">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H137">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I137" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="J137">
+        <v>2.25</v>
+      </c>
+      <c r="K137">
         <v>3.4</v>
       </c>
-      <c r="K137">
-        <v>3.8</v>
-      </c>
       <c r="L137">
-        <v>1.8</v>
+        <v>2.625</v>
       </c>
       <c r="M137">
+        <v>2.25</v>
+      </c>
+      <c r="N137">
         <v>3.4</v>
       </c>
-      <c r="N137">
-        <v>3.8</v>
-      </c>
       <c r="O137">
-        <v>1.8</v>
+        <v>2.625</v>
       </c>
       <c r="P137">
-        <v>0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="Q137">
+        <v>2.05</v>
+      </c>
+      <c r="R137">
         <v>1.75</v>
-      </c>
-      <c r="R137">
-        <v>2.05</v>
       </c>
       <c r="S137">
         <v>2.75</v>
@@ -12445,22 +12445,22 @@
         <v>-1</v>
       </c>
       <c r="W137">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="X137">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="Y137">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="Z137">
-        <v>1.05</v>
+        <v>0.375</v>
       </c>
       <c r="AA137">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB137">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="138" spans="1:28">
@@ -12468,7 +12468,7 @@
         <v>136</v>
       </c>
       <c r="B138">
-        <v>7278135</v>
+        <v>7278134</v>
       </c>
       <c r="C138" t="s">
         <v>27</v>
@@ -12477,76 +12477,76 @@
         <v>45200.41666666666</v>
       </c>
       <c r="E138" t="s">
-        <v>62</v>
+        <v>50</v>
       </c>
       <c r="F138" t="s">
-        <v>74</v>
+        <v>47</v>
       </c>
       <c r="G138">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H138">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I138" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="J138">
-        <v>2.375</v>
+        <v>3.4</v>
       </c>
       <c r="K138">
+        <v>3.8</v>
+      </c>
+      <c r="L138">
+        <v>1.8</v>
+      </c>
+      <c r="M138">
         <v>3.4</v>
       </c>
-      <c r="L138">
-        <v>2.5</v>
-      </c>
-      <c r="M138">
-        <v>2.375</v>
-      </c>
       <c r="N138">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="O138">
-        <v>2.5</v>
+        <v>1.8</v>
       </c>
       <c r="P138">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="Q138">
-        <v>1.825</v>
+        <v>1.75</v>
       </c>
       <c r="R138">
-        <v>1.975</v>
+        <v>2.05</v>
       </c>
       <c r="S138">
         <v>2.75</v>
       </c>
       <c r="T138">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="U138">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="V138">
         <v>-1</v>
       </c>
       <c r="W138">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="X138">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="Y138">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z138">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="AA138">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB138">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="139" spans="1:28">
@@ -12554,7 +12554,7 @@
         <v>137</v>
       </c>
       <c r="B139">
-        <v>7278148</v>
+        <v>7278135</v>
       </c>
       <c r="C139" t="s">
         <v>27</v>
@@ -12563,10 +12563,10 @@
         <v>45200.41666666666</v>
       </c>
       <c r="E139" t="s">
-        <v>36</v>
+        <v>62</v>
       </c>
       <c r="F139" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="G139">
         <v>1</v>
@@ -12578,61 +12578,61 @@
         <v>100</v>
       </c>
       <c r="J139">
-        <v>3.25</v>
+        <v>2.375</v>
       </c>
       <c r="K139">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="L139">
-        <v>1.833</v>
+        <v>2.5</v>
       </c>
       <c r="M139">
-        <v>3.25</v>
+        <v>2.375</v>
       </c>
       <c r="N139">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="O139">
-        <v>1.833</v>
+        <v>2.5</v>
       </c>
       <c r="P139">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="Q139">
-        <v>1.7</v>
+        <v>1.825</v>
       </c>
       <c r="R139">
-        <v>2.1</v>
+        <v>1.975</v>
       </c>
       <c r="S139">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="T139">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="U139">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="V139">
         <v>-1</v>
       </c>
       <c r="W139">
-        <v>2.8</v>
+        <v>2.4</v>
       </c>
       <c r="X139">
         <v>-1</v>
       </c>
       <c r="Y139">
-        <v>0.7</v>
+        <v>0</v>
       </c>
       <c r="Z139">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA139">
         <v>-1</v>
       </c>
       <c r="AB139">
-        <v>0.8</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="140" spans="1:28">
@@ -12640,7 +12640,7 @@
         <v>138</v>
       </c>
       <c r="B140">
-        <v>7278192</v>
+        <v>7278148</v>
       </c>
       <c r="C140" t="s">
         <v>27</v>
@@ -12649,46 +12649,46 @@
         <v>45200.41666666666</v>
       </c>
       <c r="E140" t="s">
-        <v>72</v>
+        <v>36</v>
       </c>
       <c r="F140" t="s">
-        <v>61</v>
+        <v>73</v>
       </c>
       <c r="G140">
         <v>1</v>
       </c>
       <c r="H140">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I140" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="J140">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="K140">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="L140">
-        <v>2</v>
+        <v>1.833</v>
       </c>
       <c r="M140">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="N140">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="O140">
-        <v>2</v>
+        <v>1.833</v>
       </c>
       <c r="P140">
-        <v>0.25</v>
+        <v>0.75</v>
       </c>
       <c r="Q140">
-        <v>2</v>
+        <v>1.7</v>
       </c>
       <c r="R140">
-        <v>1.8</v>
+        <v>2.1</v>
       </c>
       <c r="S140">
         <v>3</v>
@@ -12703,22 +12703,22 @@
         <v>-1</v>
       </c>
       <c r="W140">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="X140">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Y140">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="Z140">
+        <v>-1</v>
+      </c>
+      <c r="AA140">
+        <v>-1</v>
+      </c>
+      <c r="AB140">
         <v>0.8</v>
-      </c>
-      <c r="AA140">
-        <v>0</v>
-      </c>
-      <c r="AB140">
-        <v>0</v>
       </c>
     </row>
     <row r="141" spans="1:28">
@@ -12726,7 +12726,7 @@
         <v>139</v>
       </c>
       <c r="B141">
-        <v>7278133</v>
+        <v>7278192</v>
       </c>
       <c r="C141" t="s">
         <v>27</v>
@@ -12735,76 +12735,76 @@
         <v>45200.41666666666</v>
       </c>
       <c r="E141" t="s">
-        <v>37</v>
+        <v>72</v>
       </c>
       <c r="F141" t="s">
-        <v>39</v>
+        <v>61</v>
       </c>
       <c r="G141">
+        <v>1</v>
+      </c>
+      <c r="H141">
+        <v>2</v>
+      </c>
+      <c r="I141" t="s">
+        <v>98</v>
+      </c>
+      <c r="J141">
         <v>3</v>
       </c>
-      <c r="H141">
-        <v>0</v>
-      </c>
-      <c r="I141" t="s">
-        <v>99</v>
-      </c>
-      <c r="J141">
-        <v>1.727</v>
-      </c>
       <c r="K141">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="L141">
-        <v>3.5</v>
+        <v>2</v>
       </c>
       <c r="M141">
-        <v>1.333</v>
+        <v>3</v>
       </c>
       <c r="N141">
-        <v>5</v>
+        <v>3.6</v>
       </c>
       <c r="O141">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="P141">
-        <v>-1.5</v>
+        <v>0.25</v>
       </c>
       <c r="Q141">
+        <v>2</v>
+      </c>
+      <c r="R141">
         <v>1.8</v>
       </c>
-      <c r="R141">
-        <v>2</v>
-      </c>
       <c r="S141">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="T141">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="U141">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="V141">
-        <v>0.333</v>
+        <v>-1</v>
       </c>
       <c r="W141">
         <v>-1</v>
       </c>
       <c r="X141">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Y141">
+        <v>-1</v>
+      </c>
+      <c r="Z141">
         <v>0.8</v>
       </c>
-      <c r="Z141">
-        <v>-1</v>
-      </c>
       <c r="AA141">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AB141">
-        <v>0.8999999999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="142" spans="1:28">
@@ -12812,7 +12812,7 @@
         <v>140</v>
       </c>
       <c r="B142">
-        <v>7278194</v>
+        <v>7278133</v>
       </c>
       <c r="C142" t="s">
         <v>27</v>
@@ -12821,10 +12821,10 @@
         <v>45200.41666666666</v>
       </c>
       <c r="E142" t="s">
-        <v>60</v>
+        <v>37</v>
       </c>
       <c r="F142" t="s">
-        <v>77</v>
+        <v>39</v>
       </c>
       <c r="G142">
         <v>3</v>
@@ -12836,43 +12836,43 @@
         <v>99</v>
       </c>
       <c r="J142">
-        <v>1.833</v>
+        <v>1.727</v>
       </c>
       <c r="K142">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="L142">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="M142">
-        <v>1.833</v>
+        <v>1.333</v>
       </c>
       <c r="N142">
-        <v>3.8</v>
+        <v>5</v>
       </c>
       <c r="O142">
-        <v>3.25</v>
+        <v>6</v>
       </c>
       <c r="P142">
-        <v>-0.75</v>
+        <v>-1.5</v>
       </c>
       <c r="Q142">
-        <v>2.075</v>
+        <v>1.8</v>
       </c>
       <c r="R142">
-        <v>1.725</v>
+        <v>2</v>
       </c>
       <c r="S142">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="T142">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="U142">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="V142">
-        <v>0.833</v>
+        <v>0.333</v>
       </c>
       <c r="W142">
         <v>-1</v>
@@ -12881,16 +12881,16 @@
         <v>-1</v>
       </c>
       <c r="Y142">
-        <v>1.075</v>
+        <v>0.8</v>
       </c>
       <c r="Z142">
         <v>-1</v>
       </c>
       <c r="AA142">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AB142">
-        <v>0</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="143" spans="1:28">
@@ -12898,7 +12898,7 @@
         <v>141</v>
       </c>
       <c r="B143">
-        <v>7278205</v>
+        <v>7278194</v>
       </c>
       <c r="C143" t="s">
         <v>27</v>
@@ -12907,76 +12907,76 @@
         <v>45200.41666666666</v>
       </c>
       <c r="E143" t="s">
-        <v>42</v>
+        <v>60</v>
       </c>
       <c r="F143" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="G143">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H143">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I143" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="J143">
-        <v>2.25</v>
+        <v>1.833</v>
       </c>
       <c r="K143">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="L143">
-        <v>2.625</v>
+        <v>3.25</v>
       </c>
       <c r="M143">
-        <v>2.25</v>
+        <v>1.833</v>
       </c>
       <c r="N143">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="O143">
-        <v>2.625</v>
+        <v>3.25</v>
       </c>
       <c r="P143">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="Q143">
-        <v>2.05</v>
+        <v>2.075</v>
       </c>
       <c r="R143">
-        <v>1.75</v>
+        <v>1.725</v>
       </c>
       <c r="S143">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="T143">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="U143">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="V143">
-        <v>-1</v>
+        <v>0.833</v>
       </c>
       <c r="W143">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="X143">
         <v>-1</v>
       </c>
       <c r="Y143">
-        <v>-0.5</v>
+        <v>1.075</v>
       </c>
       <c r="Z143">
-        <v>0.375</v>
+        <v>-1</v>
       </c>
       <c r="AA143">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AB143">
-        <v>0.925</v>
+        <v>0</v>
       </c>
     </row>
     <row r="144" spans="1:28">
@@ -12993,10 +12993,10 @@
         <v>45200.41666666666</v>
       </c>
       <c r="E144" t="s">
+        <v>43</v>
+      </c>
+      <c r="F144" t="s">
         <v>48</v>
-      </c>
-      <c r="F144" t="s">
-        <v>44</v>
       </c>
       <c r="G144">
         <v>3</v>
@@ -13079,7 +13079,7 @@
         <v>45200.41666666666</v>
       </c>
       <c r="E145" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="F145" t="s">
         <v>71</v>
@@ -13165,7 +13165,7 @@
         <v>45200.41666666666</v>
       </c>
       <c r="E146" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F146" t="s">
         <v>63</v>
@@ -13512,7 +13512,7 @@
         <v>46</v>
       </c>
       <c r="F150" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G150">
         <v>3</v>
@@ -13684,7 +13684,7 @@
         <v>32</v>
       </c>
       <c r="F152" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="G152">
         <v>1</v>
@@ -13767,10 +13767,10 @@
         <v>45207.41666666666</v>
       </c>
       <c r="E153" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F153" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="G153">
         <v>0</v>
@@ -13856,7 +13856,7 @@
         <v>69</v>
       </c>
       <c r="F154" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="G154">
         <v>2</v>
@@ -13942,7 +13942,7 @@
         <v>35</v>
       </c>
       <c r="F155" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G155">
         <v>2</v>
@@ -14114,7 +14114,7 @@
         <v>33</v>
       </c>
       <c r="F157" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G157">
         <v>1</v>
@@ -14369,7 +14369,7 @@
         <v>45212.5</v>
       </c>
       <c r="E160" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="F160" t="s">
         <v>39</v>
@@ -14446,7 +14446,7 @@
         <v>159</v>
       </c>
       <c r="B161">
-        <v>7343962</v>
+        <v>7342647</v>
       </c>
       <c r="C161" t="s">
         <v>27</v>
@@ -14455,76 +14455,76 @@
         <v>45214.25</v>
       </c>
       <c r="E161" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="F161" t="s">
-        <v>58</v>
+        <v>72</v>
       </c>
       <c r="G161">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H161">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I161" t="s">
         <v>100</v>
       </c>
       <c r="J161">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="K161">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="L161">
-        <v>2.6</v>
+        <v>3</v>
       </c>
       <c r="M161">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="N161">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="O161">
         <v>3</v>
       </c>
       <c r="P161">
+        <v>-0.25</v>
+      </c>
+      <c r="Q161">
+        <v>1.8</v>
+      </c>
+      <c r="R161">
+        <v>2</v>
+      </c>
+      <c r="S161">
+        <v>2.75</v>
+      </c>
+      <c r="T161">
+        <v>1.8</v>
+      </c>
+      <c r="U161">
+        <v>2</v>
+      </c>
+      <c r="V161">
+        <v>-1</v>
+      </c>
+      <c r="W161">
+        <v>2.5</v>
+      </c>
+      <c r="X161">
+        <v>-1</v>
+      </c>
+      <c r="Y161">
         <v>-0.5</v>
       </c>
-      <c r="Q161">
-        <v>2</v>
-      </c>
-      <c r="R161">
-        <v>1.8</v>
-      </c>
-      <c r="S161">
-        <v>3</v>
-      </c>
-      <c r="T161">
-        <v>1.825</v>
-      </c>
-      <c r="U161">
-        <v>1.975</v>
-      </c>
-      <c r="V161">
-        <v>-1</v>
-      </c>
-      <c r="W161">
-        <v>2.75</v>
-      </c>
-      <c r="X161">
-        <v>-1</v>
-      </c>
-      <c r="Y161">
-        <v>-1</v>
-      </c>
       <c r="Z161">
+        <v>0.5</v>
+      </c>
+      <c r="AA161">
         <v>0.8</v>
       </c>
-      <c r="AA161">
-        <v>-1</v>
-      </c>
       <c r="AB161">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="162" spans="1:28">
@@ -14532,7 +14532,7 @@
         <v>160</v>
       </c>
       <c r="B162">
-        <v>7342647</v>
+        <v>7343962</v>
       </c>
       <c r="C162" t="s">
         <v>27</v>
@@ -14541,76 +14541,76 @@
         <v>45214.25</v>
       </c>
       <c r="E162" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="F162" t="s">
-        <v>72</v>
+        <v>58</v>
       </c>
       <c r="G162">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H162">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I162" t="s">
         <v>100</v>
       </c>
       <c r="J162">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="K162">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="L162">
-        <v>3</v>
+        <v>2.6</v>
       </c>
       <c r="M162">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="N162">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="O162">
         <v>3</v>
       </c>
       <c r="P162">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="Q162">
+        <v>2</v>
+      </c>
+      <c r="R162">
         <v>1.8</v>
       </c>
-      <c r="R162">
-        <v>2</v>
-      </c>
       <c r="S162">
+        <v>3</v>
+      </c>
+      <c r="T162">
+        <v>1.825</v>
+      </c>
+      <c r="U162">
+        <v>1.975</v>
+      </c>
+      <c r="V162">
+        <v>-1</v>
+      </c>
+      <c r="W162">
         <v>2.75</v>
       </c>
-      <c r="T162">
-        <v>1.8</v>
-      </c>
-      <c r="U162">
-        <v>2</v>
-      </c>
-      <c r="V162">
-        <v>-1</v>
-      </c>
-      <c r="W162">
-        <v>2.5</v>
-      </c>
       <c r="X162">
         <v>-1</v>
       </c>
       <c r="Y162">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="Z162">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="AA162">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB162">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="163" spans="1:28">
@@ -14713,7 +14713,7 @@
         <v>45214.33333333334</v>
       </c>
       <c r="E164" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F164" t="s">
         <v>77</v>
@@ -14799,7 +14799,7 @@
         <v>45214.41666666666</v>
       </c>
       <c r="E165" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="F165" t="s">
         <v>71</v>
@@ -14971,7 +14971,7 @@
         <v>45214.41666666666</v>
       </c>
       <c r="E167" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="F167" t="s">
         <v>69</v>
@@ -15143,7 +15143,7 @@
         <v>45214.41666666666</v>
       </c>
       <c r="E169" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F169" t="s">
         <v>92</v>
@@ -15315,7 +15315,7 @@
         <v>45214.41666666666</v>
       </c>
       <c r="E171" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="F171" t="s">
         <v>68</v>
@@ -15401,7 +15401,7 @@
         <v>45214.41666666666</v>
       </c>
       <c r="E172" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="F172" t="s">
         <v>73</v>
@@ -15487,7 +15487,7 @@
         <v>45214.41666666666</v>
       </c>
       <c r="E173" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F173" t="s">
         <v>61</v>
@@ -15659,10 +15659,10 @@
         <v>45214.41666666666</v>
       </c>
       <c r="E175" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="F175" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G175">
         <v>3</v>
@@ -15745,7 +15745,7 @@
         <v>45214.41666666666</v>
       </c>
       <c r="E176" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F176" t="s">
         <v>91</v>
@@ -16178,7 +16178,7 @@
         <v>30</v>
       </c>
       <c r="F181" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G181">
         <v>0</v>
@@ -16350,7 +16350,7 @@
         <v>79</v>
       </c>
       <c r="F183" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="G183">
         <v>1</v>
@@ -16519,10 +16519,10 @@
         <v>45221.33333333334</v>
       </c>
       <c r="E185" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F185" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="G185">
         <v>1</v>
@@ -16608,7 +16608,7 @@
         <v>77</v>
       </c>
       <c r="F186" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="G186">
         <v>1</v>
@@ -16694,7 +16694,7 @@
         <v>37</v>
       </c>
       <c r="F187" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="G187">
         <v>3</v>
@@ -16866,7 +16866,7 @@
         <v>72</v>
       </c>
       <c r="F189" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G189">
         <v>2</v>
@@ -17038,7 +17038,7 @@
         <v>39</v>
       </c>
       <c r="F191" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="G191">
         <v>1</v>
@@ -17124,7 +17124,7 @@
         <v>40</v>
       </c>
       <c r="F192" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="G192">
         <v>5</v>
@@ -17210,7 +17210,7 @@
         <v>35</v>
       </c>
       <c r="F193" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G193">
         <v>0</v>
@@ -17293,7 +17293,7 @@
         <v>45228.29166666666</v>
       </c>
       <c r="E194" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="F194" t="s">
         <v>39</v>
@@ -17465,7 +17465,7 @@
         <v>45228.29166666666</v>
       </c>
       <c r="E196" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F196" t="s">
         <v>33</v>
@@ -17640,7 +17640,7 @@
         <v>71</v>
       </c>
       <c r="F198" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G198">
         <v>1</v>
@@ -17809,7 +17809,7 @@
         <v>45228.375</v>
       </c>
       <c r="E200" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="F200" t="s">
         <v>35</v>
@@ -17895,7 +17895,7 @@
         <v>45228.375</v>
       </c>
       <c r="E201" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="F201" t="s">
         <v>69</v>
@@ -17981,7 +17981,7 @@
         <v>45228.375</v>
       </c>
       <c r="E202" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="F202" t="s">
         <v>68</v>
@@ -18414,7 +18414,7 @@
         <v>29</v>
       </c>
       <c r="F207" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="G207">
         <v>0</v>
@@ -18500,7 +18500,7 @@
         <v>33</v>
       </c>
       <c r="F208" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="G208">
         <v>0</v>
@@ -18586,7 +18586,7 @@
         <v>79</v>
       </c>
       <c r="F209" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="G209">
         <v>1</v>
@@ -18669,7 +18669,7 @@
         <v>45235.375</v>
       </c>
       <c r="E210" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F210" t="s">
         <v>69</v>
@@ -18758,7 +18758,7 @@
         <v>61</v>
       </c>
       <c r="F211" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G211">
         <v>1</v>
@@ -18844,7 +18844,7 @@
         <v>58</v>
       </c>
       <c r="F212" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="G212">
         <v>1</v>
@@ -18930,7 +18930,7 @@
         <v>37</v>
       </c>
       <c r="F213" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="G213">
         <v>1</v>
@@ -19102,7 +19102,7 @@
         <v>60</v>
       </c>
       <c r="F215" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G215">
         <v>1</v>
@@ -19271,7 +19271,7 @@
         <v>45242.33333333334</v>
       </c>
       <c r="E217" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="F217" t="s">
         <v>94</v>
@@ -19357,7 +19357,7 @@
         <v>45242.375</v>
       </c>
       <c r="E218" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="F218" t="s">
         <v>61</v>
@@ -19529,10 +19529,10 @@
         <v>45242.375</v>
       </c>
       <c r="E220" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="F220" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G220">
         <v>1</v>
@@ -19701,7 +19701,7 @@
         <v>45242.375</v>
       </c>
       <c r="E222" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="F222" t="s">
         <v>56</v>
@@ -19790,7 +19790,7 @@
         <v>36</v>
       </c>
       <c r="F223" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G223">
         <v>1</v>
@@ -19959,10 +19959,10 @@
         <v>45248.29166666666</v>
       </c>
       <c r="E225" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="F225" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="G225">
         <v>2</v>
@@ -20217,7 +20217,7 @@
         <v>45248.375</v>
       </c>
       <c r="E228" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="F228" t="s">
         <v>29</v>
@@ -20303,7 +20303,7 @@
         <v>45248.375</v>
       </c>
       <c r="E229" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="F229" t="s">
         <v>31</v>
@@ -20389,7 +20389,7 @@
         <v>45248.375</v>
       </c>
       <c r="E230" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F230" t="s">
         <v>68</v>
@@ -20561,7 +20561,7 @@
         <v>45248.375</v>
       </c>
       <c r="E232" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="F232" t="s">
         <v>40</v>
@@ -20647,7 +20647,7 @@
         <v>45248.375</v>
       </c>
       <c r="E233" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="F233" t="s">
         <v>57</v>
@@ -20733,7 +20733,7 @@
         <v>45248.375</v>
       </c>
       <c r="E234" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="F234" t="s">
         <v>81</v>
@@ -21163,7 +21163,7 @@
         <v>45256.29166666666</v>
       </c>
       <c r="E239" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F239" t="s">
         <v>84</v>
@@ -21510,7 +21510,7 @@
         <v>79</v>
       </c>
       <c r="F243" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G243">
         <v>3</v>
@@ -21682,7 +21682,7 @@
         <v>40</v>
       </c>
       <c r="F245" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="G245">
         <v>0</v>
@@ -22112,7 +22112,7 @@
         <v>63</v>
       </c>
       <c r="F250" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="G250">
         <v>2</v>
@@ -22281,7 +22281,7 @@
         <v>45354.29166666666</v>
       </c>
       <c r="E252" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="F252" t="s">
         <v>62</v>
@@ -22539,10 +22539,10 @@
         <v>45354.41666666666</v>
       </c>
       <c r="E255" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="F255" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G255">
         <v>1</v>
@@ -22711,10 +22711,10 @@
         <v>45354.41666666666</v>
       </c>
       <c r="E257" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F257" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="G257">
         <v>0</v>
@@ -22797,7 +22797,7 @@
         <v>45354.41666666666</v>
       </c>
       <c r="E258" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F258" t="s">
         <v>58</v>
@@ -22883,7 +22883,7 @@
         <v>45354.41666666666</v>
       </c>
       <c r="E259" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="F259" t="s">
         <v>36</v>
@@ -23055,7 +23055,7 @@
         <v>45361.29166666666</v>
       </c>
       <c r="E261" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="F261" t="s">
         <v>86</v>
@@ -23144,7 +23144,7 @@
         <v>29</v>
       </c>
       <c r="F262" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G262">
         <v>0</v>
@@ -23230,7 +23230,7 @@
         <v>31</v>
       </c>
       <c r="F263" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="G263">
         <v>1</v>
@@ -23304,7 +23304,7 @@
         <v>262</v>
       </c>
       <c r="B264">
-        <v>7939097</v>
+        <v>7938807</v>
       </c>
       <c r="C264" t="s">
         <v>27</v>
@@ -23313,19 +23313,19 @@
         <v>45361.33333333334</v>
       </c>
       <c r="E264" t="s">
-        <v>28</v>
+        <v>58</v>
       </c>
       <c r="F264" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="G264">
         <v>0</v>
       </c>
       <c r="H264">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I264" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="J264">
         <v>2.25</v>
@@ -23355,34 +23355,34 @@
         <v>1.75</v>
       </c>
       <c r="S264">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="T264">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="U264">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="V264">
         <v>-1</v>
       </c>
       <c r="W264">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="X264">
-        <v>-1</v>
+        <v>1.6</v>
       </c>
       <c r="Y264">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="Z264">
-        <v>0.375</v>
+        <v>0.75</v>
       </c>
       <c r="AA264">
         <v>-1</v>
       </c>
       <c r="AB264">
-        <v>1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="265" spans="1:28">
@@ -23390,7 +23390,7 @@
         <v>263</v>
       </c>
       <c r="B265">
-        <v>7938807</v>
+        <v>7939097</v>
       </c>
       <c r="C265" t="s">
         <v>27</v>
@@ -23399,19 +23399,19 @@
         <v>45361.33333333334</v>
       </c>
       <c r="E265" t="s">
-        <v>58</v>
+        <v>28</v>
       </c>
       <c r="F265" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="G265">
         <v>0</v>
       </c>
       <c r="H265">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I265" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="J265">
         <v>2.25</v>
@@ -23441,34 +23441,34 @@
         <v>1.75</v>
       </c>
       <c r="S265">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="T265">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="U265">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="V265">
         <v>-1</v>
       </c>
       <c r="W265">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="X265">
-        <v>1.6</v>
+        <v>-1</v>
       </c>
       <c r="Y265">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="Z265">
-        <v>0.75</v>
+        <v>0.375</v>
       </c>
       <c r="AA265">
         <v>-1</v>
       </c>
       <c r="AB265">
-        <v>0.8500000000000001</v>
+        <v>1</v>
       </c>
     </row>
     <row r="266" spans="1:28">
@@ -23488,7 +23488,7 @@
         <v>63</v>
       </c>
       <c r="F266" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="G266">
         <v>0</v>
@@ -23746,7 +23746,7 @@
         <v>42</v>
       </c>
       <c r="F269" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="G269">
         <v>0</v>
@@ -23829,7 +23829,7 @@
         <v>45361.41666666666</v>
       </c>
       <c r="E270" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="F270" t="s">
         <v>79</v>
@@ -24078,7 +24078,7 @@
         <v>271</v>
       </c>
       <c r="B273">
-        <v>7939234</v>
+        <v>7939235</v>
       </c>
       <c r="C273" t="s">
         <v>27</v>
@@ -24087,13 +24087,13 @@
         <v>45361.41666666666</v>
       </c>
       <c r="E273" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="F273" t="s">
-        <v>91</v>
+        <v>77</v>
       </c>
       <c r="G273">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H273">
         <v>1</v>
@@ -24102,43 +24102,43 @@
         <v>99</v>
       </c>
       <c r="J273">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="K273">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="L273">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="M273">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="N273">
-        <v>4</v>
+        <v>4.75</v>
       </c>
       <c r="O273">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="P273">
-        <v>-1</v>
+        <v>-1.5</v>
       </c>
       <c r="Q273">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="R273">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="S273">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="T273">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="U273">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="V273">
-        <v>0.5</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="W273">
         <v>-1</v>
@@ -24147,16 +24147,16 @@
         <v>-1</v>
       </c>
       <c r="Y273">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="Z273">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA273">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB273">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
     </row>
     <row r="274" spans="1:28">
@@ -24164,7 +24164,7 @@
         <v>272</v>
       </c>
       <c r="B274">
-        <v>7939235</v>
+        <v>7939238</v>
       </c>
       <c r="C274" t="s">
         <v>27</v>
@@ -24173,76 +24173,76 @@
         <v>45361.41666666666</v>
       </c>
       <c r="E274" t="s">
-        <v>33</v>
+        <v>61</v>
       </c>
       <c r="F274" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="G274">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H274">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I274" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="J274">
-        <v>1.4</v>
+        <v>2.25</v>
       </c>
       <c r="K274">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="L274">
-        <v>5.5</v>
+        <v>2.6</v>
       </c>
       <c r="M274">
-        <v>1.4</v>
+        <v>2.25</v>
       </c>
       <c r="N274">
-        <v>4.75</v>
+        <v>3.5</v>
       </c>
       <c r="O274">
-        <v>5.5</v>
+        <v>2.55</v>
       </c>
       <c r="P274">
-        <v>-1.5</v>
+        <v>0</v>
       </c>
       <c r="Q274">
-        <v>1.925</v>
+        <v>1.775</v>
       </c>
       <c r="R274">
-        <v>1.775</v>
+        <v>2.025</v>
       </c>
       <c r="S274">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="T274">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="U274">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="V274">
-        <v>0.3999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="W274">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="X274">
         <v>-1</v>
       </c>
       <c r="Y274">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="Z274">
-        <v>0.7749999999999999</v>
+        <v>0</v>
       </c>
       <c r="AA274">
         <v>-1</v>
       </c>
       <c r="AB274">
-        <v>0.7749999999999999</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="275" spans="1:28">
@@ -24250,7 +24250,7 @@
         <v>273</v>
       </c>
       <c r="B275">
-        <v>7939238</v>
+        <v>7939234</v>
       </c>
       <c r="C275" t="s">
         <v>27</v>
@@ -24259,76 +24259,76 @@
         <v>45361.41666666666</v>
       </c>
       <c r="E275" t="s">
-        <v>61</v>
+        <v>39</v>
       </c>
       <c r="F275" t="s">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="G275">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H275">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I275" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="J275">
-        <v>2.25</v>
+        <v>1.5</v>
       </c>
       <c r="K275">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="L275">
-        <v>2.6</v>
+        <v>5</v>
       </c>
       <c r="M275">
-        <v>2.25</v>
+        <v>1.5</v>
       </c>
       <c r="N275">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="O275">
-        <v>2.55</v>
+        <v>5</v>
       </c>
       <c r="P275">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Q275">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="R275">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="S275">
         <v>3.25</v>
       </c>
       <c r="T275">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="U275">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="V275">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="W275">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="X275">
         <v>-1</v>
       </c>
       <c r="Y275">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="Z275">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA275">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB275">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="276" spans="1:28">
@@ -24603,10 +24603,10 @@
         <v>45368.41666666666</v>
       </c>
       <c r="E279" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F279" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="G279">
         <v>0</v>
@@ -24689,7 +24689,7 @@
         <v>45368.41666666666</v>
       </c>
       <c r="E280" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="F280" t="s">
         <v>70</v>
@@ -24775,7 +24775,7 @@
         <v>45368.41666666666</v>
       </c>
       <c r="E281" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="F281" t="s">
         <v>63</v>
@@ -24947,7 +24947,7 @@
         <v>45368.41666666666</v>
       </c>
       <c r="E283" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="F283" t="s">
         <v>90</v>
@@ -25291,7 +25291,7 @@
         <v>45368.41666666666</v>
       </c>
       <c r="E287" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F287" t="s">
         <v>57</v>
@@ -25377,10 +25377,10 @@
         <v>45368.41666666666</v>
       </c>
       <c r="E288" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="F288" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="G288">
         <v>0</v>
@@ -25463,7 +25463,7 @@
         <v>45375.29166666666</v>
       </c>
       <c r="E289" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="F289" t="s">
         <v>74</v>
@@ -25552,7 +25552,7 @@
         <v>63</v>
       </c>
       <c r="F290" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="G290">
         <v>3</v>
@@ -25893,10 +25893,10 @@
         <v>45375.29166666666</v>
       </c>
       <c r="E294" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F294" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="G294">
         <v>4</v>
@@ -26323,7 +26323,7 @@
         <v>45375.41666666666</v>
       </c>
       <c r="E299" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="F299" t="s">
         <v>58</v>
@@ -26412,7 +26412,7 @@
         <v>40</v>
       </c>
       <c r="F300" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G300">
         <v>2</v>
@@ -26495,10 +26495,10 @@
         <v>45375.41666666666</v>
       </c>
       <c r="E301" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="F301" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="G301">
         <v>2</v>
@@ -26667,7 +26667,7 @@
         <v>45375.41666666666</v>
       </c>
       <c r="E303" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="F303" t="s">
         <v>83</v>
@@ -26753,7 +26753,7 @@
         <v>45375.41666666666</v>
       </c>
       <c r="E304" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F304" t="s">
         <v>84</v>
@@ -27097,7 +27097,7 @@
         <v>45382.25</v>
       </c>
       <c r="E308" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="F308" t="s">
         <v>47</v>
@@ -27616,7 +27616,7 @@
         <v>46</v>
       </c>
       <c r="F314" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="G314">
         <v>4</v>
@@ -27862,7 +27862,7 @@
         <v>315</v>
       </c>
       <c r="B317">
-        <v>8030799</v>
+        <v>8030755</v>
       </c>
       <c r="C317" t="s">
         <v>27</v>
@@ -27871,46 +27871,46 @@
         <v>45382.45833333334</v>
       </c>
       <c r="E317" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="F317" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="G317">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H317">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I317" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="J317">
-        <v>2.1</v>
+        <v>3.5</v>
       </c>
       <c r="K317">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="L317">
-        <v>2.9</v>
+        <v>1.833</v>
       </c>
       <c r="M317">
-        <v>2.1</v>
+        <v>3.5</v>
       </c>
       <c r="N317">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="O317">
-        <v>2.9</v>
+        <v>1.833</v>
       </c>
       <c r="P317">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="Q317">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="R317">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="S317">
         <v>2.75</v>
@@ -27925,16 +27925,16 @@
         <v>-1</v>
       </c>
       <c r="W317">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="X317">
-        <v>-1</v>
+        <v>0.833</v>
       </c>
       <c r="Y317">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="Z317">
-        <v>0.45</v>
+        <v>0.875</v>
       </c>
       <c r="AA317">
         <v>-1</v>
@@ -27948,7 +27948,7 @@
         <v>316</v>
       </c>
       <c r="B318">
-        <v>8030755</v>
+        <v>8030756</v>
       </c>
       <c r="C318" t="s">
         <v>27</v>
@@ -27957,76 +27957,76 @@
         <v>45382.45833333334</v>
       </c>
       <c r="E318" t="s">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="F318" t="s">
-        <v>48</v>
+        <v>65</v>
       </c>
       <c r="G318">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H318">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I318" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="J318">
-        <v>3.5</v>
+        <v>2.1</v>
       </c>
       <c r="K318">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="L318">
-        <v>1.833</v>
+        <v>2.7</v>
       </c>
       <c r="M318">
-        <v>3.5</v>
+        <v>2.25</v>
       </c>
       <c r="N318">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="O318">
-        <v>1.833</v>
+        <v>2.55</v>
       </c>
       <c r="P318">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="Q318">
-        <v>1.925</v>
+        <v>1.775</v>
       </c>
       <c r="R318">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="S318">
+        <v>3.25</v>
+      </c>
+      <c r="T318">
+        <v>1.85</v>
+      </c>
+      <c r="U318">
+        <v>1.95</v>
+      </c>
+      <c r="V318">
+        <v>-1</v>
+      </c>
+      <c r="W318">
         <v>2.75</v>
       </c>
-      <c r="T318">
-        <v>1.95</v>
-      </c>
-      <c r="U318">
-        <v>1.85</v>
-      </c>
-      <c r="V318">
-        <v>-1</v>
-      </c>
-      <c r="W318">
-        <v>-1</v>
-      </c>
       <c r="X318">
-        <v>0.833</v>
+        <v>-1</v>
       </c>
       <c r="Y318">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="Z318">
-        <v>0.875</v>
+        <v>0</v>
       </c>
       <c r="AA318">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB318">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="319" spans="1:28">
@@ -28034,7 +28034,7 @@
         <v>317</v>
       </c>
       <c r="B319">
-        <v>8030756</v>
+        <v>8030793</v>
       </c>
       <c r="C319" t="s">
         <v>27</v>
@@ -28043,46 +28043,46 @@
         <v>45382.45833333334</v>
       </c>
       <c r="E319" t="s">
-        <v>55</v>
+        <v>83</v>
       </c>
       <c r="F319" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="G319">
         <v>3</v>
       </c>
       <c r="H319">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I319" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="J319">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="K319">
         <v>3.75</v>
       </c>
       <c r="L319">
-        <v>2.7</v>
+        <v>2.625</v>
       </c>
       <c r="M319">
-        <v>2.25</v>
+        <v>2.15</v>
       </c>
       <c r="N319">
         <v>3.75</v>
       </c>
       <c r="O319">
-        <v>2.55</v>
+        <v>2.625</v>
       </c>
       <c r="P319">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="Q319">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="R319">
-        <v>2.025</v>
+        <v>1.825</v>
       </c>
       <c r="S319">
         <v>3.25</v>
@@ -28094,19 +28094,19 @@
         <v>1.95</v>
       </c>
       <c r="V319">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="W319">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="X319">
         <v>-1</v>
       </c>
       <c r="Y319">
-        <v>0</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="Z319">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA319">
         <v>0.8500000000000001</v>
@@ -28120,7 +28120,7 @@
         <v>318</v>
       </c>
       <c r="B320">
-        <v>8030793</v>
+        <v>8030696</v>
       </c>
       <c r="C320" t="s">
         <v>27</v>
@@ -28129,73 +28129,73 @@
         <v>45382.45833333334</v>
       </c>
       <c r="E320" t="s">
-        <v>83</v>
+        <v>50</v>
       </c>
       <c r="F320" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="G320">
+        <v>1</v>
+      </c>
+      <c r="H320">
         <v>3</v>
       </c>
-      <c r="H320">
-        <v>1</v>
-      </c>
       <c r="I320" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="J320">
-        <v>2.15</v>
+        <v>5.5</v>
       </c>
       <c r="K320">
-        <v>3.75</v>
+        <v>4.5</v>
       </c>
       <c r="L320">
-        <v>2.625</v>
+        <v>1.4</v>
       </c>
       <c r="M320">
-        <v>2.15</v>
+        <v>5.5</v>
       </c>
       <c r="N320">
-        <v>3.75</v>
+        <v>4.5</v>
       </c>
       <c r="O320">
-        <v>2.625</v>
+        <v>1.4</v>
       </c>
       <c r="P320">
-        <v>-0.25</v>
+        <v>1.25</v>
       </c>
       <c r="Q320">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="R320">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="S320">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="T320">
-        <v>1.85</v>
+        <v>1.75</v>
       </c>
       <c r="U320">
         <v>1.95</v>
       </c>
       <c r="V320">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="W320">
         <v>-1</v>
       </c>
       <c r="X320">
-        <v>-1</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="Y320">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z320">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA320">
-        <v>0.8500000000000001</v>
+        <v>0.75</v>
       </c>
       <c r="AB320">
         <v>-1</v>
@@ -28206,7 +28206,7 @@
         <v>319</v>
       </c>
       <c r="B321">
-        <v>8030696</v>
+        <v>8030794</v>
       </c>
       <c r="C321" t="s">
         <v>27</v>
@@ -28215,76 +28215,76 @@
         <v>45382.45833333334</v>
       </c>
       <c r="E321" t="s">
-        <v>51</v>
+        <v>84</v>
       </c>
       <c r="F321" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="G321">
         <v>1</v>
       </c>
       <c r="H321">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I321" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="J321">
         <v>5.5</v>
       </c>
       <c r="K321">
-        <v>4.5</v>
+        <v>4.2</v>
       </c>
       <c r="L321">
-        <v>1.4</v>
+        <v>1.444</v>
       </c>
       <c r="M321">
-        <v>5.5</v>
+        <v>5.75</v>
       </c>
       <c r="N321">
-        <v>4.5</v>
+        <v>4.2</v>
       </c>
       <c r="O321">
-        <v>1.4</v>
+        <v>1.444</v>
       </c>
       <c r="P321">
         <v>1.25</v>
       </c>
       <c r="Q321">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="R321">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="S321">
         <v>3</v>
       </c>
       <c r="T321">
-        <v>1.75</v>
+        <v>1.825</v>
       </c>
       <c r="U321">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="V321">
-        <v>-1</v>
+        <v>4.75</v>
       </c>
       <c r="W321">
         <v>-1</v>
       </c>
       <c r="X321">
-        <v>0.3999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Y321">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="Z321">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA321">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AB321">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="322" spans="1:28">
@@ -28292,7 +28292,7 @@
         <v>320</v>
       </c>
       <c r="B322">
-        <v>8030794</v>
+        <v>8030694</v>
       </c>
       <c r="C322" t="s">
         <v>27</v>
@@ -28301,49 +28301,49 @@
         <v>45382.45833333334</v>
       </c>
       <c r="E322" t="s">
-        <v>84</v>
+        <v>41</v>
       </c>
       <c r="F322" t="s">
-        <v>60</v>
+        <v>39</v>
       </c>
       <c r="G322">
         <v>1</v>
       </c>
       <c r="H322">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I322" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="J322">
-        <v>5.5</v>
+        <v>2.375</v>
       </c>
       <c r="K322">
-        <v>4.2</v>
+        <v>3.25</v>
       </c>
       <c r="L322">
-        <v>1.444</v>
+        <v>2.6</v>
       </c>
       <c r="M322">
-        <v>5.75</v>
+        <v>2.75</v>
       </c>
       <c r="N322">
-        <v>4.2</v>
+        <v>3.25</v>
       </c>
       <c r="O322">
-        <v>1.444</v>
+        <v>2.25</v>
       </c>
       <c r="P322">
-        <v>1.25</v>
+        <v>0.25</v>
       </c>
       <c r="Q322">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="R322">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="S322">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="T322">
         <v>1.825</v>
@@ -28352,25 +28352,25 @@
         <v>1.975</v>
       </c>
       <c r="V322">
-        <v>4.75</v>
+        <v>-1</v>
       </c>
       <c r="W322">
         <v>-1</v>
       </c>
       <c r="X322">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="Y322">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z322">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AA322">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB322">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="323" spans="1:28">
@@ -28378,7 +28378,7 @@
         <v>321</v>
       </c>
       <c r="B323">
-        <v>8030694</v>
+        <v>8030695</v>
       </c>
       <c r="C323" t="s">
         <v>27</v>
@@ -28387,55 +28387,55 @@
         <v>45382.45833333334</v>
       </c>
       <c r="E323" t="s">
-        <v>41</v>
+        <v>74</v>
       </c>
       <c r="F323" t="s">
-        <v>39</v>
+        <v>86</v>
       </c>
       <c r="G323">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H323">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I323" t="s">
         <v>98</v>
       </c>
       <c r="J323">
-        <v>2.375</v>
+        <v>3.1</v>
       </c>
       <c r="K323">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="L323">
-        <v>2.6</v>
+        <v>2</v>
       </c>
       <c r="M323">
-        <v>2.75</v>
+        <v>3.1</v>
       </c>
       <c r="N323">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="O323">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="P323">
         <v>0.25</v>
       </c>
       <c r="Q323">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="R323">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="S323">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="T323">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="U323">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="V323">
         <v>-1</v>
@@ -28444,19 +28444,19 @@
         <v>-1</v>
       </c>
       <c r="X323">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="Y323">
         <v>-1</v>
       </c>
       <c r="Z323">
-        <v>1.025</v>
+        <v>0.8</v>
       </c>
       <c r="AA323">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB323">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="324" spans="1:28">
@@ -28464,7 +28464,7 @@
         <v>322</v>
       </c>
       <c r="B324">
-        <v>8030695</v>
+        <v>8030796</v>
       </c>
       <c r="C324" t="s">
         <v>27</v>
@@ -28473,76 +28473,76 @@
         <v>45382.45833333334</v>
       </c>
       <c r="E324" t="s">
-        <v>74</v>
+        <v>44</v>
       </c>
       <c r="F324" t="s">
-        <v>86</v>
+        <v>42</v>
       </c>
       <c r="G324">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H324">
         <v>1</v>
       </c>
       <c r="I324" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="J324">
-        <v>3.1</v>
+        <v>2.25</v>
       </c>
       <c r="K324">
         <v>3.4</v>
       </c>
       <c r="L324">
-        <v>2</v>
+        <v>2.625</v>
       </c>
       <c r="M324">
-        <v>3.1</v>
+        <v>2.25</v>
       </c>
       <c r="N324">
         <v>3.4</v>
       </c>
       <c r="O324">
-        <v>2</v>
+        <v>2.625</v>
       </c>
       <c r="P324">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="Q324">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="R324">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="S324">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="T324">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="U324">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="V324">
         <v>-1</v>
       </c>
       <c r="W324">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="X324">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Y324">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="Z324">
-        <v>0.8</v>
+        <v>0.3875</v>
       </c>
       <c r="AA324">
         <v>-1</v>
       </c>
       <c r="AB324">
-        <v>0.8</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="325" spans="1:28">
@@ -28550,7 +28550,7 @@
         <v>323</v>
       </c>
       <c r="B325">
-        <v>8030796</v>
+        <v>8030799</v>
       </c>
       <c r="C325" t="s">
         <v>27</v>
@@ -28559,10 +28559,10 @@
         <v>45382.45833333334</v>
       </c>
       <c r="E325" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="F325" t="s">
-        <v>42</v>
+        <v>54</v>
       </c>
       <c r="G325">
         <v>1</v>
@@ -28574,34 +28574,34 @@
         <v>100</v>
       </c>
       <c r="J325">
-        <v>2.25</v>
+        <v>2.1</v>
       </c>
       <c r="K325">
         <v>3.4</v>
       </c>
       <c r="L325">
-        <v>2.625</v>
+        <v>2.9</v>
       </c>
       <c r="M325">
-        <v>2.25</v>
+        <v>2.1</v>
       </c>
       <c r="N325">
         <v>3.4</v>
       </c>
       <c r="O325">
-        <v>2.625</v>
+        <v>2.9</v>
       </c>
       <c r="P325">
         <v>-0.25</v>
       </c>
       <c r="Q325">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="R325">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="S325">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="T325">
         <v>1.95</v>
@@ -28622,7 +28622,7 @@
         <v>-0.5</v>
       </c>
       <c r="Z325">
-        <v>0.3875</v>
+        <v>0.45</v>
       </c>
       <c r="AA325">
         <v>-1</v>
@@ -28731,7 +28731,7 @@
         <v>45389.25</v>
       </c>
       <c r="E327" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="F327" t="s">
         <v>89</v>
@@ -28817,7 +28817,7 @@
         <v>45389.25</v>
       </c>
       <c r="E328" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="F328" t="s">
         <v>46</v>
@@ -29078,7 +29078,7 @@
         <v>31</v>
       </c>
       <c r="F331" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G331">
         <v>2</v>
@@ -29247,7 +29247,7 @@
         <v>45389.375</v>
       </c>
       <c r="E333" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F333" t="s">
         <v>76</v>
@@ -29333,7 +29333,7 @@
         <v>45389.45833333334</v>
       </c>
       <c r="E334" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="F334" t="s">
         <v>29</v>
@@ -29419,7 +29419,7 @@
         <v>45389.45833333334</v>
       </c>
       <c r="E335" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="F335" t="s">
         <v>55</v>
@@ -29591,7 +29591,7 @@
         <v>45389.45833333334</v>
       </c>
       <c r="E337" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="F337" t="s">
         <v>78</v>
@@ -29763,10 +29763,10 @@
         <v>45389.45833333334</v>
       </c>
       <c r="E339" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="F339" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="G339">
         <v>0</v>
@@ -29935,7 +29935,7 @@
         <v>45389.45833333334</v>
       </c>
       <c r="E341" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="F341" t="s">
         <v>71</v>
@@ -30110,7 +30110,7 @@
         <v>63</v>
       </c>
       <c r="F343" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G343">
         <v>5</v>
@@ -30270,7 +30270,7 @@
         <v>343</v>
       </c>
       <c r="B345">
-        <v>8092535</v>
+        <v>8092705</v>
       </c>
       <c r="C345" t="s">
         <v>27</v>
@@ -30279,76 +30279,76 @@
         <v>45396.25</v>
       </c>
       <c r="E345" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F345" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="G345">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H345">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I345" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="J345">
-        <v>2.5</v>
+        <v>1.727</v>
       </c>
       <c r="K345">
         <v>3.6</v>
       </c>
       <c r="L345">
-        <v>2.3</v>
+        <v>4</v>
       </c>
       <c r="M345">
-        <v>2.5</v>
+        <v>1.727</v>
       </c>
       <c r="N345">
         <v>3.6</v>
       </c>
       <c r="O345">
-        <v>2.3</v>
+        <v>4</v>
       </c>
       <c r="P345">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="Q345">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="R345">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="S345">
         <v>2.75</v>
       </c>
       <c r="T345">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="U345">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="V345">
-        <v>-1</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="W345">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="X345">
         <v>-1</v>
       </c>
       <c r="Y345">
-        <v>0</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="Z345">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA345">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB345">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="346" spans="1:28">
@@ -30356,7 +30356,7 @@
         <v>344</v>
       </c>
       <c r="B346">
-        <v>8092703</v>
+        <v>8092798</v>
       </c>
       <c r="C346" t="s">
         <v>27</v>
@@ -30365,58 +30365,58 @@
         <v>45396.25</v>
       </c>
       <c r="E346" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="F346" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="G346">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H346">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I346" t="s">
         <v>99</v>
       </c>
       <c r="J346">
-        <v>2.1</v>
+        <v>1.571</v>
       </c>
       <c r="K346">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="L346">
-        <v>2.8</v>
+        <v>4.75</v>
       </c>
       <c r="M346">
-        <v>2.1</v>
+        <v>1.571</v>
       </c>
       <c r="N346">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="O346">
-        <v>2.8</v>
+        <v>4.75</v>
       </c>
       <c r="P346">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="Q346">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="R346">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="S346">
         <v>2.75</v>
       </c>
       <c r="T346">
+        <v>1.75</v>
+      </c>
+      <c r="U346">
         <v>1.95</v>
       </c>
-      <c r="U346">
-        <v>1.85</v>
-      </c>
       <c r="V346">
-        <v>1.1</v>
+        <v>0.571</v>
       </c>
       <c r="W346">
         <v>-1</v>
@@ -30425,13 +30425,13 @@
         <v>-1</v>
       </c>
       <c r="Y346">
-        <v>0.8999999999999999</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="Z346">
         <v>-1</v>
       </c>
       <c r="AA346">
-        <v>0.475</v>
+        <v>0.375</v>
       </c>
       <c r="AB346">
         <v>-0.5</v>
@@ -30442,7 +30442,7 @@
         <v>345</v>
       </c>
       <c r="B347">
-        <v>8092705</v>
+        <v>8092801</v>
       </c>
       <c r="C347" t="s">
         <v>27</v>
@@ -30451,40 +30451,40 @@
         <v>45396.25</v>
       </c>
       <c r="E347" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="F347" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="G347">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H347">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I347" t="s">
         <v>99</v>
       </c>
       <c r="J347">
-        <v>1.727</v>
+        <v>2.15</v>
       </c>
       <c r="K347">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="L347">
-        <v>4</v>
+        <v>2.625</v>
       </c>
       <c r="M347">
-        <v>1.727</v>
+        <v>2.15</v>
       </c>
       <c r="N347">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="O347">
-        <v>4</v>
+        <v>2.625</v>
       </c>
       <c r="P347">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="Q347">
         <v>1.975</v>
@@ -30493,16 +30493,16 @@
         <v>1.825</v>
       </c>
       <c r="S347">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="T347">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="U347">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="V347">
-        <v>0.7270000000000001</v>
+        <v>1.15</v>
       </c>
       <c r="W347">
         <v>-1</v>
@@ -30517,10 +30517,10 @@
         <v>-1</v>
       </c>
       <c r="AA347">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB347">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="348" spans="1:28">
@@ -30528,7 +30528,7 @@
         <v>346</v>
       </c>
       <c r="B348">
-        <v>8092798</v>
+        <v>8092535</v>
       </c>
       <c r="C348" t="s">
         <v>27</v>
@@ -30537,76 +30537,76 @@
         <v>45396.25</v>
       </c>
       <c r="E348" t="s">
-        <v>73</v>
+        <v>30</v>
       </c>
       <c r="F348" t="s">
-        <v>36</v>
+        <v>64</v>
       </c>
       <c r="G348">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H348">
         <v>0</v>
       </c>
       <c r="I348" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="J348">
-        <v>1.571</v>
+        <v>2.5</v>
       </c>
       <c r="K348">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="L348">
-        <v>4.75</v>
+        <v>2.3</v>
       </c>
       <c r="M348">
-        <v>1.571</v>
+        <v>2.5</v>
       </c>
       <c r="N348">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="O348">
-        <v>4.75</v>
+        <v>2.3</v>
       </c>
       <c r="P348">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="Q348">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="R348">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="S348">
         <v>2.75</v>
       </c>
       <c r="T348">
-        <v>1.75</v>
+        <v>1.925</v>
       </c>
       <c r="U348">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="V348">
-        <v>0.571</v>
+        <v>-1</v>
       </c>
       <c r="W348">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="X348">
         <v>-1</v>
       </c>
       <c r="Y348">
-        <v>0.9750000000000001</v>
+        <v>0</v>
       </c>
       <c r="Z348">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA348">
-        <v>0.375</v>
+        <v>-1</v>
       </c>
       <c r="AB348">
-        <v>-0.5</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="349" spans="1:28">
@@ -30614,7 +30614,7 @@
         <v>347</v>
       </c>
       <c r="B349">
-        <v>8092801</v>
+        <v>8092703</v>
       </c>
       <c r="C349" t="s">
         <v>27</v>
@@ -30623,58 +30623,58 @@
         <v>45396.25</v>
       </c>
       <c r="E349" t="s">
-        <v>32</v>
+        <v>68</v>
       </c>
       <c r="F349" t="s">
-        <v>64</v>
+        <v>31</v>
       </c>
       <c r="G349">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H349">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I349" t="s">
         <v>99</v>
       </c>
       <c r="J349">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="K349">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="L349">
-        <v>2.625</v>
+        <v>2.8</v>
       </c>
       <c r="M349">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="N349">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="O349">
-        <v>2.625</v>
+        <v>2.8</v>
       </c>
       <c r="P349">
         <v>-0.25</v>
       </c>
       <c r="Q349">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="R349">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="S349">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="T349">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="U349">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="V349">
-        <v>1.15</v>
+        <v>1.1</v>
       </c>
       <c r="W349">
         <v>-1</v>
@@ -30683,16 +30683,16 @@
         <v>-1</v>
       </c>
       <c r="Y349">
-        <v>0.9750000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="Z349">
         <v>-1</v>
       </c>
       <c r="AA349">
-        <v>-1</v>
+        <v>0.475</v>
       </c>
       <c r="AB349">
-        <v>0.925</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="350" spans="1:28">
@@ -30786,7 +30786,7 @@
         <v>349</v>
       </c>
       <c r="B351">
-        <v>8092536</v>
+        <v>8092707</v>
       </c>
       <c r="C351" t="s">
         <v>27</v>
@@ -30795,76 +30795,76 @@
         <v>45396.45833333334</v>
       </c>
       <c r="E351" t="s">
-        <v>33</v>
+        <v>48</v>
       </c>
       <c r="F351" t="s">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="G351">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H351">
         <v>0</v>
       </c>
       <c r="I351" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="J351">
-        <v>1.615</v>
+        <v>2.1</v>
       </c>
       <c r="K351">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="L351">
-        <v>4.333</v>
+        <v>2.875</v>
       </c>
       <c r="M351">
-        <v>1.615</v>
+        <v>2.1</v>
       </c>
       <c r="N351">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="O351">
-        <v>4.2</v>
+        <v>2.875</v>
       </c>
       <c r="P351">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="Q351">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="R351">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="S351">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="T351">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="U351">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="V351">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="W351">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="X351">
         <v>-1</v>
       </c>
       <c r="Y351">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="Z351">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA351">
         <v>-1</v>
       </c>
       <c r="AB351">
-        <v>0.925</v>
+        <v>1</v>
       </c>
     </row>
     <row r="352" spans="1:28">
@@ -30872,7 +30872,7 @@
         <v>350</v>
       </c>
       <c r="B352">
-        <v>8092707</v>
+        <v>8092706</v>
       </c>
       <c r="C352" t="s">
         <v>27</v>
@@ -30881,76 +30881,76 @@
         <v>45396.45833333334</v>
       </c>
       <c r="E352" t="s">
-        <v>44</v>
+        <v>71</v>
       </c>
       <c r="F352" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G352">
         <v>1</v>
       </c>
       <c r="H352">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I352" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="J352">
-        <v>2.1</v>
+        <v>6</v>
       </c>
       <c r="K352">
-        <v>3.5</v>
+        <v>4.333</v>
       </c>
       <c r="L352">
-        <v>2.875</v>
+        <v>1.4</v>
       </c>
       <c r="M352">
-        <v>2.1</v>
+        <v>6.5</v>
       </c>
       <c r="N352">
-        <v>3.5</v>
+        <v>4.333</v>
       </c>
       <c r="O352">
-        <v>2.875</v>
+        <v>1.4</v>
       </c>
       <c r="P352">
-        <v>-0.25</v>
+        <v>1.5</v>
       </c>
       <c r="Q352">
-        <v>1.925</v>
+        <v>1.775</v>
       </c>
       <c r="R352">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="S352">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="T352">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="U352">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="V352">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="W352">
         <v>-1</v>
       </c>
       <c r="X352">
-        <v>-1</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="Y352">
-        <v>0.925</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="Z352">
         <v>-1</v>
       </c>
       <c r="AA352">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AB352">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="353" spans="1:28">
@@ -30958,7 +30958,7 @@
         <v>351</v>
       </c>
       <c r="B353">
-        <v>8092706</v>
+        <v>8092704</v>
       </c>
       <c r="C353" t="s">
         <v>27</v>
@@ -30967,76 +30967,76 @@
         <v>45396.45833333334</v>
       </c>
       <c r="E353" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="F353" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="G353">
         <v>1</v>
       </c>
       <c r="H353">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I353" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="J353">
-        <v>6</v>
+        <v>1.727</v>
       </c>
       <c r="K353">
-        <v>4.333</v>
+        <v>3.6</v>
       </c>
       <c r="L353">
-        <v>1.4</v>
+        <v>4</v>
       </c>
       <c r="M353">
-        <v>6.5</v>
+        <v>1.727</v>
       </c>
       <c r="N353">
-        <v>4.333</v>
+        <v>3.6</v>
       </c>
       <c r="O353">
-        <v>1.4</v>
+        <v>4</v>
       </c>
       <c r="P353">
-        <v>1.5</v>
+        <v>-0.75</v>
       </c>
       <c r="Q353">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="R353">
-        <v>2.025</v>
+        <v>1.825</v>
       </c>
       <c r="S353">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="T353">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="U353">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V353">
         <v>-1</v>
       </c>
       <c r="W353">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="X353">
-        <v>0.3999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Y353">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z353">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA353">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AB353">
-        <v>0</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="354" spans="1:28">
@@ -31044,7 +31044,7 @@
         <v>352</v>
       </c>
       <c r="B354">
-        <v>8092704</v>
+        <v>8092536</v>
       </c>
       <c r="C354" t="s">
         <v>27</v>
@@ -31053,61 +31053,61 @@
         <v>45396.45833333334</v>
       </c>
       <c r="E354" t="s">
-        <v>79</v>
+        <v>33</v>
       </c>
       <c r="F354" t="s">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="G354">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H354">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I354" t="s">
         <v>100</v>
       </c>
       <c r="J354">
-        <v>1.727</v>
+        <v>1.615</v>
       </c>
       <c r="K354">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="L354">
-        <v>4</v>
+        <v>4.333</v>
       </c>
       <c r="M354">
-        <v>1.727</v>
+        <v>1.615</v>
       </c>
       <c r="N354">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="O354">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="P354">
         <v>-0.75</v>
       </c>
       <c r="Q354">
+        <v>1.825</v>
+      </c>
+      <c r="R354">
         <v>1.975</v>
-      </c>
-      <c r="R354">
-        <v>1.825</v>
       </c>
       <c r="S354">
         <v>2.75</v>
       </c>
       <c r="T354">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="U354">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="V354">
         <v>-1</v>
       </c>
       <c r="W354">
-        <v>2.6</v>
+        <v>2.8</v>
       </c>
       <c r="X354">
         <v>-1</v>
@@ -31116,13 +31116,13 @@
         <v>-1</v>
       </c>
       <c r="Z354">
-        <v>0.825</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA354">
         <v>-1</v>
       </c>
       <c r="AB354">
-        <v>0.825</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="355" spans="1:28">
@@ -31130,7 +31130,7 @@
         <v>353</v>
       </c>
       <c r="B355">
-        <v>8092799</v>
+        <v>8092800</v>
       </c>
       <c r="C355" t="s">
         <v>27</v>
@@ -31139,76 +31139,76 @@
         <v>45396.45833333334</v>
       </c>
       <c r="E355" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="F355" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="G355">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H355">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I355" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="J355">
-        <v>8</v>
+        <v>1.363</v>
       </c>
       <c r="K355">
+        <v>4.333</v>
+      </c>
+      <c r="L355">
         <v>6.5</v>
       </c>
-      <c r="L355">
-        <v>1.2</v>
-      </c>
       <c r="M355">
-        <v>7</v>
+        <v>1.363</v>
       </c>
       <c r="N355">
+        <v>4.5</v>
+      </c>
+      <c r="O355">
         <v>6</v>
       </c>
-      <c r="O355">
-        <v>1.25</v>
-      </c>
       <c r="P355">
-        <v>1.75</v>
+        <v>-1.5</v>
       </c>
       <c r="Q355">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="R355">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="S355">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="T355">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="U355">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="V355">
-        <v>-1</v>
+        <v>0.363</v>
       </c>
       <c r="W355">
         <v>-1</v>
       </c>
       <c r="X355">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="Y355">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="Z355">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA355">
-        <v>0</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB355">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="356" spans="1:28">
@@ -31216,7 +31216,7 @@
         <v>354</v>
       </c>
       <c r="B356">
-        <v>8092800</v>
+        <v>8092799</v>
       </c>
       <c r="C356" t="s">
         <v>27</v>
@@ -31225,76 +31225,76 @@
         <v>45396.45833333334</v>
       </c>
       <c r="E356" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="F356" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="G356">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H356">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I356" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="J356">
-        <v>1.363</v>
+        <v>8</v>
       </c>
       <c r="K356">
-        <v>4.333</v>
+        <v>6.5</v>
       </c>
       <c r="L356">
-        <v>6.5</v>
+        <v>1.2</v>
       </c>
       <c r="M356">
-        <v>1.363</v>
+        <v>7</v>
       </c>
       <c r="N356">
-        <v>4.5</v>
+        <v>6</v>
       </c>
       <c r="O356">
-        <v>6</v>
+        <v>1.25</v>
       </c>
       <c r="P356">
-        <v>-1.5</v>
+        <v>1.75</v>
       </c>
       <c r="Q356">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="R356">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="S356">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="T356">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="U356">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="V356">
-        <v>0.363</v>
+        <v>-1</v>
       </c>
       <c r="W356">
         <v>-1</v>
       </c>
       <c r="X356">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="Y356">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="Z356">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA356">
-        <v>0.7749999999999999</v>
+        <v>0</v>
       </c>
       <c r="AB356">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="357" spans="1:28">
@@ -31388,7 +31388,7 @@
         <v>356</v>
       </c>
       <c r="B358">
-        <v>8122817</v>
+        <v>8125894</v>
       </c>
       <c r="C358" t="s">
         <v>27</v>
@@ -31397,76 +31397,76 @@
         <v>45403.25</v>
       </c>
       <c r="E358" t="s">
-        <v>53</v>
+        <v>66</v>
       </c>
       <c r="F358" t="s">
-        <v>82</v>
+        <v>41</v>
       </c>
       <c r="G358">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H358">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I358" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="J358">
-        <v>1.727</v>
+        <v>2.9</v>
       </c>
       <c r="K358">
         <v>3.5</v>
       </c>
       <c r="L358">
-        <v>4</v>
+        <v>2.1</v>
       </c>
       <c r="M358">
-        <v>1.727</v>
+        <v>2.9</v>
       </c>
       <c r="N358">
         <v>3.5</v>
       </c>
       <c r="O358">
-        <v>4</v>
+        <v>2.1</v>
       </c>
       <c r="P358">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="Q358">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="R358">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="S358">
         <v>2.75</v>
       </c>
       <c r="T358">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="U358">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="V358">
-        <v>-1</v>
+        <v>1.9</v>
       </c>
       <c r="W358">
         <v>-1</v>
       </c>
       <c r="X358">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y358">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="Z358">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA358">
-        <v>-1</v>
+        <v>0.4</v>
       </c>
       <c r="AB358">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="359" spans="1:28">
@@ -31474,7 +31474,7 @@
         <v>357</v>
       </c>
       <c r="B359">
-        <v>8125894</v>
+        <v>8122882</v>
       </c>
       <c r="C359" t="s">
         <v>27</v>
@@ -31483,13 +31483,13 @@
         <v>45403.25</v>
       </c>
       <c r="E359" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F359" t="s">
-        <v>41</v>
+        <v>68</v>
       </c>
       <c r="G359">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H359">
         <v>0</v>
@@ -31498,43 +31498,43 @@
         <v>99</v>
       </c>
       <c r="J359">
-        <v>2.9</v>
+        <v>2</v>
       </c>
       <c r="K359">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="L359">
-        <v>2.1</v>
+        <v>3.1</v>
       </c>
       <c r="M359">
-        <v>2.9</v>
+        <v>2</v>
       </c>
       <c r="N359">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="O359">
-        <v>2.1</v>
+        <v>3.1</v>
       </c>
       <c r="P359">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="Q359">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="R359">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="S359">
         <v>2.75</v>
       </c>
       <c r="T359">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="U359">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="V359">
-        <v>1.9</v>
+        <v>1</v>
       </c>
       <c r="W359">
         <v>-1</v>
@@ -31543,16 +31543,16 @@
         <v>-1</v>
       </c>
       <c r="Y359">
-        <v>0.8999999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="Z359">
         <v>-1</v>
       </c>
       <c r="AA359">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
       <c r="AB359">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="360" spans="1:28">
@@ -31560,7 +31560,7 @@
         <v>358</v>
       </c>
       <c r="B360">
-        <v>8122882</v>
+        <v>8122879</v>
       </c>
       <c r="C360" t="s">
         <v>27</v>
@@ -31569,76 +31569,76 @@
         <v>45403.25</v>
       </c>
       <c r="E360" t="s">
-        <v>63</v>
+        <v>31</v>
       </c>
       <c r="F360" t="s">
-        <v>68</v>
+        <v>79</v>
       </c>
       <c r="G360">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H360">
         <v>0</v>
       </c>
       <c r="I360" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="J360">
-        <v>2</v>
+        <v>2.4</v>
       </c>
       <c r="K360">
         <v>3.4</v>
       </c>
       <c r="L360">
-        <v>3.1</v>
+        <v>2.5</v>
       </c>
       <c r="M360">
-        <v>2</v>
+        <v>2.4</v>
       </c>
       <c r="N360">
         <v>3.4</v>
       </c>
       <c r="O360">
-        <v>3.1</v>
+        <v>2.5</v>
       </c>
       <c r="P360">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="Q360">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="R360">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="S360">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="T360">
-        <v>1.75</v>
+        <v>1.9</v>
       </c>
       <c r="U360">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="V360">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="W360">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="X360">
         <v>-1</v>
       </c>
       <c r="Y360">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="Z360">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA360">
         <v>-1</v>
       </c>
       <c r="AB360">
-        <v>0.95</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="361" spans="1:28">
@@ -31646,7 +31646,7 @@
         <v>359</v>
       </c>
       <c r="B361">
-        <v>8122879</v>
+        <v>8122893</v>
       </c>
       <c r="C361" t="s">
         <v>27</v>
@@ -31655,76 +31655,76 @@
         <v>45403.25</v>
       </c>
       <c r="E361" t="s">
-        <v>31</v>
+        <v>53</v>
       </c>
       <c r="F361" t="s">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="G361">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H361">
         <v>0</v>
       </c>
       <c r="I361" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="J361">
-        <v>2.4</v>
+        <v>1.909</v>
       </c>
       <c r="K361">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="L361">
-        <v>2.5</v>
+        <v>3.6</v>
       </c>
       <c r="M361">
-        <v>2.4</v>
+        <v>1.909</v>
       </c>
       <c r="N361">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="O361">
-        <v>2.5</v>
+        <v>3.6</v>
       </c>
       <c r="P361">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="Q361">
+        <v>1.95</v>
+      </c>
+      <c r="R361">
         <v>1.85</v>
       </c>
-      <c r="R361">
+      <c r="S361">
+        <v>3</v>
+      </c>
+      <c r="T361">
         <v>1.95</v>
       </c>
-      <c r="S361">
-        <v>2.5</v>
-      </c>
-      <c r="T361">
-        <v>1.9</v>
-      </c>
       <c r="U361">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="V361">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="W361">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="X361">
         <v>-1</v>
       </c>
       <c r="Y361">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="Z361">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA361">
         <v>-1</v>
       </c>
       <c r="AB361">
-        <v>0.8999999999999999</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="362" spans="1:28">
@@ -31732,7 +31732,7 @@
         <v>360</v>
       </c>
       <c r="B362">
-        <v>8122893</v>
+        <v>8122817</v>
       </c>
       <c r="C362" t="s">
         <v>27</v>
@@ -31741,40 +31741,40 @@
         <v>45403.25</v>
       </c>
       <c r="E362" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="F362" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="G362">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H362">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I362" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="J362">
-        <v>1.909</v>
+        <v>1.727</v>
       </c>
       <c r="K362">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="L362">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="M362">
-        <v>1.909</v>
+        <v>1.727</v>
       </c>
       <c r="N362">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="O362">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="P362">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="Q362">
         <v>1.95</v>
@@ -31783,34 +31783,34 @@
         <v>1.85</v>
       </c>
       <c r="S362">
+        <v>2.75</v>
+      </c>
+      <c r="T362">
+        <v>1.85</v>
+      </c>
+      <c r="U362">
+        <v>1.95</v>
+      </c>
+      <c r="V362">
+        <v>-1</v>
+      </c>
+      <c r="W362">
+        <v>-1</v>
+      </c>
+      <c r="X362">
         <v>3</v>
       </c>
-      <c r="T362">
-        <v>1.95</v>
-      </c>
-      <c r="U362">
-        <v>1.85</v>
-      </c>
-      <c r="V362">
-        <v>0.909</v>
-      </c>
-      <c r="W362">
-        <v>-1</v>
-      </c>
-      <c r="X362">
-        <v>-1</v>
-      </c>
       <c r="Y362">
+        <v>-1</v>
+      </c>
+      <c r="Z362">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="AA362">
+        <v>-1</v>
+      </c>
+      <c r="AB362">
         <v>0.95</v>
-      </c>
-      <c r="Z362">
-        <v>-1</v>
-      </c>
-      <c r="AA362">
-        <v>-1</v>
-      </c>
-      <c r="AB362">
-        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="363" spans="1:28">
@@ -31827,7 +31827,7 @@
         <v>45403.5</v>
       </c>
       <c r="E363" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="F363" t="s">
         <v>80</v>
@@ -32085,10 +32085,10 @@
         <v>45403.5</v>
       </c>
       <c r="E366" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="F366" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G366">
         <v>4</v>
@@ -32343,7 +32343,7 @@
         <v>45403.5</v>
       </c>
       <c r="E369" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="F369" t="s">
         <v>57</v>
@@ -32687,7 +32687,7 @@
         <v>45403.5</v>
       </c>
       <c r="E373" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="F373" t="s">
         <v>84</v>
@@ -32776,7 +32776,7 @@
         <v>82</v>
       </c>
       <c r="F374" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="G374">
         <v>0</v>
@@ -33022,7 +33022,7 @@
         <v>375</v>
       </c>
       <c r="B377">
-        <v>8152187</v>
+        <v>8152186</v>
       </c>
       <c r="C377" t="s">
         <v>27</v>
@@ -33031,76 +33031,76 @@
         <v>45410.25</v>
       </c>
       <c r="E377" t="s">
-        <v>57</v>
+        <v>30</v>
       </c>
       <c r="F377" t="s">
-        <v>40</v>
+        <v>90</v>
       </c>
       <c r="G377">
         <v>1</v>
       </c>
       <c r="H377">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I377" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="J377">
-        <v>2.375</v>
+        <v>1.5</v>
       </c>
       <c r="K377">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="L377">
+        <v>5.5</v>
+      </c>
+      <c r="M377">
+        <v>1.5</v>
+      </c>
+      <c r="N377">
+        <v>3.75</v>
+      </c>
+      <c r="O377">
+        <v>5.5</v>
+      </c>
+      <c r="P377">
+        <v>-1</v>
+      </c>
+      <c r="Q377">
+        <v>1.85</v>
+      </c>
+      <c r="R377">
+        <v>1.95</v>
+      </c>
+      <c r="S377">
         <v>2.5</v>
       </c>
-      <c r="M377">
-        <v>2.375</v>
-      </c>
-      <c r="N377">
-        <v>3.4</v>
-      </c>
-      <c r="O377">
-        <v>2.5</v>
-      </c>
-      <c r="P377">
-        <v>0</v>
-      </c>
-      <c r="Q377">
-        <v>1.825</v>
-      </c>
-      <c r="R377">
-        <v>1.975</v>
-      </c>
-      <c r="S377">
-        <v>2.75</v>
-      </c>
       <c r="T377">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="U377">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="V377">
         <v>-1</v>
       </c>
       <c r="W377">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="X377">
-        <v>-1</v>
+        <v>4.5</v>
       </c>
       <c r="Y377">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z377">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="AA377">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB377">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="378" spans="1:28">
@@ -33108,7 +33108,7 @@
         <v>376</v>
       </c>
       <c r="B378">
-        <v>8152186</v>
+        <v>8152245</v>
       </c>
       <c r="C378" t="s">
         <v>27</v>
@@ -33117,76 +33117,76 @@
         <v>45410.25</v>
       </c>
       <c r="E378" t="s">
-        <v>30</v>
+        <v>73</v>
       </c>
       <c r="F378" t="s">
-        <v>90</v>
+        <v>51</v>
       </c>
       <c r="G378">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H378">
+        <v>1</v>
+      </c>
+      <c r="I378" t="s">
+        <v>99</v>
+      </c>
+      <c r="J378">
+        <v>1.727</v>
+      </c>
+      <c r="K378">
+        <v>3.5</v>
+      </c>
+      <c r="L378">
         <v>4</v>
       </c>
-      <c r="I378" t="s">
-        <v>98</v>
-      </c>
-      <c r="J378">
-        <v>1.5</v>
-      </c>
-      <c r="K378">
-        <v>3.75</v>
-      </c>
-      <c r="L378">
-        <v>5.5</v>
-      </c>
       <c r="M378">
-        <v>1.5</v>
+        <v>1.727</v>
       </c>
       <c r="N378">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="O378">
-        <v>5.5</v>
+        <v>4</v>
       </c>
       <c r="P378">
-        <v>-1</v>
+        <v>-0.75</v>
       </c>
       <c r="Q378">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="R378">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="S378">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="T378">
+        <v>1.925</v>
+      </c>
+      <c r="U378">
         <v>1.875</v>
       </c>
-      <c r="U378">
-        <v>1.925</v>
-      </c>
       <c r="V378">
-        <v>-1</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="W378">
         <v>-1</v>
       </c>
       <c r="X378">
-        <v>4.5</v>
+        <v>-1</v>
       </c>
       <c r="Y378">
-        <v>-1</v>
+        <v>0.4875</v>
       </c>
       <c r="Z378">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
       <c r="AA378">
-        <v>0.875</v>
+        <v>0.4625</v>
       </c>
       <c r="AB378">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="379" spans="1:28">
@@ -33194,7 +33194,7 @@
         <v>377</v>
       </c>
       <c r="B379">
-        <v>8152245</v>
+        <v>8152206</v>
       </c>
       <c r="C379" t="s">
         <v>27</v>
@@ -33203,76 +33203,76 @@
         <v>45410.25</v>
       </c>
       <c r="E379" t="s">
-        <v>73</v>
+        <v>32</v>
       </c>
       <c r="F379" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G379">
         <v>2</v>
       </c>
       <c r="H379">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I379" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="J379">
-        <v>1.727</v>
+        <v>2</v>
       </c>
       <c r="K379">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="L379">
-        <v>4</v>
+        <v>3.1</v>
       </c>
       <c r="M379">
-        <v>1.727</v>
+        <v>2</v>
       </c>
       <c r="N379">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="O379">
-        <v>4</v>
+        <v>3.1</v>
       </c>
       <c r="P379">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="Q379">
-        <v>1.975</v>
+        <v>2.05</v>
       </c>
       <c r="R379">
-        <v>1.825</v>
+        <v>1.75</v>
       </c>
       <c r="S379">
         <v>2.75</v>
       </c>
       <c r="T379">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="U379">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="V379">
-        <v>0.7270000000000001</v>
+        <v>-1</v>
       </c>
       <c r="W379">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="X379">
         <v>-1</v>
       </c>
       <c r="Y379">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
       <c r="Z379">
-        <v>-0.5</v>
+        <v>0.75</v>
       </c>
       <c r="AA379">
-        <v>0.4625</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB379">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="380" spans="1:28">
@@ -33280,7 +33280,7 @@
         <v>378</v>
       </c>
       <c r="B380">
-        <v>8152206</v>
+        <v>8152187</v>
       </c>
       <c r="C380" t="s">
         <v>27</v>
@@ -33289,46 +33289,46 @@
         <v>45410.25</v>
       </c>
       <c r="E380" t="s">
-        <v>32</v>
+        <v>57</v>
       </c>
       <c r="F380" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="G380">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H380">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I380" t="s">
         <v>100</v>
       </c>
       <c r="J380">
-        <v>2</v>
+        <v>2.375</v>
       </c>
       <c r="K380">
         <v>3.4</v>
       </c>
       <c r="L380">
-        <v>3.1</v>
+        <v>2.5</v>
       </c>
       <c r="M380">
-        <v>2</v>
+        <v>2.375</v>
       </c>
       <c r="N380">
         <v>3.4</v>
       </c>
       <c r="O380">
-        <v>3.1</v>
+        <v>2.5</v>
       </c>
       <c r="P380">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="Q380">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="R380">
-        <v>1.75</v>
+        <v>1.975</v>
       </c>
       <c r="S380">
         <v>2.75</v>
@@ -33349,16 +33349,16 @@
         <v>-1</v>
       </c>
       <c r="Y380">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="Z380">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="AA380">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB380">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="381" spans="1:28">
@@ -33378,7 +33378,7 @@
         <v>41</v>
       </c>
       <c r="F381" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="G381">
         <v>1</v>
@@ -33550,7 +33550,7 @@
         <v>39</v>
       </c>
       <c r="F383" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="G383">
         <v>4</v>
@@ -33636,7 +33636,7 @@
         <v>69</v>
       </c>
       <c r="F384" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="G384">
         <v>3</v>
@@ -33719,10 +33719,10 @@
         <v>45410.5</v>
       </c>
       <c r="E385" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F385" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="G385">
         <v>2</v>

--- a/Hungary NB III/Hungary NB III.xlsx
+++ b/Hungary NB III/Hungary NB III.xlsx
@@ -160,16 +160,16 @@
     <t>Debreceni II</t>
   </si>
   <si>
+    <t>FC Tiszaujvaros</t>
+  </si>
+  <si>
     <t>Cegledi VSE</t>
   </si>
   <si>
-    <t>PEAC FC</t>
+    <t>Kecskemeti TE II</t>
   </si>
   <si>
-    <t>FC Tiszaujvaros</t>
-  </si>
-  <si>
-    <t>Kecskemeti TE II</t>
+    <t>PEAC FC</t>
   </si>
   <si>
     <t>Monori SE</t>
@@ -796,7 +796,7 @@
         <v>30</v>
       </c>
       <c r="F2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G2">
         <v>1</v>
@@ -1716,7 +1716,7 @@
         <v>40</v>
       </c>
       <c r="F12" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G12">
         <v>2</v>
@@ -2440,7 +2440,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>7005844</v>
+        <v>7005762</v>
       </c>
       <c r="C20" t="s">
         <v>29</v>
@@ -2452,70 +2452,70 @@
         <v>48</v>
       </c>
       <c r="F20" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="G20">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="L20">
-        <v>6</v>
+        <v>2.25</v>
       </c>
       <c r="M20">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="N20">
-        <v>1.4</v>
+        <v>2.4</v>
       </c>
       <c r="O20">
-        <v>6</v>
+        <v>2.25</v>
       </c>
       <c r="P20">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="Q20">
-        <v>1.4</v>
+        <v>2.45</v>
       </c>
       <c r="R20">
-        <v>1.5</v>
+        <v>-0.25</v>
       </c>
       <c r="S20">
-        <v>1.775</v>
+        <v>2.05</v>
       </c>
       <c r="T20">
-        <v>1.925</v>
+        <v>1.75</v>
       </c>
       <c r="U20">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="V20">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="W20">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="X20">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="Y20">
         <v>-1</v>
       </c>
       <c r="Z20">
-        <v>0.3999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA20">
-        <v>0.7749999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="AB20">
         <v>-1</v>
@@ -2524,7 +2524,7 @@
         <v>-1</v>
       </c>
       <c r="AD20">
-        <v>0.95</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:30">
@@ -2532,7 +2532,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>7005761</v>
+        <v>7005844</v>
       </c>
       <c r="C21" t="s">
         <v>29</v>
@@ -2544,10 +2544,10 @@
         <v>49</v>
       </c>
       <c r="F21" t="s">
-        <v>90</v>
+        <v>44</v>
       </c>
       <c r="G21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H21">
         <v>1</v>
@@ -2559,37 +2559,37 @@
         <v>0</v>
       </c>
       <c r="K21" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="L21">
-        <v>2.25</v>
+        <v>6</v>
       </c>
       <c r="M21">
-        <v>3.75</v>
+        <v>4.5</v>
       </c>
       <c r="N21">
-        <v>2.5</v>
+        <v>1.4</v>
       </c>
       <c r="O21">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="P21">
-        <v>3.75</v>
+        <v>4.5</v>
       </c>
       <c r="Q21">
-        <v>2.9</v>
+        <v>1.4</v>
       </c>
       <c r="R21">
-        <v>-0.25</v>
+        <v>1.5</v>
       </c>
       <c r="S21">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="T21">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="U21">
-        <v>2.5</v>
+        <v>3.25</v>
       </c>
       <c r="V21">
         <v>1.85</v>
@@ -2601,16 +2601,16 @@
         <v>-1</v>
       </c>
       <c r="Y21">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Z21">
-        <v>-1</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="AA21">
-        <v>-0.5</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB21">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC21">
         <v>-1</v>
@@ -2624,7 +2624,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>7005762</v>
+        <v>7005744</v>
       </c>
       <c r="C22" t="s">
         <v>29</v>
@@ -2636,22 +2636,22 @@
         <v>50</v>
       </c>
       <c r="F22" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="G22">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I22">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K22" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="L22">
         <v>2.25</v>
@@ -2672,43 +2672,43 @@
         <v>2.45</v>
       </c>
       <c r="R22">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="S22">
-        <v>2.05</v>
+        <v>1.8</v>
       </c>
       <c r="T22">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="U22">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="V22">
+        <v>2</v>
+      </c>
+      <c r="W22">
         <v>1.8</v>
       </c>
-      <c r="W22">
-        <v>2</v>
-      </c>
       <c r="X22">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="Y22">
         <v>-1</v>
       </c>
       <c r="Z22">
-        <v>-1</v>
+        <v>1.45</v>
       </c>
       <c r="AA22">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AB22">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC22">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AD22">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="23" spans="1:30">
@@ -2716,7 +2716,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>7005744</v>
+        <v>7005761</v>
       </c>
       <c r="C23" t="s">
         <v>29</v>
@@ -2728,43 +2728,43 @@
         <v>51</v>
       </c>
       <c r="F23" t="s">
-        <v>43</v>
+        <v>90</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="H23">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K23" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="L23">
         <v>2.25</v>
       </c>
       <c r="M23">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="N23">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="O23">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="P23">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="Q23">
-        <v>2.45</v>
+        <v>2.9</v>
       </c>
       <c r="R23">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="S23">
         <v>1.8</v>
@@ -2773,34 +2773,34 @@
         <v>2</v>
       </c>
       <c r="U23">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="V23">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="W23">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="X23">
         <v>-1</v>
       </c>
       <c r="Y23">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Z23">
-        <v>1.45</v>
+        <v>-1</v>
       </c>
       <c r="AA23">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB23">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AC23">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AD23">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="24" spans="1:30">
@@ -3176,7 +3176,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>7005727</v>
+        <v>7005737</v>
       </c>
       <c r="C28" t="s">
         <v>29</v>
@@ -3185,10 +3185,10 @@
         <v>45140.52083333334</v>
       </c>
       <c r="E28" t="s">
-        <v>56</v>
+        <v>40</v>
       </c>
       <c r="F28" t="s">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="G28">
         <v>2</v>
@@ -3209,40 +3209,40 @@
         <v>1.909</v>
       </c>
       <c r="M28">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="N28">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="O28">
-        <v>1.909</v>
+        <v>1.5</v>
       </c>
       <c r="P28">
         <v>4</v>
       </c>
       <c r="Q28">
-        <v>3</v>
+        <v>5.25</v>
       </c>
       <c r="R28">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="S28">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="T28">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="U28">
         <v>2.75</v>
       </c>
       <c r="V28">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W28">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="X28">
-        <v>0.909</v>
+        <v>0.5</v>
       </c>
       <c r="Y28">
         <v>-1</v>
@@ -3251,7 +3251,7 @@
         <v>-1</v>
       </c>
       <c r="AA28">
-        <v>0.9750000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AB28">
         <v>-1</v>
@@ -3260,7 +3260,7 @@
         <v>-1</v>
       </c>
       <c r="AD28">
-        <v>0.875</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="29" spans="1:30">
@@ -3268,7 +3268,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>7005726</v>
+        <v>7005727</v>
       </c>
       <c r="C29" t="s">
         <v>29</v>
@@ -3277,19 +3277,19 @@
         <v>45140.52083333334</v>
       </c>
       <c r="E29" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F29" t="s">
-        <v>81</v>
+        <v>38</v>
       </c>
       <c r="G29">
         <v>2</v>
       </c>
       <c r="H29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J29">
         <v>0</v>
@@ -3298,43 +3298,43 @@
         <v>100</v>
       </c>
       <c r="L29">
-        <v>2.25</v>
+        <v>1.909</v>
       </c>
       <c r="M29">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="N29">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="O29">
-        <v>2.25</v>
+        <v>1.909</v>
       </c>
       <c r="P29">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="Q29">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="R29">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="S29">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="T29">
-        <v>1.75</v>
+        <v>1.825</v>
       </c>
       <c r="U29">
         <v>2.75</v>
       </c>
       <c r="V29">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="W29">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="X29">
-        <v>1.25</v>
+        <v>0.909</v>
       </c>
       <c r="Y29">
         <v>-1</v>
@@ -3343,16 +3343,16 @@
         <v>-1</v>
       </c>
       <c r="AA29">
-        <v>1.05</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB29">
         <v>-1</v>
       </c>
       <c r="AC29">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
       <c r="AD29">
-        <v>-0.5</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="30" spans="1:30">
@@ -3360,7 +3360,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>7005737</v>
+        <v>7005726</v>
       </c>
       <c r="C30" t="s">
         <v>29</v>
@@ -3369,19 +3369,19 @@
         <v>45140.52083333334</v>
       </c>
       <c r="E30" t="s">
-        <v>40</v>
+        <v>57</v>
       </c>
       <c r="F30" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="G30">
         <v>2</v>
       </c>
       <c r="H30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J30">
         <v>0</v>
@@ -3390,43 +3390,43 @@
         <v>100</v>
       </c>
       <c r="L30">
-        <v>1.909</v>
+        <v>2.25</v>
       </c>
       <c r="M30">
         <v>3.75</v>
       </c>
       <c r="N30">
-        <v>3.1</v>
+        <v>2.5</v>
       </c>
       <c r="O30">
-        <v>1.5</v>
+        <v>2.25</v>
       </c>
       <c r="P30">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="Q30">
-        <v>5.25</v>
+        <v>2.5</v>
       </c>
       <c r="R30">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="S30">
-        <v>1.8</v>
+        <v>2.05</v>
       </c>
       <c r="T30">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="U30">
         <v>2.75</v>
       </c>
       <c r="V30">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="W30">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="X30">
-        <v>0.5</v>
+        <v>1.25</v>
       </c>
       <c r="Y30">
         <v>-1</v>
@@ -3435,16 +3435,16 @@
         <v>-1</v>
       </c>
       <c r="AA30">
-        <v>0.8</v>
+        <v>1.05</v>
       </c>
       <c r="AB30">
         <v>-1</v>
       </c>
       <c r="AC30">
-        <v>-1</v>
+        <v>0.4</v>
       </c>
       <c r="AD30">
-        <v>0.8500000000000001</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="31" spans="1:30">
@@ -4188,7 +4188,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>7059446</v>
+        <v>7055635</v>
       </c>
       <c r="C39" t="s">
         <v>29</v>
@@ -4197,82 +4197,82 @@
         <v>45151.52083333334</v>
       </c>
       <c r="E39" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F39" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G39">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H39">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I39">
         <v>0</v>
       </c>
       <c r="J39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K39" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="L39">
-        <v>1.533</v>
+        <v>1.4</v>
       </c>
       <c r="M39">
+        <v>4.5</v>
+      </c>
+      <c r="N39">
+        <v>5.5</v>
+      </c>
+      <c r="O39">
+        <v>1.333</v>
+      </c>
+      <c r="P39">
+        <v>5</v>
+      </c>
+      <c r="Q39">
+        <v>6.5</v>
+      </c>
+      <c r="R39">
+        <v>-1.5</v>
+      </c>
+      <c r="S39">
+        <v>1.825</v>
+      </c>
+      <c r="T39">
+        <v>1.975</v>
+      </c>
+      <c r="U39">
+        <v>3.5</v>
+      </c>
+      <c r="V39">
+        <v>1.925</v>
+      </c>
+      <c r="W39">
+        <v>1.775</v>
+      </c>
+      <c r="X39">
+        <v>-1</v>
+      </c>
+      <c r="Y39">
         <v>4</v>
       </c>
-      <c r="N39">
-        <v>4.75</v>
-      </c>
-      <c r="O39">
-        <v>1.45</v>
-      </c>
-      <c r="P39">
-        <v>4.2</v>
-      </c>
-      <c r="Q39">
-        <v>5.5</v>
-      </c>
-      <c r="R39">
-        <v>-1.25</v>
-      </c>
-      <c r="S39">
-        <v>1.95</v>
-      </c>
-      <c r="T39">
-        <v>1.85</v>
-      </c>
-      <c r="U39">
-        <v>3</v>
-      </c>
-      <c r="V39">
-        <v>1.875</v>
-      </c>
-      <c r="W39">
-        <v>1.925</v>
-      </c>
-      <c r="X39">
-        <v>0.45</v>
-      </c>
-      <c r="Y39">
-        <v>-1</v>
-      </c>
       <c r="Z39">
         <v>-1</v>
       </c>
       <c r="AA39">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB39">
-        <v>0.425</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC39">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AD39">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="40" spans="1:30">
@@ -4280,7 +4280,7 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>7055643</v>
+        <v>7059446</v>
       </c>
       <c r="C40" t="s">
         <v>29</v>
@@ -4289,82 +4289,82 @@
         <v>45151.52083333334</v>
       </c>
       <c r="E40" t="s">
-        <v>61</v>
+        <v>39</v>
       </c>
       <c r="F40" t="s">
-        <v>92</v>
+        <v>50</v>
       </c>
       <c r="G40">
         <v>1</v>
       </c>
       <c r="H40">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I40">
         <v>0</v>
       </c>
       <c r="J40">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K40" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="L40">
-        <v>2</v>
+        <v>1.533</v>
       </c>
       <c r="M40">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="N40">
-        <v>2.875</v>
+        <v>4.75</v>
       </c>
       <c r="O40">
-        <v>2</v>
+        <v>1.45</v>
       </c>
       <c r="P40">
-        <v>3.8</v>
+        <v>4.2</v>
       </c>
       <c r="Q40">
-        <v>2.9</v>
+        <v>5.5</v>
       </c>
       <c r="R40">
-        <v>-0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="S40">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="T40">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="U40">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="V40">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="W40">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="X40">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="Y40">
         <v>-1</v>
       </c>
       <c r="Z40">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="AA40">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB40">
-        <v>1</v>
+        <v>0.425</v>
       </c>
       <c r="AC40">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AD40">
-        <v>0.5</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="41" spans="1:30">
@@ -4372,7 +4372,7 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>7055635</v>
+        <v>7055643</v>
       </c>
       <c r="C41" t="s">
         <v>29</v>
@@ -4381,13 +4381,13 @@
         <v>45151.52083333334</v>
       </c>
       <c r="E41" t="s">
-        <v>40</v>
+        <v>61</v>
       </c>
       <c r="F41" t="s">
-        <v>52</v>
+        <v>92</v>
       </c>
       <c r="G41">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H41">
         <v>2</v>
@@ -4396,67 +4396,67 @@
         <v>0</v>
       </c>
       <c r="J41">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K41" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="L41">
-        <v>1.4</v>
+        <v>2</v>
       </c>
       <c r="M41">
-        <v>4.5</v>
+        <v>3.75</v>
       </c>
       <c r="N41">
-        <v>5.5</v>
+        <v>2.875</v>
       </c>
       <c r="O41">
-        <v>1.333</v>
+        <v>2</v>
       </c>
       <c r="P41">
-        <v>5</v>
+        <v>3.8</v>
       </c>
       <c r="Q41">
-        <v>6.5</v>
+        <v>2.9</v>
       </c>
       <c r="R41">
-        <v>-1.5</v>
+        <v>-0.25</v>
       </c>
       <c r="S41">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="T41">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="U41">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="V41">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="W41">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="X41">
         <v>-1</v>
       </c>
       <c r="Y41">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="Z41">
-        <v>-1</v>
+        <v>1.9</v>
       </c>
       <c r="AA41">
         <v>-1</v>
       </c>
       <c r="AB41">
-        <v>0.9750000000000001</v>
+        <v>1</v>
       </c>
       <c r="AC41">
-        <v>0.925</v>
+        <v>-0.5</v>
       </c>
       <c r="AD41">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="42" spans="1:30">
@@ -4556,7 +4556,7 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>7055642</v>
+        <v>7059445</v>
       </c>
       <c r="C43" t="s">
         <v>29</v>
@@ -4565,64 +4565,64 @@
         <v>45151.52083333334</v>
       </c>
       <c r="E43" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F43" t="s">
-        <v>93</v>
+        <v>77</v>
       </c>
       <c r="G43">
         <v>2</v>
       </c>
       <c r="H43">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J43">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K43" t="s">
         <v>100</v>
       </c>
       <c r="L43">
-        <v>2.15</v>
+        <v>1.5</v>
       </c>
       <c r="M43">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="N43">
-        <v>2.625</v>
+        <v>5</v>
       </c>
       <c r="O43">
-        <v>2.1</v>
+        <v>1.363</v>
       </c>
       <c r="P43">
-        <v>3.75</v>
+        <v>4.333</v>
       </c>
       <c r="Q43">
-        <v>2.7</v>
+        <v>6.5</v>
       </c>
       <c r="R43">
-        <v>-0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="S43">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="T43">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="U43">
         <v>3</v>
       </c>
       <c r="V43">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="W43">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="X43">
-        <v>1.1</v>
+        <v>0.363</v>
       </c>
       <c r="Y43">
         <v>-1</v>
@@ -4631,16 +4631,16 @@
         <v>-1</v>
       </c>
       <c r="AA43">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
       <c r="AB43">
-        <v>-1</v>
+        <v>0.4875</v>
       </c>
       <c r="AC43">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AD43">
-        <v>0.8500000000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:30">
@@ -4648,7 +4648,7 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>7059445</v>
+        <v>7055642</v>
       </c>
       <c r="C44" t="s">
         <v>29</v>
@@ -4657,64 +4657,64 @@
         <v>45151.52083333334</v>
       </c>
       <c r="E44" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F44" t="s">
-        <v>77</v>
+        <v>93</v>
       </c>
       <c r="G44">
         <v>2</v>
       </c>
       <c r="H44">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I44">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J44">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K44" t="s">
         <v>100</v>
       </c>
       <c r="L44">
-        <v>1.5</v>
+        <v>2.15</v>
       </c>
       <c r="M44">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="N44">
-        <v>5</v>
+        <v>2.625</v>
       </c>
       <c r="O44">
-        <v>1.363</v>
+        <v>2.1</v>
       </c>
       <c r="P44">
-        <v>4.333</v>
+        <v>3.75</v>
       </c>
       <c r="Q44">
-        <v>6.5</v>
+        <v>2.7</v>
       </c>
       <c r="R44">
-        <v>-1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="S44">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="T44">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="U44">
         <v>3</v>
       </c>
       <c r="V44">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W44">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="X44">
-        <v>0.363</v>
+        <v>1.1</v>
       </c>
       <c r="Y44">
         <v>-1</v>
@@ -4723,16 +4723,16 @@
         <v>-1</v>
       </c>
       <c r="AA44">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
       <c r="AB44">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
       <c r="AC44">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AD44">
-        <v>0</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="45" spans="1:30">
@@ -5301,7 +5301,7 @@
         <v>45157.25</v>
       </c>
       <c r="E51" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F51" t="s">
         <v>40</v>
@@ -5476,7 +5476,7 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>7086200</v>
+        <v>7084569</v>
       </c>
       <c r="C53" t="s">
         <v>29</v>
@@ -5485,10 +5485,10 @@
         <v>45157.52083333334</v>
       </c>
       <c r="E53" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="F53" t="s">
-        <v>44</v>
+        <v>64</v>
       </c>
       <c r="G53">
         <v>0</v>
@@ -5500,67 +5500,67 @@
         <v>0</v>
       </c>
       <c r="J53">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K53" t="s">
         <v>101</v>
       </c>
       <c r="L53">
-        <v>2.5</v>
+        <v>1.8</v>
       </c>
       <c r="M53">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="N53">
+        <v>3.25</v>
+      </c>
+      <c r="O53">
+        <v>1.8</v>
+      </c>
+      <c r="P53">
+        <v>4</v>
+      </c>
+      <c r="Q53">
+        <v>3.25</v>
+      </c>
+      <c r="R53">
+        <v>-0.5</v>
+      </c>
+      <c r="S53">
+        <v>1.85</v>
+      </c>
+      <c r="T53">
+        <v>1.95</v>
+      </c>
+      <c r="U53">
+        <v>3</v>
+      </c>
+      <c r="V53">
+        <v>1.8</v>
+      </c>
+      <c r="W53">
+        <v>2</v>
+      </c>
+      <c r="X53">
+        <v>-1</v>
+      </c>
+      <c r="Y53">
+        <v>-1</v>
+      </c>
+      <c r="Z53">
         <v>2.25</v>
       </c>
-      <c r="O53">
-        <v>4</v>
-      </c>
-      <c r="P53">
-        <v>5</v>
-      </c>
-      <c r="Q53">
-        <v>1.5</v>
-      </c>
-      <c r="R53">
-        <v>1</v>
-      </c>
-      <c r="S53">
-        <v>2</v>
-      </c>
-      <c r="T53">
-        <v>1.8</v>
-      </c>
-      <c r="U53">
-        <v>3.5</v>
-      </c>
-      <c r="V53">
-        <v>1.975</v>
-      </c>
-      <c r="W53">
-        <v>1.825</v>
-      </c>
-      <c r="X53">
-        <v>-1</v>
-      </c>
-      <c r="Y53">
-        <v>-1</v>
-      </c>
-      <c r="Z53">
-        <v>0.5</v>
-      </c>
       <c r="AA53">
         <v>-1</v>
       </c>
       <c r="AB53">
-        <v>0.8</v>
+        <v>0.95</v>
       </c>
       <c r="AC53">
         <v>-1</v>
       </c>
       <c r="AD53">
-        <v>0.825</v>
+        <v>1</v>
       </c>
     </row>
     <row r="54" spans="1:30">
@@ -5568,7 +5568,7 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>7084569</v>
+        <v>7086200</v>
       </c>
       <c r="C54" t="s">
         <v>29</v>
@@ -5577,10 +5577,10 @@
         <v>45157.52083333334</v>
       </c>
       <c r="E54" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F54" t="s">
-        <v>64</v>
+        <v>44</v>
       </c>
       <c r="G54">
         <v>0</v>
@@ -5592,46 +5592,46 @@
         <v>0</v>
       </c>
       <c r="J54">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K54" t="s">
         <v>101</v>
       </c>
       <c r="L54">
+        <v>2.5</v>
+      </c>
+      <c r="M54">
+        <v>3.75</v>
+      </c>
+      <c r="N54">
+        <v>2.25</v>
+      </c>
+      <c r="O54">
+        <v>4</v>
+      </c>
+      <c r="P54">
+        <v>5</v>
+      </c>
+      <c r="Q54">
+        <v>1.5</v>
+      </c>
+      <c r="R54">
+        <v>1</v>
+      </c>
+      <c r="S54">
+        <v>2</v>
+      </c>
+      <c r="T54">
         <v>1.8</v>
       </c>
-      <c r="M54">
-        <v>4</v>
-      </c>
-      <c r="N54">
-        <v>3.25</v>
-      </c>
-      <c r="O54">
-        <v>1.8</v>
-      </c>
-      <c r="P54">
-        <v>4</v>
-      </c>
-      <c r="Q54">
-        <v>3.25</v>
-      </c>
-      <c r="R54">
-        <v>-0.5</v>
-      </c>
-      <c r="S54">
-        <v>1.85</v>
-      </c>
-      <c r="T54">
-        <v>1.95</v>
-      </c>
       <c r="U54">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="V54">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="W54">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="X54">
         <v>-1</v>
@@ -5640,19 +5640,19 @@
         <v>-1</v>
       </c>
       <c r="Z54">
-        <v>2.25</v>
+        <v>0.5</v>
       </c>
       <c r="AA54">
         <v>-1</v>
       </c>
       <c r="AB54">
-        <v>0.95</v>
+        <v>0.8</v>
       </c>
       <c r="AC54">
         <v>-1</v>
       </c>
       <c r="AD54">
-        <v>1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="55" spans="1:30">
@@ -5761,7 +5761,7 @@
         <v>45157.52083333334</v>
       </c>
       <c r="E56" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F56" t="s">
         <v>89</v>
@@ -5945,7 +5945,7 @@
         <v>45157.52083333334</v>
       </c>
       <c r="E58" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F58" t="s">
         <v>67</v>
@@ -6129,7 +6129,7 @@
         <v>45157.52083333334</v>
       </c>
       <c r="E60" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F60" t="s">
         <v>62</v>
@@ -6316,7 +6316,7 @@
         <v>45</v>
       </c>
       <c r="F62" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G62">
         <v>2</v>
@@ -8613,7 +8613,7 @@
         <v>45172.45833333334</v>
       </c>
       <c r="E87" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F87" t="s">
         <v>68</v>
@@ -8889,7 +8889,7 @@
         <v>45172.45833333334</v>
       </c>
       <c r="E90" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F90" t="s">
         <v>88</v>
@@ -9168,7 +9168,7 @@
         <v>66</v>
       </c>
       <c r="F93" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G93">
         <v>2</v>
@@ -9901,7 +9901,7 @@
         <v>45178.45833333334</v>
       </c>
       <c r="E101" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F101" t="s">
         <v>95</v>
@@ -11005,7 +11005,7 @@
         <v>45193.25</v>
       </c>
       <c r="E113" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F113" t="s">
         <v>45</v>
@@ -12572,7 +12572,7 @@
         <v>77</v>
       </c>
       <c r="F130" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G130">
         <v>4</v>
@@ -12753,7 +12753,7 @@
         <v>45198.45833333334</v>
       </c>
       <c r="E132" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F132" t="s">
         <v>69</v>
@@ -13489,7 +13489,7 @@
         <v>45200.41666666666</v>
       </c>
       <c r="E140" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F140" t="s">
         <v>52</v>
@@ -14409,10 +14409,10 @@
         <v>45207.25</v>
       </c>
       <c r="E150" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F150" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G150">
         <v>3</v>
@@ -16157,7 +16157,7 @@
         <v>45214.41666666666</v>
       </c>
       <c r="E169" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F169" t="s">
         <v>93</v>
@@ -16528,7 +16528,7 @@
         <v>77</v>
       </c>
       <c r="F173" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G173">
         <v>2</v>
@@ -16617,7 +16617,7 @@
         <v>45214.41666666666</v>
       </c>
       <c r="E174" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F174" t="s">
         <v>75</v>
@@ -17169,7 +17169,7 @@
         <v>45221.25</v>
       </c>
       <c r="E180" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F180" t="s">
         <v>52</v>
@@ -17724,7 +17724,7 @@
         <v>78</v>
       </c>
       <c r="F186" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="G186">
         <v>1</v>
@@ -19009,7 +19009,7 @@
         <v>45228.375</v>
       </c>
       <c r="E200" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F200" t="s">
         <v>41</v>
@@ -19472,7 +19472,7 @@
         <v>35</v>
       </c>
       <c r="F205" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="G205">
         <v>0</v>
@@ -20941,7 +20941,7 @@
         <v>45242.375</v>
       </c>
       <c r="E221" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F221" t="s">
         <v>63</v>
@@ -21125,7 +21125,7 @@
         <v>45242.375</v>
       </c>
       <c r="E223" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F223" t="s">
         <v>58</v>
@@ -21401,7 +21401,7 @@
         <v>45248.29166666666</v>
       </c>
       <c r="E226" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F226" t="s">
         <v>30</v>
@@ -21484,7 +21484,7 @@
         <v>225</v>
       </c>
       <c r="B227">
-        <v>7485389</v>
+        <v>7485287</v>
       </c>
       <c r="C227" t="s">
         <v>29</v>
@@ -21493,19 +21493,19 @@
         <v>45248.375</v>
       </c>
       <c r="E227" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="F227" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="G227">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H227">
         <v>0</v>
       </c>
       <c r="I227">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J227">
         <v>0</v>
@@ -21514,43 +21514,43 @@
         <v>100</v>
       </c>
       <c r="L227">
-        <v>2.1</v>
+        <v>1.909</v>
       </c>
       <c r="M227">
         <v>3.5</v>
       </c>
       <c r="N227">
-        <v>2.8</v>
+        <v>3.25</v>
       </c>
       <c r="O227">
-        <v>2.1</v>
+        <v>1.909</v>
       </c>
       <c r="P227">
         <v>3.5</v>
       </c>
       <c r="Q227">
-        <v>2.8</v>
+        <v>3.25</v>
       </c>
       <c r="R227">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="S227">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="T227">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="U227">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="V227">
-        <v>1.75</v>
+        <v>2.025</v>
       </c>
       <c r="W227">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="X227">
-        <v>1.1</v>
+        <v>0.909</v>
       </c>
       <c r="Y227">
         <v>-1</v>
@@ -21559,7 +21559,7 @@
         <v>-1</v>
       </c>
       <c r="AA227">
-        <v>0.925</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB227">
         <v>-1</v>
@@ -21568,7 +21568,7 @@
         <v>-1</v>
       </c>
       <c r="AD227">
-        <v>0.95</v>
+        <v>0.7749999999999999</v>
       </c>
     </row>
     <row r="228" spans="1:30">
@@ -21576,7 +21576,7 @@
         <v>226</v>
       </c>
       <c r="B228">
-        <v>7485287</v>
+        <v>7485389</v>
       </c>
       <c r="C228" t="s">
         <v>29</v>
@@ -21585,19 +21585,19 @@
         <v>45248.375</v>
       </c>
       <c r="E228" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F228" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="G228">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H228">
         <v>0</v>
       </c>
       <c r="I228">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J228">
         <v>0</v>
@@ -21606,43 +21606,43 @@
         <v>100</v>
       </c>
       <c r="L228">
-        <v>1.909</v>
+        <v>2.1</v>
       </c>
       <c r="M228">
         <v>3.5</v>
       </c>
       <c r="N228">
-        <v>3.25</v>
+        <v>2.8</v>
       </c>
       <c r="O228">
-        <v>1.909</v>
+        <v>2.1</v>
       </c>
       <c r="P228">
         <v>3.5</v>
       </c>
       <c r="Q228">
-        <v>3.25</v>
+        <v>2.8</v>
       </c>
       <c r="R228">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="S228">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="T228">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="U228">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="V228">
-        <v>2.025</v>
+        <v>1.75</v>
       </c>
       <c r="W228">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="X228">
-        <v>0.909</v>
+        <v>1.1</v>
       </c>
       <c r="Y228">
         <v>-1</v>
@@ -21651,7 +21651,7 @@
         <v>-1</v>
       </c>
       <c r="AA228">
-        <v>0.9750000000000001</v>
+        <v>0.925</v>
       </c>
       <c r="AB228">
         <v>-1</v>
@@ -21660,7 +21660,7 @@
         <v>-1</v>
       </c>
       <c r="AD228">
-        <v>0.7749999999999999</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="229" spans="1:30">
@@ -21760,7 +21760,7 @@
         <v>228</v>
       </c>
       <c r="B230">
-        <v>7485464</v>
+        <v>7485437</v>
       </c>
       <c r="C230" t="s">
         <v>29</v>
@@ -21769,16 +21769,16 @@
         <v>45248.375</v>
       </c>
       <c r="E230" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="F230" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="G230">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H230">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I230">
         <v>1</v>
@@ -21790,43 +21790,43 @@
         <v>100</v>
       </c>
       <c r="L230">
-        <v>1.4</v>
+        <v>1.727</v>
       </c>
       <c r="M230">
-        <v>4.333</v>
+        <v>3.75</v>
       </c>
       <c r="N230">
-        <v>6</v>
+        <v>3.75</v>
       </c>
       <c r="O230">
-        <v>1.333</v>
+        <v>1.727</v>
       </c>
       <c r="P230">
-        <v>4.75</v>
+        <v>3.75</v>
       </c>
       <c r="Q230">
-        <v>6.5</v>
+        <v>3.75</v>
       </c>
       <c r="R230">
-        <v>-1.5</v>
+        <v>-0.75</v>
       </c>
       <c r="S230">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="T230">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="U230">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="V230">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W230">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="X230">
-        <v>0.333</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="Y230">
         <v>-1</v>
@@ -21835,16 +21835,16 @@
         <v>-1</v>
       </c>
       <c r="AA230">
-        <v>-1</v>
+        <v>0.4875</v>
       </c>
       <c r="AB230">
-        <v>0.8999999999999999</v>
+        <v>-0.5</v>
       </c>
       <c r="AC230">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AD230">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="231" spans="1:30">
@@ -21852,7 +21852,7 @@
         <v>229</v>
       </c>
       <c r="B231">
-        <v>7485288</v>
+        <v>7485463</v>
       </c>
       <c r="C231" t="s">
         <v>29</v>
@@ -21861,82 +21861,82 @@
         <v>45248.375</v>
       </c>
       <c r="E231" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F231" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="G231">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H231">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I231">
         <v>1</v>
       </c>
       <c r="J231">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K231" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="L231">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="M231">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="N231">
-        <v>3</v>
+        <v>3.8</v>
       </c>
       <c r="O231">
-        <v>2.15</v>
+        <v>1.75</v>
       </c>
       <c r="P231">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="Q231">
-        <v>2.7</v>
+        <v>3.6</v>
       </c>
       <c r="R231">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="S231">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="T231">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="U231">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="V231">
+        <v>2</v>
+      </c>
+      <c r="W231">
         <v>1.8</v>
       </c>
-      <c r="W231">
-        <v>2</v>
-      </c>
       <c r="X231">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="Y231">
         <v>-1</v>
       </c>
       <c r="Z231">
-        <v>1.7</v>
+        <v>-1</v>
       </c>
       <c r="AA231">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB231">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC231">
+        <v>-0.5</v>
+      </c>
+      <c r="AD231">
         <v>0.4</v>
-      </c>
-      <c r="AD231">
-        <v>-0.5</v>
       </c>
     </row>
     <row r="232" spans="1:30">
@@ -21944,7 +21944,7 @@
         <v>230</v>
       </c>
       <c r="B232">
-        <v>7485437</v>
+        <v>7485464</v>
       </c>
       <c r="C232" t="s">
         <v>29</v>
@@ -21953,16 +21953,16 @@
         <v>45248.375</v>
       </c>
       <c r="E232" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="F232" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="G232">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H232">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I232">
         <v>1</v>
@@ -21974,43 +21974,43 @@
         <v>100</v>
       </c>
       <c r="L232">
-        <v>1.727</v>
+        <v>1.4</v>
       </c>
       <c r="M232">
-        <v>3.75</v>
+        <v>4.333</v>
       </c>
       <c r="N232">
-        <v>3.75</v>
+        <v>6</v>
       </c>
       <c r="O232">
-        <v>1.727</v>
+        <v>1.333</v>
       </c>
       <c r="P232">
-        <v>3.75</v>
+        <v>4.75</v>
       </c>
       <c r="Q232">
-        <v>3.75</v>
+        <v>6.5</v>
       </c>
       <c r="R232">
-        <v>-0.75</v>
+        <v>-1.5</v>
       </c>
       <c r="S232">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="T232">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="U232">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="V232">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="W232">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="X232">
-        <v>0.7270000000000001</v>
+        <v>0.333</v>
       </c>
       <c r="Y232">
         <v>-1</v>
@@ -22019,16 +22019,16 @@
         <v>-1</v>
       </c>
       <c r="AA232">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
       <c r="AB232">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC232">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AD232">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
     </row>
     <row r="233" spans="1:30">
@@ -22036,7 +22036,7 @@
         <v>231</v>
       </c>
       <c r="B233">
-        <v>7485463</v>
+        <v>7485465</v>
       </c>
       <c r="C233" t="s">
         <v>29</v>
@@ -22045,82 +22045,82 @@
         <v>45248.375</v>
       </c>
       <c r="E233" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F233" t="s">
-        <v>59</v>
+        <v>31</v>
       </c>
       <c r="G233">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H233">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I233">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J233">
         <v>0</v>
       </c>
       <c r="K233" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="L233">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="M233">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="N233">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="O233">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="P233">
-        <v>3.75</v>
+        <v>3.1</v>
       </c>
       <c r="Q233">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="R233">
         <v>-0.5</v>
       </c>
       <c r="S233">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="T233">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="U233">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="V233">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="W233">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="X233">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="Y233">
         <v>-1</v>
       </c>
       <c r="Z233">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="AA233">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB233">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC233">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AD233">
-        <v>0.4</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="234" spans="1:30">
@@ -22128,7 +22128,7 @@
         <v>232</v>
       </c>
       <c r="B234">
-        <v>7485465</v>
+        <v>7485461</v>
       </c>
       <c r="C234" t="s">
         <v>29</v>
@@ -22137,82 +22137,82 @@
         <v>45248.375</v>
       </c>
       <c r="E234" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="F234" t="s">
-        <v>31</v>
+        <v>83</v>
       </c>
       <c r="G234">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H234">
         <v>1</v>
       </c>
       <c r="I234">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J234">
         <v>0</v>
       </c>
       <c r="K234" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="L234">
-        <v>1.85</v>
+        <v>2.55</v>
       </c>
       <c r="M234">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="N234">
-        <v>4</v>
+        <v>2.3</v>
       </c>
       <c r="O234">
-        <v>1.85</v>
+        <v>2.55</v>
       </c>
       <c r="P234">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="Q234">
-        <v>4</v>
+        <v>2.3</v>
       </c>
       <c r="R234">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="S234">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="T234">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="U234">
         <v>2.5</v>
       </c>
       <c r="V234">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="W234">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="X234">
-        <v>-1</v>
+        <v>1.55</v>
       </c>
       <c r="Y234">
         <v>-1</v>
       </c>
       <c r="Z234">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="AA234">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB234">
+        <v>-1</v>
+      </c>
+      <c r="AC234">
         <v>0.8999999999999999</v>
       </c>
-      <c r="AC234">
-        <v>-1</v>
-      </c>
       <c r="AD234">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="235" spans="1:30">
@@ -22220,7 +22220,7 @@
         <v>233</v>
       </c>
       <c r="B235">
-        <v>7485461</v>
+        <v>7485288</v>
       </c>
       <c r="C235" t="s">
         <v>29</v>
@@ -22229,82 +22229,82 @@
         <v>45248.375</v>
       </c>
       <c r="E235" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="F235" t="s">
-        <v>83</v>
+        <v>70</v>
       </c>
       <c r="G235">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H235">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I235">
         <v>1</v>
       </c>
       <c r="J235">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K235" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="L235">
-        <v>2.55</v>
+        <v>2</v>
       </c>
       <c r="M235">
         <v>3.5</v>
       </c>
       <c r="N235">
-        <v>2.3</v>
+        <v>3</v>
       </c>
       <c r="O235">
-        <v>2.55</v>
+        <v>2.15</v>
       </c>
       <c r="P235">
         <v>3.5</v>
       </c>
       <c r="Q235">
-        <v>2.3</v>
+        <v>2.7</v>
       </c>
       <c r="R235">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="S235">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="T235">
+        <v>1.825</v>
+      </c>
+      <c r="U235">
+        <v>2.75</v>
+      </c>
+      <c r="V235">
         <v>1.8</v>
       </c>
-      <c r="U235">
-        <v>2.5</v>
-      </c>
-      <c r="V235">
-        <v>1.9</v>
-      </c>
       <c r="W235">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="X235">
-        <v>1.55</v>
+        <v>-1</v>
       </c>
       <c r="Y235">
         <v>-1</v>
       </c>
       <c r="Z235">
-        <v>-1</v>
+        <v>1.7</v>
       </c>
       <c r="AA235">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB235">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC235">
-        <v>0.8999999999999999</v>
+        <v>0.4</v>
       </c>
       <c r="AD235">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="236" spans="1:30">
@@ -23422,7 +23422,7 @@
         <v>43</v>
       </c>
       <c r="F248" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G248">
         <v>1</v>
@@ -23879,7 +23879,7 @@
         <v>45354.33333333334</v>
       </c>
       <c r="E253" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F253" t="s">
         <v>39</v>
@@ -23971,7 +23971,7 @@
         <v>45354.41666666666</v>
       </c>
       <c r="E254" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F254" t="s">
         <v>36</v>
@@ -24063,7 +24063,7 @@
         <v>45354.41666666666</v>
       </c>
       <c r="E255" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F255" t="s">
         <v>65</v>
@@ -24247,7 +24247,7 @@
         <v>45354.41666666666</v>
       </c>
       <c r="E257" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F257" t="s">
         <v>68</v>
@@ -25995,7 +25995,7 @@
         <v>45368.29166666666</v>
       </c>
       <c r="E276" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F276" t="s">
         <v>44</v>
@@ -26363,7 +26363,7 @@
         <v>45368.41666666666</v>
       </c>
       <c r="E280" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F280" t="s">
         <v>72</v>
@@ -26547,7 +26547,7 @@
         <v>45368.41666666666</v>
       </c>
       <c r="E282" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F282" t="s">
         <v>45</v>
@@ -26731,7 +26731,7 @@
         <v>45368.41666666666</v>
       </c>
       <c r="E284" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F284" t="s">
         <v>92</v>
@@ -27550,7 +27550,7 @@
         <v>291</v>
       </c>
       <c r="B293">
-        <v>8001822</v>
+        <v>8001789</v>
       </c>
       <c r="C293" t="s">
         <v>29</v>
@@ -27559,82 +27559,82 @@
         <v>45375.29166666666</v>
       </c>
       <c r="E293" t="s">
-        <v>31</v>
+        <v>64</v>
       </c>
       <c r="F293" t="s">
-        <v>73</v>
+        <v>53</v>
       </c>
       <c r="G293">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H293">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I293">
         <v>1</v>
       </c>
       <c r="J293">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K293" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="L293">
-        <v>1.444</v>
+        <v>2.875</v>
       </c>
       <c r="M293">
-        <v>4.2</v>
+        <v>3.75</v>
       </c>
       <c r="N293">
-        <v>5.5</v>
+        <v>2</v>
       </c>
       <c r="O293">
-        <v>1.444</v>
+        <v>2.875</v>
       </c>
       <c r="P293">
-        <v>4.2</v>
+        <v>3.75</v>
       </c>
       <c r="Q293">
-        <v>5.5</v>
+        <v>2</v>
       </c>
       <c r="R293">
-        <v>-1.25</v>
+        <v>0.25</v>
       </c>
       <c r="S293">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="T293">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="U293">
         <v>2.75</v>
       </c>
       <c r="V293">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="W293">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="X293">
-        <v>0.444</v>
+        <v>-1</v>
       </c>
       <c r="Y293">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Z293">
         <v>-1</v>
       </c>
       <c r="AA293">
-        <v>0.95</v>
+        <v>0.4875</v>
       </c>
       <c r="AB293">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC293">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AD293">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="294" spans="1:30">
@@ -27642,7 +27642,7 @@
         <v>292</v>
       </c>
       <c r="B294">
-        <v>8001789</v>
+        <v>8001728</v>
       </c>
       <c r="C294" t="s">
         <v>29</v>
@@ -27651,79 +27651,79 @@
         <v>45375.29166666666</v>
       </c>
       <c r="E294" t="s">
-        <v>64</v>
+        <v>47</v>
       </c>
       <c r="F294" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="G294">
+        <v>4</v>
+      </c>
+      <c r="H294">
+        <v>2</v>
+      </c>
+      <c r="I294">
         <v>3</v>
       </c>
-      <c r="H294">
-        <v>3</v>
-      </c>
-      <c r="I294">
-        <v>1</v>
-      </c>
       <c r="J294">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K294" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="L294">
-        <v>2.875</v>
+        <v>1.8</v>
       </c>
       <c r="M294">
         <v>3.75</v>
       </c>
       <c r="N294">
-        <v>2</v>
+        <v>3.4</v>
       </c>
       <c r="O294">
-        <v>2.875</v>
+        <v>1.8</v>
       </c>
       <c r="P294">
         <v>3.75</v>
       </c>
       <c r="Q294">
-        <v>2</v>
+        <v>3.4</v>
       </c>
       <c r="R294">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="S294">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="T294">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="U294">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="V294">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="W294">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="X294">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="Y294">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Z294">
         <v>-1</v>
       </c>
       <c r="AA294">
-        <v>0.4875</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB294">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC294">
-        <v>0.8999999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="AD294">
         <v>-1</v>
@@ -27734,7 +27734,7 @@
         <v>293</v>
       </c>
       <c r="B295">
-        <v>8001728</v>
+        <v>8001822</v>
       </c>
       <c r="C295" t="s">
         <v>29</v>
@@ -27743,19 +27743,19 @@
         <v>45375.29166666666</v>
       </c>
       <c r="E295" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="F295" t="s">
-        <v>50</v>
+        <v>73</v>
       </c>
       <c r="G295">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H295">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I295">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J295">
         <v>0</v>
@@ -27764,34 +27764,34 @@
         <v>100</v>
       </c>
       <c r="L295">
-        <v>1.8</v>
+        <v>1.444</v>
       </c>
       <c r="M295">
-        <v>3.75</v>
+        <v>4.2</v>
       </c>
       <c r="N295">
-        <v>3.4</v>
+        <v>5.5</v>
       </c>
       <c r="O295">
-        <v>1.8</v>
+        <v>1.444</v>
       </c>
       <c r="P295">
-        <v>3.75</v>
+        <v>4.2</v>
       </c>
       <c r="Q295">
-        <v>3.4</v>
+        <v>5.5</v>
       </c>
       <c r="R295">
-        <v>-0.5</v>
+        <v>-1.25</v>
       </c>
       <c r="S295">
+        <v>1.95</v>
+      </c>
+      <c r="T295">
         <v>1.85</v>
       </c>
-      <c r="T295">
-        <v>1.95</v>
-      </c>
       <c r="U295">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="V295">
         <v>1.8</v>
@@ -27800,7 +27800,7 @@
         <v>2</v>
       </c>
       <c r="X295">
-        <v>0.8</v>
+        <v>0.444</v>
       </c>
       <c r="Y295">
         <v>-1</v>
@@ -27809,16 +27809,16 @@
         <v>-1</v>
       </c>
       <c r="AA295">
-        <v>0.8500000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="AB295">
         <v>-1</v>
       </c>
       <c r="AC295">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AD295">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="296" spans="1:30">
@@ -28194,7 +28194,7 @@
         <v>298</v>
       </c>
       <c r="B300">
-        <v>8001727</v>
+        <v>8001824</v>
       </c>
       <c r="C300" t="s">
         <v>29</v>
@@ -28203,19 +28203,19 @@
         <v>45375.41666666666</v>
       </c>
       <c r="E300" t="s">
-        <v>39</v>
+        <v>55</v>
       </c>
       <c r="F300" t="s">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="G300">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H300">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I300">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J300">
         <v>1</v>
@@ -28224,25 +28224,25 @@
         <v>100</v>
       </c>
       <c r="L300">
-        <v>1.909</v>
+        <v>1.444</v>
       </c>
       <c r="M300">
-        <v>3.4</v>
+        <v>4.2</v>
       </c>
       <c r="N300">
-        <v>3.4</v>
+        <v>5.5</v>
       </c>
       <c r="O300">
-        <v>1.909</v>
+        <v>1.45</v>
       </c>
       <c r="P300">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="Q300">
-        <v>3.4</v>
+        <v>5.5</v>
       </c>
       <c r="R300">
-        <v>-0.5</v>
+        <v>-1.25</v>
       </c>
       <c r="S300">
         <v>1.975</v>
@@ -28251,16 +28251,16 @@
         <v>1.825</v>
       </c>
       <c r="U300">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="V300">
+        <v>1.975</v>
+      </c>
+      <c r="W300">
         <v>1.825</v>
       </c>
-      <c r="W300">
-        <v>1.975</v>
-      </c>
       <c r="X300">
-        <v>0.909</v>
+        <v>0.45</v>
       </c>
       <c r="Y300">
         <v>-1</v>
@@ -28269,13 +28269,13 @@
         <v>-1</v>
       </c>
       <c r="AA300">
+        <v>-0.5</v>
+      </c>
+      <c r="AB300">
+        <v>0.4125</v>
+      </c>
+      <c r="AC300">
         <v>0.9750000000000001</v>
-      </c>
-      <c r="AB300">
-        <v>-1</v>
-      </c>
-      <c r="AC300">
-        <v>0.825</v>
       </c>
       <c r="AD300">
         <v>-1</v>
@@ -28286,7 +28286,7 @@
         <v>299</v>
       </c>
       <c r="B301">
-        <v>8001730</v>
+        <v>8001727</v>
       </c>
       <c r="C301" t="s">
         <v>29</v>
@@ -28295,79 +28295,79 @@
         <v>45375.41666666666</v>
       </c>
       <c r="E301" t="s">
-        <v>63</v>
+        <v>39</v>
       </c>
       <c r="F301" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G301">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H301">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I301">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J301">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K301" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="L301">
-        <v>3.4</v>
+        <v>1.909</v>
       </c>
       <c r="M301">
         <v>3.4</v>
       </c>
       <c r="N301">
+        <v>3.4</v>
+      </c>
+      <c r="O301">
         <v>1.909</v>
-      </c>
-      <c r="O301">
-        <v>3.4</v>
       </c>
       <c r="P301">
         <v>3.4</v>
       </c>
       <c r="Q301">
-        <v>1.909</v>
+        <v>3.4</v>
       </c>
       <c r="R301">
-        <v>0.5</v>
+        <v>-0.5</v>
       </c>
       <c r="S301">
+        <v>1.975</v>
+      </c>
+      <c r="T301">
         <v>1.825</v>
-      </c>
-      <c r="T301">
-        <v>1.975</v>
       </c>
       <c r="U301">
         <v>2.5</v>
       </c>
       <c r="V301">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="W301">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="X301">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="Y301">
         <v>-1</v>
       </c>
       <c r="Z301">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="AA301">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB301">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC301">
-        <v>0.8</v>
+        <v>0.825</v>
       </c>
       <c r="AD301">
         <v>-1</v>
@@ -28378,7 +28378,7 @@
         <v>300</v>
       </c>
       <c r="B302">
-        <v>8001724</v>
+        <v>8001730</v>
       </c>
       <c r="C302" t="s">
         <v>29</v>
@@ -28387,61 +28387,61 @@
         <v>45375.41666666666</v>
       </c>
       <c r="E302" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F302" t="s">
-        <v>86</v>
+        <v>32</v>
       </c>
       <c r="G302">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H302">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I302">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J302">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K302" t="s">
         <v>101</v>
       </c>
       <c r="L302">
-        <v>1.363</v>
+        <v>3.4</v>
       </c>
       <c r="M302">
-        <v>4.5</v>
+        <v>3.4</v>
       </c>
       <c r="N302">
-        <v>6.5</v>
+        <v>1.909</v>
       </c>
       <c r="O302">
-        <v>1.363</v>
+        <v>3.4</v>
       </c>
       <c r="P302">
-        <v>4.5</v>
+        <v>3.4</v>
       </c>
       <c r="Q302">
-        <v>6.5</v>
+        <v>1.909</v>
       </c>
       <c r="R302">
-        <v>-1.25</v>
+        <v>0.5</v>
       </c>
       <c r="S302">
-        <v>1.75</v>
+        <v>1.825</v>
       </c>
       <c r="T302">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="U302">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="V302">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="W302">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="X302">
         <v>-1</v>
@@ -28450,19 +28450,19 @@
         <v>-1</v>
       </c>
       <c r="Z302">
-        <v>5.5</v>
+        <v>0.909</v>
       </c>
       <c r="AA302">
         <v>-1</v>
       </c>
       <c r="AB302">
-        <v>0.95</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC302">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AD302">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="303" spans="1:30">
@@ -28470,7 +28470,7 @@
         <v>301</v>
       </c>
       <c r="B303">
-        <v>8001824</v>
+        <v>8001724</v>
       </c>
       <c r="C303" t="s">
         <v>29</v>
@@ -28479,82 +28479,82 @@
         <v>45375.41666666666</v>
       </c>
       <c r="E303" t="s">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="F303" t="s">
-        <v>60</v>
+        <v>86</v>
       </c>
       <c r="G303">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H303">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I303">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J303">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K303" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="L303">
-        <v>1.444</v>
+        <v>1.363</v>
       </c>
       <c r="M303">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="N303">
-        <v>5.5</v>
+        <v>6.5</v>
       </c>
       <c r="O303">
-        <v>1.45</v>
+        <v>1.363</v>
       </c>
       <c r="P303">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="Q303">
-        <v>5.5</v>
+        <v>6.5</v>
       </c>
       <c r="R303">
         <v>-1.25</v>
       </c>
       <c r="S303">
-        <v>1.975</v>
+        <v>1.75</v>
       </c>
       <c r="T303">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="U303">
         <v>3</v>
       </c>
       <c r="V303">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="W303">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="X303">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="Y303">
         <v>-1</v>
       </c>
       <c r="Z303">
-        <v>-1</v>
+        <v>5.5</v>
       </c>
       <c r="AA303">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB303">
-        <v>0.4125</v>
+        <v>0.95</v>
       </c>
       <c r="AC303">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AD303">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="304" spans="1:30">
@@ -28571,7 +28571,7 @@
         <v>45375.41666666666</v>
       </c>
       <c r="E304" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F304" t="s">
         <v>85</v>
@@ -28930,7 +28930,7 @@
         <v>306</v>
       </c>
       <c r="B308">
-        <v>8030693</v>
+        <v>8030795</v>
       </c>
       <c r="C308" t="s">
         <v>29</v>
@@ -28939,82 +28939,82 @@
         <v>45382.25</v>
       </c>
       <c r="E308" t="s">
-        <v>51</v>
+        <v>32</v>
       </c>
       <c r="F308" t="s">
-        <v>89</v>
+        <v>98</v>
       </c>
       <c r="G308">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H308">
         <v>1</v>
       </c>
       <c r="I308">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J308">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K308" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="L308">
-        <v>3.5</v>
+        <v>1.444</v>
       </c>
       <c r="M308">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="N308">
-        <v>1.727</v>
+        <v>5.5</v>
       </c>
       <c r="O308">
-        <v>3.5</v>
+        <v>1.444</v>
       </c>
       <c r="P308">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="Q308">
-        <v>1.727</v>
+        <v>5.5</v>
       </c>
       <c r="R308">
-        <v>0.75</v>
+        <v>-1.25</v>
       </c>
       <c r="S308">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="T308">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="U308">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="V308">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="W308">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="X308">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y308">
         <v>-1</v>
       </c>
       <c r="Z308">
-        <v>-1</v>
+        <v>4.5</v>
       </c>
       <c r="AA308">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB308">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC308">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AD308">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="309" spans="1:30">
@@ -29022,7 +29022,7 @@
         <v>307</v>
       </c>
       <c r="B309">
-        <v>8030749</v>
+        <v>8030692</v>
       </c>
       <c r="C309" t="s">
         <v>29</v>
@@ -29031,16 +29031,16 @@
         <v>45382.25</v>
       </c>
       <c r="E309" t="s">
-        <v>75</v>
+        <v>30</v>
       </c>
       <c r="F309" t="s">
-        <v>83</v>
+        <v>40</v>
       </c>
       <c r="G309">
         <v>1</v>
       </c>
       <c r="H309">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I309">
         <v>1</v>
@@ -29049,64 +29049,64 @@
         <v>1</v>
       </c>
       <c r="K309" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="L309">
-        <v>1.571</v>
+        <v>6</v>
       </c>
       <c r="M309">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N309">
-        <v>4.333</v>
+        <v>1.333</v>
       </c>
       <c r="O309">
-        <v>1.571</v>
+        <v>6</v>
       </c>
       <c r="P309">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Q309">
-        <v>4.333</v>
+        <v>1.333</v>
       </c>
       <c r="R309">
-        <v>-0.75</v>
+        <v>1.5</v>
       </c>
       <c r="S309">
-        <v>1.75</v>
+        <v>1.95</v>
       </c>
       <c r="T309">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="U309">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="V309">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="W309">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="X309">
         <v>-1</v>
       </c>
       <c r="Y309">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Z309">
-        <v>-1</v>
+        <v>0.333</v>
       </c>
       <c r="AA309">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB309">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AC309">
         <v>-1</v>
       </c>
       <c r="AD309">
-        <v>0.8500000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="310" spans="1:30">
@@ -29114,7 +29114,7 @@
         <v>308</v>
       </c>
       <c r="B310">
-        <v>8030795</v>
+        <v>8030693</v>
       </c>
       <c r="C310" t="s">
         <v>29</v>
@@ -29123,82 +29123,82 @@
         <v>45382.25</v>
       </c>
       <c r="E310" t="s">
-        <v>32</v>
+        <v>50</v>
       </c>
       <c r="F310" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="G310">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H310">
         <v>1</v>
       </c>
       <c r="I310">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J310">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K310" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="L310">
-        <v>1.444</v>
+        <v>3.5</v>
       </c>
       <c r="M310">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="N310">
-        <v>5.5</v>
+        <v>1.727</v>
       </c>
       <c r="O310">
-        <v>1.444</v>
+        <v>3.5</v>
       </c>
       <c r="P310">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="Q310">
-        <v>5.5</v>
+        <v>1.727</v>
       </c>
       <c r="R310">
-        <v>-1.25</v>
+        <v>0.75</v>
       </c>
       <c r="S310">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="T310">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="U310">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="V310">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="W310">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="X310">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y310">
         <v>-1</v>
       </c>
       <c r="Z310">
-        <v>4.5</v>
+        <v>-1</v>
       </c>
       <c r="AA310">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB310">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC310">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AD310">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="311" spans="1:30">
@@ -29206,7 +29206,7 @@
         <v>309</v>
       </c>
       <c r="B311">
-        <v>8030797</v>
+        <v>8030749</v>
       </c>
       <c r="C311" t="s">
         <v>29</v>
@@ -29215,82 +29215,82 @@
         <v>45382.25</v>
       </c>
       <c r="E311" t="s">
-        <v>45</v>
+        <v>75</v>
       </c>
       <c r="F311" t="s">
-        <v>52</v>
+        <v>83</v>
       </c>
       <c r="G311">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H311">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I311">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J311">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K311" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="L311">
-        <v>2</v>
+        <v>1.571</v>
       </c>
       <c r="M311">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="N311">
-        <v>3</v>
+        <v>4.333</v>
       </c>
       <c r="O311">
-        <v>2</v>
+        <v>1.571</v>
       </c>
       <c r="P311">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="Q311">
-        <v>3</v>
+        <v>4.333</v>
       </c>
       <c r="R311">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="S311">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="T311">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="U311">
         <v>3</v>
       </c>
       <c r="V311">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="W311">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="X311">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Y311">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Z311">
         <v>-1</v>
       </c>
       <c r="AA311">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB311">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AC311">
         <v>-1</v>
       </c>
       <c r="AD311">
-        <v>0.825</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="312" spans="1:30">
@@ -29298,7 +29298,7 @@
         <v>310</v>
       </c>
       <c r="B312">
-        <v>8030692</v>
+        <v>8030797</v>
       </c>
       <c r="C312" t="s">
         <v>29</v>
@@ -29307,73 +29307,73 @@
         <v>45382.25</v>
       </c>
       <c r="E312" t="s">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="F312" t="s">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="G312">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H312">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I312">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J312">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K312" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="L312">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="M312">
-        <v>5</v>
+        <v>3.6</v>
       </c>
       <c r="N312">
-        <v>1.333</v>
+        <v>3</v>
       </c>
       <c r="O312">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="P312">
-        <v>5</v>
+        <v>3.6</v>
       </c>
       <c r="Q312">
-        <v>1.333</v>
+        <v>3</v>
       </c>
       <c r="R312">
-        <v>1.5</v>
+        <v>-0.25</v>
       </c>
       <c r="S312">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="T312">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="U312">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="V312">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="W312">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="X312">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Y312">
         <v>-1</v>
       </c>
       <c r="Z312">
-        <v>0.333</v>
+        <v>-1</v>
       </c>
       <c r="AA312">
-        <v>0.95</v>
+        <v>0.8</v>
       </c>
       <c r="AB312">
         <v>-1</v>
@@ -29382,7 +29382,7 @@
         <v>-1</v>
       </c>
       <c r="AD312">
-        <v>0.8999999999999999</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="313" spans="1:30">
@@ -29390,7 +29390,7 @@
         <v>311</v>
       </c>
       <c r="B313">
-        <v>8030798</v>
+        <v>8030750</v>
       </c>
       <c r="C313" t="s">
         <v>29</v>
@@ -29399,82 +29399,82 @@
         <v>45382.25</v>
       </c>
       <c r="E313" t="s">
-        <v>64</v>
+        <v>41</v>
       </c>
       <c r="F313" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="G313">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H313">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I313">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J313">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K313" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="L313">
-        <v>1.615</v>
+        <v>4.75</v>
       </c>
       <c r="M313">
         <v>4</v>
       </c>
       <c r="N313">
-        <v>4</v>
+        <v>1.533</v>
       </c>
       <c r="O313">
-        <v>1.615</v>
+        <v>4.75</v>
       </c>
       <c r="P313">
         <v>4</v>
       </c>
       <c r="Q313">
-        <v>4</v>
+        <v>1.533</v>
       </c>
       <c r="R313">
-        <v>-0.75</v>
+        <v>1</v>
       </c>
       <c r="S313">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="T313">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="U313">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="V313">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="W313">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="X313">
         <v>-1</v>
       </c>
       <c r="Y313">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Z313">
-        <v>-1</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="AA313">
         <v>-1</v>
       </c>
       <c r="AB313">
-        <v>1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC313">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AD313">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="314" spans="1:30">
@@ -29482,7 +29482,7 @@
         <v>312</v>
       </c>
       <c r="B314">
-        <v>8030750</v>
+        <v>8030798</v>
       </c>
       <c r="C314" t="s">
         <v>29</v>
@@ -29491,82 +29491,82 @@
         <v>45382.25</v>
       </c>
       <c r="E314" t="s">
-        <v>41</v>
+        <v>64</v>
       </c>
       <c r="F314" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="G314">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H314">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I314">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J314">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K314" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="L314">
-        <v>4.75</v>
+        <v>1.615</v>
       </c>
       <c r="M314">
         <v>4</v>
       </c>
       <c r="N314">
-        <v>1.533</v>
+        <v>4</v>
       </c>
       <c r="O314">
-        <v>4.75</v>
+        <v>1.615</v>
       </c>
       <c r="P314">
         <v>4</v>
       </c>
       <c r="Q314">
-        <v>1.533</v>
+        <v>4</v>
       </c>
       <c r="R314">
-        <v>1</v>
+        <v>-0.75</v>
       </c>
       <c r="S314">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="T314">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="U314">
+        <v>3.25</v>
+      </c>
+      <c r="V314">
+        <v>1.8</v>
+      </c>
+      <c r="W314">
+        <v>2</v>
+      </c>
+      <c r="X314">
+        <v>-1</v>
+      </c>
+      <c r="Y314">
         <v>3</v>
       </c>
-      <c r="V314">
-        <v>1.875</v>
-      </c>
-      <c r="W314">
-        <v>1.925</v>
-      </c>
-      <c r="X314">
-        <v>-1</v>
-      </c>
-      <c r="Y314">
-        <v>-1</v>
-      </c>
       <c r="Z314">
-        <v>0.5329999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA314">
         <v>-1</v>
       </c>
       <c r="AB314">
-        <v>0.8999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AC314">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AD314">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="315" spans="1:30">
@@ -29666,7 +29666,7 @@
         <v>314</v>
       </c>
       <c r="B316">
-        <v>8030695</v>
+        <v>8030793</v>
       </c>
       <c r="C316" t="s">
         <v>29</v>
@@ -29675,82 +29675,82 @@
         <v>45382.45833333334</v>
       </c>
       <c r="E316" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="F316" t="s">
-        <v>88</v>
+        <v>72</v>
       </c>
       <c r="G316">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H316">
         <v>1</v>
       </c>
       <c r="I316">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J316">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K316" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="L316">
-        <v>3.1</v>
+        <v>2.15</v>
       </c>
       <c r="M316">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="N316">
-        <v>2</v>
+        <v>2.625</v>
       </c>
       <c r="O316">
-        <v>3.1</v>
+        <v>2.15</v>
       </c>
       <c r="P316">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="Q316">
-        <v>2</v>
+        <v>2.625</v>
       </c>
       <c r="R316">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="S316">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="T316">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="U316">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="V316">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="W316">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="X316">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="Y316">
         <v>-1</v>
       </c>
       <c r="Z316">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA316">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB316">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC316">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AD316">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="317" spans="1:30">
@@ -29758,7 +29758,7 @@
         <v>315</v>
       </c>
       <c r="B317">
-        <v>8030793</v>
+        <v>8030694</v>
       </c>
       <c r="C317" t="s">
         <v>29</v>
@@ -29767,16 +29767,16 @@
         <v>45382.45833333334</v>
       </c>
       <c r="E317" t="s">
-        <v>85</v>
+        <v>43</v>
       </c>
       <c r="F317" t="s">
-        <v>72</v>
+        <v>39</v>
       </c>
       <c r="G317">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H317">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I317">
         <v>1</v>
@@ -29785,61 +29785,61 @@
         <v>0</v>
       </c>
       <c r="K317" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="L317">
-        <v>2.15</v>
+        <v>2.375</v>
       </c>
       <c r="M317">
-        <v>3.75</v>
+        <v>3.25</v>
       </c>
       <c r="N317">
-        <v>2.625</v>
+        <v>2.6</v>
       </c>
       <c r="O317">
-        <v>2.15</v>
+        <v>2.75</v>
       </c>
       <c r="P317">
-        <v>3.75</v>
+        <v>3.25</v>
       </c>
       <c r="Q317">
-        <v>2.625</v>
+        <v>2.25</v>
       </c>
       <c r="R317">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="S317">
+        <v>1.775</v>
+      </c>
+      <c r="T317">
+        <v>2.025</v>
+      </c>
+      <c r="U317">
+        <v>2.5</v>
+      </c>
+      <c r="V317">
+        <v>1.825</v>
+      </c>
+      <c r="W317">
         <v>1.975</v>
       </c>
-      <c r="T317">
-        <v>1.825</v>
-      </c>
-      <c r="U317">
-        <v>3.25</v>
-      </c>
-      <c r="V317">
-        <v>1.85</v>
-      </c>
-      <c r="W317">
-        <v>1.95</v>
-      </c>
       <c r="X317">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="Y317">
         <v>-1</v>
       </c>
       <c r="Z317">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="AA317">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB317">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AC317">
-        <v>0.8500000000000001</v>
+        <v>0.825</v>
       </c>
       <c r="AD317">
         <v>-1</v>
@@ -29850,7 +29850,7 @@
         <v>316</v>
       </c>
       <c r="B318">
-        <v>8030794</v>
+        <v>8030695</v>
       </c>
       <c r="C318" t="s">
         <v>29</v>
@@ -29859,82 +29859,82 @@
         <v>45382.45833333334</v>
       </c>
       <c r="E318" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="F318" t="s">
-        <v>62</v>
+        <v>88</v>
       </c>
       <c r="G318">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H318">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I318">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J318">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K318" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="L318">
-        <v>5.5</v>
+        <v>3.1</v>
       </c>
       <c r="M318">
-        <v>4.2</v>
+        <v>3.4</v>
       </c>
       <c r="N318">
-        <v>1.444</v>
+        <v>2</v>
       </c>
       <c r="O318">
-        <v>5.75</v>
+        <v>3.1</v>
       </c>
       <c r="P318">
-        <v>4.2</v>
+        <v>3.4</v>
       </c>
       <c r="Q318">
-        <v>1.444</v>
+        <v>2</v>
       </c>
       <c r="R318">
-        <v>1.25</v>
+        <v>0.25</v>
       </c>
       <c r="S318">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="T318">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="U318">
         <v>3</v>
       </c>
       <c r="V318">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="W318">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="X318">
-        <v>4.75</v>
+        <v>-1</v>
       </c>
       <c r="Y318">
         <v>-1</v>
       </c>
       <c r="Z318">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA318">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB318">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC318">
         <v>-1</v>
       </c>
       <c r="AD318">
-        <v>0.9750000000000001</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="319" spans="1:30">
@@ -29942,7 +29942,7 @@
         <v>317</v>
       </c>
       <c r="B319">
-        <v>8030694</v>
+        <v>8030794</v>
       </c>
       <c r="C319" t="s">
         <v>29</v>
@@ -29951,16 +29951,16 @@
         <v>45382.45833333334</v>
       </c>
       <c r="E319" t="s">
-        <v>43</v>
+        <v>86</v>
       </c>
       <c r="F319" t="s">
-        <v>39</v>
+        <v>62</v>
       </c>
       <c r="G319">
         <v>1</v>
       </c>
       <c r="H319">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I319">
         <v>1</v>
@@ -29969,37 +29969,37 @@
         <v>0</v>
       </c>
       <c r="K319" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="L319">
-        <v>2.375</v>
+        <v>5.5</v>
       </c>
       <c r="M319">
-        <v>3.25</v>
+        <v>4.2</v>
       </c>
       <c r="N319">
-        <v>2.6</v>
+        <v>1.444</v>
       </c>
       <c r="O319">
-        <v>2.75</v>
+        <v>5.75</v>
       </c>
       <c r="P319">
-        <v>3.25</v>
+        <v>4.2</v>
       </c>
       <c r="Q319">
-        <v>2.25</v>
+        <v>1.444</v>
       </c>
       <c r="R319">
-        <v>0.25</v>
+        <v>1.25</v>
       </c>
       <c r="S319">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="T319">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="U319">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="V319">
         <v>1.825</v>
@@ -30008,25 +30008,25 @@
         <v>1.975</v>
       </c>
       <c r="X319">
-        <v>-1</v>
+        <v>4.75</v>
       </c>
       <c r="Y319">
         <v>-1</v>
       </c>
       <c r="Z319">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="AA319">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB319">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AC319">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AD319">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="320" spans="1:30">
@@ -30034,7 +30034,7 @@
         <v>318</v>
       </c>
       <c r="B320">
-        <v>8030792</v>
+        <v>8030756</v>
       </c>
       <c r="C320" t="s">
         <v>29</v>
@@ -30043,79 +30043,79 @@
         <v>45382.45833333334</v>
       </c>
       <c r="E320" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="F320" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="G320">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H320">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I320">
         <v>2</v>
       </c>
       <c r="J320">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K320" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="L320">
-        <v>1.833</v>
+        <v>2.1</v>
       </c>
       <c r="M320">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="N320">
-        <v>3.4</v>
+        <v>2.7</v>
       </c>
       <c r="O320">
-        <v>1.833</v>
+        <v>2.25</v>
       </c>
       <c r="P320">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="Q320">
-        <v>3.4</v>
+        <v>2.55</v>
       </c>
       <c r="R320">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="S320">
-        <v>1.875</v>
+        <v>1.775</v>
       </c>
       <c r="T320">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="U320">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="V320">
+        <v>1.85</v>
+      </c>
+      <c r="W320">
         <v>1.95</v>
       </c>
-      <c r="W320">
-        <v>1.85</v>
-      </c>
       <c r="X320">
-        <v>0.833</v>
+        <v>-1</v>
       </c>
       <c r="Y320">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Z320">
         <v>-1</v>
       </c>
       <c r="AA320">
-        <v>0.875</v>
+        <v>0</v>
       </c>
       <c r="AB320">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC320">
-        <v>0.95</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AD320">
         <v>-1</v>
@@ -30126,7 +30126,7 @@
         <v>319</v>
       </c>
       <c r="B321">
-        <v>8030756</v>
+        <v>8030796</v>
       </c>
       <c r="C321" t="s">
         <v>29</v>
@@ -30135,82 +30135,82 @@
         <v>45382.45833333334</v>
       </c>
       <c r="E321" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="F321" t="s">
-        <v>67</v>
+        <v>42</v>
       </c>
       <c r="G321">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H321">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I321">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J321">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K321" t="s">
         <v>102</v>
       </c>
       <c r="L321">
-        <v>2.1</v>
+        <v>2.25</v>
       </c>
       <c r="M321">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="N321">
-        <v>2.7</v>
+        <v>2.625</v>
       </c>
       <c r="O321">
         <v>2.25</v>
       </c>
       <c r="P321">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="Q321">
-        <v>2.55</v>
+        <v>2.625</v>
       </c>
       <c r="R321">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="S321">
+        <v>2.025</v>
+      </c>
+      <c r="T321">
         <v>1.775</v>
       </c>
-      <c r="T321">
-        <v>2.025</v>
-      </c>
       <c r="U321">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="V321">
+        <v>1.95</v>
+      </c>
+      <c r="W321">
         <v>1.85</v>
       </c>
-      <c r="W321">
-        <v>1.95</v>
-      </c>
       <c r="X321">
         <v>-1</v>
       </c>
       <c r="Y321">
-        <v>2.75</v>
+        <v>2.4</v>
       </c>
       <c r="Z321">
         <v>-1</v>
       </c>
       <c r="AA321">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="AB321">
-        <v>0</v>
+        <v>0.3875</v>
       </c>
       <c r="AC321">
+        <v>-1</v>
+      </c>
+      <c r="AD321">
         <v>0.8500000000000001</v>
-      </c>
-      <c r="AD321">
-        <v>-1</v>
       </c>
     </row>
     <row r="322" spans="1:30">
@@ -30218,7 +30218,7 @@
         <v>320</v>
       </c>
       <c r="B322">
-        <v>8030755</v>
+        <v>8030792</v>
       </c>
       <c r="C322" t="s">
         <v>29</v>
@@ -30227,55 +30227,55 @@
         <v>45382.45833333334</v>
       </c>
       <c r="E322" t="s">
-        <v>56</v>
+        <v>35</v>
       </c>
       <c r="F322" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="G322">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H322">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I322">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J322">
         <v>0</v>
       </c>
       <c r="K322" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="L322">
-        <v>3.5</v>
+        <v>1.833</v>
       </c>
       <c r="M322">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="N322">
+        <v>3.4</v>
+      </c>
+      <c r="O322">
         <v>1.833</v>
       </c>
-      <c r="O322">
-        <v>3.5</v>
-      </c>
       <c r="P322">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="Q322">
-        <v>1.833</v>
+        <v>3.4</v>
       </c>
       <c r="R322">
-        <v>0.5</v>
+        <v>-0.5</v>
       </c>
       <c r="S322">
+        <v>1.875</v>
+      </c>
+      <c r="T322">
         <v>1.925</v>
       </c>
-      <c r="T322">
-        <v>1.875</v>
-      </c>
       <c r="U322">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="V322">
         <v>1.95</v>
@@ -30284,25 +30284,25 @@
         <v>1.85</v>
       </c>
       <c r="X322">
-        <v>-1</v>
+        <v>0.833</v>
       </c>
       <c r="Y322">
         <v>-1</v>
       </c>
       <c r="Z322">
-        <v>0.833</v>
+        <v>-1</v>
       </c>
       <c r="AA322">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB322">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC322">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AD322">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="323" spans="1:30">
@@ -30310,7 +30310,7 @@
         <v>321</v>
       </c>
       <c r="B323">
-        <v>8030696</v>
+        <v>8030755</v>
       </c>
       <c r="C323" t="s">
         <v>29</v>
@@ -30319,62 +30319,62 @@
         <v>45382.45833333334</v>
       </c>
       <c r="E323" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="F323" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="G323">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H323">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I323">
         <v>0</v>
       </c>
       <c r="J323">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K323" t="s">
         <v>101</v>
       </c>
       <c r="L323">
-        <v>5.5</v>
+        <v>3.5</v>
       </c>
       <c r="M323">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="N323">
-        <v>1.4</v>
+        <v>1.833</v>
       </c>
       <c r="O323">
-        <v>5.5</v>
+        <v>3.5</v>
       </c>
       <c r="P323">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="Q323">
-        <v>1.4</v>
+        <v>1.833</v>
       </c>
       <c r="R323">
-        <v>1.25</v>
+        <v>0.5</v>
       </c>
       <c r="S323">
+        <v>1.925</v>
+      </c>
+      <c r="T323">
+        <v>1.875</v>
+      </c>
+      <c r="U323">
+        <v>2.75</v>
+      </c>
+      <c r="V323">
         <v>1.95</v>
       </c>
-      <c r="T323">
+      <c r="W323">
         <v>1.85</v>
       </c>
-      <c r="U323">
-        <v>3</v>
-      </c>
-      <c r="V323">
-        <v>1.75</v>
-      </c>
-      <c r="W323">
-        <v>1.95</v>
-      </c>
       <c r="X323">
         <v>-1</v>
       </c>
@@ -30382,19 +30382,19 @@
         <v>-1</v>
       </c>
       <c r="Z323">
-        <v>0.3999999999999999</v>
+        <v>0.833</v>
       </c>
       <c r="AA323">
         <v>-1</v>
       </c>
       <c r="AB323">
+        <v>0.875</v>
+      </c>
+      <c r="AC323">
+        <v>-1</v>
+      </c>
+      <c r="AD323">
         <v>0.8500000000000001</v>
-      </c>
-      <c r="AC323">
-        <v>0.75</v>
-      </c>
-      <c r="AD323">
-        <v>-1</v>
       </c>
     </row>
     <row r="324" spans="1:30">
@@ -30402,7 +30402,7 @@
         <v>322</v>
       </c>
       <c r="B324">
-        <v>8030799</v>
+        <v>8030696</v>
       </c>
       <c r="C324" t="s">
         <v>29</v>
@@ -30411,82 +30411,82 @@
         <v>45382.45833333334</v>
       </c>
       <c r="E324" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="F324" t="s">
-        <v>54</v>
+        <v>66</v>
       </c>
       <c r="G324">
         <v>1</v>
       </c>
       <c r="H324">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I324">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J324">
         <v>1</v>
       </c>
       <c r="K324" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="L324">
-        <v>2.1</v>
+        <v>5.5</v>
       </c>
       <c r="M324">
-        <v>3.4</v>
+        <v>4.5</v>
       </c>
       <c r="N324">
-        <v>2.9</v>
+        <v>1.4</v>
       </c>
       <c r="O324">
-        <v>2.1</v>
+        <v>5.5</v>
       </c>
       <c r="P324">
-        <v>3.4</v>
+        <v>4.5</v>
       </c>
       <c r="Q324">
-        <v>2.9</v>
+        <v>1.4</v>
       </c>
       <c r="R324">
-        <v>-0.25</v>
+        <v>1.25</v>
       </c>
       <c r="S324">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="T324">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="U324">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="V324">
+        <v>1.75</v>
+      </c>
+      <c r="W324">
         <v>1.95</v>
       </c>
-      <c r="W324">
-        <v>1.85</v>
-      </c>
       <c r="X324">
         <v>-1</v>
       </c>
       <c r="Y324">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Z324">
-        <v>-1</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="AA324">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB324">
-        <v>0.45</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC324">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AD324">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="325" spans="1:30">
@@ -30494,7 +30494,7 @@
         <v>323</v>
       </c>
       <c r="B325">
-        <v>8030796</v>
+        <v>8030799</v>
       </c>
       <c r="C325" t="s">
         <v>29</v>
@@ -30503,10 +30503,10 @@
         <v>45382.45833333334</v>
       </c>
       <c r="E325" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="F325" t="s">
-        <v>42</v>
+        <v>54</v>
       </c>
       <c r="G325">
         <v>1</v>
@@ -30518,40 +30518,40 @@
         <v>1</v>
       </c>
       <c r="J325">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K325" t="s">
         <v>102</v>
       </c>
       <c r="L325">
-        <v>2.25</v>
+        <v>2.1</v>
       </c>
       <c r="M325">
         <v>3.4</v>
       </c>
       <c r="N325">
-        <v>2.625</v>
+        <v>2.9</v>
       </c>
       <c r="O325">
-        <v>2.25</v>
+        <v>2.1</v>
       </c>
       <c r="P325">
         <v>3.4</v>
       </c>
       <c r="Q325">
-        <v>2.625</v>
+        <v>2.9</v>
       </c>
       <c r="R325">
         <v>-0.25</v>
       </c>
       <c r="S325">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="T325">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="U325">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="V325">
         <v>1.95</v>
@@ -30572,7 +30572,7 @@
         <v>-0.5</v>
       </c>
       <c r="AB325">
-        <v>0.3875</v>
+        <v>0.45</v>
       </c>
       <c r="AC325">
         <v>-1</v>
@@ -30598,7 +30598,7 @@
         <v>45</v>
       </c>
       <c r="F326" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G326">
         <v>3</v>
@@ -31322,7 +31322,7 @@
         <v>332</v>
       </c>
       <c r="B334">
-        <v>8061112</v>
+        <v>8061282</v>
       </c>
       <c r="C334" t="s">
         <v>29</v>
@@ -31331,61 +31331,61 @@
         <v>45389.45833333334</v>
       </c>
       <c r="E334" t="s">
-        <v>56</v>
+        <v>36</v>
       </c>
       <c r="F334" t="s">
-        <v>53</v>
+        <v>82</v>
       </c>
       <c r="G334">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H334">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I334">
         <v>0</v>
       </c>
       <c r="J334">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K334" t="s">
         <v>101</v>
       </c>
       <c r="L334">
+        <v>1.85</v>
+      </c>
+      <c r="M334">
+        <v>3.7</v>
+      </c>
+      <c r="N334">
         <v>3.25</v>
       </c>
-      <c r="M334">
-        <v>3.5</v>
-      </c>
-      <c r="N334">
-        <v>1.909</v>
-      </c>
       <c r="O334">
+        <v>1.85</v>
+      </c>
+      <c r="P334">
+        <v>3.7</v>
+      </c>
+      <c r="Q334">
         <v>3.25</v>
       </c>
-      <c r="P334">
-        <v>3.5</v>
-      </c>
-      <c r="Q334">
-        <v>1.909</v>
-      </c>
       <c r="R334">
-        <v>0.5</v>
+        <v>-0.5</v>
       </c>
       <c r="S334">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="T334">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="U334">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="V334">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W334">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="X334">
         <v>-1</v>
@@ -31394,19 +31394,19 @@
         <v>-1</v>
       </c>
       <c r="Z334">
-        <v>0.909</v>
+        <v>2.25</v>
       </c>
       <c r="AA334">
         <v>-1</v>
       </c>
       <c r="AB334">
-        <v>0.9750000000000001</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC334">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AD334">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="335" spans="1:30">
@@ -31414,7 +31414,7 @@
         <v>333</v>
       </c>
       <c r="B335">
-        <v>8061282</v>
+        <v>8061112</v>
       </c>
       <c r="C335" t="s">
         <v>29</v>
@@ -31423,61 +31423,61 @@
         <v>45389.45833333334</v>
       </c>
       <c r="E335" t="s">
-        <v>36</v>
+        <v>56</v>
       </c>
       <c r="F335" t="s">
-        <v>82</v>
+        <v>53</v>
       </c>
       <c r="G335">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H335">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I335">
         <v>0</v>
       </c>
       <c r="J335">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K335" t="s">
         <v>101</v>
       </c>
       <c r="L335">
-        <v>1.85</v>
+        <v>3.25</v>
       </c>
       <c r="M335">
-        <v>3.7</v>
+        <v>3.5</v>
       </c>
       <c r="N335">
+        <v>1.909</v>
+      </c>
+      <c r="O335">
         <v>3.25</v>
       </c>
-      <c r="O335">
-        <v>1.85</v>
-      </c>
       <c r="P335">
-        <v>3.7</v>
+        <v>3.5</v>
       </c>
       <c r="Q335">
-        <v>3.25</v>
+        <v>1.909</v>
       </c>
       <c r="R335">
-        <v>-0.5</v>
+        <v>0.5</v>
       </c>
       <c r="S335">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="T335">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="U335">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="V335">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="W335">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="X335">
         <v>-1</v>
@@ -31486,19 +31486,19 @@
         <v>-1</v>
       </c>
       <c r="Z335">
-        <v>2.25</v>
+        <v>0.909</v>
       </c>
       <c r="AA335">
         <v>-1</v>
       </c>
       <c r="AB335">
-        <v>0.8500000000000001</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC335">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AD335">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="336" spans="1:30">
@@ -31515,7 +31515,7 @@
         <v>45389.45833333334</v>
       </c>
       <c r="E336" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F336" t="s">
         <v>80</v>
@@ -31874,7 +31874,7 @@
         <v>338</v>
       </c>
       <c r="B340">
-        <v>8061142</v>
+        <v>8061118</v>
       </c>
       <c r="C340" t="s">
         <v>29</v>
@@ -31883,55 +31883,55 @@
         <v>45389.45833333334</v>
       </c>
       <c r="E340" t="s">
-        <v>44</v>
+        <v>61</v>
       </c>
       <c r="F340" t="s">
-        <v>30</v>
+        <v>63</v>
       </c>
       <c r="G340">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H340">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I340">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J340">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K340" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="L340">
-        <v>1.166</v>
+        <v>3.3</v>
       </c>
       <c r="M340">
-        <v>6.5</v>
+        <v>3.75</v>
       </c>
       <c r="N340">
-        <v>9.5</v>
+        <v>1.833</v>
       </c>
       <c r="O340">
-        <v>1.166</v>
+        <v>3.3</v>
       </c>
       <c r="P340">
-        <v>6.5</v>
+        <v>3.75</v>
       </c>
       <c r="Q340">
-        <v>11</v>
+        <v>1.833</v>
       </c>
       <c r="R340">
-        <v>-2.25</v>
+        <v>0.5</v>
       </c>
       <c r="S340">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="T340">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="U340">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="V340">
         <v>1.9</v>
@@ -31940,25 +31940,25 @@
         <v>1.9</v>
       </c>
       <c r="X340">
-        <v>0.1659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Y340">
         <v>-1</v>
       </c>
       <c r="Z340">
-        <v>-1</v>
+        <v>0.833</v>
       </c>
       <c r="AA340">
         <v>-1</v>
       </c>
       <c r="AB340">
-        <v>0.825</v>
+        <v>0.875</v>
       </c>
       <c r="AC340">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AD340">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="341" spans="1:30">
@@ -31966,7 +31966,7 @@
         <v>339</v>
       </c>
       <c r="B341">
-        <v>8061118</v>
+        <v>8061142</v>
       </c>
       <c r="C341" t="s">
         <v>29</v>
@@ -31975,55 +31975,55 @@
         <v>45389.45833333334</v>
       </c>
       <c r="E341" t="s">
-        <v>61</v>
+        <v>44</v>
       </c>
       <c r="F341" t="s">
-        <v>63</v>
+        <v>30</v>
       </c>
       <c r="G341">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H341">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I341">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J341">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K341" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="L341">
-        <v>3.3</v>
+        <v>1.166</v>
       </c>
       <c r="M341">
-        <v>3.75</v>
+        <v>6.5</v>
       </c>
       <c r="N341">
-        <v>1.833</v>
+        <v>9.5</v>
       </c>
       <c r="O341">
-        <v>3.3</v>
+        <v>1.166</v>
       </c>
       <c r="P341">
-        <v>3.75</v>
+        <v>6.5</v>
       </c>
       <c r="Q341">
-        <v>1.833</v>
+        <v>11</v>
       </c>
       <c r="R341">
-        <v>0.5</v>
+        <v>-2.25</v>
       </c>
       <c r="S341">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="T341">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="U341">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="V341">
         <v>1.9</v>
@@ -32032,25 +32032,25 @@
         <v>1.9</v>
       </c>
       <c r="X341">
-        <v>-1</v>
+        <v>0.1659999999999999</v>
       </c>
       <c r="Y341">
         <v>-1</v>
       </c>
       <c r="Z341">
-        <v>0.833</v>
+        <v>-1</v>
       </c>
       <c r="AA341">
         <v>-1</v>
       </c>
       <c r="AB341">
-        <v>0.875</v>
+        <v>0.825</v>
       </c>
       <c r="AC341">
+        <v>-1</v>
+      </c>
+      <c r="AD341">
         <v>0.8999999999999999</v>
-      </c>
-      <c r="AD341">
-        <v>-1</v>
       </c>
     </row>
     <row r="342" spans="1:30">
@@ -32067,7 +32067,7 @@
         <v>45389.45833333334</v>
       </c>
       <c r="E342" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F342" t="s">
         <v>46</v>
@@ -32334,7 +32334,7 @@
         <v>343</v>
       </c>
       <c r="B345">
-        <v>8092705</v>
+        <v>8092703</v>
       </c>
       <c r="C345" t="s">
         <v>29</v>
@@ -32343,19 +32343,19 @@
         <v>45396.25</v>
       </c>
       <c r="E345" t="s">
-        <v>34</v>
+        <v>70</v>
       </c>
       <c r="F345" t="s">
-        <v>59</v>
+        <v>31</v>
       </c>
       <c r="G345">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H345">
         <v>1</v>
       </c>
       <c r="I345">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J345">
         <v>0</v>
@@ -32364,31 +32364,31 @@
         <v>100</v>
       </c>
       <c r="L345">
-        <v>1.727</v>
+        <v>2.1</v>
       </c>
       <c r="M345">
         <v>3.6</v>
       </c>
       <c r="N345">
-        <v>4</v>
+        <v>2.8</v>
       </c>
       <c r="O345">
-        <v>1.727</v>
+        <v>2.1</v>
       </c>
       <c r="P345">
         <v>3.6</v>
       </c>
       <c r="Q345">
-        <v>4</v>
+        <v>2.8</v>
       </c>
       <c r="R345">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="S345">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="T345">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="U345">
         <v>2.75</v>
@@ -32400,7 +32400,7 @@
         <v>1.85</v>
       </c>
       <c r="X345">
-        <v>0.7270000000000001</v>
+        <v>1.1</v>
       </c>
       <c r="Y345">
         <v>-1</v>
@@ -32409,16 +32409,16 @@
         <v>-1</v>
       </c>
       <c r="AA345">
-        <v>0.9750000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB345">
         <v>-1</v>
       </c>
       <c r="AC345">
-        <v>0.95</v>
+        <v>0.475</v>
       </c>
       <c r="AD345">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="346" spans="1:30">
@@ -32610,7 +32610,7 @@
         <v>346</v>
       </c>
       <c r="B348">
-        <v>8092703</v>
+        <v>8092705</v>
       </c>
       <c r="C348" t="s">
         <v>29</v>
@@ -32619,19 +32619,19 @@
         <v>45396.25</v>
       </c>
       <c r="E348" t="s">
-        <v>70</v>
+        <v>34</v>
       </c>
       <c r="F348" t="s">
-        <v>31</v>
+        <v>59</v>
       </c>
       <c r="G348">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H348">
         <v>1</v>
       </c>
       <c r="I348">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J348">
         <v>0</v>
@@ -32640,31 +32640,31 @@
         <v>100</v>
       </c>
       <c r="L348">
-        <v>2.1</v>
+        <v>1.727</v>
       </c>
       <c r="M348">
         <v>3.6</v>
       </c>
       <c r="N348">
-        <v>2.8</v>
+        <v>4</v>
       </c>
       <c r="O348">
-        <v>2.1</v>
+        <v>1.727</v>
       </c>
       <c r="P348">
         <v>3.6</v>
       </c>
       <c r="Q348">
-        <v>2.8</v>
+        <v>4</v>
       </c>
       <c r="R348">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="S348">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="T348">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="U348">
         <v>2.75</v>
@@ -32676,7 +32676,7 @@
         <v>1.85</v>
       </c>
       <c r="X348">
-        <v>1.1</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="Y348">
         <v>-1</v>
@@ -32685,16 +32685,16 @@
         <v>-1</v>
       </c>
       <c r="AA348">
-        <v>0.8999999999999999</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB348">
         <v>-1</v>
       </c>
       <c r="AC348">
-        <v>0.475</v>
+        <v>0.95</v>
       </c>
       <c r="AD348">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="349" spans="1:30">
@@ -33174,7 +33174,7 @@
         <v>52</v>
       </c>
       <c r="F354" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G354">
         <v>4</v>
@@ -33990,7 +33990,7 @@
         <v>361</v>
       </c>
       <c r="B363">
-        <v>8122880</v>
+        <v>8122877</v>
       </c>
       <c r="C363" t="s">
         <v>29</v>
@@ -33999,16 +33999,16 @@
         <v>45403.5</v>
       </c>
       <c r="E363" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="F363" t="s">
-        <v>57</v>
+        <v>34</v>
       </c>
       <c r="G363">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H363">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I363">
         <v>2</v>
@@ -34020,34 +34020,34 @@
         <v>100</v>
       </c>
       <c r="L363">
-        <v>1.571</v>
+        <v>1.833</v>
       </c>
       <c r="M363">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="N363">
-        <v>4.75</v>
+        <v>3.5</v>
       </c>
       <c r="O363">
-        <v>1.571</v>
+        <v>1.833</v>
       </c>
       <c r="P363">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="Q363">
-        <v>4.75</v>
+        <v>3.5</v>
       </c>
       <c r="R363">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="S363">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="T363">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="U363">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="V363">
         <v>1.8</v>
@@ -34056,7 +34056,7 @@
         <v>2</v>
       </c>
       <c r="X363">
-        <v>0.571</v>
+        <v>0.833</v>
       </c>
       <c r="Y363">
         <v>-1</v>
@@ -34065,7 +34065,7 @@
         <v>-1</v>
       </c>
       <c r="AA363">
-        <v>1</v>
+        <v>0.875</v>
       </c>
       <c r="AB363">
         <v>-1</v>
@@ -34082,7 +34082,7 @@
         <v>362</v>
       </c>
       <c r="B364">
-        <v>8122892</v>
+        <v>8122880</v>
       </c>
       <c r="C364" t="s">
         <v>29</v>
@@ -34091,19 +34091,19 @@
         <v>45403.5</v>
       </c>
       <c r="E364" t="s">
-        <v>77</v>
+        <v>54</v>
       </c>
       <c r="F364" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="G364">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H364">
         <v>0</v>
       </c>
       <c r="I364">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J364">
         <v>0</v>
@@ -34112,43 +34112,43 @@
         <v>100</v>
       </c>
       <c r="L364">
-        <v>2.4</v>
+        <v>1.571</v>
       </c>
       <c r="M364">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="N364">
+        <v>4.75</v>
+      </c>
+      <c r="O364">
+        <v>1.571</v>
+      </c>
+      <c r="P364">
+        <v>3.75</v>
+      </c>
+      <c r="Q364">
+        <v>4.75</v>
+      </c>
+      <c r="R364">
+        <v>-1</v>
+      </c>
+      <c r="S364">
+        <v>2</v>
+      </c>
+      <c r="T364">
+        <v>1.8</v>
+      </c>
+      <c r="U364">
         <v>2.5</v>
       </c>
-      <c r="O364">
-        <v>2.4</v>
-      </c>
-      <c r="P364">
-        <v>3.4</v>
-      </c>
-      <c r="Q364">
-        <v>2.5</v>
-      </c>
-      <c r="R364">
-        <v>0</v>
-      </c>
-      <c r="S364">
-        <v>1.85</v>
-      </c>
-      <c r="T364">
-        <v>1.95</v>
-      </c>
-      <c r="U364">
-        <v>3</v>
-      </c>
       <c r="V364">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="W364">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="X364">
-        <v>1.4</v>
+        <v>0.571</v>
       </c>
       <c r="Y364">
         <v>-1</v>
@@ -34157,16 +34157,16 @@
         <v>-1</v>
       </c>
       <c r="AA364">
-        <v>0.8500000000000001</v>
+        <v>1</v>
       </c>
       <c r="AB364">
         <v>-1</v>
       </c>
       <c r="AC364">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AD364">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="365" spans="1:30">
@@ -34174,7 +34174,7 @@
         <v>363</v>
       </c>
       <c r="B365">
-        <v>8122883</v>
+        <v>8122892</v>
       </c>
       <c r="C365" t="s">
         <v>29</v>
@@ -34183,64 +34183,64 @@
         <v>45403.5</v>
       </c>
       <c r="E365" t="s">
-        <v>55</v>
+        <v>77</v>
       </c>
       <c r="F365" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="G365">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H365">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I365">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J365">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K365" t="s">
         <v>100</v>
       </c>
       <c r="L365">
-        <v>1.363</v>
+        <v>2.4</v>
       </c>
       <c r="M365">
-        <v>4.333</v>
+        <v>3.4</v>
       </c>
       <c r="N365">
-        <v>6.5</v>
+        <v>2.5</v>
       </c>
       <c r="O365">
-        <v>1.363</v>
+        <v>2.4</v>
       </c>
       <c r="P365">
-        <v>4.5</v>
+        <v>3.4</v>
       </c>
       <c r="Q365">
-        <v>6.5</v>
+        <v>2.5</v>
       </c>
       <c r="R365">
-        <v>-1.5</v>
+        <v>0</v>
       </c>
       <c r="S365">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="T365">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="U365">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="V365">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="W365">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="X365">
-        <v>0.363</v>
+        <v>1.4</v>
       </c>
       <c r="Y365">
         <v>-1</v>
@@ -34249,16 +34249,16 @@
         <v>-1</v>
       </c>
       <c r="AA365">
-        <v>0.9750000000000001</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB365">
         <v>-1</v>
       </c>
       <c r="AC365">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AD365">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="366" spans="1:30">
@@ -34266,7 +34266,7 @@
         <v>364</v>
       </c>
       <c r="B366">
-        <v>8122881</v>
+        <v>8122883</v>
       </c>
       <c r="C366" t="s">
         <v>29</v>
@@ -34275,64 +34275,64 @@
         <v>45403.5</v>
       </c>
       <c r="E366" t="s">
-        <v>87</v>
+        <v>55</v>
       </c>
       <c r="F366" t="s">
-        <v>73</v>
+        <v>59</v>
       </c>
       <c r="G366">
+        <v>4</v>
+      </c>
+      <c r="H366">
+        <v>2</v>
+      </c>
+      <c r="I366">
         <v>3</v>
       </c>
-      <c r="H366">
-        <v>0</v>
-      </c>
-      <c r="I366">
-        <v>0</v>
-      </c>
       <c r="J366">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K366" t="s">
         <v>100</v>
       </c>
       <c r="L366">
-        <v>1.25</v>
+        <v>1.363</v>
       </c>
       <c r="M366">
-        <v>5.5</v>
+        <v>4.333</v>
       </c>
       <c r="N366">
-        <v>7.5</v>
+        <v>6.5</v>
       </c>
       <c r="O366">
-        <v>1.25</v>
+        <v>1.363</v>
       </c>
       <c r="P366">
-        <v>5.5</v>
+        <v>4.5</v>
       </c>
       <c r="Q366">
-        <v>7.5</v>
+        <v>6.5</v>
       </c>
       <c r="R366">
-        <v>-1.75</v>
+        <v>-1.5</v>
       </c>
       <c r="S366">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="T366">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="U366">
         <v>3.25</v>
       </c>
       <c r="V366">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="W366">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="X366">
-        <v>0.25</v>
+        <v>0.363</v>
       </c>
       <c r="Y366">
         <v>-1</v>
@@ -34341,16 +34341,16 @@
         <v>-1</v>
       </c>
       <c r="AA366">
-        <v>0.8500000000000001</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB366">
         <v>-1</v>
       </c>
       <c r="AC366">
-        <v>-0.5</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AD366">
-        <v>0.475</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="367" spans="1:30">
@@ -34358,7 +34358,7 @@
         <v>365</v>
       </c>
       <c r="B367">
-        <v>8122877</v>
+        <v>8122881</v>
       </c>
       <c r="C367" t="s">
         <v>29</v>
@@ -34367,19 +34367,19 @@
         <v>45403.5</v>
       </c>
       <c r="E367" t="s">
-        <v>38</v>
+        <v>87</v>
       </c>
       <c r="F367" t="s">
-        <v>34</v>
+        <v>73</v>
       </c>
       <c r="G367">
         <v>3</v>
       </c>
       <c r="H367">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I367">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J367">
         <v>0</v>
@@ -34388,61 +34388,61 @@
         <v>100</v>
       </c>
       <c r="L367">
-        <v>1.833</v>
+        <v>1.25</v>
       </c>
       <c r="M367">
-        <v>3.5</v>
+        <v>5.5</v>
       </c>
       <c r="N367">
-        <v>3.5</v>
+        <v>7.5</v>
       </c>
       <c r="O367">
-        <v>1.833</v>
+        <v>1.25</v>
       </c>
       <c r="P367">
-        <v>3.5</v>
+        <v>5.5</v>
       </c>
       <c r="Q367">
-        <v>3.5</v>
+        <v>7.5</v>
       </c>
       <c r="R367">
+        <v>-1.75</v>
+      </c>
+      <c r="S367">
+        <v>1.85</v>
+      </c>
+      <c r="T367">
+        <v>1.95</v>
+      </c>
+      <c r="U367">
+        <v>3.25</v>
+      </c>
+      <c r="V367">
+        <v>1.85</v>
+      </c>
+      <c r="W367">
+        <v>1.95</v>
+      </c>
+      <c r="X367">
+        <v>0.25</v>
+      </c>
+      <c r="Y367">
+        <v>-1</v>
+      </c>
+      <c r="Z367">
+        <v>-1</v>
+      </c>
+      <c r="AA367">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="AB367">
+        <v>-1</v>
+      </c>
+      <c r="AC367">
         <v>-0.5</v>
       </c>
-      <c r="S367">
-        <v>1.875</v>
-      </c>
-      <c r="T367">
-        <v>1.925</v>
-      </c>
-      <c r="U367">
-        <v>2.75</v>
-      </c>
-      <c r="V367">
-        <v>1.8</v>
-      </c>
-      <c r="W367">
-        <v>2</v>
-      </c>
-      <c r="X367">
-        <v>0.833</v>
-      </c>
-      <c r="Y367">
-        <v>-1</v>
-      </c>
-      <c r="Z367">
-        <v>-1</v>
-      </c>
-      <c r="AA367">
-        <v>0.875</v>
-      </c>
-      <c r="AB367">
-        <v>-1</v>
-      </c>
-      <c r="AC367">
-        <v>0.8</v>
-      </c>
       <c r="AD367">
-        <v>-1</v>
+        <v>0.475</v>
       </c>
     </row>
     <row r="368" spans="1:30">
@@ -34551,7 +34551,7 @@
         <v>45403.5</v>
       </c>
       <c r="E369" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F369" t="s">
         <v>82</v>
@@ -34919,7 +34919,7 @@
         <v>45403.5</v>
       </c>
       <c r="E373" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F373" t="s">
         <v>86</v>
@@ -35014,7 +35014,7 @@
         <v>75</v>
       </c>
       <c r="F374" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="G374">
         <v>2</v>
@@ -35094,7 +35094,7 @@
         <v>373</v>
       </c>
       <c r="B375">
-        <v>8152206</v>
+        <v>8152191</v>
       </c>
       <c r="C375" t="s">
         <v>29</v>
@@ -35103,61 +35103,61 @@
         <v>45410.25</v>
       </c>
       <c r="E375" t="s">
-        <v>30</v>
+        <v>84</v>
       </c>
       <c r="F375" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="G375">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H375">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I375">
         <v>0</v>
       </c>
       <c r="J375">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K375" t="s">
         <v>102</v>
       </c>
       <c r="L375">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="M375">
         <v>3.4</v>
       </c>
       <c r="N375">
-        <v>3.1</v>
+        <v>3.75</v>
       </c>
       <c r="O375">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="P375">
         <v>3.4</v>
       </c>
       <c r="Q375">
-        <v>3.1</v>
+        <v>3.75</v>
       </c>
       <c r="R375">
         <v>-0.5</v>
       </c>
       <c r="S375">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="T375">
-        <v>1.75</v>
+        <v>1.95</v>
       </c>
       <c r="U375">
         <v>2.75</v>
       </c>
       <c r="V375">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="W375">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="X375">
         <v>-1</v>
@@ -35172,13 +35172,13 @@
         <v>-1</v>
       </c>
       <c r="AB375">
-        <v>0.75</v>
+        <v>0.95</v>
       </c>
       <c r="AC375">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AD375">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="376" spans="1:30">
@@ -35186,7 +35186,7 @@
         <v>374</v>
       </c>
       <c r="B376">
-        <v>8152187</v>
+        <v>8152206</v>
       </c>
       <c r="C376" t="s">
         <v>29</v>
@@ -35195,52 +35195,52 @@
         <v>45410.25</v>
       </c>
       <c r="E376" t="s">
-        <v>59</v>
+        <v>30</v>
       </c>
       <c r="F376" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="G376">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H376">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I376">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J376">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K376" t="s">
         <v>102</v>
       </c>
       <c r="L376">
-        <v>2.375</v>
+        <v>2</v>
       </c>
       <c r="M376">
         <v>3.4</v>
       </c>
       <c r="N376">
-        <v>2.5</v>
+        <v>3.1</v>
       </c>
       <c r="O376">
-        <v>2.375</v>
+        <v>2</v>
       </c>
       <c r="P376">
         <v>3.4</v>
       </c>
       <c r="Q376">
-        <v>2.5</v>
+        <v>3.1</v>
       </c>
       <c r="R376">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="S376">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="T376">
-        <v>1.975</v>
+        <v>1.75</v>
       </c>
       <c r="U376">
         <v>2.75</v>
@@ -35261,16 +35261,16 @@
         <v>-1</v>
       </c>
       <c r="AA376">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AB376">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="AC376">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AD376">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="377" spans="1:30">
@@ -35278,7 +35278,7 @@
         <v>375</v>
       </c>
       <c r="B377">
-        <v>8152186</v>
+        <v>8152187</v>
       </c>
       <c r="C377" t="s">
         <v>29</v>
@@ -35287,82 +35287,82 @@
         <v>45410.25</v>
       </c>
       <c r="E377" t="s">
-        <v>32</v>
+        <v>59</v>
       </c>
       <c r="F377" t="s">
-        <v>92</v>
+        <v>38</v>
       </c>
       <c r="G377">
         <v>1</v>
       </c>
       <c r="H377">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I377">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J377">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K377" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="L377">
-        <v>1.5</v>
+        <v>2.375</v>
       </c>
       <c r="M377">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="N377">
-        <v>5.5</v>
+        <v>2.5</v>
       </c>
       <c r="O377">
-        <v>1.5</v>
+        <v>2.375</v>
       </c>
       <c r="P377">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="Q377">
-        <v>5.5</v>
+        <v>2.5</v>
       </c>
       <c r="R377">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="S377">
+        <v>1.825</v>
+      </c>
+      <c r="T377">
+        <v>1.975</v>
+      </c>
+      <c r="U377">
+        <v>2.75</v>
+      </c>
+      <c r="V377">
         <v>1.85</v>
       </c>
-      <c r="T377">
+      <c r="W377">
         <v>1.95</v>
       </c>
-      <c r="U377">
-        <v>2.5</v>
-      </c>
-      <c r="V377">
-        <v>1.875</v>
-      </c>
-      <c r="W377">
-        <v>1.925</v>
-      </c>
       <c r="X377">
         <v>-1</v>
       </c>
       <c r="Y377">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Z377">
-        <v>4.5</v>
+        <v>-1</v>
       </c>
       <c r="AA377">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AB377">
+        <v>0</v>
+      </c>
+      <c r="AC377">
+        <v>-1</v>
+      </c>
+      <c r="AD377">
         <v>0.95</v>
-      </c>
-      <c r="AC377">
-        <v>0.875</v>
-      </c>
-      <c r="AD377">
-        <v>-1</v>
       </c>
     </row>
     <row r="378" spans="1:30">
@@ -35370,7 +35370,7 @@
         <v>376</v>
       </c>
       <c r="B378">
-        <v>8152191</v>
+        <v>8152186</v>
       </c>
       <c r="C378" t="s">
         <v>29</v>
@@ -35379,46 +35379,46 @@
         <v>45410.25</v>
       </c>
       <c r="E378" t="s">
-        <v>84</v>
+        <v>32</v>
       </c>
       <c r="F378" t="s">
-        <v>50</v>
+        <v>92</v>
       </c>
       <c r="G378">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H378">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I378">
         <v>0</v>
       </c>
       <c r="J378">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K378" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="L378">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="M378">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="N378">
+        <v>5.5</v>
+      </c>
+      <c r="O378">
+        <v>1.5</v>
+      </c>
+      <c r="P378">
         <v>3.75</v>
       </c>
-      <c r="O378">
-        <v>1.8</v>
-      </c>
-      <c r="P378">
-        <v>3.4</v>
-      </c>
       <c r="Q378">
-        <v>3.75</v>
+        <v>5.5</v>
       </c>
       <c r="R378">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="S378">
         <v>1.85</v>
@@ -35427,7 +35427,7 @@
         <v>1.95</v>
       </c>
       <c r="U378">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="V378">
         <v>1.875</v>
@@ -35439,10 +35439,10 @@
         <v>-1</v>
       </c>
       <c r="Y378">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Z378">
-        <v>-1</v>
+        <v>4.5</v>
       </c>
       <c r="AA378">
         <v>-1</v>
@@ -35451,10 +35451,10 @@
         <v>0.95</v>
       </c>
       <c r="AC378">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AD378">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="379" spans="1:30">
@@ -36759,7 +36759,7 @@
         <v>45417.5</v>
       </c>
       <c r="E393" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F393" t="s">
         <v>94</v>
@@ -37311,7 +37311,7 @@
         <v>45417.5</v>
       </c>
       <c r="E399" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F399" t="s">
         <v>78</v>
@@ -37406,7 +37406,7 @@
         <v>30</v>
       </c>
       <c r="F400" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G400">
         <v>8</v>
@@ -37682,7 +37682,7 @@
         <v>32</v>
       </c>
       <c r="F403" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="G403">
         <v>1</v>
@@ -37863,7 +37863,7 @@
         <v>45424.25</v>
       </c>
       <c r="E405" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F405" t="s">
         <v>66</v>
@@ -38418,7 +38418,7 @@
         <v>41</v>
       </c>
       <c r="F411" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="G411">
         <v>2</v>
@@ -39418,7 +39418,7 @@
         <v>420</v>
       </c>
       <c r="B422">
-        <v>8233178</v>
+        <v>8233069</v>
       </c>
       <c r="C422" t="s">
         <v>29</v>
@@ -39427,82 +39427,82 @@
         <v>45431.5</v>
       </c>
       <c r="E422" t="s">
-        <v>55</v>
+        <v>86</v>
       </c>
       <c r="F422" t="s">
-        <v>42</v>
+        <v>84</v>
       </c>
       <c r="G422">
         <v>2</v>
       </c>
       <c r="H422">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I422">
         <v>1</v>
       </c>
       <c r="J422">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K422" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="L422">
-        <v>1.285</v>
+        <v>2.25</v>
       </c>
       <c r="M422">
-        <v>5</v>
+        <v>3.25</v>
       </c>
       <c r="N422">
-        <v>7.5</v>
+        <v>2.75</v>
       </c>
       <c r="O422">
-        <v>1.285</v>
+        <v>2.25</v>
       </c>
       <c r="P422">
-        <v>5</v>
+        <v>3.25</v>
       </c>
       <c r="Q422">
-        <v>7.5</v>
+        <v>2.75</v>
       </c>
       <c r="R422">
-        <v>-1.5</v>
+        <v>-0.25</v>
       </c>
       <c r="S422">
+        <v>2.025</v>
+      </c>
+      <c r="T422">
         <v>1.775</v>
       </c>
-      <c r="T422">
-        <v>1.925</v>
-      </c>
       <c r="U422">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="V422">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="W422">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="X422">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="Y422">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="Z422">
         <v>-1</v>
       </c>
       <c r="AA422">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AB422">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC422">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AD422">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="423" spans="1:30">
@@ -39510,7 +39510,7 @@
         <v>421</v>
       </c>
       <c r="B423">
-        <v>8233069</v>
+        <v>8233178</v>
       </c>
       <c r="C423" t="s">
         <v>29</v>
@@ -39519,82 +39519,82 @@
         <v>45431.5</v>
       </c>
       <c r="E423" t="s">
-        <v>86</v>
+        <v>55</v>
       </c>
       <c r="F423" t="s">
-        <v>84</v>
+        <v>42</v>
       </c>
       <c r="G423">
         <v>2</v>
       </c>
       <c r="H423">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I423">
         <v>1</v>
       </c>
       <c r="J423">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K423" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="L423">
-        <v>2.25</v>
+        <v>1.285</v>
       </c>
       <c r="M423">
-        <v>3.25</v>
+        <v>5</v>
       </c>
       <c r="N423">
-        <v>2.75</v>
+        <v>7.5</v>
       </c>
       <c r="O423">
-        <v>2.25</v>
+        <v>1.285</v>
       </c>
       <c r="P423">
-        <v>3.25</v>
+        <v>5</v>
       </c>
       <c r="Q423">
-        <v>2.75</v>
+        <v>7.5</v>
       </c>
       <c r="R423">
-        <v>-0.25</v>
+        <v>-1.5</v>
       </c>
       <c r="S423">
-        <v>2.025</v>
+        <v>1.775</v>
       </c>
       <c r="T423">
-        <v>1.775</v>
+        <v>1.925</v>
       </c>
       <c r="U423">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="V423">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="W423">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="X423">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="Y423">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="Z423">
         <v>-1</v>
       </c>
       <c r="AA423">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AB423">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC423">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AD423">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="424" spans="1:30">
@@ -39602,7 +39602,7 @@
         <v>422</v>
       </c>
       <c r="B424">
-        <v>8233315</v>
+        <v>8233266</v>
       </c>
       <c r="C424" t="s">
         <v>29</v>
@@ -39611,52 +39611,52 @@
         <v>45431.5</v>
       </c>
       <c r="E424" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F424" t="s">
-        <v>91</v>
+        <v>76</v>
       </c>
       <c r="G424">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H424">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I424">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J424">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K424" t="s">
         <v>101</v>
       </c>
       <c r="L424">
-        <v>1.833</v>
+        <v>5.25</v>
       </c>
       <c r="M424">
-        <v>3.4</v>
+        <v>4.333</v>
       </c>
       <c r="N424">
-        <v>3.6</v>
+        <v>1.444</v>
       </c>
       <c r="O424">
-        <v>1.833</v>
+        <v>5.25</v>
       </c>
       <c r="P424">
-        <v>3.4</v>
+        <v>4.333</v>
       </c>
       <c r="Q424">
-        <v>3.6</v>
+        <v>1.444</v>
       </c>
       <c r="R424">
-        <v>-0.5</v>
+        <v>1.25</v>
       </c>
       <c r="S424">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="T424">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="U424">
         <v>2.75</v>
@@ -39674,19 +39674,19 @@
         <v>-1</v>
       </c>
       <c r="Z424">
-        <v>2.6</v>
+        <v>0.444</v>
       </c>
       <c r="AA424">
-        <v>-1</v>
+        <v>0.4125</v>
       </c>
       <c r="AB424">
-        <v>0.925</v>
+        <v>-0.5</v>
       </c>
       <c r="AC424">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AD424">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="425" spans="1:30">
@@ -39694,7 +39694,7 @@
         <v>423</v>
       </c>
       <c r="B425">
-        <v>8233266</v>
+        <v>8233315</v>
       </c>
       <c r="C425" t="s">
         <v>29</v>
@@ -39703,52 +39703,52 @@
         <v>45431.5</v>
       </c>
       <c r="E425" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="F425" t="s">
-        <v>76</v>
+        <v>91</v>
       </c>
       <c r="G425">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H425">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I425">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J425">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K425" t="s">
         <v>101</v>
       </c>
       <c r="L425">
-        <v>5.25</v>
+        <v>1.833</v>
       </c>
       <c r="M425">
-        <v>4.333</v>
+        <v>3.4</v>
       </c>
       <c r="N425">
-        <v>1.444</v>
+        <v>3.6</v>
       </c>
       <c r="O425">
-        <v>5.25</v>
+        <v>1.833</v>
       </c>
       <c r="P425">
-        <v>4.333</v>
+        <v>3.4</v>
       </c>
       <c r="Q425">
-        <v>1.444</v>
+        <v>3.6</v>
       </c>
       <c r="R425">
-        <v>1.25</v>
+        <v>-0.5</v>
       </c>
       <c r="S425">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="T425">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="U425">
         <v>2.75</v>
@@ -39766,19 +39766,19 @@
         <v>-1</v>
       </c>
       <c r="Z425">
-        <v>0.444</v>
+        <v>2.6</v>
       </c>
       <c r="AA425">
-        <v>0.4125</v>
+        <v>-1</v>
       </c>
       <c r="AB425">
-        <v>-0.5</v>
+        <v>0.925</v>
       </c>
       <c r="AC425">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AD425">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="426" spans="1:30">
@@ -39878,7 +39878,7 @@
         <v>425</v>
       </c>
       <c r="B427">
-        <v>8233177</v>
+        <v>8233441</v>
       </c>
       <c r="C427" t="s">
         <v>29</v>
@@ -39887,10 +39887,10 @@
         <v>45431.5</v>
       </c>
       <c r="E427" t="s">
-        <v>73</v>
+        <v>48</v>
       </c>
       <c r="F427" t="s">
-        <v>70</v>
+        <v>35</v>
       </c>
       <c r="G427">
         <v>1</v>
@@ -39899,22 +39899,22 @@
         <v>1</v>
       </c>
       <c r="I427">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J427">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K427" t="s">
         <v>102</v>
       </c>
       <c r="L427">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="M427">
         <v>3.25</v>
       </c>
       <c r="N427">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="O427">
         <v>2.75</v>
@@ -39938,10 +39938,10 @@
         <v>2.5</v>
       </c>
       <c r="V427">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="W427">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="X427">
         <v>-1</v>
@@ -39962,7 +39962,7 @@
         <v>-1</v>
       </c>
       <c r="AD427">
-        <v>1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="428" spans="1:30">
@@ -39970,7 +39970,7 @@
         <v>426</v>
       </c>
       <c r="B428">
-        <v>8233441</v>
+        <v>8233177</v>
       </c>
       <c r="C428" t="s">
         <v>29</v>
@@ -39979,10 +39979,10 @@
         <v>45431.5</v>
       </c>
       <c r="E428" t="s">
-        <v>50</v>
+        <v>73</v>
       </c>
       <c r="F428" t="s">
-        <v>35</v>
+        <v>70</v>
       </c>
       <c r="G428">
         <v>1</v>
@@ -39991,22 +39991,22 @@
         <v>1</v>
       </c>
       <c r="I428">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J428">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K428" t="s">
         <v>102</v>
       </c>
       <c r="L428">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="M428">
         <v>3.25</v>
       </c>
       <c r="N428">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="O428">
         <v>2.75</v>
@@ -40030,10 +40030,10 @@
         <v>2.5</v>
       </c>
       <c r="V428">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="W428">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="X428">
         <v>-1</v>
@@ -40054,7 +40054,7 @@
         <v>-1</v>
       </c>
       <c r="AD428">
-        <v>0.925</v>
+        <v>1</v>
       </c>
     </row>
     <row r="429" spans="1:30">
@@ -40848,7 +40848,7 @@
         <v>39</v>
       </c>
       <c r="F438" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G438">
         <v>10</v>

--- a/Hungary NB III/Hungary NB III.xlsx
+++ b/Hungary NB III/Hungary NB III.xlsx
@@ -130,10 +130,10 @@
     <t>Balatonfuredi FC</t>
   </si>
   <si>
-    <t>FC Dabas</t>
+    <t>BKV Elore SC</t>
   </si>
   <si>
-    <t>BKV Elore SC</t>
+    <t>FC Dabas</t>
   </si>
   <si>
     <t>Erdi VSE</t>
@@ -217,10 +217,10 @@
     <t>SzegedCsanad Grosics II</t>
   </si>
   <si>
-    <t>Szolnoki Mav FC</t>
+    <t>Gyirmot FC Gyor II</t>
   </si>
   <si>
-    <t>Gyirmot FC Gyor II</t>
+    <t>Szolnoki Mav FC</t>
   </si>
   <si>
     <t>SC Sopron</t>
@@ -244,10 +244,10 @@
     <t>Ferencvarosi TC II</t>
   </si>
   <si>
-    <t>Penzugyor SE</t>
+    <t>Ivancsa</t>
   </si>
   <si>
-    <t>Ivancsa</t>
+    <t>Penzugyor SE</t>
   </si>
   <si>
     <t>REAC</t>
@@ -1440,7 +1440,7 @@
         <v>37</v>
       </c>
       <c r="F9" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G9">
         <v>1</v>
@@ -1520,7 +1520,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>6991593</v>
+        <v>6991585</v>
       </c>
       <c r="C10" t="s">
         <v>29</v>
@@ -1532,14 +1532,14 @@
         <v>38</v>
       </c>
       <c r="F10" t="s">
-        <v>47</v>
+        <v>77</v>
       </c>
       <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
         <v>3</v>
       </c>
-      <c r="H10">
-        <v>1</v>
-      </c>
       <c r="I10">
         <v>0</v>
       </c>
@@ -1547,34 +1547,34 @@
         <v>1</v>
       </c>
       <c r="K10" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="L10">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="M10">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="N10">
-        <v>1.909</v>
+        <v>2.5</v>
       </c>
       <c r="O10">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="P10">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="Q10">
-        <v>1.909</v>
+        <v>2.5</v>
       </c>
       <c r="R10">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="S10">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="T10">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="U10">
         <v>2.75</v>
@@ -1586,25 +1586,25 @@
         <v>2</v>
       </c>
       <c r="X10">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Y10">
         <v>-1</v>
       </c>
       <c r="Z10">
-        <v>-1</v>
+        <v>1.5</v>
       </c>
       <c r="AA10">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB10">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC10">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="AD10">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="11" spans="1:30">
@@ -1612,7 +1612,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>6991585</v>
+        <v>6991593</v>
       </c>
       <c r="C11" t="s">
         <v>29</v>
@@ -1624,49 +1624,49 @@
         <v>39</v>
       </c>
       <c r="F11" t="s">
-        <v>76</v>
+        <v>47</v>
       </c>
       <c r="G11">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H11">
+        <v>1</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>1</v>
+      </c>
+      <c r="K11" t="s">
+        <v>101</v>
+      </c>
+      <c r="L11">
         <v>3</v>
       </c>
-      <c r="I11">
-        <v>0</v>
-      </c>
-      <c r="J11">
-        <v>1</v>
-      </c>
-      <c r="K11" t="s">
-        <v>100</v>
-      </c>
-      <c r="L11">
-        <v>2.25</v>
-      </c>
       <c r="M11">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="N11">
-        <v>2.5</v>
+        <v>1.909</v>
       </c>
       <c r="O11">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="P11">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="Q11">
-        <v>2.5</v>
+        <v>1.909</v>
       </c>
       <c r="R11">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="S11">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="T11">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="U11">
         <v>2.75</v>
@@ -1678,25 +1678,25 @@
         <v>2</v>
       </c>
       <c r="X11">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Y11">
         <v>-1</v>
       </c>
       <c r="Z11">
-        <v>1.5</v>
+        <v>-1</v>
       </c>
       <c r="AA11">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB11">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC11">
-        <v>0.4</v>
+        <v>0.8</v>
       </c>
       <c r="AD11">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="12" spans="1:30">
@@ -2268,7 +2268,7 @@
         <v>43</v>
       </c>
       <c r="F18" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G18">
         <v>2</v>
@@ -2452,7 +2452,7 @@
         <v>47</v>
       </c>
       <c r="F20" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G20">
         <v>1</v>
@@ -2912,7 +2912,7 @@
         <v>52</v>
       </c>
       <c r="F25" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G25">
         <v>1</v>
@@ -3188,7 +3188,7 @@
         <v>55</v>
       </c>
       <c r="F28" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G28">
         <v>0</v>
@@ -4197,7 +4197,7 @@
         <v>45151.52083333334</v>
       </c>
       <c r="E39" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F39" t="s">
         <v>92</v>
@@ -4289,7 +4289,7 @@
         <v>45151.52083333334</v>
       </c>
       <c r="E40" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F40" t="s">
         <v>52</v>
@@ -4384,7 +4384,7 @@
         <v>41</v>
       </c>
       <c r="F41" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G41">
         <v>2</v>
@@ -5120,7 +5120,7 @@
         <v>33</v>
       </c>
       <c r="F49" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="G49">
         <v>1</v>
@@ -6132,7 +6132,7 @@
         <v>57</v>
       </c>
       <c r="F60" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G60">
         <v>0</v>
@@ -7049,7 +7049,7 @@
         <v>45168.52083333334</v>
       </c>
       <c r="E70" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F70" t="s">
         <v>33</v>
@@ -7224,7 +7224,7 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>7142196</v>
+        <v>7141753</v>
       </c>
       <c r="C72" t="s">
         <v>29</v>
@@ -7236,79 +7236,79 @@
         <v>67</v>
       </c>
       <c r="F72" t="s">
-        <v>88</v>
+        <v>46</v>
       </c>
       <c r="G72">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H72">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I72">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J72">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K72" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="L72">
-        <v>2.25</v>
+        <v>3.1</v>
       </c>
       <c r="M72">
         <v>3.75</v>
       </c>
       <c r="N72">
-        <v>2.5</v>
+        <v>1.909</v>
       </c>
       <c r="O72">
-        <v>2.25</v>
+        <v>3.1</v>
       </c>
       <c r="P72">
         <v>3.75</v>
       </c>
       <c r="Q72">
-        <v>2.5</v>
+        <v>1.909</v>
       </c>
       <c r="R72">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="S72">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="T72">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="U72">
         <v>2.75</v>
       </c>
       <c r="V72">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="W72">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="X72">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y72">
         <v>-1</v>
       </c>
       <c r="Z72">
-        <v>1.5</v>
+        <v>-1</v>
       </c>
       <c r="AA72">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB72">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC72">
-        <v>0.8999999999999999</v>
+        <v>0.4125</v>
       </c>
       <c r="AD72">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="73" spans="1:30">
@@ -7408,7 +7408,7 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>7141753</v>
+        <v>7141752</v>
       </c>
       <c r="C74" t="s">
         <v>29</v>
@@ -7417,82 +7417,82 @@
         <v>45168.52083333334</v>
       </c>
       <c r="E74" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="F74" t="s">
-        <v>46</v>
+        <v>82</v>
       </c>
       <c r="G74">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H74">
         <v>1</v>
       </c>
       <c r="I74">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J74">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K74" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="L74">
-        <v>3.1</v>
+        <v>1.5</v>
       </c>
       <c r="M74">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="N74">
-        <v>1.909</v>
+        <v>5</v>
       </c>
       <c r="O74">
-        <v>3.1</v>
+        <v>1.5</v>
       </c>
       <c r="P74">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="Q74">
-        <v>1.909</v>
+        <v>5</v>
       </c>
       <c r="R74">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="S74">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="T74">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="U74">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="V74">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="W74">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="X74">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y74">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Z74">
         <v>-1</v>
       </c>
       <c r="AA74">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB74">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC74">
-        <v>0.4125</v>
+        <v>-1</v>
       </c>
       <c r="AD74">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="75" spans="1:30">
@@ -7601,7 +7601,7 @@
         <v>45168.52083333334</v>
       </c>
       <c r="E76" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F76" t="s">
         <v>91</v>
@@ -7776,7 +7776,7 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>7141752</v>
+        <v>7142196</v>
       </c>
       <c r="C78" t="s">
         <v>29</v>
@@ -7785,16 +7785,16 @@
         <v>45168.52083333334</v>
       </c>
       <c r="E78" t="s">
-        <v>58</v>
+        <v>68</v>
       </c>
       <c r="F78" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="G78">
         <v>1</v>
       </c>
       <c r="H78">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I78">
         <v>0</v>
@@ -7803,28 +7803,28 @@
         <v>1</v>
       </c>
       <c r="K78" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="L78">
-        <v>1.5</v>
+        <v>2.25</v>
       </c>
       <c r="M78">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="N78">
-        <v>5</v>
+        <v>2.5</v>
       </c>
       <c r="O78">
-        <v>1.5</v>
+        <v>2.25</v>
       </c>
       <c r="P78">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="Q78">
-        <v>5</v>
+        <v>2.5</v>
       </c>
       <c r="R78">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="S78">
         <v>1.8</v>
@@ -7833,7 +7833,7 @@
         <v>2</v>
       </c>
       <c r="U78">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="V78">
         <v>1.9</v>
@@ -7845,10 +7845,10 @@
         <v>-1</v>
       </c>
       <c r="Y78">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Z78">
-        <v>-1</v>
+        <v>1.5</v>
       </c>
       <c r="AA78">
         <v>-1</v>
@@ -7857,10 +7857,10 @@
         <v>1</v>
       </c>
       <c r="AC78">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AD78">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="79" spans="1:30">
@@ -8340,7 +8340,7 @@
         <v>33</v>
       </c>
       <c r="F84" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G84">
         <v>1</v>
@@ -8613,10 +8613,10 @@
         <v>45172.45833333334</v>
       </c>
       <c r="E87" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F87" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="G87">
         <v>2</v>
@@ -9165,7 +9165,7 @@
         <v>45177.45833333334</v>
       </c>
       <c r="E93" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F93" t="s">
         <v>51</v>
@@ -9812,7 +9812,7 @@
         <v>73</v>
       </c>
       <c r="F100" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G100">
         <v>3</v>
@@ -10269,10 +10269,10 @@
         <v>45178.45833333334</v>
       </c>
       <c r="E105" t="s">
+        <v>38</v>
+      </c>
+      <c r="F105" t="s">
         <v>39</v>
-      </c>
-      <c r="F105" t="s">
-        <v>38</v>
       </c>
       <c r="G105">
         <v>1</v>
@@ -10996,7 +10996,7 @@
         <v>111</v>
       </c>
       <c r="B113">
-        <v>7249381</v>
+        <v>7249380</v>
       </c>
       <c r="C113" t="s">
         <v>29</v>
@@ -11005,52 +11005,52 @@
         <v>45193.25</v>
       </c>
       <c r="E113" t="s">
-        <v>52</v>
+        <v>30</v>
       </c>
       <c r="F113" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G113">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H113">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I113">
         <v>0</v>
       </c>
       <c r="J113">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K113" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="L113">
-        <v>3.2</v>
+        <v>2.3</v>
       </c>
       <c r="M113">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="N113">
-        <v>1.8</v>
+        <v>2.4</v>
       </c>
       <c r="O113">
-        <v>3.2</v>
+        <v>2.4</v>
       </c>
       <c r="P113">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="Q113">
-        <v>1.8</v>
+        <v>2.25</v>
       </c>
       <c r="R113">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="S113">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="T113">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="U113">
         <v>3</v>
@@ -11065,22 +11065,22 @@
         <v>-1</v>
       </c>
       <c r="Y113">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Z113">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="AA113">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB113">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC113">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AD113">
-        <v>0.8500000000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="114" spans="1:30">
@@ -11088,7 +11088,7 @@
         <v>112</v>
       </c>
       <c r="B114">
-        <v>7249380</v>
+        <v>7249381</v>
       </c>
       <c r="C114" t="s">
         <v>29</v>
@@ -11097,52 +11097,52 @@
         <v>45193.25</v>
       </c>
       <c r="E114" t="s">
-        <v>30</v>
+        <v>52</v>
       </c>
       <c r="F114" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G114">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H114">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I114">
         <v>0</v>
       </c>
       <c r="J114">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K114" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="L114">
-        <v>2.3</v>
+        <v>3.2</v>
       </c>
       <c r="M114">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="N114">
-        <v>2.4</v>
+        <v>1.8</v>
       </c>
       <c r="O114">
-        <v>2.4</v>
+        <v>3.2</v>
       </c>
       <c r="P114">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="Q114">
-        <v>2.25</v>
+        <v>1.8</v>
       </c>
       <c r="R114">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="S114">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="T114">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="U114">
         <v>3</v>
@@ -11157,22 +11157,22 @@
         <v>-1</v>
       </c>
       <c r="Y114">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Z114">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="AA114">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB114">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC114">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AD114">
-        <v>0</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="115" spans="1:30">
@@ -11640,7 +11640,7 @@
         <v>118</v>
       </c>
       <c r="B120">
-        <v>7249387</v>
+        <v>7249129</v>
       </c>
       <c r="C120" t="s">
         <v>29</v>
@@ -11649,82 +11649,82 @@
         <v>45193.45833333334</v>
       </c>
       <c r="E120" t="s">
-        <v>60</v>
+        <v>76</v>
       </c>
       <c r="F120" t="s">
-        <v>59</v>
+        <v>72</v>
       </c>
       <c r="G120">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H120">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I120">
         <v>0</v>
       </c>
       <c r="J120">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K120" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="L120">
-        <v>2.15</v>
+        <v>1.2</v>
       </c>
       <c r="M120">
-        <v>3.75</v>
+        <v>5.5</v>
       </c>
       <c r="N120">
-        <v>2.6</v>
+        <v>11</v>
       </c>
       <c r="O120">
-        <v>2.15</v>
+        <v>1.2</v>
       </c>
       <c r="P120">
-        <v>3.75</v>
+        <v>5.5</v>
       </c>
       <c r="Q120">
-        <v>2.6</v>
+        <v>11</v>
       </c>
       <c r="R120">
-        <v>-0.25</v>
+        <v>-1.75</v>
       </c>
       <c r="S120">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="T120">
-        <v>1.8</v>
+        <v>2.05</v>
       </c>
       <c r="U120">
         <v>3</v>
       </c>
       <c r="V120">
-        <v>1.95</v>
+        <v>1.75</v>
       </c>
       <c r="W120">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="X120">
-        <v>-1</v>
+        <v>0.2</v>
       </c>
       <c r="Y120">
         <v>-1</v>
       </c>
       <c r="Z120">
-        <v>1.6</v>
+        <v>-1</v>
       </c>
       <c r="AA120">
-        <v>-1</v>
+        <v>0.375</v>
       </c>
       <c r="AB120">
-        <v>0.8</v>
+        <v>-0.5</v>
       </c>
       <c r="AC120">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="AD120">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="121" spans="1:30">
@@ -11836,7 +11836,7 @@
         <v>71</v>
       </c>
       <c r="F122" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G122">
         <v>7</v>
@@ -12017,7 +12017,7 @@
         <v>45193.45833333334</v>
       </c>
       <c r="E124" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F124" t="s">
         <v>43</v>
@@ -12201,7 +12201,7 @@
         <v>45193.45833333334</v>
       </c>
       <c r="E126" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F126" t="s">
         <v>51</v>
@@ -12293,10 +12293,10 @@
         <v>45193.45833333334</v>
       </c>
       <c r="E127" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F127" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="G127">
         <v>0</v>
@@ -12560,7 +12560,7 @@
         <v>128</v>
       </c>
       <c r="B130">
-        <v>7249385</v>
+        <v>7249387</v>
       </c>
       <c r="C130" t="s">
         <v>29</v>
@@ -12569,52 +12569,52 @@
         <v>45193.45833333334</v>
       </c>
       <c r="E130" t="s">
-        <v>42</v>
+        <v>60</v>
       </c>
       <c r="F130" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="G130">
         <v>0</v>
       </c>
       <c r="H130">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I130">
         <v>0</v>
       </c>
       <c r="J130">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K130" t="s">
         <v>100</v>
       </c>
       <c r="L130">
-        <v>3.3</v>
+        <v>2.15</v>
       </c>
       <c r="M130">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="N130">
-        <v>1.909</v>
+        <v>2.6</v>
       </c>
       <c r="O130">
-        <v>3.8</v>
+        <v>2.15</v>
       </c>
       <c r="P130">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="Q130">
-        <v>1.727</v>
+        <v>2.6</v>
       </c>
       <c r="R130">
-        <v>0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="S130">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="T130">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="U130">
         <v>3</v>
@@ -12632,19 +12632,19 @@
         <v>-1</v>
       </c>
       <c r="Z130">
-        <v>0.7270000000000001</v>
+        <v>1.6</v>
       </c>
       <c r="AA130">
         <v>-1</v>
       </c>
       <c r="AB130">
-        <v>0.9750000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AC130">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AD130">
-        <v>0.8500000000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="131" spans="1:30">
@@ -12652,7 +12652,7 @@
         <v>129</v>
       </c>
       <c r="B131">
-        <v>7249129</v>
+        <v>7249385</v>
       </c>
       <c r="C131" t="s">
         <v>29</v>
@@ -12661,82 +12661,82 @@
         <v>45193.45833333334</v>
       </c>
       <c r="E131" t="s">
-        <v>77</v>
+        <v>42</v>
       </c>
       <c r="F131" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="G131">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H131">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I131">
         <v>0</v>
       </c>
       <c r="J131">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K131" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="L131">
-        <v>1.2</v>
+        <v>3.3</v>
       </c>
       <c r="M131">
-        <v>5.5</v>
+        <v>3.5</v>
       </c>
       <c r="N131">
-        <v>11</v>
+        <v>1.909</v>
       </c>
       <c r="O131">
-        <v>1.2</v>
+        <v>3.8</v>
       </c>
       <c r="P131">
-        <v>5.5</v>
+        <v>3.6</v>
       </c>
       <c r="Q131">
-        <v>11</v>
+        <v>1.727</v>
       </c>
       <c r="R131">
-        <v>-1.75</v>
+        <v>0.75</v>
       </c>
       <c r="S131">
-        <v>1.75</v>
+        <v>1.825</v>
       </c>
       <c r="T131">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="U131">
         <v>3</v>
       </c>
       <c r="V131">
-        <v>1.75</v>
+        <v>1.95</v>
       </c>
       <c r="W131">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="X131">
-        <v>0.2</v>
+        <v>-1</v>
       </c>
       <c r="Y131">
         <v>-1</v>
       </c>
       <c r="Z131">
-        <v>-1</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="AA131">
-        <v>0.375</v>
+        <v>-1</v>
       </c>
       <c r="AB131">
-        <v>-0.5</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC131">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AD131">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="132" spans="1:30">
@@ -13216,7 +13216,7 @@
         <v>43</v>
       </c>
       <c r="F137" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G137">
         <v>3</v>
@@ -13305,10 +13305,10 @@
         <v>45200.41666666666</v>
       </c>
       <c r="E138" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F138" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G138">
         <v>1</v>
@@ -13400,7 +13400,7 @@
         <v>53</v>
       </c>
       <c r="F139" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G139">
         <v>3</v>
@@ -13572,7 +13572,7 @@
         <v>139</v>
       </c>
       <c r="B141">
-        <v>7278134</v>
+        <v>7278205</v>
       </c>
       <c r="C141" t="s">
         <v>29</v>
@@ -13581,52 +13581,52 @@
         <v>45200.41666666666</v>
       </c>
       <c r="E141" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="F141" t="s">
-        <v>47</v>
+        <v>81</v>
       </c>
       <c r="G141">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H141">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I141">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J141">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K141" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="L141">
+        <v>2.25</v>
+      </c>
+      <c r="M141">
         <v>3.4</v>
       </c>
-      <c r="M141">
-        <v>3.8</v>
-      </c>
       <c r="N141">
-        <v>1.8</v>
+        <v>2.625</v>
       </c>
       <c r="O141">
+        <v>2.25</v>
+      </c>
+      <c r="P141">
         <v>3.4</v>
       </c>
-      <c r="P141">
-        <v>3.8</v>
-      </c>
       <c r="Q141">
-        <v>1.8</v>
+        <v>2.625</v>
       </c>
       <c r="R141">
-        <v>0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="S141">
+        <v>2.05</v>
+      </c>
+      <c r="T141">
         <v>1.75</v>
-      </c>
-      <c r="T141">
-        <v>2.05</v>
       </c>
       <c r="U141">
         <v>2.75</v>
@@ -13641,22 +13641,22 @@
         <v>-1</v>
       </c>
       <c r="Y141">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Z141">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA141">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB141">
-        <v>1.05</v>
+        <v>0.375</v>
       </c>
       <c r="AC141">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AD141">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="142" spans="1:30">
@@ -13664,7 +13664,7 @@
         <v>140</v>
       </c>
       <c r="B142">
-        <v>7278148</v>
+        <v>7278134</v>
       </c>
       <c r="C142" t="s">
         <v>29</v>
@@ -13673,82 +13673,82 @@
         <v>45200.41666666666</v>
       </c>
       <c r="E142" t="s">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="F142" t="s">
-        <v>75</v>
+        <v>47</v>
       </c>
       <c r="G142">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H142">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I142">
         <v>0</v>
       </c>
       <c r="J142">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K142" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="L142">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="M142">
         <v>3.8</v>
       </c>
       <c r="N142">
-        <v>1.833</v>
+        <v>1.8</v>
       </c>
       <c r="O142">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="P142">
         <v>3.8</v>
       </c>
       <c r="Q142">
-        <v>1.833</v>
+        <v>1.8</v>
       </c>
       <c r="R142">
         <v>0.75</v>
       </c>
       <c r="S142">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="T142">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="U142">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="V142">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="W142">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="X142">
         <v>-1</v>
       </c>
       <c r="Y142">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Z142">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA142">
-        <v>0.7</v>
+        <v>-1</v>
       </c>
       <c r="AB142">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AC142">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AD142">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="143" spans="1:30">
@@ -13756,7 +13756,7 @@
         <v>141</v>
       </c>
       <c r="B143">
-        <v>7278192</v>
+        <v>7278148</v>
       </c>
       <c r="C143" t="s">
         <v>29</v>
@@ -13765,52 +13765,52 @@
         <v>45200.41666666666</v>
       </c>
       <c r="E143" t="s">
-        <v>74</v>
+        <v>40</v>
       </c>
       <c r="F143" t="s">
-        <v>63</v>
+        <v>75</v>
       </c>
       <c r="G143">
         <v>1</v>
       </c>
       <c r="H143">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I143">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J143">
         <v>0</v>
       </c>
       <c r="K143" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="L143">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="M143">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="N143">
-        <v>2</v>
+        <v>1.833</v>
       </c>
       <c r="O143">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="P143">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="Q143">
-        <v>2</v>
+        <v>1.833</v>
       </c>
       <c r="R143">
-        <v>0.25</v>
+        <v>0.75</v>
       </c>
       <c r="S143">
-        <v>2</v>
+        <v>1.7</v>
       </c>
       <c r="T143">
-        <v>1.8</v>
+        <v>2.1</v>
       </c>
       <c r="U143">
         <v>3</v>
@@ -13825,22 +13825,22 @@
         <v>-1</v>
       </c>
       <c r="Y143">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Z143">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA143">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="AB143">
+        <v>-1</v>
+      </c>
+      <c r="AC143">
+        <v>-1</v>
+      </c>
+      <c r="AD143">
         <v>0.8</v>
-      </c>
-      <c r="AC143">
-        <v>0</v>
-      </c>
-      <c r="AD143">
-        <v>0</v>
       </c>
     </row>
     <row r="144" spans="1:30">
@@ -13848,7 +13848,7 @@
         <v>142</v>
       </c>
       <c r="B144">
-        <v>7278194</v>
+        <v>7278192</v>
       </c>
       <c r="C144" t="s">
         <v>29</v>
@@ -13857,52 +13857,52 @@
         <v>45200.41666666666</v>
       </c>
       <c r="E144" t="s">
-        <v>61</v>
+        <v>74</v>
       </c>
       <c r="F144" t="s">
-        <v>78</v>
+        <v>63</v>
       </c>
       <c r="G144">
+        <v>1</v>
+      </c>
+      <c r="H144">
+        <v>2</v>
+      </c>
+      <c r="I144">
+        <v>1</v>
+      </c>
+      <c r="J144">
+        <v>0</v>
+      </c>
+      <c r="K144" t="s">
+        <v>100</v>
+      </c>
+      <c r="L144">
         <v>3</v>
       </c>
-      <c r="H144">
-        <v>0</v>
-      </c>
-      <c r="I144">
-        <v>0</v>
-      </c>
-      <c r="J144">
-        <v>0</v>
-      </c>
-      <c r="K144" t="s">
-        <v>101</v>
-      </c>
-      <c r="L144">
-        <v>1.833</v>
-      </c>
       <c r="M144">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="N144">
-        <v>3.25</v>
+        <v>2</v>
       </c>
       <c r="O144">
-        <v>1.833</v>
+        <v>3</v>
       </c>
       <c r="P144">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="Q144">
-        <v>3.25</v>
+        <v>2</v>
       </c>
       <c r="R144">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="S144">
-        <v>2.075</v>
+        <v>2</v>
       </c>
       <c r="T144">
-        <v>1.725</v>
+        <v>1.8</v>
       </c>
       <c r="U144">
         <v>3</v>
@@ -13914,19 +13914,19 @@
         <v>1.8</v>
       </c>
       <c r="X144">
-        <v>0.833</v>
+        <v>-1</v>
       </c>
       <c r="Y144">
         <v>-1</v>
       </c>
       <c r="Z144">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA144">
-        <v>1.075</v>
+        <v>-1</v>
       </c>
       <c r="AB144">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC144">
         <v>0</v>
@@ -13940,7 +13940,7 @@
         <v>143</v>
       </c>
       <c r="B145">
-        <v>7278204</v>
+        <v>7278194</v>
       </c>
       <c r="C145" t="s">
         <v>29</v>
@@ -13949,10 +13949,10 @@
         <v>45200.41666666666</v>
       </c>
       <c r="E145" t="s">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="F145" t="s">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="G145">
         <v>3</v>
@@ -13961,7 +13961,7 @@
         <v>0</v>
       </c>
       <c r="I145">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J145">
         <v>0</v>
@@ -13970,43 +13970,43 @@
         <v>101</v>
       </c>
       <c r="L145">
-        <v>2.5</v>
+        <v>1.833</v>
       </c>
       <c r="M145">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="N145">
-        <v>2.375</v>
+        <v>3.25</v>
       </c>
       <c r="O145">
-        <v>2.5</v>
+        <v>1.833</v>
       </c>
       <c r="P145">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="Q145">
-        <v>2.375</v>
+        <v>3.25</v>
       </c>
       <c r="R145">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="S145">
-        <v>1.95</v>
+        <v>2.075</v>
       </c>
       <c r="T145">
-        <v>1.85</v>
+        <v>1.725</v>
       </c>
       <c r="U145">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="V145">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W145">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="X145">
-        <v>1.5</v>
+        <v>0.833</v>
       </c>
       <c r="Y145">
         <v>-1</v>
@@ -14015,16 +14015,16 @@
         <v>-1</v>
       </c>
       <c r="AA145">
-        <v>0.95</v>
+        <v>1.075</v>
       </c>
       <c r="AB145">
         <v>-1</v>
       </c>
       <c r="AC145">
-        <v>0.475</v>
+        <v>0</v>
       </c>
       <c r="AD145">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="146" spans="1:30">
@@ -14032,7 +14032,7 @@
         <v>144</v>
       </c>
       <c r="B146">
-        <v>7278205</v>
+        <v>7278204</v>
       </c>
       <c r="C146" t="s">
         <v>29</v>
@@ -14041,16 +14041,16 @@
         <v>45200.41666666666</v>
       </c>
       <c r="E146" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="F146" t="s">
-        <v>81</v>
+        <v>45</v>
       </c>
       <c r="G146">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H146">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I146">
         <v>1</v>
@@ -14059,64 +14059,64 @@
         <v>0</v>
       </c>
       <c r="K146" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="L146">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="M146">
         <v>3.4</v>
       </c>
       <c r="N146">
-        <v>2.625</v>
+        <v>2.375</v>
       </c>
       <c r="O146">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="P146">
         <v>3.4</v>
       </c>
       <c r="Q146">
-        <v>2.625</v>
+        <v>2.375</v>
       </c>
       <c r="R146">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="S146">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="T146">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="U146">
         <v>2.75</v>
       </c>
       <c r="V146">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="W146">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="X146">
-        <v>-1</v>
+        <v>1.5</v>
       </c>
       <c r="Y146">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Z146">
         <v>-1</v>
       </c>
       <c r="AA146">
+        <v>0.95</v>
+      </c>
+      <c r="AB146">
+        <v>-1</v>
+      </c>
+      <c r="AC146">
+        <v>0.475</v>
+      </c>
+      <c r="AD146">
         <v>-0.5</v>
-      </c>
-      <c r="AB146">
-        <v>0.375</v>
-      </c>
-      <c r="AC146">
-        <v>-1</v>
-      </c>
-      <c r="AD146">
-        <v>0.925</v>
       </c>
     </row>
     <row r="147" spans="1:30">
@@ -14780,7 +14780,7 @@
         <v>43</v>
       </c>
       <c r="F154" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="G154">
         <v>4</v>
@@ -15332,7 +15332,7 @@
         <v>66</v>
       </c>
       <c r="F160" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G160">
         <v>1</v>
@@ -16433,7 +16433,7 @@
         <v>45214.41666666666</v>
       </c>
       <c r="E172" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F172" t="s">
         <v>52</v>
@@ -17448,7 +17448,7 @@
         <v>60</v>
       </c>
       <c r="F183" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G183">
         <v>3</v>
@@ -17721,7 +17721,7 @@
         <v>45221.33333333334</v>
       </c>
       <c r="E186" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F186" t="s">
         <v>89</v>
@@ -17813,7 +17813,7 @@
         <v>45221.33333333334</v>
       </c>
       <c r="E187" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F187" t="s">
         <v>40</v>
@@ -18552,7 +18552,7 @@
         <v>50</v>
       </c>
       <c r="F195" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G195">
         <v>2</v>
@@ -19656,7 +19656,7 @@
         <v>59</v>
       </c>
       <c r="F207" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G207">
         <v>1</v>
@@ -19748,7 +19748,7 @@
         <v>33</v>
       </c>
       <c r="F208" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G208">
         <v>3</v>
@@ -20205,7 +20205,7 @@
         <v>45235.375</v>
       </c>
       <c r="E213" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F213" t="s">
         <v>88</v>
@@ -21033,10 +21033,10 @@
         <v>45242.375</v>
       </c>
       <c r="E222" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F222" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G222">
         <v>1</v>
@@ -21217,7 +21217,7 @@
         <v>45248.29166666666</v>
       </c>
       <c r="E224" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F224" t="s">
         <v>37</v>
@@ -21484,7 +21484,7 @@
         <v>225</v>
       </c>
       <c r="B227">
-        <v>7485287</v>
+        <v>7485388</v>
       </c>
       <c r="C227" t="s">
         <v>29</v>
@@ -21493,82 +21493,82 @@
         <v>45248.375</v>
       </c>
       <c r="E227" t="s">
-        <v>57</v>
+        <v>77</v>
       </c>
       <c r="F227" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="G227">
         <v>1</v>
       </c>
       <c r="H227">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I227">
         <v>1</v>
       </c>
       <c r="J227">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K227" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="L227">
-        <v>1.909</v>
+        <v>2</v>
       </c>
       <c r="M227">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="N227">
         <v>3.25</v>
       </c>
       <c r="O227">
-        <v>1.909</v>
+        <v>1.75</v>
       </c>
       <c r="P227">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="Q227">
-        <v>3.25</v>
+        <v>4</v>
       </c>
       <c r="R227">
         <v>-0.5</v>
       </c>
       <c r="S227">
+        <v>1.825</v>
+      </c>
+      <c r="T227">
         <v>1.975</v>
       </c>
-      <c r="T227">
-        <v>1.825</v>
-      </c>
       <c r="U227">
+        <v>2.75</v>
+      </c>
+      <c r="V227">
+        <v>1.875</v>
+      </c>
+      <c r="W227">
+        <v>1.925</v>
+      </c>
+      <c r="X227">
+        <v>-1</v>
+      </c>
+      <c r="Y227">
+        <v>-1</v>
+      </c>
+      <c r="Z227">
         <v>3</v>
       </c>
-      <c r="V227">
-        <v>2.025</v>
-      </c>
-      <c r="W227">
-        <v>1.775</v>
-      </c>
-      <c r="X227">
-        <v>0.909</v>
-      </c>
-      <c r="Y227">
-        <v>-1</v>
-      </c>
-      <c r="Z227">
-        <v>-1</v>
-      </c>
       <c r="AA227">
+        <v>-1</v>
+      </c>
+      <c r="AB227">
         <v>0.9750000000000001</v>
       </c>
-      <c r="AB227">
-        <v>-1</v>
-      </c>
       <c r="AC227">
-        <v>-1</v>
+        <v>0.4375</v>
       </c>
       <c r="AD227">
-        <v>0.7749999999999999</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="228" spans="1:30">
@@ -21576,7 +21576,7 @@
         <v>226</v>
       </c>
       <c r="B228">
-        <v>7485388</v>
+        <v>7485287</v>
       </c>
       <c r="C228" t="s">
         <v>29</v>
@@ -21585,82 +21585,82 @@
         <v>45248.375</v>
       </c>
       <c r="E228" t="s">
-        <v>76</v>
+        <v>57</v>
       </c>
       <c r="F228" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="G228">
         <v>1</v>
       </c>
       <c r="H228">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I228">
         <v>1</v>
       </c>
       <c r="J228">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K228" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="L228">
-        <v>2</v>
+        <v>1.909</v>
       </c>
       <c r="M228">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="N228">
         <v>3.25</v>
       </c>
       <c r="O228">
-        <v>1.75</v>
+        <v>1.909</v>
       </c>
       <c r="P228">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="Q228">
-        <v>4</v>
+        <v>3.25</v>
       </c>
       <c r="R228">
         <v>-0.5</v>
       </c>
       <c r="S228">
+        <v>1.975</v>
+      </c>
+      <c r="T228">
         <v>1.825</v>
       </c>
-      <c r="T228">
-        <v>1.975</v>
-      </c>
       <c r="U228">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="V228">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="W228">
-        <v>1.925</v>
+        <v>1.775</v>
       </c>
       <c r="X228">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="Y228">
         <v>-1</v>
       </c>
       <c r="Z228">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="AA228">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB228">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC228">
-        <v>0.4375</v>
+        <v>-1</v>
       </c>
       <c r="AD228">
-        <v>-0.5</v>
+        <v>0.7749999999999999</v>
       </c>
     </row>
     <row r="229" spans="1:30">
@@ -22232,7 +22232,7 @@
         <v>47</v>
       </c>
       <c r="F235" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G235">
         <v>2</v>
@@ -22873,7 +22873,7 @@
         <v>45256.375</v>
       </c>
       <c r="E242" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F242" t="s">
         <v>52</v>
@@ -23057,7 +23057,7 @@
         <v>45256.375</v>
       </c>
       <c r="E244" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F244" t="s">
         <v>47</v>
@@ -23324,7 +23324,7 @@
         <v>245</v>
       </c>
       <c r="B247">
-        <v>7519597</v>
+        <v>7519603</v>
       </c>
       <c r="C247" t="s">
         <v>29</v>
@@ -23333,55 +23333,55 @@
         <v>45256.375</v>
       </c>
       <c r="E247" t="s">
-        <v>76</v>
+        <v>44</v>
       </c>
       <c r="F247" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="G247">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H247">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I247">
         <v>0</v>
       </c>
       <c r="J247">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K247" t="s">
         <v>100</v>
       </c>
       <c r="L247">
-        <v>4.333</v>
+        <v>2.4</v>
       </c>
       <c r="M247">
-        <v>3.75</v>
+        <v>3</v>
       </c>
       <c r="N247">
-        <v>1.615</v>
+        <v>2.75</v>
       </c>
       <c r="O247">
-        <v>3.75</v>
+        <v>2.4</v>
       </c>
       <c r="P247">
-        <v>3.75</v>
+        <v>3</v>
       </c>
       <c r="Q247">
-        <v>1.727</v>
+        <v>2.75</v>
       </c>
       <c r="R247">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="S247">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="T247">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="U247">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="V247">
         <v>1.95</v>
@@ -23396,19 +23396,19 @@
         <v>-1</v>
       </c>
       <c r="Z247">
-        <v>0.7270000000000001</v>
+        <v>1.75</v>
       </c>
       <c r="AA247">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB247">
-        <v>0.4875</v>
+        <v>1</v>
       </c>
       <c r="AC247">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="AD247">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="248" spans="1:30">
@@ -23416,7 +23416,7 @@
         <v>246</v>
       </c>
       <c r="B248">
-        <v>7519603</v>
+        <v>7523401</v>
       </c>
       <c r="C248" t="s">
         <v>29</v>
@@ -23425,61 +23425,55 @@
         <v>45256.375</v>
       </c>
       <c r="E248" t="s">
-        <v>44</v>
+        <v>83</v>
       </c>
       <c r="F248" t="s">
-        <v>46</v>
+        <v>85</v>
       </c>
       <c r="G248">
         <v>0</v>
       </c>
       <c r="H248">
-        <v>4</v>
-      </c>
-      <c r="I248">
-        <v>0</v>
-      </c>
-      <c r="J248">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K248" t="s">
         <v>100</v>
       </c>
       <c r="L248">
-        <v>2.4</v>
+        <v>2.15</v>
       </c>
       <c r="M248">
-        <v>3</v>
+        <v>3.6</v>
       </c>
       <c r="N248">
-        <v>2.75</v>
+        <v>2.7</v>
       </c>
       <c r="O248">
-        <v>2.4</v>
+        <v>2.2</v>
       </c>
       <c r="P248">
-        <v>3</v>
+        <v>3.75</v>
       </c>
       <c r="Q248">
-        <v>2.75</v>
+        <v>2.6</v>
       </c>
       <c r="R248">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="S248">
+        <v>2</v>
+      </c>
+      <c r="T248">
         <v>1.8</v>
       </c>
-      <c r="T248">
-        <v>2</v>
-      </c>
       <c r="U248">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="V248">
-        <v>1.95</v>
+        <v>1.75</v>
       </c>
       <c r="W248">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="X248">
         <v>-1</v>
@@ -23488,19 +23482,19 @@
         <v>-1</v>
       </c>
       <c r="Z248">
-        <v>1.75</v>
+        <v>1.6</v>
       </c>
       <c r="AA248">
         <v>-1</v>
       </c>
       <c r="AB248">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AC248">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AD248">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="249" spans="1:30">
@@ -23508,7 +23502,7 @@
         <v>247</v>
       </c>
       <c r="B249">
-        <v>7523401</v>
+        <v>7519597</v>
       </c>
       <c r="C249" t="s">
         <v>29</v>
@@ -23517,55 +23511,61 @@
         <v>45256.375</v>
       </c>
       <c r="E249" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="F249" t="s">
-        <v>85</v>
+        <v>43</v>
       </c>
       <c r="G249">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H249">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="I249">
+        <v>0</v>
+      </c>
+      <c r="J249">
+        <v>0</v>
       </c>
       <c r="K249" t="s">
         <v>100</v>
       </c>
       <c r="L249">
-        <v>2.15</v>
+        <v>4.333</v>
       </c>
       <c r="M249">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="N249">
-        <v>2.7</v>
+        <v>1.615</v>
       </c>
       <c r="O249">
-        <v>2.2</v>
+        <v>3.75</v>
       </c>
       <c r="P249">
         <v>3.75</v>
       </c>
       <c r="Q249">
-        <v>2.6</v>
+        <v>1.727</v>
       </c>
       <c r="R249">
-        <v>-0.25</v>
+        <v>0.75</v>
       </c>
       <c r="S249">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="T249">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="U249">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="V249">
-        <v>1.75</v>
+        <v>1.95</v>
       </c>
       <c r="W249">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="X249">
         <v>-1</v>
@@ -23574,19 +23574,19 @@
         <v>-1</v>
       </c>
       <c r="Z249">
-        <v>1.6</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="AA249">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB249">
-        <v>0.8</v>
+        <v>0.4875</v>
       </c>
       <c r="AC249">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AD249">
-        <v>1.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="250" spans="1:30">
@@ -23603,7 +23603,7 @@
         <v>45353.41666666666</v>
       </c>
       <c r="E250" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F250" t="s">
         <v>49</v>
@@ -23698,7 +23698,7 @@
         <v>50</v>
       </c>
       <c r="F251" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="G251">
         <v>0</v>
@@ -23882,7 +23882,7 @@
         <v>52</v>
       </c>
       <c r="F253" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G253">
         <v>0</v>
@@ -24063,7 +24063,7 @@
         <v>45354.41666666666</v>
       </c>
       <c r="E255" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F255" t="s">
         <v>41</v>
@@ -25075,7 +25075,7 @@
         <v>45361.375</v>
       </c>
       <c r="E266" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F266" t="s">
         <v>57</v>
@@ -25627,7 +25627,7 @@
         <v>45361.41666666666</v>
       </c>
       <c r="E272" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F272" t="s">
         <v>92</v>
@@ -25719,7 +25719,7 @@
         <v>45361.41666666666</v>
       </c>
       <c r="E273" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F273" t="s">
         <v>91</v>
@@ -26078,7 +26078,7 @@
         <v>275</v>
       </c>
       <c r="B277">
-        <v>7970661</v>
+        <v>7970668</v>
       </c>
       <c r="C277" t="s">
         <v>29</v>
@@ -26087,46 +26087,46 @@
         <v>45368.29166666666</v>
       </c>
       <c r="E277" t="s">
-        <v>33</v>
+        <v>75</v>
       </c>
       <c r="F277" t="s">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="G277">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H277">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I277">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J277">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K277" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="L277">
-        <v>2.3</v>
+        <v>2.625</v>
       </c>
       <c r="M277">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="N277">
-        <v>2.6</v>
+        <v>2.2</v>
       </c>
       <c r="O277">
-        <v>2.3</v>
+        <v>2.625</v>
       </c>
       <c r="P277">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="Q277">
-        <v>2.6</v>
+        <v>2.2</v>
       </c>
       <c r="R277">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="S277">
         <v>1.8</v>
@@ -26135,34 +26135,34 @@
         <v>2</v>
       </c>
       <c r="U277">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="V277">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="W277">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="X277">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="Y277">
         <v>-1</v>
       </c>
       <c r="Z277">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="AA277">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB277">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC277">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="AD277">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="278" spans="1:30">
@@ -26170,7 +26170,7 @@
         <v>276</v>
       </c>
       <c r="B278">
-        <v>7970668</v>
+        <v>7970661</v>
       </c>
       <c r="C278" t="s">
         <v>29</v>
@@ -26179,46 +26179,46 @@
         <v>45368.29166666666</v>
       </c>
       <c r="E278" t="s">
-        <v>75</v>
+        <v>33</v>
       </c>
       <c r="F278" t="s">
-        <v>77</v>
+        <v>39</v>
       </c>
       <c r="G278">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H278">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I278">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J278">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K278" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="L278">
-        <v>2.625</v>
+        <v>2.3</v>
       </c>
       <c r="M278">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="N278">
-        <v>2.2</v>
+        <v>2.6</v>
       </c>
       <c r="O278">
-        <v>2.625</v>
+        <v>2.3</v>
       </c>
       <c r="P278">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="Q278">
-        <v>2.2</v>
+        <v>2.6</v>
       </c>
       <c r="R278">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="S278">
         <v>1.8</v>
@@ -26227,34 +26227,34 @@
         <v>2</v>
       </c>
       <c r="U278">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="V278">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="W278">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="X278">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="Y278">
         <v>-1</v>
       </c>
       <c r="Z278">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="AA278">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB278">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC278">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="AD278">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="279" spans="1:30">
@@ -26446,7 +26446,7 @@
         <v>279</v>
       </c>
       <c r="B281">
-        <v>7970512</v>
+        <v>7970513</v>
       </c>
       <c r="C281" t="s">
         <v>29</v>
@@ -26455,16 +26455,16 @@
         <v>45368.41666666666</v>
       </c>
       <c r="E281" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="F281" t="s">
-        <v>63</v>
+        <v>44</v>
       </c>
       <c r="G281">
         <v>1</v>
       </c>
       <c r="H281">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I281">
         <v>0</v>
@@ -26473,34 +26473,34 @@
         <v>0</v>
       </c>
       <c r="K281" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="L281">
-        <v>2.45</v>
+        <v>1.363</v>
       </c>
       <c r="M281">
-        <v>3.4</v>
+        <v>4.333</v>
       </c>
       <c r="N281">
-        <v>2.45</v>
+        <v>6.5</v>
       </c>
       <c r="O281">
-        <v>2.45</v>
+        <v>1.363</v>
       </c>
       <c r="P281">
-        <v>3.4</v>
+        <v>4.333</v>
       </c>
       <c r="Q281">
-        <v>2.45</v>
+        <v>6</v>
       </c>
       <c r="R281">
-        <v>0</v>
+        <v>-1.25</v>
       </c>
       <c r="S281">
-        <v>1.9</v>
+        <v>1.75</v>
       </c>
       <c r="T281">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="U281">
         <v>3</v>
@@ -26515,22 +26515,22 @@
         <v>-1</v>
       </c>
       <c r="Y281">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Z281">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="AA281">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AB281">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="AC281">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AD281">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="282" spans="1:30">
@@ -26630,7 +26630,7 @@
         <v>281</v>
       </c>
       <c r="B283">
-        <v>7970513</v>
+        <v>7970512</v>
       </c>
       <c r="C283" t="s">
         <v>29</v>
@@ -26639,16 +26639,16 @@
         <v>45368.41666666666</v>
       </c>
       <c r="E283" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="F283" t="s">
-        <v>44</v>
+        <v>63</v>
       </c>
       <c r="G283">
         <v>1</v>
       </c>
       <c r="H283">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I283">
         <v>0</v>
@@ -26657,34 +26657,34 @@
         <v>0</v>
       </c>
       <c r="K283" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="L283">
-        <v>1.363</v>
+        <v>2.45</v>
       </c>
       <c r="M283">
-        <v>4.333</v>
+        <v>3.4</v>
       </c>
       <c r="N283">
-        <v>6.5</v>
+        <v>2.45</v>
       </c>
       <c r="O283">
-        <v>1.363</v>
+        <v>2.45</v>
       </c>
       <c r="P283">
-        <v>4.333</v>
+        <v>3.4</v>
       </c>
       <c r="Q283">
-        <v>6</v>
+        <v>2.45</v>
       </c>
       <c r="R283">
-        <v>-1.25</v>
+        <v>0</v>
       </c>
       <c r="S283">
-        <v>1.75</v>
+        <v>1.9</v>
       </c>
       <c r="T283">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="U283">
         <v>3</v>
@@ -26699,22 +26699,22 @@
         <v>-1</v>
       </c>
       <c r="Y283">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Z283">
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="AA283">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AB283">
-        <v>0.95</v>
+        <v>0</v>
       </c>
       <c r="AC283">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AD283">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="284" spans="1:30">
@@ -26826,7 +26826,7 @@
         <v>46</v>
       </c>
       <c r="F285" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G285">
         <v>0</v>
@@ -27286,7 +27286,7 @@
         <v>50</v>
       </c>
       <c r="F290" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G290">
         <v>4</v>
@@ -27743,7 +27743,7 @@
         <v>45375.29166666666</v>
       </c>
       <c r="E295" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F295" t="s">
         <v>45</v>
@@ -28663,7 +28663,7 @@
         <v>45375.41666666666</v>
       </c>
       <c r="E305" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F305" t="s">
         <v>33</v>
@@ -28930,7 +28930,7 @@
         <v>306</v>
       </c>
       <c r="B308">
-        <v>8030693</v>
+        <v>8030797</v>
       </c>
       <c r="C308" t="s">
         <v>29</v>
@@ -28939,19 +28939,19 @@
         <v>45382.25</v>
       </c>
       <c r="E308" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F308" t="s">
-        <v>89</v>
+        <v>47</v>
       </c>
       <c r="G308">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H308">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I308">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J308">
         <v>0</v>
@@ -28960,43 +28960,43 @@
         <v>101</v>
       </c>
       <c r="L308">
-        <v>3.5</v>
+        <v>2</v>
       </c>
       <c r="M308">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="N308">
-        <v>1.727</v>
+        <v>3</v>
       </c>
       <c r="O308">
-        <v>3.5</v>
+        <v>2</v>
       </c>
       <c r="P308">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="Q308">
-        <v>1.727</v>
+        <v>3</v>
       </c>
       <c r="R308">
-        <v>0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="S308">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="T308">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="U308">
         <v>3</v>
       </c>
       <c r="V308">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="W308">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="X308">
-        <v>2.5</v>
+        <v>1</v>
       </c>
       <c r="Y308">
         <v>-1</v>
@@ -29005,16 +29005,16 @@
         <v>-1</v>
       </c>
       <c r="AA308">
+        <v>0.8</v>
+      </c>
+      <c r="AB308">
+        <v>-1</v>
+      </c>
+      <c r="AC308">
+        <v>-1</v>
+      </c>
+      <c r="AD308">
         <v>0.825</v>
-      </c>
-      <c r="AB308">
-        <v>-1</v>
-      </c>
-      <c r="AC308">
-        <v>0.8</v>
-      </c>
-      <c r="AD308">
-        <v>-1</v>
       </c>
     </row>
     <row r="309" spans="1:30">
@@ -29022,7 +29022,7 @@
         <v>307</v>
       </c>
       <c r="B309">
-        <v>8030749</v>
+        <v>8030795</v>
       </c>
       <c r="C309" t="s">
         <v>29</v>
@@ -29031,82 +29031,82 @@
         <v>45382.25</v>
       </c>
       <c r="E309" t="s">
-        <v>75</v>
+        <v>31</v>
       </c>
       <c r="F309" t="s">
-        <v>83</v>
+        <v>98</v>
       </c>
       <c r="G309">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H309">
         <v>1</v>
       </c>
       <c r="I309">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J309">
         <v>1</v>
       </c>
       <c r="K309" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="L309">
-        <v>1.571</v>
+        <v>1.444</v>
       </c>
       <c r="M309">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="N309">
-        <v>4.333</v>
+        <v>5.5</v>
       </c>
       <c r="O309">
-        <v>1.571</v>
+        <v>1.444</v>
       </c>
       <c r="P309">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="Q309">
-        <v>4.333</v>
+        <v>5.5</v>
       </c>
       <c r="R309">
-        <v>-0.75</v>
+        <v>-1.25</v>
       </c>
       <c r="S309">
-        <v>1.75</v>
+        <v>1.9</v>
       </c>
       <c r="T309">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="U309">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="V309">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="W309">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="X309">
         <v>-1</v>
       </c>
       <c r="Y309">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Z309">
-        <v>-1</v>
+        <v>4.5</v>
       </c>
       <c r="AA309">
         <v>-1</v>
       </c>
       <c r="AB309">
-        <v>1.05</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC309">
         <v>-1</v>
       </c>
       <c r="AD309">
-        <v>0.8500000000000001</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="310" spans="1:30">
@@ -29126,7 +29126,7 @@
         <v>36</v>
       </c>
       <c r="F310" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G310">
         <v>0</v>
@@ -29206,7 +29206,7 @@
         <v>309</v>
       </c>
       <c r="B311">
-        <v>8030795</v>
+        <v>8030749</v>
       </c>
       <c r="C311" t="s">
         <v>29</v>
@@ -29215,82 +29215,82 @@
         <v>45382.25</v>
       </c>
       <c r="E311" t="s">
-        <v>31</v>
+        <v>75</v>
       </c>
       <c r="F311" t="s">
-        <v>98</v>
+        <v>83</v>
       </c>
       <c r="G311">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H311">
         <v>1</v>
       </c>
       <c r="I311">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J311">
         <v>1</v>
       </c>
       <c r="K311" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="L311">
-        <v>1.444</v>
+        <v>1.571</v>
       </c>
       <c r="M311">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="N311">
-        <v>5.5</v>
+        <v>4.333</v>
       </c>
       <c r="O311">
-        <v>1.444</v>
+        <v>1.571</v>
       </c>
       <c r="P311">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="Q311">
-        <v>5.5</v>
+        <v>4.333</v>
       </c>
       <c r="R311">
-        <v>-1.25</v>
+        <v>-0.75</v>
       </c>
       <c r="S311">
-        <v>1.9</v>
+        <v>1.75</v>
       </c>
       <c r="T311">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="U311">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="V311">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="W311">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="X311">
         <v>-1</v>
       </c>
       <c r="Y311">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Z311">
-        <v>4.5</v>
+        <v>-1</v>
       </c>
       <c r="AA311">
         <v>-1</v>
       </c>
       <c r="AB311">
-        <v>0.8999999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="AC311">
         <v>-1</v>
       </c>
       <c r="AD311">
-        <v>0.925</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="312" spans="1:30">
@@ -29298,7 +29298,7 @@
         <v>310</v>
       </c>
       <c r="B312">
-        <v>8030797</v>
+        <v>8030693</v>
       </c>
       <c r="C312" t="s">
         <v>29</v>
@@ -29307,19 +29307,19 @@
         <v>45382.25</v>
       </c>
       <c r="E312" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="F312" t="s">
-        <v>47</v>
+        <v>89</v>
       </c>
       <c r="G312">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H312">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I312">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J312">
         <v>0</v>
@@ -29328,43 +29328,43 @@
         <v>101</v>
       </c>
       <c r="L312">
-        <v>2</v>
+        <v>3.5</v>
       </c>
       <c r="M312">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="N312">
-        <v>3</v>
+        <v>1.727</v>
       </c>
       <c r="O312">
-        <v>2</v>
+        <v>3.5</v>
       </c>
       <c r="P312">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="Q312">
-        <v>3</v>
+        <v>1.727</v>
       </c>
       <c r="R312">
-        <v>-0.25</v>
+        <v>0.75</v>
       </c>
       <c r="S312">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="T312">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="U312">
         <v>3</v>
       </c>
       <c r="V312">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="W312">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="X312">
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="Y312">
         <v>-1</v>
@@ -29373,16 +29373,16 @@
         <v>-1</v>
       </c>
       <c r="AA312">
+        <v>0.825</v>
+      </c>
+      <c r="AB312">
+        <v>-1</v>
+      </c>
+      <c r="AC312">
         <v>0.8</v>
       </c>
-      <c r="AB312">
-        <v>-1</v>
-      </c>
-      <c r="AC312">
-        <v>-1</v>
-      </c>
       <c r="AD312">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="313" spans="1:30">
@@ -29491,7 +29491,7 @@
         <v>45382.25</v>
       </c>
       <c r="E314" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F314" t="s">
         <v>73</v>
@@ -29666,7 +29666,7 @@
         <v>314</v>
       </c>
       <c r="B316">
-        <v>8030792</v>
+        <v>8030793</v>
       </c>
       <c r="C316" t="s">
         <v>29</v>
@@ -29675,19 +29675,19 @@
         <v>45382.45833333334</v>
       </c>
       <c r="E316" t="s">
-        <v>35</v>
+        <v>85</v>
       </c>
       <c r="F316" t="s">
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="G316">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H316">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I316">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J316">
         <v>0</v>
@@ -29696,43 +29696,43 @@
         <v>101</v>
       </c>
       <c r="L316">
-        <v>1.833</v>
+        <v>2.15</v>
       </c>
       <c r="M316">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="N316">
-        <v>3.4</v>
+        <v>2.625</v>
       </c>
       <c r="O316">
-        <v>1.833</v>
+        <v>2.15</v>
       </c>
       <c r="P316">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="Q316">
-        <v>3.4</v>
+        <v>2.625</v>
       </c>
       <c r="R316">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="S316">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="T316">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="U316">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="V316">
+        <v>1.85</v>
+      </c>
+      <c r="W316">
         <v>1.95</v>
       </c>
-      <c r="W316">
-        <v>1.85</v>
-      </c>
       <c r="X316">
-        <v>0.833</v>
+        <v>1.15</v>
       </c>
       <c r="Y316">
         <v>-1</v>
@@ -29741,13 +29741,13 @@
         <v>-1</v>
       </c>
       <c r="AA316">
-        <v>0.875</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB316">
         <v>-1</v>
       </c>
       <c r="AC316">
-        <v>0.95</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AD316">
         <v>-1</v>
@@ -29758,7 +29758,7 @@
         <v>315</v>
       </c>
       <c r="B317">
-        <v>8030793</v>
+        <v>8030756</v>
       </c>
       <c r="C317" t="s">
         <v>29</v>
@@ -29767,52 +29767,52 @@
         <v>45382.45833333334</v>
       </c>
       <c r="E317" t="s">
-        <v>85</v>
+        <v>55</v>
       </c>
       <c r="F317" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="G317">
         <v>3</v>
       </c>
       <c r="H317">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I317">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J317">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K317" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="L317">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="M317">
         <v>3.75</v>
       </c>
       <c r="N317">
-        <v>2.625</v>
+        <v>2.7</v>
       </c>
       <c r="O317">
-        <v>2.15</v>
+        <v>2.25</v>
       </c>
       <c r="P317">
         <v>3.75</v>
       </c>
       <c r="Q317">
-        <v>2.625</v>
+        <v>2.55</v>
       </c>
       <c r="R317">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="S317">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="T317">
-        <v>1.825</v>
+        <v>2.025</v>
       </c>
       <c r="U317">
         <v>3.25</v>
@@ -29824,19 +29824,19 @@
         <v>1.95</v>
       </c>
       <c r="X317">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="Y317">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Z317">
         <v>-1</v>
       </c>
       <c r="AA317">
-        <v>0.9750000000000001</v>
+        <v>0</v>
       </c>
       <c r="AB317">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC317">
         <v>0.8500000000000001</v>
@@ -29942,7 +29942,7 @@
         <v>317</v>
       </c>
       <c r="B319">
-        <v>8030756</v>
+        <v>8030796</v>
       </c>
       <c r="C319" t="s">
         <v>29</v>
@@ -29951,82 +29951,82 @@
         <v>45382.45833333334</v>
       </c>
       <c r="E319" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F319" t="s">
-        <v>64</v>
+        <v>37</v>
       </c>
       <c r="G319">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H319">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I319">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J319">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K319" t="s">
         <v>102</v>
       </c>
       <c r="L319">
-        <v>2.1</v>
+        <v>2.25</v>
       </c>
       <c r="M319">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="N319">
-        <v>2.7</v>
+        <v>2.625</v>
       </c>
       <c r="O319">
         <v>2.25</v>
       </c>
       <c r="P319">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="Q319">
-        <v>2.55</v>
+        <v>2.625</v>
       </c>
       <c r="R319">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="S319">
+        <v>2.025</v>
+      </c>
+      <c r="T319">
         <v>1.775</v>
       </c>
-      <c r="T319">
-        <v>2.025</v>
-      </c>
       <c r="U319">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="V319">
+        <v>1.95</v>
+      </c>
+      <c r="W319">
         <v>1.85</v>
       </c>
-      <c r="W319">
-        <v>1.95</v>
-      </c>
       <c r="X319">
         <v>-1</v>
       </c>
       <c r="Y319">
-        <v>2.75</v>
+        <v>2.4</v>
       </c>
       <c r="Z319">
         <v>-1</v>
       </c>
       <c r="AA319">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="AB319">
-        <v>0</v>
+        <v>0.3875</v>
       </c>
       <c r="AC319">
+        <v>-1</v>
+      </c>
+      <c r="AD319">
         <v>0.8500000000000001</v>
-      </c>
-      <c r="AD319">
-        <v>-1</v>
       </c>
     </row>
     <row r="320" spans="1:30">
@@ -30034,7 +30034,7 @@
         <v>318</v>
       </c>
       <c r="B320">
-        <v>8030796</v>
+        <v>8030799</v>
       </c>
       <c r="C320" t="s">
         <v>29</v>
@@ -30043,10 +30043,10 @@
         <v>45382.45833333334</v>
       </c>
       <c r="E320" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="F320" t="s">
-        <v>37</v>
+        <v>57</v>
       </c>
       <c r="G320">
         <v>1</v>
@@ -30058,40 +30058,40 @@
         <v>1</v>
       </c>
       <c r="J320">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K320" t="s">
         <v>102</v>
       </c>
       <c r="L320">
-        <v>2.25</v>
+        <v>2.1</v>
       </c>
       <c r="M320">
         <v>3.4</v>
       </c>
       <c r="N320">
-        <v>2.625</v>
+        <v>2.9</v>
       </c>
       <c r="O320">
-        <v>2.25</v>
+        <v>2.1</v>
       </c>
       <c r="P320">
         <v>3.4</v>
       </c>
       <c r="Q320">
-        <v>2.625</v>
+        <v>2.9</v>
       </c>
       <c r="R320">
         <v>-0.25</v>
       </c>
       <c r="S320">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="T320">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="U320">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="V320">
         <v>1.95</v>
@@ -30112,7 +30112,7 @@
         <v>-0.5</v>
       </c>
       <c r="AB320">
-        <v>0.3875</v>
+        <v>0.45</v>
       </c>
       <c r="AC320">
         <v>-1</v>
@@ -30126,7 +30126,7 @@
         <v>319</v>
       </c>
       <c r="B321">
-        <v>8030799</v>
+        <v>8030792</v>
       </c>
       <c r="C321" t="s">
         <v>29</v>
@@ -30135,55 +30135,55 @@
         <v>45382.45833333334</v>
       </c>
       <c r="E321" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="F321" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="G321">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H321">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I321">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J321">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K321" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="L321">
-        <v>2.1</v>
+        <v>1.833</v>
       </c>
       <c r="M321">
+        <v>3.6</v>
+      </c>
+      <c r="N321">
         <v>3.4</v>
       </c>
-      <c r="N321">
-        <v>2.9</v>
-      </c>
       <c r="O321">
-        <v>2.1</v>
+        <v>1.833</v>
       </c>
       <c r="P321">
+        <v>3.6</v>
+      </c>
+      <c r="Q321">
         <v>3.4</v>
       </c>
-      <c r="Q321">
-        <v>2.9</v>
-      </c>
       <c r="R321">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="S321">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="T321">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="U321">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="V321">
         <v>1.95</v>
@@ -30192,25 +30192,25 @@
         <v>1.85</v>
       </c>
       <c r="X321">
-        <v>-1</v>
+        <v>0.833</v>
       </c>
       <c r="Y321">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Z321">
         <v>-1</v>
       </c>
       <c r="AA321">
-        <v>-0.5</v>
+        <v>0.875</v>
       </c>
       <c r="AB321">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="AC321">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AD321">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="322" spans="1:30">
@@ -30227,10 +30227,10 @@
         <v>45382.45833333334</v>
       </c>
       <c r="E322" t="s">
+        <v>39</v>
+      </c>
+      <c r="F322" t="s">
         <v>38</v>
-      </c>
-      <c r="F322" t="s">
-        <v>39</v>
       </c>
       <c r="G322">
         <v>1</v>
@@ -30319,7 +30319,7 @@
         <v>45382.45833333334</v>
       </c>
       <c r="E323" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F323" t="s">
         <v>88</v>
@@ -30414,7 +30414,7 @@
         <v>51</v>
       </c>
       <c r="F324" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="G324">
         <v>1</v>
@@ -30586,7 +30586,7 @@
         <v>324</v>
       </c>
       <c r="B326">
-        <v>8061283</v>
+        <v>8061113</v>
       </c>
       <c r="C326" t="s">
         <v>29</v>
@@ -30595,13 +30595,13 @@
         <v>45389.25</v>
       </c>
       <c r="E326" t="s">
-        <v>72</v>
+        <v>32</v>
       </c>
       <c r="F326" t="s">
-        <v>77</v>
+        <v>53</v>
       </c>
       <c r="G326">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H326">
         <v>2</v>
@@ -30610,67 +30610,67 @@
         <v>1</v>
       </c>
       <c r="J326">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K326" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="L326">
-        <v>8.5</v>
+        <v>1.727</v>
       </c>
       <c r="M326">
-        <v>5.5</v>
+        <v>3.6</v>
       </c>
       <c r="N326">
-        <v>1.222</v>
+        <v>3.8</v>
       </c>
       <c r="O326">
-        <v>19</v>
+        <v>1.727</v>
       </c>
       <c r="P326">
-        <v>7</v>
+        <v>3.6</v>
       </c>
       <c r="Q326">
-        <v>1.125</v>
+        <v>3.8</v>
       </c>
       <c r="R326">
-        <v>2.25</v>
+        <v>-0.5</v>
       </c>
       <c r="S326">
-        <v>1.975</v>
+        <v>1.75</v>
       </c>
       <c r="T326">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="U326">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="V326">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="W326">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="X326">
         <v>-1</v>
       </c>
       <c r="Y326">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Z326">
-        <v>0.125</v>
+        <v>-1</v>
       </c>
       <c r="AA326">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB326">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC326">
-        <v>0</v>
+        <v>0.875</v>
       </c>
       <c r="AD326">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="327" spans="1:30">
@@ -30770,7 +30770,7 @@
         <v>326</v>
       </c>
       <c r="B328">
-        <v>8061113</v>
+        <v>8061110</v>
       </c>
       <c r="C328" t="s">
         <v>29</v>
@@ -30779,52 +30779,52 @@
         <v>45389.25</v>
       </c>
       <c r="E328" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F328" t="s">
-        <v>53</v>
+        <v>31</v>
       </c>
       <c r="G328">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H328">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I328">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J328">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K328" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="L328">
-        <v>1.727</v>
+        <v>3.3</v>
       </c>
       <c r="M328">
         <v>3.6</v>
       </c>
       <c r="N328">
-        <v>3.8</v>
+        <v>1.869</v>
       </c>
       <c r="O328">
-        <v>1.727</v>
+        <v>3.3</v>
       </c>
       <c r="P328">
         <v>3.6</v>
       </c>
       <c r="Q328">
-        <v>3.8</v>
+        <v>1.85</v>
       </c>
       <c r="R328">
-        <v>-0.5</v>
+        <v>0.5</v>
       </c>
       <c r="S328">
-        <v>1.75</v>
+        <v>1.875</v>
       </c>
       <c r="T328">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="U328">
         <v>2.75</v>
@@ -30839,22 +30839,22 @@
         <v>-1</v>
       </c>
       <c r="Y328">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Z328">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA328">
         <v>-1</v>
       </c>
       <c r="AB328">
-        <v>0.95</v>
+        <v>0.925</v>
       </c>
       <c r="AC328">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AD328">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="329" spans="1:30">
@@ -30862,7 +30862,7 @@
         <v>327</v>
       </c>
       <c r="B329">
-        <v>8061110</v>
+        <v>8061283</v>
       </c>
       <c r="C329" t="s">
         <v>29</v>
@@ -30871,61 +30871,61 @@
         <v>45389.25</v>
       </c>
       <c r="E329" t="s">
-        <v>34</v>
+        <v>72</v>
       </c>
       <c r="F329" t="s">
-        <v>31</v>
+        <v>76</v>
       </c>
       <c r="G329">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H329">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I329">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J329">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K329" t="s">
         <v>100</v>
       </c>
       <c r="L329">
-        <v>3.3</v>
+        <v>8.5</v>
       </c>
       <c r="M329">
-        <v>3.6</v>
+        <v>5.5</v>
       </c>
       <c r="N329">
-        <v>1.869</v>
+        <v>1.222</v>
       </c>
       <c r="O329">
-        <v>3.3</v>
+        <v>19</v>
       </c>
       <c r="P329">
-        <v>3.6</v>
+        <v>7</v>
       </c>
       <c r="Q329">
-        <v>1.85</v>
+        <v>1.125</v>
       </c>
       <c r="R329">
-        <v>0.5</v>
+        <v>2.25</v>
       </c>
       <c r="S329">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="T329">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="U329">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="V329">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="W329">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="X329">
         <v>-1</v>
@@ -30934,19 +30934,19 @@
         <v>-1</v>
       </c>
       <c r="Z329">
-        <v>0.8500000000000001</v>
+        <v>0.125</v>
       </c>
       <c r="AA329">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB329">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC329">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AD329">
-        <v>0.925</v>
+        <v>0</v>
       </c>
     </row>
     <row r="330" spans="1:30">
@@ -31055,7 +31055,7 @@
         <v>45389.25</v>
       </c>
       <c r="E331" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F331" t="s">
         <v>71</v>
@@ -31322,7 +31322,7 @@
         <v>332</v>
       </c>
       <c r="B334">
-        <v>8061139</v>
+        <v>8061118</v>
       </c>
       <c r="C334" t="s">
         <v>29</v>
@@ -31331,82 +31331,82 @@
         <v>45389.45833333334</v>
       </c>
       <c r="E334" t="s">
-        <v>43</v>
+        <v>62</v>
       </c>
       <c r="F334" t="s">
-        <v>38</v>
+        <v>63</v>
       </c>
       <c r="G334">
+        <v>2</v>
+      </c>
+      <c r="H334">
+        <v>5</v>
+      </c>
+      <c r="I334">
+        <v>1</v>
+      </c>
+      <c r="J334">
         <v>3</v>
       </c>
-      <c r="H334">
-        <v>0</v>
-      </c>
-      <c r="I334">
-        <v>2</v>
-      </c>
-      <c r="J334">
-        <v>0</v>
-      </c>
       <c r="K334" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="L334">
-        <v>1.285</v>
+        <v>3.3</v>
       </c>
       <c r="M334">
-        <v>5.2</v>
+        <v>3.75</v>
       </c>
       <c r="N334">
-        <v>7</v>
+        <v>1.833</v>
       </c>
       <c r="O334">
-        <v>1.285</v>
+        <v>3.3</v>
       </c>
       <c r="P334">
-        <v>5.25</v>
+        <v>3.75</v>
       </c>
       <c r="Q334">
-        <v>7</v>
+        <v>1.833</v>
       </c>
       <c r="R334">
-        <v>-1.75</v>
+        <v>0.5</v>
       </c>
       <c r="S334">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="T334">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="U334">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="V334">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W334">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="X334">
-        <v>0.2849999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Y334">
         <v>-1</v>
       </c>
       <c r="Z334">
-        <v>-1</v>
+        <v>0.833</v>
       </c>
       <c r="AA334">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB334">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC334">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AD334">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="335" spans="1:30">
@@ -31782,7 +31782,7 @@
         <v>337</v>
       </c>
       <c r="B339">
-        <v>8061118</v>
+        <v>8061139</v>
       </c>
       <c r="C339" t="s">
         <v>29</v>
@@ -31791,82 +31791,82 @@
         <v>45389.45833333334</v>
       </c>
       <c r="E339" t="s">
-        <v>62</v>
+        <v>43</v>
       </c>
       <c r="F339" t="s">
-        <v>63</v>
+        <v>39</v>
       </c>
       <c r="G339">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H339">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I339">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J339">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K339" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="L339">
-        <v>3.3</v>
+        <v>1.285</v>
       </c>
       <c r="M339">
-        <v>3.75</v>
+        <v>5.2</v>
       </c>
       <c r="N339">
-        <v>1.833</v>
+        <v>7</v>
       </c>
       <c r="O339">
-        <v>3.3</v>
+        <v>1.285</v>
       </c>
       <c r="P339">
-        <v>3.75</v>
+        <v>5.25</v>
       </c>
       <c r="Q339">
-        <v>1.833</v>
+        <v>7</v>
       </c>
       <c r="R339">
-        <v>0.5</v>
+        <v>-1.75</v>
       </c>
       <c r="S339">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="T339">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="U339">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="V339">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W339">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="X339">
-        <v>-1</v>
+        <v>0.2849999999999999</v>
       </c>
       <c r="Y339">
         <v>-1</v>
       </c>
       <c r="Z339">
-        <v>0.833</v>
+        <v>-1</v>
       </c>
       <c r="AA339">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB339">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC339">
-        <v>0.8999999999999999</v>
+        <v>-0.5</v>
       </c>
       <c r="AD339">
-        <v>-1</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="340" spans="1:30">
@@ -31966,7 +31966,7 @@
         <v>339</v>
       </c>
       <c r="B341">
-        <v>8061282</v>
+        <v>8061280</v>
       </c>
       <c r="C341" t="s">
         <v>29</v>
@@ -31975,61 +31975,61 @@
         <v>45389.45833333334</v>
       </c>
       <c r="E341" t="s">
-        <v>40</v>
+        <v>54</v>
       </c>
       <c r="F341" t="s">
-        <v>82</v>
+        <v>55</v>
       </c>
       <c r="G341">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H341">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I341">
         <v>0</v>
       </c>
       <c r="J341">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K341" t="s">
         <v>100</v>
       </c>
       <c r="L341">
-        <v>1.85</v>
+        <v>5.75</v>
       </c>
       <c r="M341">
-        <v>3.7</v>
+        <v>4.75</v>
       </c>
       <c r="N341">
-        <v>3.25</v>
+        <v>1.363</v>
       </c>
       <c r="O341">
-        <v>1.85</v>
+        <v>5.5</v>
       </c>
       <c r="P341">
-        <v>3.7</v>
+        <v>4.75</v>
       </c>
       <c r="Q341">
-        <v>3.25</v>
+        <v>1.363</v>
       </c>
       <c r="R341">
-        <v>-0.5</v>
+        <v>1.5</v>
       </c>
       <c r="S341">
+        <v>1.75</v>
+      </c>
+      <c r="T341">
         <v>1.95</v>
-      </c>
-      <c r="T341">
-        <v>1.85</v>
       </c>
       <c r="U341">
         <v>3</v>
       </c>
       <c r="V341">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="W341">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="X341">
         <v>-1</v>
@@ -32038,19 +32038,19 @@
         <v>-1</v>
       </c>
       <c r="Z341">
-        <v>2.25</v>
+        <v>0.363</v>
       </c>
       <c r="AA341">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AB341">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC341">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AD341">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="342" spans="1:30">
@@ -32058,7 +32058,7 @@
         <v>340</v>
       </c>
       <c r="B342">
-        <v>8061280</v>
+        <v>8061282</v>
       </c>
       <c r="C342" t="s">
         <v>29</v>
@@ -32067,61 +32067,61 @@
         <v>45389.45833333334</v>
       </c>
       <c r="E342" t="s">
-        <v>54</v>
+        <v>40</v>
       </c>
       <c r="F342" t="s">
-        <v>55</v>
+        <v>82</v>
       </c>
       <c r="G342">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H342">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I342">
         <v>0</v>
       </c>
       <c r="J342">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K342" t="s">
         <v>100</v>
       </c>
       <c r="L342">
-        <v>5.75</v>
+        <v>1.85</v>
       </c>
       <c r="M342">
-        <v>4.75</v>
+        <v>3.7</v>
       </c>
       <c r="N342">
-        <v>1.363</v>
+        <v>3.25</v>
       </c>
       <c r="O342">
-        <v>5.5</v>
+        <v>1.85</v>
       </c>
       <c r="P342">
-        <v>4.75</v>
+        <v>3.7</v>
       </c>
       <c r="Q342">
-        <v>1.363</v>
+        <v>3.25</v>
       </c>
       <c r="R342">
-        <v>1.5</v>
+        <v>-0.5</v>
       </c>
       <c r="S342">
-        <v>1.75</v>
+        <v>1.95</v>
       </c>
       <c r="T342">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="U342">
         <v>3</v>
       </c>
       <c r="V342">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="W342">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="X342">
         <v>-1</v>
@@ -32130,19 +32130,19 @@
         <v>-1</v>
       </c>
       <c r="Z342">
-        <v>0.363</v>
+        <v>2.25</v>
       </c>
       <c r="AA342">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AB342">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC342">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AD342">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="343" spans="1:30">
@@ -32159,7 +32159,7 @@
         <v>45395.25</v>
       </c>
       <c r="E343" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F343" t="s">
         <v>53</v>
@@ -32242,7 +32242,7 @@
         <v>342</v>
       </c>
       <c r="B344">
-        <v>8092798</v>
+        <v>8092801</v>
       </c>
       <c r="C344" t="s">
         <v>29</v>
@@ -32251,13 +32251,13 @@
         <v>45396.25</v>
       </c>
       <c r="E344" t="s">
-        <v>75</v>
+        <v>33</v>
       </c>
       <c r="F344" t="s">
-        <v>40</v>
+        <v>66</v>
       </c>
       <c r="G344">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H344">
         <v>0</v>
@@ -32272,25 +32272,25 @@
         <v>101</v>
       </c>
       <c r="L344">
-        <v>1.571</v>
+        <v>2.15</v>
       </c>
       <c r="M344">
         <v>3.75</v>
       </c>
       <c r="N344">
-        <v>4.75</v>
+        <v>2.625</v>
       </c>
       <c r="O344">
-        <v>1.571</v>
+        <v>2.15</v>
       </c>
       <c r="P344">
         <v>3.75</v>
       </c>
       <c r="Q344">
-        <v>4.75</v>
+        <v>2.625</v>
       </c>
       <c r="R344">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="S344">
         <v>1.975</v>
@@ -32299,16 +32299,16 @@
         <v>1.825</v>
       </c>
       <c r="U344">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="V344">
-        <v>1.75</v>
+        <v>1.875</v>
       </c>
       <c r="W344">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="X344">
-        <v>0.571</v>
+        <v>1.15</v>
       </c>
       <c r="Y344">
         <v>-1</v>
@@ -32323,10 +32323,10 @@
         <v>-1</v>
       </c>
       <c r="AC344">
-        <v>0.375</v>
+        <v>-1</v>
       </c>
       <c r="AD344">
-        <v>-0.5</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="345" spans="1:30">
@@ -32334,7 +32334,7 @@
         <v>343</v>
       </c>
       <c r="B345">
-        <v>8092705</v>
+        <v>8092798</v>
       </c>
       <c r="C345" t="s">
         <v>29</v>
@@ -32343,19 +32343,19 @@
         <v>45396.25</v>
       </c>
       <c r="E345" t="s">
-        <v>30</v>
+        <v>75</v>
       </c>
       <c r="F345" t="s">
-        <v>59</v>
+        <v>40</v>
       </c>
       <c r="G345">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H345">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I345">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J345">
         <v>0</v>
@@ -32364,25 +32364,25 @@
         <v>101</v>
       </c>
       <c r="L345">
-        <v>1.727</v>
+        <v>1.571</v>
       </c>
       <c r="M345">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="N345">
-        <v>4</v>
+        <v>4.75</v>
       </c>
       <c r="O345">
-        <v>1.727</v>
+        <v>1.571</v>
       </c>
       <c r="P345">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="Q345">
-        <v>4</v>
+        <v>4.75</v>
       </c>
       <c r="R345">
-        <v>-0.75</v>
+        <v>-1</v>
       </c>
       <c r="S345">
         <v>1.975</v>
@@ -32394,13 +32394,13 @@
         <v>2.75</v>
       </c>
       <c r="V345">
+        <v>1.75</v>
+      </c>
+      <c r="W345">
         <v>1.95</v>
       </c>
-      <c r="W345">
-        <v>1.85</v>
-      </c>
       <c r="X345">
-        <v>0.7270000000000001</v>
+        <v>0.571</v>
       </c>
       <c r="Y345">
         <v>-1</v>
@@ -32415,10 +32415,10 @@
         <v>-1</v>
       </c>
       <c r="AC345">
-        <v>0.95</v>
+        <v>0.375</v>
       </c>
       <c r="AD345">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="346" spans="1:30">
@@ -32426,7 +32426,7 @@
         <v>344</v>
       </c>
       <c r="B346">
-        <v>8092801</v>
+        <v>8092705</v>
       </c>
       <c r="C346" t="s">
         <v>29</v>
@@ -32435,19 +32435,19 @@
         <v>45396.25</v>
       </c>
       <c r="E346" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="F346" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="G346">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H346">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I346">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J346">
         <v>0</v>
@@ -32456,25 +32456,25 @@
         <v>101</v>
       </c>
       <c r="L346">
-        <v>2.15</v>
+        <v>1.727</v>
       </c>
       <c r="M346">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="N346">
-        <v>2.625</v>
+        <v>4</v>
       </c>
       <c r="O346">
-        <v>2.15</v>
+        <v>1.727</v>
       </c>
       <c r="P346">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="Q346">
-        <v>2.625</v>
+        <v>4</v>
       </c>
       <c r="R346">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="S346">
         <v>1.975</v>
@@ -32483,16 +32483,16 @@
         <v>1.825</v>
       </c>
       <c r="U346">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="V346">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="W346">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="X346">
-        <v>1.15</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="Y346">
         <v>-1</v>
@@ -32507,10 +32507,10 @@
         <v>-1</v>
       </c>
       <c r="AC346">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AD346">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="347" spans="1:30">
@@ -32987,7 +32987,7 @@
         <v>45396.45833333334</v>
       </c>
       <c r="E352" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F352" t="s">
         <v>41</v>
@@ -33631,7 +33631,7 @@
         <v>45403.25</v>
       </c>
       <c r="E359" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F359" t="s">
         <v>69</v>
@@ -33806,7 +33806,7 @@
         <v>359</v>
       </c>
       <c r="B361">
-        <v>8125894</v>
+        <v>8122817</v>
       </c>
       <c r="C361" t="s">
         <v>29</v>
@@ -33815,82 +33815,82 @@
         <v>45403.25</v>
       </c>
       <c r="E361" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="F361" t="s">
-        <v>38</v>
+        <v>84</v>
       </c>
       <c r="G361">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H361">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I361">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J361">
         <v>0</v>
       </c>
       <c r="K361" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="L361">
-        <v>2.9</v>
+        <v>1.727</v>
       </c>
       <c r="M361">
         <v>3.5</v>
       </c>
       <c r="N361">
-        <v>2.1</v>
+        <v>4</v>
       </c>
       <c r="O361">
-        <v>2.9</v>
+        <v>1.727</v>
       </c>
       <c r="P361">
         <v>3.5</v>
       </c>
       <c r="Q361">
-        <v>2.1</v>
+        <v>4</v>
       </c>
       <c r="R361">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="S361">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="T361">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="U361">
         <v>2.75</v>
       </c>
       <c r="V361">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="W361">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="X361">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="Y361">
         <v>-1</v>
       </c>
       <c r="Z361">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="AA361">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB361">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC361">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
       <c r="AD361">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="362" spans="1:30">
@@ -33898,7 +33898,7 @@
         <v>360</v>
       </c>
       <c r="B362">
-        <v>8122817</v>
+        <v>8125894</v>
       </c>
       <c r="C362" t="s">
         <v>29</v>
@@ -33907,82 +33907,82 @@
         <v>45403.25</v>
       </c>
       <c r="E362" t="s">
-        <v>56</v>
+        <v>66</v>
       </c>
       <c r="F362" t="s">
-        <v>84</v>
+        <v>39</v>
       </c>
       <c r="G362">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H362">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I362">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J362">
         <v>0</v>
       </c>
       <c r="K362" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="L362">
-        <v>1.727</v>
+        <v>2.9</v>
       </c>
       <c r="M362">
         <v>3.5</v>
       </c>
       <c r="N362">
-        <v>4</v>
+        <v>2.1</v>
       </c>
       <c r="O362">
-        <v>1.727</v>
+        <v>2.9</v>
       </c>
       <c r="P362">
         <v>3.5</v>
       </c>
       <c r="Q362">
-        <v>4</v>
+        <v>2.1</v>
       </c>
       <c r="R362">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="S362">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="T362">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="U362">
         <v>2.75</v>
       </c>
       <c r="V362">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="W362">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="X362">
-        <v>-1</v>
+        <v>1.9</v>
       </c>
       <c r="Y362">
         <v>-1</v>
       </c>
       <c r="Z362">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="AA362">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB362">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC362">
-        <v>-1</v>
+        <v>0.4</v>
       </c>
       <c r="AD362">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="363" spans="1:30">
@@ -33999,7 +33999,7 @@
         <v>45403.5</v>
       </c>
       <c r="E363" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F363" t="s">
         <v>47</v>
@@ -34554,7 +34554,7 @@
         <v>41</v>
       </c>
       <c r="F369" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G369">
         <v>4</v>
@@ -34818,7 +34818,7 @@
         <v>370</v>
       </c>
       <c r="B372">
-        <v>8122816</v>
+        <v>8122818</v>
       </c>
       <c r="C372" t="s">
         <v>29</v>
@@ -34827,19 +34827,19 @@
         <v>45403.5</v>
       </c>
       <c r="E372" t="s">
-        <v>48</v>
+        <v>63</v>
       </c>
       <c r="F372" t="s">
-        <v>86</v>
+        <v>34</v>
       </c>
       <c r="G372">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H372">
         <v>0</v>
       </c>
       <c r="I372">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J372">
         <v>0</v>
@@ -34848,43 +34848,43 @@
         <v>101</v>
       </c>
       <c r="L372">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="M372">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="N372">
-        <v>3.1</v>
+        <v>2.625</v>
       </c>
       <c r="O372">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="P372">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="Q372">
-        <v>3.1</v>
+        <v>2.625</v>
       </c>
       <c r="R372">
         <v>-0.25</v>
       </c>
       <c r="S372">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="T372">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="U372">
         <v>2.75</v>
       </c>
       <c r="V372">
-        <v>1.875</v>
+        <v>1.75</v>
       </c>
       <c r="W372">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="X372">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="Y372">
         <v>-1</v>
@@ -34893,7 +34893,7 @@
         <v>-1</v>
       </c>
       <c r="AA372">
-        <v>0.8</v>
+        <v>0.95</v>
       </c>
       <c r="AB372">
         <v>-1</v>
@@ -34902,7 +34902,7 @@
         <v>-1</v>
       </c>
       <c r="AD372">
-        <v>0.925</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="373" spans="1:30">
@@ -34910,7 +34910,7 @@
         <v>371</v>
       </c>
       <c r="B373">
-        <v>8122818</v>
+        <v>8122816</v>
       </c>
       <c r="C373" t="s">
         <v>29</v>
@@ -34919,19 +34919,19 @@
         <v>45403.5</v>
       </c>
       <c r="E373" t="s">
-        <v>63</v>
+        <v>48</v>
       </c>
       <c r="F373" t="s">
-        <v>34</v>
+        <v>86</v>
       </c>
       <c r="G373">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H373">
         <v>0</v>
       </c>
       <c r="I373">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J373">
         <v>0</v>
@@ -34940,43 +34940,43 @@
         <v>101</v>
       </c>
       <c r="L373">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="M373">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="N373">
-        <v>2.625</v>
+        <v>3.1</v>
       </c>
       <c r="O373">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="P373">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="Q373">
-        <v>2.625</v>
+        <v>3.1</v>
       </c>
       <c r="R373">
         <v>-0.25</v>
       </c>
       <c r="S373">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="T373">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="U373">
         <v>2.75</v>
       </c>
       <c r="V373">
-        <v>1.75</v>
+        <v>1.875</v>
       </c>
       <c r="W373">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="X373">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="Y373">
         <v>-1</v>
@@ -34985,7 +34985,7 @@
         <v>-1</v>
       </c>
       <c r="AA373">
-        <v>0.95</v>
+        <v>0.8</v>
       </c>
       <c r="AB373">
         <v>-1</v>
@@ -34994,7 +34994,7 @@
         <v>-1</v>
       </c>
       <c r="AD373">
-        <v>0.95</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="374" spans="1:30">
@@ -35094,7 +35094,7 @@
         <v>373</v>
       </c>
       <c r="B375">
-        <v>8152191</v>
+        <v>8152185</v>
       </c>
       <c r="C375" t="s">
         <v>29</v>
@@ -35103,82 +35103,82 @@
         <v>45410.25</v>
       </c>
       <c r="E375" t="s">
-        <v>84</v>
+        <v>30</v>
       </c>
       <c r="F375" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="G375">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H375">
         <v>0</v>
       </c>
       <c r="I375">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J375">
         <v>0</v>
       </c>
       <c r="K375" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="L375">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="M375">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="N375">
-        <v>3.75</v>
+        <v>3.25</v>
       </c>
       <c r="O375">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="P375">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="Q375">
-        <v>3.75</v>
+        <v>3.25</v>
       </c>
       <c r="R375">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="S375">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="T375">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="U375">
         <v>2.75</v>
       </c>
       <c r="V375">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="W375">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="X375">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Y375">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Z375">
         <v>-1</v>
       </c>
       <c r="AA375">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB375">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC375">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AD375">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="376" spans="1:30">
@@ -35186,7 +35186,7 @@
         <v>374</v>
       </c>
       <c r="B376">
-        <v>8152185</v>
+        <v>8152191</v>
       </c>
       <c r="C376" t="s">
         <v>29</v>
@@ -35195,82 +35195,82 @@
         <v>45410.25</v>
       </c>
       <c r="E376" t="s">
-        <v>30</v>
+        <v>84</v>
       </c>
       <c r="F376" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="G376">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H376">
         <v>0</v>
       </c>
       <c r="I376">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J376">
         <v>0</v>
       </c>
       <c r="K376" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="L376">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="M376">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="N376">
-        <v>3.25</v>
+        <v>3.75</v>
       </c>
       <c r="O376">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="P376">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="Q376">
-        <v>3.25</v>
+        <v>3.75</v>
       </c>
       <c r="R376">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="S376">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="T376">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="U376">
         <v>2.75</v>
       </c>
       <c r="V376">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="W376">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="X376">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Y376">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Z376">
         <v>-1</v>
       </c>
       <c r="AA376">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB376">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC376">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AD376">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="377" spans="1:30">
@@ -35278,7 +35278,7 @@
         <v>375</v>
       </c>
       <c r="B377">
-        <v>8152246</v>
+        <v>8152187</v>
       </c>
       <c r="C377" t="s">
         <v>29</v>
@@ -35287,82 +35287,82 @@
         <v>45410.25</v>
       </c>
       <c r="E377" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="F377" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="G377">
         <v>1</v>
       </c>
       <c r="H377">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I377">
         <v>1</v>
       </c>
       <c r="J377">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K377" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="L377">
-        <v>2</v>
+        <v>2.375</v>
       </c>
       <c r="M377">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="N377">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="O377">
-        <v>1.7</v>
+        <v>2.375</v>
       </c>
       <c r="P377">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="Q377">
-        <v>4</v>
+        <v>2.5</v>
       </c>
       <c r="R377">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="S377">
+        <v>1.825</v>
+      </c>
+      <c r="T377">
+        <v>1.975</v>
+      </c>
+      <c r="U377">
+        <v>2.75</v>
+      </c>
+      <c r="V377">
+        <v>1.85</v>
+      </c>
+      <c r="W377">
         <v>1.95</v>
       </c>
-      <c r="T377">
-        <v>1.85</v>
-      </c>
-      <c r="U377">
-        <v>3</v>
-      </c>
-      <c r="V377">
-        <v>1.8</v>
-      </c>
-      <c r="W377">
-        <v>2</v>
-      </c>
       <c r="X377">
         <v>-1</v>
       </c>
       <c r="Y377">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Z377">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="AA377">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AB377">
-        <v>0.8500000000000001</v>
+        <v>0</v>
       </c>
       <c r="AC377">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AD377">
-        <v>0</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="378" spans="1:30">
@@ -35554,7 +35554,7 @@
         <v>378</v>
       </c>
       <c r="B380">
-        <v>8152187</v>
+        <v>8152246</v>
       </c>
       <c r="C380" t="s">
         <v>29</v>
@@ -35563,82 +35563,82 @@
         <v>45410.25</v>
       </c>
       <c r="E380" t="s">
-        <v>59</v>
+        <v>36</v>
       </c>
       <c r="F380" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="G380">
         <v>1</v>
       </c>
       <c r="H380">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I380">
         <v>1</v>
       </c>
       <c r="J380">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K380" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="L380">
-        <v>2.375</v>
+        <v>2</v>
       </c>
       <c r="M380">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="N380">
-        <v>2.5</v>
+        <v>3.25</v>
       </c>
       <c r="O380">
-        <v>2.375</v>
+        <v>1.7</v>
       </c>
       <c r="P380">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="Q380">
-        <v>2.5</v>
+        <v>4</v>
       </c>
       <c r="R380">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="S380">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="T380">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="U380">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="V380">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="W380">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="X380">
         <v>-1</v>
       </c>
       <c r="Y380">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Z380">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="AA380">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AB380">
-        <v>0</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC380">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AD380">
-        <v>0.95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="381" spans="1:30">
@@ -35646,7 +35646,7 @@
         <v>379</v>
       </c>
       <c r="B381">
-        <v>8152249</v>
+        <v>8152189</v>
       </c>
       <c r="C381" t="s">
         <v>29</v>
@@ -35655,64 +35655,64 @@
         <v>45410.5</v>
       </c>
       <c r="E381" t="s">
-        <v>55</v>
+        <v>81</v>
       </c>
       <c r="F381" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="G381">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H381">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I381">
         <v>1</v>
       </c>
       <c r="J381">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K381" t="s">
         <v>101</v>
       </c>
       <c r="L381">
-        <v>1.666</v>
+        <v>2.25</v>
       </c>
       <c r="M381">
-        <v>4</v>
+        <v>3.25</v>
       </c>
       <c r="N381">
-        <v>3.75</v>
+        <v>2.75</v>
       </c>
       <c r="O381">
-        <v>1.666</v>
+        <v>2.25</v>
       </c>
       <c r="P381">
-        <v>4</v>
+        <v>3.25</v>
       </c>
       <c r="Q381">
-        <v>3.8</v>
+        <v>2.75</v>
       </c>
       <c r="R381">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="S381">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="T381">
-        <v>1.925</v>
+        <v>1.775</v>
       </c>
       <c r="U381">
         <v>2.75</v>
       </c>
       <c r="V381">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="W381">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="X381">
-        <v>0.6659999999999999</v>
+        <v>1.25</v>
       </c>
       <c r="Y381">
         <v>-1</v>
@@ -35721,16 +35721,16 @@
         <v>-1</v>
       </c>
       <c r="AA381">
+        <v>1.025</v>
+      </c>
+      <c r="AB381">
+        <v>-1</v>
+      </c>
+      <c r="AC381">
+        <v>-1</v>
+      </c>
+      <c r="AD381">
         <v>0.875</v>
-      </c>
-      <c r="AB381">
-        <v>-1</v>
-      </c>
-      <c r="AC381">
-        <v>0.8</v>
-      </c>
-      <c r="AD381">
-        <v>-1</v>
       </c>
     </row>
     <row r="382" spans="1:30">
@@ -35738,7 +35738,7 @@
         <v>380</v>
       </c>
       <c r="B382">
-        <v>8152248</v>
+        <v>8152249</v>
       </c>
       <c r="C382" t="s">
         <v>29</v>
@@ -35747,46 +35747,46 @@
         <v>45410.5</v>
       </c>
       <c r="E382" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="F382" t="s">
-        <v>41</v>
+        <v>72</v>
       </c>
       <c r="G382">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H382">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I382">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J382">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K382" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="L382">
-        <v>2.4</v>
+        <v>1.666</v>
       </c>
       <c r="M382">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="N382">
-        <v>2.4</v>
+        <v>3.75</v>
       </c>
       <c r="O382">
-        <v>2.8</v>
+        <v>1.666</v>
       </c>
       <c r="P382">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="Q382">
-        <v>2.1</v>
+        <v>3.8</v>
       </c>
       <c r="R382">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="S382">
         <v>1.875</v>
@@ -35804,25 +35804,25 @@
         <v>2</v>
       </c>
       <c r="X382">
-        <v>-1</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="Y382">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Z382">
         <v>-1</v>
       </c>
       <c r="AA382">
-        <v>0.4375</v>
+        <v>0.875</v>
       </c>
       <c r="AB382">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC382">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AD382">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="383" spans="1:30">
@@ -35830,7 +35830,7 @@
         <v>381</v>
       </c>
       <c r="B383">
-        <v>8152247</v>
+        <v>8152248</v>
       </c>
       <c r="C383" t="s">
         <v>29</v>
@@ -35839,16 +35839,16 @@
         <v>45410.5</v>
       </c>
       <c r="E383" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="F383" t="s">
-        <v>89</v>
+        <v>41</v>
       </c>
       <c r="G383">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H383">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I383">
         <v>0</v>
@@ -35881,10 +35881,10 @@
         <v>0.25</v>
       </c>
       <c r="S383">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="T383">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="U383">
         <v>2.75</v>
@@ -35905,7 +35905,7 @@
         <v>-1</v>
       </c>
       <c r="AA383">
-        <v>0.45</v>
+        <v>0.4375</v>
       </c>
       <c r="AB383">
         <v>-0.5</v>
@@ -35922,7 +35922,7 @@
         <v>382</v>
       </c>
       <c r="B384">
-        <v>8152189</v>
+        <v>8152247</v>
       </c>
       <c r="C384" t="s">
         <v>29</v>
@@ -35931,82 +35931,82 @@
         <v>45410.5</v>
       </c>
       <c r="E384" t="s">
-        <v>81</v>
+        <v>39</v>
       </c>
       <c r="F384" t="s">
-        <v>68</v>
+        <v>89</v>
       </c>
       <c r="G384">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H384">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I384">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J384">
         <v>0</v>
       </c>
       <c r="K384" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="L384">
-        <v>2.25</v>
+        <v>2.4</v>
       </c>
       <c r="M384">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="N384">
-        <v>2.75</v>
+        <v>2.4</v>
       </c>
       <c r="O384">
-        <v>2.25</v>
+        <v>2.8</v>
       </c>
       <c r="P384">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="Q384">
-        <v>2.75</v>
+        <v>2.1</v>
       </c>
       <c r="R384">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="S384">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="T384">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="U384">
         <v>2.75</v>
       </c>
       <c r="V384">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="W384">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="X384">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="Y384">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Z384">
         <v>-1</v>
       </c>
       <c r="AA384">
-        <v>1.025</v>
+        <v>0.45</v>
       </c>
       <c r="AB384">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC384">
         <v>-1</v>
       </c>
       <c r="AD384">
-        <v>0.875</v>
+        <v>1</v>
       </c>
     </row>
     <row r="385" spans="1:30">
@@ -36299,7 +36299,7 @@
         <v>45410.5</v>
       </c>
       <c r="E388" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F388" t="s">
         <v>66</v>
@@ -36394,7 +36394,7 @@
         <v>50</v>
       </c>
       <c r="F389" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G389">
         <v>3</v>
@@ -36667,7 +36667,7 @@
         <v>45417.25</v>
       </c>
       <c r="E392" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F392" t="s">
         <v>60</v>
@@ -36854,7 +36854,7 @@
         <v>40</v>
       </c>
       <c r="F394" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G394">
         <v>0</v>
@@ -37219,7 +37219,7 @@
         <v>45417.5</v>
       </c>
       <c r="E398" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F398" t="s">
         <v>92</v>
@@ -37578,7 +37578,7 @@
         <v>400</v>
       </c>
       <c r="B402">
-        <v>8205453</v>
+        <v>8205586</v>
       </c>
       <c r="C402" t="s">
         <v>29</v>
@@ -37587,55 +37587,55 @@
         <v>45424.25</v>
       </c>
       <c r="E402" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F402" t="s">
-        <v>65</v>
+        <v>51</v>
       </c>
       <c r="G402">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="H402">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I402">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J402">
         <v>0</v>
       </c>
       <c r="K402" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="L402">
-        <v>5</v>
+        <v>1.2</v>
       </c>
       <c r="M402">
-        <v>5</v>
+        <v>6.5</v>
       </c>
       <c r="N402">
-        <v>1.4</v>
+        <v>8</v>
       </c>
       <c r="O402">
-        <v>5</v>
+        <v>1.2</v>
       </c>
       <c r="P402">
-        <v>5</v>
+        <v>6.5</v>
       </c>
       <c r="Q402">
-        <v>1.4</v>
+        <v>8.5</v>
       </c>
       <c r="R402">
-        <v>1.25</v>
+        <v>-2</v>
       </c>
       <c r="S402">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="T402">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="U402">
-        <v>3</v>
+        <v>3.75</v>
       </c>
       <c r="V402">
         <v>1.85</v>
@@ -37644,25 +37644,25 @@
         <v>1.95</v>
       </c>
       <c r="X402">
-        <v>-1</v>
+        <v>0.2</v>
       </c>
       <c r="Y402">
         <v>-1</v>
       </c>
       <c r="Z402">
-        <v>0.3999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA402">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB402">
+        <v>-1</v>
+      </c>
+      <c r="AC402">
         <v>0.8500000000000001</v>
       </c>
-      <c r="AC402">
-        <v>-1</v>
-      </c>
       <c r="AD402">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="403" spans="1:30">
@@ -37670,7 +37670,7 @@
         <v>401</v>
       </c>
       <c r="B403">
-        <v>8205586</v>
+        <v>8205453</v>
       </c>
       <c r="C403" t="s">
         <v>29</v>
@@ -37679,55 +37679,55 @@
         <v>45424.25</v>
       </c>
       <c r="E403" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F403" t="s">
-        <v>51</v>
+        <v>65</v>
       </c>
       <c r="G403">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="H403">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I403">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J403">
         <v>0</v>
       </c>
       <c r="K403" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="L403">
-        <v>1.2</v>
+        <v>5</v>
       </c>
       <c r="M403">
-        <v>6.5</v>
+        <v>5</v>
       </c>
       <c r="N403">
-        <v>8</v>
+        <v>1.4</v>
       </c>
       <c r="O403">
-        <v>1.2</v>
+        <v>5</v>
       </c>
       <c r="P403">
-        <v>6.5</v>
+        <v>5</v>
       </c>
       <c r="Q403">
-        <v>8.5</v>
+        <v>1.4</v>
       </c>
       <c r="R403">
-        <v>-2</v>
+        <v>1.25</v>
       </c>
       <c r="S403">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="T403">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="U403">
-        <v>3.75</v>
+        <v>3</v>
       </c>
       <c r="V403">
         <v>1.85</v>
@@ -37736,25 +37736,25 @@
         <v>1.95</v>
       </c>
       <c r="X403">
-        <v>0.2</v>
+        <v>-1</v>
       </c>
       <c r="Y403">
         <v>-1</v>
       </c>
       <c r="Z403">
-        <v>-1</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="AA403">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB403">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC403">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AD403">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="404" spans="1:30">
@@ -37958,7 +37958,7 @@
         <v>30</v>
       </c>
       <c r="F406" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G406">
         <v>1</v>
@@ -38050,7 +38050,7 @@
         <v>52</v>
       </c>
       <c r="F407" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="G407">
         <v>4</v>
@@ -38415,7 +38415,7 @@
         <v>45424.5</v>
       </c>
       <c r="E411" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F411" t="s">
         <v>50</v>
@@ -39059,7 +39059,7 @@
         <v>45431.25</v>
       </c>
       <c r="E418" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F418" t="s">
         <v>59</v>
@@ -39335,7 +39335,7 @@
         <v>45431.5</v>
       </c>
       <c r="E421" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F421" t="s">
         <v>33</v>
@@ -39798,7 +39798,7 @@
         <v>54</v>
       </c>
       <c r="F426" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G426">
         <v>0</v>
@@ -40148,7 +40148,7 @@
         <v>428</v>
       </c>
       <c r="B430">
-        <v>8260048</v>
+        <v>8260054</v>
       </c>
       <c r="C430" t="s">
         <v>29</v>
@@ -40157,76 +40157,76 @@
         <v>45438.5</v>
       </c>
       <c r="E430" t="s">
-        <v>33</v>
+        <v>59</v>
       </c>
       <c r="F430" t="s">
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="G430">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H430">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K430" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="L430">
-        <v>1.727</v>
+        <v>5</v>
       </c>
       <c r="M430">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="N430">
+        <v>1.444</v>
+      </c>
+      <c r="O430">
+        <v>5</v>
+      </c>
+      <c r="P430">
+        <v>4.5</v>
+      </c>
+      <c r="Q430">
+        <v>1.45</v>
+      </c>
+      <c r="R430">
+        <v>1.25</v>
+      </c>
+      <c r="S430">
+        <v>1.9</v>
+      </c>
+      <c r="T430">
+        <v>1.9</v>
+      </c>
+      <c r="U430">
         <v>3.5</v>
       </c>
-      <c r="O430">
-        <v>1.727</v>
-      </c>
-      <c r="P430">
-        <v>4</v>
-      </c>
-      <c r="Q430">
-        <v>3.5</v>
-      </c>
-      <c r="R430">
-        <v>-0.5</v>
-      </c>
-      <c r="S430">
-        <v>1.775</v>
-      </c>
-      <c r="T430">
-        <v>2.025</v>
-      </c>
-      <c r="U430">
-        <v>3</v>
-      </c>
       <c r="V430">
-        <v>1.775</v>
+        <v>1.875</v>
       </c>
       <c r="W430">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="X430">
-        <v>0.7270000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Y430">
         <v>-1</v>
       </c>
       <c r="Z430">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="AA430">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB430">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC430">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AD430">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="431" spans="1:30">
@@ -40234,7 +40234,7 @@
         <v>429</v>
       </c>
       <c r="B431">
-        <v>8260054</v>
+        <v>8260734</v>
       </c>
       <c r="C431" t="s">
         <v>29</v>
@@ -40243,76 +40243,76 @@
         <v>45438.5</v>
       </c>
       <c r="E431" t="s">
-        <v>59</v>
+        <v>39</v>
       </c>
       <c r="F431" t="s">
-        <v>57</v>
+        <v>77</v>
       </c>
       <c r="G431">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H431">
         <v>2</v>
       </c>
       <c r="K431" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="L431">
-        <v>5</v>
+        <v>1.909</v>
       </c>
       <c r="M431">
-        <v>4.5</v>
+        <v>3.4</v>
       </c>
       <c r="N431">
-        <v>1.444</v>
+        <v>3.4</v>
       </c>
       <c r="O431">
-        <v>5</v>
+        <v>1.909</v>
       </c>
       <c r="P431">
-        <v>4.5</v>
+        <v>3.4</v>
       </c>
       <c r="Q431">
-        <v>1.45</v>
+        <v>3.4</v>
       </c>
       <c r="R431">
-        <v>1.25</v>
+        <v>-0.5</v>
       </c>
       <c r="S431">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="T431">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="U431">
-        <v>3.5</v>
+        <v>2.75</v>
       </c>
       <c r="V431">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="W431">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="X431">
         <v>-1</v>
       </c>
       <c r="Y431">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Z431">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="AA431">
         <v>-1</v>
       </c>
       <c r="AB431">
-        <v>0.8999999999999999</v>
+        <v>0.825</v>
       </c>
       <c r="AC431">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AD431">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="432" spans="1:30">
@@ -40320,7 +40320,7 @@
         <v>430</v>
       </c>
       <c r="B432">
-        <v>8260734</v>
+        <v>8260048</v>
       </c>
       <c r="C432" t="s">
         <v>29</v>
@@ -40329,73 +40329,73 @@
         <v>45438.5</v>
       </c>
       <c r="E432" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="F432" t="s">
-        <v>76</v>
+        <v>47</v>
       </c>
       <c r="G432">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H432">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K432" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="L432">
-        <v>1.909</v>
+        <v>1.727</v>
       </c>
       <c r="M432">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="N432">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="O432">
-        <v>1.909</v>
+        <v>1.727</v>
       </c>
       <c r="P432">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="Q432">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="R432">
         <v>-0.5</v>
       </c>
       <c r="S432">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="T432">
-        <v>1.825</v>
+        <v>2.025</v>
       </c>
       <c r="U432">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="V432">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="W432">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="X432">
-        <v>-1</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="Y432">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Z432">
         <v>-1</v>
       </c>
       <c r="AA432">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB432">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC432">
-        <v>0.825</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AD432">
         <v>-1</v>
@@ -40492,7 +40492,7 @@
         <v>432</v>
       </c>
       <c r="B434">
-        <v>8260045</v>
+        <v>8260050</v>
       </c>
       <c r="C434" t="s">
         <v>29</v>
@@ -40501,58 +40501,58 @@
         <v>45438.5</v>
       </c>
       <c r="E434" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="F434" t="s">
-        <v>88</v>
+        <v>51</v>
       </c>
       <c r="G434">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="H434">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K434" t="s">
         <v>101</v>
       </c>
       <c r="L434">
-        <v>2.1</v>
+        <v>1.166</v>
       </c>
       <c r="M434">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="N434">
-        <v>2.6</v>
+        <v>9</v>
       </c>
       <c r="O434">
-        <v>2.1</v>
+        <v>1.166</v>
       </c>
       <c r="P434">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="Q434">
-        <v>2.625</v>
+        <v>9.5</v>
       </c>
       <c r="R434">
-        <v>-0.25</v>
+        <v>-2.25</v>
       </c>
       <c r="S434">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="T434">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="U434">
-        <v>3</v>
+        <v>3.75</v>
       </c>
       <c r="V434">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="W434">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="X434">
-        <v>1.1</v>
+        <v>0.1659999999999999</v>
       </c>
       <c r="Y434">
         <v>-1</v>
@@ -40561,16 +40561,16 @@
         <v>-1</v>
       </c>
       <c r="AA434">
-        <v>0.925</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB434">
         <v>-1</v>
       </c>
       <c r="AC434">
-        <v>0</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AD434">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="435" spans="1:30">
@@ -40578,7 +40578,7 @@
         <v>433</v>
       </c>
       <c r="B435">
-        <v>8260051</v>
+        <v>8260049</v>
       </c>
       <c r="C435" t="s">
         <v>29</v>
@@ -40587,13 +40587,13 @@
         <v>45438.5</v>
       </c>
       <c r="E435" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="F435" t="s">
-        <v>50</v>
+        <v>67</v>
       </c>
       <c r="G435">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="H435">
         <v>1</v>
@@ -40602,25 +40602,25 @@
         <v>101</v>
       </c>
       <c r="L435">
-        <v>1.333</v>
+        <v>2.1</v>
       </c>
       <c r="M435">
-        <v>5</v>
+        <v>3.75</v>
       </c>
       <c r="N435">
-        <v>6</v>
+        <v>2.625</v>
       </c>
       <c r="O435">
-        <v>1.333</v>
+        <v>1.8</v>
       </c>
       <c r="P435">
-        <v>5</v>
+        <v>3.9</v>
       </c>
       <c r="Q435">
-        <v>6</v>
+        <v>3.2</v>
       </c>
       <c r="R435">
-        <v>-1.5</v>
+        <v>-0.5</v>
       </c>
       <c r="S435">
         <v>1.85</v>
@@ -40629,7 +40629,7 @@
         <v>1.95</v>
       </c>
       <c r="U435">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="V435">
         <v>1.825</v>
@@ -40638,7 +40638,7 @@
         <v>1.975</v>
       </c>
       <c r="X435">
-        <v>0.333</v>
+        <v>0.8</v>
       </c>
       <c r="Y435">
         <v>-1</v>
@@ -40647,16 +40647,16 @@
         <v>-1</v>
       </c>
       <c r="AA435">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB435">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC435">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AD435">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="436" spans="1:30">
@@ -40664,7 +40664,7 @@
         <v>434</v>
       </c>
       <c r="B436">
-        <v>8260050</v>
+        <v>8260045</v>
       </c>
       <c r="C436" t="s">
         <v>29</v>
@@ -40673,58 +40673,58 @@
         <v>45438.5</v>
       </c>
       <c r="E436" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="F436" t="s">
-        <v>51</v>
+        <v>88</v>
       </c>
       <c r="G436">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="H436">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K436" t="s">
         <v>101</v>
       </c>
       <c r="L436">
-        <v>1.166</v>
+        <v>2.1</v>
       </c>
       <c r="M436">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="N436">
-        <v>9</v>
+        <v>2.6</v>
       </c>
       <c r="O436">
-        <v>1.166</v>
+        <v>2.1</v>
       </c>
       <c r="P436">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="Q436">
-        <v>9.5</v>
+        <v>2.625</v>
       </c>
       <c r="R436">
-        <v>-2.25</v>
+        <v>-0.25</v>
       </c>
       <c r="S436">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="T436">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="U436">
-        <v>3.75</v>
+        <v>3</v>
       </c>
       <c r="V436">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="W436">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="X436">
-        <v>0.1659999999999999</v>
+        <v>1.1</v>
       </c>
       <c r="Y436">
         <v>-1</v>
@@ -40733,16 +40733,16 @@
         <v>-1</v>
       </c>
       <c r="AA436">
-        <v>0.8999999999999999</v>
+        <v>0.925</v>
       </c>
       <c r="AB436">
         <v>-1</v>
       </c>
       <c r="AC436">
-        <v>0.9750000000000001</v>
+        <v>0</v>
       </c>
       <c r="AD436">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="437" spans="1:30">
@@ -40750,7 +40750,7 @@
         <v>435</v>
       </c>
       <c r="B437">
-        <v>8260049</v>
+        <v>8260051</v>
       </c>
       <c r="C437" t="s">
         <v>29</v>
@@ -40759,13 +40759,13 @@
         <v>45438.5</v>
       </c>
       <c r="E437" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="F437" t="s">
-        <v>68</v>
+        <v>50</v>
       </c>
       <c r="G437">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="H437">
         <v>1</v>
@@ -40774,25 +40774,25 @@
         <v>101</v>
       </c>
       <c r="L437">
-        <v>2.1</v>
+        <v>1.333</v>
       </c>
       <c r="M437">
-        <v>3.75</v>
+        <v>5</v>
       </c>
       <c r="N437">
-        <v>2.625</v>
+        <v>6</v>
       </c>
       <c r="O437">
-        <v>1.8</v>
+        <v>1.333</v>
       </c>
       <c r="P437">
-        <v>3.9</v>
+        <v>5</v>
       </c>
       <c r="Q437">
-        <v>3.2</v>
+        <v>6</v>
       </c>
       <c r="R437">
-        <v>-0.5</v>
+        <v>-1.5</v>
       </c>
       <c r="S437">
         <v>1.85</v>
@@ -40801,7 +40801,7 @@
         <v>1.95</v>
       </c>
       <c r="U437">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="V437">
         <v>1.825</v>
@@ -40810,7 +40810,7 @@
         <v>1.975</v>
       </c>
       <c r="X437">
-        <v>0.8</v>
+        <v>0.333</v>
       </c>
       <c r="Y437">
         <v>-1</v>
@@ -40819,16 +40819,16 @@
         <v>-1</v>
       </c>
       <c r="AA437">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB437">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC437">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AD437">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="438" spans="1:30">
@@ -40836,7 +40836,7 @@
         <v>436</v>
       </c>
       <c r="B438">
-        <v>8260044</v>
+        <v>8260046</v>
       </c>
       <c r="C438" t="s">
         <v>29</v>
@@ -40845,76 +40845,76 @@
         <v>45438.5</v>
       </c>
       <c r="E438" t="s">
-        <v>75</v>
+        <v>56</v>
       </c>
       <c r="F438" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="G438">
+        <v>1</v>
+      </c>
+      <c r="H438">
+        <v>2</v>
+      </c>
+      <c r="K438" t="s">
+        <v>100</v>
+      </c>
+      <c r="L438">
+        <v>2.25</v>
+      </c>
+      <c r="M438">
         <v>4</v>
       </c>
-      <c r="H438">
-        <v>0</v>
-      </c>
-      <c r="K438" t="s">
-        <v>101</v>
-      </c>
-      <c r="L438">
-        <v>1.533</v>
-      </c>
-      <c r="M438">
-        <v>4.2</v>
-      </c>
       <c r="N438">
-        <v>4.5</v>
+        <v>2.4</v>
       </c>
       <c r="O438">
-        <v>1.533</v>
+        <v>2.25</v>
       </c>
       <c r="P438">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="Q438">
-        <v>4.5</v>
+        <v>2.4</v>
       </c>
       <c r="R438">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="S438">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="T438">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="U438">
         <v>3</v>
       </c>
       <c r="V438">
-        <v>1.75</v>
+        <v>1.95</v>
       </c>
       <c r="W438">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="X438">
-        <v>0.5329999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Y438">
         <v>-1</v>
       </c>
       <c r="Z438">
-        <v>-1</v>
+        <v>1.4</v>
       </c>
       <c r="AA438">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB438">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC438">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="AD438">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="439" spans="1:30">
@@ -40922,7 +40922,7 @@
         <v>437</v>
       </c>
       <c r="B439">
-        <v>8260046</v>
+        <v>8260047</v>
       </c>
       <c r="C439" t="s">
         <v>29</v>
@@ -40931,76 +40931,76 @@
         <v>45438.5</v>
       </c>
       <c r="E439" t="s">
-        <v>56</v>
+        <v>35</v>
       </c>
       <c r="F439" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="G439">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H439">
         <v>2</v>
       </c>
       <c r="K439" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="L439">
-        <v>2.25</v>
+        <v>1.727</v>
       </c>
       <c r="M439">
         <v>4</v>
       </c>
       <c r="N439">
-        <v>2.4</v>
+        <v>3.5</v>
       </c>
       <c r="O439">
-        <v>2.25</v>
+        <v>1.727</v>
       </c>
       <c r="P439">
         <v>4</v>
       </c>
       <c r="Q439">
-        <v>2.4</v>
+        <v>3.5</v>
       </c>
       <c r="R439">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="S439">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="T439">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="U439">
         <v>3</v>
       </c>
       <c r="V439">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="W439">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="X439">
         <v>-1</v>
       </c>
       <c r="Y439">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Z439">
-        <v>1.4</v>
+        <v>-1</v>
       </c>
       <c r="AA439">
         <v>-1</v>
       </c>
       <c r="AB439">
-        <v>0.9750000000000001</v>
+        <v>1.025</v>
       </c>
       <c r="AC439">
-        <v>0</v>
+        <v>0.925</v>
       </c>
       <c r="AD439">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="440" spans="1:30">
@@ -41008,7 +41008,7 @@
         <v>438</v>
       </c>
       <c r="B440">
-        <v>8260047</v>
+        <v>8260044</v>
       </c>
       <c r="C440" t="s">
         <v>29</v>
@@ -41017,73 +41017,73 @@
         <v>45438.5</v>
       </c>
       <c r="E440" t="s">
-        <v>35</v>
+        <v>75</v>
       </c>
       <c r="F440" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="G440">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H440">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K440" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="L440">
-        <v>1.727</v>
+        <v>1.533</v>
       </c>
       <c r="M440">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="N440">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="O440">
-        <v>1.727</v>
+        <v>1.533</v>
       </c>
       <c r="P440">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="Q440">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="R440">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="S440">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="T440">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="U440">
         <v>3</v>
       </c>
       <c r="V440">
-        <v>1.925</v>
+        <v>1.75</v>
       </c>
       <c r="W440">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="X440">
-        <v>-1</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="Y440">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Z440">
         <v>-1</v>
       </c>
       <c r="AA440">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB440">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AC440">
-        <v>0.925</v>
+        <v>0.75</v>
       </c>
       <c r="AD440">
         <v>-1</v>
@@ -41094,7 +41094,7 @@
         <v>439</v>
       </c>
       <c r="B441">
-        <v>8260041</v>
+        <v>8260042</v>
       </c>
       <c r="C441" t="s">
         <v>29</v>
@@ -41103,76 +41103,76 @@
         <v>45438.5</v>
       </c>
       <c r="E441" t="s">
-        <v>36</v>
+        <v>81</v>
       </c>
       <c r="F441" t="s">
-        <v>95</v>
+        <v>73</v>
       </c>
       <c r="G441">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H441">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K441" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="L441">
-        <v>2.55</v>
+        <v>1.3</v>
       </c>
       <c r="M441">
-        <v>3.75</v>
+        <v>5</v>
       </c>
       <c r="N441">
-        <v>2.2</v>
+        <v>7</v>
       </c>
       <c r="O441">
-        <v>2.55</v>
+        <v>1.3</v>
       </c>
       <c r="P441">
-        <v>3.75</v>
+        <v>4.75</v>
       </c>
       <c r="Q441">
-        <v>2.2</v>
+        <v>7.5</v>
       </c>
       <c r="R441">
-        <v>0</v>
+        <v>-1.75</v>
       </c>
       <c r="S441">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="T441">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="U441">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="V441">
+        <v>1.775</v>
+      </c>
+      <c r="W441">
         <v>1.925</v>
       </c>
-      <c r="W441">
-        <v>1.875</v>
-      </c>
       <c r="X441">
-        <v>1.55</v>
+        <v>-1</v>
       </c>
       <c r="Y441">
         <v>-1</v>
       </c>
       <c r="Z441">
-        <v>-1</v>
+        <v>6.5</v>
       </c>
       <c r="AA441">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AB441">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC441">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="AD441">
-        <v>0</v>
+        <v>0.4625</v>
       </c>
     </row>
     <row r="442" spans="1:30">
@@ -41180,7 +41180,7 @@
         <v>440</v>
       </c>
       <c r="B442">
-        <v>8260042</v>
+        <v>8260043</v>
       </c>
       <c r="C442" t="s">
         <v>29</v>
@@ -41189,10 +41189,10 @@
         <v>45438.5</v>
       </c>
       <c r="E442" t="s">
-        <v>81</v>
+        <v>53</v>
       </c>
       <c r="F442" t="s">
-        <v>73</v>
+        <v>49</v>
       </c>
       <c r="G442">
         <v>1</v>
@@ -41204,41 +41204,41 @@
         <v>100</v>
       </c>
       <c r="L442">
-        <v>1.3</v>
+        <v>3</v>
       </c>
       <c r="M442">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N442">
-        <v>7</v>
+        <v>1.909</v>
       </c>
       <c r="O442">
-        <v>1.3</v>
+        <v>3</v>
       </c>
       <c r="P442">
-        <v>4.75</v>
+        <v>4</v>
       </c>
       <c r="Q442">
-        <v>7.5</v>
+        <v>1.909</v>
       </c>
       <c r="R442">
-        <v>-1.75</v>
+        <v>0.5</v>
       </c>
       <c r="S442">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="T442">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="U442">
         <v>3.25</v>
       </c>
       <c r="V442">
+        <v>2.025</v>
+      </c>
+      <c r="W442">
         <v>1.775</v>
       </c>
-      <c r="W442">
-        <v>1.925</v>
-      </c>
       <c r="X442">
         <v>-1</v>
       </c>
@@ -41246,19 +41246,19 @@
         <v>-1</v>
       </c>
       <c r="Z442">
-        <v>6.5</v>
+        <v>0.909</v>
       </c>
       <c r="AA442">
         <v>-1</v>
       </c>
       <c r="AB442">
-        <v>0.8500000000000001</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC442">
         <v>-0.5</v>
       </c>
       <c r="AD442">
-        <v>0.4625</v>
+        <v>0.3875</v>
       </c>
     </row>
     <row r="443" spans="1:30">
@@ -41266,7 +41266,7 @@
         <v>441</v>
       </c>
       <c r="B443">
-        <v>8260043</v>
+        <v>8260041</v>
       </c>
       <c r="C443" t="s">
         <v>29</v>
@@ -41275,76 +41275,76 @@
         <v>45438.5</v>
       </c>
       <c r="E443" t="s">
-        <v>53</v>
+        <v>36</v>
       </c>
       <c r="F443" t="s">
-        <v>49</v>
+        <v>95</v>
       </c>
       <c r="G443">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H443">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K443" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="L443">
+        <v>2.55</v>
+      </c>
+      <c r="M443">
+        <v>3.75</v>
+      </c>
+      <c r="N443">
+        <v>2.2</v>
+      </c>
+      <c r="O443">
+        <v>2.55</v>
+      </c>
+      <c r="P443">
+        <v>3.75</v>
+      </c>
+      <c r="Q443">
+        <v>2.2</v>
+      </c>
+      <c r="R443">
+        <v>0</v>
+      </c>
+      <c r="S443">
+        <v>2.05</v>
+      </c>
+      <c r="T443">
+        <v>1.75</v>
+      </c>
+      <c r="U443">
         <v>3</v>
       </c>
-      <c r="M443">
-        <v>4</v>
-      </c>
-      <c r="N443">
-        <v>1.909</v>
-      </c>
-      <c r="O443">
-        <v>3</v>
-      </c>
-      <c r="P443">
-        <v>4</v>
-      </c>
-      <c r="Q443">
-        <v>1.909</v>
-      </c>
-      <c r="R443">
-        <v>0.5</v>
-      </c>
-      <c r="S443">
-        <v>1.825</v>
-      </c>
-      <c r="T443">
-        <v>1.975</v>
-      </c>
-      <c r="U443">
-        <v>3.25</v>
-      </c>
       <c r="V443">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="W443">
-        <v>1.775</v>
+        <v>1.875</v>
       </c>
       <c r="X443">
-        <v>-1</v>
+        <v>1.55</v>
       </c>
       <c r="Y443">
         <v>-1</v>
       </c>
       <c r="Z443">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="AA443">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AB443">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC443">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="AD443">
-        <v>0.3875</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Hungary NB III/Hungary NB III.xlsx
+++ b/Hungary NB III/Hungary NB III.xlsx
@@ -163,22 +163,22 @@
     <t>FC Nagykanizsa</t>
   </si>
   <si>
-    <t>FC Tiszaujvaros</t>
+    <t>Vasas SC II</t>
   </si>
   <si>
-    <t>Vasas SC II</t>
+    <t>FC Tatabanya</t>
   </si>
   <si>
     <t>Bicskei TC</t>
   </si>
   <si>
-    <t>FC Tatabanya</t>
+    <t>FC Tiszaujvaros</t>
+  </si>
+  <si>
+    <t>Cegledi VSE</t>
   </si>
   <si>
     <t>III Keruleti TUE</t>
-  </si>
-  <si>
-    <t>Cegledi VSE</t>
   </si>
   <si>
     <t>Debreceni II</t>
@@ -796,7 +796,7 @@
         <v>30</v>
       </c>
       <c r="F2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="G2">
         <v>1</v>
@@ -1072,7 +1072,7 @@
         <v>33</v>
       </c>
       <c r="F5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -1532,7 +1532,7 @@
         <v>38</v>
       </c>
       <c r="F10" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G10">
         <v>2</v>
@@ -2624,7 +2624,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>7005762</v>
+        <v>7005745</v>
       </c>
       <c r="C22" t="s">
         <v>29</v>
@@ -2636,79 +2636,79 @@
         <v>49</v>
       </c>
       <c r="F22" t="s">
-        <v>32</v>
+        <v>89</v>
       </c>
       <c r="G22">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I22">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="L22">
-        <v>2.25</v>
+        <v>2.7</v>
       </c>
       <c r="M22">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="N22">
-        <v>2.4</v>
+        <v>2.1</v>
       </c>
       <c r="O22">
-        <v>2.25</v>
+        <v>2.7</v>
       </c>
       <c r="P22">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="Q22">
-        <v>2.45</v>
+        <v>2.1</v>
       </c>
       <c r="R22">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="S22">
-        <v>2.05</v>
+        <v>1.875</v>
       </c>
       <c r="T22">
-        <v>1.75</v>
+        <v>1.925</v>
       </c>
       <c r="U22">
+        <v>3</v>
+      </c>
+      <c r="V22">
+        <v>1.825</v>
+      </c>
+      <c r="W22">
+        <v>1.975</v>
+      </c>
+      <c r="X22">
+        <v>-1</v>
+      </c>
+      <c r="Y22">
         <v>2.75</v>
       </c>
-      <c r="V22">
-        <v>1.8</v>
-      </c>
-      <c r="W22">
-        <v>2</v>
-      </c>
-      <c r="X22">
-        <v>1.25</v>
-      </c>
-      <c r="Y22">
-        <v>-1</v>
-      </c>
       <c r="Z22">
         <v>-1</v>
       </c>
       <c r="AA22">
-        <v>1.05</v>
+        <v>0.4375</v>
       </c>
       <c r="AB22">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC22">
         <v>-1</v>
       </c>
       <c r="AD22">
-        <v>1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="23" spans="1:30">
@@ -2716,7 +2716,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>7005745</v>
+        <v>7005728</v>
       </c>
       <c r="C23" t="s">
         <v>29</v>
@@ -2728,10 +2728,10 @@
         <v>50</v>
       </c>
       <c r="F23" t="s">
-        <v>89</v>
+        <v>59</v>
       </c>
       <c r="G23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H23">
         <v>1</v>
@@ -2743,64 +2743,64 @@
         <v>0</v>
       </c>
       <c r="K23" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="L23">
-        <v>2.7</v>
+        <v>1.4</v>
       </c>
       <c r="M23">
-        <v>3.75</v>
+        <v>4.75</v>
       </c>
       <c r="N23">
-        <v>2.1</v>
+        <v>5.5</v>
       </c>
       <c r="O23">
-        <v>2.7</v>
+        <v>1.3</v>
       </c>
       <c r="P23">
-        <v>3.75</v>
+        <v>5</v>
       </c>
       <c r="Q23">
-        <v>2.1</v>
+        <v>7</v>
       </c>
       <c r="R23">
-        <v>0.25</v>
+        <v>-1.5</v>
       </c>
       <c r="S23">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="T23">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="U23">
         <v>3</v>
       </c>
       <c r="V23">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="W23">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="X23">
-        <v>-1</v>
+        <v>0.3</v>
       </c>
       <c r="Y23">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Z23">
         <v>-1</v>
       </c>
       <c r="AA23">
-        <v>0.4375</v>
+        <v>-1</v>
       </c>
       <c r="AB23">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
       <c r="AC23">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AD23">
-        <v>0.9750000000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:30">
@@ -2900,7 +2900,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>7005728</v>
+        <v>7005762</v>
       </c>
       <c r="C25" t="s">
         <v>29</v>
@@ -2912,16 +2912,16 @@
         <v>52</v>
       </c>
       <c r="F25" t="s">
-        <v>59</v>
+        <v>32</v>
       </c>
       <c r="G25">
         <v>2</v>
       </c>
       <c r="H25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -2930,43 +2930,43 @@
         <v>101</v>
       </c>
       <c r="L25">
-        <v>1.4</v>
+        <v>2.25</v>
       </c>
       <c r="M25">
-        <v>4.75</v>
+        <v>4</v>
       </c>
       <c r="N25">
-        <v>5.5</v>
+        <v>2.4</v>
       </c>
       <c r="O25">
-        <v>1.3</v>
+        <v>2.25</v>
       </c>
       <c r="P25">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Q25">
-        <v>7</v>
+        <v>2.45</v>
       </c>
       <c r="R25">
-        <v>-1.5</v>
+        <v>-0.25</v>
       </c>
       <c r="S25">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="T25">
-        <v>1.95</v>
+        <v>1.75</v>
       </c>
       <c r="U25">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="V25">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="W25">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="X25">
-        <v>0.3</v>
+        <v>1.25</v>
       </c>
       <c r="Y25">
         <v>-1</v>
@@ -2975,16 +2975,16 @@
         <v>-1</v>
       </c>
       <c r="AA25">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AB25">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC25">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AD25">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:30">
@@ -2992,7 +2992,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>7005724</v>
+        <v>7005844</v>
       </c>
       <c r="C26" t="s">
         <v>29</v>
@@ -3004,13 +3004,13 @@
         <v>53</v>
       </c>
       <c r="F26" t="s">
-        <v>69</v>
+        <v>40</v>
       </c>
       <c r="G26">
         <v>0</v>
       </c>
       <c r="H26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I26">
         <v>0</v>
@@ -3019,64 +3019,64 @@
         <v>0</v>
       </c>
       <c r="K26" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="L26">
-        <v>1.2</v>
+        <v>6</v>
       </c>
       <c r="M26">
-        <v>6.5</v>
+        <v>4.5</v>
       </c>
       <c r="N26">
-        <v>9</v>
+        <v>1.4</v>
       </c>
       <c r="O26">
-        <v>1.142</v>
+        <v>6</v>
       </c>
       <c r="P26">
-        <v>7.5</v>
+        <v>4.5</v>
       </c>
       <c r="Q26">
-        <v>12</v>
+        <v>1.4</v>
       </c>
       <c r="R26">
-        <v>-2.25</v>
+        <v>1.5</v>
       </c>
       <c r="S26">
+        <v>1.775</v>
+      </c>
+      <c r="T26">
+        <v>1.925</v>
+      </c>
+      <c r="U26">
+        <v>3.25</v>
+      </c>
+      <c r="V26">
         <v>1.85</v>
       </c>
-      <c r="T26">
+      <c r="W26">
         <v>1.95</v>
       </c>
-      <c r="U26">
-        <v>3.5</v>
-      </c>
-      <c r="V26">
-        <v>1.975</v>
-      </c>
-      <c r="W26">
-        <v>1.825</v>
-      </c>
       <c r="X26">
         <v>-1</v>
       </c>
       <c r="Y26">
-        <v>6.5</v>
+        <v>-1</v>
       </c>
       <c r="Z26">
-        <v>-1</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="AA26">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB26">
+        <v>-1</v>
+      </c>
+      <c r="AC26">
+        <v>-1</v>
+      </c>
+      <c r="AD26">
         <v>0.95</v>
-      </c>
-      <c r="AC26">
-        <v>-1</v>
-      </c>
-      <c r="AD26">
-        <v>0.825</v>
       </c>
     </row>
     <row r="27" spans="1:30">
@@ -3084,7 +3084,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>7005844</v>
+        <v>7005724</v>
       </c>
       <c r="C27" t="s">
         <v>29</v>
@@ -3096,13 +3096,13 @@
         <v>54</v>
       </c>
       <c r="F27" t="s">
-        <v>40</v>
+        <v>69</v>
       </c>
       <c r="G27">
         <v>0</v>
       </c>
       <c r="H27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I27">
         <v>0</v>
@@ -3111,64 +3111,64 @@
         <v>0</v>
       </c>
       <c r="K27" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="L27">
-        <v>6</v>
+        <v>1.2</v>
       </c>
       <c r="M27">
-        <v>4.5</v>
+        <v>6.5</v>
       </c>
       <c r="N27">
-        <v>1.4</v>
+        <v>9</v>
       </c>
       <c r="O27">
-        <v>6</v>
+        <v>1.142</v>
       </c>
       <c r="P27">
-        <v>4.5</v>
+        <v>7.5</v>
       </c>
       <c r="Q27">
-        <v>1.4</v>
+        <v>12</v>
       </c>
       <c r="R27">
-        <v>1.5</v>
+        <v>-2.25</v>
       </c>
       <c r="S27">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="T27">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="U27">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="V27">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="W27">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="X27">
         <v>-1</v>
       </c>
       <c r="Y27">
-        <v>-1</v>
+        <v>6.5</v>
       </c>
       <c r="Z27">
-        <v>0.3999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA27">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB27">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC27">
         <v>-1</v>
       </c>
       <c r="AD27">
-        <v>0.95</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="28" spans="1:30">
@@ -4188,7 +4188,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>7055636</v>
+        <v>7055641</v>
       </c>
       <c r="C39" t="s">
         <v>29</v>
@@ -4197,64 +4197,64 @@
         <v>45151.52083333334</v>
       </c>
       <c r="E39" t="s">
-        <v>36</v>
+        <v>61</v>
       </c>
       <c r="F39" t="s">
-        <v>82</v>
+        <v>55</v>
       </c>
       <c r="G39">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K39" t="s">
         <v>101</v>
       </c>
       <c r="L39">
-        <v>1.444</v>
+        <v>2.875</v>
       </c>
       <c r="M39">
-        <v>4.5</v>
+        <v>3.75</v>
       </c>
       <c r="N39">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="O39">
-        <v>1.363</v>
+        <v>2.9</v>
       </c>
       <c r="P39">
-        <v>4.5</v>
+        <v>3.75</v>
       </c>
       <c r="Q39">
-        <v>6.5</v>
+        <v>2</v>
       </c>
       <c r="R39">
-        <v>-1.5</v>
+        <v>0.5</v>
       </c>
       <c r="S39">
+        <v>1.75</v>
+      </c>
+      <c r="T39">
         <v>1.95</v>
       </c>
-      <c r="T39">
-        <v>1.85</v>
-      </c>
       <c r="U39">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="V39">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="W39">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="X39">
-        <v>0.363</v>
+        <v>1.9</v>
       </c>
       <c r="Y39">
         <v>-1</v>
@@ -4263,16 +4263,16 @@
         <v>-1</v>
       </c>
       <c r="AA39">
+        <v>0.75</v>
+      </c>
+      <c r="AB39">
+        <v>-1</v>
+      </c>
+      <c r="AC39">
+        <v>-1</v>
+      </c>
+      <c r="AD39">
         <v>0.95</v>
-      </c>
-      <c r="AB39">
-        <v>-1</v>
-      </c>
-      <c r="AC39">
-        <v>0.8</v>
-      </c>
-      <c r="AD39">
-        <v>-1</v>
       </c>
     </row>
     <row r="40" spans="1:30">
@@ -4280,7 +4280,7 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>7055641</v>
+        <v>7055642</v>
       </c>
       <c r="C40" t="s">
         <v>29</v>
@@ -4289,13 +4289,13 @@
         <v>45151.52083333334</v>
       </c>
       <c r="E40" t="s">
-        <v>61</v>
+        <v>43</v>
       </c>
       <c r="F40" t="s">
-        <v>55</v>
+        <v>92</v>
       </c>
       <c r="G40">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H40">
         <v>0</v>
@@ -4310,43 +4310,43 @@
         <v>101</v>
       </c>
       <c r="L40">
-        <v>2.875</v>
+        <v>2.15</v>
       </c>
       <c r="M40">
         <v>3.75</v>
       </c>
       <c r="N40">
-        <v>2</v>
+        <v>2.625</v>
       </c>
       <c r="O40">
-        <v>2.9</v>
+        <v>2.1</v>
       </c>
       <c r="P40">
         <v>3.75</v>
       </c>
       <c r="Q40">
-        <v>2</v>
+        <v>2.7</v>
       </c>
       <c r="R40">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="S40">
-        <v>1.75</v>
+        <v>1.95</v>
       </c>
       <c r="T40">
+        <v>1.85</v>
+      </c>
+      <c r="U40">
+        <v>3</v>
+      </c>
+      <c r="V40">
         <v>1.95</v>
       </c>
-      <c r="U40">
-        <v>2.75</v>
-      </c>
-      <c r="V40">
-        <v>1.75</v>
-      </c>
       <c r="W40">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="X40">
-        <v>1.9</v>
+        <v>1.1</v>
       </c>
       <c r="Y40">
         <v>-1</v>
@@ -4355,7 +4355,7 @@
         <v>-1</v>
       </c>
       <c r="AA40">
-        <v>0.75</v>
+        <v>0.95</v>
       </c>
       <c r="AB40">
         <v>-1</v>
@@ -4364,7 +4364,7 @@
         <v>-1</v>
       </c>
       <c r="AD40">
-        <v>0.95</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="41" spans="1:30">
@@ -4372,7 +4372,7 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>7055642</v>
+        <v>7059446</v>
       </c>
       <c r="C41" t="s">
         <v>29</v>
@@ -4381,19 +4381,19 @@
         <v>45151.52083333334</v>
       </c>
       <c r="E41" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F41" t="s">
-        <v>92</v>
+        <v>47</v>
       </c>
       <c r="G41">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H41">
         <v>0</v>
       </c>
       <c r="I41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J41">
         <v>0</v>
@@ -4402,25 +4402,25 @@
         <v>101</v>
       </c>
       <c r="L41">
-        <v>2.15</v>
+        <v>1.533</v>
       </c>
       <c r="M41">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="N41">
-        <v>2.625</v>
+        <v>4.75</v>
       </c>
       <c r="O41">
-        <v>2.1</v>
+        <v>1.45</v>
       </c>
       <c r="P41">
-        <v>3.75</v>
+        <v>4.2</v>
       </c>
       <c r="Q41">
-        <v>2.7</v>
+        <v>5.5</v>
       </c>
       <c r="R41">
-        <v>-0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="S41">
         <v>1.95</v>
@@ -4432,13 +4432,13 @@
         <v>3</v>
       </c>
       <c r="V41">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="W41">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="X41">
-        <v>1.1</v>
+        <v>0.45</v>
       </c>
       <c r="Y41">
         <v>-1</v>
@@ -4447,16 +4447,16 @@
         <v>-1</v>
       </c>
       <c r="AA41">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
       <c r="AB41">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
       <c r="AC41">
         <v>-1</v>
       </c>
       <c r="AD41">
-        <v>0.8500000000000001</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="42" spans="1:30">
@@ -4464,7 +4464,7 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>7059446</v>
+        <v>7059445</v>
       </c>
       <c r="C42" t="s">
         <v>29</v>
@@ -4473,64 +4473,64 @@
         <v>45151.52083333334</v>
       </c>
       <c r="E42" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="F42" t="s">
-        <v>47</v>
+        <v>77</v>
       </c>
       <c r="G42">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H42">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I42">
         <v>0</v>
       </c>
       <c r="J42">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K42" t="s">
         <v>101</v>
       </c>
       <c r="L42">
-        <v>1.533</v>
+        <v>1.5</v>
       </c>
       <c r="M42">
         <v>4</v>
       </c>
       <c r="N42">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="O42">
-        <v>1.45</v>
+        <v>1.363</v>
       </c>
       <c r="P42">
-        <v>4.2</v>
+        <v>4.333</v>
       </c>
       <c r="Q42">
-        <v>5.5</v>
+        <v>6.5</v>
       </c>
       <c r="R42">
         <v>-1.25</v>
       </c>
       <c r="S42">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="T42">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="U42">
         <v>3</v>
       </c>
       <c r="V42">
+        <v>1.925</v>
+      </c>
+      <c r="W42">
         <v>1.875</v>
       </c>
-      <c r="W42">
-        <v>1.925</v>
-      </c>
       <c r="X42">
-        <v>0.45</v>
+        <v>0.363</v>
       </c>
       <c r="Y42">
         <v>-1</v>
@@ -4542,13 +4542,13 @@
         <v>-0.5</v>
       </c>
       <c r="AB42">
-        <v>0.425</v>
+        <v>0.4875</v>
       </c>
       <c r="AC42">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AD42">
-        <v>0.925</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:30">
@@ -4556,7 +4556,7 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>7059445</v>
+        <v>7055636</v>
       </c>
       <c r="C43" t="s">
         <v>29</v>
@@ -4565,13 +4565,13 @@
         <v>45151.52083333334</v>
       </c>
       <c r="E43" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="F43" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="G43">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H43">
         <v>1</v>
@@ -4586,10 +4586,10 @@
         <v>101</v>
       </c>
       <c r="L43">
-        <v>1.5</v>
+        <v>1.444</v>
       </c>
       <c r="M43">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="N43">
         <v>5</v>
@@ -4598,28 +4598,28 @@
         <v>1.363</v>
       </c>
       <c r="P43">
-        <v>4.333</v>
+        <v>4.5</v>
       </c>
       <c r="Q43">
         <v>6.5</v>
       </c>
       <c r="R43">
-        <v>-1.25</v>
+        <v>-1.5</v>
       </c>
       <c r="S43">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="T43">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="U43">
         <v>3</v>
       </c>
       <c r="V43">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="W43">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="X43">
         <v>0.363</v>
@@ -4631,16 +4631,16 @@
         <v>-1</v>
       </c>
       <c r="AA43">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
       <c r="AB43">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
       <c r="AC43">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="AD43">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="44" spans="1:30">
@@ -4740,7 +4740,7 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>7055634</v>
+        <v>7055643</v>
       </c>
       <c r="C45" t="s">
         <v>29</v>
@@ -4749,16 +4749,16 @@
         <v>45151.52083333334</v>
       </c>
       <c r="E45" t="s">
-        <v>42</v>
+        <v>62</v>
       </c>
       <c r="F45" t="s">
-        <v>52</v>
+        <v>93</v>
       </c>
       <c r="G45">
         <v>1</v>
       </c>
       <c r="H45">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I45">
         <v>0</v>
@@ -4770,34 +4770,34 @@
         <v>100</v>
       </c>
       <c r="L45">
+        <v>2</v>
+      </c>
+      <c r="M45">
         <v>3.75</v>
       </c>
-      <c r="M45">
-        <v>4</v>
-      </c>
       <c r="N45">
-        <v>1.666</v>
+        <v>2.875</v>
       </c>
       <c r="O45">
-        <v>3.75</v>
+        <v>2</v>
       </c>
       <c r="P45">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="Q45">
-        <v>1.666</v>
+        <v>2.9</v>
       </c>
       <c r="R45">
-        <v>0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="S45">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="T45">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="U45">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="V45">
         <v>1.8</v>
@@ -4812,19 +4812,19 @@
         <v>-1</v>
       </c>
       <c r="Z45">
-        <v>0.6659999999999999</v>
+        <v>1.9</v>
       </c>
       <c r="AA45">
         <v>-1</v>
       </c>
       <c r="AB45">
-        <v>0.875</v>
+        <v>1</v>
       </c>
       <c r="AC45">
-        <v>0.8</v>
+        <v>-0.5</v>
       </c>
       <c r="AD45">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="46" spans="1:30">
@@ -4832,7 +4832,7 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>7055643</v>
+        <v>7055635</v>
       </c>
       <c r="C46" t="s">
         <v>29</v>
@@ -4841,13 +4841,13 @@
         <v>45151.52083333334</v>
       </c>
       <c r="E46" t="s">
-        <v>62</v>
+        <v>38</v>
       </c>
       <c r="F46" t="s">
-        <v>93</v>
+        <v>46</v>
       </c>
       <c r="G46">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H46">
         <v>2</v>
@@ -4856,67 +4856,67 @@
         <v>0</v>
       </c>
       <c r="J46">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K46" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="L46">
-        <v>2</v>
+        <v>1.4</v>
       </c>
       <c r="M46">
-        <v>3.75</v>
+        <v>4.5</v>
       </c>
       <c r="N46">
-        <v>2.875</v>
+        <v>5.5</v>
       </c>
       <c r="O46">
-        <v>2</v>
+        <v>1.333</v>
       </c>
       <c r="P46">
-        <v>3.8</v>
+        <v>5</v>
       </c>
       <c r="Q46">
-        <v>2.9</v>
+        <v>6.5</v>
       </c>
       <c r="R46">
-        <v>-0.25</v>
+        <v>-1.5</v>
       </c>
       <c r="S46">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="T46">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="U46">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="V46">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="W46">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="X46">
         <v>-1</v>
       </c>
       <c r="Y46">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="Z46">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="AA46">
         <v>-1</v>
       </c>
       <c r="AB46">
-        <v>1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC46">
-        <v>-0.5</v>
+        <v>0.925</v>
       </c>
       <c r="AD46">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="47" spans="1:30">
@@ -4924,7 +4924,7 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>7055637</v>
+        <v>7055634</v>
       </c>
       <c r="C47" t="s">
         <v>29</v>
@@ -4933,52 +4933,52 @@
         <v>45151.52083333334</v>
       </c>
       <c r="E47" t="s">
-        <v>63</v>
+        <v>42</v>
       </c>
       <c r="F47" t="s">
-        <v>86</v>
+        <v>50</v>
       </c>
       <c r="G47">
         <v>1</v>
       </c>
       <c r="H47">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I47">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J47">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K47" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="L47">
-        <v>2.1</v>
+        <v>3.75</v>
       </c>
       <c r="M47">
+        <v>4</v>
+      </c>
+      <c r="N47">
+        <v>1.666</v>
+      </c>
+      <c r="O47">
         <v>3.75</v>
-      </c>
-      <c r="N47">
-        <v>2.7</v>
-      </c>
-      <c r="O47">
-        <v>1.909</v>
       </c>
       <c r="P47">
         <v>4</v>
       </c>
       <c r="Q47">
-        <v>2.9</v>
+        <v>1.666</v>
       </c>
       <c r="R47">
-        <v>-0.5</v>
+        <v>0.75</v>
       </c>
       <c r="S47">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="T47">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="U47">
         <v>3</v>
@@ -4993,22 +4993,22 @@
         <v>-1</v>
       </c>
       <c r="Y47">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Z47">
-        <v>-1</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="AA47">
         <v>-1</v>
       </c>
       <c r="AB47">
-        <v>0.825</v>
+        <v>0.875</v>
       </c>
       <c r="AC47">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AD47">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="48" spans="1:30">
@@ -5016,7 +5016,7 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>7055635</v>
+        <v>7055637</v>
       </c>
       <c r="C48" t="s">
         <v>29</v>
@@ -5025,67 +5025,67 @@
         <v>45151.52083333334</v>
       </c>
       <c r="E48" t="s">
-        <v>38</v>
+        <v>63</v>
       </c>
       <c r="F48" t="s">
-        <v>46</v>
+        <v>86</v>
       </c>
       <c r="G48">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H48">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I48">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J48">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K48" t="s">
         <v>102</v>
       </c>
       <c r="L48">
-        <v>1.4</v>
+        <v>2.1</v>
       </c>
       <c r="M48">
-        <v>4.5</v>
+        <v>3.75</v>
       </c>
       <c r="N48">
-        <v>5.5</v>
+        <v>2.7</v>
       </c>
       <c r="O48">
-        <v>1.333</v>
+        <v>1.909</v>
       </c>
       <c r="P48">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Q48">
-        <v>6.5</v>
+        <v>2.9</v>
       </c>
       <c r="R48">
-        <v>-1.5</v>
+        <v>-0.5</v>
       </c>
       <c r="S48">
+        <v>1.975</v>
+      </c>
+      <c r="T48">
         <v>1.825</v>
       </c>
-      <c r="T48">
-        <v>1.975</v>
-      </c>
       <c r="U48">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="V48">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="W48">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="X48">
         <v>-1</v>
       </c>
       <c r="Y48">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="Z48">
         <v>-1</v>
@@ -5094,13 +5094,13 @@
         <v>-1</v>
       </c>
       <c r="AB48">
-        <v>0.9750000000000001</v>
+        <v>0.825</v>
       </c>
       <c r="AC48">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AD48">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="49" spans="1:30">
@@ -5485,7 +5485,7 @@
         <v>45157.52083333334</v>
       </c>
       <c r="E53" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F53" t="s">
         <v>37</v>
@@ -5761,7 +5761,7 @@
         <v>45157.52083333334</v>
       </c>
       <c r="E56" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="F56" t="s">
         <v>61</v>
@@ -5853,7 +5853,7 @@
         <v>45157.52083333334</v>
       </c>
       <c r="E57" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F57" t="s">
         <v>89</v>
@@ -6313,10 +6313,10 @@
         <v>45168.5</v>
       </c>
       <c r="E62" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F62" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G62">
         <v>2</v>
@@ -6396,7 +6396,7 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>7140309</v>
+        <v>7140310</v>
       </c>
       <c r="C63" t="s">
         <v>29</v>
@@ -6405,79 +6405,79 @@
         <v>45168.52083333334</v>
       </c>
       <c r="E63" t="s">
-        <v>43</v>
+        <v>64</v>
       </c>
       <c r="F63" t="s">
-        <v>34</v>
+        <v>85</v>
       </c>
       <c r="G63">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H63">
+        <v>2</v>
+      </c>
+      <c r="I63">
+        <v>1</v>
+      </c>
+      <c r="J63">
+        <v>1</v>
+      </c>
+      <c r="K63" t="s">
+        <v>101</v>
+      </c>
+      <c r="L63">
+        <v>1.5</v>
+      </c>
+      <c r="M63">
         <v>4</v>
       </c>
-      <c r="I63">
-        <v>0</v>
-      </c>
-      <c r="J63">
-        <v>3</v>
-      </c>
-      <c r="K63" t="s">
-        <v>100</v>
-      </c>
-      <c r="L63">
+      <c r="N63">
+        <v>5</v>
+      </c>
+      <c r="O63">
+        <v>1.5</v>
+      </c>
+      <c r="P63">
+        <v>4</v>
+      </c>
+      <c r="Q63">
+        <v>5</v>
+      </c>
+      <c r="R63">
+        <v>-1</v>
+      </c>
+      <c r="S63">
         <v>1.8</v>
       </c>
-      <c r="M63">
-        <v>3.6</v>
-      </c>
-      <c r="N63">
-        <v>3.6</v>
-      </c>
-      <c r="O63">
-        <v>1.909</v>
-      </c>
-      <c r="P63">
-        <v>3.6</v>
-      </c>
-      <c r="Q63">
-        <v>3.3</v>
-      </c>
-      <c r="R63">
-        <v>-0.5</v>
-      </c>
-      <c r="S63">
-        <v>1.95</v>
-      </c>
       <c r="T63">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="U63">
         <v>3</v>
       </c>
       <c r="V63">
-        <v>1.825</v>
+        <v>1.75</v>
       </c>
       <c r="W63">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="X63">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="Y63">
         <v>-1</v>
       </c>
       <c r="Z63">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="AA63">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AB63">
-        <v>0.8500000000000001</v>
+        <v>0</v>
       </c>
       <c r="AC63">
-        <v>0.825</v>
+        <v>0.75</v>
       </c>
       <c r="AD63">
         <v>-1</v>
@@ -6488,7 +6488,7 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>7140310</v>
+        <v>7140311</v>
       </c>
       <c r="C64" t="s">
         <v>29</v>
@@ -6497,16 +6497,16 @@
         <v>45168.52083333334</v>
       </c>
       <c r="E64" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F64" t="s">
-        <v>85</v>
+        <v>39</v>
       </c>
       <c r="G64">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H64">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I64">
         <v>1</v>
@@ -6515,61 +6515,61 @@
         <v>1</v>
       </c>
       <c r="K64" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="L64">
-        <v>1.5</v>
+        <v>1.727</v>
       </c>
       <c r="M64">
+        <v>3.5</v>
+      </c>
+      <c r="N64">
         <v>4</v>
       </c>
-      <c r="N64">
-        <v>5</v>
-      </c>
       <c r="O64">
-        <v>1.5</v>
+        <v>1.727</v>
       </c>
       <c r="P64">
+        <v>3.5</v>
+      </c>
+      <c r="Q64">
         <v>4</v>
       </c>
-      <c r="Q64">
-        <v>5</v>
-      </c>
       <c r="R64">
-        <v>-1</v>
+        <v>-0.75</v>
       </c>
       <c r="S64">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="T64">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="U64">
         <v>3</v>
       </c>
       <c r="V64">
-        <v>1.75</v>
+        <v>1.95</v>
       </c>
       <c r="W64">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="X64">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="Y64">
         <v>-1</v>
       </c>
       <c r="Z64">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="AA64">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AB64">
-        <v>0</v>
+        <v>0.825</v>
       </c>
       <c r="AC64">
-        <v>0.75</v>
+        <v>0.95</v>
       </c>
       <c r="AD64">
         <v>-1</v>
@@ -6960,7 +6960,7 @@
         <v>33</v>
       </c>
       <c r="F69" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="G69">
         <v>2</v>
@@ -7040,7 +7040,7 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>7140312</v>
+        <v>7140309</v>
       </c>
       <c r="C70" t="s">
         <v>29</v>
@@ -7049,82 +7049,82 @@
         <v>45168.52083333334</v>
       </c>
       <c r="E70" t="s">
-        <v>66</v>
+        <v>43</v>
       </c>
       <c r="F70" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="G70">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H70">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I70">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J70">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K70" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="L70">
-        <v>2.4</v>
+        <v>1.8</v>
       </c>
       <c r="M70">
         <v>3.6</v>
       </c>
       <c r="N70">
-        <v>2.4</v>
+        <v>3.6</v>
       </c>
       <c r="O70">
-        <v>2.4</v>
+        <v>1.909</v>
       </c>
       <c r="P70">
         <v>3.6</v>
       </c>
       <c r="Q70">
-        <v>2.4</v>
+        <v>3.3</v>
       </c>
       <c r="R70">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="S70">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="T70">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="U70">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="V70">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="W70">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="X70">
         <v>-1</v>
       </c>
       <c r="Y70">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Z70">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="AA70">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AB70">
-        <v>0</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC70">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AD70">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="71" spans="1:30">
@@ -7132,7 +7132,7 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>7141752</v>
+        <v>7140312</v>
       </c>
       <c r="C71" t="s">
         <v>29</v>
@@ -7141,10 +7141,10 @@
         <v>45168.52083333334</v>
       </c>
       <c r="E71" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="F71" t="s">
-        <v>82</v>
+        <v>46</v>
       </c>
       <c r="G71">
         <v>1</v>
@@ -7153,43 +7153,43 @@
         <v>1</v>
       </c>
       <c r="I71">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J71">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K71" t="s">
         <v>102</v>
       </c>
       <c r="L71">
-        <v>1.5</v>
+        <v>2.4</v>
       </c>
       <c r="M71">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="N71">
-        <v>5</v>
+        <v>2.4</v>
       </c>
       <c r="O71">
-        <v>1.5</v>
+        <v>2.4</v>
       </c>
       <c r="P71">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="Q71">
-        <v>5</v>
+        <v>2.4</v>
       </c>
       <c r="R71">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="S71">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="T71">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="U71">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="V71">
         <v>1.9</v>
@@ -7201,16 +7201,16 @@
         <v>-1</v>
       </c>
       <c r="Y71">
-        <v>3</v>
+        <v>2.6</v>
       </c>
       <c r="Z71">
         <v>-1</v>
       </c>
       <c r="AA71">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AB71">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC71">
         <v>-1</v>
@@ -7224,7 +7224,7 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>7140311</v>
+        <v>7141754</v>
       </c>
       <c r="C72" t="s">
         <v>29</v>
@@ -7233,16 +7233,16 @@
         <v>45168.52083333334</v>
       </c>
       <c r="E72" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F72" t="s">
-        <v>39</v>
+        <v>55</v>
       </c>
       <c r="G72">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H72">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I72">
         <v>1</v>
@@ -7254,41 +7254,41 @@
         <v>100</v>
       </c>
       <c r="L72">
-        <v>1.727</v>
+        <v>3.4</v>
       </c>
       <c r="M72">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="N72">
-        <v>4</v>
+        <v>1.8</v>
       </c>
       <c r="O72">
-        <v>1.727</v>
+        <v>3.4</v>
       </c>
       <c r="P72">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="Q72">
-        <v>4</v>
+        <v>1.8</v>
       </c>
       <c r="R72">
-        <v>-0.75</v>
+        <v>0.5</v>
       </c>
       <c r="S72">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="T72">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="U72">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="V72">
+        <v>1.75</v>
+      </c>
+      <c r="W72">
         <v>1.95</v>
       </c>
-      <c r="W72">
-        <v>1.85</v>
-      </c>
       <c r="X72">
         <v>-1</v>
       </c>
@@ -7296,16 +7296,16 @@
         <v>-1</v>
       </c>
       <c r="Z72">
-        <v>3</v>
+        <v>0.8</v>
       </c>
       <c r="AA72">
         <v>-1</v>
       </c>
       <c r="AB72">
-        <v>0.825</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC72">
-        <v>0.95</v>
+        <v>0.75</v>
       </c>
       <c r="AD72">
         <v>-1</v>
@@ -7316,7 +7316,7 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>7142173</v>
+        <v>7141752</v>
       </c>
       <c r="C73" t="s">
         <v>29</v>
@@ -7325,19 +7325,19 @@
         <v>45168.52083333334</v>
       </c>
       <c r="E73" t="s">
-        <v>35</v>
+        <v>58</v>
       </c>
       <c r="F73" t="s">
-        <v>31</v>
+        <v>82</v>
       </c>
       <c r="G73">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H73">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I73">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J73">
         <v>1</v>
@@ -7346,25 +7346,25 @@
         <v>102</v>
       </c>
       <c r="L73">
-        <v>1.615</v>
+        <v>1.5</v>
       </c>
       <c r="M73">
         <v>4</v>
       </c>
       <c r="N73">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="O73">
-        <v>1.615</v>
+        <v>1.5</v>
       </c>
       <c r="P73">
         <v>4</v>
       </c>
       <c r="Q73">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R73">
-        <v>-0.75</v>
+        <v>-1</v>
       </c>
       <c r="S73">
         <v>1.8</v>
@@ -7373,7 +7373,7 @@
         <v>2</v>
       </c>
       <c r="U73">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="V73">
         <v>1.9</v>
@@ -7397,10 +7397,10 @@
         <v>1</v>
       </c>
       <c r="AC73">
+        <v>-1</v>
+      </c>
+      <c r="AD73">
         <v>0.8999999999999999</v>
-      </c>
-      <c r="AD73">
-        <v>-1</v>
       </c>
     </row>
     <row r="74" spans="1:30">
@@ -7408,7 +7408,7 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>7141754</v>
+        <v>7141753</v>
       </c>
       <c r="C74" t="s">
         <v>29</v>
@@ -7417,82 +7417,82 @@
         <v>45168.52083333334</v>
       </c>
       <c r="E74" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="F74" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="G74">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H74">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I74">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J74">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K74" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="L74">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="M74">
         <v>3.75</v>
       </c>
       <c r="N74">
-        <v>1.8</v>
+        <v>1.909</v>
       </c>
       <c r="O74">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="P74">
         <v>3.75</v>
       </c>
       <c r="Q74">
-        <v>1.8</v>
+        <v>1.909</v>
       </c>
       <c r="R74">
         <v>0.5</v>
       </c>
       <c r="S74">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="T74">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="U74">
         <v>2.75</v>
       </c>
       <c r="V74">
-        <v>1.75</v>
+        <v>1.825</v>
       </c>
       <c r="W74">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="X74">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y74">
         <v>-1</v>
       </c>
       <c r="Z74">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA74">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB74">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC74">
-        <v>0.75</v>
+        <v>0.4125</v>
       </c>
       <c r="AD74">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="75" spans="1:30">
@@ -7500,7 +7500,7 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>7141753</v>
+        <v>7140305</v>
       </c>
       <c r="C75" t="s">
         <v>29</v>
@@ -7509,19 +7509,19 @@
         <v>45168.52083333334</v>
       </c>
       <c r="E75" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="F75" t="s">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="G75">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H75">
         <v>1</v>
       </c>
       <c r="I75">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J75">
         <v>0</v>
@@ -7530,43 +7530,43 @@
         <v>101</v>
       </c>
       <c r="L75">
-        <v>3.1</v>
+        <v>2.25</v>
       </c>
       <c r="M75">
         <v>3.75</v>
       </c>
       <c r="N75">
-        <v>1.909</v>
+        <v>2.5</v>
       </c>
       <c r="O75">
-        <v>3.1</v>
+        <v>2.25</v>
       </c>
       <c r="P75">
         <v>3.75</v>
       </c>
       <c r="Q75">
-        <v>1.909</v>
+        <v>2.5</v>
       </c>
       <c r="R75">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="S75">
+        <v>1.8</v>
+      </c>
+      <c r="T75">
+        <v>2</v>
+      </c>
+      <c r="U75">
+        <v>3</v>
+      </c>
+      <c r="V75">
+        <v>1.975</v>
+      </c>
+      <c r="W75">
         <v>1.825</v>
       </c>
-      <c r="T75">
-        <v>1.975</v>
-      </c>
-      <c r="U75">
-        <v>2.75</v>
-      </c>
-      <c r="V75">
-        <v>1.825</v>
-      </c>
-      <c r="W75">
-        <v>1.975</v>
-      </c>
       <c r="X75">
-        <v>2.1</v>
+        <v>1.25</v>
       </c>
       <c r="Y75">
         <v>-1</v>
@@ -7575,16 +7575,16 @@
         <v>-1</v>
       </c>
       <c r="AA75">
-        <v>0.825</v>
+        <v>0.8</v>
       </c>
       <c r="AB75">
         <v>-1</v>
       </c>
       <c r="AC75">
-        <v>0.4125</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AD75">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="76" spans="1:30">
@@ -7592,7 +7592,7 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>7140306</v>
+        <v>7140308</v>
       </c>
       <c r="C76" t="s">
         <v>29</v>
@@ -7601,82 +7601,82 @@
         <v>45168.52083333334</v>
       </c>
       <c r="E76" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="F76" t="s">
-        <v>51</v>
+        <v>91</v>
       </c>
       <c r="G76">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H76">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I76">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J76">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K76" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="L76">
-        <v>2.25</v>
+        <v>1.5</v>
       </c>
       <c r="M76">
-        <v>3.75</v>
+        <v>4.5</v>
       </c>
       <c r="N76">
-        <v>2.5</v>
+        <v>4.5</v>
       </c>
       <c r="O76">
-        <v>2.3</v>
+        <v>1.444</v>
       </c>
       <c r="P76">
-        <v>3.6</v>
+        <v>5</v>
       </c>
       <c r="Q76">
-        <v>2.5</v>
+        <v>4.75</v>
       </c>
       <c r="R76">
-        <v>0</v>
+        <v>-1.25</v>
       </c>
       <c r="S76">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="T76">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="U76">
         <v>3</v>
       </c>
       <c r="V76">
-        <v>2.1</v>
+        <v>1.825</v>
       </c>
       <c r="W76">
-        <v>1.7</v>
+        <v>1.975</v>
       </c>
       <c r="X76">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="Y76">
         <v>-1</v>
       </c>
       <c r="Z76">
-        <v>-1</v>
+        <v>3.75</v>
       </c>
       <c r="AA76">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB76">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC76">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="AD76">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="77" spans="1:30">
@@ -7684,7 +7684,7 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>7140308</v>
+        <v>7142437</v>
       </c>
       <c r="C77" t="s">
         <v>29</v>
@@ -7693,82 +7693,82 @@
         <v>45168.52083333334</v>
       </c>
       <c r="E77" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="F77" t="s">
-        <v>91</v>
+        <v>73</v>
       </c>
       <c r="G77">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H77">
         <v>2</v>
       </c>
       <c r="I77">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J77">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K77" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="L77">
-        <v>1.5</v>
+        <v>1.571</v>
       </c>
       <c r="M77">
-        <v>4.5</v>
+        <v>3.75</v>
       </c>
       <c r="N77">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="O77">
-        <v>1.444</v>
+        <v>1.571</v>
       </c>
       <c r="P77">
-        <v>5</v>
+        <v>3.75</v>
       </c>
       <c r="Q77">
         <v>4.75</v>
       </c>
       <c r="R77">
-        <v>-1.25</v>
+        <v>-1</v>
       </c>
       <c r="S77">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="T77">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="U77">
         <v>3</v>
       </c>
       <c r="V77">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="W77">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="X77">
-        <v>-1</v>
+        <v>0.571</v>
       </c>
       <c r="Y77">
         <v>-1</v>
       </c>
       <c r="Z77">
-        <v>3.75</v>
+        <v>-1</v>
       </c>
       <c r="AA77">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB77">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC77">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AD77">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="78" spans="1:30">
@@ -7776,7 +7776,7 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>7142437</v>
+        <v>7142196</v>
       </c>
       <c r="C78" t="s">
         <v>29</v>
@@ -7785,55 +7785,55 @@
         <v>45168.52083333334</v>
       </c>
       <c r="E78" t="s">
-        <v>37</v>
+        <v>68</v>
       </c>
       <c r="F78" t="s">
-        <v>73</v>
+        <v>88</v>
       </c>
       <c r="G78">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H78">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I78">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J78">
         <v>1</v>
       </c>
       <c r="K78" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="L78">
-        <v>1.571</v>
+        <v>2.25</v>
       </c>
       <c r="M78">
         <v>3.75</v>
       </c>
       <c r="N78">
-        <v>4.75</v>
+        <v>2.5</v>
       </c>
       <c r="O78">
-        <v>1.571</v>
+        <v>2.25</v>
       </c>
       <c r="P78">
         <v>3.75</v>
       </c>
       <c r="Q78">
-        <v>4.75</v>
+        <v>2.5</v>
       </c>
       <c r="R78">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="S78">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="T78">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="U78">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="V78">
         <v>1.9</v>
@@ -7842,19 +7842,19 @@
         <v>1.9</v>
       </c>
       <c r="X78">
-        <v>0.571</v>
+        <v>-1</v>
       </c>
       <c r="Y78">
         <v>-1</v>
       </c>
       <c r="Z78">
-        <v>-1</v>
+        <v>1.5</v>
       </c>
       <c r="AA78">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB78">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC78">
         <v>0.8999999999999999</v>
@@ -7868,7 +7868,7 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>7142196</v>
+        <v>7142173</v>
       </c>
       <c r="C79" t="s">
         <v>29</v>
@@ -7877,46 +7877,46 @@
         <v>45168.52083333334</v>
       </c>
       <c r="E79" t="s">
-        <v>68</v>
+        <v>35</v>
       </c>
       <c r="F79" t="s">
-        <v>88</v>
+        <v>31</v>
       </c>
       <c r="G79">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H79">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I79">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J79">
         <v>1</v>
       </c>
       <c r="K79" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="L79">
-        <v>2.25</v>
+        <v>1.615</v>
       </c>
       <c r="M79">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="N79">
-        <v>2.5</v>
+        <v>4</v>
       </c>
       <c r="O79">
-        <v>2.25</v>
+        <v>1.615</v>
       </c>
       <c r="P79">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="Q79">
-        <v>2.5</v>
+        <v>4</v>
       </c>
       <c r="R79">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="S79">
         <v>1.8</v>
@@ -7937,10 +7937,10 @@
         <v>-1</v>
       </c>
       <c r="Y79">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Z79">
-        <v>1.5</v>
+        <v>-1</v>
       </c>
       <c r="AA79">
         <v>-1</v>
@@ -7960,7 +7960,7 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>7140305</v>
+        <v>7140306</v>
       </c>
       <c r="C80" t="s">
         <v>29</v>
@@ -7969,22 +7969,22 @@
         <v>45168.52083333334</v>
       </c>
       <c r="E80" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="F80" t="s">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="G80">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H80">
         <v>1</v>
       </c>
       <c r="I80">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J80">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K80" t="s">
         <v>101</v>
@@ -7999,10 +7999,10 @@
         <v>2.5</v>
       </c>
       <c r="O80">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="P80">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="Q80">
         <v>2.5</v>
@@ -8020,13 +8020,13 @@
         <v>3</v>
       </c>
       <c r="V80">
-        <v>1.975</v>
+        <v>2.1</v>
       </c>
       <c r="W80">
-        <v>1.825</v>
+        <v>1.7</v>
       </c>
       <c r="X80">
-        <v>1.25</v>
+        <v>1.3</v>
       </c>
       <c r="Y80">
         <v>-1</v>
@@ -8041,7 +8041,7 @@
         <v>-1</v>
       </c>
       <c r="AC80">
-        <v>0.9750000000000001</v>
+        <v>1.1</v>
       </c>
       <c r="AD80">
         <v>-1</v>
@@ -8705,7 +8705,7 @@
         <v>45172.45833333334</v>
       </c>
       <c r="E88" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F88" t="s">
         <v>88</v>
@@ -9168,7 +9168,7 @@
         <v>68</v>
       </c>
       <c r="F93" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G93">
         <v>2</v>
@@ -10168,7 +10168,7 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>7182109</v>
+        <v>7182056</v>
       </c>
       <c r="C104" t="s">
         <v>29</v>
@@ -10177,13 +10177,13 @@
         <v>45178.45833333334</v>
       </c>
       <c r="E104" t="s">
-        <v>44</v>
+        <v>63</v>
       </c>
       <c r="F104" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="G104">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H104">
         <v>1</v>
@@ -10195,64 +10195,64 @@
         <v>1</v>
       </c>
       <c r="K104" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="L104">
-        <v>2</v>
+        <v>3.8</v>
       </c>
       <c r="M104">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="N104">
-        <v>3.1</v>
+        <v>1.666</v>
       </c>
       <c r="O104">
-        <v>2</v>
+        <v>3.8</v>
       </c>
       <c r="P104">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="Q104">
-        <v>3.1</v>
+        <v>1.666</v>
       </c>
       <c r="R104">
-        <v>-0.25</v>
+        <v>0.75</v>
       </c>
       <c r="S104">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="T104">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="U104">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="V104">
         <v>1.75</v>
       </c>
       <c r="W104">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="X104">
         <v>-1</v>
       </c>
       <c r="Y104">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Z104">
-        <v>-1</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="AA104">
         <v>-0.5</v>
       </c>
       <c r="AB104">
-        <v>0.5</v>
+        <v>0.4375</v>
       </c>
       <c r="AC104">
         <v>-1</v>
       </c>
       <c r="AD104">
-        <v>0.95</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="105" spans="1:30">
@@ -10260,7 +10260,7 @@
         <v>103</v>
       </c>
       <c r="B105">
-        <v>7182056</v>
+        <v>7182109</v>
       </c>
       <c r="C105" t="s">
         <v>29</v>
@@ -10269,13 +10269,13 @@
         <v>45178.45833333334</v>
       </c>
       <c r="E105" t="s">
-        <v>63</v>
+        <v>44</v>
       </c>
       <c r="F105" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="G105">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H105">
         <v>1</v>
@@ -10287,64 +10287,64 @@
         <v>1</v>
       </c>
       <c r="K105" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="L105">
-        <v>3.8</v>
+        <v>2</v>
       </c>
       <c r="M105">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="N105">
-        <v>1.666</v>
+        <v>3.1</v>
       </c>
       <c r="O105">
-        <v>3.8</v>
+        <v>2</v>
       </c>
       <c r="P105">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="Q105">
-        <v>1.666</v>
+        <v>3.1</v>
       </c>
       <c r="R105">
-        <v>0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="S105">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="T105">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="U105">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="V105">
         <v>1.75</v>
       </c>
       <c r="W105">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="X105">
         <v>-1</v>
       </c>
       <c r="Y105">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Z105">
-        <v>0.6659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA105">
         <v>-0.5</v>
       </c>
       <c r="AB105">
-        <v>0.4375</v>
+        <v>0.5</v>
       </c>
       <c r="AC105">
         <v>-1</v>
       </c>
       <c r="AD105">
-        <v>1.05</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="106" spans="1:30">
@@ -10456,7 +10456,7 @@
         <v>51</v>
       </c>
       <c r="F107" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="G107">
         <v>1</v>
@@ -10628,7 +10628,7 @@
         <v>107</v>
       </c>
       <c r="B109">
-        <v>7182189</v>
+        <v>7182025</v>
       </c>
       <c r="C109" t="s">
         <v>29</v>
@@ -10637,82 +10637,82 @@
         <v>45178.45833333334</v>
       </c>
       <c r="E109" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F109" t="s">
-        <v>95</v>
+        <v>45</v>
       </c>
       <c r="G109">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H109">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I109">
         <v>0</v>
       </c>
       <c r="J109">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K109" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="L109">
-        <v>2.1</v>
+        <v>2.25</v>
       </c>
       <c r="M109">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="N109">
-        <v>2.75</v>
+        <v>2.625</v>
       </c>
       <c r="O109">
         <v>2.25</v>
       </c>
       <c r="P109">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="Q109">
-        <v>2.55</v>
+        <v>2.625</v>
       </c>
       <c r="R109">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="S109">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="T109">
-        <v>2.025</v>
+        <v>1.725</v>
       </c>
       <c r="U109">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="V109">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="W109">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="X109">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="Y109">
         <v>-1</v>
       </c>
       <c r="Z109">
-        <v>1.55</v>
+        <v>-1</v>
       </c>
       <c r="AA109">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB109">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AC109">
         <v>-1</v>
       </c>
       <c r="AD109">
-        <v>0.8999999999999999</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="110" spans="1:30">
@@ -10720,7 +10720,7 @@
         <v>108</v>
       </c>
       <c r="B110">
-        <v>7182024</v>
+        <v>7182189</v>
       </c>
       <c r="C110" t="s">
         <v>29</v>
@@ -10729,82 +10729,82 @@
         <v>45178.45833333334</v>
       </c>
       <c r="E110" t="s">
-        <v>42</v>
+        <v>56</v>
       </c>
       <c r="F110" t="s">
-        <v>69</v>
+        <v>95</v>
       </c>
       <c r="G110">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H110">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I110">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J110">
         <v>1</v>
       </c>
       <c r="K110" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="L110">
-        <v>2.6</v>
+        <v>2.1</v>
       </c>
       <c r="M110">
-        <v>3.25</v>
+        <v>3.6</v>
       </c>
       <c r="N110">
-        <v>2.375</v>
+        <v>2.75</v>
       </c>
       <c r="O110">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="P110">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="Q110">
-        <v>2.7</v>
+        <v>2.55</v>
       </c>
       <c r="R110">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="S110">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="T110">
-        <v>1.725</v>
+        <v>2.025</v>
       </c>
       <c r="U110">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="V110">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="W110">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="X110">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="Y110">
         <v>-1</v>
       </c>
       <c r="Z110">
-        <v>-1</v>
+        <v>1.55</v>
       </c>
       <c r="AA110">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB110">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AC110">
-        <v>0.475</v>
+        <v>-1</v>
       </c>
       <c r="AD110">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="111" spans="1:30">
@@ -10812,7 +10812,7 @@
         <v>109</v>
       </c>
       <c r="B111">
-        <v>7182025</v>
+        <v>7182024</v>
       </c>
       <c r="C111" t="s">
         <v>29</v>
@@ -10821,43 +10821,43 @@
         <v>45178.45833333334</v>
       </c>
       <c r="E111" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="F111" t="s">
-        <v>45</v>
+        <v>69</v>
       </c>
       <c r="G111">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H111">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I111">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J111">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K111" t="s">
         <v>101</v>
       </c>
       <c r="L111">
-        <v>2.25</v>
+        <v>2.6</v>
       </c>
       <c r="M111">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="N111">
-        <v>2.625</v>
+        <v>2.375</v>
       </c>
       <c r="O111">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="P111">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="Q111">
-        <v>2.625</v>
+        <v>2.7</v>
       </c>
       <c r="R111">
         <v>-0.25</v>
@@ -10872,13 +10872,13 @@
         <v>2.75</v>
       </c>
       <c r="V111">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="W111">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="X111">
-        <v>1.25</v>
+        <v>1.3</v>
       </c>
       <c r="Y111">
         <v>-1</v>
@@ -10893,10 +10893,10 @@
         <v>-1</v>
       </c>
       <c r="AC111">
-        <v>-1</v>
+        <v>0.475</v>
       </c>
       <c r="AD111">
-        <v>0.9750000000000001</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="112" spans="1:30">
@@ -11008,7 +11008,7 @@
         <v>30</v>
       </c>
       <c r="F113" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G113">
         <v>1</v>
@@ -11192,7 +11192,7 @@
         <v>47</v>
       </c>
       <c r="F115" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G115">
         <v>0</v>
@@ -11925,7 +11925,7 @@
         <v>45193.45833333334</v>
       </c>
       <c r="E123" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F123" t="s">
         <v>45</v>
@@ -12204,7 +12204,7 @@
         <v>77</v>
       </c>
       <c r="F126" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G126">
         <v>4</v>
@@ -13572,7 +13572,7 @@
         <v>139</v>
       </c>
       <c r="B141">
-        <v>7278134</v>
+        <v>7278205</v>
       </c>
       <c r="C141" t="s">
         <v>29</v>
@@ -13581,52 +13581,52 @@
         <v>45200.41666666666</v>
       </c>
       <c r="E141" t="s">
-        <v>54</v>
+        <v>37</v>
       </c>
       <c r="F141" t="s">
-        <v>46</v>
+        <v>81</v>
       </c>
       <c r="G141">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H141">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I141">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J141">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K141" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="L141">
+        <v>2.25</v>
+      </c>
+      <c r="M141">
         <v>3.4</v>
       </c>
-      <c r="M141">
-        <v>3.8</v>
-      </c>
       <c r="N141">
-        <v>1.8</v>
+        <v>2.625</v>
       </c>
       <c r="O141">
+        <v>2.25</v>
+      </c>
+      <c r="P141">
         <v>3.4</v>
       </c>
-      <c r="P141">
-        <v>3.8</v>
-      </c>
       <c r="Q141">
-        <v>1.8</v>
+        <v>2.625</v>
       </c>
       <c r="R141">
-        <v>0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="S141">
+        <v>2.05</v>
+      </c>
+      <c r="T141">
         <v>1.75</v>
-      </c>
-      <c r="T141">
-        <v>2.05</v>
       </c>
       <c r="U141">
         <v>2.75</v>
@@ -13641,22 +13641,22 @@
         <v>-1</v>
       </c>
       <c r="Y141">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Z141">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA141">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB141">
-        <v>1.05</v>
+        <v>0.375</v>
       </c>
       <c r="AC141">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AD141">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="142" spans="1:30">
@@ -13664,7 +13664,7 @@
         <v>140</v>
       </c>
       <c r="B142">
-        <v>7278148</v>
+        <v>7278134</v>
       </c>
       <c r="C142" t="s">
         <v>29</v>
@@ -13673,82 +13673,82 @@
         <v>45200.41666666666</v>
       </c>
       <c r="E142" t="s">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="F142" t="s">
-        <v>75</v>
+        <v>46</v>
       </c>
       <c r="G142">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H142">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I142">
         <v>0</v>
       </c>
       <c r="J142">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K142" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="L142">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="M142">
         <v>3.8</v>
       </c>
       <c r="N142">
-        <v>1.833</v>
+        <v>1.8</v>
       </c>
       <c r="O142">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="P142">
         <v>3.8</v>
       </c>
       <c r="Q142">
-        <v>1.833</v>
+        <v>1.8</v>
       </c>
       <c r="R142">
         <v>0.75</v>
       </c>
       <c r="S142">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="T142">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="U142">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="V142">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="W142">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="X142">
         <v>-1</v>
       </c>
       <c r="Y142">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Z142">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA142">
-        <v>0.7</v>
+        <v>-1</v>
       </c>
       <c r="AB142">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AC142">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AD142">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="143" spans="1:30">
@@ -13756,7 +13756,7 @@
         <v>141</v>
       </c>
       <c r="B143">
-        <v>7278192</v>
+        <v>7278148</v>
       </c>
       <c r="C143" t="s">
         <v>29</v>
@@ -13765,52 +13765,52 @@
         <v>45200.41666666666</v>
       </c>
       <c r="E143" t="s">
-        <v>74</v>
+        <v>41</v>
       </c>
       <c r="F143" t="s">
-        <v>63</v>
+        <v>75</v>
       </c>
       <c r="G143">
         <v>1</v>
       </c>
       <c r="H143">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I143">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J143">
         <v>0</v>
       </c>
       <c r="K143" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="L143">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="M143">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="N143">
-        <v>2</v>
+        <v>1.833</v>
       </c>
       <c r="O143">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="P143">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="Q143">
-        <v>2</v>
+        <v>1.833</v>
       </c>
       <c r="R143">
-        <v>0.25</v>
+        <v>0.75</v>
       </c>
       <c r="S143">
-        <v>2</v>
+        <v>1.7</v>
       </c>
       <c r="T143">
-        <v>1.8</v>
+        <v>2.1</v>
       </c>
       <c r="U143">
         <v>3</v>
@@ -13825,22 +13825,22 @@
         <v>-1</v>
       </c>
       <c r="Y143">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Z143">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA143">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="AB143">
+        <v>-1</v>
+      </c>
+      <c r="AC143">
+        <v>-1</v>
+      </c>
+      <c r="AD143">
         <v>0.8</v>
-      </c>
-      <c r="AC143">
-        <v>0</v>
-      </c>
-      <c r="AD143">
-        <v>0</v>
       </c>
     </row>
     <row r="144" spans="1:30">
@@ -13848,7 +13848,7 @@
         <v>142</v>
       </c>
       <c r="B144">
-        <v>7278194</v>
+        <v>7278192</v>
       </c>
       <c r="C144" t="s">
         <v>29</v>
@@ -13857,52 +13857,52 @@
         <v>45200.41666666666</v>
       </c>
       <c r="E144" t="s">
-        <v>61</v>
+        <v>74</v>
       </c>
       <c r="F144" t="s">
-        <v>78</v>
+        <v>63</v>
       </c>
       <c r="G144">
+        <v>1</v>
+      </c>
+      <c r="H144">
+        <v>2</v>
+      </c>
+      <c r="I144">
+        <v>1</v>
+      </c>
+      <c r="J144">
+        <v>0</v>
+      </c>
+      <c r="K144" t="s">
+        <v>100</v>
+      </c>
+      <c r="L144">
         <v>3</v>
       </c>
-      <c r="H144">
-        <v>0</v>
-      </c>
-      <c r="I144">
-        <v>0</v>
-      </c>
-      <c r="J144">
-        <v>0</v>
-      </c>
-      <c r="K144" t="s">
-        <v>101</v>
-      </c>
-      <c r="L144">
-        <v>1.833</v>
-      </c>
       <c r="M144">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="N144">
-        <v>3.25</v>
+        <v>2</v>
       </c>
       <c r="O144">
-        <v>1.833</v>
+        <v>3</v>
       </c>
       <c r="P144">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="Q144">
-        <v>3.25</v>
+        <v>2</v>
       </c>
       <c r="R144">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="S144">
-        <v>2.075</v>
+        <v>2</v>
       </c>
       <c r="T144">
-        <v>1.725</v>
+        <v>1.8</v>
       </c>
       <c r="U144">
         <v>3</v>
@@ -13914,19 +13914,19 @@
         <v>1.8</v>
       </c>
       <c r="X144">
-        <v>0.833</v>
+        <v>-1</v>
       </c>
       <c r="Y144">
         <v>-1</v>
       </c>
       <c r="Z144">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA144">
-        <v>1.075</v>
+        <v>-1</v>
       </c>
       <c r="AB144">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC144">
         <v>0</v>
@@ -13940,7 +13940,7 @@
         <v>143</v>
       </c>
       <c r="B145">
-        <v>7278204</v>
+        <v>7278194</v>
       </c>
       <c r="C145" t="s">
         <v>29</v>
@@ -13949,10 +13949,10 @@
         <v>45200.41666666666</v>
       </c>
       <c r="E145" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="F145" t="s">
-        <v>52</v>
+        <v>78</v>
       </c>
       <c r="G145">
         <v>3</v>
@@ -13961,7 +13961,7 @@
         <v>0</v>
       </c>
       <c r="I145">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J145">
         <v>0</v>
@@ -13970,43 +13970,43 @@
         <v>101</v>
       </c>
       <c r="L145">
-        <v>2.5</v>
+        <v>1.833</v>
       </c>
       <c r="M145">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="N145">
-        <v>2.375</v>
+        <v>3.25</v>
       </c>
       <c r="O145">
-        <v>2.5</v>
+        <v>1.833</v>
       </c>
       <c r="P145">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="Q145">
-        <v>2.375</v>
+        <v>3.25</v>
       </c>
       <c r="R145">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="S145">
-        <v>1.95</v>
+        <v>2.075</v>
       </c>
       <c r="T145">
-        <v>1.85</v>
+        <v>1.725</v>
       </c>
       <c r="U145">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="V145">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W145">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="X145">
-        <v>1.5</v>
+        <v>0.833</v>
       </c>
       <c r="Y145">
         <v>-1</v>
@@ -14015,16 +14015,16 @@
         <v>-1</v>
       </c>
       <c r="AA145">
-        <v>0.95</v>
+        <v>1.075</v>
       </c>
       <c r="AB145">
         <v>-1</v>
       </c>
       <c r="AC145">
-        <v>0.475</v>
+        <v>0</v>
       </c>
       <c r="AD145">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="146" spans="1:30">
@@ -14032,7 +14032,7 @@
         <v>144</v>
       </c>
       <c r="B146">
-        <v>7278205</v>
+        <v>7278204</v>
       </c>
       <c r="C146" t="s">
         <v>29</v>
@@ -14041,16 +14041,16 @@
         <v>45200.41666666666</v>
       </c>
       <c r="E146" t="s">
-        <v>37</v>
+        <v>54</v>
       </c>
       <c r="F146" t="s">
-        <v>81</v>
+        <v>50</v>
       </c>
       <c r="G146">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H146">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I146">
         <v>1</v>
@@ -14059,64 +14059,64 @@
         <v>0</v>
       </c>
       <c r="K146" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="L146">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="M146">
         <v>3.4</v>
       </c>
       <c r="N146">
-        <v>2.625</v>
+        <v>2.375</v>
       </c>
       <c r="O146">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="P146">
         <v>3.4</v>
       </c>
       <c r="Q146">
-        <v>2.625</v>
+        <v>2.375</v>
       </c>
       <c r="R146">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="S146">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="T146">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="U146">
         <v>2.75</v>
       </c>
       <c r="V146">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="W146">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="X146">
-        <v>-1</v>
+        <v>1.5</v>
       </c>
       <c r="Y146">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Z146">
         <v>-1</v>
       </c>
       <c r="AA146">
+        <v>0.95</v>
+      </c>
+      <c r="AB146">
+        <v>-1</v>
+      </c>
+      <c r="AC146">
+        <v>0.475</v>
+      </c>
+      <c r="AD146">
         <v>-0.5</v>
-      </c>
-      <c r="AB146">
-        <v>0.375</v>
-      </c>
-      <c r="AC146">
-        <v>-1</v>
-      </c>
-      <c r="AD146">
-        <v>0.925</v>
       </c>
     </row>
     <row r="147" spans="1:30">
@@ -14136,7 +14136,7 @@
         <v>47</v>
       </c>
       <c r="F147" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G147">
         <v>3</v>
@@ -16065,7 +16065,7 @@
         <v>45214.41666666666</v>
       </c>
       <c r="E168" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F168" t="s">
         <v>92</v>
@@ -16157,7 +16157,7 @@
         <v>45214.41666666666</v>
       </c>
       <c r="E169" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F169" t="s">
         <v>71</v>
@@ -16525,7 +16525,7 @@
         <v>45214.41666666666</v>
       </c>
       <c r="E173" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F173" t="s">
         <v>73</v>
@@ -17908,7 +17908,7 @@
         <v>78</v>
       </c>
       <c r="F188" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="G188">
         <v>1</v>
@@ -18000,7 +18000,7 @@
         <v>57</v>
       </c>
       <c r="F189" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="G189">
         <v>1</v>
@@ -18092,7 +18092,7 @@
         <v>42</v>
       </c>
       <c r="F190" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G190">
         <v>5</v>
@@ -18448,7 +18448,7 @@
         <v>192</v>
       </c>
       <c r="B194">
-        <v>7399937</v>
+        <v>7399933</v>
       </c>
       <c r="C194" t="s">
         <v>29</v>
@@ -18457,79 +18457,79 @@
         <v>45228.29166666666</v>
       </c>
       <c r="E194" t="s">
-        <v>33</v>
+        <v>55</v>
       </c>
       <c r="F194" t="s">
-        <v>59</v>
+        <v>35</v>
       </c>
       <c r="G194">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H194">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I194">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J194">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K194" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="L194">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="M194">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="N194">
-        <v>2.8</v>
+        <v>3.1</v>
       </c>
       <c r="O194">
-        <v>1.666</v>
+        <v>2</v>
       </c>
       <c r="P194">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="Q194">
-        <v>4</v>
+        <v>3.1</v>
       </c>
       <c r="R194">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="S194">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="T194">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="U194">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="V194">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="W194">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="X194">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Y194">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Z194">
         <v>-1</v>
       </c>
       <c r="AA194">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB194">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC194">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="AD194">
         <v>-1</v>
@@ -18549,7 +18549,7 @@
         <v>45228.29166666666</v>
       </c>
       <c r="E195" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F195" t="s">
         <v>44</v>
@@ -18632,7 +18632,7 @@
         <v>194</v>
       </c>
       <c r="B196">
-        <v>7399933</v>
+        <v>7399937</v>
       </c>
       <c r="C196" t="s">
         <v>29</v>
@@ -18641,79 +18641,79 @@
         <v>45228.29166666666</v>
       </c>
       <c r="E196" t="s">
-        <v>55</v>
+        <v>33</v>
       </c>
       <c r="F196" t="s">
-        <v>35</v>
+        <v>59</v>
       </c>
       <c r="G196">
+        <v>2</v>
+      </c>
+      <c r="H196">
+        <v>2</v>
+      </c>
+      <c r="I196">
+        <v>2</v>
+      </c>
+      <c r="J196">
+        <v>1</v>
+      </c>
+      <c r="K196" t="s">
+        <v>102</v>
+      </c>
+      <c r="L196">
+        <v>2.1</v>
+      </c>
+      <c r="M196">
+        <v>3.5</v>
+      </c>
+      <c r="N196">
+        <v>2.8</v>
+      </c>
+      <c r="O196">
+        <v>1.666</v>
+      </c>
+      <c r="P196">
+        <v>3.8</v>
+      </c>
+      <c r="Q196">
         <v>4</v>
       </c>
-      <c r="H196">
-        <v>1</v>
-      </c>
-      <c r="I196">
-        <v>0</v>
-      </c>
-      <c r="J196">
-        <v>0</v>
-      </c>
-      <c r="K196" t="s">
-        <v>101</v>
-      </c>
-      <c r="L196">
-        <v>2</v>
-      </c>
-      <c r="M196">
-        <v>3.4</v>
-      </c>
-      <c r="N196">
-        <v>3.1</v>
-      </c>
-      <c r="O196">
-        <v>2</v>
-      </c>
-      <c r="P196">
-        <v>3.4</v>
-      </c>
-      <c r="Q196">
-        <v>3.1</v>
-      </c>
       <c r="R196">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="S196">
+        <v>1.875</v>
+      </c>
+      <c r="T196">
+        <v>1.925</v>
+      </c>
+      <c r="U196">
+        <v>2.5</v>
+      </c>
+      <c r="V196">
         <v>1.8</v>
       </c>
-      <c r="T196">
-        <v>2</v>
-      </c>
-      <c r="U196">
-        <v>2.75</v>
-      </c>
-      <c r="V196">
-        <v>1.75</v>
-      </c>
       <c r="W196">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="X196">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Y196">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Z196">
         <v>-1</v>
       </c>
       <c r="AA196">
+        <v>-1</v>
+      </c>
+      <c r="AB196">
+        <v>0.925</v>
+      </c>
+      <c r="AC196">
         <v>0.8</v>
-      </c>
-      <c r="AB196">
-        <v>-1</v>
-      </c>
-      <c r="AC196">
-        <v>0.75</v>
       </c>
       <c r="AD196">
         <v>-1</v>
@@ -18825,7 +18825,7 @@
         <v>45228.375</v>
       </c>
       <c r="E198" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F198" t="s">
         <v>71</v>
@@ -18917,7 +18917,7 @@
         <v>45228.375</v>
       </c>
       <c r="E199" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F199" t="s">
         <v>69</v>
@@ -19460,7 +19460,7 @@
         <v>203</v>
       </c>
       <c r="B205">
-        <v>7433347</v>
+        <v>7433344</v>
       </c>
       <c r="C205" t="s">
         <v>29</v>
@@ -19469,82 +19469,82 @@
         <v>45235.29166666666</v>
       </c>
       <c r="E205" t="s">
-        <v>59</v>
+        <v>34</v>
       </c>
       <c r="F205" t="s">
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="G205">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H205">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I205">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J205">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K205" t="s">
         <v>102</v>
       </c>
       <c r="L205">
-        <v>2.4</v>
+        <v>2.25</v>
       </c>
       <c r="M205">
         <v>3.5</v>
       </c>
       <c r="N205">
-        <v>2.4</v>
+        <v>2.625</v>
       </c>
       <c r="O205">
-        <v>2.4</v>
+        <v>2.25</v>
       </c>
       <c r="P205">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="Q205">
-        <v>2.4</v>
+        <v>2.625</v>
       </c>
       <c r="R205">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="S205">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="T205">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="U205">
         <v>3</v>
       </c>
       <c r="V205">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="W205">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="X205">
         <v>-1</v>
       </c>
       <c r="Y205">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="Z205">
         <v>-1</v>
       </c>
       <c r="AA205">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="AB205">
-        <v>0</v>
+        <v>0.3875</v>
       </c>
       <c r="AC205">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AD205">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="206" spans="1:30">
@@ -19552,7 +19552,7 @@
         <v>204</v>
       </c>
       <c r="B206">
-        <v>7433345</v>
+        <v>7433346</v>
       </c>
       <c r="C206" t="s">
         <v>29</v>
@@ -19561,58 +19561,58 @@
         <v>45235.29166666666</v>
       </c>
       <c r="E206" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="F206" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="G206">
         <v>0</v>
       </c>
       <c r="H206">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I206">
         <v>0</v>
       </c>
       <c r="J206">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K206" t="s">
         <v>100</v>
       </c>
       <c r="L206">
-        <v>2</v>
+        <v>2.9</v>
       </c>
       <c r="M206">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="N206">
-        <v>3</v>
+        <v>2.1</v>
       </c>
       <c r="O206">
-        <v>2</v>
+        <v>2.9</v>
       </c>
       <c r="P206">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="Q206">
-        <v>3</v>
+        <v>2.1</v>
       </c>
       <c r="R206">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="S206">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="T206">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="U206">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="V206">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="W206">
         <v>1.95</v>
@@ -19624,19 +19624,19 @@
         <v>-1</v>
       </c>
       <c r="Z206">
-        <v>2</v>
+        <v>1.1</v>
       </c>
       <c r="AA206">
         <v>-1</v>
       </c>
       <c r="AB206">
-        <v>1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC206">
-        <v>0.375</v>
+        <v>-1</v>
       </c>
       <c r="AD206">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="207" spans="1:30">
@@ -19644,7 +19644,7 @@
         <v>205</v>
       </c>
       <c r="B207">
-        <v>7433344</v>
+        <v>7433347</v>
       </c>
       <c r="C207" t="s">
         <v>29</v>
@@ -19653,82 +19653,82 @@
         <v>45235.29166666666</v>
       </c>
       <c r="E207" t="s">
-        <v>34</v>
+        <v>59</v>
       </c>
       <c r="F207" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="G207">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H207">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I207">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J207">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K207" t="s">
         <v>102</v>
       </c>
       <c r="L207">
-        <v>2.25</v>
+        <v>2.4</v>
       </c>
       <c r="M207">
         <v>3.5</v>
       </c>
       <c r="N207">
-        <v>2.625</v>
+        <v>2.4</v>
       </c>
       <c r="O207">
-        <v>2.25</v>
+        <v>2.4</v>
       </c>
       <c r="P207">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="Q207">
-        <v>2.625</v>
+        <v>2.4</v>
       </c>
       <c r="R207">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="S207">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="T207">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="U207">
         <v>3</v>
       </c>
       <c r="V207">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="W207">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="X207">
         <v>-1</v>
       </c>
       <c r="Y207">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="Z207">
         <v>-1</v>
       </c>
       <c r="AA207">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="AB207">
-        <v>0.3875</v>
+        <v>0</v>
       </c>
       <c r="AC207">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AD207">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="208" spans="1:30">
@@ -19736,7 +19736,7 @@
         <v>206</v>
       </c>
       <c r="B208">
-        <v>7433346</v>
+        <v>7433345</v>
       </c>
       <c r="C208" t="s">
         <v>29</v>
@@ -19745,58 +19745,58 @@
         <v>45235.29166666666</v>
       </c>
       <c r="E208" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="F208" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G208">
         <v>0</v>
       </c>
       <c r="H208">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I208">
         <v>0</v>
       </c>
       <c r="J208">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K208" t="s">
         <v>100</v>
       </c>
       <c r="L208">
-        <v>2.9</v>
+        <v>2</v>
       </c>
       <c r="M208">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="N208">
-        <v>2.1</v>
+        <v>3</v>
       </c>
       <c r="O208">
-        <v>2.9</v>
+        <v>2</v>
       </c>
       <c r="P208">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="Q208">
-        <v>2.1</v>
+        <v>3</v>
       </c>
       <c r="R208">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="S208">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="T208">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="U208">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="V208">
-        <v>1.85</v>
+        <v>1.75</v>
       </c>
       <c r="W208">
         <v>1.95</v>
@@ -19808,19 +19808,19 @@
         <v>-1</v>
       </c>
       <c r="Z208">
-        <v>1.1</v>
+        <v>2</v>
       </c>
       <c r="AA208">
         <v>-1</v>
       </c>
       <c r="AB208">
-        <v>0.8999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AC208">
-        <v>-1</v>
+        <v>0.375</v>
       </c>
       <c r="AD208">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="209" spans="1:30">
@@ -20024,7 +20024,7 @@
         <v>38</v>
       </c>
       <c r="F211" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G211">
         <v>1</v>
@@ -20300,7 +20300,7 @@
         <v>81</v>
       </c>
       <c r="F214" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="G214">
         <v>1</v>
@@ -20573,7 +20573,7 @@
         <v>45242.33333333334</v>
       </c>
       <c r="E217" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F217" t="s">
         <v>96</v>
@@ -20849,7 +20849,7 @@
         <v>45242.375</v>
       </c>
       <c r="E220" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F220" t="s">
         <v>57</v>
@@ -21125,7 +21125,7 @@
         <v>45242.375</v>
       </c>
       <c r="E223" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="F223" t="s">
         <v>63</v>
@@ -21401,7 +21401,7 @@
         <v>45248.29166666666</v>
       </c>
       <c r="E226" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F226" t="s">
         <v>66</v>
@@ -21677,7 +21677,7 @@
         <v>45248.375</v>
       </c>
       <c r="E229" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F229" t="s">
         <v>33</v>
@@ -21861,7 +21861,7 @@
         <v>45248.375</v>
       </c>
       <c r="E231" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F231" t="s">
         <v>30</v>
@@ -22956,7 +22956,7 @@
         <v>241</v>
       </c>
       <c r="B243">
-        <v>7519599</v>
+        <v>7519598</v>
       </c>
       <c r="C243" t="s">
         <v>29</v>
@@ -22965,82 +22965,82 @@
         <v>45256.375</v>
       </c>
       <c r="E243" t="s">
-        <v>74</v>
+        <v>44</v>
       </c>
       <c r="F243" t="s">
-        <v>80</v>
+        <v>46</v>
       </c>
       <c r="G243">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H243">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I243">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J243">
         <v>0</v>
       </c>
       <c r="K243" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="L243">
-        <v>2.8</v>
+        <v>2.6</v>
       </c>
       <c r="M243">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="N243">
-        <v>2.3</v>
+        <v>2.375</v>
       </c>
       <c r="O243">
-        <v>3.5</v>
+        <v>2.6</v>
       </c>
       <c r="P243">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="Q243">
-        <v>1.909</v>
+        <v>2.375</v>
       </c>
       <c r="R243">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="S243">
+        <v>2</v>
+      </c>
+      <c r="T243">
         <v>1.8</v>
-      </c>
-      <c r="T243">
-        <v>2</v>
       </c>
       <c r="U243">
         <v>3.25</v>
       </c>
       <c r="V243">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="W243">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="X243">
-        <v>-1</v>
+        <v>1.6</v>
       </c>
       <c r="Y243">
         <v>-1</v>
       </c>
       <c r="Z243">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="AA243">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB243">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC243">
         <v>-0.5</v>
       </c>
       <c r="AD243">
-        <v>0.4625</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="244" spans="1:30">
@@ -23140,7 +23140,7 @@
         <v>243</v>
       </c>
       <c r="B245">
-        <v>7519598</v>
+        <v>7519599</v>
       </c>
       <c r="C245" t="s">
         <v>29</v>
@@ -23149,82 +23149,82 @@
         <v>45256.375</v>
       </c>
       <c r="E245" t="s">
-        <v>44</v>
+        <v>74</v>
       </c>
       <c r="F245" t="s">
-        <v>46</v>
+        <v>80</v>
       </c>
       <c r="G245">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H245">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I245">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J245">
         <v>0</v>
       </c>
       <c r="K245" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="L245">
-        <v>2.6</v>
+        <v>2.8</v>
       </c>
       <c r="M245">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="N245">
-        <v>2.375</v>
+        <v>2.3</v>
       </c>
       <c r="O245">
-        <v>2.6</v>
+        <v>3.5</v>
       </c>
       <c r="P245">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="Q245">
-        <v>2.375</v>
+        <v>1.909</v>
       </c>
       <c r="R245">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="S245">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="T245">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="U245">
         <v>3.25</v>
       </c>
       <c r="V245">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="W245">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="X245">
-        <v>1.6</v>
+        <v>-1</v>
       </c>
       <c r="Y245">
         <v>-1</v>
       </c>
       <c r="Z245">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="AA245">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB245">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC245">
         <v>-0.5</v>
       </c>
       <c r="AD245">
-        <v>0.45</v>
+        <v>0.4625</v>
       </c>
     </row>
     <row r="246" spans="1:30">
@@ -23606,7 +23606,7 @@
         <v>67</v>
       </c>
       <c r="F250" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G250">
         <v>2</v>
@@ -23787,7 +23787,7 @@
         <v>45354.29166666666</v>
       </c>
       <c r="E252" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F252" t="s">
         <v>68</v>
@@ -23971,7 +23971,7 @@
         <v>45354.41666666666</v>
       </c>
       <c r="E254" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="F254" t="s">
         <v>65</v>
@@ -24247,7 +24247,7 @@
         <v>45354.41666666666</v>
       </c>
       <c r="E257" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F257" t="s">
         <v>66</v>
@@ -24615,7 +24615,7 @@
         <v>45361.29166666666</v>
       </c>
       <c r="E261" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F261" t="s">
         <v>88</v>
@@ -25538,7 +25538,7 @@
         <v>37</v>
       </c>
       <c r="F271" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="G271">
         <v>0</v>
@@ -25811,7 +25811,7 @@
         <v>45361.41666666666</v>
       </c>
       <c r="E274" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F274" t="s">
         <v>81</v>
@@ -26363,7 +26363,7 @@
         <v>45368.41666666666</v>
       </c>
       <c r="E280" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="F280" t="s">
         <v>93</v>
@@ -26918,7 +26918,7 @@
         <v>51</v>
       </c>
       <c r="F286" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G286">
         <v>0</v>
@@ -27007,10 +27007,10 @@
         <v>45368.41666666666</v>
       </c>
       <c r="E287" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F287" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G287">
         <v>0</v>
@@ -27375,7 +27375,7 @@
         <v>45375.29166666666</v>
       </c>
       <c r="E291" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F291" t="s">
         <v>77</v>
@@ -27654,7 +27654,7 @@
         <v>67</v>
       </c>
       <c r="F294" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="G294">
         <v>3</v>
@@ -27746,7 +27746,7 @@
         <v>55</v>
       </c>
       <c r="F295" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="G295">
         <v>4</v>
@@ -28019,7 +28019,7 @@
         <v>45375.41666666666</v>
       </c>
       <c r="E298" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F298" t="s">
         <v>60</v>
@@ -29031,7 +29031,7 @@
         <v>45382.25</v>
       </c>
       <c r="E309" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F309" t="s">
         <v>46</v>
@@ -30135,7 +30135,7 @@
         <v>45382.45833333334</v>
       </c>
       <c r="E321" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F321" t="s">
         <v>51</v>
@@ -30411,7 +30411,7 @@
         <v>45382.45833333334</v>
       </c>
       <c r="E324" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F324" t="s">
         <v>68</v>
@@ -30506,7 +30506,7 @@
         <v>45</v>
       </c>
       <c r="F325" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G325">
         <v>0</v>
@@ -30586,7 +30586,7 @@
         <v>324</v>
       </c>
       <c r="B326">
-        <v>8061283</v>
+        <v>8061110</v>
       </c>
       <c r="C326" t="s">
         <v>29</v>
@@ -30595,61 +30595,61 @@
         <v>45389.25</v>
       </c>
       <c r="E326" t="s">
-        <v>72</v>
+        <v>32</v>
       </c>
       <c r="F326" t="s">
-        <v>76</v>
+        <v>31</v>
       </c>
       <c r="G326">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H326">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I326">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J326">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K326" t="s">
         <v>100</v>
       </c>
       <c r="L326">
-        <v>8.5</v>
+        <v>3.3</v>
       </c>
       <c r="M326">
-        <v>5.5</v>
+        <v>3.6</v>
       </c>
       <c r="N326">
-        <v>1.222</v>
+        <v>1.869</v>
       </c>
       <c r="O326">
-        <v>19</v>
+        <v>3.3</v>
       </c>
       <c r="P326">
-        <v>7</v>
+        <v>3.6</v>
       </c>
       <c r="Q326">
-        <v>1.125</v>
+        <v>1.85</v>
       </c>
       <c r="R326">
-        <v>2.25</v>
+        <v>0.5</v>
       </c>
       <c r="S326">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="T326">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="U326">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="V326">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="W326">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="X326">
         <v>-1</v>
@@ -30658,19 +30658,19 @@
         <v>-1</v>
       </c>
       <c r="Z326">
-        <v>0.125</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA326">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB326">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC326">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AD326">
-        <v>0</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="327" spans="1:30">
@@ -30678,7 +30678,7 @@
         <v>325</v>
       </c>
       <c r="B327">
-        <v>8064706</v>
+        <v>8061113</v>
       </c>
       <c r="C327" t="s">
         <v>29</v>
@@ -30687,79 +30687,79 @@
         <v>45389.25</v>
       </c>
       <c r="E327" t="s">
-        <v>66</v>
+        <v>33</v>
       </c>
       <c r="F327" t="s">
-        <v>91</v>
+        <v>57</v>
       </c>
       <c r="G327">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H327">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I327">
         <v>1</v>
       </c>
       <c r="J327">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K327" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="L327">
-        <v>2.55</v>
+        <v>1.727</v>
       </c>
       <c r="M327">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="N327">
-        <v>2.3</v>
+        <v>3.8</v>
       </c>
       <c r="O327">
-        <v>2.55</v>
+        <v>1.727</v>
       </c>
       <c r="P327">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="Q327">
-        <v>2.3</v>
+        <v>3.8</v>
       </c>
       <c r="R327">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="S327">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="T327">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="U327">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="V327">
-        <v>1.75</v>
+        <v>1.875</v>
       </c>
       <c r="W327">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="X327">
-        <v>1.55</v>
+        <v>-1</v>
       </c>
       <c r="Y327">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Z327">
         <v>-1</v>
       </c>
       <c r="AA327">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB327">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC327">
-        <v>0.75</v>
+        <v>0.875</v>
       </c>
       <c r="AD327">
         <v>-1</v>
@@ -30770,7 +30770,7 @@
         <v>326</v>
       </c>
       <c r="B328">
-        <v>8061113</v>
+        <v>8061283</v>
       </c>
       <c r="C328" t="s">
         <v>29</v>
@@ -30779,13 +30779,13 @@
         <v>45389.25</v>
       </c>
       <c r="E328" t="s">
-        <v>33</v>
+        <v>72</v>
       </c>
       <c r="F328" t="s">
-        <v>57</v>
+        <v>76</v>
       </c>
       <c r="G328">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H328">
         <v>2</v>
@@ -30794,67 +30794,67 @@
         <v>1</v>
       </c>
       <c r="J328">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K328" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="L328">
-        <v>1.727</v>
+        <v>8.5</v>
       </c>
       <c r="M328">
-        <v>3.6</v>
+        <v>5.5</v>
       </c>
       <c r="N328">
-        <v>3.8</v>
+        <v>1.222</v>
       </c>
       <c r="O328">
-        <v>1.727</v>
+        <v>19</v>
       </c>
       <c r="P328">
-        <v>3.6</v>
+        <v>7</v>
       </c>
       <c r="Q328">
-        <v>3.8</v>
+        <v>1.125</v>
       </c>
       <c r="R328">
-        <v>-0.5</v>
+        <v>2.25</v>
       </c>
       <c r="S328">
-        <v>1.75</v>
+        <v>1.975</v>
       </c>
       <c r="T328">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="U328">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="V328">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="W328">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="X328">
         <v>-1</v>
       </c>
       <c r="Y328">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Z328">
-        <v>-1</v>
+        <v>0.125</v>
       </c>
       <c r="AA328">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB328">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC328">
-        <v>0.875</v>
+        <v>0</v>
       </c>
       <c r="AD328">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="329" spans="1:30">
@@ -30862,7 +30862,7 @@
         <v>327</v>
       </c>
       <c r="B329">
-        <v>8061110</v>
+        <v>8064706</v>
       </c>
       <c r="C329" t="s">
         <v>29</v>
@@ -30871,82 +30871,82 @@
         <v>45389.25</v>
       </c>
       <c r="E329" t="s">
-        <v>32</v>
+        <v>66</v>
       </c>
       <c r="F329" t="s">
-        <v>31</v>
+        <v>91</v>
       </c>
       <c r="G329">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H329">
         <v>1</v>
       </c>
       <c r="I329">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J329">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K329" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="L329">
-        <v>3.3</v>
+        <v>2.55</v>
       </c>
       <c r="M329">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="N329">
-        <v>1.869</v>
+        <v>2.3</v>
       </c>
       <c r="O329">
-        <v>3.3</v>
+        <v>2.55</v>
       </c>
       <c r="P329">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="Q329">
-        <v>1.85</v>
+        <v>2.3</v>
       </c>
       <c r="R329">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="S329">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="T329">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="U329">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="V329">
-        <v>1.875</v>
+        <v>1.75</v>
       </c>
       <c r="W329">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="X329">
-        <v>-1</v>
+        <v>1.55</v>
       </c>
       <c r="Y329">
         <v>-1</v>
       </c>
       <c r="Z329">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA329">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB329">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC329">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AD329">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="330" spans="1:30">
@@ -30954,7 +30954,7 @@
         <v>328</v>
       </c>
       <c r="B330">
-        <v>8061114</v>
+        <v>8061279</v>
       </c>
       <c r="C330" t="s">
         <v>29</v>
@@ -30963,13 +30963,13 @@
         <v>45389.25</v>
       </c>
       <c r="E330" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="F330" t="s">
-        <v>60</v>
+        <v>47</v>
       </c>
       <c r="G330">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H330">
         <v>2</v>
@@ -30978,67 +30978,67 @@
         <v>0</v>
       </c>
       <c r="J330">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K330" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="L330">
-        <v>2.25</v>
+        <v>1.533</v>
       </c>
       <c r="M330">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="N330">
-        <v>2.6</v>
+        <v>4.75</v>
       </c>
       <c r="O330">
-        <v>2.05</v>
+        <v>1.533</v>
       </c>
       <c r="P330">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="Q330">
-        <v>2.9</v>
+        <v>4.75</v>
       </c>
       <c r="R330">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="S330">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="T330">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="U330">
         <v>2.75</v>
       </c>
       <c r="V330">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="W330">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="X330">
-        <v>-1</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="Y330">
         <v>-1</v>
       </c>
       <c r="Z330">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="AA330">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AB330">
-        <v>0.95</v>
+        <v>0</v>
       </c>
       <c r="AC330">
-        <v>0.4375</v>
+        <v>0.825</v>
       </c>
       <c r="AD330">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="331" spans="1:30">
@@ -31138,7 +31138,7 @@
         <v>330</v>
       </c>
       <c r="B332">
-        <v>8061279</v>
+        <v>8061114</v>
       </c>
       <c r="C332" t="s">
         <v>29</v>
@@ -31147,13 +31147,13 @@
         <v>45389.25</v>
       </c>
       <c r="E332" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="F332" t="s">
-        <v>47</v>
+        <v>60</v>
       </c>
       <c r="G332">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H332">
         <v>2</v>
@@ -31162,67 +31162,67 @@
         <v>0</v>
       </c>
       <c r="J332">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K332" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="L332">
-        <v>1.533</v>
+        <v>2.25</v>
       </c>
       <c r="M332">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="N332">
-        <v>4.75</v>
+        <v>2.6</v>
       </c>
       <c r="O332">
-        <v>1.533</v>
+        <v>2.05</v>
       </c>
       <c r="P332">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="Q332">
-        <v>4.75</v>
+        <v>2.9</v>
       </c>
       <c r="R332">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="S332">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="T332">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="U332">
         <v>2.75</v>
       </c>
       <c r="V332">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="W332">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="X332">
-        <v>0.5329999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Y332">
         <v>-1</v>
       </c>
       <c r="Z332">
-        <v>-1</v>
+        <v>1.9</v>
       </c>
       <c r="AA332">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AB332">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="AC332">
-        <v>0.825</v>
+        <v>0.4375</v>
       </c>
       <c r="AD332">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="333" spans="1:30">
@@ -31322,7 +31322,7 @@
         <v>332</v>
       </c>
       <c r="B334">
-        <v>8061118</v>
+        <v>8061139</v>
       </c>
       <c r="C334" t="s">
         <v>29</v>
@@ -31331,82 +31331,82 @@
         <v>45389.45833333334</v>
       </c>
       <c r="E334" t="s">
-        <v>62</v>
+        <v>38</v>
       </c>
       <c r="F334" t="s">
-        <v>63</v>
+        <v>43</v>
       </c>
       <c r="G334">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H334">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I334">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J334">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K334" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="L334">
-        <v>3.3</v>
+        <v>1.285</v>
       </c>
       <c r="M334">
-        <v>3.75</v>
+        <v>5.2</v>
       </c>
       <c r="N334">
-        <v>1.833</v>
+        <v>7</v>
       </c>
       <c r="O334">
-        <v>3.3</v>
+        <v>1.285</v>
       </c>
       <c r="P334">
-        <v>3.75</v>
+        <v>5.25</v>
       </c>
       <c r="Q334">
-        <v>1.833</v>
+        <v>7</v>
       </c>
       <c r="R334">
-        <v>0.5</v>
+        <v>-1.75</v>
       </c>
       <c r="S334">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="T334">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="U334">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="V334">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W334">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="X334">
-        <v>-1</v>
+        <v>0.2849999999999999</v>
       </c>
       <c r="Y334">
         <v>-1</v>
       </c>
       <c r="Z334">
-        <v>0.833</v>
+        <v>-1</v>
       </c>
       <c r="AA334">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB334">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC334">
-        <v>0.8999999999999999</v>
+        <v>-0.5</v>
       </c>
       <c r="AD334">
-        <v>-1</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="335" spans="1:30">
@@ -31423,7 +31423,7 @@
         <v>45389.45833333334</v>
       </c>
       <c r="E335" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="F335" t="s">
         <v>80</v>
@@ -31518,7 +31518,7 @@
         <v>45</v>
       </c>
       <c r="F336" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="G336">
         <v>0</v>
@@ -31607,7 +31607,7 @@
         <v>45389.45833333334</v>
       </c>
       <c r="E337" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F337" t="s">
         <v>30</v>
@@ -31782,7 +31782,7 @@
         <v>337</v>
       </c>
       <c r="B339">
-        <v>8061139</v>
+        <v>8061118</v>
       </c>
       <c r="C339" t="s">
         <v>29</v>
@@ -31791,82 +31791,82 @@
         <v>45389.45833333334</v>
       </c>
       <c r="E339" t="s">
-        <v>38</v>
+        <v>62</v>
       </c>
       <c r="F339" t="s">
-        <v>43</v>
+        <v>63</v>
       </c>
       <c r="G339">
+        <v>2</v>
+      </c>
+      <c r="H339">
+        <v>5</v>
+      </c>
+      <c r="I339">
+        <v>1</v>
+      </c>
+      <c r="J339">
         <v>3</v>
       </c>
-      <c r="H339">
-        <v>0</v>
-      </c>
-      <c r="I339">
-        <v>2</v>
-      </c>
-      <c r="J339">
-        <v>0</v>
-      </c>
       <c r="K339" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="L339">
-        <v>1.285</v>
+        <v>3.3</v>
       </c>
       <c r="M339">
-        <v>5.2</v>
+        <v>3.75</v>
       </c>
       <c r="N339">
-        <v>7</v>
+        <v>1.833</v>
       </c>
       <c r="O339">
-        <v>1.285</v>
+        <v>3.3</v>
       </c>
       <c r="P339">
-        <v>5.25</v>
+        <v>3.75</v>
       </c>
       <c r="Q339">
-        <v>7</v>
+        <v>1.833</v>
       </c>
       <c r="R339">
-        <v>-1.75</v>
+        <v>0.5</v>
       </c>
       <c r="S339">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="T339">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="U339">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="V339">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W339">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="X339">
-        <v>0.2849999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Y339">
         <v>-1</v>
       </c>
       <c r="Z339">
-        <v>-1</v>
+        <v>0.833</v>
       </c>
       <c r="AA339">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB339">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC339">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AD339">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="340" spans="1:30">
@@ -32898,7 +32898,7 @@
         <v>46</v>
       </c>
       <c r="F351" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G351">
         <v>4</v>
@@ -33079,10 +33079,10 @@
         <v>45396.45833333334</v>
       </c>
       <c r="E353" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F353" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G353">
         <v>1</v>
@@ -33815,7 +33815,7 @@
         <v>45403.25</v>
       </c>
       <c r="E361" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F361" t="s">
         <v>91</v>
@@ -34091,7 +34091,7 @@
         <v>45403.5</v>
       </c>
       <c r="E364" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F364" t="s">
         <v>59</v>
@@ -34827,7 +34827,7 @@
         <v>45403.5</v>
       </c>
       <c r="E372" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="F372" t="s">
         <v>86</v>
@@ -35198,7 +35198,7 @@
         <v>84</v>
       </c>
       <c r="F376" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="G376">
         <v>0</v>
@@ -35382,7 +35382,7 @@
         <v>34</v>
       </c>
       <c r="F378" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G378">
         <v>2</v>
@@ -35646,7 +35646,7 @@
         <v>379</v>
       </c>
       <c r="B381">
-        <v>8152189</v>
+        <v>8152249</v>
       </c>
       <c r="C381" t="s">
         <v>29</v>
@@ -35655,64 +35655,64 @@
         <v>45410.5</v>
       </c>
       <c r="E381" t="s">
-        <v>81</v>
+        <v>48</v>
       </c>
       <c r="F381" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="G381">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H381">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I381">
         <v>1</v>
       </c>
       <c r="J381">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K381" t="s">
         <v>101</v>
       </c>
       <c r="L381">
-        <v>2.25</v>
+        <v>1.666</v>
       </c>
       <c r="M381">
-        <v>3.25</v>
+        <v>4</v>
       </c>
       <c r="N381">
-        <v>2.75</v>
+        <v>3.75</v>
       </c>
       <c r="O381">
-        <v>2.25</v>
+        <v>1.666</v>
       </c>
       <c r="P381">
-        <v>3.25</v>
+        <v>4</v>
       </c>
       <c r="Q381">
-        <v>2.75</v>
+        <v>3.8</v>
       </c>
       <c r="R381">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="S381">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="T381">
-        <v>1.775</v>
+        <v>1.925</v>
       </c>
       <c r="U381">
         <v>2.75</v>
       </c>
       <c r="V381">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="W381">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="X381">
-        <v>1.25</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="Y381">
         <v>-1</v>
@@ -35721,16 +35721,16 @@
         <v>-1</v>
       </c>
       <c r="AA381">
-        <v>1.025</v>
+        <v>0.875</v>
       </c>
       <c r="AB381">
         <v>-1</v>
       </c>
       <c r="AC381">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AD381">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="382" spans="1:30">
@@ -35738,7 +35738,7 @@
         <v>380</v>
       </c>
       <c r="B382">
-        <v>8152249</v>
+        <v>8152248</v>
       </c>
       <c r="C382" t="s">
         <v>29</v>
@@ -35747,46 +35747,46 @@
         <v>45410.5</v>
       </c>
       <c r="E382" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="F382" t="s">
-        <v>72</v>
+        <v>40</v>
       </c>
       <c r="G382">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H382">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I382">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J382">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K382" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="L382">
-        <v>1.666</v>
+        <v>2.4</v>
       </c>
       <c r="M382">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="N382">
-        <v>3.75</v>
+        <v>2.4</v>
       </c>
       <c r="O382">
-        <v>1.666</v>
+        <v>2.8</v>
       </c>
       <c r="P382">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="Q382">
-        <v>3.8</v>
+        <v>2.1</v>
       </c>
       <c r="R382">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="S382">
         <v>1.875</v>
@@ -35804,25 +35804,25 @@
         <v>2</v>
       </c>
       <c r="X382">
-        <v>0.6659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Y382">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Z382">
         <v>-1</v>
       </c>
       <c r="AA382">
-        <v>0.875</v>
+        <v>0.4375</v>
       </c>
       <c r="AB382">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC382">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AD382">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="383" spans="1:30">
@@ -35830,7 +35830,7 @@
         <v>381</v>
       </c>
       <c r="B383">
-        <v>8152248</v>
+        <v>8152247</v>
       </c>
       <c r="C383" t="s">
         <v>29</v>
@@ -35839,16 +35839,16 @@
         <v>45410.5</v>
       </c>
       <c r="E383" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="F383" t="s">
-        <v>40</v>
+        <v>89</v>
       </c>
       <c r="G383">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H383">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I383">
         <v>0</v>
@@ -35881,10 +35881,10 @@
         <v>0.25</v>
       </c>
       <c r="S383">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="T383">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="U383">
         <v>2.75</v>
@@ -35905,7 +35905,7 @@
         <v>-1</v>
       </c>
       <c r="AA383">
-        <v>0.4375</v>
+        <v>0.45</v>
       </c>
       <c r="AB383">
         <v>-0.5</v>
@@ -35922,7 +35922,7 @@
         <v>382</v>
       </c>
       <c r="B384">
-        <v>8152247</v>
+        <v>8152189</v>
       </c>
       <c r="C384" t="s">
         <v>29</v>
@@ -35931,82 +35931,82 @@
         <v>45410.5</v>
       </c>
       <c r="E384" t="s">
-        <v>43</v>
+        <v>81</v>
       </c>
       <c r="F384" t="s">
-        <v>89</v>
+        <v>67</v>
       </c>
       <c r="G384">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H384">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I384">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J384">
         <v>0</v>
       </c>
       <c r="K384" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="L384">
-        <v>2.4</v>
+        <v>2.25</v>
       </c>
       <c r="M384">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="N384">
-        <v>2.4</v>
+        <v>2.75</v>
       </c>
       <c r="O384">
-        <v>2.8</v>
+        <v>2.25</v>
       </c>
       <c r="P384">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="Q384">
-        <v>2.1</v>
+        <v>2.75</v>
       </c>
       <c r="R384">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="S384">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="T384">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="U384">
         <v>2.75</v>
       </c>
       <c r="V384">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="W384">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="X384">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="Y384">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Z384">
         <v>-1</v>
       </c>
       <c r="AA384">
-        <v>0.45</v>
+        <v>1.025</v>
       </c>
       <c r="AB384">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC384">
         <v>-1</v>
       </c>
       <c r="AD384">
-        <v>1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="385" spans="1:30">
@@ -36302,7 +36302,7 @@
         <v>71</v>
       </c>
       <c r="F388" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="G388">
         <v>3</v>
@@ -36391,7 +36391,7 @@
         <v>45416.25</v>
       </c>
       <c r="E389" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F389" t="s">
         <v>43</v>
@@ -36943,7 +36943,7 @@
         <v>45417.5</v>
       </c>
       <c r="E395" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F395" t="s">
         <v>42</v>
@@ -37035,7 +37035,7 @@
         <v>45417.5</v>
       </c>
       <c r="E396" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="F396" t="s">
         <v>78</v>
@@ -37498,7 +37498,7 @@
         <v>34</v>
       </c>
       <c r="F401" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G401">
         <v>8</v>
@@ -37866,7 +37866,7 @@
         <v>31</v>
       </c>
       <c r="F405" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="G405">
         <v>1</v>
@@ -38694,7 +38694,7 @@
         <v>44</v>
       </c>
       <c r="F414" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G414">
         <v>4</v>
@@ -38878,7 +38878,7 @@
         <v>71</v>
       </c>
       <c r="F416" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G416">
         <v>0</v>
@@ -39243,7 +39243,7 @@
         <v>45431.25</v>
       </c>
       <c r="E420" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F420" t="s">
         <v>38</v>
@@ -39427,7 +39427,7 @@
         <v>45431.5</v>
       </c>
       <c r="E422" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F422" t="s">
         <v>37</v>
@@ -39519,7 +39519,7 @@
         <v>45431.5</v>
       </c>
       <c r="E423" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="F423" t="s">
         <v>35</v>
@@ -40148,7 +40148,7 @@
         <v>428</v>
       </c>
       <c r="B430">
-        <v>8260048</v>
+        <v>8260054</v>
       </c>
       <c r="C430" t="s">
         <v>29</v>
@@ -40157,76 +40157,76 @@
         <v>45438.5</v>
       </c>
       <c r="E430" t="s">
-        <v>34</v>
+        <v>59</v>
       </c>
       <c r="F430" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="G430">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H430">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K430" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="L430">
-        <v>1.727</v>
+        <v>5</v>
       </c>
       <c r="M430">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="N430">
+        <v>1.444</v>
+      </c>
+      <c r="O430">
+        <v>5</v>
+      </c>
+      <c r="P430">
+        <v>4.5</v>
+      </c>
+      <c r="Q430">
+        <v>1.45</v>
+      </c>
+      <c r="R430">
+        <v>1.25</v>
+      </c>
+      <c r="S430">
+        <v>1.9</v>
+      </c>
+      <c r="T430">
+        <v>1.9</v>
+      </c>
+      <c r="U430">
         <v>3.5</v>
       </c>
-      <c r="O430">
-        <v>1.727</v>
-      </c>
-      <c r="P430">
-        <v>4</v>
-      </c>
-      <c r="Q430">
-        <v>3.5</v>
-      </c>
-      <c r="R430">
-        <v>-0.5</v>
-      </c>
-      <c r="S430">
-        <v>1.775</v>
-      </c>
-      <c r="T430">
-        <v>2.025</v>
-      </c>
-      <c r="U430">
-        <v>3</v>
-      </c>
       <c r="V430">
-        <v>1.775</v>
+        <v>1.875</v>
       </c>
       <c r="W430">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="X430">
-        <v>0.7270000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Y430">
         <v>-1</v>
       </c>
       <c r="Z430">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="AA430">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB430">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC430">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AD430">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="431" spans="1:30">
@@ -40234,7 +40234,7 @@
         <v>429</v>
       </c>
       <c r="B431">
-        <v>8260054</v>
+        <v>8260734</v>
       </c>
       <c r="C431" t="s">
         <v>29</v>
@@ -40243,76 +40243,76 @@
         <v>45438.5</v>
       </c>
       <c r="E431" t="s">
-        <v>59</v>
+        <v>43</v>
       </c>
       <c r="F431" t="s">
-        <v>51</v>
+        <v>77</v>
       </c>
       <c r="G431">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H431">
         <v>2</v>
       </c>
       <c r="K431" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="L431">
-        <v>5</v>
+        <v>1.909</v>
       </c>
       <c r="M431">
-        <v>4.5</v>
+        <v>3.4</v>
       </c>
       <c r="N431">
-        <v>1.444</v>
+        <v>3.4</v>
       </c>
       <c r="O431">
-        <v>5</v>
+        <v>1.909</v>
       </c>
       <c r="P431">
-        <v>4.5</v>
+        <v>3.4</v>
       </c>
       <c r="Q431">
-        <v>1.45</v>
+        <v>3.4</v>
       </c>
       <c r="R431">
-        <v>1.25</v>
+        <v>-0.5</v>
       </c>
       <c r="S431">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="T431">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="U431">
-        <v>3.5</v>
+        <v>2.75</v>
       </c>
       <c r="V431">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="W431">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="X431">
         <v>-1</v>
       </c>
       <c r="Y431">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Z431">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="AA431">
         <v>-1</v>
       </c>
       <c r="AB431">
-        <v>0.8999999999999999</v>
+        <v>0.825</v>
       </c>
       <c r="AC431">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AD431">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="432" spans="1:30">
@@ -40320,7 +40320,7 @@
         <v>430</v>
       </c>
       <c r="B432">
-        <v>8260734</v>
+        <v>8260048</v>
       </c>
       <c r="C432" t="s">
         <v>29</v>
@@ -40329,73 +40329,73 @@
         <v>45438.5</v>
       </c>
       <c r="E432" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="F432" t="s">
-        <v>77</v>
+        <v>46</v>
       </c>
       <c r="G432">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H432">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K432" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="L432">
-        <v>1.909</v>
+        <v>1.727</v>
       </c>
       <c r="M432">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="N432">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="O432">
-        <v>1.909</v>
+        <v>1.727</v>
       </c>
       <c r="P432">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="Q432">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="R432">
         <v>-0.5</v>
       </c>
       <c r="S432">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="T432">
-        <v>1.825</v>
+        <v>2.025</v>
       </c>
       <c r="U432">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="V432">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="W432">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="X432">
-        <v>-1</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="Y432">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Z432">
         <v>-1</v>
       </c>
       <c r="AA432">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB432">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC432">
-        <v>0.825</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AD432">
         <v>-1</v>
@@ -40492,7 +40492,7 @@
         <v>432</v>
       </c>
       <c r="B434">
-        <v>8260045</v>
+        <v>8260050</v>
       </c>
       <c r="C434" t="s">
         <v>29</v>
@@ -40501,58 +40501,58 @@
         <v>45438.5</v>
       </c>
       <c r="E434" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="F434" t="s">
-        <v>88</v>
+        <v>53</v>
       </c>
       <c r="G434">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="H434">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K434" t="s">
         <v>101</v>
       </c>
       <c r="L434">
-        <v>2.1</v>
+        <v>1.166</v>
       </c>
       <c r="M434">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="N434">
-        <v>2.6</v>
+        <v>9</v>
       </c>
       <c r="O434">
-        <v>2.1</v>
+        <v>1.166</v>
       </c>
       <c r="P434">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="Q434">
-        <v>2.625</v>
+        <v>9.5</v>
       </c>
       <c r="R434">
-        <v>-0.25</v>
+        <v>-2.25</v>
       </c>
       <c r="S434">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="T434">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="U434">
-        <v>3</v>
+        <v>3.75</v>
       </c>
       <c r="V434">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="W434">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="X434">
-        <v>1.1</v>
+        <v>0.1659999999999999</v>
       </c>
       <c r="Y434">
         <v>-1</v>
@@ -40561,16 +40561,16 @@
         <v>-1</v>
       </c>
       <c r="AA434">
-        <v>0.925</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB434">
         <v>-1</v>
       </c>
       <c r="AC434">
-        <v>0</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AD434">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="435" spans="1:30">
@@ -40578,7 +40578,7 @@
         <v>433</v>
       </c>
       <c r="B435">
-        <v>8260051</v>
+        <v>8260049</v>
       </c>
       <c r="C435" t="s">
         <v>29</v>
@@ -40587,13 +40587,13 @@
         <v>45438.5</v>
       </c>
       <c r="E435" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F435" t="s">
-        <v>50</v>
+        <v>67</v>
       </c>
       <c r="G435">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="H435">
         <v>1</v>
@@ -40602,25 +40602,25 @@
         <v>101</v>
       </c>
       <c r="L435">
-        <v>1.333</v>
+        <v>2.1</v>
       </c>
       <c r="M435">
-        <v>5</v>
+        <v>3.75</v>
       </c>
       <c r="N435">
-        <v>6</v>
+        <v>2.625</v>
       </c>
       <c r="O435">
-        <v>1.333</v>
+        <v>1.8</v>
       </c>
       <c r="P435">
-        <v>5</v>
+        <v>3.9</v>
       </c>
       <c r="Q435">
-        <v>6</v>
+        <v>3.2</v>
       </c>
       <c r="R435">
-        <v>-1.5</v>
+        <v>-0.5</v>
       </c>
       <c r="S435">
         <v>1.85</v>
@@ -40629,7 +40629,7 @@
         <v>1.95</v>
       </c>
       <c r="U435">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="V435">
         <v>1.825</v>
@@ -40638,7 +40638,7 @@
         <v>1.975</v>
       </c>
       <c r="X435">
-        <v>0.333</v>
+        <v>0.8</v>
       </c>
       <c r="Y435">
         <v>-1</v>
@@ -40647,16 +40647,16 @@
         <v>-1</v>
       </c>
       <c r="AA435">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB435">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC435">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AD435">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="436" spans="1:30">
@@ -40664,7 +40664,7 @@
         <v>434</v>
       </c>
       <c r="B436">
-        <v>8260050</v>
+        <v>8260045</v>
       </c>
       <c r="C436" t="s">
         <v>29</v>
@@ -40673,58 +40673,58 @@
         <v>45438.5</v>
       </c>
       <c r="E436" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="F436" t="s">
-        <v>54</v>
+        <v>88</v>
       </c>
       <c r="G436">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="H436">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K436" t="s">
         <v>101</v>
       </c>
       <c r="L436">
-        <v>1.166</v>
+        <v>2.1</v>
       </c>
       <c r="M436">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="N436">
-        <v>9</v>
+        <v>2.6</v>
       </c>
       <c r="O436">
-        <v>1.166</v>
+        <v>2.1</v>
       </c>
       <c r="P436">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="Q436">
-        <v>9.5</v>
+        <v>2.625</v>
       </c>
       <c r="R436">
-        <v>-2.25</v>
+        <v>-0.25</v>
       </c>
       <c r="S436">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="T436">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="U436">
-        <v>3.75</v>
+        <v>3</v>
       </c>
       <c r="V436">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="W436">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="X436">
-        <v>0.1659999999999999</v>
+        <v>1.1</v>
       </c>
       <c r="Y436">
         <v>-1</v>
@@ -40733,16 +40733,16 @@
         <v>-1</v>
       </c>
       <c r="AA436">
-        <v>0.8999999999999999</v>
+        <v>0.925</v>
       </c>
       <c r="AB436">
         <v>-1</v>
       </c>
       <c r="AC436">
-        <v>0.9750000000000001</v>
+        <v>0</v>
       </c>
       <c r="AD436">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="437" spans="1:30">
@@ -40750,7 +40750,7 @@
         <v>435</v>
       </c>
       <c r="B437">
-        <v>8260049</v>
+        <v>8260051</v>
       </c>
       <c r="C437" t="s">
         <v>29</v>
@@ -40759,13 +40759,13 @@
         <v>45438.5</v>
       </c>
       <c r="E437" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F437" t="s">
-        <v>67</v>
+        <v>49</v>
       </c>
       <c r="G437">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="H437">
         <v>1</v>
@@ -40774,25 +40774,25 @@
         <v>101</v>
       </c>
       <c r="L437">
-        <v>2.1</v>
+        <v>1.333</v>
       </c>
       <c r="M437">
-        <v>3.75</v>
+        <v>5</v>
       </c>
       <c r="N437">
-        <v>2.625</v>
+        <v>6</v>
       </c>
       <c r="O437">
-        <v>1.8</v>
+        <v>1.333</v>
       </c>
       <c r="P437">
-        <v>3.9</v>
+        <v>5</v>
       </c>
       <c r="Q437">
-        <v>3.2</v>
+        <v>6</v>
       </c>
       <c r="R437">
-        <v>-0.5</v>
+        <v>-1.5</v>
       </c>
       <c r="S437">
         <v>1.85</v>
@@ -40801,7 +40801,7 @@
         <v>1.95</v>
       </c>
       <c r="U437">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="V437">
         <v>1.825</v>
@@ -40810,7 +40810,7 @@
         <v>1.975</v>
       </c>
       <c r="X437">
-        <v>0.8</v>
+        <v>0.333</v>
       </c>
       <c r="Y437">
         <v>-1</v>
@@ -40819,16 +40819,16 @@
         <v>-1</v>
       </c>
       <c r="AA437">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB437">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC437">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AD437">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="438" spans="1:30">
@@ -41278,7 +41278,7 @@
         <v>57</v>
       </c>
       <c r="F443" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G443">
         <v>1</v>

--- a/Hungary NB III/Hungary NB III.xlsx
+++ b/Hungary NB III/Hungary NB III.xlsx
@@ -160,34 +160,34 @@
     <t>Kecskemeti TE II</t>
   </si>
   <si>
-    <t>FC Nagykanizsa</t>
+    <t>Bicskei TC</t>
   </si>
   <si>
     <t>Vasas SC II</t>
   </si>
   <si>
+    <t>FC Nagykanizsa</t>
+  </si>
+  <si>
     <t>FC Tatabanya</t>
   </si>
   <si>
-    <t>Bicskei TC</t>
+    <t>III Keruleti TUE</t>
+  </si>
+  <si>
+    <t>Cegledi VSE</t>
   </si>
   <si>
     <t>FC Tiszaujvaros</t>
   </si>
   <si>
-    <t>Cegledi VSE</t>
-  </si>
-  <si>
-    <t>III Keruleti TUE</t>
-  </si>
-  <si>
     <t>Debreceni II</t>
   </si>
   <si>
-    <t>PEAC FC</t>
+    <t>Kelen SC</t>
   </si>
   <si>
-    <t>Kelen SC</t>
+    <t>PEAC FC</t>
   </si>
   <si>
     <t>Dunaujvaros PASE</t>
@@ -211,10 +211,10 @@
     <t>Szentlorinc SE</t>
   </si>
   <si>
-    <t>Putnok</t>
+    <t>SzegedCsanad Grosics II</t>
   </si>
   <si>
-    <t>SzegedCsanad Grosics II</t>
+    <t>Putnok</t>
   </si>
   <si>
     <t>Gyirmot FC Gyor II</t>
@@ -271,10 +271,10 @@
     <t>Ujpest II</t>
   </si>
   <si>
-    <t>Gardonyi VSC</t>
+    <t>FC Hatvan</t>
   </si>
   <si>
-    <t>FC Hatvan</t>
+    <t>Gardonyi VSC</t>
   </si>
   <si>
     <t>Tatabanya</t>
@@ -796,7 +796,7 @@
         <v>30</v>
       </c>
       <c r="F2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G2">
         <v>1</v>
@@ -888,7 +888,7 @@
         <v>31</v>
       </c>
       <c r="F3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G3">
         <v>2</v>
@@ -1072,7 +1072,7 @@
         <v>33</v>
       </c>
       <c r="F5" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -1348,7 +1348,7 @@
         <v>36</v>
       </c>
       <c r="F8" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="G8">
         <v>1</v>
@@ -1900,7 +1900,7 @@
         <v>42</v>
       </c>
       <c r="F14" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -2532,7 +2532,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>7005759</v>
+        <v>7005723</v>
       </c>
       <c r="C21" t="s">
         <v>29</v>
@@ -2544,10 +2544,10 @@
         <v>48</v>
       </c>
       <c r="F21" t="s">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="G21">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -2559,64 +2559,64 @@
         <v>0</v>
       </c>
       <c r="K21" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="L21">
-        <v>2.4</v>
+        <v>1.909</v>
       </c>
       <c r="M21">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="N21">
-        <v>2.25</v>
+        <v>3.1</v>
       </c>
       <c r="O21">
-        <v>2.4</v>
+        <v>1.909</v>
       </c>
       <c r="P21">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="Q21">
-        <v>2.25</v>
+        <v>3.1</v>
       </c>
       <c r="R21">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="S21">
-        <v>1.725</v>
+        <v>1.975</v>
       </c>
       <c r="T21">
-        <v>2.075</v>
+        <v>1.825</v>
       </c>
       <c r="U21">
-        <v>3.5</v>
+        <v>2.75</v>
       </c>
       <c r="V21">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="W21">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="X21">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="Y21">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Z21">
         <v>-1</v>
       </c>
       <c r="AA21">
-        <v>0.3625</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB21">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC21">
         <v>-1</v>
       </c>
       <c r="AD21">
-        <v>0.95</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="22" spans="1:30">
@@ -2716,7 +2716,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>7005728</v>
+        <v>7005759</v>
       </c>
       <c r="C23" t="s">
         <v>29</v>
@@ -2728,79 +2728,79 @@
         <v>50</v>
       </c>
       <c r="F23" t="s">
-        <v>59</v>
+        <v>76</v>
       </c>
       <c r="G23">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="L23">
-        <v>1.4</v>
+        <v>2.4</v>
       </c>
       <c r="M23">
-        <v>4.75</v>
+        <v>4</v>
       </c>
       <c r="N23">
-        <v>5.5</v>
+        <v>2.25</v>
       </c>
       <c r="O23">
-        <v>1.3</v>
+        <v>2.4</v>
       </c>
       <c r="P23">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Q23">
-        <v>7</v>
+        <v>2.25</v>
       </c>
       <c r="R23">
-        <v>-1.5</v>
+        <v>0.25</v>
       </c>
       <c r="S23">
+        <v>1.725</v>
+      </c>
+      <c r="T23">
+        <v>2.075</v>
+      </c>
+      <c r="U23">
+        <v>3.5</v>
+      </c>
+      <c r="V23">
         <v>1.85</v>
       </c>
-      <c r="T23">
+      <c r="W23">
         <v>1.95</v>
       </c>
-      <c r="U23">
+      <c r="X23">
+        <v>-1</v>
+      </c>
+      <c r="Y23">
         <v>3</v>
       </c>
-      <c r="V23">
-        <v>1.9</v>
-      </c>
-      <c r="W23">
-        <v>1.9</v>
-      </c>
-      <c r="X23">
-        <v>0.3</v>
-      </c>
-      <c r="Y23">
-        <v>-1</v>
-      </c>
       <c r="Z23">
         <v>-1</v>
       </c>
       <c r="AA23">
-        <v>-1</v>
+        <v>0.3625</v>
       </c>
       <c r="AB23">
+        <v>-0.5</v>
+      </c>
+      <c r="AC23">
+        <v>-1</v>
+      </c>
+      <c r="AD23">
         <v>0.95</v>
-      </c>
-      <c r="AC23">
-        <v>0</v>
-      </c>
-      <c r="AD23">
-        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:30">
@@ -2808,7 +2808,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>7005723</v>
+        <v>7005728</v>
       </c>
       <c r="C24" t="s">
         <v>29</v>
@@ -2820,16 +2820,16 @@
         <v>51</v>
       </c>
       <c r="F24" t="s">
-        <v>37</v>
+        <v>59</v>
       </c>
       <c r="G24">
         <v>2</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -2838,43 +2838,43 @@
         <v>101</v>
       </c>
       <c r="L24">
-        <v>1.909</v>
+        <v>1.4</v>
       </c>
       <c r="M24">
-        <v>3.75</v>
+        <v>4.75</v>
       </c>
       <c r="N24">
-        <v>3.1</v>
+        <v>5.5</v>
       </c>
       <c r="O24">
-        <v>1.909</v>
+        <v>1.3</v>
       </c>
       <c r="P24">
-        <v>3.75</v>
+        <v>5</v>
       </c>
       <c r="Q24">
-        <v>3.1</v>
+        <v>7</v>
       </c>
       <c r="R24">
-        <v>-0.5</v>
+        <v>-1.5</v>
       </c>
       <c r="S24">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="T24">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="U24">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="V24">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="W24">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="X24">
-        <v>0.909</v>
+        <v>0.3</v>
       </c>
       <c r="Y24">
         <v>-1</v>
@@ -2883,16 +2883,16 @@
         <v>-1</v>
       </c>
       <c r="AA24">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB24">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC24">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AD24">
-        <v>0.925</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:30">
@@ -2900,7 +2900,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>7005762</v>
+        <v>7005724</v>
       </c>
       <c r="C25" t="s">
         <v>29</v>
@@ -2912,79 +2912,79 @@
         <v>52</v>
       </c>
       <c r="F25" t="s">
-        <v>32</v>
+        <v>69</v>
       </c>
       <c r="G25">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="L25">
-        <v>2.25</v>
+        <v>1.2</v>
       </c>
       <c r="M25">
-        <v>4</v>
+        <v>6.5</v>
       </c>
       <c r="N25">
-        <v>2.4</v>
+        <v>9</v>
       </c>
       <c r="O25">
-        <v>2.25</v>
+        <v>1.142</v>
       </c>
       <c r="P25">
-        <v>4</v>
+        <v>7.5</v>
       </c>
       <c r="Q25">
-        <v>2.45</v>
+        <v>12</v>
       </c>
       <c r="R25">
-        <v>-0.25</v>
+        <v>-2.25</v>
       </c>
       <c r="S25">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="T25">
-        <v>1.75</v>
+        <v>1.95</v>
       </c>
       <c r="U25">
-        <v>2.75</v>
+        <v>3.5</v>
       </c>
       <c r="V25">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="W25">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="X25">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="Y25">
-        <v>-1</v>
+        <v>6.5</v>
       </c>
       <c r="Z25">
         <v>-1</v>
       </c>
       <c r="AA25">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AB25">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC25">
         <v>-1</v>
       </c>
       <c r="AD25">
-        <v>1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="26" spans="1:30">
@@ -3084,7 +3084,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>7005724</v>
+        <v>7005762</v>
       </c>
       <c r="C27" t="s">
         <v>29</v>
@@ -3096,79 +3096,79 @@
         <v>54</v>
       </c>
       <c r="F27" t="s">
-        <v>69</v>
+        <v>32</v>
       </c>
       <c r="G27">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H27">
         <v>0</v>
       </c>
       <c r="I27">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J27">
         <v>0</v>
       </c>
       <c r="K27" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="L27">
-        <v>1.2</v>
+        <v>2.25</v>
       </c>
       <c r="M27">
-        <v>6.5</v>
+        <v>4</v>
       </c>
       <c r="N27">
-        <v>9</v>
+        <v>2.4</v>
       </c>
       <c r="O27">
-        <v>1.142</v>
+        <v>2.25</v>
       </c>
       <c r="P27">
-        <v>7.5</v>
+        <v>4</v>
       </c>
       <c r="Q27">
-        <v>12</v>
+        <v>2.45</v>
       </c>
       <c r="R27">
-        <v>-2.25</v>
+        <v>-0.25</v>
       </c>
       <c r="S27">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="T27">
-        <v>1.95</v>
+        <v>1.75</v>
       </c>
       <c r="U27">
-        <v>3.5</v>
+        <v>2.75</v>
       </c>
       <c r="V27">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="W27">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="X27">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="Y27">
-        <v>6.5</v>
+        <v>-1</v>
       </c>
       <c r="Z27">
         <v>-1</v>
       </c>
       <c r="AA27">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AB27">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC27">
         <v>-1</v>
       </c>
       <c r="AD27">
-        <v>0.825</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:30">
@@ -3188,7 +3188,7 @@
         <v>55</v>
       </c>
       <c r="F28" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="G28">
         <v>0</v>
@@ -3268,7 +3268,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>7005761</v>
+        <v>7005726</v>
       </c>
       <c r="C29" t="s">
         <v>29</v>
@@ -3280,22 +3280,22 @@
         <v>56</v>
       </c>
       <c r="F29" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="G29">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H29">
         <v>1</v>
       </c>
       <c r="I29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J29">
         <v>0</v>
       </c>
       <c r="K29" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="L29">
         <v>2.25</v>
@@ -3307,52 +3307,52 @@
         <v>2.5</v>
       </c>
       <c r="O29">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="P29">
         <v>3.75</v>
       </c>
       <c r="Q29">
-        <v>2.9</v>
+        <v>2.5</v>
       </c>
       <c r="R29">
         <v>-0.25</v>
       </c>
       <c r="S29">
+        <v>2.05</v>
+      </c>
+      <c r="T29">
+        <v>1.75</v>
+      </c>
+      <c r="U29">
+        <v>2.75</v>
+      </c>
+      <c r="V29">
         <v>1.8</v>
       </c>
-      <c r="T29">
-        <v>2</v>
-      </c>
-      <c r="U29">
-        <v>2.5</v>
-      </c>
-      <c r="V29">
-        <v>1.85</v>
-      </c>
       <c r="W29">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="X29">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="Y29">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Z29">
         <v>-1</v>
       </c>
       <c r="AA29">
+        <v>1.05</v>
+      </c>
+      <c r="AB29">
+        <v>-1</v>
+      </c>
+      <c r="AC29">
+        <v>0.4</v>
+      </c>
+      <c r="AD29">
         <v>-0.5</v>
-      </c>
-      <c r="AB29">
-        <v>0.5</v>
-      </c>
-      <c r="AC29">
-        <v>-1</v>
-      </c>
-      <c r="AD29">
-        <v>0.95</v>
       </c>
     </row>
     <row r="30" spans="1:30">
@@ -3360,7 +3360,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>7005726</v>
+        <v>7005761</v>
       </c>
       <c r="C30" t="s">
         <v>29</v>
@@ -3372,22 +3372,22 @@
         <v>57</v>
       </c>
       <c r="F30" t="s">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="G30">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H30">
         <v>1</v>
       </c>
       <c r="I30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J30">
         <v>0</v>
       </c>
       <c r="K30" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="L30">
         <v>2.25</v>
@@ -3399,52 +3399,52 @@
         <v>2.5</v>
       </c>
       <c r="O30">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="P30">
         <v>3.75</v>
       </c>
       <c r="Q30">
-        <v>2.5</v>
+        <v>2.9</v>
       </c>
       <c r="R30">
         <v>-0.25</v>
       </c>
       <c r="S30">
-        <v>2.05</v>
+        <v>1.8</v>
       </c>
       <c r="T30">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="U30">
+        <v>2.5</v>
+      </c>
+      <c r="V30">
+        <v>1.85</v>
+      </c>
+      <c r="W30">
+        <v>1.95</v>
+      </c>
+      <c r="X30">
+        <v>-1</v>
+      </c>
+      <c r="Y30">
         <v>2.75</v>
       </c>
-      <c r="V30">
-        <v>1.8</v>
-      </c>
-      <c r="W30">
-        <v>2</v>
-      </c>
-      <c r="X30">
-        <v>1.25</v>
-      </c>
-      <c r="Y30">
-        <v>-1</v>
-      </c>
       <c r="Z30">
         <v>-1</v>
       </c>
       <c r="AA30">
-        <v>1.05</v>
+        <v>-0.5</v>
       </c>
       <c r="AB30">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="AC30">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
       <c r="AD30">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="31" spans="1:30">
@@ -3464,7 +3464,7 @@
         <v>58</v>
       </c>
       <c r="F31" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="G31">
         <v>0</v>
@@ -3636,7 +3636,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>7055638</v>
+        <v>7055639</v>
       </c>
       <c r="C33" t="s">
         <v>29</v>
@@ -3645,79 +3645,79 @@
         <v>45151.25</v>
       </c>
       <c r="E33" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F33" t="s">
-        <v>80</v>
+        <v>48</v>
       </c>
       <c r="G33">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H33">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J33">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K33" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="L33">
         <v>2.625</v>
       </c>
       <c r="M33">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="N33">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="O33">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="P33">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="Q33">
-        <v>2</v>
+        <v>1.909</v>
       </c>
       <c r="R33">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="S33">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="T33">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="U33">
         <v>3</v>
       </c>
       <c r="V33">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="W33">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="X33">
         <v>-1</v>
       </c>
       <c r="Y33">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Z33">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA33">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB33">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC33">
-        <v>0.8999999999999999</v>
+        <v>0.875</v>
       </c>
       <c r="AD33">
         <v>-1</v>
@@ -3728,7 +3728,7 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>7055639</v>
+        <v>7055640</v>
       </c>
       <c r="C34" t="s">
         <v>29</v>
@@ -3737,79 +3737,79 @@
         <v>45151.25</v>
       </c>
       <c r="E34" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F34" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="G34">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H34">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I34">
         <v>1</v>
       </c>
       <c r="J34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K34" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="L34">
-        <v>2.625</v>
+        <v>1.571</v>
       </c>
       <c r="M34">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="N34">
-        <v>2.15</v>
+        <v>4.5</v>
       </c>
       <c r="O34">
-        <v>3.1</v>
+        <v>1.75</v>
       </c>
       <c r="P34">
         <v>3.75</v>
       </c>
       <c r="Q34">
-        <v>1.909</v>
+        <v>3.6</v>
       </c>
       <c r="R34">
-        <v>0.5</v>
+        <v>-0.5</v>
       </c>
       <c r="S34">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="T34">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="U34">
         <v>3</v>
       </c>
       <c r="V34">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="W34">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="X34">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="Y34">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Z34">
         <v>-1</v>
       </c>
       <c r="AA34">
-        <v>0.8500000000000001</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB34">
         <v>-1</v>
       </c>
       <c r="AC34">
-        <v>0.875</v>
+        <v>0.8</v>
       </c>
       <c r="AD34">
         <v>-1</v>
@@ -3820,7 +3820,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>7055640</v>
+        <v>7055638</v>
       </c>
       <c r="C35" t="s">
         <v>29</v>
@@ -3829,79 +3829,79 @@
         <v>45151.25</v>
       </c>
       <c r="E35" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F35" t="s">
-        <v>39</v>
+        <v>80</v>
       </c>
       <c r="G35">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H35">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J35">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K35" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="L35">
-        <v>1.571</v>
+        <v>2.625</v>
       </c>
       <c r="M35">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="N35">
-        <v>4.5</v>
+        <v>2.2</v>
       </c>
       <c r="O35">
-        <v>1.75</v>
+        <v>3</v>
       </c>
       <c r="P35">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="Q35">
-        <v>3.6</v>
+        <v>2</v>
       </c>
       <c r="R35">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="S35">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="T35">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="U35">
         <v>3</v>
       </c>
       <c r="V35">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="W35">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="X35">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="Y35">
         <v>-1</v>
       </c>
       <c r="Z35">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA35">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB35">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC35">
-        <v>0.8</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AD35">
         <v>-1</v>
@@ -4108,7 +4108,7 @@
         <v>60</v>
       </c>
       <c r="F38" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G38">
         <v>3</v>
@@ -4936,7 +4936,7 @@
         <v>42</v>
       </c>
       <c r="F47" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G47">
         <v>1</v>
@@ -5028,7 +5028,7 @@
         <v>63</v>
       </c>
       <c r="F48" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G48">
         <v>1</v>
@@ -5485,7 +5485,7 @@
         <v>45157.52083333334</v>
       </c>
       <c r="E53" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F53" t="s">
         <v>37</v>
@@ -5577,7 +5577,7 @@
         <v>45157.52083333334</v>
       </c>
       <c r="E54" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F54" t="s">
         <v>64</v>
@@ -5669,7 +5669,7 @@
         <v>45157.52083333334</v>
       </c>
       <c r="E55" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F55" t="s">
         <v>30</v>
@@ -5761,7 +5761,7 @@
         <v>45157.52083333334</v>
       </c>
       <c r="E56" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="F56" t="s">
         <v>61</v>
@@ -6129,7 +6129,7 @@
         <v>45157.52083333334</v>
       </c>
       <c r="E60" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="F60" t="s">
         <v>67</v>
@@ -6396,7 +6396,7 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>7140310</v>
+        <v>7140311</v>
       </c>
       <c r="C63" t="s">
         <v>29</v>
@@ -6405,16 +6405,16 @@
         <v>45168.52083333334</v>
       </c>
       <c r="E63" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F63" t="s">
-        <v>85</v>
+        <v>39</v>
       </c>
       <c r="G63">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H63">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I63">
         <v>1</v>
@@ -6423,61 +6423,61 @@
         <v>1</v>
       </c>
       <c r="K63" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="L63">
-        <v>1.5</v>
+        <v>1.727</v>
       </c>
       <c r="M63">
+        <v>3.5</v>
+      </c>
+      <c r="N63">
         <v>4</v>
       </c>
-      <c r="N63">
-        <v>5</v>
-      </c>
       <c r="O63">
-        <v>1.5</v>
+        <v>1.727</v>
       </c>
       <c r="P63">
+        <v>3.5</v>
+      </c>
+      <c r="Q63">
         <v>4</v>
       </c>
-      <c r="Q63">
-        <v>5</v>
-      </c>
       <c r="R63">
-        <v>-1</v>
+        <v>-0.75</v>
       </c>
       <c r="S63">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="T63">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="U63">
         <v>3</v>
       </c>
       <c r="V63">
-        <v>1.75</v>
+        <v>1.95</v>
       </c>
       <c r="W63">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="X63">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="Y63">
         <v>-1</v>
       </c>
       <c r="Z63">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="AA63">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AB63">
-        <v>0</v>
+        <v>0.825</v>
       </c>
       <c r="AC63">
-        <v>0.75</v>
+        <v>0.95</v>
       </c>
       <c r="AD63">
         <v>-1</v>
@@ -6488,7 +6488,7 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>7140311</v>
+        <v>7140309</v>
       </c>
       <c r="C64" t="s">
         <v>29</v>
@@ -6497,61 +6497,61 @@
         <v>45168.52083333334</v>
       </c>
       <c r="E64" t="s">
-        <v>63</v>
+        <v>43</v>
       </c>
       <c r="F64" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="G64">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H64">
         <v>4</v>
       </c>
       <c r="I64">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J64">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K64" t="s">
         <v>100</v>
       </c>
       <c r="L64">
-        <v>1.727</v>
+        <v>1.8</v>
       </c>
       <c r="M64">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="N64">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="O64">
-        <v>1.727</v>
+        <v>1.909</v>
       </c>
       <c r="P64">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="Q64">
-        <v>4</v>
+        <v>3.3</v>
       </c>
       <c r="R64">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="S64">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="T64">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="U64">
         <v>3</v>
       </c>
       <c r="V64">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="W64">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="X64">
         <v>-1</v>
@@ -6560,16 +6560,16 @@
         <v>-1</v>
       </c>
       <c r="Z64">
-        <v>3</v>
+        <v>2.3</v>
       </c>
       <c r="AA64">
         <v>-1</v>
       </c>
       <c r="AB64">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="AC64">
         <v>0.825</v>
-      </c>
-      <c r="AC64">
-        <v>0.95</v>
       </c>
       <c r="AD64">
         <v>-1</v>
@@ -6580,7 +6580,7 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>7140300</v>
+        <v>7140310</v>
       </c>
       <c r="C65" t="s">
         <v>29</v>
@@ -6589,52 +6589,52 @@
         <v>45168.52083333334</v>
       </c>
       <c r="E65" t="s">
-        <v>42</v>
+        <v>64</v>
       </c>
       <c r="F65" t="s">
-        <v>71</v>
+        <v>86</v>
       </c>
       <c r="G65">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H65">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I65">
         <v>1</v>
       </c>
       <c r="J65">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K65" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="L65">
-        <v>4.5</v>
+        <v>1.5</v>
       </c>
       <c r="M65">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="N65">
+        <v>5</v>
+      </c>
+      <c r="O65">
         <v>1.5</v>
       </c>
-      <c r="O65">
-        <v>4.5</v>
-      </c>
       <c r="P65">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="Q65">
-        <v>1.5</v>
+        <v>5</v>
       </c>
       <c r="R65">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="S65">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="T65">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="U65">
         <v>3</v>
@@ -6646,19 +6646,19 @@
         <v>1.95</v>
       </c>
       <c r="X65">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="Y65">
         <v>-1</v>
       </c>
       <c r="Z65">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA65">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AB65">
-        <v>0.95</v>
+        <v>0</v>
       </c>
       <c r="AC65">
         <v>0.75</v>
@@ -6672,7 +6672,7 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>7140301</v>
+        <v>7140300</v>
       </c>
       <c r="C66" t="s">
         <v>29</v>
@@ -6681,49 +6681,49 @@
         <v>45168.52083333334</v>
       </c>
       <c r="E66" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="F66" t="s">
-        <v>92</v>
+        <v>71</v>
       </c>
       <c r="G66">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H66">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I66">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J66">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K66" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="L66">
-        <v>1.4</v>
+        <v>4.5</v>
       </c>
       <c r="M66">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="N66">
-        <v>5</v>
+        <v>1.5</v>
       </c>
       <c r="O66">
-        <v>1.4</v>
+        <v>4.5</v>
       </c>
       <c r="P66">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="Q66">
-        <v>5</v>
+        <v>1.5</v>
       </c>
       <c r="R66">
-        <v>-1.25</v>
+        <v>1.25</v>
       </c>
       <c r="S66">
-        <v>1.85</v>
+        <v>1.75</v>
       </c>
       <c r="T66">
         <v>1.95</v>
@@ -6732,28 +6732,28 @@
         <v>3</v>
       </c>
       <c r="V66">
-        <v>1.975</v>
+        <v>1.75</v>
       </c>
       <c r="W66">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="X66">
-        <v>0.3999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Y66">
         <v>-1</v>
       </c>
       <c r="Z66">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="AA66">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB66">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC66">
-        <v>0.9750000000000001</v>
+        <v>0.75</v>
       </c>
       <c r="AD66">
         <v>-1</v>
@@ -6764,7 +6764,7 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>7140304</v>
+        <v>7140312</v>
       </c>
       <c r="C67" t="s">
         <v>29</v>
@@ -6776,79 +6776,79 @@
         <v>65</v>
       </c>
       <c r="F67" t="s">
-        <v>79</v>
+        <v>46</v>
       </c>
       <c r="G67">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H67">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I67">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J67">
         <v>0</v>
       </c>
       <c r="K67" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="L67">
-        <v>1.4</v>
+        <v>2.4</v>
       </c>
       <c r="M67">
-        <v>5</v>
+        <v>3.6</v>
       </c>
       <c r="N67">
-        <v>5</v>
+        <v>2.4</v>
       </c>
       <c r="O67">
-        <v>1.363</v>
+        <v>2.4</v>
       </c>
       <c r="P67">
-        <v>5.5</v>
+        <v>3.6</v>
       </c>
       <c r="Q67">
-        <v>5</v>
+        <v>2.4</v>
       </c>
       <c r="R67">
-        <v>-1.5</v>
+        <v>0</v>
       </c>
       <c r="S67">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="T67">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="U67">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="V67">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="W67">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="X67">
-        <v>0.363</v>
+        <v>-1</v>
       </c>
       <c r="Y67">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Z67">
         <v>-1</v>
       </c>
       <c r="AA67">
-        <v>0.9750000000000001</v>
+        <v>0</v>
       </c>
       <c r="AB67">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC67">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AD67">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="68" spans="1:30">
@@ -6856,7 +6856,7 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>7140302</v>
+        <v>7140303</v>
       </c>
       <c r="C68" t="s">
         <v>29</v>
@@ -6865,52 +6865,52 @@
         <v>45168.52083333334</v>
       </c>
       <c r="E68" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="F68" t="s">
-        <v>94</v>
+        <v>51</v>
       </c>
       <c r="G68">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H68">
         <v>1</v>
       </c>
       <c r="I68">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J68">
         <v>0</v>
       </c>
       <c r="K68" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="L68">
-        <v>1.615</v>
+        <v>4</v>
       </c>
       <c r="M68">
         <v>4</v>
       </c>
       <c r="N68">
+        <v>1.615</v>
+      </c>
+      <c r="O68">
         <v>4</v>
       </c>
-      <c r="O68">
-        <v>1.533</v>
-      </c>
       <c r="P68">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="Q68">
-        <v>4.5</v>
+        <v>1.615</v>
       </c>
       <c r="R68">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="S68">
-        <v>1.9</v>
+        <v>1.75</v>
       </c>
       <c r="T68">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="U68">
         <v>3</v>
@@ -6922,25 +6922,25 @@
         <v>1.95</v>
       </c>
       <c r="X68">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Y68">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Z68">
         <v>-1</v>
       </c>
       <c r="AA68">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AB68">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC68">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AD68">
-        <v>0.95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:30">
@@ -6948,7 +6948,7 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>7140303</v>
+        <v>7140302</v>
       </c>
       <c r="C69" t="s">
         <v>29</v>
@@ -6957,52 +6957,52 @@
         <v>45168.52083333334</v>
       </c>
       <c r="E69" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="F69" t="s">
-        <v>50</v>
+        <v>94</v>
       </c>
       <c r="G69">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H69">
         <v>1</v>
       </c>
       <c r="I69">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J69">
         <v>0</v>
       </c>
       <c r="K69" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="L69">
-        <v>4</v>
+        <v>1.615</v>
       </c>
       <c r="M69">
         <v>4</v>
       </c>
       <c r="N69">
-        <v>1.615</v>
+        <v>4</v>
       </c>
       <c r="O69">
-        <v>4</v>
+        <v>1.533</v>
       </c>
       <c r="P69">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="Q69">
-        <v>1.615</v>
+        <v>4.5</v>
       </c>
       <c r="R69">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="S69">
-        <v>1.75</v>
+        <v>1.9</v>
       </c>
       <c r="T69">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="U69">
         <v>3</v>
@@ -7014,25 +7014,25 @@
         <v>1.95</v>
       </c>
       <c r="X69">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y69">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Z69">
         <v>-1</v>
       </c>
       <c r="AA69">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AB69">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC69">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AD69">
-        <v>0</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="70" spans="1:30">
@@ -7040,7 +7040,7 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>7140309</v>
+        <v>7140301</v>
       </c>
       <c r="C70" t="s">
         <v>29</v>
@@ -7049,79 +7049,79 @@
         <v>45168.52083333334</v>
       </c>
       <c r="E70" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="F70" t="s">
-        <v>34</v>
+        <v>92</v>
       </c>
       <c r="G70">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H70">
+        <v>0</v>
+      </c>
+      <c r="I70">
         <v>4</v>
       </c>
-      <c r="I70">
-        <v>0</v>
-      </c>
       <c r="J70">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K70" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="L70">
-        <v>1.8</v>
+        <v>1.4</v>
       </c>
       <c r="M70">
-        <v>3.6</v>
+        <v>5</v>
       </c>
       <c r="N70">
-        <v>3.6</v>
+        <v>5</v>
       </c>
       <c r="O70">
-        <v>1.909</v>
+        <v>1.4</v>
       </c>
       <c r="P70">
-        <v>3.6</v>
+        <v>5</v>
       </c>
       <c r="Q70">
-        <v>3.3</v>
+        <v>5</v>
       </c>
       <c r="R70">
-        <v>-0.5</v>
+        <v>-1.25</v>
       </c>
       <c r="S70">
+        <v>1.85</v>
+      </c>
+      <c r="T70">
         <v>1.95</v>
-      </c>
-      <c r="T70">
-        <v>1.85</v>
       </c>
       <c r="U70">
         <v>3</v>
       </c>
       <c r="V70">
+        <v>1.975</v>
+      </c>
+      <c r="W70">
         <v>1.825</v>
       </c>
-      <c r="W70">
-        <v>1.975</v>
-      </c>
       <c r="X70">
-        <v>-1</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="Y70">
         <v>-1</v>
       </c>
       <c r="Z70">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="AA70">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB70">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC70">
-        <v>0.825</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AD70">
         <v>-1</v>
@@ -7132,7 +7132,7 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>7140312</v>
+        <v>7141752</v>
       </c>
       <c r="C71" t="s">
         <v>29</v>
@@ -7141,10 +7141,10 @@
         <v>45168.52083333334</v>
       </c>
       <c r="E71" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="F71" t="s">
-        <v>46</v>
+        <v>82</v>
       </c>
       <c r="G71">
         <v>1</v>
@@ -7153,43 +7153,43 @@
         <v>1</v>
       </c>
       <c r="I71">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J71">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K71" t="s">
         <v>102</v>
       </c>
       <c r="L71">
-        <v>2.4</v>
+        <v>1.5</v>
       </c>
       <c r="M71">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="N71">
-        <v>2.4</v>
+        <v>5</v>
       </c>
       <c r="O71">
-        <v>2.4</v>
+        <v>1.5</v>
       </c>
       <c r="P71">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="Q71">
-        <v>2.4</v>
+        <v>5</v>
       </c>
       <c r="R71">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="S71">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="T71">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="U71">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="V71">
         <v>1.9</v>
@@ -7201,16 +7201,16 @@
         <v>-1</v>
       </c>
       <c r="Y71">
-        <v>2.6</v>
+        <v>3</v>
       </c>
       <c r="Z71">
         <v>-1</v>
       </c>
       <c r="AA71">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AB71">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC71">
         <v>-1</v>
@@ -7224,7 +7224,7 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>7141754</v>
+        <v>7140304</v>
       </c>
       <c r="C72" t="s">
         <v>29</v>
@@ -7233,79 +7233,79 @@
         <v>45168.52083333334</v>
       </c>
       <c r="E72" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="F72" t="s">
-        <v>55</v>
+        <v>79</v>
       </c>
       <c r="G72">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H72">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I72">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J72">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K72" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="L72">
-        <v>3.4</v>
+        <v>1.4</v>
       </c>
       <c r="M72">
-        <v>3.75</v>
+        <v>5</v>
       </c>
       <c r="N72">
-        <v>1.8</v>
+        <v>5</v>
       </c>
       <c r="O72">
-        <v>3.4</v>
+        <v>1.363</v>
       </c>
       <c r="P72">
-        <v>3.75</v>
+        <v>5.5</v>
       </c>
       <c r="Q72">
-        <v>1.8</v>
+        <v>5</v>
       </c>
       <c r="R72">
-        <v>0.5</v>
+        <v>-1.5</v>
       </c>
       <c r="S72">
+        <v>1.975</v>
+      </c>
+      <c r="T72">
+        <v>1.825</v>
+      </c>
+      <c r="U72">
+        <v>3.25</v>
+      </c>
+      <c r="V72">
         <v>1.95</v>
       </c>
-      <c r="T72">
+      <c r="W72">
         <v>1.85</v>
       </c>
-      <c r="U72">
-        <v>2.75</v>
-      </c>
-      <c r="V72">
-        <v>1.75</v>
-      </c>
-      <c r="W72">
-        <v>1.95</v>
-      </c>
       <c r="X72">
-        <v>-1</v>
+        <v>0.363</v>
       </c>
       <c r="Y72">
         <v>-1</v>
       </c>
       <c r="Z72">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA72">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB72">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC72">
-        <v>0.75</v>
+        <v>0.95</v>
       </c>
       <c r="AD72">
         <v>-1</v>
@@ -7316,7 +7316,7 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>7141752</v>
+        <v>7142173</v>
       </c>
       <c r="C73" t="s">
         <v>29</v>
@@ -7325,19 +7325,19 @@
         <v>45168.52083333334</v>
       </c>
       <c r="E73" t="s">
-        <v>58</v>
+        <v>35</v>
       </c>
       <c r="F73" t="s">
-        <v>82</v>
+        <v>31</v>
       </c>
       <c r="G73">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H73">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I73">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J73">
         <v>1</v>
@@ -7346,25 +7346,25 @@
         <v>102</v>
       </c>
       <c r="L73">
-        <v>1.5</v>
+        <v>1.615</v>
       </c>
       <c r="M73">
         <v>4</v>
       </c>
       <c r="N73">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="O73">
-        <v>1.5</v>
+        <v>1.615</v>
       </c>
       <c r="P73">
         <v>4</v>
       </c>
       <c r="Q73">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="R73">
-        <v>-1</v>
+        <v>-0.75</v>
       </c>
       <c r="S73">
         <v>1.8</v>
@@ -7373,7 +7373,7 @@
         <v>2</v>
       </c>
       <c r="U73">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="V73">
         <v>1.9</v>
@@ -7397,10 +7397,10 @@
         <v>1</v>
       </c>
       <c r="AC73">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AD73">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="74" spans="1:30">
@@ -7500,7 +7500,7 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>7140305</v>
+        <v>7141754</v>
       </c>
       <c r="C75" t="s">
         <v>29</v>
@@ -7509,79 +7509,79 @@
         <v>45168.52083333334</v>
       </c>
       <c r="E75" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F75" t="s">
-        <v>81</v>
+        <v>55</v>
       </c>
       <c r="G75">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H75">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I75">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J75">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K75" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="L75">
-        <v>2.25</v>
+        <v>3.4</v>
       </c>
       <c r="M75">
         <v>3.75</v>
       </c>
       <c r="N75">
-        <v>2.5</v>
+        <v>1.8</v>
       </c>
       <c r="O75">
-        <v>2.25</v>
+        <v>3.4</v>
       </c>
       <c r="P75">
         <v>3.75</v>
       </c>
       <c r="Q75">
-        <v>2.5</v>
+        <v>1.8</v>
       </c>
       <c r="R75">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="S75">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="T75">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="U75">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="V75">
-        <v>1.975</v>
+        <v>1.75</v>
       </c>
       <c r="W75">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="X75">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="Y75">
         <v>-1</v>
       </c>
       <c r="Z75">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA75">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB75">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC75">
-        <v>0.9750000000000001</v>
+        <v>0.75</v>
       </c>
       <c r="AD75">
         <v>-1</v>
@@ -7592,7 +7592,7 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>7140308</v>
+        <v>7140306</v>
       </c>
       <c r="C76" t="s">
         <v>29</v>
@@ -7601,82 +7601,82 @@
         <v>45168.52083333334</v>
       </c>
       <c r="E76" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="F76" t="s">
-        <v>91</v>
+        <v>48</v>
       </c>
       <c r="G76">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H76">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I76">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J76">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K76" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="L76">
-        <v>1.5</v>
+        <v>2.25</v>
       </c>
       <c r="M76">
-        <v>4.5</v>
+        <v>3.75</v>
       </c>
       <c r="N76">
-        <v>4.5</v>
+        <v>2.5</v>
       </c>
       <c r="O76">
-        <v>1.444</v>
+        <v>2.3</v>
       </c>
       <c r="P76">
-        <v>5</v>
+        <v>3.6</v>
       </c>
       <c r="Q76">
-        <v>4.75</v>
+        <v>2.5</v>
       </c>
       <c r="R76">
-        <v>-1.25</v>
+        <v>0</v>
       </c>
       <c r="S76">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="T76">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="U76">
         <v>3</v>
       </c>
       <c r="V76">
-        <v>1.825</v>
+        <v>2.1</v>
       </c>
       <c r="W76">
-        <v>1.975</v>
+        <v>1.7</v>
       </c>
       <c r="X76">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="Y76">
         <v>-1</v>
       </c>
       <c r="Z76">
-        <v>3.75</v>
+        <v>-1</v>
       </c>
       <c r="AA76">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB76">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC76">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="AD76">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="77" spans="1:30">
@@ -7684,7 +7684,7 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>7142437</v>
+        <v>7140308</v>
       </c>
       <c r="C77" t="s">
         <v>29</v>
@@ -7693,82 +7693,82 @@
         <v>45168.52083333334</v>
       </c>
       <c r="E77" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="F77" t="s">
-        <v>73</v>
+        <v>91</v>
       </c>
       <c r="G77">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H77">
         <v>2</v>
       </c>
       <c r="I77">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J77">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K77" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="L77">
-        <v>1.571</v>
+        <v>1.5</v>
       </c>
       <c r="M77">
-        <v>3.75</v>
+        <v>4.5</v>
       </c>
       <c r="N77">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="O77">
-        <v>1.571</v>
+        <v>1.444</v>
       </c>
       <c r="P77">
-        <v>3.75</v>
+        <v>5</v>
       </c>
       <c r="Q77">
         <v>4.75</v>
       </c>
       <c r="R77">
-        <v>-1</v>
+        <v>-1.25</v>
       </c>
       <c r="S77">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="T77">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="U77">
         <v>3</v>
       </c>
       <c r="V77">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="W77">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="X77">
-        <v>0.571</v>
+        <v>-1</v>
       </c>
       <c r="Y77">
         <v>-1</v>
       </c>
       <c r="Z77">
-        <v>-1</v>
+        <v>3.75</v>
       </c>
       <c r="AA77">
+        <v>-1</v>
+      </c>
+      <c r="AB77">
+        <v>0.875</v>
+      </c>
+      <c r="AC77">
+        <v>-1</v>
+      </c>
+      <c r="AD77">
         <v>0.9750000000000001</v>
-      </c>
-      <c r="AB77">
-        <v>-1</v>
-      </c>
-      <c r="AC77">
-        <v>0.8999999999999999</v>
-      </c>
-      <c r="AD77">
-        <v>-1</v>
       </c>
     </row>
     <row r="78" spans="1:30">
@@ -7776,7 +7776,7 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>7142196</v>
+        <v>7142437</v>
       </c>
       <c r="C78" t="s">
         <v>29</v>
@@ -7785,55 +7785,55 @@
         <v>45168.52083333334</v>
       </c>
       <c r="E78" t="s">
-        <v>68</v>
+        <v>37</v>
       </c>
       <c r="F78" t="s">
-        <v>88</v>
+        <v>73</v>
       </c>
       <c r="G78">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H78">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I78">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J78">
         <v>1</v>
       </c>
       <c r="K78" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="L78">
-        <v>2.25</v>
+        <v>1.571</v>
       </c>
       <c r="M78">
         <v>3.75</v>
       </c>
       <c r="N78">
-        <v>2.5</v>
+        <v>4.75</v>
       </c>
       <c r="O78">
-        <v>2.25</v>
+        <v>1.571</v>
       </c>
       <c r="P78">
         <v>3.75</v>
       </c>
       <c r="Q78">
-        <v>2.5</v>
+        <v>4.75</v>
       </c>
       <c r="R78">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="S78">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="T78">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="U78">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="V78">
         <v>1.9</v>
@@ -7842,19 +7842,19 @@
         <v>1.9</v>
       </c>
       <c r="X78">
-        <v>-1</v>
+        <v>0.571</v>
       </c>
       <c r="Y78">
         <v>-1</v>
       </c>
       <c r="Z78">
-        <v>1.5</v>
+        <v>-1</v>
       </c>
       <c r="AA78">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB78">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC78">
         <v>0.8999999999999999</v>
@@ -7868,7 +7868,7 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>7142173</v>
+        <v>7142196</v>
       </c>
       <c r="C79" t="s">
         <v>29</v>
@@ -7877,46 +7877,46 @@
         <v>45168.52083333334</v>
       </c>
       <c r="E79" t="s">
-        <v>35</v>
+        <v>68</v>
       </c>
       <c r="F79" t="s">
-        <v>31</v>
+        <v>88</v>
       </c>
       <c r="G79">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H79">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I79">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J79">
         <v>1</v>
       </c>
       <c r="K79" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="L79">
-        <v>1.615</v>
+        <v>2.25</v>
       </c>
       <c r="M79">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="N79">
-        <v>4</v>
+        <v>2.5</v>
       </c>
       <c r="O79">
-        <v>1.615</v>
+        <v>2.25</v>
       </c>
       <c r="P79">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="Q79">
-        <v>4</v>
+        <v>2.5</v>
       </c>
       <c r="R79">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="S79">
         <v>1.8</v>
@@ -7937,10 +7937,10 @@
         <v>-1</v>
       </c>
       <c r="Y79">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Z79">
-        <v>-1</v>
+        <v>1.5</v>
       </c>
       <c r="AA79">
         <v>-1</v>
@@ -7960,7 +7960,7 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>7140306</v>
+        <v>7140305</v>
       </c>
       <c r="C80" t="s">
         <v>29</v>
@@ -7969,22 +7969,22 @@
         <v>45168.52083333334</v>
       </c>
       <c r="E80" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="F80" t="s">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="G80">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H80">
         <v>1</v>
       </c>
       <c r="I80">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J80">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K80" t="s">
         <v>101</v>
@@ -7999,10 +7999,10 @@
         <v>2.5</v>
       </c>
       <c r="O80">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="P80">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="Q80">
         <v>2.5</v>
@@ -8020,13 +8020,13 @@
         <v>3</v>
       </c>
       <c r="V80">
-        <v>2.1</v>
+        <v>1.975</v>
       </c>
       <c r="W80">
-        <v>1.7</v>
+        <v>1.825</v>
       </c>
       <c r="X80">
-        <v>1.3</v>
+        <v>1.25</v>
       </c>
       <c r="Y80">
         <v>-1</v>
@@ -8041,7 +8041,7 @@
         <v>-1</v>
       </c>
       <c r="AC80">
-        <v>1.1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AD80">
         <v>-1</v>
@@ -8429,7 +8429,7 @@
         <v>45172.45833333334</v>
       </c>
       <c r="E85" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F85" t="s">
         <v>42</v>
@@ -8984,7 +8984,7 @@
         <v>47</v>
       </c>
       <c r="F91" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G91">
         <v>0</v>
@@ -9257,7 +9257,7 @@
         <v>45178.25</v>
       </c>
       <c r="E94" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F94" t="s">
         <v>92</v>
@@ -9536,7 +9536,7 @@
         <v>72</v>
       </c>
       <c r="F97" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="G97">
         <v>3</v>
@@ -10453,10 +10453,10 @@
         <v>45178.45833333334</v>
       </c>
       <c r="E107" t="s">
+        <v>48</v>
+      </c>
+      <c r="F107" t="s">
         <v>51</v>
-      </c>
-      <c r="F107" t="s">
-        <v>50</v>
       </c>
       <c r="G107">
         <v>1</v>
@@ -10548,7 +10548,7 @@
         <v>37</v>
       </c>
       <c r="F108" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G108">
         <v>1</v>
@@ -10637,7 +10637,7 @@
         <v>45178.45833333334</v>
       </c>
       <c r="E109" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F109" t="s">
         <v>45</v>
@@ -10729,7 +10729,7 @@
         <v>45178.45833333334</v>
       </c>
       <c r="E110" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F110" t="s">
         <v>95</v>
@@ -10916,7 +10916,7 @@
         <v>61</v>
       </c>
       <c r="F112" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G112">
         <v>3</v>
@@ -11008,7 +11008,7 @@
         <v>30</v>
       </c>
       <c r="F113" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G113">
         <v>1</v>
@@ -11741,7 +11741,7 @@
         <v>45193.45833333334</v>
       </c>
       <c r="E121" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F121" t="s">
         <v>33</v>
@@ -11925,7 +11925,7 @@
         <v>45193.45833333334</v>
       </c>
       <c r="E123" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F123" t="s">
         <v>45</v>
@@ -12664,7 +12664,7 @@
         <v>39</v>
       </c>
       <c r="F131" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="G131">
         <v>0</v>
@@ -12753,7 +12753,7 @@
         <v>45198.45833333334</v>
       </c>
       <c r="E132" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F132" t="s">
         <v>70</v>
@@ -12845,7 +12845,7 @@
         <v>45199.25</v>
       </c>
       <c r="E133" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F133" t="s">
         <v>34</v>
@@ -13124,7 +13124,7 @@
         <v>55</v>
       </c>
       <c r="F136" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G136">
         <v>4</v>
@@ -13397,7 +13397,7 @@
         <v>45200.41666666666</v>
       </c>
       <c r="E139" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F139" t="s">
         <v>67</v>
@@ -13572,7 +13572,7 @@
         <v>139</v>
       </c>
       <c r="B141">
-        <v>7278205</v>
+        <v>7278134</v>
       </c>
       <c r="C141" t="s">
         <v>29</v>
@@ -13581,52 +13581,52 @@
         <v>45200.41666666666</v>
       </c>
       <c r="E141" t="s">
-        <v>37</v>
+        <v>53</v>
       </c>
       <c r="F141" t="s">
-        <v>81</v>
+        <v>46</v>
       </c>
       <c r="G141">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H141">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I141">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J141">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K141" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="L141">
-        <v>2.25</v>
+        <v>3.4</v>
       </c>
       <c r="M141">
+        <v>3.8</v>
+      </c>
+      <c r="N141">
+        <v>1.8</v>
+      </c>
+      <c r="O141">
         <v>3.4</v>
       </c>
-      <c r="N141">
-        <v>2.625</v>
-      </c>
-      <c r="O141">
-        <v>2.25</v>
-      </c>
       <c r="P141">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="Q141">
-        <v>2.625</v>
+        <v>1.8</v>
       </c>
       <c r="R141">
-        <v>-0.25</v>
+        <v>0.75</v>
       </c>
       <c r="S141">
+        <v>1.75</v>
+      </c>
+      <c r="T141">
         <v>2.05</v>
-      </c>
-      <c r="T141">
-        <v>1.75</v>
       </c>
       <c r="U141">
         <v>2.75</v>
@@ -13641,22 +13641,22 @@
         <v>-1</v>
       </c>
       <c r="Y141">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Z141">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA141">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB141">
-        <v>0.375</v>
+        <v>1.05</v>
       </c>
       <c r="AC141">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AD141">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="142" spans="1:30">
@@ -13664,7 +13664,7 @@
         <v>140</v>
       </c>
       <c r="B142">
-        <v>7278134</v>
+        <v>7278148</v>
       </c>
       <c r="C142" t="s">
         <v>29</v>
@@ -13673,82 +13673,82 @@
         <v>45200.41666666666</v>
       </c>
       <c r="E142" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="F142" t="s">
-        <v>46</v>
+        <v>75</v>
       </c>
       <c r="G142">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H142">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I142">
         <v>0</v>
       </c>
       <c r="J142">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K142" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="L142">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="M142">
         <v>3.8</v>
       </c>
       <c r="N142">
-        <v>1.8</v>
+        <v>1.833</v>
       </c>
       <c r="O142">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="P142">
         <v>3.8</v>
       </c>
       <c r="Q142">
-        <v>1.8</v>
+        <v>1.833</v>
       </c>
       <c r="R142">
         <v>0.75</v>
       </c>
       <c r="S142">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="T142">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="U142">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="V142">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="W142">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="X142">
         <v>-1</v>
       </c>
       <c r="Y142">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Z142">
+        <v>-1</v>
+      </c>
+      <c r="AA142">
+        <v>0.7</v>
+      </c>
+      <c r="AB142">
+        <v>-1</v>
+      </c>
+      <c r="AC142">
+        <v>-1</v>
+      </c>
+      <c r="AD142">
         <v>0.8</v>
-      </c>
-      <c r="AA142">
-        <v>-1</v>
-      </c>
-      <c r="AB142">
-        <v>1.05</v>
-      </c>
-      <c r="AC142">
-        <v>0.875</v>
-      </c>
-      <c r="AD142">
-        <v>-1</v>
       </c>
     </row>
     <row r="143" spans="1:30">
@@ -13756,7 +13756,7 @@
         <v>141</v>
       </c>
       <c r="B143">
-        <v>7278148</v>
+        <v>7278192</v>
       </c>
       <c r="C143" t="s">
         <v>29</v>
@@ -13765,52 +13765,52 @@
         <v>45200.41666666666</v>
       </c>
       <c r="E143" t="s">
-        <v>41</v>
+        <v>74</v>
       </c>
       <c r="F143" t="s">
-        <v>75</v>
+        <v>63</v>
       </c>
       <c r="G143">
         <v>1</v>
       </c>
       <c r="H143">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I143">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J143">
         <v>0</v>
       </c>
       <c r="K143" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="L143">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="M143">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="N143">
-        <v>1.833</v>
+        <v>2</v>
       </c>
       <c r="O143">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="P143">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="Q143">
-        <v>1.833</v>
+        <v>2</v>
       </c>
       <c r="R143">
-        <v>0.75</v>
+        <v>0.25</v>
       </c>
       <c r="S143">
-        <v>1.7</v>
+        <v>2</v>
       </c>
       <c r="T143">
-        <v>2.1</v>
+        <v>1.8</v>
       </c>
       <c r="U143">
         <v>3</v>
@@ -13825,22 +13825,22 @@
         <v>-1</v>
       </c>
       <c r="Y143">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Z143">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA143">
-        <v>0.7</v>
+        <v>-1</v>
       </c>
       <c r="AB143">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC143">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AD143">
-        <v>0.8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="144" spans="1:30">
@@ -13848,7 +13848,7 @@
         <v>142</v>
       </c>
       <c r="B144">
-        <v>7278192</v>
+        <v>7278194</v>
       </c>
       <c r="C144" t="s">
         <v>29</v>
@@ -13857,52 +13857,52 @@
         <v>45200.41666666666</v>
       </c>
       <c r="E144" t="s">
-        <v>74</v>
+        <v>61</v>
       </c>
       <c r="F144" t="s">
-        <v>63</v>
+        <v>78</v>
       </c>
       <c r="G144">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H144">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I144">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J144">
         <v>0</v>
       </c>
       <c r="K144" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="L144">
-        <v>3</v>
+        <v>1.833</v>
       </c>
       <c r="M144">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="N144">
-        <v>2</v>
+        <v>3.25</v>
       </c>
       <c r="O144">
-        <v>3</v>
+        <v>1.833</v>
       </c>
       <c r="P144">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="Q144">
-        <v>2</v>
+        <v>3.25</v>
       </c>
       <c r="R144">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="S144">
-        <v>2</v>
+        <v>2.075</v>
       </c>
       <c r="T144">
-        <v>1.8</v>
+        <v>1.725</v>
       </c>
       <c r="U144">
         <v>3</v>
@@ -13914,19 +13914,19 @@
         <v>1.8</v>
       </c>
       <c r="X144">
-        <v>-1</v>
+        <v>0.833</v>
       </c>
       <c r="Y144">
         <v>-1</v>
       </c>
       <c r="Z144">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA144">
-        <v>-1</v>
+        <v>1.075</v>
       </c>
       <c r="AB144">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC144">
         <v>0</v>
@@ -13940,7 +13940,7 @@
         <v>143</v>
       </c>
       <c r="B145">
-        <v>7278194</v>
+        <v>7278204</v>
       </c>
       <c r="C145" t="s">
         <v>29</v>
@@ -13949,10 +13949,10 @@
         <v>45200.41666666666</v>
       </c>
       <c r="E145" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="F145" t="s">
-        <v>78</v>
+        <v>51</v>
       </c>
       <c r="G145">
         <v>3</v>
@@ -13961,7 +13961,7 @@
         <v>0</v>
       </c>
       <c r="I145">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J145">
         <v>0</v>
@@ -13970,43 +13970,43 @@
         <v>101</v>
       </c>
       <c r="L145">
-        <v>1.833</v>
+        <v>2.5</v>
       </c>
       <c r="M145">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="N145">
-        <v>3.25</v>
+        <v>2.375</v>
       </c>
       <c r="O145">
-        <v>1.833</v>
+        <v>2.5</v>
       </c>
       <c r="P145">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="Q145">
-        <v>3.25</v>
+        <v>2.375</v>
       </c>
       <c r="R145">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="S145">
-        <v>2.075</v>
+        <v>1.95</v>
       </c>
       <c r="T145">
-        <v>1.725</v>
+        <v>1.85</v>
       </c>
       <c r="U145">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="V145">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="W145">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="X145">
-        <v>0.833</v>
+        <v>1.5</v>
       </c>
       <c r="Y145">
         <v>-1</v>
@@ -14015,16 +14015,16 @@
         <v>-1</v>
       </c>
       <c r="AA145">
-        <v>1.075</v>
+        <v>0.95</v>
       </c>
       <c r="AB145">
         <v>-1</v>
       </c>
       <c r="AC145">
-        <v>0</v>
+        <v>0.475</v>
       </c>
       <c r="AD145">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="146" spans="1:30">
@@ -14032,7 +14032,7 @@
         <v>144</v>
       </c>
       <c r="B146">
-        <v>7278204</v>
+        <v>7278205</v>
       </c>
       <c r="C146" t="s">
         <v>29</v>
@@ -14041,16 +14041,16 @@
         <v>45200.41666666666</v>
       </c>
       <c r="E146" t="s">
-        <v>54</v>
+        <v>37</v>
       </c>
       <c r="F146" t="s">
-        <v>50</v>
+        <v>81</v>
       </c>
       <c r="G146">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H146">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I146">
         <v>1</v>
@@ -14059,64 +14059,64 @@
         <v>0</v>
       </c>
       <c r="K146" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="L146">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="M146">
         <v>3.4</v>
       </c>
       <c r="N146">
-        <v>2.375</v>
+        <v>2.625</v>
       </c>
       <c r="O146">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="P146">
         <v>3.4</v>
       </c>
       <c r="Q146">
-        <v>2.375</v>
+        <v>2.625</v>
       </c>
       <c r="R146">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="S146">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="T146">
-        <v>1.85</v>
+        <v>1.75</v>
       </c>
       <c r="U146">
         <v>2.75</v>
       </c>
       <c r="V146">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="W146">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="X146">
-        <v>1.5</v>
+        <v>-1</v>
       </c>
       <c r="Y146">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Z146">
         <v>-1</v>
       </c>
       <c r="AA146">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
       <c r="AB146">
-        <v>-1</v>
+        <v>0.375</v>
       </c>
       <c r="AC146">
-        <v>0.475</v>
+        <v>-1</v>
       </c>
       <c r="AD146">
-        <v>-0.5</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="147" spans="1:30">
@@ -14872,7 +14872,7 @@
         <v>35</v>
       </c>
       <c r="F155" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="G155">
         <v>1</v>
@@ -15237,10 +15237,10 @@
         <v>45207.41666666666</v>
       </c>
       <c r="E159" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F159" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="G159">
         <v>0</v>
@@ -15329,7 +15329,7 @@
         <v>45212.5</v>
       </c>
       <c r="E160" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F160" t="s">
         <v>44</v>
@@ -15789,7 +15789,7 @@
         <v>45214.41666666666</v>
       </c>
       <c r="E165" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="F165" t="s">
         <v>69</v>
@@ -15881,7 +15881,7 @@
         <v>45214.41666666666</v>
       </c>
       <c r="E166" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F166" t="s">
         <v>75</v>
@@ -16157,7 +16157,7 @@
         <v>45214.41666666666</v>
       </c>
       <c r="E169" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F169" t="s">
         <v>71</v>
@@ -16525,7 +16525,7 @@
         <v>45214.41666666666</v>
       </c>
       <c r="E173" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F173" t="s">
         <v>73</v>
@@ -16620,7 +16620,7 @@
         <v>45</v>
       </c>
       <c r="F174" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G174">
         <v>3</v>
@@ -16709,7 +16709,7 @@
         <v>45214.41666666666</v>
       </c>
       <c r="E175" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F175" t="s">
         <v>63</v>
@@ -16804,7 +16804,7 @@
         <v>80</v>
       </c>
       <c r="F176" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G176">
         <v>2</v>
@@ -17540,7 +17540,7 @@
         <v>38</v>
       </c>
       <c r="F184" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G184">
         <v>3</v>
@@ -17632,7 +17632,7 @@
         <v>74</v>
       </c>
       <c r="F185" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="G185">
         <v>2</v>
@@ -17908,7 +17908,7 @@
         <v>78</v>
       </c>
       <c r="F188" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="G188">
         <v>1</v>
@@ -17997,10 +17997,10 @@
         <v>45221.33333333334</v>
       </c>
       <c r="E189" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F189" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G189">
         <v>1</v>
@@ -18092,7 +18092,7 @@
         <v>42</v>
       </c>
       <c r="F190" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G190">
         <v>5</v>
@@ -18184,7 +18184,7 @@
         <v>81</v>
       </c>
       <c r="F191" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="G191">
         <v>1</v>
@@ -18736,7 +18736,7 @@
         <v>73</v>
       </c>
       <c r="F197" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G197">
         <v>1</v>
@@ -18825,7 +18825,7 @@
         <v>45228.375</v>
       </c>
       <c r="E198" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F198" t="s">
         <v>71</v>
@@ -18917,7 +18917,7 @@
         <v>45228.375</v>
       </c>
       <c r="E199" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F199" t="s">
         <v>69</v>
@@ -19009,7 +19009,7 @@
         <v>45228.375</v>
       </c>
       <c r="E200" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F200" t="s">
         <v>36</v>
@@ -19380,7 +19380,7 @@
         <v>36</v>
       </c>
       <c r="F204" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="G204">
         <v>2</v>
@@ -19564,7 +19564,7 @@
         <v>30</v>
       </c>
       <c r="F206" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="G206">
         <v>0</v>
@@ -19748,7 +19748,7 @@
         <v>35</v>
       </c>
       <c r="F208" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="G208">
         <v>0</v>
@@ -20113,7 +20113,7 @@
         <v>45235.375</v>
       </c>
       <c r="E212" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F212" t="s">
         <v>71</v>
@@ -20300,7 +20300,7 @@
         <v>81</v>
       </c>
       <c r="F214" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G214">
         <v>1</v>
@@ -20392,7 +20392,7 @@
         <v>61</v>
       </c>
       <c r="F215" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="G215">
         <v>1</v>
@@ -20757,7 +20757,7 @@
         <v>45242.375</v>
       </c>
       <c r="E219" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F219" t="s">
         <v>58</v>
@@ -20849,10 +20849,10 @@
         <v>45242.375</v>
       </c>
       <c r="E220" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F220" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G220">
         <v>1</v>
@@ -21125,7 +21125,7 @@
         <v>45242.375</v>
       </c>
       <c r="E223" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="F223" t="s">
         <v>63</v>
@@ -21404,7 +21404,7 @@
         <v>49</v>
       </c>
       <c r="F226" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G226">
         <v>2</v>
@@ -21493,7 +21493,7 @@
         <v>45248.375</v>
       </c>
       <c r="E227" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="F227" t="s">
         <v>42</v>
@@ -21585,7 +21585,7 @@
         <v>45248.375</v>
       </c>
       <c r="E228" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F228" t="s">
         <v>69</v>
@@ -21677,7 +21677,7 @@
         <v>45248.375</v>
       </c>
       <c r="E229" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F229" t="s">
         <v>33</v>
@@ -21861,7 +21861,7 @@
         <v>45248.375</v>
       </c>
       <c r="E231" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F231" t="s">
         <v>30</v>
@@ -22045,7 +22045,7 @@
         <v>45248.375</v>
       </c>
       <c r="E233" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F233" t="s">
         <v>83</v>
@@ -22137,7 +22137,7 @@
         <v>45248.375</v>
       </c>
       <c r="E234" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F234" t="s">
         <v>36</v>
@@ -22680,7 +22680,7 @@
         <v>238</v>
       </c>
       <c r="B240">
-        <v>7523400</v>
+        <v>7519605</v>
       </c>
       <c r="C240" t="s">
         <v>29</v>
@@ -22689,82 +22689,82 @@
         <v>45256.29166666666</v>
       </c>
       <c r="E240" t="s">
-        <v>34</v>
+        <v>55</v>
       </c>
       <c r="F240" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="G240">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H240">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I240">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J240">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K240" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="L240">
-        <v>1.571</v>
+        <v>2.3</v>
       </c>
       <c r="M240">
-        <v>3.75</v>
+        <v>2.9</v>
       </c>
       <c r="N240">
-        <v>4.75</v>
+        <v>3</v>
       </c>
       <c r="O240">
-        <v>1.5</v>
+        <v>2.3</v>
       </c>
       <c r="P240">
-        <v>4</v>
+        <v>2.9</v>
       </c>
       <c r="Q240">
-        <v>5.25</v>
+        <v>3</v>
       </c>
       <c r="R240">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="S240">
+        <v>2</v>
+      </c>
+      <c r="T240">
         <v>1.8</v>
       </c>
-      <c r="T240">
-        <v>2</v>
-      </c>
       <c r="U240">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="V240">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="W240">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="X240">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="Y240">
         <v>-1</v>
       </c>
       <c r="Z240">
-        <v>4.25</v>
+        <v>-1</v>
       </c>
       <c r="AA240">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB240">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC240">
         <v>-1</v>
       </c>
       <c r="AD240">
-        <v>0.7749999999999999</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="241" spans="1:30">
@@ -22772,7 +22772,7 @@
         <v>239</v>
       </c>
       <c r="B241">
-        <v>7519605</v>
+        <v>7523400</v>
       </c>
       <c r="C241" t="s">
         <v>29</v>
@@ -22781,82 +22781,82 @@
         <v>45256.29166666666</v>
       </c>
       <c r="E241" t="s">
-        <v>55</v>
+        <v>34</v>
       </c>
       <c r="F241" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="G241">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H241">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I241">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J241">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K241" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="L241">
-        <v>2.3</v>
+        <v>1.571</v>
       </c>
       <c r="M241">
-        <v>2.9</v>
+        <v>3.75</v>
       </c>
       <c r="N241">
-        <v>3</v>
+        <v>4.75</v>
       </c>
       <c r="O241">
-        <v>2.3</v>
+        <v>1.5</v>
       </c>
       <c r="P241">
-        <v>2.9</v>
+        <v>4</v>
       </c>
       <c r="Q241">
-        <v>3</v>
+        <v>5.25</v>
       </c>
       <c r="R241">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="S241">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="T241">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="U241">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="V241">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="W241">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="X241">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="Y241">
         <v>-1</v>
       </c>
       <c r="Z241">
-        <v>-1</v>
+        <v>4.25</v>
       </c>
       <c r="AA241">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB241">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC241">
         <v>-1</v>
       </c>
       <c r="AD241">
-        <v>0.95</v>
+        <v>0.7749999999999999</v>
       </c>
     </row>
     <row r="242" spans="1:30">
@@ -22956,7 +22956,7 @@
         <v>241</v>
       </c>
       <c r="B243">
-        <v>7519598</v>
+        <v>7519604</v>
       </c>
       <c r="C243" t="s">
         <v>29</v>
@@ -22965,16 +22965,16 @@
         <v>45256.375</v>
       </c>
       <c r="E243" t="s">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="F243" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="G243">
         <v>3</v>
       </c>
       <c r="H243">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I243">
         <v>1</v>
@@ -22986,34 +22986,34 @@
         <v>101</v>
       </c>
       <c r="L243">
-        <v>2.6</v>
+        <v>2.3</v>
       </c>
       <c r="M243">
-        <v>3.25</v>
+        <v>2.9</v>
       </c>
       <c r="N243">
-        <v>2.375</v>
+        <v>3</v>
       </c>
       <c r="O243">
-        <v>2.6</v>
+        <v>2</v>
       </c>
       <c r="P243">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="Q243">
-        <v>2.375</v>
+        <v>3.4</v>
       </c>
       <c r="R243">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="S243">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="T243">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="U243">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="V243">
         <v>1.9</v>
@@ -23022,7 +23022,7 @@
         <v>1.9</v>
       </c>
       <c r="X243">
-        <v>1.6</v>
+        <v>1</v>
       </c>
       <c r="Y243">
         <v>-1</v>
@@ -23031,16 +23031,16 @@
         <v>-1</v>
       </c>
       <c r="AA243">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AB243">
         <v>-1</v>
       </c>
       <c r="AC243">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AD243">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="244" spans="1:30">
@@ -23048,7 +23048,7 @@
         <v>242</v>
       </c>
       <c r="B244">
-        <v>7519604</v>
+        <v>7519598</v>
       </c>
       <c r="C244" t="s">
         <v>29</v>
@@ -23057,16 +23057,16 @@
         <v>45256.375</v>
       </c>
       <c r="E244" t="s">
-        <v>81</v>
+        <v>44</v>
       </c>
       <c r="F244" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="G244">
         <v>3</v>
       </c>
       <c r="H244">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I244">
         <v>1</v>
@@ -23078,34 +23078,34 @@
         <v>101</v>
       </c>
       <c r="L244">
-        <v>2.3</v>
+        <v>2.6</v>
       </c>
       <c r="M244">
-        <v>2.9</v>
+        <v>3.25</v>
       </c>
       <c r="N244">
-        <v>3</v>
+        <v>2.375</v>
       </c>
       <c r="O244">
-        <v>2</v>
+        <v>2.6</v>
       </c>
       <c r="P244">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="Q244">
-        <v>3.4</v>
+        <v>2.375</v>
       </c>
       <c r="R244">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="S244">
+        <v>2</v>
+      </c>
+      <c r="T244">
         <v>1.8</v>
       </c>
-      <c r="T244">
-        <v>2</v>
-      </c>
       <c r="U244">
-        <v>2.5</v>
+        <v>3.25</v>
       </c>
       <c r="V244">
         <v>1.9</v>
@@ -23114,7 +23114,7 @@
         <v>1.9</v>
       </c>
       <c r="X244">
-        <v>1</v>
+        <v>1.6</v>
       </c>
       <c r="Y244">
         <v>-1</v>
@@ -23123,16 +23123,16 @@
         <v>-1</v>
       </c>
       <c r="AA244">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AB244">
         <v>-1</v>
       </c>
       <c r="AC244">
-        <v>0.8999999999999999</v>
+        <v>-0.5</v>
       </c>
       <c r="AD244">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="245" spans="1:30">
@@ -23520,7 +23520,7 @@
         <v>83</v>
       </c>
       <c r="F249" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="G249">
         <v>0</v>
@@ -23606,7 +23606,7 @@
         <v>67</v>
       </c>
       <c r="F250" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G250">
         <v>2</v>
@@ -23686,7 +23686,7 @@
         <v>249</v>
       </c>
       <c r="B251">
-        <v>7907179</v>
+        <v>7907180</v>
       </c>
       <c r="C251" t="s">
         <v>29</v>
@@ -23695,16 +23695,16 @@
         <v>45354.29166666666</v>
       </c>
       <c r="E251" t="s">
-        <v>84</v>
+        <v>49</v>
       </c>
       <c r="F251" t="s">
-        <v>35</v>
+        <v>68</v>
       </c>
       <c r="G251">
         <v>0</v>
       </c>
       <c r="H251">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I251">
         <v>0</v>
@@ -23716,40 +23716,40 @@
         <v>100</v>
       </c>
       <c r="L251">
-        <v>2.25</v>
+        <v>2.4</v>
       </c>
       <c r="M251">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="N251">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="O251">
-        <v>2.05</v>
+        <v>2.4</v>
       </c>
       <c r="P251">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="Q251">
-        <v>2.8</v>
+        <v>2.4</v>
       </c>
       <c r="R251">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="S251">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="T251">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="U251">
         <v>3</v>
       </c>
       <c r="V251">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W251">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="X251">
         <v>-1</v>
@@ -23758,19 +23758,19 @@
         <v>-1</v>
       </c>
       <c r="Z251">
-        <v>1.8</v>
+        <v>1.4</v>
       </c>
       <c r="AA251">
         <v>-1</v>
       </c>
       <c r="AB251">
-        <v>0.925</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC251">
         <v>-1</v>
       </c>
       <c r="AD251">
-        <v>0.8</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="252" spans="1:30">
@@ -23778,7 +23778,7 @@
         <v>250</v>
       </c>
       <c r="B252">
-        <v>7907180</v>
+        <v>7907179</v>
       </c>
       <c r="C252" t="s">
         <v>29</v>
@@ -23787,16 +23787,16 @@
         <v>45354.29166666666</v>
       </c>
       <c r="E252" t="s">
-        <v>49</v>
+        <v>84</v>
       </c>
       <c r="F252" t="s">
-        <v>68</v>
+        <v>35</v>
       </c>
       <c r="G252">
         <v>0</v>
       </c>
       <c r="H252">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I252">
         <v>0</v>
@@ -23808,40 +23808,40 @@
         <v>100</v>
       </c>
       <c r="L252">
-        <v>2.4</v>
+        <v>2.25</v>
       </c>
       <c r="M252">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="N252">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="O252">
-        <v>2.4</v>
+        <v>2.05</v>
       </c>
       <c r="P252">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="Q252">
-        <v>2.4</v>
+        <v>2.8</v>
       </c>
       <c r="R252">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="S252">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="T252">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="U252">
         <v>3</v>
       </c>
       <c r="V252">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W252">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="X252">
         <v>-1</v>
@@ -23850,19 +23850,19 @@
         <v>-1</v>
       </c>
       <c r="Z252">
-        <v>1.4</v>
+        <v>1.8</v>
       </c>
       <c r="AA252">
         <v>-1</v>
       </c>
       <c r="AB252">
-        <v>0.8999999999999999</v>
+        <v>0.925</v>
       </c>
       <c r="AC252">
         <v>-1</v>
       </c>
       <c r="AD252">
-        <v>0.8999999999999999</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="253" spans="1:30">
@@ -23971,10 +23971,10 @@
         <v>45354.41666666666</v>
       </c>
       <c r="E254" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="F254" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="G254">
         <v>1</v>
@@ -24155,7 +24155,7 @@
         <v>45354.41666666666</v>
       </c>
       <c r="E256" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F256" t="s">
         <v>60</v>
@@ -24250,7 +24250,7 @@
         <v>53</v>
       </c>
       <c r="F257" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G257">
         <v>0</v>
@@ -24431,7 +24431,7 @@
         <v>45354.41666666666</v>
       </c>
       <c r="E259" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F259" t="s">
         <v>41</v>
@@ -24514,7 +24514,7 @@
         <v>258</v>
       </c>
       <c r="B260">
-        <v>7942418</v>
+        <v>7939232</v>
       </c>
       <c r="C260" t="s">
         <v>29</v>
@@ -24523,40 +24523,40 @@
         <v>45361.29166666666</v>
       </c>
       <c r="E260" t="s">
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="F260" t="s">
-        <v>57</v>
+        <v>88</v>
       </c>
       <c r="G260">
         <v>0</v>
       </c>
       <c r="H260">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I260">
         <v>0</v>
       </c>
       <c r="J260">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K260" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="L260">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="M260">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="N260">
         <v>2.6</v>
       </c>
       <c r="O260">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="P260">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="Q260">
         <v>2.6</v>
@@ -24565,16 +24565,16 @@
         <v>0</v>
       </c>
       <c r="S260">
-        <v>1.725</v>
+        <v>1.75</v>
       </c>
       <c r="T260">
-        <v>1.975</v>
+        <v>2.05</v>
       </c>
       <c r="U260">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="V260">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="W260">
         <v>1.95</v>
@@ -24583,16 +24583,16 @@
         <v>-1</v>
       </c>
       <c r="Y260">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Z260">
-        <v>1.6</v>
+        <v>-1</v>
       </c>
       <c r="AA260">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AB260">
-        <v>0.9750000000000001</v>
+        <v>0</v>
       </c>
       <c r="AC260">
         <v>-1</v>
@@ -24606,7 +24606,7 @@
         <v>259</v>
       </c>
       <c r="B261">
-        <v>7939232</v>
+        <v>7938809</v>
       </c>
       <c r="C261" t="s">
         <v>29</v>
@@ -24615,82 +24615,82 @@
         <v>45361.29166666666</v>
       </c>
       <c r="E261" t="s">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="F261" t="s">
-        <v>88</v>
+        <v>71</v>
       </c>
       <c r="G261">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H261">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I261">
         <v>0</v>
       </c>
       <c r="J261">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K261" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="L261">
-        <v>2.25</v>
+        <v>6.5</v>
       </c>
       <c r="M261">
-        <v>3.5</v>
+        <v>6.5</v>
       </c>
       <c r="N261">
-        <v>2.6</v>
+        <v>1.25</v>
       </c>
       <c r="O261">
-        <v>2.25</v>
+        <v>6.5</v>
       </c>
       <c r="P261">
-        <v>3.5</v>
+        <v>6.5</v>
       </c>
       <c r="Q261">
-        <v>2.6</v>
+        <v>1.25</v>
       </c>
       <c r="R261">
-        <v>0</v>
+        <v>1.75</v>
       </c>
       <c r="S261">
-        <v>1.75</v>
+        <v>1.975</v>
       </c>
       <c r="T261">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="U261">
         <v>3.25</v>
       </c>
       <c r="V261">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="W261">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="X261">
         <v>-1</v>
       </c>
       <c r="Y261">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Z261">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="AA261">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AB261">
-        <v>0</v>
+        <v>0.825</v>
       </c>
       <c r="AC261">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AD261">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="262" spans="1:30">
@@ -24698,7 +24698,7 @@
         <v>260</v>
       </c>
       <c r="B262">
-        <v>7938809</v>
+        <v>7938808</v>
       </c>
       <c r="C262" t="s">
         <v>29</v>
@@ -24707,61 +24707,61 @@
         <v>45361.29166666666</v>
       </c>
       <c r="E262" t="s">
-        <v>59</v>
+        <v>33</v>
       </c>
       <c r="F262" t="s">
-        <v>71</v>
+        <v>45</v>
       </c>
       <c r="G262">
         <v>1</v>
       </c>
       <c r="H262">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I262">
         <v>0</v>
       </c>
       <c r="J262">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K262" t="s">
         <v>100</v>
       </c>
       <c r="L262">
-        <v>6.5</v>
+        <v>2.25</v>
       </c>
       <c r="M262">
-        <v>6.5</v>
+        <v>3.5</v>
       </c>
       <c r="N262">
-        <v>1.25</v>
+        <v>2.6</v>
       </c>
       <c r="O262">
-        <v>6.5</v>
+        <v>2.25</v>
       </c>
       <c r="P262">
-        <v>6.5</v>
+        <v>3.5</v>
       </c>
       <c r="Q262">
-        <v>1.25</v>
+        <v>2.6</v>
       </c>
       <c r="R262">
+        <v>-0.25</v>
+      </c>
+      <c r="S262">
+        <v>1.95</v>
+      </c>
+      <c r="T262">
         <v>1.75</v>
       </c>
-      <c r="S262">
-        <v>1.975</v>
-      </c>
-      <c r="T262">
-        <v>1.825</v>
-      </c>
       <c r="U262">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="V262">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="W262">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="X262">
         <v>-1</v>
@@ -24770,16 +24770,16 @@
         <v>-1</v>
       </c>
       <c r="Z262">
-        <v>0.25</v>
+        <v>1.6</v>
       </c>
       <c r="AA262">
         <v>-1</v>
       </c>
       <c r="AB262">
-        <v>0.825</v>
+        <v>0.75</v>
       </c>
       <c r="AC262">
-        <v>0.8</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AD262">
         <v>-1</v>
@@ -24790,7 +24790,7 @@
         <v>261</v>
       </c>
       <c r="B263">
-        <v>7938808</v>
+        <v>7942418</v>
       </c>
       <c r="C263" t="s">
         <v>29</v>
@@ -24799,58 +24799,58 @@
         <v>45361.29166666666</v>
       </c>
       <c r="E263" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="F263" t="s">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="G263">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H263">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I263">
         <v>0</v>
       </c>
       <c r="J263">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K263" t="s">
         <v>100</v>
       </c>
       <c r="L263">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="M263">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="N263">
         <v>2.6</v>
       </c>
       <c r="O263">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="P263">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="Q263">
         <v>2.6</v>
       </c>
       <c r="R263">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="S263">
-        <v>1.95</v>
+        <v>1.725</v>
       </c>
       <c r="T263">
+        <v>1.975</v>
+      </c>
+      <c r="U263">
+        <v>2.75</v>
+      </c>
+      <c r="V263">
         <v>1.75</v>
-      </c>
-      <c r="U263">
-        <v>3</v>
-      </c>
-      <c r="V263">
-        <v>1.85</v>
       </c>
       <c r="W263">
         <v>1.95</v>
@@ -24868,13 +24868,13 @@
         <v>-1</v>
       </c>
       <c r="AB263">
-        <v>0.75</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC263">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AD263">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="264" spans="1:30">
@@ -25078,7 +25078,7 @@
         <v>67</v>
       </c>
       <c r="F266" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="G266">
         <v>0</v>
@@ -25170,7 +25170,7 @@
         <v>74</v>
       </c>
       <c r="F267" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G267">
         <v>1</v>
@@ -25354,7 +25354,7 @@
         <v>41</v>
       </c>
       <c r="F269" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="G269">
         <v>1</v>
@@ -25538,7 +25538,7 @@
         <v>37</v>
       </c>
       <c r="F271" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G271">
         <v>0</v>
@@ -25811,7 +25811,7 @@
         <v>45361.41666666666</v>
       </c>
       <c r="E274" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F274" t="s">
         <v>81</v>
@@ -26363,7 +26363,7 @@
         <v>45368.41666666666</v>
       </c>
       <c r="E280" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="F280" t="s">
         <v>93</v>
@@ -26731,7 +26731,7 @@
         <v>45368.41666666666</v>
       </c>
       <c r="E284" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F284" t="s">
         <v>59</v>
@@ -26915,10 +26915,10 @@
         <v>45368.41666666666</v>
       </c>
       <c r="E286" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="F286" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G286">
         <v>0</v>
@@ -27099,7 +27099,7 @@
         <v>45368.41666666666</v>
       </c>
       <c r="E288" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F288" t="s">
         <v>72</v>
@@ -27654,7 +27654,7 @@
         <v>67</v>
       </c>
       <c r="F294" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G294">
         <v>3</v>
@@ -27746,7 +27746,7 @@
         <v>55</v>
       </c>
       <c r="F295" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="G295">
         <v>4</v>
@@ -27835,7 +27835,7 @@
         <v>45375.41666666666</v>
       </c>
       <c r="E296" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="F296" t="s">
         <v>45</v>
@@ -28019,7 +28019,7 @@
         <v>45375.41666666666</v>
       </c>
       <c r="E298" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F298" t="s">
         <v>60</v>
@@ -28114,7 +28114,7 @@
         <v>42</v>
       </c>
       <c r="F299" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G299">
         <v>2</v>
@@ -28203,10 +28203,10 @@
         <v>45375.41666666666</v>
       </c>
       <c r="E300" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F300" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="G300">
         <v>2</v>
@@ -28286,7 +28286,7 @@
         <v>299</v>
       </c>
       <c r="B301">
-        <v>8001729</v>
+        <v>8001730</v>
       </c>
       <c r="C301" t="s">
         <v>29</v>
@@ -28295,79 +28295,79 @@
         <v>45375.41666666666</v>
       </c>
       <c r="E301" t="s">
-        <v>38</v>
+        <v>63</v>
       </c>
       <c r="F301" t="s">
-        <v>91</v>
+        <v>31</v>
       </c>
       <c r="G301">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H301">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I301">
         <v>1</v>
       </c>
       <c r="J301">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K301" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="L301">
-        <v>1.333</v>
+        <v>3.4</v>
       </c>
       <c r="M301">
-        <v>5</v>
+        <v>3.4</v>
       </c>
       <c r="N301">
-        <v>6</v>
+        <v>1.909</v>
       </c>
       <c r="O301">
-        <v>1.333</v>
+        <v>3.4</v>
       </c>
       <c r="P301">
-        <v>5</v>
+        <v>3.4</v>
       </c>
       <c r="Q301">
-        <v>6.5</v>
+        <v>1.909</v>
       </c>
       <c r="R301">
-        <v>-1.5</v>
+        <v>0.5</v>
       </c>
       <c r="S301">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="T301">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="U301">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="V301">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="W301">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="X301">
         <v>-1</v>
       </c>
       <c r="Y301">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="Z301">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="AA301">
         <v>-1</v>
       </c>
       <c r="AB301">
-        <v>0.8999999999999999</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC301">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AD301">
         <v>-1</v>
@@ -28378,7 +28378,7 @@
         <v>300</v>
       </c>
       <c r="B302">
-        <v>8001730</v>
+        <v>8001727</v>
       </c>
       <c r="C302" t="s">
         <v>29</v>
@@ -28387,79 +28387,79 @@
         <v>45375.41666666666</v>
       </c>
       <c r="E302" t="s">
-        <v>63</v>
+        <v>44</v>
       </c>
       <c r="F302" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="G302">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H302">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I302">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J302">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K302" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="L302">
-        <v>3.4</v>
+        <v>1.909</v>
       </c>
       <c r="M302">
         <v>3.4</v>
       </c>
       <c r="N302">
+        <v>3.4</v>
+      </c>
+      <c r="O302">
         <v>1.909</v>
-      </c>
-      <c r="O302">
-        <v>3.4</v>
       </c>
       <c r="P302">
         <v>3.4</v>
       </c>
       <c r="Q302">
-        <v>1.909</v>
+        <v>3.4</v>
       </c>
       <c r="R302">
-        <v>0.5</v>
+        <v>-0.5</v>
       </c>
       <c r="S302">
+        <v>1.975</v>
+      </c>
+      <c r="T302">
         <v>1.825</v>
-      </c>
-      <c r="T302">
-        <v>1.975</v>
       </c>
       <c r="U302">
         <v>2.5</v>
       </c>
       <c r="V302">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="W302">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="X302">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="Y302">
         <v>-1</v>
       </c>
       <c r="Z302">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="AA302">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB302">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC302">
-        <v>0.8</v>
+        <v>0.825</v>
       </c>
       <c r="AD302">
         <v>-1</v>
@@ -28470,7 +28470,7 @@
         <v>301</v>
       </c>
       <c r="B303">
-        <v>8001724</v>
+        <v>8001729</v>
       </c>
       <c r="C303" t="s">
         <v>29</v>
@@ -28479,82 +28479,82 @@
         <v>45375.41666666666</v>
       </c>
       <c r="E303" t="s">
-        <v>65</v>
+        <v>38</v>
       </c>
       <c r="F303" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="G303">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H303">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I303">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J303">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K303" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="L303">
-        <v>1.363</v>
+        <v>1.333</v>
       </c>
       <c r="M303">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="N303">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="O303">
-        <v>1.363</v>
+        <v>1.333</v>
       </c>
       <c r="P303">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="Q303">
         <v>6.5</v>
       </c>
       <c r="R303">
-        <v>-1.25</v>
+        <v>-1.5</v>
       </c>
       <c r="S303">
-        <v>1.75</v>
+        <v>1.9</v>
       </c>
       <c r="T303">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="U303">
         <v>3</v>
       </c>
       <c r="V303">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W303">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="X303">
         <v>-1</v>
       </c>
       <c r="Y303">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="Z303">
-        <v>5.5</v>
+        <v>-1</v>
       </c>
       <c r="AA303">
         <v>-1</v>
       </c>
       <c r="AB303">
-        <v>0.95</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC303">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AD303">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="304" spans="1:30">
@@ -28562,7 +28562,7 @@
         <v>302</v>
       </c>
       <c r="B304">
-        <v>8001725</v>
+        <v>8001724</v>
       </c>
       <c r="C304" t="s">
         <v>29</v>
@@ -28571,82 +28571,82 @@
         <v>45375.41666666666</v>
       </c>
       <c r="E304" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="F304" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="G304">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H304">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I304">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J304">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K304" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="L304">
-        <v>2.1</v>
+        <v>1.363</v>
       </c>
       <c r="M304">
-        <v>3.4</v>
+        <v>4.5</v>
       </c>
       <c r="N304">
-        <v>2.875</v>
+        <v>6.5</v>
       </c>
       <c r="O304">
-        <v>1.833</v>
+        <v>1.363</v>
       </c>
       <c r="P304">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="Q304">
-        <v>3.5</v>
+        <v>6.5</v>
       </c>
       <c r="R304">
-        <v>-0.5</v>
+        <v>-1.25</v>
       </c>
       <c r="S304">
-        <v>1.9</v>
+        <v>1.75</v>
       </c>
       <c r="T304">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="U304">
         <v>3</v>
       </c>
       <c r="V304">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W304">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="X304">
-        <v>0.833</v>
+        <v>-1</v>
       </c>
       <c r="Y304">
         <v>-1</v>
       </c>
       <c r="Z304">
-        <v>-1</v>
+        <v>5.5</v>
       </c>
       <c r="AA304">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB304">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC304">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AD304">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="305" spans="1:30">
@@ -28654,7 +28654,7 @@
         <v>303</v>
       </c>
       <c r="B305">
-        <v>8001727</v>
+        <v>8001825</v>
       </c>
       <c r="C305" t="s">
         <v>29</v>
@@ -28663,13 +28663,13 @@
         <v>45375.41666666666</v>
       </c>
       <c r="E305" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="F305" t="s">
-        <v>34</v>
+        <v>50</v>
       </c>
       <c r="G305">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H305">
         <v>1</v>
@@ -28681,64 +28681,64 @@
         <v>1</v>
       </c>
       <c r="K305" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="L305">
-        <v>1.909</v>
+        <v>2.625</v>
       </c>
       <c r="M305">
+        <v>3.5</v>
+      </c>
+      <c r="N305">
+        <v>2.25</v>
+      </c>
+      <c r="O305">
         <v>3.4</v>
       </c>
-      <c r="N305">
-        <v>3.4</v>
-      </c>
-      <c r="O305">
-        <v>1.909</v>
-      </c>
       <c r="P305">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="Q305">
-        <v>3.4</v>
+        <v>1.85</v>
       </c>
       <c r="R305">
-        <v>-0.5</v>
+        <v>0.5</v>
       </c>
       <c r="S305">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="T305">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="U305">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="V305">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="W305">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="X305">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="Y305">
         <v>-1</v>
       </c>
       <c r="Z305">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA305">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB305">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC305">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AD305">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="306" spans="1:30">
@@ -28746,7 +28746,7 @@
         <v>304</v>
       </c>
       <c r="B306">
-        <v>8001825</v>
+        <v>8001725</v>
       </c>
       <c r="C306" t="s">
         <v>29</v>
@@ -28755,46 +28755,46 @@
         <v>45375.41666666666</v>
       </c>
       <c r="E306" t="s">
-        <v>41</v>
+        <v>74</v>
       </c>
       <c r="F306" t="s">
-        <v>48</v>
+        <v>78</v>
       </c>
       <c r="G306">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H306">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I306">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J306">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K306" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="L306">
-        <v>2.625</v>
+        <v>2.1</v>
       </c>
       <c r="M306">
+        <v>3.4</v>
+      </c>
+      <c r="N306">
+        <v>2.875</v>
+      </c>
+      <c r="O306">
+        <v>1.833</v>
+      </c>
+      <c r="P306">
         <v>3.5</v>
       </c>
-      <c r="N306">
-        <v>2.25</v>
-      </c>
-      <c r="O306">
-        <v>3.4</v>
-      </c>
-      <c r="P306">
-        <v>3.6</v>
-      </c>
       <c r="Q306">
-        <v>1.85</v>
+        <v>3.5</v>
       </c>
       <c r="R306">
-        <v>0.5</v>
+        <v>-0.5</v>
       </c>
       <c r="S306">
         <v>1.9</v>
@@ -28806,31 +28806,31 @@
         <v>3</v>
       </c>
       <c r="V306">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="W306">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="X306">
-        <v>-1</v>
+        <v>0.833</v>
       </c>
       <c r="Y306">
         <v>-1</v>
       </c>
       <c r="Z306">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA306">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB306">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC306">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AD306">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="307" spans="1:30">
@@ -28930,7 +28930,7 @@
         <v>306</v>
       </c>
       <c r="B308">
-        <v>8030692</v>
+        <v>8030795</v>
       </c>
       <c r="C308" t="s">
         <v>29</v>
@@ -28939,19 +28939,19 @@
         <v>45382.25</v>
       </c>
       <c r="E308" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="F308" t="s">
-        <v>38</v>
+        <v>98</v>
       </c>
       <c r="G308">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H308">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I308">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J308">
         <v>1</v>
@@ -28960,40 +28960,40 @@
         <v>100</v>
       </c>
       <c r="L308">
-        <v>6</v>
+        <v>1.444</v>
       </c>
       <c r="M308">
-        <v>5</v>
+        <v>4.2</v>
       </c>
       <c r="N308">
-        <v>1.333</v>
+        <v>5.5</v>
       </c>
       <c r="O308">
-        <v>6</v>
+        <v>1.444</v>
       </c>
       <c r="P308">
-        <v>5</v>
+        <v>4.2</v>
       </c>
       <c r="Q308">
-        <v>1.333</v>
+        <v>5.5</v>
       </c>
       <c r="R308">
-        <v>1.5</v>
+        <v>-1.25</v>
       </c>
       <c r="S308">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="T308">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="U308">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="V308">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="W308">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="X308">
         <v>-1</v>
@@ -29002,19 +29002,19 @@
         <v>-1</v>
       </c>
       <c r="Z308">
-        <v>0.333</v>
+        <v>4.5</v>
       </c>
       <c r="AA308">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB308">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC308">
         <v>-1</v>
       </c>
       <c r="AD308">
-        <v>0.8999999999999999</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="309" spans="1:30">
@@ -29022,7 +29022,7 @@
         <v>307</v>
       </c>
       <c r="B309">
-        <v>8030797</v>
+        <v>8030750</v>
       </c>
       <c r="C309" t="s">
         <v>29</v>
@@ -29031,82 +29031,82 @@
         <v>45382.25</v>
       </c>
       <c r="E309" t="s">
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="F309" t="s">
-        <v>46</v>
+        <v>76</v>
       </c>
       <c r="G309">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H309">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I309">
         <v>0</v>
       </c>
       <c r="J309">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K309" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="L309">
-        <v>2</v>
+        <v>4.75</v>
       </c>
       <c r="M309">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="N309">
-        <v>3</v>
+        <v>1.533</v>
       </c>
       <c r="O309">
-        <v>2</v>
+        <v>4.75</v>
       </c>
       <c r="P309">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="Q309">
-        <v>3</v>
+        <v>1.533</v>
       </c>
       <c r="R309">
-        <v>-0.25</v>
+        <v>1</v>
       </c>
       <c r="S309">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="T309">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="U309">
         <v>3</v>
       </c>
       <c r="V309">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="W309">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="X309">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Y309">
         <v>-1</v>
       </c>
       <c r="Z309">
-        <v>-1</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="AA309">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB309">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC309">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AD309">
-        <v>0.825</v>
+        <v>0</v>
       </c>
     </row>
     <row r="310" spans="1:30">
@@ -29114,7 +29114,7 @@
         <v>308</v>
       </c>
       <c r="B310">
-        <v>8030795</v>
+        <v>8030749</v>
       </c>
       <c r="C310" t="s">
         <v>29</v>
@@ -29123,82 +29123,82 @@
         <v>45382.25</v>
       </c>
       <c r="E310" t="s">
-        <v>31</v>
+        <v>75</v>
       </c>
       <c r="F310" t="s">
-        <v>98</v>
+        <v>83</v>
       </c>
       <c r="G310">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H310">
         <v>1</v>
       </c>
       <c r="I310">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J310">
         <v>1</v>
       </c>
       <c r="K310" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="L310">
-        <v>1.444</v>
+        <v>1.571</v>
       </c>
       <c r="M310">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="N310">
-        <v>5.5</v>
+        <v>4.333</v>
       </c>
       <c r="O310">
-        <v>1.444</v>
+        <v>1.571</v>
       </c>
       <c r="P310">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="Q310">
-        <v>5.5</v>
+        <v>4.333</v>
       </c>
       <c r="R310">
-        <v>-1.25</v>
+        <v>-0.75</v>
       </c>
       <c r="S310">
-        <v>1.9</v>
+        <v>1.75</v>
       </c>
       <c r="T310">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="U310">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="V310">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="W310">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="X310">
         <v>-1</v>
       </c>
       <c r="Y310">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Z310">
-        <v>4.5</v>
+        <v>-1</v>
       </c>
       <c r="AA310">
         <v>-1</v>
       </c>
       <c r="AB310">
-        <v>0.8999999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="AC310">
         <v>-1</v>
       </c>
       <c r="AD310">
-        <v>0.925</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="311" spans="1:30">
@@ -29206,7 +29206,7 @@
         <v>309</v>
       </c>
       <c r="B311">
-        <v>8030750</v>
+        <v>8030693</v>
       </c>
       <c r="C311" t="s">
         <v>29</v>
@@ -29215,82 +29215,82 @@
         <v>45382.25</v>
       </c>
       <c r="E311" t="s">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="F311" t="s">
-        <v>76</v>
+        <v>89</v>
       </c>
       <c r="G311">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H311">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I311">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J311">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K311" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="L311">
-        <v>4.75</v>
+        <v>3.5</v>
       </c>
       <c r="M311">
         <v>4</v>
       </c>
       <c r="N311">
-        <v>1.533</v>
+        <v>1.727</v>
       </c>
       <c r="O311">
-        <v>4.75</v>
+        <v>3.5</v>
       </c>
       <c r="P311">
         <v>4</v>
       </c>
       <c r="Q311">
-        <v>1.533</v>
+        <v>1.727</v>
       </c>
       <c r="R311">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="S311">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="T311">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="U311">
         <v>3</v>
       </c>
       <c r="V311">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="W311">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="X311">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y311">
         <v>-1</v>
       </c>
       <c r="Z311">
-        <v>0.5329999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA311">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB311">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC311">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="AD311">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="312" spans="1:30">
@@ -29298,7 +29298,7 @@
         <v>310</v>
       </c>
       <c r="B312">
-        <v>8030749</v>
+        <v>8030692</v>
       </c>
       <c r="C312" t="s">
         <v>29</v>
@@ -29307,16 +29307,16 @@
         <v>45382.25</v>
       </c>
       <c r="E312" t="s">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="F312" t="s">
-        <v>83</v>
+        <v>38</v>
       </c>
       <c r="G312">
         <v>1</v>
       </c>
       <c r="H312">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I312">
         <v>1</v>
@@ -29325,64 +29325,64 @@
         <v>1</v>
       </c>
       <c r="K312" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="L312">
-        <v>1.571</v>
+        <v>6</v>
       </c>
       <c r="M312">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N312">
-        <v>4.333</v>
+        <v>1.333</v>
       </c>
       <c r="O312">
-        <v>1.571</v>
+        <v>6</v>
       </c>
       <c r="P312">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Q312">
-        <v>4.333</v>
+        <v>1.333</v>
       </c>
       <c r="R312">
-        <v>-0.75</v>
+        <v>1.5</v>
       </c>
       <c r="S312">
-        <v>1.75</v>
+        <v>1.95</v>
       </c>
       <c r="T312">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="U312">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="V312">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="W312">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="X312">
         <v>-1</v>
       </c>
       <c r="Y312">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Z312">
-        <v>-1</v>
+        <v>0.333</v>
       </c>
       <c r="AA312">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB312">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AC312">
         <v>-1</v>
       </c>
       <c r="AD312">
-        <v>0.8500000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="313" spans="1:30">
@@ -29390,7 +29390,7 @@
         <v>311</v>
       </c>
       <c r="B313">
-        <v>8030693</v>
+        <v>8030797</v>
       </c>
       <c r="C313" t="s">
         <v>29</v>
@@ -29399,19 +29399,19 @@
         <v>45382.25</v>
       </c>
       <c r="E313" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="F313" t="s">
-        <v>89</v>
+        <v>46</v>
       </c>
       <c r="G313">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H313">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I313">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J313">
         <v>0</v>
@@ -29420,43 +29420,43 @@
         <v>101</v>
       </c>
       <c r="L313">
-        <v>3.5</v>
+        <v>2</v>
       </c>
       <c r="M313">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="N313">
-        <v>1.727</v>
+        <v>3</v>
       </c>
       <c r="O313">
-        <v>3.5</v>
+        <v>2</v>
       </c>
       <c r="P313">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="Q313">
-        <v>1.727</v>
+        <v>3</v>
       </c>
       <c r="R313">
-        <v>0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="S313">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="T313">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="U313">
         <v>3</v>
       </c>
       <c r="V313">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="W313">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="X313">
-        <v>2.5</v>
+        <v>1</v>
       </c>
       <c r="Y313">
         <v>-1</v>
@@ -29465,16 +29465,16 @@
         <v>-1</v>
       </c>
       <c r="AA313">
+        <v>0.8</v>
+      </c>
+      <c r="AB313">
+        <v>-1</v>
+      </c>
+      <c r="AC313">
+        <v>-1</v>
+      </c>
+      <c r="AD313">
         <v>0.825</v>
-      </c>
-      <c r="AB313">
-        <v>-1</v>
-      </c>
-      <c r="AC313">
-        <v>0.8</v>
-      </c>
-      <c r="AD313">
-        <v>-1</v>
       </c>
     </row>
     <row r="314" spans="1:30">
@@ -29666,7 +29666,7 @@
         <v>314</v>
       </c>
       <c r="B316">
-        <v>8030792</v>
+        <v>8030794</v>
       </c>
       <c r="C316" t="s">
         <v>29</v>
@@ -29675,19 +29675,19 @@
         <v>45382.45833333334</v>
       </c>
       <c r="E316" t="s">
-        <v>35</v>
+        <v>85</v>
       </c>
       <c r="F316" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="G316">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H316">
         <v>0</v>
       </c>
       <c r="I316">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J316">
         <v>0</v>
@@ -29696,43 +29696,43 @@
         <v>101</v>
       </c>
       <c r="L316">
-        <v>1.833</v>
+        <v>5.5</v>
       </c>
       <c r="M316">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="N316">
-        <v>3.4</v>
+        <v>1.444</v>
       </c>
       <c r="O316">
-        <v>1.833</v>
+        <v>5.75</v>
       </c>
       <c r="P316">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="Q316">
-        <v>3.4</v>
+        <v>1.444</v>
       </c>
       <c r="R316">
-        <v>-0.5</v>
+        <v>1.25</v>
       </c>
       <c r="S316">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="T316">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="U316">
         <v>3</v>
       </c>
       <c r="V316">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="W316">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="X316">
-        <v>0.833</v>
+        <v>4.75</v>
       </c>
       <c r="Y316">
         <v>-1</v>
@@ -29741,16 +29741,16 @@
         <v>-1</v>
       </c>
       <c r="AA316">
-        <v>0.875</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB316">
         <v>-1</v>
       </c>
       <c r="AC316">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AD316">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="317" spans="1:30">
@@ -29758,7 +29758,7 @@
         <v>315</v>
       </c>
       <c r="B317">
-        <v>8030793</v>
+        <v>8030792</v>
       </c>
       <c r="C317" t="s">
         <v>29</v>
@@ -29767,19 +29767,19 @@
         <v>45382.45833333334</v>
       </c>
       <c r="E317" t="s">
-        <v>85</v>
+        <v>35</v>
       </c>
       <c r="F317" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="G317">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H317">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I317">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J317">
         <v>0</v>
@@ -29788,43 +29788,43 @@
         <v>101</v>
       </c>
       <c r="L317">
-        <v>2.15</v>
+        <v>1.833</v>
       </c>
       <c r="M317">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="N317">
-        <v>2.625</v>
+        <v>3.4</v>
       </c>
       <c r="O317">
-        <v>2.15</v>
+        <v>1.833</v>
       </c>
       <c r="P317">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="Q317">
-        <v>2.625</v>
+        <v>3.4</v>
       </c>
       <c r="R317">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="S317">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="T317">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="U317">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="V317">
+        <v>1.95</v>
+      </c>
+      <c r="W317">
         <v>1.85</v>
       </c>
-      <c r="W317">
-        <v>1.95</v>
-      </c>
       <c r="X317">
-        <v>1.15</v>
+        <v>0.833</v>
       </c>
       <c r="Y317">
         <v>-1</v>
@@ -29833,13 +29833,13 @@
         <v>-1</v>
       </c>
       <c r="AA317">
-        <v>0.9750000000000001</v>
+        <v>0.875</v>
       </c>
       <c r="AB317">
         <v>-1</v>
       </c>
       <c r="AC317">
-        <v>0.8500000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="AD317">
         <v>-1</v>
@@ -29850,7 +29850,7 @@
         <v>316</v>
       </c>
       <c r="B318">
-        <v>8030794</v>
+        <v>8030756</v>
       </c>
       <c r="C318" t="s">
         <v>29</v>
@@ -29859,82 +29859,82 @@
         <v>45382.45833333334</v>
       </c>
       <c r="E318" t="s">
-        <v>86</v>
+        <v>50</v>
       </c>
       <c r="F318" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="G318">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H318">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I318">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J318">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K318" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="L318">
-        <v>5.5</v>
+        <v>2.1</v>
       </c>
       <c r="M318">
-        <v>4.2</v>
+        <v>3.75</v>
       </c>
       <c r="N318">
-        <v>1.444</v>
+        <v>2.7</v>
       </c>
       <c r="O318">
-        <v>5.75</v>
+        <v>2.25</v>
       </c>
       <c r="P318">
-        <v>4.2</v>
+        <v>3.75</v>
       </c>
       <c r="Q318">
-        <v>1.444</v>
+        <v>2.55</v>
       </c>
       <c r="R318">
-        <v>1.25</v>
+        <v>0</v>
       </c>
       <c r="S318">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="T318">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="U318">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="V318">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="W318">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="X318">
-        <v>4.75</v>
+        <v>-1</v>
       </c>
       <c r="Y318">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Z318">
         <v>-1</v>
       </c>
       <c r="AA318">
-        <v>0.8999999999999999</v>
+        <v>0</v>
       </c>
       <c r="AB318">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC318">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AD318">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="319" spans="1:30">
@@ -29942,7 +29942,7 @@
         <v>317</v>
       </c>
       <c r="B319">
-        <v>8030756</v>
+        <v>8030793</v>
       </c>
       <c r="C319" t="s">
         <v>29</v>
@@ -29951,52 +29951,52 @@
         <v>45382.45833333334</v>
       </c>
       <c r="E319" t="s">
-        <v>48</v>
+        <v>86</v>
       </c>
       <c r="F319" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="G319">
         <v>3</v>
       </c>
       <c r="H319">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I319">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J319">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K319" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="L319">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="M319">
         <v>3.75</v>
       </c>
       <c r="N319">
-        <v>2.7</v>
+        <v>2.625</v>
       </c>
       <c r="O319">
-        <v>2.25</v>
+        <v>2.15</v>
       </c>
       <c r="P319">
         <v>3.75</v>
       </c>
       <c r="Q319">
-        <v>2.55</v>
+        <v>2.625</v>
       </c>
       <c r="R319">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="S319">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="T319">
-        <v>2.025</v>
+        <v>1.825</v>
       </c>
       <c r="U319">
         <v>3.25</v>
@@ -30008,19 +30008,19 @@
         <v>1.95</v>
       </c>
       <c r="X319">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="Y319">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Z319">
         <v>-1</v>
       </c>
       <c r="AA319">
-        <v>0</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB319">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC319">
         <v>0.8500000000000001</v>
@@ -30034,7 +30034,7 @@
         <v>318</v>
       </c>
       <c r="B320">
-        <v>8030796</v>
+        <v>8030799</v>
       </c>
       <c r="C320" t="s">
         <v>29</v>
@@ -30043,10 +30043,10 @@
         <v>45382.45833333334</v>
       </c>
       <c r="E320" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="F320" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="G320">
         <v>1</v>
@@ -30058,40 +30058,40 @@
         <v>1</v>
       </c>
       <c r="J320">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K320" t="s">
         <v>102</v>
       </c>
       <c r="L320">
-        <v>2.25</v>
+        <v>2.1</v>
       </c>
       <c r="M320">
         <v>3.4</v>
       </c>
       <c r="N320">
-        <v>2.625</v>
+        <v>2.9</v>
       </c>
       <c r="O320">
-        <v>2.25</v>
+        <v>2.1</v>
       </c>
       <c r="P320">
         <v>3.4</v>
       </c>
       <c r="Q320">
-        <v>2.625</v>
+        <v>2.9</v>
       </c>
       <c r="R320">
         <v>-0.25</v>
       </c>
       <c r="S320">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="T320">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="U320">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="V320">
         <v>1.95</v>
@@ -30112,7 +30112,7 @@
         <v>-0.5</v>
       </c>
       <c r="AB320">
-        <v>0.3875</v>
+        <v>0.45</v>
       </c>
       <c r="AC320">
         <v>-1</v>
@@ -30126,7 +30126,7 @@
         <v>319</v>
       </c>
       <c r="B321">
-        <v>8030799</v>
+        <v>8030796</v>
       </c>
       <c r="C321" t="s">
         <v>29</v>
@@ -30135,10 +30135,10 @@
         <v>45382.45833333334</v>
       </c>
       <c r="E321" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="F321" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="G321">
         <v>1</v>
@@ -30150,40 +30150,40 @@
         <v>1</v>
       </c>
       <c r="J321">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K321" t="s">
         <v>102</v>
       </c>
       <c r="L321">
-        <v>2.1</v>
+        <v>2.25</v>
       </c>
       <c r="M321">
         <v>3.4</v>
       </c>
       <c r="N321">
-        <v>2.9</v>
+        <v>2.625</v>
       </c>
       <c r="O321">
-        <v>2.1</v>
+        <v>2.25</v>
       </c>
       <c r="P321">
         <v>3.4</v>
       </c>
       <c r="Q321">
-        <v>2.9</v>
+        <v>2.625</v>
       </c>
       <c r="R321">
         <v>-0.25</v>
       </c>
       <c r="S321">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="T321">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="U321">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="V321">
         <v>1.95</v>
@@ -30204,7 +30204,7 @@
         <v>-0.5</v>
       </c>
       <c r="AB321">
-        <v>0.45</v>
+        <v>0.3875</v>
       </c>
       <c r="AC321">
         <v>-1</v>
@@ -30506,7 +30506,7 @@
         <v>45</v>
       </c>
       <c r="F325" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G325">
         <v>0</v>
@@ -30586,7 +30586,7 @@
         <v>324</v>
       </c>
       <c r="B326">
-        <v>8061110</v>
+        <v>8064706</v>
       </c>
       <c r="C326" t="s">
         <v>29</v>
@@ -30595,82 +30595,82 @@
         <v>45389.25</v>
       </c>
       <c r="E326" t="s">
-        <v>32</v>
+        <v>65</v>
       </c>
       <c r="F326" t="s">
-        <v>31</v>
+        <v>91</v>
       </c>
       <c r="G326">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H326">
         <v>1</v>
       </c>
       <c r="I326">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J326">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K326" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="L326">
-        <v>3.3</v>
+        <v>2.55</v>
       </c>
       <c r="M326">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="N326">
-        <v>1.869</v>
+        <v>2.3</v>
       </c>
       <c r="O326">
-        <v>3.3</v>
+        <v>2.55</v>
       </c>
       <c r="P326">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="Q326">
-        <v>1.85</v>
+        <v>2.3</v>
       </c>
       <c r="R326">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="S326">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="T326">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="U326">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="V326">
-        <v>1.875</v>
+        <v>1.75</v>
       </c>
       <c r="W326">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="X326">
-        <v>-1</v>
+        <v>1.55</v>
       </c>
       <c r="Y326">
         <v>-1</v>
       </c>
       <c r="Z326">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA326">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB326">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC326">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AD326">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="327" spans="1:30">
@@ -30678,7 +30678,7 @@
         <v>325</v>
       </c>
       <c r="B327">
-        <v>8061113</v>
+        <v>8061110</v>
       </c>
       <c r="C327" t="s">
         <v>29</v>
@@ -30687,52 +30687,52 @@
         <v>45389.25</v>
       </c>
       <c r="E327" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F327" t="s">
-        <v>57</v>
+        <v>31</v>
       </c>
       <c r="G327">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H327">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I327">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J327">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K327" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="L327">
-        <v>1.727</v>
+        <v>3.3</v>
       </c>
       <c r="M327">
         <v>3.6</v>
       </c>
       <c r="N327">
-        <v>3.8</v>
+        <v>1.869</v>
       </c>
       <c r="O327">
-        <v>1.727</v>
+        <v>3.3</v>
       </c>
       <c r="P327">
         <v>3.6</v>
       </c>
       <c r="Q327">
-        <v>3.8</v>
+        <v>1.85</v>
       </c>
       <c r="R327">
-        <v>-0.5</v>
+        <v>0.5</v>
       </c>
       <c r="S327">
-        <v>1.75</v>
+        <v>1.875</v>
       </c>
       <c r="T327">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="U327">
         <v>2.75</v>
@@ -30747,22 +30747,22 @@
         <v>-1</v>
       </c>
       <c r="Y327">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Z327">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA327">
         <v>-1</v>
       </c>
       <c r="AB327">
-        <v>0.95</v>
+        <v>0.925</v>
       </c>
       <c r="AC327">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AD327">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="328" spans="1:30">
@@ -30770,7 +30770,7 @@
         <v>326</v>
       </c>
       <c r="B328">
-        <v>8061283</v>
+        <v>8061113</v>
       </c>
       <c r="C328" t="s">
         <v>29</v>
@@ -30779,13 +30779,13 @@
         <v>45389.25</v>
       </c>
       <c r="E328" t="s">
-        <v>72</v>
+        <v>33</v>
       </c>
       <c r="F328" t="s">
-        <v>76</v>
+        <v>56</v>
       </c>
       <c r="G328">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H328">
         <v>2</v>
@@ -30794,67 +30794,67 @@
         <v>1</v>
       </c>
       <c r="J328">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K328" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="L328">
-        <v>8.5</v>
+        <v>1.727</v>
       </c>
       <c r="M328">
-        <v>5.5</v>
+        <v>3.6</v>
       </c>
       <c r="N328">
-        <v>1.222</v>
+        <v>3.8</v>
       </c>
       <c r="O328">
-        <v>19</v>
+        <v>1.727</v>
       </c>
       <c r="P328">
-        <v>7</v>
+        <v>3.6</v>
       </c>
       <c r="Q328">
-        <v>1.125</v>
+        <v>3.8</v>
       </c>
       <c r="R328">
-        <v>2.25</v>
+        <v>-0.5</v>
       </c>
       <c r="S328">
-        <v>1.975</v>
+        <v>1.75</v>
       </c>
       <c r="T328">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="U328">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="V328">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="W328">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="X328">
         <v>-1</v>
       </c>
       <c r="Y328">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Z328">
-        <v>0.125</v>
+        <v>-1</v>
       </c>
       <c r="AA328">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB328">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC328">
-        <v>0</v>
+        <v>0.875</v>
       </c>
       <c r="AD328">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="329" spans="1:30">
@@ -30862,7 +30862,7 @@
         <v>327</v>
       </c>
       <c r="B329">
-        <v>8064706</v>
+        <v>8061283</v>
       </c>
       <c r="C329" t="s">
         <v>29</v>
@@ -30871,16 +30871,16 @@
         <v>45389.25</v>
       </c>
       <c r="E329" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="F329" t="s">
-        <v>91</v>
+        <v>76</v>
       </c>
       <c r="G329">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H329">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I329">
         <v>1</v>
@@ -30889,64 +30889,64 @@
         <v>1</v>
       </c>
       <c r="K329" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="L329">
-        <v>2.55</v>
+        <v>8.5</v>
       </c>
       <c r="M329">
-        <v>3.5</v>
+        <v>5.5</v>
       </c>
       <c r="N329">
-        <v>2.3</v>
+        <v>1.222</v>
       </c>
       <c r="O329">
-        <v>2.55</v>
+        <v>19</v>
       </c>
       <c r="P329">
-        <v>3.5</v>
+        <v>7</v>
       </c>
       <c r="Q329">
-        <v>2.3</v>
+        <v>1.125</v>
       </c>
       <c r="R329">
-        <v>0</v>
+        <v>2.25</v>
       </c>
       <c r="S329">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="T329">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="U329">
         <v>3</v>
       </c>
       <c r="V329">
-        <v>1.75</v>
+        <v>1.825</v>
       </c>
       <c r="W329">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="X329">
-        <v>1.55</v>
+        <v>-1</v>
       </c>
       <c r="Y329">
         <v>-1</v>
       </c>
       <c r="Z329">
-        <v>-1</v>
+        <v>0.125</v>
       </c>
       <c r="AA329">
-        <v>1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB329">
         <v>-1</v>
       </c>
       <c r="AC329">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="AD329">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="330" spans="1:30">
@@ -31322,7 +31322,7 @@
         <v>332</v>
       </c>
       <c r="B334">
-        <v>8061139</v>
+        <v>8061118</v>
       </c>
       <c r="C334" t="s">
         <v>29</v>
@@ -31331,82 +31331,82 @@
         <v>45389.45833333334</v>
       </c>
       <c r="E334" t="s">
-        <v>38</v>
+        <v>62</v>
       </c>
       <c r="F334" t="s">
-        <v>43</v>
+        <v>63</v>
       </c>
       <c r="G334">
+        <v>2</v>
+      </c>
+      <c r="H334">
+        <v>5</v>
+      </c>
+      <c r="I334">
+        <v>1</v>
+      </c>
+      <c r="J334">
         <v>3</v>
       </c>
-      <c r="H334">
-        <v>0</v>
-      </c>
-      <c r="I334">
-        <v>2</v>
-      </c>
-      <c r="J334">
-        <v>0</v>
-      </c>
       <c r="K334" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="L334">
-        <v>1.285</v>
+        <v>3.3</v>
       </c>
       <c r="M334">
-        <v>5.2</v>
+        <v>3.75</v>
       </c>
       <c r="N334">
-        <v>7</v>
+        <v>1.833</v>
       </c>
       <c r="O334">
-        <v>1.285</v>
+        <v>3.3</v>
       </c>
       <c r="P334">
-        <v>5.25</v>
+        <v>3.75</v>
       </c>
       <c r="Q334">
-        <v>7</v>
+        <v>1.833</v>
       </c>
       <c r="R334">
-        <v>-1.75</v>
+        <v>0.5</v>
       </c>
       <c r="S334">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="T334">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="U334">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="V334">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W334">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="X334">
-        <v>0.2849999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Y334">
         <v>-1</v>
       </c>
       <c r="Z334">
-        <v>-1</v>
+        <v>0.833</v>
       </c>
       <c r="AA334">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB334">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC334">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AD334">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="335" spans="1:30">
@@ -31423,7 +31423,7 @@
         <v>45389.45833333334</v>
       </c>
       <c r="E335" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="F335" t="s">
         <v>80</v>
@@ -31518,7 +31518,7 @@
         <v>45</v>
       </c>
       <c r="F336" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G336">
         <v>0</v>
@@ -31607,7 +31607,7 @@
         <v>45389.45833333334</v>
       </c>
       <c r="E337" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F337" t="s">
         <v>30</v>
@@ -31699,7 +31699,7 @@
         <v>45389.45833333334</v>
       </c>
       <c r="E338" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="F338" t="s">
         <v>73</v>
@@ -31782,7 +31782,7 @@
         <v>337</v>
       </c>
       <c r="B339">
-        <v>8061118</v>
+        <v>8061139</v>
       </c>
       <c r="C339" t="s">
         <v>29</v>
@@ -31791,82 +31791,82 @@
         <v>45389.45833333334</v>
       </c>
       <c r="E339" t="s">
-        <v>62</v>
+        <v>38</v>
       </c>
       <c r="F339" t="s">
-        <v>63</v>
+        <v>43</v>
       </c>
       <c r="G339">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H339">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I339">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J339">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K339" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="L339">
-        <v>3.3</v>
+        <v>1.285</v>
       </c>
       <c r="M339">
-        <v>3.75</v>
+        <v>5.2</v>
       </c>
       <c r="N339">
-        <v>1.833</v>
+        <v>7</v>
       </c>
       <c r="O339">
-        <v>3.3</v>
+        <v>1.285</v>
       </c>
       <c r="P339">
-        <v>3.75</v>
+        <v>5.25</v>
       </c>
       <c r="Q339">
-        <v>1.833</v>
+        <v>7</v>
       </c>
       <c r="R339">
-        <v>0.5</v>
+        <v>-1.75</v>
       </c>
       <c r="S339">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="T339">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="U339">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="V339">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W339">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="X339">
-        <v>-1</v>
+        <v>0.2849999999999999</v>
       </c>
       <c r="Y339">
         <v>-1</v>
       </c>
       <c r="Z339">
-        <v>0.833</v>
+        <v>-1</v>
       </c>
       <c r="AA339">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB339">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC339">
-        <v>0.8999999999999999</v>
+        <v>-0.5</v>
       </c>
       <c r="AD339">
-        <v>-1</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="340" spans="1:30">
@@ -31975,10 +31975,10 @@
         <v>45389.45833333334</v>
       </c>
       <c r="E341" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F341" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="G341">
         <v>0</v>
@@ -32162,7 +32162,7 @@
         <v>67</v>
       </c>
       <c r="F343" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G343">
         <v>5</v>
@@ -32254,7 +32254,7 @@
         <v>34</v>
       </c>
       <c r="F344" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G344">
         <v>1</v>
@@ -32714,7 +32714,7 @@
         <v>31</v>
       </c>
       <c r="F349" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="G349">
         <v>0</v>
@@ -33079,10 +33079,10 @@
         <v>45396.45833333334</v>
       </c>
       <c r="E353" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F353" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G353">
         <v>1</v>
@@ -33907,7 +33907,7 @@
         <v>45403.25</v>
       </c>
       <c r="E362" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F362" t="s">
         <v>43</v>
@@ -34091,7 +34091,7 @@
         <v>45403.5</v>
       </c>
       <c r="E364" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F364" t="s">
         <v>59</v>
@@ -34275,10 +34275,10 @@
         <v>45403.5</v>
       </c>
       <c r="E366" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="F366" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G366">
         <v>4</v>
@@ -34643,7 +34643,7 @@
         <v>45403.5</v>
       </c>
       <c r="E370" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F370" t="s">
         <v>82</v>
@@ -34827,10 +34827,10 @@
         <v>45403.5</v>
       </c>
       <c r="E372" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="F372" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G372">
         <v>1</v>
@@ -35198,7 +35198,7 @@
         <v>84</v>
       </c>
       <c r="F376" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="G376">
         <v>0</v>
@@ -35474,7 +35474,7 @@
         <v>75</v>
       </c>
       <c r="F379" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="G379">
         <v>2</v>
@@ -35655,7 +35655,7 @@
         <v>45410.5</v>
       </c>
       <c r="E381" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F381" t="s">
         <v>72</v>
@@ -36023,7 +36023,7 @@
         <v>45410.5</v>
       </c>
       <c r="E385" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F385" t="s">
         <v>45</v>
@@ -36106,7 +36106,7 @@
         <v>384</v>
       </c>
       <c r="B386">
-        <v>8152188</v>
+        <v>8152213</v>
       </c>
       <c r="C386" t="s">
         <v>29</v>
@@ -36115,79 +36115,79 @@
         <v>45410.5</v>
       </c>
       <c r="E386" t="s">
-        <v>60</v>
+        <v>44</v>
       </c>
       <c r="F386" t="s">
-        <v>33</v>
+        <v>65</v>
       </c>
       <c r="G386">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H386">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I386">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J386">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K386" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="L386">
-        <v>2.3</v>
+        <v>1.909</v>
       </c>
       <c r="M386">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="N386">
-        <v>2.6</v>
+        <v>3.25</v>
       </c>
       <c r="O386">
-        <v>2.9</v>
+        <v>1.909</v>
       </c>
       <c r="P386">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="Q386">
-        <v>2.05</v>
+        <v>3.25</v>
       </c>
       <c r="R386">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="S386">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="T386">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="U386">
         <v>2.75</v>
       </c>
       <c r="V386">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="W386">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="X386">
         <v>-1</v>
       </c>
       <c r="Y386">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Z386">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AA386">
         <v>-1</v>
       </c>
       <c r="AB386">
-        <v>0.875</v>
+        <v>0.825</v>
       </c>
       <c r="AC386">
-        <v>0.825</v>
+        <v>0.8</v>
       </c>
       <c r="AD386">
         <v>-1</v>
@@ -36198,7 +36198,7 @@
         <v>385</v>
       </c>
       <c r="B387">
-        <v>8152213</v>
+        <v>8152188</v>
       </c>
       <c r="C387" t="s">
         <v>29</v>
@@ -36207,79 +36207,79 @@
         <v>45410.5</v>
       </c>
       <c r="E387" t="s">
-        <v>44</v>
+        <v>60</v>
       </c>
       <c r="F387" t="s">
-        <v>66</v>
+        <v>33</v>
       </c>
       <c r="G387">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H387">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I387">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J387">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K387" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="L387">
-        <v>1.909</v>
+        <v>2.3</v>
       </c>
       <c r="M387">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="N387">
-        <v>3.25</v>
+        <v>2.6</v>
       </c>
       <c r="O387">
-        <v>1.909</v>
+        <v>2.9</v>
       </c>
       <c r="P387">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="Q387">
-        <v>3.25</v>
+        <v>2.05</v>
       </c>
       <c r="R387">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="S387">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="T387">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="U387">
         <v>2.75</v>
       </c>
       <c r="V387">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="W387">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="X387">
         <v>-1</v>
       </c>
       <c r="Y387">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Z387">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AA387">
         <v>-1</v>
       </c>
       <c r="AB387">
+        <v>0.875</v>
+      </c>
+      <c r="AC387">
         <v>0.825</v>
-      </c>
-      <c r="AC387">
-        <v>0.8</v>
       </c>
       <c r="AD387">
         <v>-1</v>
@@ -36302,7 +36302,7 @@
         <v>71</v>
       </c>
       <c r="F388" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G388">
         <v>3</v>
@@ -36474,7 +36474,7 @@
         <v>388</v>
       </c>
       <c r="B390">
-        <v>8178822</v>
+        <v>8178882</v>
       </c>
       <c r="C390" t="s">
         <v>29</v>
@@ -36483,82 +36483,82 @@
         <v>45417.25</v>
       </c>
       <c r="E390" t="s">
-        <v>33</v>
+        <v>72</v>
       </c>
       <c r="F390" t="s">
-        <v>30</v>
+        <v>83</v>
       </c>
       <c r="G390">
         <v>0</v>
       </c>
       <c r="H390">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I390">
         <v>0</v>
       </c>
       <c r="J390">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K390" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="L390">
+        <v>2.2</v>
+      </c>
+      <c r="M390">
+        <v>3.5</v>
+      </c>
+      <c r="N390">
+        <v>2.7</v>
+      </c>
+      <c r="O390">
+        <v>2.2</v>
+      </c>
+      <c r="P390">
+        <v>3.5</v>
+      </c>
+      <c r="Q390">
+        <v>2.7</v>
+      </c>
+      <c r="R390">
+        <v>-0.25</v>
+      </c>
+      <c r="S390">
+        <v>2</v>
+      </c>
+      <c r="T390">
         <v>1.8</v>
       </c>
-      <c r="M390">
-        <v>3.6</v>
-      </c>
-      <c r="N390">
-        <v>3.6</v>
-      </c>
-      <c r="O390">
-        <v>1.8</v>
-      </c>
-      <c r="P390">
-        <v>3.6</v>
-      </c>
-      <c r="Q390">
-        <v>3.6</v>
-      </c>
-      <c r="R390">
+      <c r="U390">
+        <v>3</v>
+      </c>
+      <c r="V390">
+        <v>1.975</v>
+      </c>
+      <c r="W390">
+        <v>1.825</v>
+      </c>
+      <c r="X390">
+        <v>-1</v>
+      </c>
+      <c r="Y390">
+        <v>2.5</v>
+      </c>
+      <c r="Z390">
+        <v>-1</v>
+      </c>
+      <c r="AA390">
         <v>-0.5</v>
       </c>
-      <c r="S390">
-        <v>1.85</v>
-      </c>
-      <c r="T390">
-        <v>1.95</v>
-      </c>
-      <c r="U390">
-        <v>2.75</v>
-      </c>
-      <c r="V390">
-        <v>1.9</v>
-      </c>
-      <c r="W390">
-        <v>1.9</v>
-      </c>
-      <c r="X390">
-        <v>-1</v>
-      </c>
-      <c r="Y390">
-        <v>-1</v>
-      </c>
-      <c r="Z390">
-        <v>2.6</v>
-      </c>
-      <c r="AA390">
-        <v>-1</v>
-      </c>
       <c r="AB390">
-        <v>0.95</v>
+        <v>0.4</v>
       </c>
       <c r="AC390">
         <v>-1</v>
       </c>
       <c r="AD390">
-        <v>0.8999999999999999</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="391" spans="1:30">
@@ -36566,7 +36566,7 @@
         <v>389</v>
       </c>
       <c r="B391">
-        <v>8178882</v>
+        <v>8178872</v>
       </c>
       <c r="C391" t="s">
         <v>29</v>
@@ -36575,13 +36575,13 @@
         <v>45417.25</v>
       </c>
       <c r="E391" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="F391" t="s">
-        <v>83</v>
+        <v>60</v>
       </c>
       <c r="G391">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H391">
         <v>0</v>
@@ -36593,64 +36593,64 @@
         <v>0</v>
       </c>
       <c r="K391" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="L391">
-        <v>2.2</v>
+        <v>1.571</v>
       </c>
       <c r="M391">
-        <v>3.5</v>
+        <v>4.1</v>
       </c>
       <c r="N391">
-        <v>2.7</v>
+        <v>4.333</v>
       </c>
       <c r="O391">
-        <v>2.2</v>
+        <v>1.571</v>
       </c>
       <c r="P391">
-        <v>3.5</v>
+        <v>4.1</v>
       </c>
       <c r="Q391">
-        <v>2.7</v>
+        <v>4.333</v>
       </c>
       <c r="R391">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="S391">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="T391">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="U391">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="V391">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="W391">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="X391">
-        <v>-1</v>
+        <v>0.571</v>
       </c>
       <c r="Y391">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Z391">
         <v>-1</v>
       </c>
       <c r="AA391">
+        <v>0.925</v>
+      </c>
+      <c r="AB391">
+        <v>-1</v>
+      </c>
+      <c r="AC391">
         <v>-0.5</v>
       </c>
-      <c r="AB391">
-        <v>0.4</v>
-      </c>
-      <c r="AC391">
-        <v>-1</v>
-      </c>
       <c r="AD391">
-        <v>0.825</v>
+        <v>0.425</v>
       </c>
     </row>
     <row r="392" spans="1:30">
@@ -36658,7 +36658,7 @@
         <v>390</v>
       </c>
       <c r="B392">
-        <v>8178872</v>
+        <v>8178822</v>
       </c>
       <c r="C392" t="s">
         <v>29</v>
@@ -36667,82 +36667,82 @@
         <v>45417.25</v>
       </c>
       <c r="E392" t="s">
-        <v>67</v>
+        <v>33</v>
       </c>
       <c r="F392" t="s">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="G392">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H392">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I392">
         <v>0</v>
       </c>
       <c r="J392">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K392" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="L392">
-        <v>1.571</v>
+        <v>1.8</v>
       </c>
       <c r="M392">
-        <v>4.1</v>
+        <v>3.6</v>
       </c>
       <c r="N392">
-        <v>4.333</v>
+        <v>3.6</v>
       </c>
       <c r="O392">
-        <v>1.571</v>
+        <v>1.8</v>
       </c>
       <c r="P392">
-        <v>4.1</v>
+        <v>3.6</v>
       </c>
       <c r="Q392">
-        <v>4.333</v>
+        <v>3.6</v>
       </c>
       <c r="R392">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="S392">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="T392">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="U392">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="V392">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="W392">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="X392">
-        <v>0.571</v>
+        <v>-1</v>
       </c>
       <c r="Y392">
         <v>-1</v>
       </c>
       <c r="Z392">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="AA392">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB392">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC392">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AD392">
-        <v>0.425</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="393" spans="1:30">
@@ -36759,7 +36759,7 @@
         <v>45417.5</v>
       </c>
       <c r="E393" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="F393" t="s">
         <v>81</v>
@@ -36943,7 +36943,7 @@
         <v>45417.5</v>
       </c>
       <c r="E395" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F395" t="s">
         <v>42</v>
@@ -37035,7 +37035,7 @@
         <v>45417.5</v>
       </c>
       <c r="E396" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="F396" t="s">
         <v>78</v>
@@ -37311,7 +37311,7 @@
         <v>45417.5</v>
       </c>
       <c r="E399" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F399" t="s">
         <v>94</v>
@@ -37682,7 +37682,7 @@
         <v>32</v>
       </c>
       <c r="F403" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="G403">
         <v>0</v>
@@ -37866,7 +37866,7 @@
         <v>31</v>
       </c>
       <c r="F405" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="G405">
         <v>1</v>
@@ -38234,7 +38234,7 @@
         <v>82</v>
       </c>
       <c r="F409" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="G409">
         <v>1</v>
@@ -38323,7 +38323,7 @@
         <v>45424.5</v>
       </c>
       <c r="E410" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F410" t="s">
         <v>73</v>
@@ -38510,7 +38510,7 @@
         <v>36</v>
       </c>
       <c r="F412" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="G412">
         <v>2</v>
@@ -38878,7 +38878,7 @@
         <v>71</v>
       </c>
       <c r="F416" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G416">
         <v>0</v>
@@ -39427,7 +39427,7 @@
         <v>45431.5</v>
       </c>
       <c r="E422" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F422" t="s">
         <v>37</v>
@@ -39519,7 +39519,7 @@
         <v>45431.5</v>
       </c>
       <c r="E423" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="F423" t="s">
         <v>35</v>
@@ -39703,7 +39703,7 @@
         <v>45431.5</v>
       </c>
       <c r="E425" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F425" t="s">
         <v>84</v>
@@ -39795,7 +39795,7 @@
         <v>45431.5</v>
       </c>
       <c r="E426" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F426" t="s">
         <v>76</v>
@@ -40160,7 +40160,7 @@
         <v>59</v>
       </c>
       <c r="F430" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="G430">
         <v>0</v>
@@ -41094,7 +41094,7 @@
         <v>439</v>
       </c>
       <c r="B441">
-        <v>8260041</v>
+        <v>8260042</v>
       </c>
       <c r="C441" t="s">
         <v>29</v>
@@ -41103,76 +41103,76 @@
         <v>45438.5</v>
       </c>
       <c r="E441" t="s">
-        <v>36</v>
+        <v>81</v>
       </c>
       <c r="F441" t="s">
-        <v>95</v>
+        <v>73</v>
       </c>
       <c r="G441">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H441">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K441" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="L441">
-        <v>2.55</v>
+        <v>1.3</v>
       </c>
       <c r="M441">
-        <v>3.75</v>
+        <v>5</v>
       </c>
       <c r="N441">
-        <v>2.2</v>
+        <v>7</v>
       </c>
       <c r="O441">
-        <v>2.55</v>
+        <v>1.3</v>
       </c>
       <c r="P441">
-        <v>3.75</v>
+        <v>4.75</v>
       </c>
       <c r="Q441">
-        <v>2.2</v>
+        <v>7.5</v>
       </c>
       <c r="R441">
-        <v>0</v>
+        <v>-1.75</v>
       </c>
       <c r="S441">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="T441">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="U441">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="V441">
+        <v>1.775</v>
+      </c>
+      <c r="W441">
         <v>1.925</v>
       </c>
-      <c r="W441">
-        <v>1.875</v>
-      </c>
       <c r="X441">
-        <v>1.55</v>
+        <v>-1</v>
       </c>
       <c r="Y441">
         <v>-1</v>
       </c>
       <c r="Z441">
-        <v>-1</v>
+        <v>6.5</v>
       </c>
       <c r="AA441">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AB441">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC441">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="AD441">
-        <v>0</v>
+        <v>0.4625</v>
       </c>
     </row>
     <row r="442" spans="1:30">
@@ -41180,7 +41180,7 @@
         <v>440</v>
       </c>
       <c r="B442">
-        <v>8260042</v>
+        <v>8260043</v>
       </c>
       <c r="C442" t="s">
         <v>29</v>
@@ -41189,10 +41189,10 @@
         <v>45438.5</v>
       </c>
       <c r="E442" t="s">
-        <v>81</v>
+        <v>56</v>
       </c>
       <c r="F442" t="s">
-        <v>73</v>
+        <v>52</v>
       </c>
       <c r="G442">
         <v>1</v>
@@ -41204,41 +41204,41 @@
         <v>100</v>
       </c>
       <c r="L442">
-        <v>1.3</v>
+        <v>3</v>
       </c>
       <c r="M442">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N442">
-        <v>7</v>
+        <v>1.909</v>
       </c>
       <c r="O442">
-        <v>1.3</v>
+        <v>3</v>
       </c>
       <c r="P442">
-        <v>4.75</v>
+        <v>4</v>
       </c>
       <c r="Q442">
-        <v>7.5</v>
+        <v>1.909</v>
       </c>
       <c r="R442">
-        <v>-1.75</v>
+        <v>0.5</v>
       </c>
       <c r="S442">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="T442">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="U442">
         <v>3.25</v>
       </c>
       <c r="V442">
+        <v>2.025</v>
+      </c>
+      <c r="W442">
         <v>1.775</v>
       </c>
-      <c r="W442">
-        <v>1.925</v>
-      </c>
       <c r="X442">
         <v>-1</v>
       </c>
@@ -41246,19 +41246,19 @@
         <v>-1</v>
       </c>
       <c r="Z442">
-        <v>6.5</v>
+        <v>0.909</v>
       </c>
       <c r="AA442">
         <v>-1</v>
       </c>
       <c r="AB442">
-        <v>0.8500000000000001</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC442">
         <v>-0.5</v>
       </c>
       <c r="AD442">
-        <v>0.4625</v>
+        <v>0.3875</v>
       </c>
     </row>
     <row r="443" spans="1:30">
@@ -41266,7 +41266,7 @@
         <v>441</v>
       </c>
       <c r="B443">
-        <v>8260043</v>
+        <v>8260041</v>
       </c>
       <c r="C443" t="s">
         <v>29</v>
@@ -41275,76 +41275,76 @@
         <v>45438.5</v>
       </c>
       <c r="E443" t="s">
-        <v>57</v>
+        <v>36</v>
       </c>
       <c r="F443" t="s">
-        <v>54</v>
+        <v>95</v>
       </c>
       <c r="G443">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H443">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K443" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="L443">
+        <v>2.55</v>
+      </c>
+      <c r="M443">
+        <v>3.75</v>
+      </c>
+      <c r="N443">
+        <v>2.2</v>
+      </c>
+      <c r="O443">
+        <v>2.55</v>
+      </c>
+      <c r="P443">
+        <v>3.75</v>
+      </c>
+      <c r="Q443">
+        <v>2.2</v>
+      </c>
+      <c r="R443">
+        <v>0</v>
+      </c>
+      <c r="S443">
+        <v>2.05</v>
+      </c>
+      <c r="T443">
+        <v>1.75</v>
+      </c>
+      <c r="U443">
         <v>3</v>
       </c>
-      <c r="M443">
-        <v>4</v>
-      </c>
-      <c r="N443">
-        <v>1.909</v>
-      </c>
-      <c r="O443">
-        <v>3</v>
-      </c>
-      <c r="P443">
-        <v>4</v>
-      </c>
-      <c r="Q443">
-        <v>1.909</v>
-      </c>
-      <c r="R443">
-        <v>0.5</v>
-      </c>
-      <c r="S443">
-        <v>1.825</v>
-      </c>
-      <c r="T443">
-        <v>1.975</v>
-      </c>
-      <c r="U443">
-        <v>3.25</v>
-      </c>
       <c r="V443">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="W443">
-        <v>1.775</v>
+        <v>1.875</v>
       </c>
       <c r="X443">
-        <v>-1</v>
+        <v>1.55</v>
       </c>
       <c r="Y443">
         <v>-1</v>
       </c>
       <c r="Z443">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="AA443">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AB443">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC443">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="AD443">
-        <v>0.3875</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Hungary NB III/Hungary NB III.xlsx
+++ b/Hungary NB III/Hungary NB III.xlsx
@@ -160,34 +160,34 @@
     <t>Kecskemeti TE II</t>
   </si>
   <si>
-    <t>Bicskei TC</t>
+    <t>FC Nagykanizsa</t>
   </si>
   <si>
     <t>Vasas SC II</t>
   </si>
   <si>
-    <t>FC Nagykanizsa</t>
+    <t>FC Tatabanya</t>
   </si>
   <si>
-    <t>FC Tatabanya</t>
+    <t>Bicskei TC</t>
+  </si>
+  <si>
+    <t>FC Tiszaujvaros</t>
+  </si>
+  <si>
+    <t>Cegledi VSE</t>
   </si>
   <si>
     <t>III Keruleti TUE</t>
   </si>
   <si>
-    <t>Cegledi VSE</t>
-  </si>
-  <si>
-    <t>FC Tiszaujvaros</t>
-  </si>
-  <si>
     <t>Debreceni II</t>
   </si>
   <si>
-    <t>Kelen SC</t>
+    <t>PEAC FC</t>
   </si>
   <si>
-    <t>PEAC FC</t>
+    <t>Kelen SC</t>
   </si>
   <si>
     <t>Dunaujvaros PASE</t>
@@ -796,7 +796,7 @@
         <v>30</v>
       </c>
       <c r="F2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G2">
         <v>1</v>
@@ -1072,7 +1072,7 @@
         <v>33</v>
       </c>
       <c r="F5" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -1348,7 +1348,7 @@
         <v>36</v>
       </c>
       <c r="F8" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="G8">
         <v>1</v>
@@ -1900,7 +1900,7 @@
         <v>42</v>
       </c>
       <c r="F14" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -2532,7 +2532,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>7005723</v>
+        <v>7005759</v>
       </c>
       <c r="C21" t="s">
         <v>29</v>
@@ -2544,10 +2544,10 @@
         <v>48</v>
       </c>
       <c r="F21" t="s">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="G21">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -2559,64 +2559,64 @@
         <v>0</v>
       </c>
       <c r="K21" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="L21">
-        <v>1.909</v>
+        <v>2.4</v>
       </c>
       <c r="M21">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="N21">
-        <v>3.1</v>
+        <v>2.25</v>
       </c>
       <c r="O21">
-        <v>1.909</v>
+        <v>2.4</v>
       </c>
       <c r="P21">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="Q21">
-        <v>3.1</v>
+        <v>2.25</v>
       </c>
       <c r="R21">
+        <v>0.25</v>
+      </c>
+      <c r="S21">
+        <v>1.725</v>
+      </c>
+      <c r="T21">
+        <v>2.075</v>
+      </c>
+      <c r="U21">
+        <v>3.5</v>
+      </c>
+      <c r="V21">
+        <v>1.85</v>
+      </c>
+      <c r="W21">
+        <v>1.95</v>
+      </c>
+      <c r="X21">
+        <v>-1</v>
+      </c>
+      <c r="Y21">
+        <v>3</v>
+      </c>
+      <c r="Z21">
+        <v>-1</v>
+      </c>
+      <c r="AA21">
+        <v>0.3625</v>
+      </c>
+      <c r="AB21">
         <v>-0.5</v>
       </c>
-      <c r="S21">
-        <v>1.975</v>
-      </c>
-      <c r="T21">
-        <v>1.825</v>
-      </c>
-      <c r="U21">
-        <v>2.75</v>
-      </c>
-      <c r="V21">
-        <v>1.875</v>
-      </c>
-      <c r="W21">
-        <v>1.925</v>
-      </c>
-      <c r="X21">
-        <v>0.909</v>
-      </c>
-      <c r="Y21">
-        <v>-1</v>
-      </c>
-      <c r="Z21">
-        <v>-1</v>
-      </c>
-      <c r="AA21">
-        <v>0.9750000000000001</v>
-      </c>
-      <c r="AB21">
-        <v>-1</v>
-      </c>
       <c r="AC21">
         <v>-1</v>
       </c>
       <c r="AD21">
-        <v>0.925</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="22" spans="1:30">
@@ -2716,7 +2716,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>7005759</v>
+        <v>7005728</v>
       </c>
       <c r="C23" t="s">
         <v>29</v>
@@ -2728,79 +2728,79 @@
         <v>50</v>
       </c>
       <c r="F23" t="s">
-        <v>76</v>
+        <v>59</v>
       </c>
       <c r="G23">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="L23">
-        <v>2.4</v>
+        <v>1.4</v>
       </c>
       <c r="M23">
-        <v>4</v>
+        <v>4.75</v>
       </c>
       <c r="N23">
-        <v>2.25</v>
+        <v>5.5</v>
       </c>
       <c r="O23">
-        <v>2.4</v>
+        <v>1.3</v>
       </c>
       <c r="P23">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Q23">
-        <v>2.25</v>
+        <v>7</v>
       </c>
       <c r="R23">
-        <v>0.25</v>
+        <v>-1.5</v>
       </c>
       <c r="S23">
-        <v>1.725</v>
+        <v>1.85</v>
       </c>
       <c r="T23">
-        <v>2.075</v>
+        <v>1.95</v>
       </c>
       <c r="U23">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="V23">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W23">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="X23">
-        <v>-1</v>
+        <v>0.3</v>
       </c>
       <c r="Y23">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Z23">
         <v>-1</v>
       </c>
       <c r="AA23">
-        <v>0.3625</v>
+        <v>-1</v>
       </c>
       <c r="AB23">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
       <c r="AC23">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AD23">
-        <v>0.95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:30">
@@ -2808,7 +2808,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>7005728</v>
+        <v>7005723</v>
       </c>
       <c r="C24" t="s">
         <v>29</v>
@@ -2820,16 +2820,16 @@
         <v>51</v>
       </c>
       <c r="F24" t="s">
-        <v>59</v>
+        <v>37</v>
       </c>
       <c r="G24">
         <v>2</v>
       </c>
       <c r="H24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -2838,43 +2838,43 @@
         <v>101</v>
       </c>
       <c r="L24">
-        <v>1.4</v>
+        <v>1.909</v>
       </c>
       <c r="M24">
-        <v>4.75</v>
+        <v>3.75</v>
       </c>
       <c r="N24">
-        <v>5.5</v>
+        <v>3.1</v>
       </c>
       <c r="O24">
-        <v>1.3</v>
+        <v>1.909</v>
       </c>
       <c r="P24">
-        <v>5</v>
+        <v>3.75</v>
       </c>
       <c r="Q24">
-        <v>7</v>
+        <v>3.1</v>
       </c>
       <c r="R24">
-        <v>-1.5</v>
+        <v>-0.5</v>
       </c>
       <c r="S24">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="T24">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="U24">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="V24">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="W24">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="X24">
-        <v>0.3</v>
+        <v>0.909</v>
       </c>
       <c r="Y24">
         <v>-1</v>
@@ -2883,16 +2883,16 @@
         <v>-1</v>
       </c>
       <c r="AA24">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB24">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC24">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AD24">
-        <v>0</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="25" spans="1:30">
@@ -2900,7 +2900,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>7005724</v>
+        <v>7005762</v>
       </c>
       <c r="C25" t="s">
         <v>29</v>
@@ -2912,79 +2912,79 @@
         <v>52</v>
       </c>
       <c r="F25" t="s">
-        <v>69</v>
+        <v>32</v>
       </c>
       <c r="G25">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="L25">
-        <v>1.2</v>
+        <v>2.25</v>
       </c>
       <c r="M25">
-        <v>6.5</v>
+        <v>4</v>
       </c>
       <c r="N25">
-        <v>9</v>
+        <v>2.4</v>
       </c>
       <c r="O25">
-        <v>1.142</v>
+        <v>2.25</v>
       </c>
       <c r="P25">
-        <v>7.5</v>
+        <v>4</v>
       </c>
       <c r="Q25">
-        <v>12</v>
+        <v>2.45</v>
       </c>
       <c r="R25">
-        <v>-2.25</v>
+        <v>-0.25</v>
       </c>
       <c r="S25">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="T25">
-        <v>1.95</v>
+        <v>1.75</v>
       </c>
       <c r="U25">
-        <v>3.5</v>
+        <v>2.75</v>
       </c>
       <c r="V25">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="W25">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="X25">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="Y25">
-        <v>6.5</v>
+        <v>-1</v>
       </c>
       <c r="Z25">
         <v>-1</v>
       </c>
       <c r="AA25">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AB25">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC25">
         <v>-1</v>
       </c>
       <c r="AD25">
-        <v>0.825</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:30">
@@ -3084,7 +3084,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>7005762</v>
+        <v>7005724</v>
       </c>
       <c r="C27" t="s">
         <v>29</v>
@@ -3096,79 +3096,79 @@
         <v>54</v>
       </c>
       <c r="F27" t="s">
-        <v>32</v>
+        <v>69</v>
       </c>
       <c r="G27">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H27">
         <v>0</v>
       </c>
       <c r="I27">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J27">
         <v>0</v>
       </c>
       <c r="K27" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="L27">
-        <v>2.25</v>
+        <v>1.2</v>
       </c>
       <c r="M27">
-        <v>4</v>
+        <v>6.5</v>
       </c>
       <c r="N27">
-        <v>2.4</v>
+        <v>9</v>
       </c>
       <c r="O27">
-        <v>2.25</v>
+        <v>1.142</v>
       </c>
       <c r="P27">
-        <v>4</v>
+        <v>7.5</v>
       </c>
       <c r="Q27">
-        <v>2.45</v>
+        <v>12</v>
       </c>
       <c r="R27">
-        <v>-0.25</v>
+        <v>-2.25</v>
       </c>
       <c r="S27">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="T27">
-        <v>1.75</v>
+        <v>1.95</v>
       </c>
       <c r="U27">
-        <v>2.75</v>
+        <v>3.5</v>
       </c>
       <c r="V27">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="W27">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="X27">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="Y27">
-        <v>-1</v>
+        <v>6.5</v>
       </c>
       <c r="Z27">
         <v>-1</v>
       </c>
       <c r="AA27">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AB27">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC27">
         <v>-1</v>
       </c>
       <c r="AD27">
-        <v>1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="28" spans="1:30">
@@ -3268,7 +3268,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>7005726</v>
+        <v>7005761</v>
       </c>
       <c r="C29" t="s">
         <v>29</v>
@@ -3280,22 +3280,22 @@
         <v>56</v>
       </c>
       <c r="F29" t="s">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="G29">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H29">
         <v>1</v>
       </c>
       <c r="I29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J29">
         <v>0</v>
       </c>
       <c r="K29" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="L29">
         <v>2.25</v>
@@ -3307,52 +3307,52 @@
         <v>2.5</v>
       </c>
       <c r="O29">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="P29">
         <v>3.75</v>
       </c>
       <c r="Q29">
-        <v>2.5</v>
+        <v>2.9</v>
       </c>
       <c r="R29">
         <v>-0.25</v>
       </c>
       <c r="S29">
-        <v>2.05</v>
+        <v>1.8</v>
       </c>
       <c r="T29">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="U29">
+        <v>2.5</v>
+      </c>
+      <c r="V29">
+        <v>1.85</v>
+      </c>
+      <c r="W29">
+        <v>1.95</v>
+      </c>
+      <c r="X29">
+        <v>-1</v>
+      </c>
+      <c r="Y29">
         <v>2.75</v>
       </c>
-      <c r="V29">
-        <v>1.8</v>
-      </c>
-      <c r="W29">
-        <v>2</v>
-      </c>
-      <c r="X29">
-        <v>1.25</v>
-      </c>
-      <c r="Y29">
-        <v>-1</v>
-      </c>
       <c r="Z29">
         <v>-1</v>
       </c>
       <c r="AA29">
-        <v>1.05</v>
+        <v>-0.5</v>
       </c>
       <c r="AB29">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="AC29">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
       <c r="AD29">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="30" spans="1:30">
@@ -3360,7 +3360,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>7005761</v>
+        <v>7005726</v>
       </c>
       <c r="C30" t="s">
         <v>29</v>
@@ -3372,22 +3372,22 @@
         <v>57</v>
       </c>
       <c r="F30" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="G30">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H30">
         <v>1</v>
       </c>
       <c r="I30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J30">
         <v>0</v>
       </c>
       <c r="K30" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="L30">
         <v>2.25</v>
@@ -3399,52 +3399,52 @@
         <v>2.5</v>
       </c>
       <c r="O30">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="P30">
         <v>3.75</v>
       </c>
       <c r="Q30">
-        <v>2.9</v>
+        <v>2.5</v>
       </c>
       <c r="R30">
         <v>-0.25</v>
       </c>
       <c r="S30">
+        <v>2.05</v>
+      </c>
+      <c r="T30">
+        <v>1.75</v>
+      </c>
+      <c r="U30">
+        <v>2.75</v>
+      </c>
+      <c r="V30">
         <v>1.8</v>
       </c>
-      <c r="T30">
-        <v>2</v>
-      </c>
-      <c r="U30">
-        <v>2.5</v>
-      </c>
-      <c r="V30">
-        <v>1.85</v>
-      </c>
       <c r="W30">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="X30">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="Y30">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Z30">
         <v>-1</v>
       </c>
       <c r="AA30">
+        <v>1.05</v>
+      </c>
+      <c r="AB30">
+        <v>-1</v>
+      </c>
+      <c r="AC30">
+        <v>0.4</v>
+      </c>
+      <c r="AD30">
         <v>-0.5</v>
-      </c>
-      <c r="AB30">
-        <v>0.5</v>
-      </c>
-      <c r="AC30">
-        <v>-1</v>
-      </c>
-      <c r="AD30">
-        <v>0.95</v>
       </c>
     </row>
     <row r="31" spans="1:30">
@@ -3464,7 +3464,7 @@
         <v>58</v>
       </c>
       <c r="F31" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="G31">
         <v>0</v>
@@ -3544,7 +3544,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>7055632</v>
+        <v>7055644</v>
       </c>
       <c r="C32" t="s">
         <v>29</v>
@@ -3553,82 +3553,82 @@
         <v>45151.25</v>
       </c>
       <c r="E32" t="s">
-        <v>30</v>
+        <v>59</v>
       </c>
       <c r="F32" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="G32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H32">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I32">
         <v>0</v>
       </c>
       <c r="J32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K32" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="L32">
-        <v>9</v>
+        <v>2.2</v>
       </c>
       <c r="M32">
-        <v>5.5</v>
+        <v>3.75</v>
       </c>
       <c r="N32">
-        <v>1.222</v>
+        <v>2.55</v>
       </c>
       <c r="O32">
-        <v>9</v>
+        <v>2.2</v>
       </c>
       <c r="P32">
-        <v>5.5</v>
+        <v>3.75</v>
       </c>
       <c r="Q32">
-        <v>1.222</v>
+        <v>2.55</v>
       </c>
       <c r="R32">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="S32">
-        <v>1.875</v>
+        <v>1.75</v>
       </c>
       <c r="T32">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="U32">
-        <v>3.5</v>
+        <v>2.75</v>
       </c>
       <c r="V32">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="W32">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="X32">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="Y32">
         <v>-1</v>
       </c>
       <c r="Z32">
-        <v>0.222</v>
+        <v>-1</v>
       </c>
       <c r="AA32">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="AB32">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC32">
         <v>-1</v>
       </c>
       <c r="AD32">
-        <v>0.7749999999999999</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:30">
@@ -3636,7 +3636,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>7055639</v>
+        <v>7055632</v>
       </c>
       <c r="C33" t="s">
         <v>29</v>
@@ -3645,82 +3645,82 @@
         <v>45151.25</v>
       </c>
       <c r="E33" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="F33" t="s">
-        <v>48</v>
+        <v>71</v>
       </c>
       <c r="G33">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H33">
         <v>2</v>
       </c>
       <c r="I33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J33">
         <v>1</v>
       </c>
       <c r="K33" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="L33">
-        <v>2.625</v>
+        <v>9</v>
       </c>
       <c r="M33">
-        <v>3.75</v>
+        <v>5.5</v>
       </c>
       <c r="N33">
-        <v>2.15</v>
+        <v>1.222</v>
       </c>
       <c r="O33">
-        <v>3.1</v>
+        <v>9</v>
       </c>
       <c r="P33">
-        <v>3.75</v>
+        <v>5.5</v>
       </c>
       <c r="Q33">
-        <v>1.909</v>
+        <v>1.222</v>
       </c>
       <c r="R33">
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="S33">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="T33">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="U33">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="V33">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="W33">
-        <v>1.925</v>
+        <v>1.775</v>
       </c>
       <c r="X33">
         <v>-1</v>
       </c>
       <c r="Y33">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Z33">
-        <v>-1</v>
+        <v>0.222</v>
       </c>
       <c r="AA33">
-        <v>0.8500000000000001</v>
+        <v>0</v>
       </c>
       <c r="AB33">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC33">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AD33">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
     </row>
     <row r="34" spans="1:30">
@@ -3728,7 +3728,7 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>7055640</v>
+        <v>7055638</v>
       </c>
       <c r="C34" t="s">
         <v>29</v>
@@ -3737,79 +3737,79 @@
         <v>45151.25</v>
       </c>
       <c r="E34" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F34" t="s">
-        <v>39</v>
+        <v>80</v>
       </c>
       <c r="G34">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H34">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J34">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K34" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="L34">
-        <v>1.571</v>
+        <v>2.625</v>
       </c>
       <c r="M34">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="N34">
-        <v>4.5</v>
+        <v>2.2</v>
       </c>
       <c r="O34">
-        <v>1.75</v>
+        <v>3</v>
       </c>
       <c r="P34">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="Q34">
-        <v>3.6</v>
+        <v>2</v>
       </c>
       <c r="R34">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="S34">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="T34">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="U34">
         <v>3</v>
       </c>
       <c r="V34">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="W34">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="X34">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="Y34">
         <v>-1</v>
       </c>
       <c r="Z34">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA34">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB34">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC34">
-        <v>0.8</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AD34">
         <v>-1</v>
@@ -3820,7 +3820,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>7055638</v>
+        <v>7055639</v>
       </c>
       <c r="C35" t="s">
         <v>29</v>
@@ -3829,79 +3829,79 @@
         <v>45151.25</v>
       </c>
       <c r="E35" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F35" t="s">
-        <v>80</v>
+        <v>51</v>
       </c>
       <c r="G35">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H35">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J35">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K35" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="L35">
         <v>2.625</v>
       </c>
       <c r="M35">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="N35">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="O35">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="P35">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="Q35">
-        <v>2</v>
+        <v>1.909</v>
       </c>
       <c r="R35">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="S35">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="T35">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="U35">
         <v>3</v>
       </c>
       <c r="V35">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="W35">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="X35">
         <v>-1</v>
       </c>
       <c r="Y35">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Z35">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA35">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB35">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC35">
-        <v>0.8999999999999999</v>
+        <v>0.875</v>
       </c>
       <c r="AD35">
         <v>-1</v>
@@ -3912,7 +3912,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>7055644</v>
+        <v>7055640</v>
       </c>
       <c r="C36" t="s">
         <v>29</v>
@@ -3921,19 +3921,19 @@
         <v>45151.25</v>
       </c>
       <c r="E36" t="s">
-        <v>59</v>
+        <v>31</v>
       </c>
       <c r="F36" t="s">
-        <v>73</v>
+        <v>39</v>
       </c>
       <c r="G36">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H36">
         <v>0</v>
       </c>
       <c r="I36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J36">
         <v>0</v>
@@ -3942,34 +3942,34 @@
         <v>101</v>
       </c>
       <c r="L36">
-        <v>2.2</v>
+        <v>1.571</v>
       </c>
       <c r="M36">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="N36">
-        <v>2.55</v>
+        <v>4.5</v>
       </c>
       <c r="O36">
-        <v>2.2</v>
+        <v>1.75</v>
       </c>
       <c r="P36">
         <v>3.75</v>
       </c>
       <c r="Q36">
-        <v>2.55</v>
+        <v>3.6</v>
       </c>
       <c r="R36">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="S36">
-        <v>1.75</v>
+        <v>1.775</v>
       </c>
       <c r="T36">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="U36">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="V36">
         <v>1.8</v>
@@ -3978,7 +3978,7 @@
         <v>2</v>
       </c>
       <c r="X36">
-        <v>1.2</v>
+        <v>0.75</v>
       </c>
       <c r="Y36">
         <v>-1</v>
@@ -3987,16 +3987,16 @@
         <v>-1</v>
       </c>
       <c r="AA36">
-        <v>0.75</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB36">
         <v>-1</v>
       </c>
       <c r="AC36">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AD36">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="37" spans="1:30">
@@ -4108,7 +4108,7 @@
         <v>60</v>
       </c>
       <c r="F38" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="G38">
         <v>3</v>
@@ -4936,7 +4936,7 @@
         <v>42</v>
       </c>
       <c r="F47" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G47">
         <v>1</v>
@@ -5485,7 +5485,7 @@
         <v>45157.52083333334</v>
       </c>
       <c r="E53" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F53" t="s">
         <v>37</v>
@@ -5577,7 +5577,7 @@
         <v>45157.52083333334</v>
       </c>
       <c r="E54" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F54" t="s">
         <v>64</v>
@@ -5669,7 +5669,7 @@
         <v>45157.52083333334</v>
       </c>
       <c r="E55" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F55" t="s">
         <v>30</v>
@@ -5761,7 +5761,7 @@
         <v>45157.52083333334</v>
       </c>
       <c r="E56" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F56" t="s">
         <v>61</v>
@@ -6129,7 +6129,7 @@
         <v>45157.52083333334</v>
       </c>
       <c r="E60" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="F60" t="s">
         <v>67</v>
@@ -6868,7 +6868,7 @@
         <v>33</v>
       </c>
       <c r="F68" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G68">
         <v>2</v>
@@ -7601,10 +7601,10 @@
         <v>45168.52083333334</v>
       </c>
       <c r="E76" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="F76" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="G76">
         <v>3</v>
@@ -8429,7 +8429,7 @@
         <v>45172.45833333334</v>
       </c>
       <c r="E85" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F85" t="s">
         <v>42</v>
@@ -10453,10 +10453,10 @@
         <v>45178.45833333334</v>
       </c>
       <c r="E107" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="F107" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G107">
         <v>1</v>
@@ -10548,7 +10548,7 @@
         <v>37</v>
       </c>
       <c r="F108" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="G108">
         <v>1</v>
@@ -10637,7 +10637,7 @@
         <v>45178.45833333334</v>
       </c>
       <c r="E109" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="F109" t="s">
         <v>45</v>
@@ -10729,7 +10729,7 @@
         <v>45178.45833333334</v>
       </c>
       <c r="E110" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F110" t="s">
         <v>95</v>
@@ -11008,7 +11008,7 @@
         <v>30</v>
       </c>
       <c r="F113" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="G113">
         <v>1</v>
@@ -11741,7 +11741,7 @@
         <v>45193.45833333334</v>
       </c>
       <c r="E121" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F121" t="s">
         <v>33</v>
@@ -11925,7 +11925,7 @@
         <v>45193.45833333334</v>
       </c>
       <c r="E123" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F123" t="s">
         <v>45</v>
@@ -12753,7 +12753,7 @@
         <v>45198.45833333334</v>
       </c>
       <c r="E132" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F132" t="s">
         <v>70</v>
@@ -13397,7 +13397,7 @@
         <v>45200.41666666666</v>
       </c>
       <c r="E139" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F139" t="s">
         <v>67</v>
@@ -13949,10 +13949,10 @@
         <v>45200.41666666666</v>
       </c>
       <c r="E145" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="F145" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G145">
         <v>3</v>
@@ -15237,10 +15237,10 @@
         <v>45207.41666666666</v>
       </c>
       <c r="E159" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F159" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="G159">
         <v>0</v>
@@ -15789,7 +15789,7 @@
         <v>45214.41666666666</v>
       </c>
       <c r="E165" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="F165" t="s">
         <v>69</v>
@@ -15881,7 +15881,7 @@
         <v>45214.41666666666</v>
       </c>
       <c r="E166" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F166" t="s">
         <v>75</v>
@@ -16157,7 +16157,7 @@
         <v>45214.41666666666</v>
       </c>
       <c r="E169" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F169" t="s">
         <v>71</v>
@@ -16525,7 +16525,7 @@
         <v>45214.41666666666</v>
       </c>
       <c r="E173" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="F173" t="s">
         <v>73</v>
@@ -16620,7 +16620,7 @@
         <v>45</v>
       </c>
       <c r="F174" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="G174">
         <v>3</v>
@@ -17908,7 +17908,7 @@
         <v>78</v>
       </c>
       <c r="F188" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G188">
         <v>1</v>
@@ -17997,10 +17997,10 @@
         <v>45221.33333333334</v>
       </c>
       <c r="E189" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F189" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G189">
         <v>1</v>
@@ -18092,7 +18092,7 @@
         <v>42</v>
       </c>
       <c r="F190" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="G190">
         <v>5</v>
@@ -18184,7 +18184,7 @@
         <v>81</v>
       </c>
       <c r="F191" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="G191">
         <v>1</v>
@@ -18736,7 +18736,7 @@
         <v>73</v>
       </c>
       <c r="F197" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="G197">
         <v>1</v>
@@ -18825,7 +18825,7 @@
         <v>45228.375</v>
       </c>
       <c r="E198" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="F198" t="s">
         <v>71</v>
@@ -18917,7 +18917,7 @@
         <v>45228.375</v>
       </c>
       <c r="E199" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F199" t="s">
         <v>69</v>
@@ -19009,7 +19009,7 @@
         <v>45228.375</v>
       </c>
       <c r="E200" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F200" t="s">
         <v>36</v>
@@ -19564,7 +19564,7 @@
         <v>30</v>
       </c>
       <c r="F206" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="G206">
         <v>0</v>
@@ -19748,7 +19748,7 @@
         <v>35</v>
       </c>
       <c r="F208" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G208">
         <v>0</v>
@@ -20113,7 +20113,7 @@
         <v>45235.375</v>
       </c>
       <c r="E212" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F212" t="s">
         <v>71</v>
@@ -20300,7 +20300,7 @@
         <v>81</v>
       </c>
       <c r="F214" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G214">
         <v>1</v>
@@ -20757,7 +20757,7 @@
         <v>45242.375</v>
       </c>
       <c r="E219" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F219" t="s">
         <v>58</v>
@@ -20849,10 +20849,10 @@
         <v>45242.375</v>
       </c>
       <c r="E220" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="F220" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="G220">
         <v>1</v>
@@ -21125,7 +21125,7 @@
         <v>45242.375</v>
       </c>
       <c r="E223" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F223" t="s">
         <v>63</v>
@@ -21493,7 +21493,7 @@
         <v>45248.375</v>
       </c>
       <c r="E227" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="F227" t="s">
         <v>42</v>
@@ -21585,7 +21585,7 @@
         <v>45248.375</v>
       </c>
       <c r="E228" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F228" t="s">
         <v>69</v>
@@ -21677,7 +21677,7 @@
         <v>45248.375</v>
       </c>
       <c r="E229" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="F229" t="s">
         <v>33</v>
@@ -21861,7 +21861,7 @@
         <v>45248.375</v>
       </c>
       <c r="E231" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F231" t="s">
         <v>30</v>
@@ -22045,7 +22045,7 @@
         <v>45248.375</v>
       </c>
       <c r="E233" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F233" t="s">
         <v>83</v>
@@ -22137,7 +22137,7 @@
         <v>45248.375</v>
       </c>
       <c r="E234" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F234" t="s">
         <v>36</v>
@@ -22968,7 +22968,7 @@
         <v>81</v>
       </c>
       <c r="F243" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="G243">
         <v>3</v>
@@ -23606,7 +23606,7 @@
         <v>67</v>
       </c>
       <c r="F250" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="G250">
         <v>2</v>
@@ -23971,7 +23971,7 @@
         <v>45354.41666666666</v>
       </c>
       <c r="E254" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F254" t="s">
         <v>66</v>
@@ -24155,7 +24155,7 @@
         <v>45354.41666666666</v>
       </c>
       <c r="E256" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F256" t="s">
         <v>60</v>
@@ -24431,7 +24431,7 @@
         <v>45354.41666666666</v>
       </c>
       <c r="E259" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F259" t="s">
         <v>41</v>
@@ -24802,7 +24802,7 @@
         <v>30</v>
       </c>
       <c r="F263" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="G263">
         <v>0</v>
@@ -25078,7 +25078,7 @@
         <v>67</v>
       </c>
       <c r="F266" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="G266">
         <v>0</v>
@@ -25538,7 +25538,7 @@
         <v>37</v>
       </c>
       <c r="F271" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G271">
         <v>0</v>
@@ -25811,7 +25811,7 @@
         <v>45361.41666666666</v>
       </c>
       <c r="E274" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="F274" t="s">
         <v>81</v>
@@ -26363,7 +26363,7 @@
         <v>45368.41666666666</v>
       </c>
       <c r="E280" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F280" t="s">
         <v>93</v>
@@ -26731,7 +26731,7 @@
         <v>45368.41666666666</v>
       </c>
       <c r="E284" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F284" t="s">
         <v>59</v>
@@ -26915,10 +26915,10 @@
         <v>45368.41666666666</v>
       </c>
       <c r="E286" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="F286" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="G286">
         <v>0</v>
@@ -27099,7 +27099,7 @@
         <v>45368.41666666666</v>
       </c>
       <c r="E288" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F288" t="s">
         <v>72</v>
@@ -27654,7 +27654,7 @@
         <v>67</v>
       </c>
       <c r="F294" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G294">
         <v>3</v>
@@ -27746,7 +27746,7 @@
         <v>55</v>
       </c>
       <c r="F295" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G295">
         <v>4</v>
@@ -27835,7 +27835,7 @@
         <v>45375.41666666666</v>
       </c>
       <c r="E296" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="F296" t="s">
         <v>45</v>
@@ -28019,7 +28019,7 @@
         <v>45375.41666666666</v>
       </c>
       <c r="E298" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="F298" t="s">
         <v>60</v>
@@ -28114,7 +28114,7 @@
         <v>42</v>
       </c>
       <c r="F299" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="G299">
         <v>2</v>
@@ -28203,7 +28203,7 @@
         <v>45375.41666666666</v>
       </c>
       <c r="E300" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F300" t="s">
         <v>86</v>
@@ -28666,7 +28666,7 @@
         <v>41</v>
       </c>
       <c r="F305" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="G305">
         <v>0</v>
@@ -29859,7 +29859,7 @@
         <v>45382.45833333334</v>
       </c>
       <c r="E318" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F318" t="s">
         <v>64</v>
@@ -30043,10 +30043,10 @@
         <v>45382.45833333334</v>
       </c>
       <c r="E320" t="s">
+        <v>50</v>
+      </c>
+      <c r="F320" t="s">
         <v>51</v>
-      </c>
-      <c r="F320" t="s">
-        <v>48</v>
       </c>
       <c r="G320">
         <v>1</v>
@@ -30135,7 +30135,7 @@
         <v>45382.45833333334</v>
       </c>
       <c r="E321" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F321" t="s">
         <v>37</v>
@@ -30506,7 +30506,7 @@
         <v>45</v>
       </c>
       <c r="F325" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="G325">
         <v>0</v>
@@ -30782,7 +30782,7 @@
         <v>33</v>
       </c>
       <c r="F328" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="G328">
         <v>2</v>
@@ -31423,7 +31423,7 @@
         <v>45389.45833333334</v>
       </c>
       <c r="E335" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F335" t="s">
         <v>80</v>
@@ -31518,7 +31518,7 @@
         <v>45</v>
       </c>
       <c r="F336" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G336">
         <v>0</v>
@@ -31607,7 +31607,7 @@
         <v>45389.45833333334</v>
       </c>
       <c r="E337" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="F337" t="s">
         <v>30</v>
@@ -31699,7 +31699,7 @@
         <v>45389.45833333334</v>
       </c>
       <c r="E338" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="F338" t="s">
         <v>73</v>
@@ -31975,10 +31975,10 @@
         <v>45389.45833333334</v>
       </c>
       <c r="E341" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F341" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="G341">
         <v>0</v>
@@ -32162,7 +32162,7 @@
         <v>67</v>
       </c>
       <c r="F343" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="G343">
         <v>5</v>
@@ -33079,10 +33079,10 @@
         <v>45396.45833333334</v>
       </c>
       <c r="E353" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F353" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="G353">
         <v>1</v>
@@ -34091,7 +34091,7 @@
         <v>45403.5</v>
       </c>
       <c r="E364" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="F364" t="s">
         <v>59</v>
@@ -34275,10 +34275,10 @@
         <v>45403.5</v>
       </c>
       <c r="E366" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="F366" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="G366">
         <v>4</v>
@@ -34643,7 +34643,7 @@
         <v>45403.5</v>
       </c>
       <c r="E370" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F370" t="s">
         <v>82</v>
@@ -34827,7 +34827,7 @@
         <v>45403.5</v>
       </c>
       <c r="E372" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F372" t="s">
         <v>85</v>
@@ -35198,7 +35198,7 @@
         <v>84</v>
       </c>
       <c r="F376" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G376">
         <v>0</v>
@@ -35474,7 +35474,7 @@
         <v>75</v>
       </c>
       <c r="F379" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G379">
         <v>2</v>
@@ -35655,7 +35655,7 @@
         <v>45410.5</v>
       </c>
       <c r="E381" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F381" t="s">
         <v>72</v>
@@ -36023,7 +36023,7 @@
         <v>45410.5</v>
       </c>
       <c r="E385" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F385" t="s">
         <v>45</v>
@@ -36302,7 +36302,7 @@
         <v>71</v>
       </c>
       <c r="F388" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G388">
         <v>3</v>
@@ -36474,7 +36474,7 @@
         <v>388</v>
       </c>
       <c r="B390">
-        <v>8178882</v>
+        <v>8178822</v>
       </c>
       <c r="C390" t="s">
         <v>29</v>
@@ -36483,82 +36483,82 @@
         <v>45417.25</v>
       </c>
       <c r="E390" t="s">
-        <v>72</v>
+        <v>33</v>
       </c>
       <c r="F390" t="s">
-        <v>83</v>
+        <v>30</v>
       </c>
       <c r="G390">
         <v>0</v>
       </c>
       <c r="H390">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I390">
         <v>0</v>
       </c>
       <c r="J390">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K390" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="L390">
-        <v>2.2</v>
+        <v>1.8</v>
       </c>
       <c r="M390">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="N390">
-        <v>2.7</v>
+        <v>3.6</v>
       </c>
       <c r="O390">
-        <v>2.2</v>
+        <v>1.8</v>
       </c>
       <c r="P390">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="Q390">
-        <v>2.7</v>
+        <v>3.6</v>
       </c>
       <c r="R390">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="S390">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="T390">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="U390">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="V390">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="W390">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="X390">
         <v>-1</v>
       </c>
       <c r="Y390">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Z390">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="AA390">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB390">
-        <v>0.4</v>
+        <v>0.95</v>
       </c>
       <c r="AC390">
         <v>-1</v>
       </c>
       <c r="AD390">
-        <v>0.825</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="391" spans="1:30">
@@ -36566,7 +36566,7 @@
         <v>389</v>
       </c>
       <c r="B391">
-        <v>8178872</v>
+        <v>8178882</v>
       </c>
       <c r="C391" t="s">
         <v>29</v>
@@ -36575,82 +36575,82 @@
         <v>45417.25</v>
       </c>
       <c r="E391" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="F391" t="s">
-        <v>60</v>
+        <v>83</v>
       </c>
       <c r="G391">
+        <v>0</v>
+      </c>
+      <c r="H391">
+        <v>0</v>
+      </c>
+      <c r="I391">
+        <v>0</v>
+      </c>
+      <c r="J391">
+        <v>0</v>
+      </c>
+      <c r="K391" t="s">
+        <v>102</v>
+      </c>
+      <c r="L391">
+        <v>2.2</v>
+      </c>
+      <c r="M391">
+        <v>3.5</v>
+      </c>
+      <c r="N391">
+        <v>2.7</v>
+      </c>
+      <c r="O391">
+        <v>2.2</v>
+      </c>
+      <c r="P391">
+        <v>3.5</v>
+      </c>
+      <c r="Q391">
+        <v>2.7</v>
+      </c>
+      <c r="R391">
+        <v>-0.25</v>
+      </c>
+      <c r="S391">
+        <v>2</v>
+      </c>
+      <c r="T391">
+        <v>1.8</v>
+      </c>
+      <c r="U391">
         <v>3</v>
       </c>
-      <c r="H391">
-        <v>0</v>
-      </c>
-      <c r="I391">
-        <v>0</v>
-      </c>
-      <c r="J391">
-        <v>0</v>
-      </c>
-      <c r="K391" t="s">
-        <v>101</v>
-      </c>
-      <c r="L391">
-        <v>1.571</v>
-      </c>
-      <c r="M391">
-        <v>4.1</v>
-      </c>
-      <c r="N391">
-        <v>4.333</v>
-      </c>
-      <c r="O391">
-        <v>1.571</v>
-      </c>
-      <c r="P391">
-        <v>4.1</v>
-      </c>
-      <c r="Q391">
-        <v>4.333</v>
-      </c>
-      <c r="R391">
-        <v>-1</v>
-      </c>
-      <c r="S391">
-        <v>1.925</v>
-      </c>
-      <c r="T391">
-        <v>1.875</v>
-      </c>
-      <c r="U391">
-        <v>3.25</v>
-      </c>
       <c r="V391">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W391">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="X391">
-        <v>0.571</v>
+        <v>-1</v>
       </c>
       <c r="Y391">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Z391">
         <v>-1</v>
       </c>
       <c r="AA391">
-        <v>0.925</v>
+        <v>-0.5</v>
       </c>
       <c r="AB391">
-        <v>-1</v>
+        <v>0.4</v>
       </c>
       <c r="AC391">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AD391">
-        <v>0.425</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="392" spans="1:30">
@@ -36658,7 +36658,7 @@
         <v>390</v>
       </c>
       <c r="B392">
-        <v>8178822</v>
+        <v>8178872</v>
       </c>
       <c r="C392" t="s">
         <v>29</v>
@@ -36667,82 +36667,82 @@
         <v>45417.25</v>
       </c>
       <c r="E392" t="s">
-        <v>33</v>
+        <v>67</v>
       </c>
       <c r="F392" t="s">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="G392">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H392">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I392">
         <v>0</v>
       </c>
       <c r="J392">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K392" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="L392">
-        <v>1.8</v>
+        <v>1.571</v>
       </c>
       <c r="M392">
-        <v>3.6</v>
+        <v>4.1</v>
       </c>
       <c r="N392">
-        <v>3.6</v>
+        <v>4.333</v>
       </c>
       <c r="O392">
-        <v>1.8</v>
+        <v>1.571</v>
       </c>
       <c r="P392">
-        <v>3.6</v>
+        <v>4.1</v>
       </c>
       <c r="Q392">
-        <v>3.6</v>
+        <v>4.333</v>
       </c>
       <c r="R392">
+        <v>-1</v>
+      </c>
+      <c r="S392">
+        <v>1.925</v>
+      </c>
+      <c r="T392">
+        <v>1.875</v>
+      </c>
+      <c r="U392">
+        <v>3.25</v>
+      </c>
+      <c r="V392">
+        <v>1.95</v>
+      </c>
+      <c r="W392">
+        <v>1.85</v>
+      </c>
+      <c r="X392">
+        <v>0.571</v>
+      </c>
+      <c r="Y392">
+        <v>-1</v>
+      </c>
+      <c r="Z392">
+        <v>-1</v>
+      </c>
+      <c r="AA392">
+        <v>0.925</v>
+      </c>
+      <c r="AB392">
+        <v>-1</v>
+      </c>
+      <c r="AC392">
         <v>-0.5</v>
       </c>
-      <c r="S392">
-        <v>1.85</v>
-      </c>
-      <c r="T392">
-        <v>1.95</v>
-      </c>
-      <c r="U392">
-        <v>2.75</v>
-      </c>
-      <c r="V392">
-        <v>1.9</v>
-      </c>
-      <c r="W392">
-        <v>1.9</v>
-      </c>
-      <c r="X392">
-        <v>-1</v>
-      </c>
-      <c r="Y392">
-        <v>-1</v>
-      </c>
-      <c r="Z392">
-        <v>2.6</v>
-      </c>
-      <c r="AA392">
-        <v>-1</v>
-      </c>
-      <c r="AB392">
-        <v>0.95</v>
-      </c>
-      <c r="AC392">
-        <v>-1</v>
-      </c>
       <c r="AD392">
-        <v>0.8999999999999999</v>
+        <v>0.425</v>
       </c>
     </row>
     <row r="393" spans="1:30">
@@ -36759,7 +36759,7 @@
         <v>45417.5</v>
       </c>
       <c r="E393" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="F393" t="s">
         <v>81</v>
@@ -36943,7 +36943,7 @@
         <v>45417.5</v>
       </c>
       <c r="E395" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="F395" t="s">
         <v>42</v>
@@ -37035,7 +37035,7 @@
         <v>45417.5</v>
       </c>
       <c r="E396" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F396" t="s">
         <v>78</v>
@@ -37311,7 +37311,7 @@
         <v>45417.5</v>
       </c>
       <c r="E399" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F399" t="s">
         <v>94</v>
@@ -37578,7 +37578,7 @@
         <v>400</v>
       </c>
       <c r="B402">
-        <v>8205657</v>
+        <v>8205453</v>
       </c>
       <c r="C402" t="s">
         <v>29</v>
@@ -37587,46 +37587,46 @@
         <v>45424.25</v>
       </c>
       <c r="E402" t="s">
-        <v>75</v>
+        <v>32</v>
       </c>
       <c r="F402" t="s">
-        <v>95</v>
+        <v>66</v>
       </c>
       <c r="G402">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H402">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I402">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J402">
         <v>0</v>
       </c>
       <c r="K402" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="L402">
-        <v>1.909</v>
+        <v>5</v>
       </c>
       <c r="M402">
-        <v>4.4</v>
+        <v>5</v>
       </c>
       <c r="N402">
-        <v>2.75</v>
+        <v>1.4</v>
       </c>
       <c r="O402">
-        <v>2.05</v>
+        <v>5</v>
       </c>
       <c r="P402">
-        <v>4.333</v>
+        <v>5</v>
       </c>
       <c r="Q402">
-        <v>2.5</v>
+        <v>1.4</v>
       </c>
       <c r="R402">
-        <v>-0.25</v>
+        <v>1.25</v>
       </c>
       <c r="S402">
         <v>1.95</v>
@@ -37638,31 +37638,31 @@
         <v>3</v>
       </c>
       <c r="V402">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W402">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="X402">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="Y402">
         <v>-1</v>
       </c>
       <c r="Z402">
-        <v>-1</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="AA402">
+        <v>-1</v>
+      </c>
+      <c r="AB402">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="AC402">
+        <v>-1</v>
+      </c>
+      <c r="AD402">
         <v>0.95</v>
-      </c>
-      <c r="AB402">
-        <v>-1</v>
-      </c>
-      <c r="AC402">
-        <v>0.8999999999999999</v>
-      </c>
-      <c r="AD402">
-        <v>-1</v>
       </c>
     </row>
     <row r="403" spans="1:30">
@@ -37670,7 +37670,7 @@
         <v>401</v>
       </c>
       <c r="B403">
-        <v>8205453</v>
+        <v>8205657</v>
       </c>
       <c r="C403" t="s">
         <v>29</v>
@@ -37679,46 +37679,46 @@
         <v>45424.25</v>
       </c>
       <c r="E403" t="s">
-        <v>32</v>
+        <v>75</v>
       </c>
       <c r="F403" t="s">
-        <v>66</v>
+        <v>95</v>
       </c>
       <c r="G403">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H403">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I403">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J403">
         <v>0</v>
       </c>
       <c r="K403" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="L403">
-        <v>5</v>
+        <v>1.909</v>
       </c>
       <c r="M403">
-        <v>5</v>
+        <v>4.4</v>
       </c>
       <c r="N403">
-        <v>1.4</v>
+        <v>2.75</v>
       </c>
       <c r="O403">
-        <v>5</v>
+        <v>2.05</v>
       </c>
       <c r="P403">
-        <v>5</v>
+        <v>4.333</v>
       </c>
       <c r="Q403">
-        <v>1.4</v>
+        <v>2.5</v>
       </c>
       <c r="R403">
-        <v>1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="S403">
         <v>1.95</v>
@@ -37730,31 +37730,31 @@
         <v>3</v>
       </c>
       <c r="V403">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W403">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="X403">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="Y403">
         <v>-1</v>
       </c>
       <c r="Z403">
-        <v>0.3999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA403">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB403">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC403">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AD403">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="404" spans="1:30">
@@ -37854,7 +37854,7 @@
         <v>403</v>
       </c>
       <c r="B405">
-        <v>8205455</v>
+        <v>8205467</v>
       </c>
       <c r="C405" t="s">
         <v>29</v>
@@ -37863,55 +37863,55 @@
         <v>45424.25</v>
       </c>
       <c r="E405" t="s">
-        <v>31</v>
+        <v>59</v>
       </c>
       <c r="F405" t="s">
-        <v>54</v>
+        <v>33</v>
       </c>
       <c r="G405">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H405">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I405">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J405">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K405" t="s">
         <v>100</v>
       </c>
       <c r="L405">
-        <v>2</v>
+        <v>4.4</v>
       </c>
       <c r="M405">
         <v>4</v>
       </c>
       <c r="N405">
-        <v>2.75</v>
+        <v>1.571</v>
       </c>
       <c r="O405">
-        <v>2</v>
+        <v>4.333</v>
       </c>
       <c r="P405">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="Q405">
-        <v>2.875</v>
+        <v>1.615</v>
       </c>
       <c r="R405">
-        <v>-0.25</v>
+        <v>1</v>
       </c>
       <c r="S405">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="T405">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="U405">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="V405">
         <v>1.9</v>
@@ -37926,19 +37926,19 @@
         <v>-1</v>
       </c>
       <c r="Z405">
-        <v>1.875</v>
+        <v>0.615</v>
       </c>
       <c r="AA405">
         <v>-1</v>
       </c>
       <c r="AB405">
-        <v>0.9750000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="AC405">
-        <v>0.45</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AD405">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="406" spans="1:30">
@@ -37946,7 +37946,7 @@
         <v>404</v>
       </c>
       <c r="B406">
-        <v>8205467</v>
+        <v>8205455</v>
       </c>
       <c r="C406" t="s">
         <v>29</v>
@@ -37955,55 +37955,55 @@
         <v>45424.25</v>
       </c>
       <c r="E406" t="s">
-        <v>59</v>
+        <v>31</v>
       </c>
       <c r="F406" t="s">
-        <v>33</v>
+        <v>52</v>
       </c>
       <c r="G406">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H406">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I406">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J406">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K406" t="s">
         <v>100</v>
       </c>
       <c r="L406">
-        <v>4.4</v>
+        <v>2</v>
       </c>
       <c r="M406">
         <v>4</v>
       </c>
       <c r="N406">
-        <v>1.571</v>
+        <v>2.75</v>
       </c>
       <c r="O406">
-        <v>4.333</v>
+        <v>2</v>
       </c>
       <c r="P406">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="Q406">
-        <v>1.615</v>
+        <v>2.875</v>
       </c>
       <c r="R406">
-        <v>1</v>
+        <v>-0.25</v>
       </c>
       <c r="S406">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="T406">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="U406">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="V406">
         <v>1.9</v>
@@ -38018,19 +38018,19 @@
         <v>-1</v>
       </c>
       <c r="Z406">
-        <v>0.615</v>
+        <v>1.875</v>
       </c>
       <c r="AA406">
         <v>-1</v>
       </c>
       <c r="AB406">
-        <v>0.95</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC406">
-        <v>0.8999999999999999</v>
+        <v>0.45</v>
       </c>
       <c r="AD406">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="407" spans="1:30">
@@ -38234,7 +38234,7 @@
         <v>82</v>
       </c>
       <c r="F409" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="G409">
         <v>1</v>
@@ -38323,7 +38323,7 @@
         <v>45424.5</v>
       </c>
       <c r="E410" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F410" t="s">
         <v>73</v>
@@ -38498,7 +38498,7 @@
         <v>410</v>
       </c>
       <c r="B412">
-        <v>8205692</v>
+        <v>8205457</v>
       </c>
       <c r="C412" t="s">
         <v>29</v>
@@ -38507,13 +38507,13 @@
         <v>45424.5</v>
       </c>
       <c r="E412" t="s">
-        <v>36</v>
+        <v>63</v>
       </c>
       <c r="F412" t="s">
-        <v>57</v>
+        <v>93</v>
       </c>
       <c r="G412">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H412">
         <v>1</v>
@@ -38528,43 +38528,43 @@
         <v>101</v>
       </c>
       <c r="L412">
-        <v>1.909</v>
+        <v>1.727</v>
       </c>
       <c r="M412">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="N412">
-        <v>3.2</v>
+        <v>3.75</v>
       </c>
       <c r="O412">
-        <v>1.909</v>
+        <v>1.7</v>
       </c>
       <c r="P412">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="Q412">
-        <v>3.25</v>
+        <v>3.8</v>
       </c>
       <c r="R412">
         <v>-0.5</v>
       </c>
       <c r="S412">
-        <v>1.95</v>
+        <v>1.75</v>
       </c>
       <c r="T412">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="U412">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="V412">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="W412">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="X412">
-        <v>0.909</v>
+        <v>0.7</v>
       </c>
       <c r="Y412">
         <v>-1</v>
@@ -38573,13 +38573,13 @@
         <v>-1</v>
       </c>
       <c r="AA412">
-        <v>0.95</v>
+        <v>0.75</v>
       </c>
       <c r="AB412">
         <v>-1</v>
       </c>
       <c r="AC412">
-        <v>0.8</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AD412">
         <v>-1</v>
@@ -38590,7 +38590,7 @@
         <v>411</v>
       </c>
       <c r="B413">
-        <v>8205457</v>
+        <v>8205639</v>
       </c>
       <c r="C413" t="s">
         <v>29</v>
@@ -38599,19 +38599,19 @@
         <v>45424.5</v>
       </c>
       <c r="E413" t="s">
-        <v>63</v>
+        <v>44</v>
       </c>
       <c r="F413" t="s">
-        <v>93</v>
+        <v>49</v>
       </c>
       <c r="G413">
+        <v>4</v>
+      </c>
+      <c r="H413">
         <v>3</v>
       </c>
-      <c r="H413">
-        <v>1</v>
-      </c>
       <c r="I413">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J413">
         <v>1</v>
@@ -38620,43 +38620,43 @@
         <v>101</v>
       </c>
       <c r="L413">
-        <v>1.727</v>
+        <v>2.625</v>
       </c>
       <c r="M413">
-        <v>3.75</v>
+        <v>4.333</v>
       </c>
       <c r="N413">
-        <v>3.75</v>
+        <v>2</v>
       </c>
       <c r="O413">
+        <v>3.25</v>
+      </c>
+      <c r="P413">
+        <v>4.75</v>
+      </c>
+      <c r="Q413">
         <v>1.7</v>
       </c>
-      <c r="P413">
-        <v>3.75</v>
-      </c>
-      <c r="Q413">
-        <v>3.8</v>
-      </c>
       <c r="R413">
-        <v>-0.5</v>
+        <v>0.75</v>
       </c>
       <c r="S413">
-        <v>1.75</v>
+        <v>1.9</v>
       </c>
       <c r="T413">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="U413">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="V413">
-        <v>1.775</v>
+        <v>1.875</v>
       </c>
       <c r="W413">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="X413">
-        <v>0.7</v>
+        <v>2.25</v>
       </c>
       <c r="Y413">
         <v>-1</v>
@@ -38665,13 +38665,13 @@
         <v>-1</v>
       </c>
       <c r="AA413">
-        <v>0.75</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB413">
         <v>-1</v>
       </c>
       <c r="AC413">
-        <v>0.7749999999999999</v>
+        <v>0.875</v>
       </c>
       <c r="AD413">
         <v>-1</v>
@@ -38682,7 +38682,7 @@
         <v>412</v>
       </c>
       <c r="B414">
-        <v>8205639</v>
+        <v>8205692</v>
       </c>
       <c r="C414" t="s">
         <v>29</v>
@@ -38691,19 +38691,19 @@
         <v>45424.5</v>
       </c>
       <c r="E414" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="F414" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="G414">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H414">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I414">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J414">
         <v>1</v>
@@ -38712,43 +38712,43 @@
         <v>101</v>
       </c>
       <c r="L414">
-        <v>2.625</v>
+        <v>1.909</v>
       </c>
       <c r="M414">
-        <v>4.333</v>
+        <v>3.6</v>
       </c>
       <c r="N414">
-        <v>2</v>
+        <v>3.2</v>
       </c>
       <c r="O414">
+        <v>1.909</v>
+      </c>
+      <c r="P414">
+        <v>3.6</v>
+      </c>
+      <c r="Q414">
         <v>3.25</v>
       </c>
-      <c r="P414">
-        <v>4.75</v>
-      </c>
-      <c r="Q414">
-        <v>1.7</v>
-      </c>
       <c r="R414">
-        <v>0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="S414">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="T414">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="U414">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="V414">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="W414">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="X414">
-        <v>2.25</v>
+        <v>0.909</v>
       </c>
       <c r="Y414">
         <v>-1</v>
@@ -38757,13 +38757,13 @@
         <v>-1</v>
       </c>
       <c r="AA414">
-        <v>0.8999999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="AB414">
         <v>-1</v>
       </c>
       <c r="AC414">
-        <v>0.875</v>
+        <v>0.8</v>
       </c>
       <c r="AD414">
         <v>-1</v>
@@ -38878,7 +38878,7 @@
         <v>71</v>
       </c>
       <c r="F416" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="G416">
         <v>0</v>
@@ -39427,7 +39427,7 @@
         <v>45431.5</v>
       </c>
       <c r="E422" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="F422" t="s">
         <v>37</v>
@@ -39519,7 +39519,7 @@
         <v>45431.5</v>
       </c>
       <c r="E423" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F423" t="s">
         <v>35</v>
@@ -39795,7 +39795,7 @@
         <v>45431.5</v>
       </c>
       <c r="E426" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F426" t="s">
         <v>76</v>
@@ -40160,7 +40160,7 @@
         <v>59</v>
       </c>
       <c r="F430" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="G430">
         <v>0</v>
@@ -41189,10 +41189,10 @@
         <v>45438.5</v>
       </c>
       <c r="E442" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F442" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="G442">
         <v>1</v>
